--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21df80ec97692de0/Documentos/GitHub/ARKAD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED3FB38A01992D4CF165FAF907565B4AB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7CAD5E-80A6-461B-AE6A-551291E7C701}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -241,8 +247,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,11 +311,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -351,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,9 +397,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,6 +449,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,14 +642,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C804"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -621,7 +676,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -632,7 +687,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -643,7 +698,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -654,7 +709,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -665,7 +720,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -676,7 +731,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -687,7 +742,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -698,7 +753,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -709,7 +764,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -720,7 +775,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -731,7 +786,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -742,7 +797,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -753,7 +808,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -764,7 +819,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -775,7 +830,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -786,7 +841,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -797,7 +852,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -808,7 +863,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -819,7 +874,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -830,7 +885,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -841,7 +896,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -852,7 +907,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -863,7 +918,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -874,7 +929,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -885,7 +940,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -896,7 +951,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -907,7 +962,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -918,7 +973,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -929,7 +984,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -940,7 +995,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -951,7 +1006,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -962,7 +1017,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -973,7 +1028,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -984,7 +1039,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1050,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1061,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1072,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1083,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1094,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +1105,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1116,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1127,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1138,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1149,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1160,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1171,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1182,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1193,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1204,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1215,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1226,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1237,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1248,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1259,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1270,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1281,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1292,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1303,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1314,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1336,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1292,7 +1347,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1358,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1369,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1380,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1336,7 +1391,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1402,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +1413,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1424,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1380,7 +1435,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1391,7 +1446,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1457,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1468,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1479,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1490,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -1446,7 +1501,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1512,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -1468,7 +1523,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1534,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1545,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1556,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1567,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1578,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1589,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1600,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +1611,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1622,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1633,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -1589,7 +1644,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1655,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -1611,7 +1666,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -1622,7 +1677,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +1688,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1699,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1710,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -1666,7 +1721,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +1732,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1743,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -1699,7 +1754,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -1710,7 +1765,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1776,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1787,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +1798,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -1754,7 +1809,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -1765,7 +1820,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +1831,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -1787,7 +1842,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +1853,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1864,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1875,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +1886,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -1842,7 +1897,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1908,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -1864,7 +1919,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -1875,7 +1930,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -1886,7 +1941,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -1897,7 +1952,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -1908,7 +1963,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -1919,7 +1974,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1985,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -1941,7 +1996,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -1952,7 +2007,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -1963,7 +2018,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -1974,7 +2029,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +2040,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +2051,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -2007,7 +2062,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -2018,7 +2073,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +2084,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +2095,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -2051,7 +2106,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -2062,7 +2117,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -2073,7 +2128,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2139,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -2095,7 +2150,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2161,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -2117,7 +2172,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2183,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -2139,7 +2194,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -2150,7 +2205,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -2161,7 +2216,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -2172,7 +2227,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -2183,7 +2238,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -2194,7 +2249,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -2205,7 +2260,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -2216,7 +2271,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -2227,7 +2282,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -2238,7 +2293,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -2249,7 +2304,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2315,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -2271,7 +2326,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -2282,7 +2337,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -2293,7 +2348,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -2304,7 +2359,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -2315,7 +2370,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -2326,7 +2381,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -2337,7 +2392,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -2348,7 +2403,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2414,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -2370,7 +2425,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -2381,7 +2436,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -2392,7 +2447,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -2403,7 +2458,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -2414,7 +2469,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -2425,7 +2480,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -2436,7 +2491,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -2447,7 +2502,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -2458,7 +2513,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -2469,7 +2524,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -2480,7 +2535,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -2491,7 +2546,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -2502,7 +2557,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -2513,7 +2568,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -2524,7 +2579,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +2590,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -2546,7 +2601,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -2557,7 +2612,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -2568,7 +2623,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -2579,7 +2634,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -2590,7 +2645,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -2601,7 +2656,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2667,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -2623,7 +2678,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2689,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -2645,7 +2700,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -2656,7 +2711,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -2667,7 +2722,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2733,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -2689,7 +2744,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -2700,7 +2755,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -2711,7 +2766,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -2722,7 +2777,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -2733,7 +2788,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -2744,7 +2799,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -2755,7 +2810,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -2766,7 +2821,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -2777,7 +2832,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -2788,7 +2843,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -2799,7 +2854,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -2810,7 +2865,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -2821,7 +2876,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -2832,7 +2887,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -2843,7 +2898,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -2854,7 +2909,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -2865,7 +2920,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -2876,7 +2931,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -2887,7 +2942,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>22</v>
       </c>
@@ -2898,7 +2953,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2964,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -2920,7 +2975,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2986,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -2942,7 +2997,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -2953,7 +3008,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -2964,7 +3019,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -2975,7 +3030,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -2986,7 +3041,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -2997,7 +3052,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -3008,7 +3063,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -3019,7 +3074,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -3030,7 +3085,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -3041,7 +3096,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -3052,7 +3107,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -3063,7 +3118,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -3074,7 +3129,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -3085,7 +3140,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -3096,7 +3151,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -3107,7 +3162,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3173,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>24</v>
       </c>
@@ -3129,7 +3184,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>24</v>
       </c>
@@ -3140,7 +3195,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>24</v>
       </c>
@@ -3151,7 +3206,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -3162,7 +3217,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -3173,7 +3228,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -3184,7 +3239,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -3195,7 +3250,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -3206,7 +3261,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -3217,7 +3272,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -3228,7 +3283,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -3239,7 +3294,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>25</v>
       </c>
@@ -3250,7 +3305,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>25</v>
       </c>
@@ -3261,7 +3316,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>25</v>
       </c>
@@ -3272,7 +3327,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -3283,7 +3338,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -3294,7 +3349,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -3305,7 +3360,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -3316,7 +3371,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -3327,7 +3382,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -3338,7 +3393,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -3349,7 +3404,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -3360,7 +3415,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -3371,7 +3426,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -3382,7 +3437,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -3393,7 +3448,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -3404,7 +3459,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -3415,7 +3470,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -3426,7 +3481,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -3437,7 +3492,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -3448,7 +3503,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -3459,7 +3514,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -3470,7 +3525,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -3481,7 +3536,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -3492,7 +3547,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>27</v>
       </c>
@@ -3503,7 +3558,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -3514,7 +3569,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -3525,7 +3580,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -3536,7 +3591,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -3547,7 +3602,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>28</v>
       </c>
@@ -3558,7 +3613,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>28</v>
       </c>
@@ -3569,7 +3624,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>28</v>
       </c>
@@ -3580,7 +3635,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>28</v>
       </c>
@@ -3591,7 +3646,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>28</v>
       </c>
@@ -3602,7 +3657,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>28</v>
       </c>
@@ -3613,7 +3668,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>28</v>
       </c>
@@ -3624,7 +3679,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>28</v>
       </c>
@@ -3635,7 +3690,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>28</v>
       </c>
@@ -3646,7 +3701,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>28</v>
       </c>
@@ -3657,7 +3712,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -3668,7 +3723,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>28</v>
       </c>
@@ -3679,7 +3734,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>28</v>
       </c>
@@ -3690,7 +3745,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>29</v>
       </c>
@@ -3701,7 +3756,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>29</v>
       </c>
@@ -3712,7 +3767,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>29</v>
       </c>
@@ -3723,7 +3778,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>29</v>
       </c>
@@ -3734,7 +3789,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>29</v>
       </c>
@@ -3745,7 +3800,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>29</v>
       </c>
@@ -3756,7 +3811,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -3767,7 +3822,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -3778,7 +3833,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>30</v>
       </c>
@@ -3789,7 +3844,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>30</v>
       </c>
@@ -3800,7 +3855,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>30</v>
       </c>
@@ -3811,7 +3866,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>30</v>
       </c>
@@ -3822,7 +3877,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>30</v>
       </c>
@@ -3833,7 +3888,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>30</v>
       </c>
@@ -3844,7 +3899,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>30</v>
       </c>
@@ -3855,7 +3910,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>30</v>
       </c>
@@ -3866,7 +3921,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>30</v>
       </c>
@@ -3877,7 +3932,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>30</v>
       </c>
@@ -3888,7 +3943,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>30</v>
       </c>
@@ -3899,7 +3954,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>30</v>
       </c>
@@ -3910,7 +3965,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>31</v>
       </c>
@@ -3921,7 +3976,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>31</v>
       </c>
@@ -3932,7 +3987,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>31</v>
       </c>
@@ -3943,7 +3998,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>31</v>
       </c>
@@ -3954,7 +4009,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>31</v>
       </c>
@@ -3965,7 +4020,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>31</v>
       </c>
@@ -3976,7 +4031,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>31</v>
       </c>
@@ -3987,7 +4042,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -3998,7 +4053,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>31</v>
       </c>
@@ -4009,7 +4064,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>31</v>
       </c>
@@ -4020,7 +4075,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>31</v>
       </c>
@@ -4031,7 +4086,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>31</v>
       </c>
@@ -4042,7 +4097,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>31</v>
       </c>
@@ -4053,7 +4108,7 @@
         <v>20072008</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>31</v>
       </c>
@@ -4064,7 +4119,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4130,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -4086,7 +4141,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>32</v>
       </c>
@@ -4097,7 +4152,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>32</v>
       </c>
@@ -4108,7 +4163,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>32</v>
       </c>
@@ -4119,7 +4174,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -4130,7 +4185,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>32</v>
       </c>
@@ -4141,7 +4196,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>32</v>
       </c>
@@ -4152,7 +4207,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>32</v>
       </c>
@@ -4163,7 +4218,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>32</v>
       </c>
@@ -4174,7 +4229,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>32</v>
       </c>
@@ -4185,7 +4240,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>32</v>
       </c>
@@ -4196,7 +4251,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -4207,7 +4262,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>33</v>
       </c>
@@ -4218,7 +4273,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -4229,7 +4284,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -4240,7 +4295,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -4251,7 +4306,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>33</v>
       </c>
@@ -4262,7 +4317,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>33</v>
       </c>
@@ -4273,7 +4328,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>33</v>
       </c>
@@ -4284,7 +4339,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>33</v>
       </c>
@@ -4295,7 +4350,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>33</v>
       </c>
@@ -4306,7 +4361,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>33</v>
       </c>
@@ -4317,7 +4372,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>33</v>
       </c>
@@ -4328,7 +4383,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>33</v>
       </c>
@@ -4339,7 +4394,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>33</v>
       </c>
@@ -4350,7 +4405,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>34</v>
       </c>
@@ -4361,7 +4416,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -4372,7 +4427,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>34</v>
       </c>
@@ -4383,7 +4438,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>34</v>
       </c>
@@ -4394,7 +4449,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>34</v>
       </c>
@@ -4405,7 +4460,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>34</v>
       </c>
@@ -4416,7 +4471,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>34</v>
       </c>
@@ -4427,7 +4482,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>34</v>
       </c>
@@ -4438,7 +4493,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>34</v>
       </c>
@@ -4449,7 +4504,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>34</v>
       </c>
@@ -4460,7 +4515,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>34</v>
       </c>
@@ -4471,7 +4526,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>35</v>
       </c>
@@ -4482,7 +4537,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>35</v>
       </c>
@@ -4493,7 +4548,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>35</v>
       </c>
@@ -4504,7 +4559,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>35</v>
       </c>
@@ -4515,7 +4570,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>35</v>
       </c>
@@ -4526,7 +4581,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>35</v>
       </c>
@@ -4537,7 +4592,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>35</v>
       </c>
@@ -4548,7 +4603,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>35</v>
       </c>
@@ -4559,7 +4614,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>35</v>
       </c>
@@ -4570,7 +4625,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>35</v>
       </c>
@@ -4581,7 +4636,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>35</v>
       </c>
@@ -4592,7 +4647,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>35</v>
       </c>
@@ -4603,7 +4658,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>35</v>
       </c>
@@ -4614,7 +4669,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>36</v>
       </c>
@@ -4625,7 +4680,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>36</v>
       </c>
@@ -4636,7 +4691,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>36</v>
       </c>
@@ -4647,7 +4702,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>36</v>
       </c>
@@ -4658,7 +4713,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>36</v>
       </c>
@@ -4669,7 +4724,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>36</v>
       </c>
@@ -4680,7 +4735,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>36</v>
       </c>
@@ -4691,7 +4746,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>36</v>
       </c>
@@ -4702,7 +4757,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>36</v>
       </c>
@@ -4713,7 +4768,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>36</v>
       </c>
@@ -4724,7 +4779,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>36</v>
       </c>
@@ -4735,7 +4790,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>36</v>
       </c>
@@ -4746,7 +4801,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>36</v>
       </c>
@@ -4757,7 +4812,7 @@
         <v>20072008</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>36</v>
       </c>
@@ -4768,7 +4823,7 @@
         <v>20062007</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>36</v>
       </c>
@@ -4779,7 +4834,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>36</v>
       </c>
@@ -4790,7 +4845,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>36</v>
       </c>
@@ -4801,7 +4856,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>37</v>
       </c>
@@ -4812,7 +4867,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>37</v>
       </c>
@@ -4823,7 +4878,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>37</v>
       </c>
@@ -4834,7 +4889,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>37</v>
       </c>
@@ -4845,7 +4900,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>37</v>
       </c>
@@ -4856,7 +4911,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>37</v>
       </c>
@@ -4867,7 +4922,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>37</v>
       </c>
@@ -4878,7 +4933,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>37</v>
       </c>
@@ -4889,7 +4944,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>37</v>
       </c>
@@ -4900,7 +4955,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>37</v>
       </c>
@@ -4911,7 +4966,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>38</v>
       </c>
@@ -4922,7 +4977,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>38</v>
       </c>
@@ -4933,7 +4988,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>38</v>
       </c>
@@ -4944,7 +4999,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>38</v>
       </c>
@@ -4955,7 +5010,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>38</v>
       </c>
@@ -4966,7 +5021,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>38</v>
       </c>
@@ -4977,7 +5032,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>38</v>
       </c>
@@ -4988,7 +5043,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>38</v>
       </c>
@@ -4999,7 +5054,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>38</v>
       </c>
@@ -5010,7 +5065,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>38</v>
       </c>
@@ -5021,7 +5076,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>39</v>
       </c>
@@ -5032,7 +5087,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>39</v>
       </c>
@@ -5043,7 +5098,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>39</v>
       </c>
@@ -5054,7 +5109,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>39</v>
       </c>
@@ -5065,7 +5120,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>39</v>
       </c>
@@ -5076,7 +5131,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -5087,7 +5142,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>39</v>
       </c>
@@ -5098,7 +5153,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>39</v>
       </c>
@@ -5109,7 +5164,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>39</v>
       </c>
@@ -5120,7 +5175,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>39</v>
       </c>
@@ -5131,7 +5186,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>39</v>
       </c>
@@ -5142,7 +5197,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>39</v>
       </c>
@@ -5153,7 +5208,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>39</v>
       </c>
@@ -5164,7 +5219,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>39</v>
       </c>
@@ -5175,7 +5230,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>40</v>
       </c>
@@ -5186,7 +5241,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>40</v>
       </c>
@@ -5197,7 +5252,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>40</v>
       </c>
@@ -5208,7 +5263,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>40</v>
       </c>
@@ -5219,7 +5274,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>40</v>
       </c>
@@ -5230,7 +5285,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>40</v>
       </c>
@@ -5241,7 +5296,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>40</v>
       </c>
@@ -5252,7 +5307,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -5263,7 +5318,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>40</v>
       </c>
@@ -5274,7 +5329,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>40</v>
       </c>
@@ -5285,7 +5340,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>40</v>
       </c>
@@ -5296,7 +5351,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>40</v>
       </c>
@@ -5307,7 +5362,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>40</v>
       </c>
@@ -5318,7 +5373,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>40</v>
       </c>
@@ -5329,7 +5384,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>41</v>
       </c>
@@ -5340,7 +5395,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>41</v>
       </c>
@@ -5351,7 +5406,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>41</v>
       </c>
@@ -5362,7 +5417,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>41</v>
       </c>
@@ -5373,7 +5428,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>41</v>
       </c>
@@ -5384,7 +5439,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>41</v>
       </c>
@@ -5395,7 +5450,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>41</v>
       </c>
@@ -5406,7 +5461,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>41</v>
       </c>
@@ -5417,7 +5472,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>41</v>
       </c>
@@ -5428,7 +5483,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>41</v>
       </c>
@@ -5439,7 +5494,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>41</v>
       </c>
@@ -5450,7 +5505,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>41</v>
       </c>
@@ -5461,7 +5516,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>42</v>
       </c>
@@ -5472,7 +5527,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>42</v>
       </c>
@@ -5483,7 +5538,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>42</v>
       </c>
@@ -5494,7 +5549,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>42</v>
       </c>
@@ -5505,7 +5560,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>42</v>
       </c>
@@ -5516,7 +5571,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>42</v>
       </c>
@@ -5527,7 +5582,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>42</v>
       </c>
@@ -5538,7 +5593,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>42</v>
       </c>
@@ -5549,7 +5604,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>42</v>
       </c>
@@ -5560,7 +5615,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>42</v>
       </c>
@@ -5571,7 +5626,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>43</v>
       </c>
@@ -5582,7 +5637,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>43</v>
       </c>
@@ -5593,7 +5648,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>43</v>
       </c>
@@ -5604,7 +5659,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>43</v>
       </c>
@@ -5615,7 +5670,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>43</v>
       </c>
@@ -5626,7 +5681,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>43</v>
       </c>
@@ -5637,7 +5692,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>43</v>
       </c>
@@ -5648,7 +5703,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>43</v>
       </c>
@@ -5659,7 +5714,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>43</v>
       </c>
@@ -5670,7 +5725,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>43</v>
       </c>
@@ -5681,7 +5736,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>44</v>
       </c>
@@ -5692,7 +5747,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>44</v>
       </c>
@@ -5703,7 +5758,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>44</v>
       </c>
@@ -5714,7 +5769,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>44</v>
       </c>
@@ -5725,7 +5780,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>44</v>
       </c>
@@ -5736,7 +5791,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>44</v>
       </c>
@@ -5747,7 +5802,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>44</v>
       </c>
@@ -5758,7 +5813,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>44</v>
       </c>
@@ -5769,7 +5824,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>44</v>
       </c>
@@ -5780,7 +5835,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>44</v>
       </c>
@@ -5791,7 +5846,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>44</v>
       </c>
@@ -5802,7 +5857,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>45</v>
       </c>
@@ -5813,7 +5868,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>45</v>
       </c>
@@ -5824,7 +5879,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>45</v>
       </c>
@@ -5835,7 +5890,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>45</v>
       </c>
@@ -5846,7 +5901,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>45</v>
       </c>
@@ -5857,7 +5912,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>45</v>
       </c>
@@ -5868,7 +5923,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>45</v>
       </c>
@@ -5879,7 +5934,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>45</v>
       </c>
@@ -5890,7 +5945,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>45</v>
       </c>
@@ -5901,7 +5956,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>45</v>
       </c>
@@ -5912,7 +5967,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>45</v>
       </c>
@@ -5923,7 +5978,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>45</v>
       </c>
@@ -5934,7 +5989,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>45</v>
       </c>
@@ -5945,7 +6000,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>45</v>
       </c>
@@ -5956,7 +6011,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>46</v>
       </c>
@@ -5967,7 +6022,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>46</v>
       </c>
@@ -5978,7 +6033,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>46</v>
       </c>
@@ -5989,7 +6044,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>46</v>
       </c>
@@ -6000,7 +6055,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>46</v>
       </c>
@@ -6011,7 +6066,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>46</v>
       </c>
@@ -6022,7 +6077,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>46</v>
       </c>
@@ -6033,7 +6088,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>46</v>
       </c>
@@ -6044,7 +6099,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>46</v>
       </c>
@@ -6055,7 +6110,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>46</v>
       </c>
@@ -6066,7 +6121,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>46</v>
       </c>
@@ -6077,7 +6132,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>46</v>
       </c>
@@ -6088,7 +6143,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>47</v>
       </c>
@@ -6099,7 +6154,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>47</v>
       </c>
@@ -6110,7 +6165,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>47</v>
       </c>
@@ -6121,7 +6176,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>47</v>
       </c>
@@ -6132,7 +6187,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>47</v>
       </c>
@@ -6143,7 +6198,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>47</v>
       </c>
@@ -6154,7 +6209,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>47</v>
       </c>
@@ -6165,7 +6220,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>48</v>
       </c>
@@ -6176,7 +6231,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>48</v>
       </c>
@@ -6187,7 +6242,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>48</v>
       </c>
@@ -6198,7 +6253,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>48</v>
       </c>
@@ -6209,7 +6264,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>48</v>
       </c>
@@ -6220,7 +6275,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>48</v>
       </c>
@@ -6231,7 +6286,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>48</v>
       </c>
@@ -6242,7 +6297,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>48</v>
       </c>
@@ -6253,7 +6308,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>48</v>
       </c>
@@ -6264,7 +6319,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>48</v>
       </c>
@@ -6275,7 +6330,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>48</v>
       </c>
@@ -6286,7 +6341,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>48</v>
       </c>
@@ -6297,7 +6352,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>48</v>
       </c>
@@ -6308,7 +6363,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>48</v>
       </c>
@@ -6319,7 +6374,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>49</v>
       </c>
@@ -6330,7 +6385,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>49</v>
       </c>
@@ -6341,7 +6396,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>49</v>
       </c>
@@ -6352,7 +6407,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>49</v>
       </c>
@@ -6363,7 +6418,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>49</v>
       </c>
@@ -6374,7 +6429,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>49</v>
       </c>
@@ -6385,7 +6440,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>49</v>
       </c>
@@ -6396,7 +6451,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>49</v>
       </c>
@@ -6407,7 +6462,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>49</v>
       </c>
@@ -6418,7 +6473,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>49</v>
       </c>
@@ -6429,7 +6484,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>50</v>
       </c>
@@ -6440,7 +6495,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>50</v>
       </c>
@@ -6451,7 +6506,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>50</v>
       </c>
@@ -6462,7 +6517,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>50</v>
       </c>
@@ -6473,7 +6528,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>50</v>
       </c>
@@ -6484,7 +6539,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>50</v>
       </c>
@@ -6495,7 +6550,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>50</v>
       </c>
@@ -6506,7 +6561,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>50</v>
       </c>
@@ -6517,7 +6572,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>50</v>
       </c>
@@ -6528,7 +6583,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>50</v>
       </c>
@@ -6539,7 +6594,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>50</v>
       </c>
@@ -6550,7 +6605,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>51</v>
       </c>
@@ -6561,7 +6616,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>51</v>
       </c>
@@ -6572,7 +6627,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>51</v>
       </c>
@@ -6583,7 +6638,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>51</v>
       </c>
@@ -6594,7 +6649,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>51</v>
       </c>
@@ -6605,7 +6660,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>51</v>
       </c>
@@ -6616,7 +6671,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>51</v>
       </c>
@@ -6627,7 +6682,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>51</v>
       </c>
@@ -6638,7 +6693,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>51</v>
       </c>
@@ -6649,7 +6704,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>51</v>
       </c>
@@ -6660,7 +6715,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>51</v>
       </c>
@@ -6671,7 +6726,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>51</v>
       </c>
@@ -6682,7 +6737,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>51</v>
       </c>
@@ -6693,7 +6748,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>51</v>
       </c>
@@ -6704,7 +6759,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>52</v>
       </c>
@@ -6715,7 +6770,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>52</v>
       </c>
@@ -6726,7 +6781,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>52</v>
       </c>
@@ -6737,7 +6792,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>52</v>
       </c>
@@ -6748,7 +6803,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>52</v>
       </c>
@@ -6759,7 +6814,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>52</v>
       </c>
@@ -6770,7 +6825,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>52</v>
       </c>
@@ -6781,7 +6836,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>52</v>
       </c>
@@ -6792,7 +6847,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>52</v>
       </c>
@@ -6803,7 +6858,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>52</v>
       </c>
@@ -6814,7 +6869,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>52</v>
       </c>
@@ -6825,7 +6880,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>52</v>
       </c>
@@ -6836,7 +6891,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>52</v>
       </c>
@@ -6847,7 +6902,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>53</v>
       </c>
@@ -6858,7 +6913,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>53</v>
       </c>
@@ -6869,7 +6924,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>53</v>
       </c>
@@ -6880,7 +6935,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>53</v>
       </c>
@@ -6891,7 +6946,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>53</v>
       </c>
@@ -6902,7 +6957,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>53</v>
       </c>
@@ -6913,7 +6968,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>53</v>
       </c>
@@ -6924,7 +6979,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>53</v>
       </c>
@@ -6935,7 +6990,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>53</v>
       </c>
@@ -6946,7 +7001,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>53</v>
       </c>
@@ -6957,7 +7012,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>53</v>
       </c>
@@ -6968,7 +7023,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>53</v>
       </c>
@@ -6979,7 +7034,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>54</v>
       </c>
@@ -6990,7 +7045,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>54</v>
       </c>
@@ -7001,7 +7056,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>54</v>
       </c>
@@ -7012,7 +7067,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>54</v>
       </c>
@@ -7023,7 +7078,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>54</v>
       </c>
@@ -7034,7 +7089,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>54</v>
       </c>
@@ -7045,7 +7100,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>54</v>
       </c>
@@ -7056,7 +7111,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>54</v>
       </c>
@@ -7067,7 +7122,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>54</v>
       </c>
@@ -7078,7 +7133,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>54</v>
       </c>
@@ -7089,7 +7144,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>54</v>
       </c>
@@ -7100,7 +7155,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>55</v>
       </c>
@@ -7111,7 +7166,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>55</v>
       </c>
@@ -7122,7 +7177,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>55</v>
       </c>
@@ -7133,7 +7188,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>55</v>
       </c>
@@ -7144,7 +7199,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>55</v>
       </c>
@@ -7155,7 +7210,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>55</v>
       </c>
@@ -7166,7 +7221,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>55</v>
       </c>
@@ -7177,7 +7232,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>55</v>
       </c>
@@ -7188,7 +7243,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>55</v>
       </c>
@@ -7199,7 +7254,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>55</v>
       </c>
@@ -7210,7 +7265,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>56</v>
       </c>
@@ -7221,7 +7276,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>56</v>
       </c>
@@ -7232,7 +7287,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>56</v>
       </c>
@@ -7243,7 +7298,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>56</v>
       </c>
@@ -7254,7 +7309,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>56</v>
       </c>
@@ -7265,7 +7320,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>56</v>
       </c>
@@ -7276,7 +7331,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>56</v>
       </c>
@@ -7287,7 +7342,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>56</v>
       </c>
@@ -7298,7 +7353,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>56</v>
       </c>
@@ -7309,7 +7364,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>56</v>
       </c>
@@ -7320,7 +7375,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>56</v>
       </c>
@@ -7331,7 +7386,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>57</v>
       </c>
@@ -7342,7 +7397,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>57</v>
       </c>
@@ -7353,7 +7408,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>57</v>
       </c>
@@ -7364,7 +7419,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>57</v>
       </c>
@@ -7375,7 +7430,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>57</v>
       </c>
@@ -7386,7 +7441,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>57</v>
       </c>
@@ -7397,7 +7452,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>57</v>
       </c>
@@ -7408,7 +7463,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>57</v>
       </c>
@@ -7419,7 +7474,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>57</v>
       </c>
@@ -7430,7 +7485,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>57</v>
       </c>
@@ -7441,7 +7496,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>58</v>
       </c>
@@ -7452,7 +7507,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>58</v>
       </c>
@@ -7463,7 +7518,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>58</v>
       </c>
@@ -7474,7 +7529,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>58</v>
       </c>
@@ -7485,7 +7540,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>58</v>
       </c>
@@ -7496,7 +7551,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>58</v>
       </c>
@@ -7507,7 +7562,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>58</v>
       </c>
@@ -7518,7 +7573,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>58</v>
       </c>
@@ -7529,7 +7584,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>58</v>
       </c>
@@ -7540,7 +7595,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>58</v>
       </c>
@@ -7551,7 +7606,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>59</v>
       </c>
@@ -7562,7 +7617,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>59</v>
       </c>
@@ -7573,7 +7628,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>59</v>
       </c>
@@ -7584,7 +7639,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>59</v>
       </c>
@@ -7595,7 +7650,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>59</v>
       </c>
@@ -7606,7 +7661,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>59</v>
       </c>
@@ -7617,7 +7672,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>59</v>
       </c>
@@ -7628,7 +7683,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>59</v>
       </c>
@@ -7639,7 +7694,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>59</v>
       </c>
@@ -7650,7 +7705,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>59</v>
       </c>
@@ -7661,7 +7716,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>60</v>
       </c>
@@ -7672,7 +7727,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>60</v>
       </c>
@@ -7683,7 +7738,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>60</v>
       </c>
@@ -7694,7 +7749,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>60</v>
       </c>
@@ -7705,7 +7760,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>60</v>
       </c>
@@ -7716,7 +7771,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>60</v>
       </c>
@@ -7727,7 +7782,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>60</v>
       </c>
@@ -7738,7 +7793,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>60</v>
       </c>
@@ -7749,7 +7804,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>60</v>
       </c>
@@ -7760,7 +7815,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>60</v>
       </c>
@@ -7771,7 +7826,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>60</v>
       </c>
@@ -7782,7 +7837,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>61</v>
       </c>
@@ -7793,7 +7848,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>61</v>
       </c>
@@ -7804,7 +7859,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>61</v>
       </c>
@@ -7815,7 +7870,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>61</v>
       </c>
@@ -7826,7 +7881,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>61</v>
       </c>
@@ -7837,7 +7892,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>61</v>
       </c>
@@ -7848,7 +7903,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>61</v>
       </c>
@@ -7859,7 +7914,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>61</v>
       </c>
@@ -7870,7 +7925,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>61</v>
       </c>
@@ -7881,7 +7936,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>61</v>
       </c>
@@ -7892,7 +7947,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>61</v>
       </c>
@@ -7903,7 +7958,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>62</v>
       </c>
@@ -7914,7 +7969,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>62</v>
       </c>
@@ -7925,7 +7980,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>62</v>
       </c>
@@ -7936,7 +7991,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>62</v>
       </c>
@@ -7947,7 +8002,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>62</v>
       </c>
@@ -7958,7 +8013,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>62</v>
       </c>
@@ -7969,7 +8024,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>62</v>
       </c>
@@ -7980,7 +8035,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>62</v>
       </c>
@@ -7991,7 +8046,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>62</v>
       </c>
@@ -8002,7 +8057,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>62</v>
       </c>
@@ -8013,7 +8068,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>62</v>
       </c>
@@ -8024,7 +8079,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>62</v>
       </c>
@@ -8035,7 +8090,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>62</v>
       </c>
@@ -8046,7 +8101,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>62</v>
       </c>
@@ -8057,7 +8112,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>62</v>
       </c>
@@ -8068,7 +8123,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>63</v>
       </c>
@@ -8079,7 +8134,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>63</v>
       </c>
@@ -8090,7 +8145,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>63</v>
       </c>
@@ -8101,7 +8156,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>63</v>
       </c>
@@ -8112,7 +8167,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>63</v>
       </c>
@@ -8123,7 +8178,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>63</v>
       </c>
@@ -8134,7 +8189,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>63</v>
       </c>
@@ -8145,7 +8200,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>63</v>
       </c>
@@ -8156,7 +8211,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>63</v>
       </c>
@@ -8167,7 +8222,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>63</v>
       </c>
@@ -8178,7 +8233,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>63</v>
       </c>
@@ -8189,7 +8244,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>63</v>
       </c>
@@ -8200,7 +8255,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>63</v>
       </c>
@@ -8211,7 +8266,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>63</v>
       </c>
@@ -8222,7 +8277,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>64</v>
       </c>
@@ -8233,7 +8288,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>64</v>
       </c>
@@ -8244,7 +8299,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>64</v>
       </c>
@@ -8255,7 +8310,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>64</v>
       </c>
@@ -8266,7 +8321,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>64</v>
       </c>
@@ -8277,7 +8332,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>64</v>
       </c>
@@ -8288,7 +8343,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>64</v>
       </c>
@@ -8299,7 +8354,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>64</v>
       </c>
@@ -8310,7 +8365,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>64</v>
       </c>
@@ -8321,7 +8376,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>64</v>
       </c>
@@ -8332,7 +8387,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>64</v>
       </c>
@@ -8343,7 +8398,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>64</v>
       </c>
@@ -8354,7 +8409,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>64</v>
       </c>
@@ -8365,7 +8420,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>65</v>
       </c>
@@ -8376,7 +8431,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>65</v>
       </c>
@@ -8387,7 +8442,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>65</v>
       </c>
@@ -8398,7 +8453,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>65</v>
       </c>
@@ -8409,7 +8464,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>65</v>
       </c>
@@ -8420,7 +8475,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>65</v>
       </c>
@@ -8431,7 +8486,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>65</v>
       </c>
@@ -8442,7 +8497,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>65</v>
       </c>
@@ -8453,7 +8508,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>65</v>
       </c>
@@ -8464,7 +8519,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>65</v>
       </c>
@@ -8475,7 +8530,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>65</v>
       </c>
@@ -8486,7 +8541,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>66</v>
       </c>
@@ -8497,7 +8552,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>66</v>
       </c>
@@ -8508,7 +8563,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>66</v>
       </c>
@@ -8519,7 +8574,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>66</v>
       </c>
@@ -8530,7 +8585,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>66</v>
       </c>
@@ -8541,7 +8596,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>66</v>
       </c>
@@ -8552,7 +8607,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>66</v>
       </c>
@@ -8563,7 +8618,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>66</v>
       </c>
@@ -8574,7 +8629,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>66</v>
       </c>
@@ -8585,7 +8640,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>66</v>
       </c>
@@ -8596,7 +8651,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>67</v>
       </c>
@@ -8607,7 +8662,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>67</v>
       </c>
@@ -8618,7 +8673,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>67</v>
       </c>
@@ -8629,7 +8684,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>67</v>
       </c>
@@ -8640,7 +8695,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>67</v>
       </c>
@@ -8651,7 +8706,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>67</v>
       </c>
@@ -8662,7 +8717,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>67</v>
       </c>
@@ -8673,7 +8728,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>67</v>
       </c>
@@ -8684,7 +8739,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>67</v>
       </c>
@@ -8695,7 +8750,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>68</v>
       </c>
@@ -8706,7 +8761,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>68</v>
       </c>
@@ -8717,7 +8772,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>68</v>
       </c>
@@ -8728,7 +8783,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>68</v>
       </c>
@@ -8739,7 +8794,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>68</v>
       </c>
@@ -8750,7 +8805,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>68</v>
       </c>
@@ -8761,7 +8816,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>68</v>
       </c>
@@ -8772,7 +8827,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="744" spans="1:3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>68</v>
       </c>
@@ -8783,7 +8838,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="745" spans="1:3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>68</v>
       </c>
@@ -8794,7 +8849,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="746" spans="1:3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>68</v>
       </c>
@@ -8805,7 +8860,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="747" spans="1:3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>68</v>
       </c>
@@ -8816,7 +8871,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="748" spans="1:3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>68</v>
       </c>
@@ -8827,7 +8882,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="749" spans="1:3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>68</v>
       </c>
@@ -8838,7 +8893,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="750" spans="1:3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>68</v>
       </c>
@@ -8849,7 +8904,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="751" spans="1:3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>69</v>
       </c>
@@ -8860,7 +8915,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="752" spans="1:3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>69</v>
       </c>
@@ -8871,7 +8926,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="753" spans="1:3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>69</v>
       </c>
@@ -8882,7 +8937,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="754" spans="1:3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>69</v>
       </c>
@@ -8893,7 +8948,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="755" spans="1:3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>69</v>
       </c>
@@ -8904,7 +8959,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="756" spans="1:3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>69</v>
       </c>
@@ -8915,7 +8970,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="757" spans="1:3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>69</v>
       </c>
@@ -8926,7 +8981,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="758" spans="1:3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>69</v>
       </c>
@@ -8937,7 +8992,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="759" spans="1:3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>69</v>
       </c>
@@ -8948,7 +9003,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="760" spans="1:3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>69</v>
       </c>
@@ -8959,7 +9014,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="761" spans="1:3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>69</v>
       </c>
@@ -8970,7 +9025,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="762" spans="1:3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>70</v>
       </c>
@@ -8981,7 +9036,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="763" spans="1:3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>70</v>
       </c>
@@ -8992,7 +9047,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="764" spans="1:3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>70</v>
       </c>
@@ -9003,7 +9058,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="765" spans="1:3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>70</v>
       </c>
@@ -9014,7 +9069,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="766" spans="1:3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>70</v>
       </c>
@@ -9025,7 +9080,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="767" spans="1:3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>70</v>
       </c>
@@ -9036,7 +9091,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="768" spans="1:3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>70</v>
       </c>
@@ -9047,7 +9102,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="769" spans="1:3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>70</v>
       </c>
@@ -9058,7 +9113,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="770" spans="1:3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>70</v>
       </c>
@@ -9069,7 +9124,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="771" spans="1:3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>70</v>
       </c>
@@ -9080,7 +9135,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="772" spans="1:3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>71</v>
       </c>
@@ -9091,7 +9146,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="773" spans="1:3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>71</v>
       </c>
@@ -9102,7 +9157,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="774" spans="1:3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>71</v>
       </c>
@@ -9113,7 +9168,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="775" spans="1:3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>71</v>
       </c>
@@ -9124,7 +9179,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="776" spans="1:3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>71</v>
       </c>
@@ -9135,7 +9190,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="777" spans="1:3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>71</v>
       </c>
@@ -9146,7 +9201,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="778" spans="1:3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>71</v>
       </c>
@@ -9157,7 +9212,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="779" spans="1:3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>71</v>
       </c>
@@ -9168,7 +9223,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="780" spans="1:3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>71</v>
       </c>
@@ -9179,7 +9234,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="781" spans="1:3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>71</v>
       </c>
@@ -9190,7 +9245,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="782" spans="1:3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>71</v>
       </c>
@@ -9201,7 +9256,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="783" spans="1:3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>72</v>
       </c>
@@ -9212,7 +9267,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="784" spans="1:3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>72</v>
       </c>
@@ -9223,7 +9278,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="785" spans="1:3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>72</v>
       </c>
@@ -9234,7 +9289,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="786" spans="1:3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>72</v>
       </c>
@@ -9245,7 +9300,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="787" spans="1:3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>72</v>
       </c>
@@ -9256,7 +9311,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="788" spans="1:3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>72</v>
       </c>
@@ -9267,7 +9322,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="789" spans="1:3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>72</v>
       </c>
@@ -9278,7 +9333,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="790" spans="1:3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>72</v>
       </c>
@@ -9289,7 +9344,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="791" spans="1:3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>72</v>
       </c>
@@ -9300,7 +9355,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="792" spans="1:3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>72</v>
       </c>
@@ -9311,7 +9366,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="793" spans="1:3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>72</v>
       </c>
@@ -9322,7 +9377,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="794" spans="1:3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>73</v>
       </c>
@@ -9333,7 +9388,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="795" spans="1:3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>73</v>
       </c>
@@ -9344,7 +9399,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="796" spans="1:3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>73</v>
       </c>
@@ -9355,7 +9410,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="797" spans="1:3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -9366,7 +9421,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="798" spans="1:3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>73</v>
       </c>
@@ -9377,7 +9432,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="799" spans="1:3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>73</v>
       </c>
@@ -9388,7 +9443,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="800" spans="1:3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>73</v>
       </c>
@@ -9399,7 +9454,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="801" spans="1:3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>73</v>
       </c>
@@ -9410,7 +9465,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="802" spans="1:3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>73</v>
       </c>
@@ -9421,7 +9476,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="803" spans="1:3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>73</v>
       </c>
@@ -9432,7 +9487,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="804" spans="1:3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>73</v>
       </c>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21df80ec97692de0/Documentos/GitHub/ARKAD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED3FB38A01992D4CF165FAF907565B4AB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7CAD5E-80A6-461B-AE6A-551291E7C701}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -247,8 +241,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,19 +305,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -365,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,27 +383,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,24 +417,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,19 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -676,7 +621,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -687,7 +632,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -698,7 +643,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -709,7 +654,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -720,7 +665,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -731,7 +676,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -742,7 +687,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -753,7 +698,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -764,7 +709,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -775,7 +720,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -786,7 +731,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -797,7 +742,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -808,7 +753,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -819,7 +764,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -830,7 +775,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -841,7 +786,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -852,7 +797,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -863,7 +808,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -874,7 +819,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -885,7 +830,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -896,7 +841,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -907,7 +852,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -918,7 +863,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -929,7 +874,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -940,7 +885,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -951,7 +896,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -962,7 +907,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -973,7 +918,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -984,7 +929,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -995,7 +940,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1006,7 +951,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1017,7 +962,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +973,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +984,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +995,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1006,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1017,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1028,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1039,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1050,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1061,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1072,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1083,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1094,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1105,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1116,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1127,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1138,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1149,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1160,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +1171,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1182,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1193,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1204,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1215,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1226,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1292,7 +1237,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1303,7 +1248,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1259,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1270,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1281,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1292,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +1303,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1314,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1380,7 +1325,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1391,7 +1336,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1347,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1358,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1424,7 +1369,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1380,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +1391,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1402,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1413,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1424,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1435,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1446,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1457,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1468,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1479,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -1545,7 +1490,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -1556,7 +1501,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1512,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1523,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1534,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1545,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -1611,7 +1556,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -1622,7 +1567,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +1578,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1589,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1600,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -1666,7 +1611,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +1622,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1633,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -1699,7 +1644,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -1710,7 +1655,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1666,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1677,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +1688,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -1754,7 +1699,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -1765,7 +1710,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1721,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +1732,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -1798,7 +1743,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -1809,7 +1754,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -1820,7 +1765,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +1776,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -1842,7 +1787,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1798,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -1864,7 +1809,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -1875,7 +1820,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1831,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -1897,7 +1842,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -1908,7 +1853,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -1919,7 +1864,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +1875,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -1941,7 +1886,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +1897,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -1963,7 +1908,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -1974,7 +1919,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +1930,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +1941,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -2007,7 +1952,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -2018,7 +1963,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +1974,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +1985,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -2051,7 +1996,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -2062,7 +2007,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -2073,7 +2018,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -2084,7 +2029,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -2095,7 +2040,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2051,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -2117,7 +2062,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2073,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -2139,7 +2084,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -2150,7 +2095,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -2161,7 +2106,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -2172,7 +2117,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -2183,7 +2128,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2139,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -2205,7 +2150,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -2216,7 +2161,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -2227,7 +2172,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -2238,7 +2183,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -2249,7 +2194,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2205,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -2271,7 +2216,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -2282,7 +2227,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -2293,7 +2238,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -2304,7 +2249,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -2315,7 +2260,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -2326,7 +2271,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -2337,7 +2282,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -2348,7 +2293,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2304,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -2370,7 +2315,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -2381,7 +2326,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -2392,7 +2337,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -2403,7 +2348,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -2414,7 +2359,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -2425,7 +2370,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -2436,7 +2381,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -2447,7 +2392,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -2458,7 +2403,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -2469,7 +2414,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -2480,7 +2425,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -2491,7 +2436,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -2502,7 +2447,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -2513,7 +2458,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -2524,7 +2469,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +2480,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -2546,7 +2491,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -2557,7 +2502,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -2568,7 +2513,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -2579,7 +2524,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -2590,7 +2535,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -2601,7 +2546,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2557,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -2623,7 +2568,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2579,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -2645,7 +2590,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -2656,7 +2601,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -2667,7 +2612,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -2678,7 +2623,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -2689,7 +2634,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -2700,7 +2645,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -2711,7 +2656,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -2722,7 +2667,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -2733,7 +2678,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -2744,7 +2689,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -2755,7 +2700,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -2766,7 +2711,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -2777,7 +2722,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -2788,7 +2733,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -2799,7 +2744,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -2810,7 +2755,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -2821,7 +2766,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -2832,7 +2777,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -2843,7 +2788,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -2854,7 +2799,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -2865,7 +2810,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -2876,7 +2821,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -2887,7 +2832,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -2898,7 +2843,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2854,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -2920,7 +2865,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2876,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -2942,7 +2887,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>22</v>
       </c>
@@ -2953,7 +2898,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -2964,7 +2909,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -2975,7 +2920,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -2986,7 +2931,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -2997,7 +2942,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -3008,7 +2953,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -3019,7 +2964,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -3030,7 +2975,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -3041,7 +2986,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -3052,7 +2997,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -3063,7 +3008,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -3074,7 +3019,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -3085,7 +3030,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -3096,7 +3041,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -3107,7 +3052,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3063,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -3129,7 +3074,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -3140,7 +3085,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -3151,7 +3096,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -3162,7 +3107,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -3173,7 +3118,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>24</v>
       </c>
@@ -3184,7 +3129,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>24</v>
       </c>
@@ -3195,7 +3140,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>24</v>
       </c>
@@ -3206,7 +3151,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -3217,7 +3162,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -3228,7 +3173,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -3239,7 +3184,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -3250,7 +3195,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -3261,7 +3206,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -3272,7 +3217,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -3283,7 +3228,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -3294,7 +3239,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>25</v>
       </c>
@@ -3305,7 +3250,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>25</v>
       </c>
@@ -3316,7 +3261,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>25</v>
       </c>
@@ -3327,7 +3272,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -3338,7 +3283,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -3349,7 +3294,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -3360,7 +3305,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -3371,7 +3316,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -3382,7 +3327,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -3393,7 +3338,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -3404,7 +3349,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -3415,7 +3360,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -3426,7 +3371,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -3437,7 +3382,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -3448,7 +3393,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -3459,7 +3404,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -3470,7 +3415,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -3481,7 +3426,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -3492,7 +3437,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -3503,7 +3448,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -3514,7 +3459,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -3525,7 +3470,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -3536,7 +3481,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -3547,7 +3492,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>27</v>
       </c>
@@ -3558,7 +3503,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -3569,7 +3514,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -3580,7 +3525,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -3591,7 +3536,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -3602,7 +3547,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>28</v>
       </c>
@@ -3613,7 +3558,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>28</v>
       </c>
@@ -3624,7 +3569,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>28</v>
       </c>
@@ -3635,7 +3580,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>28</v>
       </c>
@@ -3646,7 +3591,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>28</v>
       </c>
@@ -3657,7 +3602,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>28</v>
       </c>
@@ -3668,7 +3613,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>28</v>
       </c>
@@ -3679,7 +3624,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>28</v>
       </c>
@@ -3690,7 +3635,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>28</v>
       </c>
@@ -3701,7 +3646,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>28</v>
       </c>
@@ -3712,7 +3657,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -3723,7 +3668,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>28</v>
       </c>
@@ -3734,7 +3679,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>28</v>
       </c>
@@ -3745,7 +3690,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>29</v>
       </c>
@@ -3756,7 +3701,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>29</v>
       </c>
@@ -3767,7 +3712,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>29</v>
       </c>
@@ -3778,7 +3723,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>29</v>
       </c>
@@ -3789,7 +3734,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>29</v>
       </c>
@@ -3800,7 +3745,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>29</v>
       </c>
@@ -3811,7 +3756,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -3822,7 +3767,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -3833,7 +3778,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>30</v>
       </c>
@@ -3844,7 +3789,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>30</v>
       </c>
@@ -3855,7 +3800,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>30</v>
       </c>
@@ -3866,7 +3811,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>30</v>
       </c>
@@ -3877,7 +3822,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>30</v>
       </c>
@@ -3888,7 +3833,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>30</v>
       </c>
@@ -3899,7 +3844,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>30</v>
       </c>
@@ -3910,7 +3855,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>30</v>
       </c>
@@ -3921,7 +3866,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>30</v>
       </c>
@@ -3932,7 +3877,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>30</v>
       </c>
@@ -3943,7 +3888,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>30</v>
       </c>
@@ -3954,7 +3899,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>30</v>
       </c>
@@ -3965,7 +3910,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>31</v>
       </c>
@@ -3976,7 +3921,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>31</v>
       </c>
@@ -3987,7 +3932,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>31</v>
       </c>
@@ -3998,7 +3943,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>31</v>
       </c>
@@ -4009,7 +3954,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>31</v>
       </c>
@@ -4020,7 +3965,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>31</v>
       </c>
@@ -4031,7 +3976,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>31</v>
       </c>
@@ -4042,7 +3987,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -4053,7 +3998,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>31</v>
       </c>
@@ -4064,7 +4009,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4020,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>31</v>
       </c>
@@ -4086,7 +4031,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>31</v>
       </c>
@@ -4097,7 +4042,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>31</v>
       </c>
@@ -4108,7 +4053,7 @@
         <v>20072008</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>31</v>
       </c>
@@ -4119,7 +4064,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>31</v>
       </c>
@@ -4130,7 +4075,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -4141,7 +4086,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>32</v>
       </c>
@@ -4152,7 +4097,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>32</v>
       </c>
@@ -4163,7 +4108,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>32</v>
       </c>
@@ -4174,7 +4119,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -4185,7 +4130,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>32</v>
       </c>
@@ -4196,7 +4141,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>32</v>
       </c>
@@ -4207,7 +4152,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>32</v>
       </c>
@@ -4218,7 +4163,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>32</v>
       </c>
@@ -4229,7 +4174,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>32</v>
       </c>
@@ -4240,7 +4185,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>32</v>
       </c>
@@ -4251,7 +4196,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -4262,7 +4207,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>33</v>
       </c>
@@ -4273,7 +4218,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -4284,7 +4229,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -4295,7 +4240,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -4306,7 +4251,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>33</v>
       </c>
@@ -4317,7 +4262,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>33</v>
       </c>
@@ -4328,7 +4273,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>33</v>
       </c>
@@ -4339,7 +4284,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>33</v>
       </c>
@@ -4350,7 +4295,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>33</v>
       </c>
@@ -4361,7 +4306,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>33</v>
       </c>
@@ -4372,7 +4317,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>33</v>
       </c>
@@ -4383,7 +4328,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>33</v>
       </c>
@@ -4394,7 +4339,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>33</v>
       </c>
@@ -4405,7 +4350,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>34</v>
       </c>
@@ -4416,7 +4361,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -4427,7 +4372,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>34</v>
       </c>
@@ -4438,7 +4383,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>34</v>
       </c>
@@ -4449,7 +4394,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>34</v>
       </c>
@@ -4460,7 +4405,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>34</v>
       </c>
@@ -4471,7 +4416,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>34</v>
       </c>
@@ -4482,7 +4427,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>34</v>
       </c>
@@ -4493,7 +4438,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>34</v>
       </c>
@@ -4504,7 +4449,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>34</v>
       </c>
@@ -4515,7 +4460,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>34</v>
       </c>
@@ -4526,7 +4471,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>35</v>
       </c>
@@ -4537,7 +4482,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>35</v>
       </c>
@@ -4548,7 +4493,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>35</v>
       </c>
@@ -4559,7 +4504,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>35</v>
       </c>
@@ -4570,7 +4515,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>35</v>
       </c>
@@ -4581,7 +4526,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>35</v>
       </c>
@@ -4592,7 +4537,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>35</v>
       </c>
@@ -4603,7 +4548,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>35</v>
       </c>
@@ -4614,7 +4559,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>35</v>
       </c>
@@ -4625,7 +4570,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>35</v>
       </c>
@@ -4636,7 +4581,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>35</v>
       </c>
@@ -4647,7 +4592,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>35</v>
       </c>
@@ -4658,7 +4603,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>35</v>
       </c>
@@ -4669,7 +4614,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>36</v>
       </c>
@@ -4680,7 +4625,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>36</v>
       </c>
@@ -4691,7 +4636,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>36</v>
       </c>
@@ -4702,7 +4647,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>36</v>
       </c>
@@ -4713,7 +4658,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>36</v>
       </c>
@@ -4724,7 +4669,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>36</v>
       </c>
@@ -4735,7 +4680,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>36</v>
       </c>
@@ -4746,7 +4691,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>36</v>
       </c>
@@ -4757,7 +4702,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>36</v>
       </c>
@@ -4768,7 +4713,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>36</v>
       </c>
@@ -4779,7 +4724,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>36</v>
       </c>
@@ -4790,7 +4735,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>36</v>
       </c>
@@ -4801,7 +4746,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>36</v>
       </c>
@@ -4812,7 +4757,7 @@
         <v>20072008</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>36</v>
       </c>
@@ -4823,7 +4768,7 @@
         <v>20062007</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>36</v>
       </c>
@@ -4834,7 +4779,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>36</v>
       </c>
@@ -4845,7 +4790,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>36</v>
       </c>
@@ -4856,7 +4801,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>37</v>
       </c>
@@ -4867,7 +4812,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>37</v>
       </c>
@@ -4878,7 +4823,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>37</v>
       </c>
@@ -4889,7 +4834,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>37</v>
       </c>
@@ -4900,7 +4845,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>37</v>
       </c>
@@ -4911,7 +4856,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>37</v>
       </c>
@@ -4922,7 +4867,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>37</v>
       </c>
@@ -4933,7 +4878,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>37</v>
       </c>
@@ -4944,7 +4889,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>37</v>
       </c>
@@ -4955,7 +4900,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
         <v>37</v>
       </c>
@@ -4966,7 +4911,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
         <v>38</v>
       </c>
@@ -4977,7 +4922,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>38</v>
       </c>
@@ -4988,7 +4933,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
         <v>38</v>
       </c>
@@ -4999,7 +4944,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
         <v>38</v>
       </c>
@@ -5010,7 +4955,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>38</v>
       </c>
@@ -5021,7 +4966,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>38</v>
       </c>
@@ -5032,7 +4977,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>38</v>
       </c>
@@ -5043,7 +4988,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>38</v>
       </c>
@@ -5054,7 +4999,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>38</v>
       </c>
@@ -5065,7 +5010,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>38</v>
       </c>
@@ -5076,7 +5021,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>39</v>
       </c>
@@ -5087,7 +5032,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>39</v>
       </c>
@@ -5098,7 +5043,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>39</v>
       </c>
@@ -5109,7 +5054,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
         <v>39</v>
       </c>
@@ -5120,7 +5065,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
         <v>39</v>
       </c>
@@ -5131,7 +5076,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -5142,7 +5087,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>39</v>
       </c>
@@ -5153,7 +5098,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>39</v>
       </c>
@@ -5164,7 +5109,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>39</v>
       </c>
@@ -5175,7 +5120,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>39</v>
       </c>
@@ -5186,7 +5131,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>39</v>
       </c>
@@ -5197,7 +5142,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>39</v>
       </c>
@@ -5208,7 +5153,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>39</v>
       </c>
@@ -5219,7 +5164,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>39</v>
       </c>
@@ -5230,7 +5175,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>40</v>
       </c>
@@ -5241,7 +5186,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>40</v>
       </c>
@@ -5252,7 +5197,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>40</v>
       </c>
@@ -5263,7 +5208,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>40</v>
       </c>
@@ -5274,7 +5219,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>40</v>
       </c>
@@ -5285,7 +5230,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>40</v>
       </c>
@@ -5296,7 +5241,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>40</v>
       </c>
@@ -5307,7 +5252,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -5318,7 +5263,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>40</v>
       </c>
@@ -5329,7 +5274,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>40</v>
       </c>
@@ -5340,7 +5285,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>40</v>
       </c>
@@ -5351,7 +5296,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>40</v>
       </c>
@@ -5362,7 +5307,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>40</v>
       </c>
@@ -5373,7 +5318,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>40</v>
       </c>
@@ -5384,7 +5329,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>41</v>
       </c>
@@ -5395,7 +5340,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>41</v>
       </c>
@@ -5406,7 +5351,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>41</v>
       </c>
@@ -5417,7 +5362,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>41</v>
       </c>
@@ -5428,7 +5373,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>41</v>
       </c>
@@ -5439,7 +5384,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>41</v>
       </c>
@@ -5450,7 +5395,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>41</v>
       </c>
@@ -5461,7 +5406,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>41</v>
       </c>
@@ -5472,7 +5417,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>41</v>
       </c>
@@ -5483,7 +5428,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>41</v>
       </c>
@@ -5494,7 +5439,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>41</v>
       </c>
@@ -5505,7 +5450,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>41</v>
       </c>
@@ -5516,7 +5461,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
         <v>42</v>
       </c>
@@ -5527,7 +5472,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>42</v>
       </c>
@@ -5538,7 +5483,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
         <v>42</v>
       </c>
@@ -5549,7 +5494,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
         <v>42</v>
       </c>
@@ -5560,7 +5505,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
         <v>42</v>
       </c>
@@ -5571,7 +5516,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>42</v>
       </c>
@@ -5582,7 +5527,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
         <v>42</v>
       </c>
@@ -5593,7 +5538,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>42</v>
       </c>
@@ -5604,7 +5549,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
         <v>42</v>
       </c>
@@ -5615,7 +5560,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
         <v>42</v>
       </c>
@@ -5626,7 +5571,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
         <v>43</v>
       </c>
@@ -5637,7 +5582,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
         <v>43</v>
       </c>
@@ -5648,7 +5593,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
         <v>43</v>
       </c>
@@ -5659,7 +5604,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
         <v>43</v>
       </c>
@@ -5670,7 +5615,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
         <v>43</v>
       </c>
@@ -5681,7 +5626,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
         <v>43</v>
       </c>
@@ -5692,7 +5637,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
         <v>43</v>
       </c>
@@ -5703,7 +5648,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
         <v>43</v>
       </c>
@@ -5714,7 +5659,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
         <v>43</v>
       </c>
@@ -5725,7 +5670,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
         <v>43</v>
       </c>
@@ -5736,7 +5681,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
         <v>44</v>
       </c>
@@ -5747,7 +5692,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
         <v>44</v>
       </c>
@@ -5758,7 +5703,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
         <v>44</v>
       </c>
@@ -5769,7 +5714,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
         <v>44</v>
       </c>
@@ -5780,7 +5725,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
         <v>44</v>
       </c>
@@ -5791,7 +5736,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
         <v>44</v>
       </c>
@@ -5802,7 +5747,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
         <v>44</v>
       </c>
@@ -5813,7 +5758,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
         <v>44</v>
       </c>
@@ -5824,7 +5769,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
         <v>44</v>
       </c>
@@ -5835,7 +5780,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
         <v>44</v>
       </c>
@@ -5846,7 +5791,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
         <v>44</v>
       </c>
@@ -5857,7 +5802,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3">
       <c r="A474" t="s">
         <v>45</v>
       </c>
@@ -5868,7 +5813,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3">
       <c r="A475" t="s">
         <v>45</v>
       </c>
@@ -5879,7 +5824,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3">
       <c r="A476" t="s">
         <v>45</v>
       </c>
@@ -5890,7 +5835,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3">
       <c r="A477" t="s">
         <v>45</v>
       </c>
@@ -5901,7 +5846,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3">
       <c r="A478" t="s">
         <v>45</v>
       </c>
@@ -5912,7 +5857,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
         <v>45</v>
       </c>
@@ -5923,7 +5868,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3">
       <c r="A480" t="s">
         <v>45</v>
       </c>
@@ -5934,7 +5879,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3">
       <c r="A481" t="s">
         <v>45</v>
       </c>
@@ -5945,7 +5890,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3">
       <c r="A482" t="s">
         <v>45</v>
       </c>
@@ -5956,7 +5901,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3">
       <c r="A483" t="s">
         <v>45</v>
       </c>
@@ -5967,7 +5912,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3">
       <c r="A484" t="s">
         <v>45</v>
       </c>
@@ -5978,7 +5923,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3">
       <c r="A485" t="s">
         <v>45</v>
       </c>
@@ -5989,7 +5934,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3">
       <c r="A486" t="s">
         <v>45</v>
       </c>
@@ -6000,7 +5945,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3">
       <c r="A487" t="s">
         <v>45</v>
       </c>
@@ -6011,7 +5956,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3">
       <c r="A488" t="s">
         <v>46</v>
       </c>
@@ -6022,7 +5967,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3">
       <c r="A489" t="s">
         <v>46</v>
       </c>
@@ -6033,7 +5978,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3">
       <c r="A490" t="s">
         <v>46</v>
       </c>
@@ -6044,7 +5989,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3">
       <c r="A491" t="s">
         <v>46</v>
       </c>
@@ -6055,7 +6000,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3">
       <c r="A492" t="s">
         <v>46</v>
       </c>
@@ -6066,7 +6011,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
         <v>46</v>
       </c>
@@ -6077,7 +6022,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3">
       <c r="A494" t="s">
         <v>46</v>
       </c>
@@ -6088,7 +6033,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3">
       <c r="A495" t="s">
         <v>46</v>
       </c>
@@ -6099,7 +6044,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3">
       <c r="A496" t="s">
         <v>46</v>
       </c>
@@ -6110,7 +6055,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
         <v>46</v>
       </c>
@@ -6121,7 +6066,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3">
       <c r="A498" t="s">
         <v>46</v>
       </c>
@@ -6132,7 +6077,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3">
       <c r="A499" t="s">
         <v>46</v>
       </c>
@@ -6143,7 +6088,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3">
       <c r="A500" t="s">
         <v>47</v>
       </c>
@@ -6154,7 +6099,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3">
       <c r="A501" t="s">
         <v>47</v>
       </c>
@@ -6165,7 +6110,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3">
       <c r="A502" t="s">
         <v>47</v>
       </c>
@@ -6176,7 +6121,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3">
       <c r="A503" t="s">
         <v>47</v>
       </c>
@@ -6187,7 +6132,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3">
       <c r="A504" t="s">
         <v>47</v>
       </c>
@@ -6198,7 +6143,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3">
       <c r="A505" t="s">
         <v>47</v>
       </c>
@@ -6209,7 +6154,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3">
       <c r="A506" t="s">
         <v>47</v>
       </c>
@@ -6220,7 +6165,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3">
       <c r="A507" t="s">
         <v>48</v>
       </c>
@@ -6231,7 +6176,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3">
       <c r="A508" t="s">
         <v>48</v>
       </c>
@@ -6242,7 +6187,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3">
       <c r="A509" t="s">
         <v>48</v>
       </c>
@@ -6253,7 +6198,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3">
       <c r="A510" t="s">
         <v>48</v>
       </c>
@@ -6264,7 +6209,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
         <v>48</v>
       </c>
@@ -6275,7 +6220,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3">
       <c r="A512" t="s">
         <v>48</v>
       </c>
@@ -6286,7 +6231,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3">
       <c r="A513" t="s">
         <v>48</v>
       </c>
@@ -6297,7 +6242,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3">
       <c r="A514" t="s">
         <v>48</v>
       </c>
@@ -6308,7 +6253,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3">
       <c r="A515" t="s">
         <v>48</v>
       </c>
@@ -6319,7 +6264,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3">
       <c r="A516" t="s">
         <v>48</v>
       </c>
@@ -6330,7 +6275,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3">
       <c r="A517" t="s">
         <v>48</v>
       </c>
@@ -6341,7 +6286,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3">
       <c r="A518" t="s">
         <v>48</v>
       </c>
@@ -6352,7 +6297,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3">
       <c r="A519" t="s">
         <v>48</v>
       </c>
@@ -6363,7 +6308,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3">
       <c r="A520" t="s">
         <v>48</v>
       </c>
@@ -6374,7 +6319,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3">
       <c r="A521" t="s">
         <v>49</v>
       </c>
@@ -6385,7 +6330,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3">
       <c r="A522" t="s">
         <v>49</v>
       </c>
@@ -6396,7 +6341,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3">
       <c r="A523" t="s">
         <v>49</v>
       </c>
@@ -6407,7 +6352,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3">
       <c r="A524" t="s">
         <v>49</v>
       </c>
@@ -6418,7 +6363,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3">
       <c r="A525" t="s">
         <v>49</v>
       </c>
@@ -6429,7 +6374,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3">
       <c r="A526" t="s">
         <v>49</v>
       </c>
@@ -6440,7 +6385,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3">
       <c r="A527" t="s">
         <v>49</v>
       </c>
@@ -6451,7 +6396,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3">
       <c r="A528" t="s">
         <v>49</v>
       </c>
@@ -6462,7 +6407,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3">
       <c r="A529" t="s">
         <v>49</v>
       </c>
@@ -6473,7 +6418,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3">
       <c r="A530" t="s">
         <v>49</v>
       </c>
@@ -6484,7 +6429,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3">
       <c r="A531" t="s">
         <v>50</v>
       </c>
@@ -6495,7 +6440,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3">
       <c r="A532" t="s">
         <v>50</v>
       </c>
@@ -6506,7 +6451,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3">
       <c r="A533" t="s">
         <v>50</v>
       </c>
@@ -6517,7 +6462,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3">
       <c r="A534" t="s">
         <v>50</v>
       </c>
@@ -6528,7 +6473,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3">
       <c r="A535" t="s">
         <v>50</v>
       </c>
@@ -6539,7 +6484,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3">
       <c r="A536" t="s">
         <v>50</v>
       </c>
@@ -6550,7 +6495,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3">
       <c r="A537" t="s">
         <v>50</v>
       </c>
@@ -6561,7 +6506,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3">
       <c r="A538" t="s">
         <v>50</v>
       </c>
@@ -6572,7 +6517,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3">
       <c r="A539" t="s">
         <v>50</v>
       </c>
@@ -6583,7 +6528,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3">
       <c r="A540" t="s">
         <v>50</v>
       </c>
@@ -6594,7 +6539,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3">
       <c r="A541" t="s">
         <v>50</v>
       </c>
@@ -6605,7 +6550,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3">
       <c r="A542" t="s">
         <v>51</v>
       </c>
@@ -6616,7 +6561,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3">
       <c r="A543" t="s">
         <v>51</v>
       </c>
@@ -6627,7 +6572,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3">
       <c r="A544" t="s">
         <v>51</v>
       </c>
@@ -6638,7 +6583,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3">
       <c r="A545" t="s">
         <v>51</v>
       </c>
@@ -6649,7 +6594,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3">
       <c r="A546" t="s">
         <v>51</v>
       </c>
@@ -6660,7 +6605,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3">
       <c r="A547" t="s">
         <v>51</v>
       </c>
@@ -6671,7 +6616,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3">
       <c r="A548" t="s">
         <v>51</v>
       </c>
@@ -6682,7 +6627,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3">
       <c r="A549" t="s">
         <v>51</v>
       </c>
@@ -6693,7 +6638,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3">
       <c r="A550" t="s">
         <v>51</v>
       </c>
@@ -6704,7 +6649,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3">
       <c r="A551" t="s">
         <v>51</v>
       </c>
@@ -6715,7 +6660,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3">
       <c r="A552" t="s">
         <v>51</v>
       </c>
@@ -6726,7 +6671,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3">
       <c r="A553" t="s">
         <v>51</v>
       </c>
@@ -6737,7 +6682,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3">
       <c r="A554" t="s">
         <v>51</v>
       </c>
@@ -6748,7 +6693,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3">
       <c r="A555" t="s">
         <v>51</v>
       </c>
@@ -6759,7 +6704,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3">
       <c r="A556" t="s">
         <v>52</v>
       </c>
@@ -6770,7 +6715,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3">
       <c r="A557" t="s">
         <v>52</v>
       </c>
@@ -6781,7 +6726,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3">
       <c r="A558" t="s">
         <v>52</v>
       </c>
@@ -6792,7 +6737,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3">
       <c r="A559" t="s">
         <v>52</v>
       </c>
@@ -6803,7 +6748,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3">
       <c r="A560" t="s">
         <v>52</v>
       </c>
@@ -6814,7 +6759,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3">
       <c r="A561" t="s">
         <v>52</v>
       </c>
@@ -6825,7 +6770,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3">
       <c r="A562" t="s">
         <v>52</v>
       </c>
@@ -6836,7 +6781,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3">
       <c r="A563" t="s">
         <v>52</v>
       </c>
@@ -6847,7 +6792,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3">
       <c r="A564" t="s">
         <v>52</v>
       </c>
@@ -6858,7 +6803,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3">
       <c r="A565" t="s">
         <v>52</v>
       </c>
@@ -6869,7 +6814,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3">
       <c r="A566" t="s">
         <v>52</v>
       </c>
@@ -6880,7 +6825,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3">
       <c r="A567" t="s">
         <v>52</v>
       </c>
@@ -6891,7 +6836,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3">
       <c r="A568" t="s">
         <v>52</v>
       </c>
@@ -6902,7 +6847,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3">
       <c r="A569" t="s">
         <v>53</v>
       </c>
@@ -6913,7 +6858,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3">
       <c r="A570" t="s">
         <v>53</v>
       </c>
@@ -6924,7 +6869,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3">
       <c r="A571" t="s">
         <v>53</v>
       </c>
@@ -6935,7 +6880,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3">
       <c r="A572" t="s">
         <v>53</v>
       </c>
@@ -6946,7 +6891,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3">
       <c r="A573" t="s">
         <v>53</v>
       </c>
@@ -6957,7 +6902,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3">
       <c r="A574" t="s">
         <v>53</v>
       </c>
@@ -6968,7 +6913,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3">
       <c r="A575" t="s">
         <v>53</v>
       </c>
@@ -6979,7 +6924,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3">
       <c r="A576" t="s">
         <v>53</v>
       </c>
@@ -6990,7 +6935,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3">
       <c r="A577" t="s">
         <v>53</v>
       </c>
@@ -7001,7 +6946,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3">
       <c r="A578" t="s">
         <v>53</v>
       </c>
@@ -7012,7 +6957,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3">
       <c r="A579" t="s">
         <v>53</v>
       </c>
@@ -7023,7 +6968,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3">
       <c r="A580" t="s">
         <v>53</v>
       </c>
@@ -7034,7 +6979,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3">
       <c r="A581" t="s">
         <v>54</v>
       </c>
@@ -7045,7 +6990,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3">
       <c r="A582" t="s">
         <v>54</v>
       </c>
@@ -7056,7 +7001,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3">
       <c r="A583" t="s">
         <v>54</v>
       </c>
@@ -7067,7 +7012,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3">
       <c r="A584" t="s">
         <v>54</v>
       </c>
@@ -7078,7 +7023,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3">
       <c r="A585" t="s">
         <v>54</v>
       </c>
@@ -7089,7 +7034,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3">
       <c r="A586" t="s">
         <v>54</v>
       </c>
@@ -7100,7 +7045,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3">
       <c r="A587" t="s">
         <v>54</v>
       </c>
@@ -7111,7 +7056,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3">
       <c r="A588" t="s">
         <v>54</v>
       </c>
@@ -7122,7 +7067,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3">
       <c r="A589" t="s">
         <v>54</v>
       </c>
@@ -7133,7 +7078,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3">
       <c r="A590" t="s">
         <v>54</v>
       </c>
@@ -7144,7 +7089,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3">
       <c r="A591" t="s">
         <v>54</v>
       </c>
@@ -7155,7 +7100,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3">
       <c r="A592" t="s">
         <v>55</v>
       </c>
@@ -7166,7 +7111,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3">
       <c r="A593" t="s">
         <v>55</v>
       </c>
@@ -7177,7 +7122,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3">
       <c r="A594" t="s">
         <v>55</v>
       </c>
@@ -7188,7 +7133,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3">
       <c r="A595" t="s">
         <v>55</v>
       </c>
@@ -7199,7 +7144,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3">
       <c r="A596" t="s">
         <v>55</v>
       </c>
@@ -7210,7 +7155,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3">
       <c r="A597" t="s">
         <v>55</v>
       </c>
@@ -7221,7 +7166,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3">
       <c r="A598" t="s">
         <v>55</v>
       </c>
@@ -7232,7 +7177,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3">
       <c r="A599" t="s">
         <v>55</v>
       </c>
@@ -7243,7 +7188,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3">
       <c r="A600" t="s">
         <v>55</v>
       </c>
@@ -7254,7 +7199,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3">
       <c r="A601" t="s">
         <v>55</v>
       </c>
@@ -7265,7 +7210,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3">
       <c r="A602" t="s">
         <v>56</v>
       </c>
@@ -7276,7 +7221,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3">
       <c r="A603" t="s">
         <v>56</v>
       </c>
@@ -7287,7 +7232,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3">
       <c r="A604" t="s">
         <v>56</v>
       </c>
@@ -7298,7 +7243,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3">
       <c r="A605" t="s">
         <v>56</v>
       </c>
@@ -7309,7 +7254,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3">
       <c r="A606" t="s">
         <v>56</v>
       </c>
@@ -7320,7 +7265,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3">
       <c r="A607" t="s">
         <v>56</v>
       </c>
@@ -7331,7 +7276,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3">
       <c r="A608" t="s">
         <v>56</v>
       </c>
@@ -7342,7 +7287,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3">
       <c r="A609" t="s">
         <v>56</v>
       </c>
@@ -7353,7 +7298,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3">
       <c r="A610" t="s">
         <v>56</v>
       </c>
@@ -7364,7 +7309,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3">
       <c r="A611" t="s">
         <v>56</v>
       </c>
@@ -7375,7 +7320,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3">
       <c r="A612" t="s">
         <v>56</v>
       </c>
@@ -7386,7 +7331,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3">
       <c r="A613" t="s">
         <v>57</v>
       </c>
@@ -7397,7 +7342,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3">
       <c r="A614" t="s">
         <v>57</v>
       </c>
@@ -7408,7 +7353,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3">
       <c r="A615" t="s">
         <v>57</v>
       </c>
@@ -7419,7 +7364,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3">
       <c r="A616" t="s">
         <v>57</v>
       </c>
@@ -7430,7 +7375,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3">
       <c r="A617" t="s">
         <v>57</v>
       </c>
@@ -7441,7 +7386,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3">
       <c r="A618" t="s">
         <v>57</v>
       </c>
@@ -7452,7 +7397,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3">
       <c r="A619" t="s">
         <v>57</v>
       </c>
@@ -7463,7 +7408,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3">
       <c r="A620" t="s">
         <v>57</v>
       </c>
@@ -7474,7 +7419,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3">
       <c r="A621" t="s">
         <v>57</v>
       </c>
@@ -7485,7 +7430,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3">
       <c r="A622" t="s">
         <v>57</v>
       </c>
@@ -7496,7 +7441,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3">
       <c r="A623" t="s">
         <v>58</v>
       </c>
@@ -7507,7 +7452,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3">
       <c r="A624" t="s">
         <v>58</v>
       </c>
@@ -7518,7 +7463,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3">
       <c r="A625" t="s">
         <v>58</v>
       </c>
@@ -7529,7 +7474,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3">
       <c r="A626" t="s">
         <v>58</v>
       </c>
@@ -7540,7 +7485,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3">
       <c r="A627" t="s">
         <v>58</v>
       </c>
@@ -7551,7 +7496,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3">
       <c r="A628" t="s">
         <v>58</v>
       </c>
@@ -7562,7 +7507,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3">
       <c r="A629" t="s">
         <v>58</v>
       </c>
@@ -7573,7 +7518,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3">
       <c r="A630" t="s">
         <v>58</v>
       </c>
@@ -7584,7 +7529,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3">
       <c r="A631" t="s">
         <v>58</v>
       </c>
@@ -7595,7 +7540,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3">
       <c r="A632" t="s">
         <v>58</v>
       </c>
@@ -7606,7 +7551,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3">
       <c r="A633" t="s">
         <v>59</v>
       </c>
@@ -7617,7 +7562,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3">
       <c r="A634" t="s">
         <v>59</v>
       </c>
@@ -7628,7 +7573,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3">
       <c r="A635" t="s">
         <v>59</v>
       </c>
@@ -7639,7 +7584,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3">
       <c r="A636" t="s">
         <v>59</v>
       </c>
@@ -7650,7 +7595,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3">
       <c r="A637" t="s">
         <v>59</v>
       </c>
@@ -7661,7 +7606,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3">
       <c r="A638" t="s">
         <v>59</v>
       </c>
@@ -7672,7 +7617,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3">
       <c r="A639" t="s">
         <v>59</v>
       </c>
@@ -7683,7 +7628,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3">
       <c r="A640" t="s">
         <v>59</v>
       </c>
@@ -7694,7 +7639,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3">
       <c r="A641" t="s">
         <v>59</v>
       </c>
@@ -7705,7 +7650,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3">
       <c r="A642" t="s">
         <v>59</v>
       </c>
@@ -7716,7 +7661,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3">
       <c r="A643" t="s">
         <v>60</v>
       </c>
@@ -7727,7 +7672,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3">
       <c r="A644" t="s">
         <v>60</v>
       </c>
@@ -7738,7 +7683,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3">
       <c r="A645" t="s">
         <v>60</v>
       </c>
@@ -7749,7 +7694,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3">
       <c r="A646" t="s">
         <v>60</v>
       </c>
@@ -7760,7 +7705,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3">
       <c r="A647" t="s">
         <v>60</v>
       </c>
@@ -7771,7 +7716,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3">
       <c r="A648" t="s">
         <v>60</v>
       </c>
@@ -7782,7 +7727,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3">
       <c r="A649" t="s">
         <v>60</v>
       </c>
@@ -7793,7 +7738,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3">
       <c r="A650" t="s">
         <v>60</v>
       </c>
@@ -7804,7 +7749,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3">
       <c r="A651" t="s">
         <v>60</v>
       </c>
@@ -7815,7 +7760,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3">
       <c r="A652" t="s">
         <v>60</v>
       </c>
@@ -7826,7 +7771,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3">
       <c r="A653" t="s">
         <v>60</v>
       </c>
@@ -7837,7 +7782,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3">
       <c r="A654" t="s">
         <v>61</v>
       </c>
@@ -7848,7 +7793,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3">
       <c r="A655" t="s">
         <v>61</v>
       </c>
@@ -7859,7 +7804,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3">
       <c r="A656" t="s">
         <v>61</v>
       </c>
@@ -7870,7 +7815,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3">
       <c r="A657" t="s">
         <v>61</v>
       </c>
@@ -7881,7 +7826,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3">
       <c r="A658" t="s">
         <v>61</v>
       </c>
@@ -7892,7 +7837,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3">
       <c r="A659" t="s">
         <v>61</v>
       </c>
@@ -7903,7 +7848,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3">
       <c r="A660" t="s">
         <v>61</v>
       </c>
@@ -7914,7 +7859,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3">
       <c r="A661" t="s">
         <v>61</v>
       </c>
@@ -7925,7 +7870,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3">
       <c r="A662" t="s">
         <v>61</v>
       </c>
@@ -7936,7 +7881,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3">
       <c r="A663" t="s">
         <v>61</v>
       </c>
@@ -7947,7 +7892,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3">
       <c r="A664" t="s">
         <v>61</v>
       </c>
@@ -7958,7 +7903,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3">
       <c r="A665" t="s">
         <v>62</v>
       </c>
@@ -7969,7 +7914,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3">
       <c r="A666" t="s">
         <v>62</v>
       </c>
@@ -7980,7 +7925,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3">
       <c r="A667" t="s">
         <v>62</v>
       </c>
@@ -7991,7 +7936,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3">
       <c r="A668" t="s">
         <v>62</v>
       </c>
@@ -8002,7 +7947,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3">
       <c r="A669" t="s">
         <v>62</v>
       </c>
@@ -8013,7 +7958,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3">
       <c r="A670" t="s">
         <v>62</v>
       </c>
@@ -8024,7 +7969,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3">
       <c r="A671" t="s">
         <v>62</v>
       </c>
@@ -8035,7 +7980,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3">
       <c r="A672" t="s">
         <v>62</v>
       </c>
@@ -8046,7 +7991,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3">
       <c r="A673" t="s">
         <v>62</v>
       </c>
@@ -8057,7 +8002,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3">
       <c r="A674" t="s">
         <v>62</v>
       </c>
@@ -8068,7 +8013,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3">
       <c r="A675" t="s">
         <v>62</v>
       </c>
@@ -8079,7 +8024,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3">
       <c r="A676" t="s">
         <v>62</v>
       </c>
@@ -8090,7 +8035,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3">
       <c r="A677" t="s">
         <v>62</v>
       </c>
@@ -8101,7 +8046,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3">
       <c r="A678" t="s">
         <v>62</v>
       </c>
@@ -8112,7 +8057,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3">
       <c r="A679" t="s">
         <v>62</v>
       </c>
@@ -8123,7 +8068,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3">
       <c r="A680" t="s">
         <v>63</v>
       </c>
@@ -8134,7 +8079,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3">
       <c r="A681" t="s">
         <v>63</v>
       </c>
@@ -8145,7 +8090,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3">
       <c r="A682" t="s">
         <v>63</v>
       </c>
@@ -8156,7 +8101,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3">
       <c r="A683" t="s">
         <v>63</v>
       </c>
@@ -8167,7 +8112,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3">
       <c r="A684" t="s">
         <v>63</v>
       </c>
@@ -8178,7 +8123,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3">
       <c r="A685" t="s">
         <v>63</v>
       </c>
@@ -8189,7 +8134,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3">
       <c r="A686" t="s">
         <v>63</v>
       </c>
@@ -8200,7 +8145,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3">
       <c r="A687" t="s">
         <v>63</v>
       </c>
@@ -8211,7 +8156,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3">
       <c r="A688" t="s">
         <v>63</v>
       </c>
@@ -8222,7 +8167,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3">
       <c r="A689" t="s">
         <v>63</v>
       </c>
@@ -8233,7 +8178,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3">
       <c r="A690" t="s">
         <v>63</v>
       </c>
@@ -8244,7 +8189,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3">
       <c r="A691" t="s">
         <v>63</v>
       </c>
@@ -8255,7 +8200,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3">
       <c r="A692" t="s">
         <v>63</v>
       </c>
@@ -8266,7 +8211,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3">
       <c r="A693" t="s">
         <v>63</v>
       </c>
@@ -8277,7 +8222,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3">
       <c r="A694" t="s">
         <v>64</v>
       </c>
@@ -8288,7 +8233,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3">
       <c r="A695" t="s">
         <v>64</v>
       </c>
@@ -8299,7 +8244,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3">
       <c r="A696" t="s">
         <v>64</v>
       </c>
@@ -8310,7 +8255,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3">
       <c r="A697" t="s">
         <v>64</v>
       </c>
@@ -8321,7 +8266,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3">
       <c r="A698" t="s">
         <v>64</v>
       </c>
@@ -8332,7 +8277,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3">
       <c r="A699" t="s">
         <v>64</v>
       </c>
@@ -8343,7 +8288,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3">
       <c r="A700" t="s">
         <v>64</v>
       </c>
@@ -8354,7 +8299,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3">
       <c r="A701" t="s">
         <v>64</v>
       </c>
@@ -8365,7 +8310,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3">
       <c r="A702" t="s">
         <v>64</v>
       </c>
@@ -8376,7 +8321,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3">
       <c r="A703" t="s">
         <v>64</v>
       </c>
@@ -8387,7 +8332,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3">
       <c r="A704" t="s">
         <v>64</v>
       </c>
@@ -8398,7 +8343,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3">
       <c r="A705" t="s">
         <v>64</v>
       </c>
@@ -8409,7 +8354,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3">
       <c r="A706" t="s">
         <v>64</v>
       </c>
@@ -8420,7 +8365,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3">
       <c r="A707" t="s">
         <v>65</v>
       </c>
@@ -8431,7 +8376,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3">
       <c r="A708" t="s">
         <v>65</v>
       </c>
@@ -8442,7 +8387,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3">
       <c r="A709" t="s">
         <v>65</v>
       </c>
@@ -8453,7 +8398,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3">
       <c r="A710" t="s">
         <v>65</v>
       </c>
@@ -8464,7 +8409,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3">
       <c r="A711" t="s">
         <v>65</v>
       </c>
@@ -8475,7 +8420,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3">
       <c r="A712" t="s">
         <v>65</v>
       </c>
@@ -8486,7 +8431,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3">
       <c r="A713" t="s">
         <v>65</v>
       </c>
@@ -8497,7 +8442,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3">
       <c r="A714" t="s">
         <v>65</v>
       </c>
@@ -8508,7 +8453,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3">
       <c r="A715" t="s">
         <v>65</v>
       </c>
@@ -8519,7 +8464,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3">
       <c r="A716" t="s">
         <v>65</v>
       </c>
@@ -8530,7 +8475,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3">
       <c r="A717" t="s">
         <v>65</v>
       </c>
@@ -8541,7 +8486,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3">
       <c r="A718" t="s">
         <v>66</v>
       </c>
@@ -8552,7 +8497,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3">
       <c r="A719" t="s">
         <v>66</v>
       </c>
@@ -8563,7 +8508,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3">
       <c r="A720" t="s">
         <v>66</v>
       </c>
@@ -8574,7 +8519,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3">
       <c r="A721" t="s">
         <v>66</v>
       </c>
@@ -8585,7 +8530,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3">
       <c r="A722" t="s">
         <v>66</v>
       </c>
@@ -8596,7 +8541,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3">
       <c r="A723" t="s">
         <v>66</v>
       </c>
@@ -8607,7 +8552,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3">
       <c r="A724" t="s">
         <v>66</v>
       </c>
@@ -8618,7 +8563,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3">
       <c r="A725" t="s">
         <v>66</v>
       </c>
@@ -8629,7 +8574,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3">
       <c r="A726" t="s">
         <v>66</v>
       </c>
@@ -8640,7 +8585,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3">
       <c r="A727" t="s">
         <v>66</v>
       </c>
@@ -8651,7 +8596,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3">
       <c r="A728" t="s">
         <v>67</v>
       </c>
@@ -8662,7 +8607,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3">
       <c r="A729" t="s">
         <v>67</v>
       </c>
@@ -8673,7 +8618,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3">
       <c r="A730" t="s">
         <v>67</v>
       </c>
@@ -8684,7 +8629,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3">
       <c r="A731" t="s">
         <v>67</v>
       </c>
@@ -8695,7 +8640,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3">
       <c r="A732" t="s">
         <v>67</v>
       </c>
@@ -8706,7 +8651,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3">
       <c r="A733" t="s">
         <v>67</v>
       </c>
@@ -8717,7 +8662,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3">
       <c r="A734" t="s">
         <v>67</v>
       </c>
@@ -8728,7 +8673,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3">
       <c r="A735" t="s">
         <v>67</v>
       </c>
@@ -8739,7 +8684,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3">
       <c r="A736" t="s">
         <v>67</v>
       </c>
@@ -8750,7 +8695,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3">
       <c r="A737" t="s">
         <v>68</v>
       </c>
@@ -8761,7 +8706,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3">
       <c r="A738" t="s">
         <v>68</v>
       </c>
@@ -8772,7 +8717,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3">
       <c r="A739" t="s">
         <v>68</v>
       </c>
@@ -8783,7 +8728,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3">
       <c r="A740" t="s">
         <v>68</v>
       </c>
@@ -8794,7 +8739,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3">
       <c r="A741" t="s">
         <v>68</v>
       </c>
@@ -8805,7 +8750,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3">
       <c r="A742" t="s">
         <v>68</v>
       </c>
@@ -8816,7 +8761,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3">
       <c r="A743" t="s">
         <v>68</v>
       </c>
@@ -8827,7 +8772,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3">
       <c r="A744" t="s">
         <v>68</v>
       </c>
@@ -8838,7 +8783,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3">
       <c r="A745" t="s">
         <v>68</v>
       </c>
@@ -8849,7 +8794,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3">
       <c r="A746" t="s">
         <v>68</v>
       </c>
@@ -8860,7 +8805,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3">
       <c r="A747" t="s">
         <v>68</v>
       </c>
@@ -8871,7 +8816,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3">
       <c r="A748" t="s">
         <v>68</v>
       </c>
@@ -8882,7 +8827,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3">
       <c r="A749" t="s">
         <v>68</v>
       </c>
@@ -8893,7 +8838,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3">
       <c r="A750" t="s">
         <v>68</v>
       </c>
@@ -8904,7 +8849,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3">
       <c r="A751" t="s">
         <v>69</v>
       </c>
@@ -8915,7 +8860,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3">
       <c r="A752" t="s">
         <v>69</v>
       </c>
@@ -8926,7 +8871,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3">
       <c r="A753" t="s">
         <v>69</v>
       </c>
@@ -8937,7 +8882,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3">
       <c r="A754" t="s">
         <v>69</v>
       </c>
@@ -8948,7 +8893,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3">
       <c r="A755" t="s">
         <v>69</v>
       </c>
@@ -8959,7 +8904,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3">
       <c r="A756" t="s">
         <v>69</v>
       </c>
@@ -8970,7 +8915,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3">
       <c r="A757" t="s">
         <v>69</v>
       </c>
@@ -8981,7 +8926,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3">
       <c r="A758" t="s">
         <v>69</v>
       </c>
@@ -8992,7 +8937,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3">
       <c r="A759" t="s">
         <v>69</v>
       </c>
@@ -9003,7 +8948,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3">
       <c r="A760" t="s">
         <v>69</v>
       </c>
@@ -9014,7 +8959,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3">
       <c r="A761" t="s">
         <v>69</v>
       </c>
@@ -9025,7 +8970,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3">
       <c r="A762" t="s">
         <v>70</v>
       </c>
@@ -9036,7 +8981,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3">
       <c r="A763" t="s">
         <v>70</v>
       </c>
@@ -9047,7 +8992,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3">
       <c r="A764" t="s">
         <v>70</v>
       </c>
@@ -9058,7 +9003,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3">
       <c r="A765" t="s">
         <v>70</v>
       </c>
@@ -9069,7 +9014,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3">
       <c r="A766" t="s">
         <v>70</v>
       </c>
@@ -9080,7 +9025,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3">
       <c r="A767" t="s">
         <v>70</v>
       </c>
@@ -9091,7 +9036,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3">
       <c r="A768" t="s">
         <v>70</v>
       </c>
@@ -9102,7 +9047,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3">
       <c r="A769" t="s">
         <v>70</v>
       </c>
@@ -9113,7 +9058,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3">
       <c r="A770" t="s">
         <v>70</v>
       </c>
@@ -9124,7 +9069,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3">
       <c r="A771" t="s">
         <v>70</v>
       </c>
@@ -9135,7 +9080,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3">
       <c r="A772" t="s">
         <v>71</v>
       </c>
@@ -9146,7 +9091,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3">
       <c r="A773" t="s">
         <v>71</v>
       </c>
@@ -9157,7 +9102,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3">
       <c r="A774" t="s">
         <v>71</v>
       </c>
@@ -9168,7 +9113,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3">
       <c r="A775" t="s">
         <v>71</v>
       </c>
@@ -9179,7 +9124,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3">
       <c r="A776" t="s">
         <v>71</v>
       </c>
@@ -9190,7 +9135,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3">
       <c r="A777" t="s">
         <v>71</v>
       </c>
@@ -9201,7 +9146,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3">
       <c r="A778" t="s">
         <v>71</v>
       </c>
@@ -9212,7 +9157,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3">
       <c r="A779" t="s">
         <v>71</v>
       </c>
@@ -9223,7 +9168,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3">
       <c r="A780" t="s">
         <v>71</v>
       </c>
@@ -9234,7 +9179,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3">
       <c r="A781" t="s">
         <v>71</v>
       </c>
@@ -9245,7 +9190,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3">
       <c r="A782" t="s">
         <v>71</v>
       </c>
@@ -9256,7 +9201,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3">
       <c r="A783" t="s">
         <v>72</v>
       </c>
@@ -9267,7 +9212,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3">
       <c r="A784" t="s">
         <v>72</v>
       </c>
@@ -9278,7 +9223,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3">
       <c r="A785" t="s">
         <v>72</v>
       </c>
@@ -9289,7 +9234,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3">
       <c r="A786" t="s">
         <v>72</v>
       </c>
@@ -9300,7 +9245,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3">
       <c r="A787" t="s">
         <v>72</v>
       </c>
@@ -9311,7 +9256,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3">
       <c r="A788" t="s">
         <v>72</v>
       </c>
@@ -9322,7 +9267,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3">
       <c r="A789" t="s">
         <v>72</v>
       </c>
@@ -9333,7 +9278,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3">
       <c r="A790" t="s">
         <v>72</v>
       </c>
@@ -9344,7 +9289,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3">
       <c r="A791" t="s">
         <v>72</v>
       </c>
@@ -9355,7 +9300,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3">
       <c r="A792" t="s">
         <v>72</v>
       </c>
@@ -9366,7 +9311,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3">
       <c r="A793" t="s">
         <v>72</v>
       </c>
@@ -9377,7 +9322,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3">
       <c r="A794" t="s">
         <v>73</v>
       </c>
@@ -9388,7 +9333,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3">
       <c r="A795" t="s">
         <v>73</v>
       </c>
@@ -9399,7 +9344,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3">
       <c r="A796" t="s">
         <v>73</v>
       </c>
@@ -9410,7 +9355,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -9421,7 +9366,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3">
       <c r="A798" t="s">
         <v>73</v>
       </c>
@@ -9432,7 +9377,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3">
       <c r="A799" t="s">
         <v>73</v>
       </c>
@@ -9443,7 +9388,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3">
       <c r="A800" t="s">
         <v>73</v>
       </c>
@@ -9454,7 +9399,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3">
       <c r="A801" t="s">
         <v>73</v>
       </c>
@@ -9465,7 +9410,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3">
       <c r="A802" t="s">
         <v>73</v>
       </c>
@@ -9476,7 +9421,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3">
       <c r="A803" t="s">
         <v>73</v>
       </c>
@@ -9487,7 +9432,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3">
       <c r="A804" t="s">
         <v>73</v>
       </c>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21df80ec97692de0/Documentos/GitHub/ARKAD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921ED3FB38A01992D4C4BFDBFE52B565B4AB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718285D2-F00A-4335-ABD2-55F5F689EB34}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="2112" yWindow="1824" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -241,8 +250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,11 +314,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -351,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,9 +400,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,6 +452,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,14 +645,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C804"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -621,7 +679,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -632,7 +690,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -643,7 +701,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -654,7 +712,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -665,7 +723,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -676,7 +734,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -687,7 +745,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -698,7 +756,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -709,7 +767,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -720,7 +778,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -731,7 +789,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -742,7 +800,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -753,7 +811,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -764,7 +822,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -775,7 +833,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -786,7 +844,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -797,7 +855,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -808,7 +866,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -819,7 +877,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -830,7 +888,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -841,7 +899,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -852,7 +910,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -863,7 +921,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -874,7 +932,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -885,7 +943,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -896,7 +954,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -907,7 +965,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -918,7 +976,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -929,7 +987,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -940,7 +998,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -951,7 +1009,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -962,7 +1020,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -973,7 +1031,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -984,7 +1042,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1053,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1064,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1075,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1086,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1097,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +1108,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1119,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1130,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1141,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1152,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1163,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1174,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1185,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1196,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1207,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1218,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1229,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1240,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1251,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1262,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1273,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1284,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1295,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1306,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1317,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1328,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1339,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1292,7 +1350,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1361,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1372,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1383,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1336,7 +1394,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1405,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +1416,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1427,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1380,7 +1438,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1391,7 +1449,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1460,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1471,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1482,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1493,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -1446,7 +1504,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1515,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -1468,7 +1526,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1537,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1548,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1559,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1570,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1581,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1592,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1603,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +1614,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1625,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1636,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -1589,7 +1647,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1658,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -1611,7 +1669,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -1622,7 +1680,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +1691,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1702,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1713,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -1666,7 +1724,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +1735,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1746,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -1699,7 +1757,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -1710,7 +1768,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1779,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1790,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +1801,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -1754,7 +1812,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -1765,7 +1823,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +1834,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -1787,7 +1845,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +1856,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1867,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1878,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +1889,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -1842,7 +1900,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1911,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -1864,7 +1922,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -1875,7 +1933,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -1886,7 +1944,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -1897,7 +1955,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -1908,7 +1966,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -1919,7 +1977,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1988,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -1941,7 +1999,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -1952,7 +2010,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -1963,7 +2021,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -1974,7 +2032,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +2043,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +2054,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -2007,7 +2065,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -2018,7 +2076,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +2087,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +2098,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -2051,7 +2109,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -2062,7 +2120,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -2073,7 +2131,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2142,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -2095,7 +2153,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2164,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -2117,7 +2175,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2186,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -2139,7 +2197,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -2150,7 +2208,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -2161,7 +2219,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -2172,7 +2230,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -2183,7 +2241,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -2194,7 +2252,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -2205,7 +2263,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -2216,7 +2274,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -2227,7 +2285,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -2238,7 +2296,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -2249,7 +2307,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2318,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -2271,7 +2329,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -2282,7 +2340,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -2293,7 +2351,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -2304,7 +2362,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -2315,7 +2373,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -2326,7 +2384,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -2337,7 +2395,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -2348,7 +2406,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2417,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -2370,7 +2428,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -2381,7 +2439,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -2392,7 +2450,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -2403,7 +2461,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -2414,7 +2472,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -2425,7 +2483,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -2436,7 +2494,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -2447,7 +2505,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -2458,7 +2516,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -2469,7 +2527,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -2480,7 +2538,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -2491,7 +2549,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -2502,7 +2560,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -2513,7 +2571,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -2524,7 +2582,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +2593,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -2546,7 +2604,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -2557,7 +2615,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -2568,7 +2626,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -2579,7 +2637,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -2590,7 +2648,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -2601,7 +2659,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2670,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -2623,7 +2681,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2692,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -2645,7 +2703,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -2656,7 +2714,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -2667,7 +2725,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2736,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -2689,7 +2747,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -2700,7 +2758,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -2711,7 +2769,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -2722,7 +2780,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -2733,7 +2791,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -2744,7 +2802,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -2755,7 +2813,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -2766,7 +2824,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -2777,7 +2835,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -2788,7 +2846,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -2799,7 +2857,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -2810,7 +2868,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -2821,7 +2879,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -2832,7 +2890,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -2843,7 +2901,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -2854,7 +2912,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -2865,7 +2923,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -2876,7 +2934,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -2887,7 +2945,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>22</v>
       </c>
@@ -2898,7 +2956,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2967,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -2920,7 +2978,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2989,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -2942,7 +3000,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -2953,7 +3011,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -2964,7 +3022,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -2975,7 +3033,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -2986,7 +3044,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -2997,7 +3055,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -3008,7 +3066,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -3019,7 +3077,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -3030,7 +3088,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -3041,7 +3099,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -3052,7 +3110,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -3063,7 +3121,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -3074,7 +3132,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -3085,7 +3143,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -3096,7 +3154,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -3107,7 +3165,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3176,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>24</v>
       </c>
@@ -3129,7 +3187,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>24</v>
       </c>
@@ -3140,7 +3198,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>24</v>
       </c>
@@ -3151,7 +3209,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -3162,7 +3220,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -3173,7 +3231,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -3184,7 +3242,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -3195,7 +3253,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -3206,7 +3264,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -3217,7 +3275,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -3228,7 +3286,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -3239,7 +3297,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>25</v>
       </c>
@@ -3250,7 +3308,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>25</v>
       </c>
@@ -3261,7 +3319,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>25</v>
       </c>
@@ -3272,7 +3330,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -3283,7 +3341,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -3294,7 +3352,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -3305,7 +3363,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -3316,7 +3374,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -3327,7 +3385,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -3338,7 +3396,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -3349,7 +3407,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -3360,7 +3418,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -3371,7 +3429,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -3382,7 +3440,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -3393,7 +3451,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -3404,7 +3462,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -3415,7 +3473,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -3426,7 +3484,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -3437,7 +3495,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -3448,7 +3506,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -3459,7 +3517,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -3470,7 +3528,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -3481,7 +3539,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -3492,7 +3550,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>27</v>
       </c>
@@ -3503,7 +3561,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -3514,7 +3572,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -3525,7 +3583,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -3536,7 +3594,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -3547,7 +3605,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>28</v>
       </c>
@@ -3558,7 +3616,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>28</v>
       </c>
@@ -3569,7 +3627,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>28</v>
       </c>
@@ -3580,7 +3638,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>28</v>
       </c>
@@ -3591,7 +3649,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>28</v>
       </c>
@@ -3602,7 +3660,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>28</v>
       </c>
@@ -3613,7 +3671,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>28</v>
       </c>
@@ -3624,7 +3682,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>28</v>
       </c>
@@ -3635,7 +3693,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>28</v>
       </c>
@@ -3646,7 +3704,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>28</v>
       </c>
@@ -3657,7 +3715,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -3668,7 +3726,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>28</v>
       </c>
@@ -3679,7 +3737,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>28</v>
       </c>
@@ -3690,7 +3748,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>29</v>
       </c>
@@ -3701,7 +3759,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>29</v>
       </c>
@@ -3712,7 +3770,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>29</v>
       </c>
@@ -3723,7 +3781,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>29</v>
       </c>
@@ -3734,7 +3792,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>29</v>
       </c>
@@ -3745,7 +3803,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>29</v>
       </c>
@@ -3756,7 +3814,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -3767,7 +3825,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -3778,7 +3836,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>30</v>
       </c>
@@ -3789,7 +3847,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>30</v>
       </c>
@@ -3800,7 +3858,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>30</v>
       </c>
@@ -3811,7 +3869,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>30</v>
       </c>
@@ -3822,7 +3880,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>30</v>
       </c>
@@ -3833,7 +3891,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>30</v>
       </c>
@@ -3844,7 +3902,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>30</v>
       </c>
@@ -3855,7 +3913,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>30</v>
       </c>
@@ -3866,7 +3924,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>30</v>
       </c>
@@ -3877,7 +3935,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>30</v>
       </c>
@@ -3888,7 +3946,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>30</v>
       </c>
@@ -3899,7 +3957,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>30</v>
       </c>
@@ -3910,7 +3968,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>31</v>
       </c>
@@ -3921,7 +3979,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>31</v>
       </c>
@@ -3932,7 +3990,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>31</v>
       </c>
@@ -3943,7 +4001,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>31</v>
       </c>
@@ -3954,7 +4012,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>31</v>
       </c>
@@ -3965,7 +4023,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>31</v>
       </c>
@@ -3976,7 +4034,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>31</v>
       </c>
@@ -3987,7 +4045,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -3998,7 +4056,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>31</v>
       </c>
@@ -4009,7 +4067,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>31</v>
       </c>
@@ -4020,7 +4078,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>31</v>
       </c>
@@ -4031,7 +4089,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>31</v>
       </c>
@@ -4042,7 +4100,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>31</v>
       </c>
@@ -4053,7 +4111,7 @@
         <v>20072008</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>31</v>
       </c>
@@ -4064,7 +4122,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4133,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -4086,7 +4144,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>32</v>
       </c>
@@ -4097,7 +4155,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>32</v>
       </c>
@@ -4108,7 +4166,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>32</v>
       </c>
@@ -4119,7 +4177,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -4130,7 +4188,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>32</v>
       </c>
@@ -4141,7 +4199,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>32</v>
       </c>
@@ -4152,7 +4210,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>32</v>
       </c>
@@ -4163,7 +4221,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>32</v>
       </c>
@@ -4174,7 +4232,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>32</v>
       </c>
@@ -4185,7 +4243,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>32</v>
       </c>
@@ -4196,7 +4254,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -4207,7 +4265,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>33</v>
       </c>
@@ -4218,7 +4276,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -4229,7 +4287,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -4240,7 +4298,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -4251,7 +4309,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>33</v>
       </c>
@@ -4262,7 +4320,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>33</v>
       </c>
@@ -4273,7 +4331,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>33</v>
       </c>
@@ -4284,7 +4342,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>33</v>
       </c>
@@ -4295,7 +4353,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>33</v>
       </c>
@@ -4306,7 +4364,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>33</v>
       </c>
@@ -4317,7 +4375,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>33</v>
       </c>
@@ -4328,7 +4386,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>33</v>
       </c>
@@ -4339,7 +4397,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>33</v>
       </c>
@@ -4350,7 +4408,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>34</v>
       </c>
@@ -4361,7 +4419,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -4372,7 +4430,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>34</v>
       </c>
@@ -4383,7 +4441,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>34</v>
       </c>
@@ -4394,7 +4452,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>34</v>
       </c>
@@ -4405,7 +4463,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>34</v>
       </c>
@@ -4416,7 +4474,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>34</v>
       </c>
@@ -4427,7 +4485,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>34</v>
       </c>
@@ -4438,7 +4496,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>34</v>
       </c>
@@ -4449,7 +4507,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>34</v>
       </c>
@@ -4460,7 +4518,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>34</v>
       </c>
@@ -4471,7 +4529,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>35</v>
       </c>
@@ -4482,7 +4540,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>35</v>
       </c>
@@ -4493,7 +4551,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>35</v>
       </c>
@@ -4504,7 +4562,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>35</v>
       </c>
@@ -4515,7 +4573,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>35</v>
       </c>
@@ -4526,7 +4584,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>35</v>
       </c>
@@ -4537,7 +4595,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>35</v>
       </c>
@@ -4548,7 +4606,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>35</v>
       </c>
@@ -4559,7 +4617,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>35</v>
       </c>
@@ -4570,7 +4628,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>35</v>
       </c>
@@ -4581,7 +4639,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>35</v>
       </c>
@@ -4592,7 +4650,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>35</v>
       </c>
@@ -4603,7 +4661,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>35</v>
       </c>
@@ -4614,7 +4672,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>36</v>
       </c>
@@ -4625,7 +4683,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>36</v>
       </c>
@@ -4636,7 +4694,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>36</v>
       </c>
@@ -4647,7 +4705,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>36</v>
       </c>
@@ -4658,7 +4716,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>36</v>
       </c>
@@ -4669,7 +4727,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>36</v>
       </c>
@@ -4680,7 +4738,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>36</v>
       </c>
@@ -4691,7 +4749,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>36</v>
       </c>
@@ -4702,7 +4760,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>36</v>
       </c>
@@ -4713,7 +4771,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>36</v>
       </c>
@@ -4724,7 +4782,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>36</v>
       </c>
@@ -4735,7 +4793,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>36</v>
       </c>
@@ -4746,7 +4804,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>36</v>
       </c>
@@ -4757,7 +4815,7 @@
         <v>20072008</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>36</v>
       </c>
@@ -4768,7 +4826,7 @@
         <v>20062007</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>36</v>
       </c>
@@ -4779,7 +4837,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>36</v>
       </c>
@@ -4790,7 +4848,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>36</v>
       </c>
@@ -4801,7 +4859,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>37</v>
       </c>
@@ -4812,7 +4870,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>37</v>
       </c>
@@ -4823,7 +4881,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>37</v>
       </c>
@@ -4834,7 +4892,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>37</v>
       </c>
@@ -4845,7 +4903,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>37</v>
       </c>
@@ -4856,7 +4914,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>37</v>
       </c>
@@ -4867,7 +4925,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>37</v>
       </c>
@@ -4878,7 +4936,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>37</v>
       </c>
@@ -4889,7 +4947,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>37</v>
       </c>
@@ -4900,7 +4958,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>37</v>
       </c>
@@ -4911,7 +4969,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>38</v>
       </c>
@@ -4922,7 +4980,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>38</v>
       </c>
@@ -4933,7 +4991,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>38</v>
       </c>
@@ -4944,7 +5002,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>38</v>
       </c>
@@ -4955,7 +5013,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>38</v>
       </c>
@@ -4966,7 +5024,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>38</v>
       </c>
@@ -4977,7 +5035,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>38</v>
       </c>
@@ -4988,7 +5046,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>38</v>
       </c>
@@ -4999,7 +5057,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>38</v>
       </c>
@@ -5010,7 +5068,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>38</v>
       </c>
@@ -5021,7 +5079,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>39</v>
       </c>
@@ -5032,7 +5090,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>39</v>
       </c>
@@ -5043,7 +5101,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>39</v>
       </c>
@@ -5054,7 +5112,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>39</v>
       </c>
@@ -5065,7 +5123,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>39</v>
       </c>
@@ -5076,7 +5134,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -5087,7 +5145,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>39</v>
       </c>
@@ -5098,7 +5156,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>39</v>
       </c>
@@ -5109,7 +5167,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>39</v>
       </c>
@@ -5120,7 +5178,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>39</v>
       </c>
@@ -5131,7 +5189,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>39</v>
       </c>
@@ -5142,7 +5200,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>39</v>
       </c>
@@ -5153,7 +5211,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>39</v>
       </c>
@@ -5164,7 +5222,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>39</v>
       </c>
@@ -5175,7 +5233,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>40</v>
       </c>
@@ -5186,7 +5244,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>40</v>
       </c>
@@ -5197,7 +5255,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>40</v>
       </c>
@@ -5208,7 +5266,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>40</v>
       </c>
@@ -5219,7 +5277,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>40</v>
       </c>
@@ -5230,7 +5288,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>40</v>
       </c>
@@ -5241,7 +5299,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>40</v>
       </c>
@@ -5252,7 +5310,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -5263,7 +5321,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>40</v>
       </c>
@@ -5274,7 +5332,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>40</v>
       </c>
@@ -5285,7 +5343,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>40</v>
       </c>
@@ -5296,7 +5354,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>40</v>
       </c>
@@ -5307,7 +5365,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>40</v>
       </c>
@@ -5318,7 +5376,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>40</v>
       </c>
@@ -5329,7 +5387,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>41</v>
       </c>
@@ -5340,7 +5398,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>41</v>
       </c>
@@ -5351,7 +5409,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>41</v>
       </c>
@@ -5362,7 +5420,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>41</v>
       </c>
@@ -5373,7 +5431,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>41</v>
       </c>
@@ -5384,7 +5442,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>41</v>
       </c>
@@ -5395,7 +5453,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>41</v>
       </c>
@@ -5406,7 +5464,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>41</v>
       </c>
@@ -5417,7 +5475,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>41</v>
       </c>
@@ -5428,7 +5486,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>41</v>
       </c>
@@ -5439,7 +5497,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>41</v>
       </c>
@@ -5450,7 +5508,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>41</v>
       </c>
@@ -5461,7 +5519,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>42</v>
       </c>
@@ -5472,7 +5530,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>42</v>
       </c>
@@ -5483,7 +5541,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>42</v>
       </c>
@@ -5494,7 +5552,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>42</v>
       </c>
@@ -5505,7 +5563,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>42</v>
       </c>
@@ -5516,7 +5574,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>42</v>
       </c>
@@ -5527,7 +5585,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>42</v>
       </c>
@@ -5538,7 +5596,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>42</v>
       </c>
@@ -5549,7 +5607,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>42</v>
       </c>
@@ -5560,7 +5618,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>42</v>
       </c>
@@ -5571,7 +5629,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>43</v>
       </c>
@@ -5582,7 +5640,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>43</v>
       </c>
@@ -5593,7 +5651,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>43</v>
       </c>
@@ -5604,7 +5662,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>43</v>
       </c>
@@ -5615,7 +5673,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>43</v>
       </c>
@@ -5626,7 +5684,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>43</v>
       </c>
@@ -5637,7 +5695,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>43</v>
       </c>
@@ -5648,7 +5706,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>43</v>
       </c>
@@ -5659,7 +5717,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>43</v>
       </c>
@@ -5670,7 +5728,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>43</v>
       </c>
@@ -5681,7 +5739,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>44</v>
       </c>
@@ -5692,7 +5750,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>44</v>
       </c>
@@ -5703,7 +5761,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>44</v>
       </c>
@@ -5714,7 +5772,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>44</v>
       </c>
@@ -5725,7 +5783,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>44</v>
       </c>
@@ -5736,7 +5794,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>44</v>
       </c>
@@ -5747,7 +5805,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>44</v>
       </c>
@@ -5758,7 +5816,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>44</v>
       </c>
@@ -5769,7 +5827,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>44</v>
       </c>
@@ -5780,7 +5838,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>44</v>
       </c>
@@ -5791,7 +5849,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>44</v>
       </c>
@@ -5802,7 +5860,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>45</v>
       </c>
@@ -5813,7 +5871,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>45</v>
       </c>
@@ -5824,7 +5882,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>45</v>
       </c>
@@ -5835,7 +5893,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>45</v>
       </c>
@@ -5846,7 +5904,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>45</v>
       </c>
@@ -5857,7 +5915,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>45</v>
       </c>
@@ -5868,7 +5926,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>45</v>
       </c>
@@ -5879,7 +5937,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>45</v>
       </c>
@@ -5890,7 +5948,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>45</v>
       </c>
@@ -5901,7 +5959,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>45</v>
       </c>
@@ -5912,7 +5970,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>45</v>
       </c>
@@ -5923,7 +5981,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>45</v>
       </c>
@@ -5934,7 +5992,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>45</v>
       </c>
@@ -5945,7 +6003,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>45</v>
       </c>
@@ -5956,7 +6014,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>46</v>
       </c>
@@ -5967,7 +6025,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>46</v>
       </c>
@@ -5978,7 +6036,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>46</v>
       </c>
@@ -5989,7 +6047,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>46</v>
       </c>
@@ -6000,7 +6058,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>46</v>
       </c>
@@ -6011,7 +6069,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>46</v>
       </c>
@@ -6022,7 +6080,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>46</v>
       </c>
@@ -6033,7 +6091,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>46</v>
       </c>
@@ -6044,7 +6102,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>46</v>
       </c>
@@ -6055,7 +6113,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>46</v>
       </c>
@@ -6066,7 +6124,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>46</v>
       </c>
@@ -6077,7 +6135,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>46</v>
       </c>
@@ -6088,7 +6146,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>47</v>
       </c>
@@ -6099,7 +6157,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>47</v>
       </c>
@@ -6110,7 +6168,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>47</v>
       </c>
@@ -6121,7 +6179,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>47</v>
       </c>
@@ -6132,7 +6190,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>47</v>
       </c>
@@ -6143,7 +6201,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>47</v>
       </c>
@@ -6154,7 +6212,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>47</v>
       </c>
@@ -6165,7 +6223,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>48</v>
       </c>
@@ -6176,7 +6234,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>48</v>
       </c>
@@ -6187,7 +6245,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>48</v>
       </c>
@@ -6198,7 +6256,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>48</v>
       </c>
@@ -6209,7 +6267,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>48</v>
       </c>
@@ -6220,7 +6278,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>48</v>
       </c>
@@ -6231,7 +6289,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>48</v>
       </c>
@@ -6242,7 +6300,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>48</v>
       </c>
@@ -6253,7 +6311,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>48</v>
       </c>
@@ -6264,7 +6322,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>48</v>
       </c>
@@ -6275,7 +6333,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>48</v>
       </c>
@@ -6286,7 +6344,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>48</v>
       </c>
@@ -6297,7 +6355,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>48</v>
       </c>
@@ -6308,7 +6366,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>48</v>
       </c>
@@ -6319,7 +6377,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>49</v>
       </c>
@@ -6330,7 +6388,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>49</v>
       </c>
@@ -6341,7 +6399,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>49</v>
       </c>
@@ -6352,7 +6410,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>49</v>
       </c>
@@ -6363,7 +6421,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>49</v>
       </c>
@@ -6374,7 +6432,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>49</v>
       </c>
@@ -6385,7 +6443,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>49</v>
       </c>
@@ -6396,7 +6454,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>49</v>
       </c>
@@ -6407,7 +6465,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>49</v>
       </c>
@@ -6418,7 +6476,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>49</v>
       </c>
@@ -6429,7 +6487,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>50</v>
       </c>
@@ -6440,7 +6498,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>50</v>
       </c>
@@ -6451,7 +6509,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>50</v>
       </c>
@@ -6462,7 +6520,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>50</v>
       </c>
@@ -6473,7 +6531,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>50</v>
       </c>
@@ -6484,7 +6542,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>50</v>
       </c>
@@ -6495,7 +6553,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>50</v>
       </c>
@@ -6506,7 +6564,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>50</v>
       </c>
@@ -6517,7 +6575,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>50</v>
       </c>
@@ -6528,7 +6586,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>50</v>
       </c>
@@ -6539,7 +6597,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>50</v>
       </c>
@@ -6550,7 +6608,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>51</v>
       </c>
@@ -6561,7 +6619,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>51</v>
       </c>
@@ -6572,7 +6630,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>51</v>
       </c>
@@ -6583,7 +6641,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>51</v>
       </c>
@@ -6594,7 +6652,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>51</v>
       </c>
@@ -6605,7 +6663,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>51</v>
       </c>
@@ -6616,7 +6674,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>51</v>
       </c>
@@ -6627,7 +6685,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>51</v>
       </c>
@@ -6638,7 +6696,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>51</v>
       </c>
@@ -6649,7 +6707,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>51</v>
       </c>
@@ -6660,7 +6718,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>51</v>
       </c>
@@ -6671,7 +6729,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>51</v>
       </c>
@@ -6682,7 +6740,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>51</v>
       </c>
@@ -6693,7 +6751,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>51</v>
       </c>
@@ -6704,7 +6762,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>52</v>
       </c>
@@ -6715,7 +6773,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>52</v>
       </c>
@@ -6726,7 +6784,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>52</v>
       </c>
@@ -6737,7 +6795,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>52</v>
       </c>
@@ -6748,7 +6806,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>52</v>
       </c>
@@ -6759,7 +6817,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>52</v>
       </c>
@@ -6770,7 +6828,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>52</v>
       </c>
@@ -6781,7 +6839,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>52</v>
       </c>
@@ -6792,7 +6850,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>52</v>
       </c>
@@ -6803,7 +6861,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>52</v>
       </c>
@@ -6814,7 +6872,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>52</v>
       </c>
@@ -6825,7 +6883,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>52</v>
       </c>
@@ -6836,7 +6894,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>52</v>
       </c>
@@ -6847,7 +6905,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>53</v>
       </c>
@@ -6858,7 +6916,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>53</v>
       </c>
@@ -6869,7 +6927,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>53</v>
       </c>
@@ -6880,7 +6938,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>53</v>
       </c>
@@ -6891,7 +6949,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>53</v>
       </c>
@@ -6902,7 +6960,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>53</v>
       </c>
@@ -6913,7 +6971,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>53</v>
       </c>
@@ -6924,7 +6982,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>53</v>
       </c>
@@ -6935,7 +6993,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>53</v>
       </c>
@@ -6946,7 +7004,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>53</v>
       </c>
@@ -6957,7 +7015,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>53</v>
       </c>
@@ -6968,7 +7026,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>53</v>
       </c>
@@ -6979,7 +7037,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>54</v>
       </c>
@@ -6990,7 +7048,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>54</v>
       </c>
@@ -7001,7 +7059,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>54</v>
       </c>
@@ -7012,7 +7070,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>54</v>
       </c>
@@ -7023,7 +7081,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>54</v>
       </c>
@@ -7034,7 +7092,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>54</v>
       </c>
@@ -7045,7 +7103,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>54</v>
       </c>
@@ -7056,7 +7114,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>54</v>
       </c>
@@ -7067,7 +7125,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>54</v>
       </c>
@@ -7078,7 +7136,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>54</v>
       </c>
@@ -7089,7 +7147,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>54</v>
       </c>
@@ -7100,7 +7158,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>55</v>
       </c>
@@ -7111,7 +7169,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>55</v>
       </c>
@@ -7122,7 +7180,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>55</v>
       </c>
@@ -7133,7 +7191,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>55</v>
       </c>
@@ -7144,7 +7202,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>55</v>
       </c>
@@ -7155,7 +7213,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>55</v>
       </c>
@@ -7166,7 +7224,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>55</v>
       </c>
@@ -7177,7 +7235,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>55</v>
       </c>
@@ -7188,7 +7246,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>55</v>
       </c>
@@ -7199,7 +7257,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>55</v>
       </c>
@@ -7210,7 +7268,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>56</v>
       </c>
@@ -7221,7 +7279,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>56</v>
       </c>
@@ -7232,7 +7290,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>56</v>
       </c>
@@ -7243,7 +7301,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>56</v>
       </c>
@@ -7254,7 +7312,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>56</v>
       </c>
@@ -7265,7 +7323,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>56</v>
       </c>
@@ -7276,7 +7334,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>56</v>
       </c>
@@ -7287,7 +7345,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>56</v>
       </c>
@@ -7298,7 +7356,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>56</v>
       </c>
@@ -7309,7 +7367,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>56</v>
       </c>
@@ -7320,7 +7378,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>56</v>
       </c>
@@ -7331,7 +7389,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>57</v>
       </c>
@@ -7342,7 +7400,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>57</v>
       </c>
@@ -7353,7 +7411,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>57</v>
       </c>
@@ -7364,7 +7422,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>57</v>
       </c>
@@ -7375,7 +7433,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>57</v>
       </c>
@@ -7386,7 +7444,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>57</v>
       </c>
@@ -7397,7 +7455,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>57</v>
       </c>
@@ -7408,7 +7466,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>57</v>
       </c>
@@ -7419,7 +7477,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>57</v>
       </c>
@@ -7430,7 +7488,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>57</v>
       </c>
@@ -7441,7 +7499,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>58</v>
       </c>
@@ -7452,7 +7510,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>58</v>
       </c>
@@ -7463,7 +7521,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>58</v>
       </c>
@@ -7474,7 +7532,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>58</v>
       </c>
@@ -7485,7 +7543,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>58</v>
       </c>
@@ -7496,7 +7554,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>58</v>
       </c>
@@ -7507,7 +7565,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>58</v>
       </c>
@@ -7518,7 +7576,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>58</v>
       </c>
@@ -7529,7 +7587,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>58</v>
       </c>
@@ -7540,7 +7598,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>58</v>
       </c>
@@ -7551,7 +7609,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>59</v>
       </c>
@@ -7562,7 +7620,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>59</v>
       </c>
@@ -7573,7 +7631,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>59</v>
       </c>
@@ -7584,7 +7642,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>59</v>
       </c>
@@ -7595,7 +7653,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>59</v>
       </c>
@@ -7606,7 +7664,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>59</v>
       </c>
@@ -7617,7 +7675,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>59</v>
       </c>
@@ -7628,7 +7686,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>59</v>
       </c>
@@ -7639,7 +7697,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>59</v>
       </c>
@@ -7650,7 +7708,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>59</v>
       </c>
@@ -7661,7 +7719,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>60</v>
       </c>
@@ -7672,7 +7730,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>60</v>
       </c>
@@ -7683,7 +7741,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>60</v>
       </c>
@@ -7694,7 +7752,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>60</v>
       </c>
@@ -7705,7 +7763,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>60</v>
       </c>
@@ -7716,7 +7774,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>60</v>
       </c>
@@ -7727,7 +7785,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>60</v>
       </c>
@@ -7738,7 +7796,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>60</v>
       </c>
@@ -7749,7 +7807,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>60</v>
       </c>
@@ -7760,7 +7818,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>60</v>
       </c>
@@ -7771,7 +7829,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>60</v>
       </c>
@@ -7782,7 +7840,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>61</v>
       </c>
@@ -7793,7 +7851,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>61</v>
       </c>
@@ -7804,7 +7862,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>61</v>
       </c>
@@ -7815,7 +7873,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>61</v>
       </c>
@@ -7826,7 +7884,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>61</v>
       </c>
@@ -7837,7 +7895,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>61</v>
       </c>
@@ -7848,7 +7906,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>61</v>
       </c>
@@ -7859,7 +7917,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>61</v>
       </c>
@@ -7870,7 +7928,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>61</v>
       </c>
@@ -7881,7 +7939,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>61</v>
       </c>
@@ -7892,7 +7950,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>61</v>
       </c>
@@ -7903,7 +7961,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>62</v>
       </c>
@@ -7914,7 +7972,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>62</v>
       </c>
@@ -7925,7 +7983,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>62</v>
       </c>
@@ -7936,7 +7994,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>62</v>
       </c>
@@ -7947,7 +8005,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>62</v>
       </c>
@@ -7958,7 +8016,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>62</v>
       </c>
@@ -7969,7 +8027,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>62</v>
       </c>
@@ -7980,7 +8038,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>62</v>
       </c>
@@ -7991,7 +8049,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>62</v>
       </c>
@@ -8002,7 +8060,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>62</v>
       </c>
@@ -8013,7 +8071,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>62</v>
       </c>
@@ -8024,7 +8082,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>62</v>
       </c>
@@ -8035,7 +8093,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>62</v>
       </c>
@@ -8046,7 +8104,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>62</v>
       </c>
@@ -8057,7 +8115,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>62</v>
       </c>
@@ -8068,7 +8126,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>63</v>
       </c>
@@ -8079,7 +8137,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>63</v>
       </c>
@@ -8090,7 +8148,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>63</v>
       </c>
@@ -8101,7 +8159,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>63</v>
       </c>
@@ -8112,7 +8170,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>63</v>
       </c>
@@ -8123,7 +8181,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>63</v>
       </c>
@@ -8134,7 +8192,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>63</v>
       </c>
@@ -8145,7 +8203,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>63</v>
       </c>
@@ -8156,7 +8214,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>63</v>
       </c>
@@ -8167,7 +8225,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>63</v>
       </c>
@@ -8178,7 +8236,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>63</v>
       </c>
@@ -8189,7 +8247,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>63</v>
       </c>
@@ -8200,7 +8258,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>63</v>
       </c>
@@ -8211,7 +8269,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>63</v>
       </c>
@@ -8222,7 +8280,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>64</v>
       </c>
@@ -8233,7 +8291,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>64</v>
       </c>
@@ -8244,7 +8302,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>64</v>
       </c>
@@ -8255,7 +8313,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>64</v>
       </c>
@@ -8266,7 +8324,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>64</v>
       </c>
@@ -8277,7 +8335,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>64</v>
       </c>
@@ -8288,7 +8346,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>64</v>
       </c>
@@ -8299,7 +8357,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>64</v>
       </c>
@@ -8310,7 +8368,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>64</v>
       </c>
@@ -8321,7 +8379,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>64</v>
       </c>
@@ -8332,7 +8390,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>64</v>
       </c>
@@ -8343,7 +8401,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>64</v>
       </c>
@@ -8354,7 +8412,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>64</v>
       </c>
@@ -8365,7 +8423,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>65</v>
       </c>
@@ -8376,7 +8434,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>65</v>
       </c>
@@ -8387,7 +8445,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>65</v>
       </c>
@@ -8398,7 +8456,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>65</v>
       </c>
@@ -8409,7 +8467,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>65</v>
       </c>
@@ -8420,7 +8478,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>65</v>
       </c>
@@ -8431,7 +8489,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>65</v>
       </c>
@@ -8442,7 +8500,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>65</v>
       </c>
@@ -8453,7 +8511,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>65</v>
       </c>
@@ -8464,7 +8522,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>65</v>
       </c>
@@ -8475,7 +8533,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>65</v>
       </c>
@@ -8486,7 +8544,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>66</v>
       </c>
@@ -8497,7 +8555,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>66</v>
       </c>
@@ -8508,7 +8566,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>66</v>
       </c>
@@ -8519,7 +8577,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>66</v>
       </c>
@@ -8530,7 +8588,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>66</v>
       </c>
@@ -8541,7 +8599,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>66</v>
       </c>
@@ -8552,7 +8610,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>66</v>
       </c>
@@ -8563,7 +8621,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>66</v>
       </c>
@@ -8574,7 +8632,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>66</v>
       </c>
@@ -8585,7 +8643,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>66</v>
       </c>
@@ -8596,7 +8654,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>67</v>
       </c>
@@ -8607,7 +8665,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>67</v>
       </c>
@@ -8618,7 +8676,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>67</v>
       </c>
@@ -8629,7 +8687,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>67</v>
       </c>
@@ -8640,7 +8698,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>67</v>
       </c>
@@ -8651,7 +8709,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>67</v>
       </c>
@@ -8662,7 +8720,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>67</v>
       </c>
@@ -8673,7 +8731,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>67</v>
       </c>
@@ -8684,7 +8742,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>67</v>
       </c>
@@ -8695,7 +8753,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>68</v>
       </c>
@@ -8706,7 +8764,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>68</v>
       </c>
@@ -8717,7 +8775,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>68</v>
       </c>
@@ -8728,7 +8786,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>68</v>
       </c>
@@ -8739,7 +8797,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>68</v>
       </c>
@@ -8750,7 +8808,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>68</v>
       </c>
@@ -8761,7 +8819,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>68</v>
       </c>
@@ -8772,7 +8830,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="744" spans="1:3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>68</v>
       </c>
@@ -8783,7 +8841,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="745" spans="1:3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>68</v>
       </c>
@@ -8794,7 +8852,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="746" spans="1:3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>68</v>
       </c>
@@ -8805,7 +8863,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="747" spans="1:3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>68</v>
       </c>
@@ -8816,7 +8874,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="748" spans="1:3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>68</v>
       </c>
@@ -8827,7 +8885,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="749" spans="1:3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>68</v>
       </c>
@@ -8838,7 +8896,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="750" spans="1:3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>68</v>
       </c>
@@ -8849,7 +8907,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="751" spans="1:3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>69</v>
       </c>
@@ -8860,7 +8918,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="752" spans="1:3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>69</v>
       </c>
@@ -8871,7 +8929,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="753" spans="1:3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>69</v>
       </c>
@@ -8882,7 +8940,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="754" spans="1:3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>69</v>
       </c>
@@ -8893,7 +8951,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="755" spans="1:3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>69</v>
       </c>
@@ -8904,7 +8962,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="756" spans="1:3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>69</v>
       </c>
@@ -8915,7 +8973,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="757" spans="1:3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>69</v>
       </c>
@@ -8926,7 +8984,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="758" spans="1:3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>69</v>
       </c>
@@ -8937,7 +8995,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="759" spans="1:3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>69</v>
       </c>
@@ -8948,7 +9006,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="760" spans="1:3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>69</v>
       </c>
@@ -8959,7 +9017,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="761" spans="1:3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>69</v>
       </c>
@@ -8970,7 +9028,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="762" spans="1:3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>70</v>
       </c>
@@ -8981,7 +9039,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="763" spans="1:3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>70</v>
       </c>
@@ -8992,7 +9050,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="764" spans="1:3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>70</v>
       </c>
@@ -9003,7 +9061,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="765" spans="1:3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>70</v>
       </c>
@@ -9014,7 +9072,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="766" spans="1:3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>70</v>
       </c>
@@ -9025,7 +9083,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="767" spans="1:3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>70</v>
       </c>
@@ -9036,7 +9094,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="768" spans="1:3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>70</v>
       </c>
@@ -9047,7 +9105,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="769" spans="1:3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>70</v>
       </c>
@@ -9058,7 +9116,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="770" spans="1:3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>70</v>
       </c>
@@ -9069,7 +9127,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="771" spans="1:3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>70</v>
       </c>
@@ -9080,7 +9138,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="772" spans="1:3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>71</v>
       </c>
@@ -9091,7 +9149,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="773" spans="1:3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>71</v>
       </c>
@@ -9102,7 +9160,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="774" spans="1:3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>71</v>
       </c>
@@ -9113,7 +9171,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="775" spans="1:3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>71</v>
       </c>
@@ -9124,7 +9182,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="776" spans="1:3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>71</v>
       </c>
@@ -9135,7 +9193,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="777" spans="1:3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>71</v>
       </c>
@@ -9146,7 +9204,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="778" spans="1:3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>71</v>
       </c>
@@ -9157,7 +9215,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="779" spans="1:3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>71</v>
       </c>
@@ -9168,7 +9226,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="780" spans="1:3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>71</v>
       </c>
@@ -9179,7 +9237,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="781" spans="1:3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>71</v>
       </c>
@@ -9190,7 +9248,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="782" spans="1:3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>71</v>
       </c>
@@ -9201,7 +9259,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="783" spans="1:3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>72</v>
       </c>
@@ -9212,7 +9270,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="784" spans="1:3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>72</v>
       </c>
@@ -9223,7 +9281,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="785" spans="1:3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>72</v>
       </c>
@@ -9234,7 +9292,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="786" spans="1:3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>72</v>
       </c>
@@ -9245,7 +9303,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="787" spans="1:3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>72</v>
       </c>
@@ -9256,7 +9314,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="788" spans="1:3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>72</v>
       </c>
@@ -9267,7 +9325,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="789" spans="1:3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>72</v>
       </c>
@@ -9278,7 +9336,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="790" spans="1:3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>72</v>
       </c>
@@ -9289,7 +9347,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="791" spans="1:3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>72</v>
       </c>
@@ -9300,7 +9358,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="792" spans="1:3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>72</v>
       </c>
@@ -9311,7 +9369,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="793" spans="1:3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>72</v>
       </c>
@@ -9322,7 +9380,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="794" spans="1:3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>73</v>
       </c>
@@ -9333,7 +9391,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="795" spans="1:3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>73</v>
       </c>
@@ -9344,7 +9402,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="796" spans="1:3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>73</v>
       </c>
@@ -9355,7 +9413,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="797" spans="1:3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -9366,7 +9424,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="798" spans="1:3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>73</v>
       </c>
@@ -9377,7 +9435,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="799" spans="1:3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>73</v>
       </c>
@@ -9388,7 +9446,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="800" spans="1:3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>73</v>
       </c>
@@ -9399,7 +9457,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="801" spans="1:3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>73</v>
       </c>
@@ -9410,7 +9468,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="802" spans="1:3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>73</v>
       </c>
@@ -9421,7 +9479,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="803" spans="1:3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>73</v>
       </c>
@@ -9432,7 +9490,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="804" spans="1:3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>73</v>
       </c>
@@ -9444,6 +9502,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21df80ec97692de0/Documentos/GitHub/ARKAD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921ED3FB38A01992D4C4BFDBFE52B565B4AB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718285D2-F00A-4335-ABD2-55F5F689EB34}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2112" yWindow="1824" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -250,8 +241,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,19 +305,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -368,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,27 +383,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,24 +417,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,19 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C804"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -679,7 +621,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -690,7 +632,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -701,7 +643,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -712,7 +654,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -723,7 +665,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -734,7 +676,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -745,7 +687,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -756,7 +698,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -767,7 +709,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -778,7 +720,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -789,7 +731,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -800,7 +742,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -811,7 +753,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -822,7 +764,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -833,7 +775,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -844,7 +786,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -855,7 +797,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -866,7 +808,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -877,7 +819,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -888,7 +830,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -899,7 +841,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -910,7 +852,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -921,7 +863,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -932,7 +874,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -943,7 +885,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -954,7 +896,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -965,7 +907,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -976,7 +918,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -987,7 +929,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -998,7 +940,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +951,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +962,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +973,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +984,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1053,7 +995,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1006,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1075,7 +1017,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1086,7 +1028,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1039,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1050,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1061,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +1072,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1083,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1094,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1105,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1116,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1127,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1138,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1149,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1160,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1171,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1182,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1193,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1204,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1215,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1226,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1237,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1306,7 +1248,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1259,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1270,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1339,7 +1281,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1292,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1303,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1314,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1383,7 +1325,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +1336,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1347,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1416,7 +1358,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1369,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1380,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1449,7 +1391,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1460,7 +1402,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1413,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -1482,7 +1424,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1435,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1446,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1515,7 +1457,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1468,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1479,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -1548,7 +1490,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +1501,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +1512,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -1581,7 +1523,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1534,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1545,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -1614,7 +1556,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -1625,7 +1567,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1578,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -1647,7 +1589,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -1658,7 +1600,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1611,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -1680,7 +1622,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -1691,7 +1633,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +1644,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1655,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -1724,7 +1666,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1677,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -1746,7 +1688,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -1757,7 +1699,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -1768,7 +1710,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1721,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -1790,7 +1732,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +1743,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -1812,7 +1754,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -1823,7 +1765,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -1834,7 +1776,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -1845,7 +1787,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -1856,7 +1798,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -1867,7 +1809,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -1878,7 +1820,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -1889,7 +1831,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -1900,7 +1842,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -1911,7 +1853,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -1922,7 +1864,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +1875,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -1944,7 +1886,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -1955,7 +1897,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -1966,7 +1908,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -1977,7 +1919,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -1988,7 +1930,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -1999,7 +1941,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -2010,7 +1952,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -2021,7 +1963,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -2032,7 +1974,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -2043,7 +1985,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -2054,7 +1996,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -2065,7 +2007,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -2076,7 +2018,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -2087,7 +2029,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -2098,7 +2040,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -2109,7 +2051,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +2062,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -2131,7 +2073,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -2142,7 +2084,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -2153,7 +2095,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -2164,7 +2106,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -2175,7 +2117,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -2186,7 +2128,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -2197,7 +2139,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -2208,7 +2150,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -2219,7 +2161,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -2230,7 +2172,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -2241,7 +2183,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -2252,7 +2194,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -2263,7 +2205,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -2274,7 +2216,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -2285,7 +2227,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -2296,7 +2238,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -2307,7 +2249,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -2318,7 +2260,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -2329,7 +2271,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -2340,7 +2282,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -2351,7 +2293,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -2362,7 +2304,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -2373,7 +2315,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -2384,7 +2326,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -2395,7 +2337,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -2406,7 +2348,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -2417,7 +2359,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -2428,7 +2370,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -2439,7 +2381,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -2450,7 +2392,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -2461,7 +2403,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -2472,7 +2414,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -2483,7 +2425,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -2494,7 +2436,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -2505,7 +2447,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -2516,7 +2458,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -2527,7 +2469,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -2538,7 +2480,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -2549,7 +2491,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -2560,7 +2502,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -2571,7 +2513,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -2582,7 +2524,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -2593,7 +2535,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -2604,7 +2546,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -2615,7 +2557,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -2626,7 +2568,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -2637,7 +2579,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -2648,7 +2590,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -2659,7 +2601,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -2670,7 +2612,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -2681,7 +2623,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -2692,7 +2634,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -2703,7 +2645,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -2714,7 +2656,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2667,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -2736,7 +2678,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -2747,7 +2689,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -2758,7 +2700,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -2769,7 +2711,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -2780,7 +2722,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -2791,7 +2733,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -2802,7 +2744,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -2813,7 +2755,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -2824,7 +2766,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -2835,7 +2777,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -2846,7 +2788,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -2857,7 +2799,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -2868,7 +2810,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -2879,7 +2821,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -2890,7 +2832,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -2901,7 +2843,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -2912,7 +2854,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -2923,7 +2865,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -2934,7 +2876,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -2945,7 +2887,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>22</v>
       </c>
@@ -2956,7 +2898,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -2967,7 +2909,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -2978,7 +2920,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -2989,7 +2931,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -3000,7 +2942,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -3011,7 +2953,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -3022,7 +2964,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -3033,7 +2975,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -3044,7 +2986,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -3055,7 +2997,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -3066,7 +3008,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -3077,7 +3019,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -3088,7 +3030,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -3099,7 +3041,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -3110,7 +3052,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -3121,7 +3063,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -3132,7 +3074,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -3143,7 +3085,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -3154,7 +3096,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -3165,7 +3107,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -3176,7 +3118,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>24</v>
       </c>
@@ -3187,7 +3129,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>24</v>
       </c>
@@ -3198,7 +3140,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>24</v>
       </c>
@@ -3209,7 +3151,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -3220,7 +3162,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -3231,7 +3173,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -3242,7 +3184,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -3253,7 +3195,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -3264,7 +3206,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -3275,7 +3217,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -3286,7 +3228,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -3297,7 +3239,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>25</v>
       </c>
@@ -3308,7 +3250,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>25</v>
       </c>
@@ -3319,7 +3261,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>25</v>
       </c>
@@ -3330,7 +3272,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -3341,7 +3283,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -3352,7 +3294,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -3363,7 +3305,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -3374,7 +3316,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -3385,7 +3327,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -3396,7 +3338,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -3407,7 +3349,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -3418,7 +3360,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -3429,7 +3371,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -3440,7 +3382,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3393,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -3462,7 +3404,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -3473,7 +3415,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -3484,7 +3426,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -3495,7 +3437,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -3506,7 +3448,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -3517,7 +3459,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -3528,7 +3470,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -3539,7 +3481,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -3550,7 +3492,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>27</v>
       </c>
@@ -3561,7 +3503,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -3572,7 +3514,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -3583,7 +3525,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -3594,7 +3536,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -3605,7 +3547,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>28</v>
       </c>
@@ -3616,7 +3558,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>28</v>
       </c>
@@ -3627,7 +3569,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>28</v>
       </c>
@@ -3638,7 +3580,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>28</v>
       </c>
@@ -3649,7 +3591,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>28</v>
       </c>
@@ -3660,7 +3602,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>28</v>
       </c>
@@ -3671,7 +3613,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>28</v>
       </c>
@@ -3682,7 +3624,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>28</v>
       </c>
@@ -3693,7 +3635,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>28</v>
       </c>
@@ -3704,7 +3646,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>28</v>
       </c>
@@ -3715,7 +3657,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -3726,7 +3668,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>28</v>
       </c>
@@ -3737,7 +3679,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>28</v>
       </c>
@@ -3748,7 +3690,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>29</v>
       </c>
@@ -3759,7 +3701,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>29</v>
       </c>
@@ -3770,7 +3712,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>29</v>
       </c>
@@ -3781,7 +3723,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>29</v>
       </c>
@@ -3792,7 +3734,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>29</v>
       </c>
@@ -3803,7 +3745,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>29</v>
       </c>
@@ -3814,7 +3756,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -3825,7 +3767,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -3836,7 +3778,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>30</v>
       </c>
@@ -3847,7 +3789,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>30</v>
       </c>
@@ -3858,7 +3800,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>30</v>
       </c>
@@ -3869,7 +3811,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>30</v>
       </c>
@@ -3880,7 +3822,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>30</v>
       </c>
@@ -3891,7 +3833,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>30</v>
       </c>
@@ -3902,7 +3844,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>30</v>
       </c>
@@ -3913,7 +3855,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>30</v>
       </c>
@@ -3924,7 +3866,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>30</v>
       </c>
@@ -3935,7 +3877,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>30</v>
       </c>
@@ -3946,7 +3888,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>30</v>
       </c>
@@ -3957,7 +3899,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>30</v>
       </c>
@@ -3968,7 +3910,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>31</v>
       </c>
@@ -3979,7 +3921,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>31</v>
       </c>
@@ -3990,7 +3932,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>31</v>
       </c>
@@ -4001,7 +3943,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>31</v>
       </c>
@@ -4012,7 +3954,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>31</v>
       </c>
@@ -4023,7 +3965,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>31</v>
       </c>
@@ -4034,7 +3976,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>31</v>
       </c>
@@ -4045,7 +3987,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -4056,7 +3998,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>31</v>
       </c>
@@ -4067,7 +4009,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>31</v>
       </c>
@@ -4078,7 +4020,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>31</v>
       </c>
@@ -4089,7 +4031,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>31</v>
       </c>
@@ -4100,7 +4042,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>31</v>
       </c>
@@ -4111,7 +4053,7 @@
         <v>20072008</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>31</v>
       </c>
@@ -4122,7 +4064,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>31</v>
       </c>
@@ -4133,7 +4075,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -4144,7 +4086,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>32</v>
       </c>
@@ -4155,7 +4097,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>32</v>
       </c>
@@ -4166,7 +4108,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>32</v>
       </c>
@@ -4177,7 +4119,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -4188,7 +4130,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>32</v>
       </c>
@@ -4199,7 +4141,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>32</v>
       </c>
@@ -4210,7 +4152,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>32</v>
       </c>
@@ -4221,7 +4163,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>32</v>
       </c>
@@ -4232,7 +4174,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>32</v>
       </c>
@@ -4243,7 +4185,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>32</v>
       </c>
@@ -4254,7 +4196,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -4265,7 +4207,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>33</v>
       </c>
@@ -4276,7 +4218,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -4287,7 +4229,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -4298,7 +4240,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -4309,7 +4251,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>33</v>
       </c>
@@ -4320,7 +4262,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>33</v>
       </c>
@@ -4331,7 +4273,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>33</v>
       </c>
@@ -4342,7 +4284,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>33</v>
       </c>
@@ -4353,7 +4295,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>33</v>
       </c>
@@ -4364,7 +4306,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>33</v>
       </c>
@@ -4375,7 +4317,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>33</v>
       </c>
@@ -4386,7 +4328,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>33</v>
       </c>
@@ -4397,7 +4339,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>33</v>
       </c>
@@ -4408,7 +4350,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>34</v>
       </c>
@@ -4419,7 +4361,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -4430,7 +4372,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>34</v>
       </c>
@@ -4441,7 +4383,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>34</v>
       </c>
@@ -4452,7 +4394,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>34</v>
       </c>
@@ -4463,7 +4405,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>34</v>
       </c>
@@ -4474,7 +4416,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>34</v>
       </c>
@@ -4485,7 +4427,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>34</v>
       </c>
@@ -4496,7 +4438,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>34</v>
       </c>
@@ -4507,7 +4449,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>34</v>
       </c>
@@ -4518,7 +4460,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>34</v>
       </c>
@@ -4529,7 +4471,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>35</v>
       </c>
@@ -4540,7 +4482,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>35</v>
       </c>
@@ -4551,7 +4493,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>35</v>
       </c>
@@ -4562,7 +4504,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>35</v>
       </c>
@@ -4573,7 +4515,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>35</v>
       </c>
@@ -4584,7 +4526,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>35</v>
       </c>
@@ -4595,7 +4537,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>35</v>
       </c>
@@ -4606,7 +4548,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>35</v>
       </c>
@@ -4617,7 +4559,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>35</v>
       </c>
@@ -4628,7 +4570,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>35</v>
       </c>
@@ -4639,7 +4581,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>35</v>
       </c>
@@ -4650,7 +4592,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>35</v>
       </c>
@@ -4661,7 +4603,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>35</v>
       </c>
@@ -4672,7 +4614,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>36</v>
       </c>
@@ -4683,7 +4625,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>36</v>
       </c>
@@ -4694,7 +4636,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>36</v>
       </c>
@@ -4705,7 +4647,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>36</v>
       </c>
@@ -4716,7 +4658,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>36</v>
       </c>
@@ -4727,7 +4669,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>36</v>
       </c>
@@ -4738,7 +4680,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>36</v>
       </c>
@@ -4749,7 +4691,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>36</v>
       </c>
@@ -4760,7 +4702,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>36</v>
       </c>
@@ -4771,7 +4713,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>36</v>
       </c>
@@ -4782,7 +4724,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>36</v>
       </c>
@@ -4793,7 +4735,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>36</v>
       </c>
@@ -4804,7 +4746,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>36</v>
       </c>
@@ -4815,7 +4757,7 @@
         <v>20072008</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>36</v>
       </c>
@@ -4826,7 +4768,7 @@
         <v>20062007</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>36</v>
       </c>
@@ -4837,7 +4779,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>36</v>
       </c>
@@ -4848,7 +4790,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>36</v>
       </c>
@@ -4859,7 +4801,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>37</v>
       </c>
@@ -4870,7 +4812,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>37</v>
       </c>
@@ -4881,7 +4823,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>37</v>
       </c>
@@ -4892,7 +4834,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>37</v>
       </c>
@@ -4903,7 +4845,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>37</v>
       </c>
@@ -4914,7 +4856,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>37</v>
       </c>
@@ -4925,7 +4867,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>37</v>
       </c>
@@ -4936,7 +4878,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>37</v>
       </c>
@@ -4947,7 +4889,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>37</v>
       </c>
@@ -4958,7 +4900,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
         <v>37</v>
       </c>
@@ -4969,7 +4911,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
         <v>38</v>
       </c>
@@ -4980,7 +4922,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>38</v>
       </c>
@@ -4991,7 +4933,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
         <v>38</v>
       </c>
@@ -5002,7 +4944,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
         <v>38</v>
       </c>
@@ -5013,7 +4955,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>38</v>
       </c>
@@ -5024,7 +4966,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>38</v>
       </c>
@@ -5035,7 +4977,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>38</v>
       </c>
@@ -5046,7 +4988,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>38</v>
       </c>
@@ -5057,7 +4999,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>38</v>
       </c>
@@ -5068,7 +5010,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>38</v>
       </c>
@@ -5079,7 +5021,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>39</v>
       </c>
@@ -5090,7 +5032,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>39</v>
       </c>
@@ -5101,7 +5043,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>39</v>
       </c>
@@ -5112,7 +5054,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
         <v>39</v>
       </c>
@@ -5123,7 +5065,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
         <v>39</v>
       </c>
@@ -5134,7 +5076,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -5145,7 +5087,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>39</v>
       </c>
@@ -5156,7 +5098,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>39</v>
       </c>
@@ -5167,7 +5109,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>39</v>
       </c>
@@ -5178,7 +5120,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>39</v>
       </c>
@@ -5189,7 +5131,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>39</v>
       </c>
@@ -5200,7 +5142,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>39</v>
       </c>
@@ -5211,7 +5153,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>39</v>
       </c>
@@ -5222,7 +5164,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>39</v>
       </c>
@@ -5233,7 +5175,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>40</v>
       </c>
@@ -5244,7 +5186,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>40</v>
       </c>
@@ -5255,7 +5197,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>40</v>
       </c>
@@ -5266,7 +5208,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>40</v>
       </c>
@@ -5277,7 +5219,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>40</v>
       </c>
@@ -5288,7 +5230,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>40</v>
       </c>
@@ -5299,7 +5241,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>40</v>
       </c>
@@ -5310,7 +5252,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -5321,7 +5263,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>40</v>
       </c>
@@ -5332,7 +5274,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>40</v>
       </c>
@@ -5343,7 +5285,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>40</v>
       </c>
@@ -5354,7 +5296,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>40</v>
       </c>
@@ -5365,7 +5307,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>40</v>
       </c>
@@ -5376,7 +5318,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>40</v>
       </c>
@@ -5387,7 +5329,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>41</v>
       </c>
@@ -5398,7 +5340,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>41</v>
       </c>
@@ -5409,7 +5351,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>41</v>
       </c>
@@ -5420,7 +5362,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>41</v>
       </c>
@@ -5431,7 +5373,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>41</v>
       </c>
@@ -5442,7 +5384,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>41</v>
       </c>
@@ -5453,7 +5395,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>41</v>
       </c>
@@ -5464,7 +5406,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>41</v>
       </c>
@@ -5475,7 +5417,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>41</v>
       </c>
@@ -5486,7 +5428,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>41</v>
       </c>
@@ -5497,7 +5439,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>41</v>
       </c>
@@ -5508,7 +5450,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>41</v>
       </c>
@@ -5519,7 +5461,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
         <v>42</v>
       </c>
@@ -5530,7 +5472,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>42</v>
       </c>
@@ -5541,7 +5483,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
         <v>42</v>
       </c>
@@ -5552,7 +5494,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
         <v>42</v>
       </c>
@@ -5563,7 +5505,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
         <v>42</v>
       </c>
@@ -5574,7 +5516,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>42</v>
       </c>
@@ -5585,7 +5527,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
         <v>42</v>
       </c>
@@ -5596,7 +5538,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>42</v>
       </c>
@@ -5607,7 +5549,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
         <v>42</v>
       </c>
@@ -5618,7 +5560,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
         <v>42</v>
       </c>
@@ -5629,7 +5571,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
         <v>43</v>
       </c>
@@ -5640,7 +5582,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
         <v>43</v>
       </c>
@@ -5651,7 +5593,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
         <v>43</v>
       </c>
@@ -5662,7 +5604,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
         <v>43</v>
       </c>
@@ -5673,7 +5615,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
         <v>43</v>
       </c>
@@ -5684,7 +5626,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
         <v>43</v>
       </c>
@@ -5695,7 +5637,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
         <v>43</v>
       </c>
@@ -5706,7 +5648,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
         <v>43</v>
       </c>
@@ -5717,7 +5659,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
         <v>43</v>
       </c>
@@ -5728,7 +5670,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
         <v>43</v>
       </c>
@@ -5739,7 +5681,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
         <v>44</v>
       </c>
@@ -5750,7 +5692,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
         <v>44</v>
       </c>
@@ -5761,7 +5703,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
         <v>44</v>
       </c>
@@ -5772,7 +5714,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
         <v>44</v>
       </c>
@@ -5783,7 +5725,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
         <v>44</v>
       </c>
@@ -5794,7 +5736,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
         <v>44</v>
       </c>
@@ -5805,7 +5747,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
         <v>44</v>
       </c>
@@ -5816,7 +5758,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
         <v>44</v>
       </c>
@@ -5827,7 +5769,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
         <v>44</v>
       </c>
@@ -5838,7 +5780,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
         <v>44</v>
       </c>
@@ -5849,7 +5791,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
         <v>44</v>
       </c>
@@ -5860,7 +5802,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3">
       <c r="A474" t="s">
         <v>45</v>
       </c>
@@ -5871,7 +5813,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3">
       <c r="A475" t="s">
         <v>45</v>
       </c>
@@ -5882,7 +5824,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3">
       <c r="A476" t="s">
         <v>45</v>
       </c>
@@ -5893,7 +5835,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3">
       <c r="A477" t="s">
         <v>45</v>
       </c>
@@ -5904,7 +5846,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3">
       <c r="A478" t="s">
         <v>45</v>
       </c>
@@ -5915,7 +5857,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
         <v>45</v>
       </c>
@@ -5926,7 +5868,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3">
       <c r="A480" t="s">
         <v>45</v>
       </c>
@@ -5937,7 +5879,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3">
       <c r="A481" t="s">
         <v>45</v>
       </c>
@@ -5948,7 +5890,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3">
       <c r="A482" t="s">
         <v>45</v>
       </c>
@@ -5959,7 +5901,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3">
       <c r="A483" t="s">
         <v>45</v>
       </c>
@@ -5970,7 +5912,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3">
       <c r="A484" t="s">
         <v>45</v>
       </c>
@@ -5981,7 +5923,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3">
       <c r="A485" t="s">
         <v>45</v>
       </c>
@@ -5992,7 +5934,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3">
       <c r="A486" t="s">
         <v>45</v>
       </c>
@@ -6003,7 +5945,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3">
       <c r="A487" t="s">
         <v>45</v>
       </c>
@@ -6014,7 +5956,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3">
       <c r="A488" t="s">
         <v>46</v>
       </c>
@@ -6025,7 +5967,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3">
       <c r="A489" t="s">
         <v>46</v>
       </c>
@@ -6036,7 +5978,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3">
       <c r="A490" t="s">
         <v>46</v>
       </c>
@@ -6047,7 +5989,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3">
       <c r="A491" t="s">
         <v>46</v>
       </c>
@@ -6058,7 +6000,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3">
       <c r="A492" t="s">
         <v>46</v>
       </c>
@@ -6069,7 +6011,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
         <v>46</v>
       </c>
@@ -6080,7 +6022,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3">
       <c r="A494" t="s">
         <v>46</v>
       </c>
@@ -6091,7 +6033,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3">
       <c r="A495" t="s">
         <v>46</v>
       </c>
@@ -6102,7 +6044,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3">
       <c r="A496" t="s">
         <v>46</v>
       </c>
@@ -6113,7 +6055,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
         <v>46</v>
       </c>
@@ -6124,7 +6066,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3">
       <c r="A498" t="s">
         <v>46</v>
       </c>
@@ -6135,7 +6077,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3">
       <c r="A499" t="s">
         <v>46</v>
       </c>
@@ -6146,7 +6088,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3">
       <c r="A500" t="s">
         <v>47</v>
       </c>
@@ -6157,7 +6099,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3">
       <c r="A501" t="s">
         <v>47</v>
       </c>
@@ -6168,7 +6110,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3">
       <c r="A502" t="s">
         <v>47</v>
       </c>
@@ -6179,7 +6121,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3">
       <c r="A503" t="s">
         <v>47</v>
       </c>
@@ -6190,7 +6132,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3">
       <c r="A504" t="s">
         <v>47</v>
       </c>
@@ -6201,7 +6143,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3">
       <c r="A505" t="s">
         <v>47</v>
       </c>
@@ -6212,7 +6154,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3">
       <c r="A506" t="s">
         <v>47</v>
       </c>
@@ -6223,7 +6165,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3">
       <c r="A507" t="s">
         <v>48</v>
       </c>
@@ -6234,7 +6176,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3">
       <c r="A508" t="s">
         <v>48</v>
       </c>
@@ -6245,7 +6187,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3">
       <c r="A509" t="s">
         <v>48</v>
       </c>
@@ -6256,7 +6198,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3">
       <c r="A510" t="s">
         <v>48</v>
       </c>
@@ -6267,7 +6209,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
         <v>48</v>
       </c>
@@ -6278,7 +6220,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3">
       <c r="A512" t="s">
         <v>48</v>
       </c>
@@ -6289,7 +6231,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3">
       <c r="A513" t="s">
         <v>48</v>
       </c>
@@ -6300,7 +6242,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3">
       <c r="A514" t="s">
         <v>48</v>
       </c>
@@ -6311,7 +6253,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3">
       <c r="A515" t="s">
         <v>48</v>
       </c>
@@ -6322,7 +6264,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3">
       <c r="A516" t="s">
         <v>48</v>
       </c>
@@ -6333,7 +6275,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3">
       <c r="A517" t="s">
         <v>48</v>
       </c>
@@ -6344,7 +6286,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3">
       <c r="A518" t="s">
         <v>48</v>
       </c>
@@ -6355,7 +6297,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3">
       <c r="A519" t="s">
         <v>48</v>
       </c>
@@ -6366,7 +6308,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3">
       <c r="A520" t="s">
         <v>48</v>
       </c>
@@ -6377,7 +6319,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3">
       <c r="A521" t="s">
         <v>49</v>
       </c>
@@ -6388,7 +6330,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3">
       <c r="A522" t="s">
         <v>49</v>
       </c>
@@ -6399,7 +6341,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3">
       <c r="A523" t="s">
         <v>49</v>
       </c>
@@ -6410,7 +6352,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3">
       <c r="A524" t="s">
         <v>49</v>
       </c>
@@ -6421,7 +6363,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3">
       <c r="A525" t="s">
         <v>49</v>
       </c>
@@ -6432,7 +6374,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3">
       <c r="A526" t="s">
         <v>49</v>
       </c>
@@ -6443,7 +6385,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3">
       <c r="A527" t="s">
         <v>49</v>
       </c>
@@ -6454,7 +6396,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3">
       <c r="A528" t="s">
         <v>49</v>
       </c>
@@ -6465,7 +6407,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3">
       <c r="A529" t="s">
         <v>49</v>
       </c>
@@ -6476,7 +6418,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3">
       <c r="A530" t="s">
         <v>49</v>
       </c>
@@ -6487,7 +6429,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3">
       <c r="A531" t="s">
         <v>50</v>
       </c>
@@ -6498,7 +6440,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3">
       <c r="A532" t="s">
         <v>50</v>
       </c>
@@ -6509,7 +6451,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3">
       <c r="A533" t="s">
         <v>50</v>
       </c>
@@ -6520,7 +6462,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3">
       <c r="A534" t="s">
         <v>50</v>
       </c>
@@ -6531,7 +6473,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3">
       <c r="A535" t="s">
         <v>50</v>
       </c>
@@ -6542,7 +6484,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3">
       <c r="A536" t="s">
         <v>50</v>
       </c>
@@ -6553,7 +6495,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3">
       <c r="A537" t="s">
         <v>50</v>
       </c>
@@ -6564,7 +6506,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3">
       <c r="A538" t="s">
         <v>50</v>
       </c>
@@ -6575,7 +6517,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3">
       <c r="A539" t="s">
         <v>50</v>
       </c>
@@ -6586,7 +6528,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3">
       <c r="A540" t="s">
         <v>50</v>
       </c>
@@ -6597,7 +6539,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3">
       <c r="A541" t="s">
         <v>50</v>
       </c>
@@ -6608,7 +6550,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3">
       <c r="A542" t="s">
         <v>51</v>
       </c>
@@ -6619,7 +6561,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3">
       <c r="A543" t="s">
         <v>51</v>
       </c>
@@ -6630,7 +6572,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3">
       <c r="A544" t="s">
         <v>51</v>
       </c>
@@ -6641,7 +6583,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3">
       <c r="A545" t="s">
         <v>51</v>
       </c>
@@ -6652,7 +6594,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3">
       <c r="A546" t="s">
         <v>51</v>
       </c>
@@ -6663,7 +6605,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3">
       <c r="A547" t="s">
         <v>51</v>
       </c>
@@ -6674,7 +6616,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3">
       <c r="A548" t="s">
         <v>51</v>
       </c>
@@ -6685,7 +6627,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3">
       <c r="A549" t="s">
         <v>51</v>
       </c>
@@ -6696,7 +6638,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3">
       <c r="A550" t="s">
         <v>51</v>
       </c>
@@ -6707,7 +6649,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3">
       <c r="A551" t="s">
         <v>51</v>
       </c>
@@ -6718,7 +6660,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3">
       <c r="A552" t="s">
         <v>51</v>
       </c>
@@ -6729,7 +6671,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3">
       <c r="A553" t="s">
         <v>51</v>
       </c>
@@ -6740,7 +6682,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3">
       <c r="A554" t="s">
         <v>51</v>
       </c>
@@ -6751,7 +6693,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3">
       <c r="A555" t="s">
         <v>51</v>
       </c>
@@ -6762,7 +6704,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3">
       <c r="A556" t="s">
         <v>52</v>
       </c>
@@ -6773,7 +6715,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3">
       <c r="A557" t="s">
         <v>52</v>
       </c>
@@ -6784,7 +6726,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3">
       <c r="A558" t="s">
         <v>52</v>
       </c>
@@ -6795,7 +6737,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3">
       <c r="A559" t="s">
         <v>52</v>
       </c>
@@ -6806,7 +6748,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3">
       <c r="A560" t="s">
         <v>52</v>
       </c>
@@ -6817,7 +6759,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3">
       <c r="A561" t="s">
         <v>52</v>
       </c>
@@ -6828,7 +6770,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3">
       <c r="A562" t="s">
         <v>52</v>
       </c>
@@ -6839,7 +6781,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3">
       <c r="A563" t="s">
         <v>52</v>
       </c>
@@ -6850,7 +6792,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3">
       <c r="A564" t="s">
         <v>52</v>
       </c>
@@ -6861,7 +6803,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3">
       <c r="A565" t="s">
         <v>52</v>
       </c>
@@ -6872,7 +6814,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3">
       <c r="A566" t="s">
         <v>52</v>
       </c>
@@ -6883,7 +6825,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3">
       <c r="A567" t="s">
         <v>52</v>
       </c>
@@ -6894,7 +6836,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3">
       <c r="A568" t="s">
         <v>52</v>
       </c>
@@ -6905,7 +6847,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3">
       <c r="A569" t="s">
         <v>53</v>
       </c>
@@ -6916,7 +6858,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3">
       <c r="A570" t="s">
         <v>53</v>
       </c>
@@ -6927,7 +6869,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3">
       <c r="A571" t="s">
         <v>53</v>
       </c>
@@ -6938,7 +6880,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3">
       <c r="A572" t="s">
         <v>53</v>
       </c>
@@ -6949,7 +6891,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3">
       <c r="A573" t="s">
         <v>53</v>
       </c>
@@ -6960,7 +6902,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3">
       <c r="A574" t="s">
         <v>53</v>
       </c>
@@ -6971,7 +6913,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3">
       <c r="A575" t="s">
         <v>53</v>
       </c>
@@ -6982,7 +6924,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3">
       <c r="A576" t="s">
         <v>53</v>
       </c>
@@ -6993,7 +6935,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3">
       <c r="A577" t="s">
         <v>53</v>
       </c>
@@ -7004,7 +6946,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3">
       <c r="A578" t="s">
         <v>53</v>
       </c>
@@ -7015,7 +6957,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3">
       <c r="A579" t="s">
         <v>53</v>
       </c>
@@ -7026,7 +6968,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3">
       <c r="A580" t="s">
         <v>53</v>
       </c>
@@ -7037,7 +6979,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3">
       <c r="A581" t="s">
         <v>54</v>
       </c>
@@ -7048,7 +6990,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3">
       <c r="A582" t="s">
         <v>54</v>
       </c>
@@ -7059,7 +7001,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3">
       <c r="A583" t="s">
         <v>54</v>
       </c>
@@ -7070,7 +7012,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3">
       <c r="A584" t="s">
         <v>54</v>
       </c>
@@ -7081,7 +7023,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3">
       <c r="A585" t="s">
         <v>54</v>
       </c>
@@ -7092,7 +7034,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3">
       <c r="A586" t="s">
         <v>54</v>
       </c>
@@ -7103,7 +7045,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3">
       <c r="A587" t="s">
         <v>54</v>
       </c>
@@ -7114,7 +7056,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3">
       <c r="A588" t="s">
         <v>54</v>
       </c>
@@ -7125,7 +7067,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3">
       <c r="A589" t="s">
         <v>54</v>
       </c>
@@ -7136,7 +7078,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3">
       <c r="A590" t="s">
         <v>54</v>
       </c>
@@ -7147,7 +7089,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3">
       <c r="A591" t="s">
         <v>54</v>
       </c>
@@ -7158,7 +7100,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3">
       <c r="A592" t="s">
         <v>55</v>
       </c>
@@ -7169,7 +7111,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3">
       <c r="A593" t="s">
         <v>55</v>
       </c>
@@ -7180,7 +7122,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3">
       <c r="A594" t="s">
         <v>55</v>
       </c>
@@ -7191,7 +7133,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3">
       <c r="A595" t="s">
         <v>55</v>
       </c>
@@ -7202,7 +7144,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3">
       <c r="A596" t="s">
         <v>55</v>
       </c>
@@ -7213,7 +7155,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3">
       <c r="A597" t="s">
         <v>55</v>
       </c>
@@ -7224,7 +7166,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3">
       <c r="A598" t="s">
         <v>55</v>
       </c>
@@ -7235,7 +7177,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3">
       <c r="A599" t="s">
         <v>55</v>
       </c>
@@ -7246,7 +7188,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3">
       <c r="A600" t="s">
         <v>55</v>
       </c>
@@ -7257,7 +7199,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3">
       <c r="A601" t="s">
         <v>55</v>
       </c>
@@ -7268,7 +7210,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3">
       <c r="A602" t="s">
         <v>56</v>
       </c>
@@ -7279,7 +7221,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3">
       <c r="A603" t="s">
         <v>56</v>
       </c>
@@ -7290,7 +7232,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3">
       <c r="A604" t="s">
         <v>56</v>
       </c>
@@ -7301,7 +7243,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3">
       <c r="A605" t="s">
         <v>56</v>
       </c>
@@ -7312,7 +7254,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3">
       <c r="A606" t="s">
         <v>56</v>
       </c>
@@ -7323,7 +7265,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3">
       <c r="A607" t="s">
         <v>56</v>
       </c>
@@ -7334,7 +7276,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3">
       <c r="A608" t="s">
         <v>56</v>
       </c>
@@ -7345,7 +7287,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3">
       <c r="A609" t="s">
         <v>56</v>
       </c>
@@ -7356,7 +7298,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3">
       <c r="A610" t="s">
         <v>56</v>
       </c>
@@ -7367,7 +7309,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3">
       <c r="A611" t="s">
         <v>56</v>
       </c>
@@ -7378,7 +7320,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3">
       <c r="A612" t="s">
         <v>56</v>
       </c>
@@ -7389,7 +7331,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3">
       <c r="A613" t="s">
         <v>57</v>
       </c>
@@ -7400,7 +7342,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3">
       <c r="A614" t="s">
         <v>57</v>
       </c>
@@ -7411,7 +7353,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3">
       <c r="A615" t="s">
         <v>57</v>
       </c>
@@ -7422,7 +7364,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3">
       <c r="A616" t="s">
         <v>57</v>
       </c>
@@ -7433,7 +7375,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3">
       <c r="A617" t="s">
         <v>57</v>
       </c>
@@ -7444,7 +7386,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3">
       <c r="A618" t="s">
         <v>57</v>
       </c>
@@ -7455,7 +7397,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3">
       <c r="A619" t="s">
         <v>57</v>
       </c>
@@ -7466,7 +7408,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3">
       <c r="A620" t="s">
         <v>57</v>
       </c>
@@ -7477,7 +7419,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3">
       <c r="A621" t="s">
         <v>57</v>
       </c>
@@ -7488,7 +7430,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3">
       <c r="A622" t="s">
         <v>57</v>
       </c>
@@ -7499,7 +7441,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3">
       <c r="A623" t="s">
         <v>58</v>
       </c>
@@ -7510,7 +7452,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3">
       <c r="A624" t="s">
         <v>58</v>
       </c>
@@ -7521,7 +7463,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3">
       <c r="A625" t="s">
         <v>58</v>
       </c>
@@ -7532,7 +7474,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3">
       <c r="A626" t="s">
         <v>58</v>
       </c>
@@ -7543,7 +7485,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3">
       <c r="A627" t="s">
         <v>58</v>
       </c>
@@ -7554,7 +7496,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3">
       <c r="A628" t="s">
         <v>58</v>
       </c>
@@ -7565,7 +7507,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3">
       <c r="A629" t="s">
         <v>58</v>
       </c>
@@ -7576,7 +7518,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3">
       <c r="A630" t="s">
         <v>58</v>
       </c>
@@ -7587,7 +7529,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3">
       <c r="A631" t="s">
         <v>58</v>
       </c>
@@ -7598,7 +7540,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3">
       <c r="A632" t="s">
         <v>58</v>
       </c>
@@ -7609,7 +7551,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3">
       <c r="A633" t="s">
         <v>59</v>
       </c>
@@ -7620,7 +7562,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3">
       <c r="A634" t="s">
         <v>59</v>
       </c>
@@ -7631,7 +7573,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3">
       <c r="A635" t="s">
         <v>59</v>
       </c>
@@ -7642,7 +7584,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3">
       <c r="A636" t="s">
         <v>59</v>
       </c>
@@ -7653,7 +7595,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3">
       <c r="A637" t="s">
         <v>59</v>
       </c>
@@ -7664,7 +7606,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3">
       <c r="A638" t="s">
         <v>59</v>
       </c>
@@ -7675,7 +7617,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3">
       <c r="A639" t="s">
         <v>59</v>
       </c>
@@ -7686,7 +7628,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3">
       <c r="A640" t="s">
         <v>59</v>
       </c>
@@ -7697,7 +7639,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3">
       <c r="A641" t="s">
         <v>59</v>
       </c>
@@ -7708,7 +7650,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3">
       <c r="A642" t="s">
         <v>59</v>
       </c>
@@ -7719,7 +7661,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3">
       <c r="A643" t="s">
         <v>60</v>
       </c>
@@ -7730,7 +7672,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3">
       <c r="A644" t="s">
         <v>60</v>
       </c>
@@ -7741,7 +7683,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3">
       <c r="A645" t="s">
         <v>60</v>
       </c>
@@ -7752,7 +7694,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3">
       <c r="A646" t="s">
         <v>60</v>
       </c>
@@ -7763,7 +7705,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3">
       <c r="A647" t="s">
         <v>60</v>
       </c>
@@ -7774,7 +7716,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3">
       <c r="A648" t="s">
         <v>60</v>
       </c>
@@ -7785,7 +7727,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3">
       <c r="A649" t="s">
         <v>60</v>
       </c>
@@ -7796,7 +7738,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3">
       <c r="A650" t="s">
         <v>60</v>
       </c>
@@ -7807,7 +7749,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3">
       <c r="A651" t="s">
         <v>60</v>
       </c>
@@ -7818,7 +7760,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3">
       <c r="A652" t="s">
         <v>60</v>
       </c>
@@ -7829,7 +7771,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3">
       <c r="A653" t="s">
         <v>60</v>
       </c>
@@ -7840,7 +7782,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3">
       <c r="A654" t="s">
         <v>61</v>
       </c>
@@ -7851,7 +7793,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3">
       <c r="A655" t="s">
         <v>61</v>
       </c>
@@ -7862,7 +7804,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3">
       <c r="A656" t="s">
         <v>61</v>
       </c>
@@ -7873,7 +7815,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3">
       <c r="A657" t="s">
         <v>61</v>
       </c>
@@ -7884,7 +7826,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3">
       <c r="A658" t="s">
         <v>61</v>
       </c>
@@ -7895,7 +7837,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3">
       <c r="A659" t="s">
         <v>61</v>
       </c>
@@ -7906,7 +7848,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3">
       <c r="A660" t="s">
         <v>61</v>
       </c>
@@ -7917,7 +7859,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3">
       <c r="A661" t="s">
         <v>61</v>
       </c>
@@ -7928,7 +7870,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3">
       <c r="A662" t="s">
         <v>61</v>
       </c>
@@ -7939,7 +7881,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3">
       <c r="A663" t="s">
         <v>61</v>
       </c>
@@ -7950,7 +7892,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3">
       <c r="A664" t="s">
         <v>61</v>
       </c>
@@ -7961,7 +7903,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3">
       <c r="A665" t="s">
         <v>62</v>
       </c>
@@ -7972,7 +7914,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3">
       <c r="A666" t="s">
         <v>62</v>
       </c>
@@ -7983,7 +7925,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3">
       <c r="A667" t="s">
         <v>62</v>
       </c>
@@ -7994,7 +7936,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3">
       <c r="A668" t="s">
         <v>62</v>
       </c>
@@ -8005,7 +7947,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3">
       <c r="A669" t="s">
         <v>62</v>
       </c>
@@ -8016,7 +7958,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3">
       <c r="A670" t="s">
         <v>62</v>
       </c>
@@ -8027,7 +7969,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3">
       <c r="A671" t="s">
         <v>62</v>
       </c>
@@ -8038,7 +7980,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3">
       <c r="A672" t="s">
         <v>62</v>
       </c>
@@ -8049,7 +7991,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3">
       <c r="A673" t="s">
         <v>62</v>
       </c>
@@ -8060,7 +8002,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3">
       <c r="A674" t="s">
         <v>62</v>
       </c>
@@ -8071,7 +8013,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3">
       <c r="A675" t="s">
         <v>62</v>
       </c>
@@ -8082,7 +8024,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3">
       <c r="A676" t="s">
         <v>62</v>
       </c>
@@ -8093,7 +8035,7 @@
         <v>20082009</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3">
       <c r="A677" t="s">
         <v>62</v>
       </c>
@@ -8104,7 +8046,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3">
       <c r="A678" t="s">
         <v>62</v>
       </c>
@@ -8115,7 +8057,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3">
       <c r="A679" t="s">
         <v>62</v>
       </c>
@@ -8126,7 +8068,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3">
       <c r="A680" t="s">
         <v>63</v>
       </c>
@@ -8137,7 +8079,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3">
       <c r="A681" t="s">
         <v>63</v>
       </c>
@@ -8148,7 +8090,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3">
       <c r="A682" t="s">
         <v>63</v>
       </c>
@@ -8159,7 +8101,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3">
       <c r="A683" t="s">
         <v>63</v>
       </c>
@@ -8170,7 +8112,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3">
       <c r="A684" t="s">
         <v>63</v>
       </c>
@@ -8181,7 +8123,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3">
       <c r="A685" t="s">
         <v>63</v>
       </c>
@@ -8192,7 +8134,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3">
       <c r="A686" t="s">
         <v>63</v>
       </c>
@@ -8203,7 +8145,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3">
       <c r="A687" t="s">
         <v>63</v>
       </c>
@@ -8214,7 +8156,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3">
       <c r="A688" t="s">
         <v>63</v>
       </c>
@@ -8225,7 +8167,7 @@
         <v>20112012</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3">
       <c r="A689" t="s">
         <v>63</v>
       </c>
@@ -8236,7 +8178,7 @@
         <v>20102011</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3">
       <c r="A690" t="s">
         <v>63</v>
       </c>
@@ -8247,7 +8189,7 @@
         <v>20092010</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3">
       <c r="A691" t="s">
         <v>63</v>
       </c>
@@ -8258,7 +8200,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3">
       <c r="A692" t="s">
         <v>63</v>
       </c>
@@ -8269,7 +8211,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3">
       <c r="A693" t="s">
         <v>63</v>
       </c>
@@ -8280,7 +8222,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3">
       <c r="A694" t="s">
         <v>64</v>
       </c>
@@ -8291,7 +8233,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3">
       <c r="A695" t="s">
         <v>64</v>
       </c>
@@ -8302,7 +8244,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3">
       <c r="A696" t="s">
         <v>64</v>
       </c>
@@ -8313,7 +8255,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3">
       <c r="A697" t="s">
         <v>64</v>
       </c>
@@ -8324,7 +8266,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3">
       <c r="A698" t="s">
         <v>64</v>
       </c>
@@ -8335,7 +8277,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3">
       <c r="A699" t="s">
         <v>64</v>
       </c>
@@ -8346,7 +8288,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3">
       <c r="A700" t="s">
         <v>64</v>
       </c>
@@ -8357,7 +8299,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3">
       <c r="A701" t="s">
         <v>64</v>
       </c>
@@ -8368,7 +8310,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3">
       <c r="A702" t="s">
         <v>64</v>
       </c>
@@ -8379,7 +8321,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3">
       <c r="A703" t="s">
         <v>64</v>
       </c>
@@ -8390,7 +8332,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3">
       <c r="A704" t="s">
         <v>64</v>
       </c>
@@ -8401,7 +8343,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3">
       <c r="A705" t="s">
         <v>64</v>
       </c>
@@ -8412,7 +8354,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3">
       <c r="A706" t="s">
         <v>64</v>
       </c>
@@ -8423,7 +8365,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3">
       <c r="A707" t="s">
         <v>65</v>
       </c>
@@ -8434,7 +8376,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3">
       <c r="A708" t="s">
         <v>65</v>
       </c>
@@ -8445,7 +8387,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3">
       <c r="A709" t="s">
         <v>65</v>
       </c>
@@ -8456,7 +8398,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3">
       <c r="A710" t="s">
         <v>65</v>
       </c>
@@ -8467,7 +8409,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3">
       <c r="A711" t="s">
         <v>65</v>
       </c>
@@ -8478,7 +8420,7 @@
         <v>20122013</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3">
       <c r="A712" t="s">
         <v>65</v>
       </c>
@@ -8489,7 +8431,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3">
       <c r="A713" t="s">
         <v>65</v>
       </c>
@@ -8500,7 +8442,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3">
       <c r="A714" t="s">
         <v>65</v>
       </c>
@@ -8511,7 +8453,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3">
       <c r="A715" t="s">
         <v>65</v>
       </c>
@@ -8522,7 +8464,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3">
       <c r="A716" t="s">
         <v>65</v>
       </c>
@@ -8533,7 +8475,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3">
       <c r="A717" t="s">
         <v>65</v>
       </c>
@@ -8544,7 +8486,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3">
       <c r="A718" t="s">
         <v>66</v>
       </c>
@@ -8555,7 +8497,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3">
       <c r="A719" t="s">
         <v>66</v>
       </c>
@@ -8566,7 +8508,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3">
       <c r="A720" t="s">
         <v>66</v>
       </c>
@@ -8577,7 +8519,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3">
       <c r="A721" t="s">
         <v>66</v>
       </c>
@@ -8588,7 +8530,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3">
       <c r="A722" t="s">
         <v>66</v>
       </c>
@@ -8599,7 +8541,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3">
       <c r="A723" t="s">
         <v>66</v>
       </c>
@@ -8610,7 +8552,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3">
       <c r="A724" t="s">
         <v>66</v>
       </c>
@@ -8621,7 +8563,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3">
       <c r="A725" t="s">
         <v>66</v>
       </c>
@@ -8632,7 +8574,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3">
       <c r="A726" t="s">
         <v>66</v>
       </c>
@@ -8643,7 +8585,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3">
       <c r="A727" t="s">
         <v>66</v>
       </c>
@@ -8654,7 +8596,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3">
       <c r="A728" t="s">
         <v>67</v>
       </c>
@@ -8665,7 +8607,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3">
       <c r="A729" t="s">
         <v>67</v>
       </c>
@@ -8676,7 +8618,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3">
       <c r="A730" t="s">
         <v>67</v>
       </c>
@@ -8687,7 +8629,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3">
       <c r="A731" t="s">
         <v>67</v>
       </c>
@@ -8698,7 +8640,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3">
       <c r="A732" t="s">
         <v>67</v>
       </c>
@@ -8709,7 +8651,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3">
       <c r="A733" t="s">
         <v>67</v>
       </c>
@@ -8720,7 +8662,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3">
       <c r="A734" t="s">
         <v>67</v>
       </c>
@@ -8731,7 +8673,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3">
       <c r="A735" t="s">
         <v>67</v>
       </c>
@@ -8742,7 +8684,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3">
       <c r="A736" t="s">
         <v>67</v>
       </c>
@@ -8753,7 +8695,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3">
       <c r="A737" t="s">
         <v>68</v>
       </c>
@@ -8764,7 +8706,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3">
       <c r="A738" t="s">
         <v>68</v>
       </c>
@@ -8775,7 +8717,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3">
       <c r="A739" t="s">
         <v>68</v>
       </c>
@@ -8786,7 +8728,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3">
       <c r="A740" t="s">
         <v>68</v>
       </c>
@@ -8797,7 +8739,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3">
       <c r="A741" t="s">
         <v>68</v>
       </c>
@@ -8808,7 +8750,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3">
       <c r="A742" t="s">
         <v>68</v>
       </c>
@@ -8819,7 +8761,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3">
       <c r="A743" t="s">
         <v>68</v>
       </c>
@@ -8830,7 +8772,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3">
       <c r="A744" t="s">
         <v>68</v>
       </c>
@@ -8841,7 +8783,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3">
       <c r="A745" t="s">
         <v>68</v>
       </c>
@@ -8852,7 +8794,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3">
       <c r="A746" t="s">
         <v>68</v>
       </c>
@@ -8863,7 +8805,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3">
       <c r="A747" t="s">
         <v>68</v>
       </c>
@@ -8874,7 +8816,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3">
       <c r="A748" t="s">
         <v>68</v>
       </c>
@@ -8885,7 +8827,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3">
       <c r="A749" t="s">
         <v>68</v>
       </c>
@@ -8896,7 +8838,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3">
       <c r="A750" t="s">
         <v>68</v>
       </c>
@@ -8907,7 +8849,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3">
       <c r="A751" t="s">
         <v>69</v>
       </c>
@@ -8918,7 +8860,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3">
       <c r="A752" t="s">
         <v>69</v>
       </c>
@@ -8929,7 +8871,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3">
       <c r="A753" t="s">
         <v>69</v>
       </c>
@@ -8940,7 +8882,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3">
       <c r="A754" t="s">
         <v>69</v>
       </c>
@@ -8951,7 +8893,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3">
       <c r="A755" t="s">
         <v>69</v>
       </c>
@@ -8962,7 +8904,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3">
       <c r="A756" t="s">
         <v>69</v>
       </c>
@@ -8973,7 +8915,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3">
       <c r="A757" t="s">
         <v>69</v>
       </c>
@@ -8984,7 +8926,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3">
       <c r="A758" t="s">
         <v>69</v>
       </c>
@@ -8995,7 +8937,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3">
       <c r="A759" t="s">
         <v>69</v>
       </c>
@@ -9006,7 +8948,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3">
       <c r="A760" t="s">
         <v>69</v>
       </c>
@@ -9017,7 +8959,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3">
       <c r="A761" t="s">
         <v>69</v>
       </c>
@@ -9028,7 +8970,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3">
       <c r="A762" t="s">
         <v>70</v>
       </c>
@@ -9039,7 +8981,7 @@
         <v>20172018</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3">
       <c r="A763" t="s">
         <v>70</v>
       </c>
@@ -9050,7 +8992,7 @@
         <v>20162017</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3">
       <c r="A764" t="s">
         <v>70</v>
       </c>
@@ -9061,7 +9003,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3">
       <c r="A765" t="s">
         <v>70</v>
       </c>
@@ -9072,7 +9014,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3">
       <c r="A766" t="s">
         <v>70</v>
       </c>
@@ -9083,7 +9025,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3">
       <c r="A767" t="s">
         <v>70</v>
       </c>
@@ -9094,7 +9036,7 @@
         <v>20182019</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3">
       <c r="A768" t="s">
         <v>70</v>
       </c>
@@ -9105,7 +9047,7 @@
         <v>20192020</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3">
       <c r="A769" t="s">
         <v>70</v>
       </c>
@@ -9116,7 +9058,7 @@
         <v>20202021</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3">
       <c r="A770" t="s">
         <v>70</v>
       </c>
@@ -9127,7 +9069,7 @@
         <v>20212022</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3">
       <c r="A771" t="s">
         <v>70</v>
       </c>
@@ -9138,7 +9080,7 @@
         <v>20222023</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3">
       <c r="A772" t="s">
         <v>71</v>
       </c>
@@ -9149,7 +9091,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3">
       <c r="A773" t="s">
         <v>71</v>
       </c>
@@ -9160,7 +9102,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3">
       <c r="A774" t="s">
         <v>71</v>
       </c>
@@ -9171,7 +9113,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3">
       <c r="A775" t="s">
         <v>71</v>
       </c>
@@ -9182,7 +9124,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3">
       <c r="A776" t="s">
         <v>71</v>
       </c>
@@ -9193,7 +9135,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3">
       <c r="A777" t="s">
         <v>71</v>
       </c>
@@ -9204,7 +9146,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3">
       <c r="A778" t="s">
         <v>71</v>
       </c>
@@ -9215,7 +9157,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3">
       <c r="A779" t="s">
         <v>71</v>
       </c>
@@ -9226,7 +9168,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3">
       <c r="A780" t="s">
         <v>71</v>
       </c>
@@ -9237,7 +9179,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3">
       <c r="A781" t="s">
         <v>71</v>
       </c>
@@ -9248,7 +9190,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3">
       <c r="A782" t="s">
         <v>71</v>
       </c>
@@ -9259,7 +9201,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3">
       <c r="A783" t="s">
         <v>72</v>
       </c>
@@ -9270,7 +9212,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3">
       <c r="A784" t="s">
         <v>72</v>
       </c>
@@ -9281,7 +9223,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3">
       <c r="A785" t="s">
         <v>72</v>
       </c>
@@ -9292,7 +9234,7 @@
         <v>20152016</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3">
       <c r="A786" t="s">
         <v>72</v>
       </c>
@@ -9303,7 +9245,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3">
       <c r="A787" t="s">
         <v>72</v>
       </c>
@@ -9314,7 +9256,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3">
       <c r="A788" t="s">
         <v>72</v>
       </c>
@@ -9325,7 +9267,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3">
       <c r="A789" t="s">
         <v>72</v>
       </c>
@@ -9336,7 +9278,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3">
       <c r="A790" t="s">
         <v>72</v>
       </c>
@@ -9347,7 +9289,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3">
       <c r="A791" t="s">
         <v>72</v>
       </c>
@@ -9358,7 +9300,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3">
       <c r="A792" t="s">
         <v>72</v>
       </c>
@@ -9369,7 +9311,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3">
       <c r="A793" t="s">
         <v>72</v>
       </c>
@@ -9380,7 +9322,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3">
       <c r="A794" t="s">
         <v>73</v>
       </c>
@@ -9391,7 +9333,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3">
       <c r="A795" t="s">
         <v>73</v>
       </c>
@@ -9402,7 +9344,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3">
       <c r="A796" t="s">
         <v>73</v>
       </c>
@@ -9413,7 +9355,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -9424,7 +9366,7 @@
         <v>20142015</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3">
       <c r="A798" t="s">
         <v>73</v>
       </c>
@@ -9435,7 +9377,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3">
       <c r="A799" t="s">
         <v>73</v>
       </c>
@@ -9446,7 +9388,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3">
       <c r="A800" t="s">
         <v>73</v>
       </c>
@@ -9457,7 +9399,7 @@
         <v>20132014</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3">
       <c r="A801" t="s">
         <v>73</v>
       </c>
@@ -9468,7 +9410,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3">
       <c r="A802" t="s">
         <v>73</v>
       </c>
@@ -9479,7 +9421,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3">
       <c r="A803" t="s">
         <v>73</v>
       </c>
@@ -9490,7 +9432,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3">
       <c r="A804" t="s">
         <v>73</v>
       </c>
@@ -9502,7 +9444,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -9316,7 +9316,7 @@
         <v>72</v>
       </c>
       <c r="B793">
-        <v>9034</v>
+        <v>9288</v>
       </c>
       <c r="C793">
         <v>2023</v>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="74">
   <si>
     <t>League</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C804"/>
+  <dimension ref="A1:C805"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5804,13 +5804,13 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B474">
-        <v>55</v>
+        <v>9525</v>
       </c>
       <c r="C474">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>45</v>
       </c>
       <c r="B475">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C475">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>45</v>
       </c>
       <c r="B476">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C476">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>45</v>
       </c>
       <c r="B477">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="C477">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>45</v>
       </c>
       <c r="B478">
-        <v>1584</v>
+        <v>179</v>
       </c>
       <c r="C478">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>45</v>
       </c>
       <c r="B479">
-        <v>2273</v>
+        <v>1584</v>
       </c>
       <c r="C479">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>45</v>
       </c>
       <c r="B480">
-        <v>4228</v>
+        <v>2273</v>
       </c>
       <c r="C480">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>45</v>
       </c>
       <c r="B481">
-        <v>4236</v>
+        <v>4228</v>
       </c>
       <c r="C481">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>45</v>
       </c>
       <c r="B482">
-        <v>4243</v>
+        <v>4236</v>
       </c>
       <c r="C482">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>45</v>
       </c>
       <c r="B483">
-        <v>4246</v>
+        <v>4243</v>
       </c>
       <c r="C483">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="B484">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="C484">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>45</v>
       </c>
       <c r="B485">
-        <v>4748</v>
+        <v>4247</v>
       </c>
       <c r="C485">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>45</v>
       </c>
       <c r="B486">
-        <v>5950</v>
+        <v>4748</v>
       </c>
       <c r="C486">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5950,21 +5950,21 @@
         <v>45</v>
       </c>
       <c r="B487">
-        <v>7484</v>
+        <v>5950</v>
       </c>
       <c r="C487">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B488">
-        <v>51</v>
+        <v>7484</v>
       </c>
       <c r="C488">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>46</v>
       </c>
       <c r="B489">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C489">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>46</v>
       </c>
       <c r="B490">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C490">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>46</v>
       </c>
       <c r="B491">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C491">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>46</v>
       </c>
       <c r="B492">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="C492">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>46</v>
       </c>
       <c r="B493">
-        <v>1585</v>
+        <v>178</v>
       </c>
       <c r="C493">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>46</v>
       </c>
       <c r="B494">
-        <v>2272</v>
+        <v>1585</v>
       </c>
       <c r="C494">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>46</v>
       </c>
       <c r="B495">
-        <v>4226</v>
+        <v>2272</v>
       </c>
       <c r="C495">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>46</v>
       </c>
       <c r="B496">
-        <v>4234</v>
+        <v>4226</v>
       </c>
       <c r="C496">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>46</v>
       </c>
       <c r="B497">
-        <v>4746</v>
+        <v>4234</v>
       </c>
       <c r="C497">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>46</v>
       </c>
       <c r="B498">
-        <v>5951</v>
+        <v>4746</v>
       </c>
       <c r="C498">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6082,21 +6082,21 @@
         <v>46</v>
       </c>
       <c r="B499">
-        <v>7482</v>
+        <v>5951</v>
       </c>
       <c r="C499">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B500">
-        <v>1366</v>
+        <v>7482</v>
       </c>
       <c r="C500">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>47</v>
       </c>
       <c r="B501">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C501">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>47</v>
       </c>
       <c r="B502">
-        <v>1586</v>
+        <v>1367</v>
       </c>
       <c r="C502">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>47</v>
       </c>
       <c r="B503">
-        <v>2275</v>
+        <v>1586</v>
       </c>
       <c r="C503">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>47</v>
       </c>
       <c r="B504">
-        <v>4749</v>
+        <v>2275</v>
       </c>
       <c r="C504">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>47</v>
       </c>
       <c r="B505">
-        <v>6098</v>
+        <v>4749</v>
       </c>
       <c r="C505">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6159,21 +6159,21 @@
         <v>47</v>
       </c>
       <c r="B506">
-        <v>7702</v>
+        <v>6098</v>
       </c>
       <c r="C506">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B507">
-        <v>44</v>
+        <v>7702</v>
       </c>
       <c r="C507">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>48</v>
       </c>
       <c r="B508">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C508">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>48</v>
       </c>
       <c r="B509">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C509">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6203,10 +6203,10 @@
         <v>48</v>
       </c>
       <c r="B510">
-        <v>993</v>
+        <v>46</v>
       </c>
       <c r="C510">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6214,10 +6214,10 @@
         <v>48</v>
       </c>
       <c r="B511">
-        <v>1839</v>
+        <v>993</v>
       </c>
       <c r="C511">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6225,10 +6225,10 @@
         <v>48</v>
       </c>
       <c r="B512">
-        <v>3695</v>
+        <v>1839</v>
       </c>
       <c r="C512">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>48</v>
       </c>
       <c r="B513">
-        <v>4224</v>
+        <v>3695</v>
       </c>
       <c r="C513">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>48</v>
       </c>
       <c r="B514">
-        <v>4231</v>
+        <v>4224</v>
       </c>
       <c r="C514">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>48</v>
       </c>
       <c r="B515">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="C515">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>48</v>
       </c>
       <c r="B516">
-        <v>4242</v>
+        <v>4237</v>
       </c>
       <c r="C516">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>48</v>
       </c>
       <c r="B517">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="C517">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>48</v>
       </c>
       <c r="B518">
-        <v>5496</v>
+        <v>4244</v>
       </c>
       <c r="C518">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>48</v>
       </c>
       <c r="B519">
-        <v>7048</v>
+        <v>5496</v>
       </c>
       <c r="C519">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6313,21 +6313,21 @@
         <v>48</v>
       </c>
       <c r="B520">
-        <v>8739</v>
+        <v>7048</v>
       </c>
       <c r="C520">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B521">
-        <v>1099</v>
+        <v>8739</v>
       </c>
       <c r="C521">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>49</v>
       </c>
       <c r="B522">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C522">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>49</v>
       </c>
       <c r="B523">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C523">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>49</v>
       </c>
       <c r="B524">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C524">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>49</v>
       </c>
       <c r="B525">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C525">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>49</v>
       </c>
       <c r="B526">
-        <v>1843</v>
+        <v>1105</v>
       </c>
       <c r="C526">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>49</v>
       </c>
       <c r="B527">
-        <v>3643</v>
+        <v>1843</v>
       </c>
       <c r="C527">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>49</v>
       </c>
       <c r="B528">
-        <v>5503</v>
+        <v>3643</v>
       </c>
       <c r="C528">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>49</v>
       </c>
       <c r="B529">
-        <v>6960</v>
+        <v>5503</v>
       </c>
       <c r="C529">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6423,21 +6423,21 @@
         <v>49</v>
       </c>
       <c r="B530">
-        <v>8783</v>
+        <v>6960</v>
       </c>
       <c r="C530">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B531">
-        <v>612</v>
+        <v>8783</v>
       </c>
       <c r="C531">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>50</v>
       </c>
       <c r="B532">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C532">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>50</v>
       </c>
       <c r="B533">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C533">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>50</v>
       </c>
       <c r="B534">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C534">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>50</v>
       </c>
       <c r="B535">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C535">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>50</v>
       </c>
       <c r="B536">
-        <v>1125</v>
+        <v>616</v>
       </c>
       <c r="C536">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>50</v>
       </c>
       <c r="B537">
-        <v>1881</v>
+        <v>1125</v>
       </c>
       <c r="C537">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>50</v>
       </c>
       <c r="B538">
-        <v>3702</v>
+        <v>1881</v>
       </c>
       <c r="C538">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>50</v>
       </c>
       <c r="B539">
-        <v>5627</v>
+        <v>3702</v>
       </c>
       <c r="C539">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>50</v>
       </c>
       <c r="B540">
-        <v>6966</v>
+        <v>5627</v>
       </c>
       <c r="C540">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6544,21 +6544,21 @@
         <v>50</v>
       </c>
       <c r="B541">
-        <v>8837</v>
+        <v>6966</v>
       </c>
       <c r="C541">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B542">
-        <v>255</v>
+        <v>8837</v>
       </c>
       <c r="C542">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>51</v>
       </c>
       <c r="B543">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C543">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>51</v>
       </c>
       <c r="B544">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C544">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>51</v>
       </c>
       <c r="B545">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C545">
-        <v>20162017</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>51</v>
       </c>
       <c r="B546">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C546">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>51</v>
       </c>
       <c r="B547">
-        <v>1589</v>
+        <v>279</v>
       </c>
       <c r="C547">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>51</v>
       </c>
       <c r="B548">
-        <v>2328</v>
+        <v>1589</v>
       </c>
       <c r="C548">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>51</v>
       </c>
       <c r="B549">
-        <v>3972</v>
+        <v>2328</v>
       </c>
       <c r="C549">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>51</v>
       </c>
       <c r="B550">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="C550">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>51</v>
       </c>
       <c r="B551">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="C551">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>51</v>
       </c>
       <c r="B552">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="C552">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>51</v>
       </c>
       <c r="B553">
-        <v>4760</v>
+        <v>3975</v>
       </c>
       <c r="C553">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>51</v>
       </c>
       <c r="B554">
-        <v>5948</v>
+        <v>4760</v>
       </c>
       <c r="C554">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6698,21 +6698,21 @@
         <v>51</v>
       </c>
       <c r="B555">
-        <v>7428</v>
+        <v>5948</v>
       </c>
       <c r="C555">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>7428</v>
       </c>
       <c r="C556">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>52</v>
       </c>
       <c r="B557">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C557">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>52</v>
       </c>
       <c r="B558">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C558">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>52</v>
       </c>
       <c r="B559">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C559">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>52</v>
       </c>
       <c r="B560">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="C560">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>52</v>
       </c>
       <c r="B561">
-        <v>1593</v>
+        <v>173</v>
       </c>
       <c r="C561">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>52</v>
       </c>
       <c r="B562">
-        <v>2321</v>
+        <v>1593</v>
       </c>
       <c r="C562">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>52</v>
       </c>
       <c r="B563">
-        <v>4225</v>
+        <v>2321</v>
       </c>
       <c r="C563">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>52</v>
       </c>
       <c r="B564">
-        <v>4232</v>
+        <v>4225</v>
       </c>
       <c r="C564">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>52</v>
       </c>
       <c r="B565">
-        <v>4238</v>
+        <v>4232</v>
       </c>
       <c r="C565">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>52</v>
       </c>
       <c r="B566">
-        <v>4885</v>
+        <v>4238</v>
       </c>
       <c r="C566">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>52</v>
       </c>
       <c r="B567">
-        <v>6117</v>
+        <v>4885</v>
       </c>
       <c r="C567">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6841,21 +6841,21 @@
         <v>52</v>
       </c>
       <c r="B568">
-        <v>7731</v>
+        <v>6117</v>
       </c>
       <c r="C568">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B569">
-        <v>174</v>
+        <v>7731</v>
       </c>
       <c r="C569">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>53</v>
       </c>
       <c r="B570">
-        <v>965</v>
+        <v>174</v>
       </c>
       <c r="C570">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>53</v>
       </c>
       <c r="B571">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C571">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>53</v>
       </c>
       <c r="B572">
-        <v>1594</v>
+        <v>966</v>
       </c>
       <c r="C572">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>53</v>
       </c>
       <c r="B573">
-        <v>2320</v>
+        <v>1594</v>
       </c>
       <c r="C573">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>53</v>
       </c>
       <c r="B574">
-        <v>4284</v>
+        <v>2320</v>
       </c>
       <c r="C574">
-        <v>20142015</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>53</v>
       </c>
       <c r="B575">
-        <v>4291</v>
+        <v>4284</v>
       </c>
       <c r="C575">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>53</v>
       </c>
       <c r="B576">
-        <v>4309</v>
+        <v>4291</v>
       </c>
       <c r="C576">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>53</v>
       </c>
       <c r="B577">
-        <v>4322</v>
+        <v>4309</v>
       </c>
       <c r="C577">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>53</v>
       </c>
       <c r="B578">
-        <v>4886</v>
+        <v>4322</v>
       </c>
       <c r="C578">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>53</v>
       </c>
       <c r="B579">
-        <v>6116</v>
+        <v>4886</v>
       </c>
       <c r="C579">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6973,21 +6973,21 @@
         <v>53</v>
       </c>
       <c r="B580">
-        <v>7732</v>
+        <v>6116</v>
       </c>
       <c r="C580">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B581">
-        <v>449</v>
+        <v>7732</v>
       </c>
       <c r="C581">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>54</v>
       </c>
       <c r="B582">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C582">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>54</v>
       </c>
       <c r="B583">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C583">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>54</v>
       </c>
       <c r="B584">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C584">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>54</v>
       </c>
       <c r="B585">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C585">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>54</v>
       </c>
       <c r="B586">
-        <v>990</v>
+        <v>453</v>
       </c>
       <c r="C586">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>54</v>
       </c>
       <c r="B587">
-        <v>1844</v>
+        <v>990</v>
       </c>
       <c r="C587">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>54</v>
       </c>
       <c r="B588">
-        <v>3570</v>
+        <v>1844</v>
       </c>
       <c r="C588">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>54</v>
       </c>
       <c r="B589">
-        <v>5534</v>
+        <v>3570</v>
       </c>
       <c r="C589">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>54</v>
       </c>
       <c r="B590">
-        <v>6967</v>
+        <v>5534</v>
       </c>
       <c r="C590">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7094,21 +7094,21 @@
         <v>54</v>
       </c>
       <c r="B591">
-        <v>8741</v>
+        <v>6967</v>
       </c>
       <c r="C591">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B592">
-        <v>1086</v>
+        <v>8741</v>
       </c>
       <c r="C592">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>55</v>
       </c>
       <c r="B593">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C593">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>55</v>
       </c>
       <c r="B594">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C594">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>55</v>
       </c>
       <c r="B595">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C595">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>55</v>
       </c>
       <c r="B596">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C596">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>55</v>
       </c>
       <c r="B597">
-        <v>1596</v>
+        <v>1090</v>
       </c>
       <c r="C597">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>55</v>
       </c>
       <c r="B598">
-        <v>2312</v>
+        <v>1596</v>
       </c>
       <c r="C598">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>55</v>
       </c>
       <c r="B599">
-        <v>4764</v>
+        <v>2312</v>
       </c>
       <c r="C599">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>55</v>
       </c>
       <c r="B600">
-        <v>6037</v>
+        <v>4764</v>
       </c>
       <c r="C600">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7204,21 +7204,21 @@
         <v>55</v>
       </c>
       <c r="B601">
-        <v>7663</v>
+        <v>6037</v>
       </c>
       <c r="C601">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>7663</v>
       </c>
       <c r="C602">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>56</v>
       </c>
       <c r="B603">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="C603">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>56</v>
       </c>
       <c r="B604">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C604">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>56</v>
       </c>
       <c r="B605">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C605">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7259,10 +7259,10 @@
         <v>56</v>
       </c>
       <c r="B606">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C606">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7270,10 +7270,10 @@
         <v>56</v>
       </c>
       <c r="B607">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="C607">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7281,10 +7281,10 @@
         <v>56</v>
       </c>
       <c r="B608">
-        <v>1600</v>
+        <v>223</v>
       </c>
       <c r="C608">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>56</v>
       </c>
       <c r="B609">
-        <v>2361</v>
+        <v>1600</v>
       </c>
       <c r="C609">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>56</v>
       </c>
       <c r="B610">
-        <v>4478</v>
+        <v>2361</v>
       </c>
       <c r="C610">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>56</v>
       </c>
       <c r="B611">
-        <v>5992</v>
+        <v>4478</v>
       </c>
       <c r="C611">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7325,21 +7325,21 @@
         <v>56</v>
       </c>
       <c r="B612">
-        <v>7494</v>
+        <v>5992</v>
       </c>
       <c r="C612">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B613">
-        <v>416</v>
+        <v>7494</v>
       </c>
       <c r="C613">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>57</v>
       </c>
       <c r="B614">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C614">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>57</v>
       </c>
       <c r="B615">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C615">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>57</v>
       </c>
       <c r="B616">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C616">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>57</v>
       </c>
       <c r="B617">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C617">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>57</v>
       </c>
       <c r="B618">
-        <v>1604</v>
+        <v>420</v>
       </c>
       <c r="C618">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>57</v>
       </c>
       <c r="B619">
-        <v>2254</v>
+        <v>1604</v>
       </c>
       <c r="C619">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>57</v>
       </c>
       <c r="B620">
-        <v>4533</v>
+        <v>2254</v>
       </c>
       <c r="C620">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>57</v>
       </c>
       <c r="B621">
-        <v>6046</v>
+        <v>4533</v>
       </c>
       <c r="C621">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7435,21 +7435,21 @@
         <v>57</v>
       </c>
       <c r="B622">
-        <v>7492</v>
+        <v>6046</v>
       </c>
       <c r="C622">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B623">
-        <v>439</v>
+        <v>7492</v>
       </c>
       <c r="C623">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>58</v>
       </c>
       <c r="B624">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C624">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>58</v>
       </c>
       <c r="B625">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C625">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>58</v>
       </c>
       <c r="B626">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C626">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>58</v>
       </c>
       <c r="B627">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C627">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>58</v>
       </c>
       <c r="B628">
-        <v>1606</v>
+        <v>448</v>
       </c>
       <c r="C628">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>58</v>
       </c>
       <c r="B629">
-        <v>2256</v>
+        <v>1606</v>
       </c>
       <c r="C629">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>58</v>
       </c>
       <c r="B630">
-        <v>4572</v>
+        <v>2256</v>
       </c>
       <c r="C630">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>58</v>
       </c>
       <c r="B631">
-        <v>5944</v>
+        <v>4572</v>
       </c>
       <c r="C631">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7545,21 +7545,21 @@
         <v>58</v>
       </c>
       <c r="B632">
-        <v>7958</v>
+        <v>5944</v>
       </c>
       <c r="C632">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B633">
-        <v>426</v>
+        <v>7958</v>
       </c>
       <c r="C633">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>59</v>
       </c>
       <c r="B634">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C634">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>59</v>
       </c>
       <c r="B635">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C635">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>59</v>
       </c>
       <c r="B636">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C636">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>59</v>
       </c>
       <c r="B637">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C637">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>59</v>
       </c>
       <c r="B638">
-        <v>1608</v>
+        <v>433</v>
       </c>
       <c r="C638">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>59</v>
       </c>
       <c r="B639">
-        <v>2251</v>
+        <v>1608</v>
       </c>
       <c r="C639">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>59</v>
       </c>
       <c r="B640">
-        <v>4635</v>
+        <v>2251</v>
       </c>
       <c r="C640">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>59</v>
       </c>
       <c r="B641">
-        <v>6048</v>
+        <v>4635</v>
       </c>
       <c r="C641">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7655,21 +7655,21 @@
         <v>59</v>
       </c>
       <c r="B642">
-        <v>7526</v>
+        <v>6048</v>
       </c>
       <c r="C642">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B643">
-        <v>747</v>
+        <v>7526</v>
       </c>
       <c r="C643">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>60</v>
       </c>
       <c r="B644">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C644">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>60</v>
       </c>
       <c r="B645">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C645">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>60</v>
       </c>
       <c r="B646">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C646">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>60</v>
       </c>
       <c r="B647">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C647">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>60</v>
       </c>
       <c r="B648">
-        <v>1115</v>
+        <v>751</v>
       </c>
       <c r="C648">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>60</v>
       </c>
       <c r="B649">
-        <v>1862</v>
+        <v>1115</v>
       </c>
       <c r="C649">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>60</v>
       </c>
       <c r="B650">
-        <v>4379</v>
+        <v>1862</v>
       </c>
       <c r="C650">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>60</v>
       </c>
       <c r="B651">
-        <v>5506</v>
+        <v>4379</v>
       </c>
       <c r="C651">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>60</v>
       </c>
       <c r="B652">
-        <v>7061</v>
+        <v>5506</v>
       </c>
       <c r="C652">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7776,21 +7776,21 @@
         <v>60</v>
       </c>
       <c r="B653">
-        <v>8899</v>
+        <v>7061</v>
       </c>
       <c r="C653">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B654">
-        <v>752</v>
+        <v>8899</v>
       </c>
       <c r="C654">
-        <v>2015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>61</v>
       </c>
       <c r="B655">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C655">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7809,10 +7809,10 @@
         <v>61</v>
       </c>
       <c r="B656">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C656">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7820,10 +7820,10 @@
         <v>61</v>
       </c>
       <c r="B657">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C657">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7831,10 +7831,10 @@
         <v>61</v>
       </c>
       <c r="B658">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C658">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7842,10 +7842,10 @@
         <v>61</v>
       </c>
       <c r="B659">
-        <v>1121</v>
+        <v>761</v>
       </c>
       <c r="C659">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7853,10 +7853,10 @@
         <v>61</v>
       </c>
       <c r="B660">
-        <v>1863</v>
+        <v>1121</v>
       </c>
       <c r="C660">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7864,10 +7864,10 @@
         <v>61</v>
       </c>
       <c r="B661">
-        <v>4381</v>
+        <v>1863</v>
       </c>
       <c r="C661">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7875,10 +7875,10 @@
         <v>61</v>
       </c>
       <c r="B662">
-        <v>5504</v>
+        <v>4381</v>
       </c>
       <c r="C662">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7886,10 +7886,10 @@
         <v>61</v>
       </c>
       <c r="B663">
-        <v>7062</v>
+        <v>5504</v>
       </c>
       <c r="C663">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7897,21 +7897,21 @@
         <v>61</v>
       </c>
       <c r="B664">
-        <v>8938</v>
+        <v>7062</v>
       </c>
       <c r="C664">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="A665" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B665">
-        <v>34</v>
+        <v>8938</v>
       </c>
       <c r="C665">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7919,10 +7919,10 @@
         <v>62</v>
       </c>
       <c r="B666">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C666">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7930,10 +7930,10 @@
         <v>62</v>
       </c>
       <c r="B667">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C667">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7941,10 +7941,10 @@
         <v>62</v>
       </c>
       <c r="B668">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C668">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7952,10 +7952,10 @@
         <v>62</v>
       </c>
       <c r="B669">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C669">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7963,10 +7963,10 @@
         <v>62</v>
       </c>
       <c r="B670">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="C670">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7974,10 +7974,10 @@
         <v>62</v>
       </c>
       <c r="B671">
-        <v>1677</v>
+        <v>171</v>
       </c>
       <c r="C671">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7985,10 +7985,10 @@
         <v>62</v>
       </c>
       <c r="B672">
-        <v>2319</v>
+        <v>1677</v>
       </c>
       <c r="C672">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7996,10 +7996,10 @@
         <v>62</v>
       </c>
       <c r="B673">
-        <v>3631</v>
+        <v>2319</v>
       </c>
       <c r="C673">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8007,10 +8007,10 @@
         <v>62</v>
       </c>
       <c r="B674">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C674">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8018,10 +8018,10 @@
         <v>62</v>
       </c>
       <c r="B675">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="C675">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8029,10 +8029,10 @@
         <v>62</v>
       </c>
       <c r="B676">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="C676">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8040,10 +8040,10 @@
         <v>62</v>
       </c>
       <c r="B677">
-        <v>4944</v>
+        <v>3637</v>
       </c>
       <c r="C677">
-        <v>20202021</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8051,10 +8051,10 @@
         <v>62</v>
       </c>
       <c r="B678">
-        <v>6211</v>
+        <v>4944</v>
       </c>
       <c r="C678">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8062,21 +8062,21 @@
         <v>62</v>
       </c>
       <c r="B679">
-        <v>7665</v>
+        <v>6211</v>
       </c>
       <c r="C679">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="680" spans="1:3">
       <c r="A680" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B680">
-        <v>39</v>
+        <v>7665</v>
       </c>
       <c r="C680">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8084,10 +8084,10 @@
         <v>63</v>
       </c>
       <c r="B681">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C681">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8095,10 +8095,10 @@
         <v>63</v>
       </c>
       <c r="B682">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C682">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8106,10 +8106,10 @@
         <v>63</v>
       </c>
       <c r="B683">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C683">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8117,10 +8117,10 @@
         <v>63</v>
       </c>
       <c r="B684">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C684">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8128,10 +8128,10 @@
         <v>63</v>
       </c>
       <c r="B685">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="C685">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8139,10 +8139,10 @@
         <v>63</v>
       </c>
       <c r="B686">
-        <v>1670</v>
+        <v>172</v>
       </c>
       <c r="C686">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8150,10 +8150,10 @@
         <v>63</v>
       </c>
       <c r="B687">
-        <v>2415</v>
+        <v>1670</v>
       </c>
       <c r="C687">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8161,10 +8161,10 @@
         <v>63</v>
       </c>
       <c r="B688">
-        <v>4167</v>
+        <v>2415</v>
       </c>
       <c r="C688">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8172,10 +8172,10 @@
         <v>63</v>
       </c>
       <c r="B689">
-        <v>4245</v>
+        <v>4167</v>
       </c>
       <c r="C689">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8183,10 +8183,10 @@
         <v>63</v>
       </c>
       <c r="B690">
-        <v>4249</v>
+        <v>4245</v>
       </c>
       <c r="C690">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8194,10 +8194,10 @@
         <v>63</v>
       </c>
       <c r="B691">
-        <v>4842</v>
+        <v>4249</v>
       </c>
       <c r="C691">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8205,10 +8205,10 @@
         <v>63</v>
       </c>
       <c r="B692">
-        <v>6120</v>
+        <v>4842</v>
       </c>
       <c r="C692">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8216,21 +8216,21 @@
         <v>63</v>
       </c>
       <c r="B693">
-        <v>7592</v>
+        <v>6120</v>
       </c>
       <c r="C693">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="694" spans="1:3">
       <c r="A694" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B694">
-        <v>104</v>
+        <v>7592</v>
       </c>
       <c r="C694">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8238,10 +8238,10 @@
         <v>64</v>
       </c>
       <c r="B695">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C695">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8249,10 +8249,10 @@
         <v>64</v>
       </c>
       <c r="B696">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C696">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8260,10 +8260,10 @@
         <v>64</v>
       </c>
       <c r="B697">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C697">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8271,10 +8271,10 @@
         <v>64</v>
       </c>
       <c r="B698">
-        <v>994</v>
+        <v>107</v>
       </c>
       <c r="C698">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8282,10 +8282,10 @@
         <v>64</v>
       </c>
       <c r="B699">
-        <v>1848</v>
+        <v>994</v>
       </c>
       <c r="C699">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8293,10 +8293,10 @@
         <v>64</v>
       </c>
       <c r="B700">
-        <v>3703</v>
+        <v>1848</v>
       </c>
       <c r="C700">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8304,10 +8304,10 @@
         <v>64</v>
       </c>
       <c r="B701">
-        <v>4307</v>
+        <v>3703</v>
       </c>
       <c r="C701">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8315,10 +8315,10 @@
         <v>64</v>
       </c>
       <c r="B702">
-        <v>4315</v>
+        <v>4307</v>
       </c>
       <c r="C702">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8326,10 +8326,10 @@
         <v>64</v>
       </c>
       <c r="B703">
-        <v>4329</v>
+        <v>4315</v>
       </c>
       <c r="C703">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8337,10 +8337,10 @@
         <v>64</v>
       </c>
       <c r="B704">
-        <v>5505</v>
+        <v>4329</v>
       </c>
       <c r="C704">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8348,10 +8348,10 @@
         <v>64</v>
       </c>
       <c r="B705">
-        <v>7064</v>
+        <v>5505</v>
       </c>
       <c r="C705">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8359,21 +8359,21 @@
         <v>64</v>
       </c>
       <c r="B706">
-        <v>8737</v>
+        <v>7064</v>
       </c>
       <c r="C706">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="707" spans="1:3">
       <c r="A707" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B707">
-        <v>136</v>
+        <v>8737</v>
       </c>
       <c r="C707">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8381,10 +8381,10 @@
         <v>65</v>
       </c>
       <c r="B708">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C708">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8392,10 +8392,10 @@
         <v>65</v>
       </c>
       <c r="B709">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C709">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8403,10 +8403,10 @@
         <v>65</v>
       </c>
       <c r="B710">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C710">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8414,10 +8414,10 @@
         <v>65</v>
       </c>
       <c r="B711">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C711">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8425,10 +8425,10 @@
         <v>65</v>
       </c>
       <c r="B712">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C712">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8436,10 +8436,10 @@
         <v>65</v>
       </c>
       <c r="B713">
-        <v>1610</v>
+        <v>186</v>
       </c>
       <c r="C713">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8447,10 +8447,10 @@
         <v>65</v>
       </c>
       <c r="B714">
-        <v>2249</v>
+        <v>1610</v>
       </c>
       <c r="C714">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8458,10 +8458,10 @@
         <v>65</v>
       </c>
       <c r="B715">
-        <v>4906</v>
+        <v>2249</v>
       </c>
       <c r="C715">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8469,10 +8469,10 @@
         <v>65</v>
       </c>
       <c r="B716">
-        <v>6044</v>
+        <v>4906</v>
       </c>
       <c r="C716">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8480,21 +8480,21 @@
         <v>65</v>
       </c>
       <c r="B717">
-        <v>7504</v>
+        <v>6044</v>
       </c>
       <c r="C717">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="718" spans="1:3">
       <c r="A718" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B718">
-        <v>798</v>
+        <v>7504</v>
       </c>
       <c r="C718">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8502,10 +8502,10 @@
         <v>66</v>
       </c>
       <c r="B719">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C719">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8513,10 +8513,10 @@
         <v>66</v>
       </c>
       <c r="B720">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C720">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8524,10 +8524,10 @@
         <v>66</v>
       </c>
       <c r="B721">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C721">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8535,10 +8535,10 @@
         <v>66</v>
       </c>
       <c r="B722">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C722">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8546,10 +8546,10 @@
         <v>66</v>
       </c>
       <c r="B723">
-        <v>1644</v>
+        <v>802</v>
       </c>
       <c r="C723">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8557,10 +8557,10 @@
         <v>66</v>
       </c>
       <c r="B724">
-        <v>2650</v>
+        <v>1644</v>
       </c>
       <c r="C724">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8568,10 +8568,10 @@
         <v>66</v>
       </c>
       <c r="B725">
-        <v>5257</v>
+        <v>2650</v>
       </c>
       <c r="C725">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8579,10 +8579,10 @@
         <v>66</v>
       </c>
       <c r="B726">
-        <v>6726</v>
+        <v>5257</v>
       </c>
       <c r="C726">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8590,21 +8590,21 @@
         <v>66</v>
       </c>
       <c r="B727">
-        <v>8428</v>
+        <v>6726</v>
       </c>
       <c r="C727">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="728" spans="1:3">
       <c r="A728" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B728">
-        <v>19</v>
+        <v>8428</v>
       </c>
       <c r="C728">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8612,10 +8612,10 @@
         <v>67</v>
       </c>
       <c r="B729">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C729">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8623,10 +8623,10 @@
         <v>67</v>
       </c>
       <c r="B730">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C730">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8634,10 +8634,10 @@
         <v>67</v>
       </c>
       <c r="B731">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="C731">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8645,10 +8645,10 @@
         <v>67</v>
       </c>
       <c r="B732">
-        <v>1614</v>
+        <v>175</v>
       </c>
       <c r="C732">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8656,10 +8656,10 @@
         <v>67</v>
       </c>
       <c r="B733">
-        <v>2648</v>
+        <v>1614</v>
       </c>
       <c r="C733">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8667,10 +8667,10 @@
         <v>67</v>
       </c>
       <c r="B734">
-        <v>4840</v>
+        <v>2648</v>
       </c>
       <c r="C734">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8678,10 +8678,10 @@
         <v>67</v>
       </c>
       <c r="B735">
-        <v>6125</v>
+        <v>4840</v>
       </c>
       <c r="C735">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8689,21 +8689,21 @@
         <v>67</v>
       </c>
       <c r="B736">
-        <v>7768</v>
+        <v>6125</v>
       </c>
       <c r="C736">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="737" spans="1:3">
       <c r="A737" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B737">
-        <v>1</v>
+        <v>7768</v>
       </c>
       <c r="C737">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8711,10 +8711,10 @@
         <v>68</v>
       </c>
       <c r="B738">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C738">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8722,10 +8722,10 @@
         <v>68</v>
       </c>
       <c r="B739">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C739">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8733,10 +8733,10 @@
         <v>68</v>
       </c>
       <c r="B740">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C740">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8744,10 +8744,10 @@
         <v>68</v>
       </c>
       <c r="B741">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="C741">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8755,10 +8755,10 @@
         <v>68</v>
       </c>
       <c r="B742">
-        <v>1076</v>
+        <v>163</v>
       </c>
       <c r="C742">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8766,10 +8766,10 @@
         <v>68</v>
       </c>
       <c r="B743">
-        <v>1846</v>
+        <v>1076</v>
       </c>
       <c r="C743">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8777,10 +8777,10 @@
         <v>68</v>
       </c>
       <c r="B744">
-        <v>4227</v>
+        <v>1846</v>
       </c>
       <c r="C744">
-        <v>2012</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8788,10 +8788,10 @@
         <v>68</v>
       </c>
       <c r="B745">
-        <v>4235</v>
+        <v>4227</v>
       </c>
       <c r="C745">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8799,10 +8799,10 @@
         <v>68</v>
       </c>
       <c r="B746">
-        <v>4241</v>
+        <v>4235</v>
       </c>
       <c r="C746">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8810,10 +8810,10 @@
         <v>68</v>
       </c>
       <c r="B747">
-        <v>4473</v>
+        <v>4241</v>
       </c>
       <c r="C747">
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8821,10 +8821,10 @@
         <v>68</v>
       </c>
       <c r="B748">
-        <v>5674</v>
+        <v>4473</v>
       </c>
       <c r="C748">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8832,10 +8832,10 @@
         <v>68</v>
       </c>
       <c r="B749">
-        <v>6969</v>
+        <v>5674</v>
       </c>
       <c r="C749">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8843,21 +8843,21 @@
         <v>68</v>
       </c>
       <c r="B750">
-        <v>8777</v>
+        <v>6969</v>
       </c>
       <c r="C750">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="751" spans="1:3">
       <c r="A751" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B751">
-        <v>1290</v>
+        <v>8777</v>
       </c>
       <c r="C751">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8865,10 +8865,10 @@
         <v>69</v>
       </c>
       <c r="B752">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C752">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8876,10 +8876,10 @@
         <v>69</v>
       </c>
       <c r="B753">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C753">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8887,10 +8887,10 @@
         <v>69</v>
       </c>
       <c r="B754">
-        <v>1857</v>
+        <v>1292</v>
       </c>
       <c r="C754">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8898,10 +8898,10 @@
         <v>69</v>
       </c>
       <c r="B755">
-        <v>3710</v>
+        <v>1857</v>
       </c>
       <c r="C755">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8909,10 +8909,10 @@
         <v>69</v>
       </c>
       <c r="B756">
-        <v>4279</v>
+        <v>3710</v>
       </c>
       <c r="C756">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8920,10 +8920,10 @@
         <v>69</v>
       </c>
       <c r="B757">
-        <v>4283</v>
+        <v>4279</v>
       </c>
       <c r="C757">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8931,10 +8931,10 @@
         <v>69</v>
       </c>
       <c r="B758">
-        <v>4288</v>
+        <v>4283</v>
       </c>
       <c r="C758">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8942,10 +8942,10 @@
         <v>69</v>
       </c>
       <c r="B759">
-        <v>6541</v>
+        <v>4288</v>
       </c>
       <c r="C759">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8953,10 +8953,10 @@
         <v>69</v>
       </c>
       <c r="B760">
-        <v>6970</v>
+        <v>6541</v>
       </c>
       <c r="C760">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8964,21 +8964,21 @@
         <v>69</v>
       </c>
       <c r="B761">
-        <v>8845</v>
+        <v>6970</v>
       </c>
       <c r="C761">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="762" spans="1:3">
       <c r="A762" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B762">
-        <v>360</v>
+        <v>8845</v>
       </c>
       <c r="C762">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8986,10 +8986,10 @@
         <v>70</v>
       </c>
       <c r="B763">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C763">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8997,10 +8997,10 @@
         <v>70</v>
       </c>
       <c r="B764">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C764">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9008,10 +9008,10 @@
         <v>70</v>
       </c>
       <c r="B765">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C765">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9019,10 +9019,10 @@
         <v>70</v>
       </c>
       <c r="B766">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C766">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9030,10 +9030,10 @@
         <v>70</v>
       </c>
       <c r="B767">
-        <v>1618</v>
+        <v>364</v>
       </c>
       <c r="C767">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9041,10 +9041,10 @@
         <v>70</v>
       </c>
       <c r="B768">
-        <v>2317</v>
+        <v>1618</v>
       </c>
       <c r="C768">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9052,10 +9052,10 @@
         <v>70</v>
       </c>
       <c r="B769">
-        <v>4751</v>
+        <v>2317</v>
       </c>
       <c r="C769">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9063,10 +9063,10 @@
         <v>70</v>
       </c>
       <c r="B770">
-        <v>5943</v>
+        <v>4751</v>
       </c>
       <c r="C770">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9074,21 +9074,21 @@
         <v>70</v>
       </c>
       <c r="B771">
-        <v>8222</v>
+        <v>5943</v>
       </c>
       <c r="C771">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="772" spans="1:3">
       <c r="A772" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B772">
-        <v>853</v>
+        <v>8222</v>
       </c>
       <c r="C772">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9096,10 +9096,10 @@
         <v>71</v>
       </c>
       <c r="B773">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C773">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9107,10 +9107,10 @@
         <v>71</v>
       </c>
       <c r="B774">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C774">
-        <v>20152016</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9118,10 +9118,10 @@
         <v>71</v>
       </c>
       <c r="B775">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C775">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9129,10 +9129,10 @@
         <v>71</v>
       </c>
       <c r="B776">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C776">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9140,10 +9140,10 @@
         <v>71</v>
       </c>
       <c r="B777">
-        <v>1095</v>
+        <v>857</v>
       </c>
       <c r="C777">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9151,10 +9151,10 @@
         <v>71</v>
       </c>
       <c r="B778">
-        <v>1905</v>
+        <v>1095</v>
       </c>
       <c r="C778">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9162,10 +9162,10 @@
         <v>71</v>
       </c>
       <c r="B779">
-        <v>3789</v>
+        <v>1905</v>
       </c>
       <c r="C779">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9173,10 +9173,10 @@
         <v>71</v>
       </c>
       <c r="B780">
-        <v>5809</v>
+        <v>3789</v>
       </c>
       <c r="C780">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9184,10 +9184,10 @@
         <v>71</v>
       </c>
       <c r="B781">
-        <v>7067</v>
+        <v>5809</v>
       </c>
       <c r="C781">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9195,21 +9195,21 @@
         <v>71</v>
       </c>
       <c r="B782">
-        <v>8937</v>
+        <v>7067</v>
       </c>
       <c r="C782">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="783" spans="1:3">
       <c r="A783" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B783">
-        <v>858</v>
+        <v>8937</v>
       </c>
       <c r="C783">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9217,10 +9217,10 @@
         <v>72</v>
       </c>
       <c r="B784">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C784">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9228,10 +9228,10 @@
         <v>72</v>
       </c>
       <c r="B785">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C785">
-        <v>20152016</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9239,10 +9239,10 @@
         <v>72</v>
       </c>
       <c r="B786">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C786">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9250,10 +9250,10 @@
         <v>72</v>
       </c>
       <c r="B787">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C787">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9261,10 +9261,10 @@
         <v>72</v>
       </c>
       <c r="B788">
-        <v>1096</v>
+        <v>862</v>
       </c>
       <c r="C788">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9272,10 +9272,10 @@
         <v>72</v>
       </c>
       <c r="B789">
-        <v>1949</v>
+        <v>1096</v>
       </c>
       <c r="C789">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9283,10 +9283,10 @@
         <v>72</v>
       </c>
       <c r="B790">
-        <v>4651</v>
+        <v>1949</v>
       </c>
       <c r="C790">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9294,10 +9294,10 @@
         <v>72</v>
       </c>
       <c r="B791">
-        <v>5908</v>
+        <v>4651</v>
       </c>
       <c r="C791">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9305,10 +9305,10 @@
         <v>72</v>
       </c>
       <c r="B792">
-        <v>7173</v>
+        <v>5908</v>
       </c>
       <c r="C792">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9316,21 +9316,21 @@
         <v>72</v>
       </c>
       <c r="B793">
-        <v>9288</v>
+        <v>7173</v>
       </c>
       <c r="C793">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="794" spans="1:3">
       <c r="A794" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B794">
-        <v>622</v>
+        <v>9288</v>
       </c>
       <c r="C794">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9338,10 +9338,10 @@
         <v>73</v>
       </c>
       <c r="B795">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C795">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9349,10 +9349,10 @@
         <v>73</v>
       </c>
       <c r="B796">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C796">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9360,10 +9360,10 @@
         <v>73</v>
       </c>
       <c r="B797">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C797">
-        <v>20142015</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9371,10 +9371,10 @@
         <v>73</v>
       </c>
       <c r="B798">
-        <v>1102</v>
+        <v>631</v>
       </c>
       <c r="C798">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9382,10 +9382,10 @@
         <v>73</v>
       </c>
       <c r="B799">
-        <v>1868</v>
+        <v>1102</v>
       </c>
       <c r="C799">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9393,10 +9393,10 @@
         <v>73</v>
       </c>
       <c r="B800">
-        <v>2011</v>
+        <v>1868</v>
       </c>
       <c r="C800">
-        <v>20132014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9404,10 +9404,10 @@
         <v>73</v>
       </c>
       <c r="B801">
-        <v>3714</v>
+        <v>2011</v>
       </c>
       <c r="C801">
-        <v>2020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9415,10 +9415,10 @@
         <v>73</v>
       </c>
       <c r="B802">
-        <v>5631</v>
+        <v>3714</v>
       </c>
       <c r="C802">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9426,10 +9426,10 @@
         <v>73</v>
       </c>
       <c r="B803">
-        <v>7166</v>
+        <v>5631</v>
       </c>
       <c r="C803">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9437,9 +9437,20 @@
         <v>73</v>
       </c>
       <c r="B804">
+        <v>7166</v>
+      </c>
+      <c r="C804">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3">
+      <c r="A805" t="s">
+        <v>73</v>
+      </c>
+      <c r="B805">
         <v>8952</v>
       </c>
-      <c r="C804">
+      <c r="C805">
         <v>2023</v>
       </c>
     </row>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="74">
   <si>
     <t>League</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C805"/>
+  <dimension ref="A1:C806"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2779,13 +2779,13 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B199">
-        <v>537</v>
+        <v>9542</v>
       </c>
       <c r="C199">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>22</v>
       </c>
       <c r="B200">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C200">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>22</v>
       </c>
       <c r="B201">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C201">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>22</v>
       </c>
       <c r="B202">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C202">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>22</v>
       </c>
       <c r="B203">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C203">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>22</v>
       </c>
       <c r="B204">
-        <v>1545</v>
+        <v>541</v>
       </c>
       <c r="C204">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>22</v>
       </c>
       <c r="B205">
-        <v>2268</v>
+        <v>1545</v>
       </c>
       <c r="C205">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>22</v>
       </c>
       <c r="B206">
-        <v>4308</v>
+        <v>2268</v>
       </c>
       <c r="C206">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2870,10 +2870,10 @@
         <v>22</v>
       </c>
       <c r="B207">
-        <v>4314</v>
+        <v>4308</v>
       </c>
       <c r="C207">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2881,10 +2881,10 @@
         <v>22</v>
       </c>
       <c r="B208">
-        <v>4328</v>
+        <v>4314</v>
       </c>
       <c r="C208">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>22</v>
       </c>
       <c r="B209">
-        <v>4335</v>
+        <v>4328</v>
       </c>
       <c r="C209">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>22</v>
       </c>
       <c r="B210">
-        <v>4801</v>
+        <v>4335</v>
       </c>
       <c r="C210">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2914,10 +2914,10 @@
         <v>22</v>
       </c>
       <c r="B211">
-        <v>5938</v>
+        <v>4801</v>
       </c>
       <c r="C211">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2925,21 +2925,21 @@
         <v>22</v>
       </c>
       <c r="B212">
-        <v>7586</v>
+        <v>5938</v>
       </c>
       <c r="C212">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B213">
-        <v>700</v>
+        <v>7586</v>
       </c>
       <c r="C213">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2947,10 +2947,10 @@
         <v>23</v>
       </c>
       <c r="B214">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C214">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2958,10 +2958,10 @@
         <v>23</v>
       </c>
       <c r="B215">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C215">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2969,10 +2969,10 @@
         <v>23</v>
       </c>
       <c r="B216">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C216">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>23</v>
       </c>
       <c r="B217">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C217">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>23</v>
       </c>
       <c r="B218">
-        <v>1539</v>
+        <v>704</v>
       </c>
       <c r="C218">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3002,10 +3002,10 @@
         <v>23</v>
       </c>
       <c r="B219">
-        <v>4389</v>
+        <v>1539</v>
       </c>
       <c r="C219">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>23</v>
       </c>
       <c r="B220">
-        <v>4641</v>
+        <v>4389</v>
       </c>
       <c r="C220">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>23</v>
       </c>
       <c r="B221">
-        <v>5959</v>
+        <v>4641</v>
       </c>
       <c r="C221">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3035,21 +3035,21 @@
         <v>23</v>
       </c>
       <c r="B222">
-        <v>7450</v>
+        <v>5959</v>
       </c>
       <c r="C222">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B223">
-        <v>561</v>
+        <v>7450</v>
       </c>
       <c r="C223">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3057,10 +3057,10 @@
         <v>24</v>
       </c>
       <c r="B224">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C224">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3068,10 +3068,10 @@
         <v>24</v>
       </c>
       <c r="B225">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C225">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3079,10 +3079,10 @@
         <v>24</v>
       </c>
       <c r="B226">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C226">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3090,10 +3090,10 @@
         <v>24</v>
       </c>
       <c r="B227">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C227">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>24</v>
       </c>
       <c r="B228">
-        <v>1538</v>
+        <v>565</v>
       </c>
       <c r="C228">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>24</v>
       </c>
       <c r="B229">
-        <v>2245</v>
+        <v>1538</v>
       </c>
       <c r="C229">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>24</v>
       </c>
       <c r="B230">
-        <v>4642</v>
+        <v>2245</v>
       </c>
       <c r="C230">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>24</v>
       </c>
       <c r="B231">
-        <v>5961</v>
+        <v>4642</v>
       </c>
       <c r="C231">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3145,21 +3145,21 @@
         <v>24</v>
       </c>
       <c r="B232">
-        <v>7426</v>
+        <v>5961</v>
       </c>
       <c r="C232">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B233">
-        <v>843</v>
+        <v>7426</v>
       </c>
       <c r="C233">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>25</v>
       </c>
       <c r="B234">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C234">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>25</v>
       </c>
       <c r="B235">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C235">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>25</v>
       </c>
       <c r="B236">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C236">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>25</v>
       </c>
       <c r="B237">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C237">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>25</v>
       </c>
       <c r="B238">
-        <v>1093</v>
+        <v>847</v>
       </c>
       <c r="C238">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>25</v>
       </c>
       <c r="B239">
-        <v>1872</v>
+        <v>1093</v>
       </c>
       <c r="C239">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>25</v>
       </c>
       <c r="B240">
-        <v>3553</v>
+        <v>1872</v>
       </c>
       <c r="C240">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>25</v>
       </c>
       <c r="B241">
-        <v>5580</v>
+        <v>3553</v>
       </c>
       <c r="C241">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>25</v>
       </c>
       <c r="B242">
-        <v>7038</v>
+        <v>5580</v>
       </c>
       <c r="C242">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3266,21 +3266,21 @@
         <v>25</v>
       </c>
       <c r="B243">
-        <v>8934</v>
+        <v>7038</v>
       </c>
       <c r="C243">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B244">
-        <v>210</v>
+        <v>8934</v>
       </c>
       <c r="C244">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>26</v>
       </c>
       <c r="B245">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C245">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>26</v>
       </c>
       <c r="B246">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C246">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>26</v>
       </c>
       <c r="B247">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C247">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>26</v>
       </c>
       <c r="B248">
-        <v>1673</v>
+        <v>218</v>
       </c>
       <c r="C248">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>26</v>
       </c>
       <c r="B249">
-        <v>2889</v>
+        <v>1673</v>
       </c>
       <c r="C249">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>26</v>
       </c>
       <c r="B250">
-        <v>5342</v>
+        <v>2889</v>
       </c>
       <c r="C250">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>26</v>
       </c>
       <c r="B251">
-        <v>6752</v>
+        <v>5342</v>
       </c>
       <c r="C251">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3365,21 +3365,21 @@
         <v>26</v>
       </c>
       <c r="B252">
-        <v>8520</v>
+        <v>6752</v>
       </c>
       <c r="C252">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B253">
-        <v>22</v>
+        <v>8520</v>
       </c>
       <c r="C253">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>27</v>
       </c>
       <c r="B254">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C254">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>27</v>
       </c>
       <c r="B255">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C255">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>27</v>
       </c>
       <c r="B256">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C256">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>27</v>
       </c>
       <c r="B257">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C257">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="B258">
-        <v>1624</v>
+        <v>165</v>
       </c>
       <c r="C258">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>27</v>
       </c>
       <c r="B259">
-        <v>2187</v>
+        <v>1624</v>
       </c>
       <c r="C259">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>27</v>
       </c>
       <c r="B260">
-        <v>3141</v>
+        <v>2187</v>
       </c>
       <c r="C260">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>27</v>
       </c>
       <c r="B261">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="C261">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>27</v>
       </c>
       <c r="B262">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="C262">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>27</v>
       </c>
       <c r="B263">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="C263">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>27</v>
       </c>
       <c r="B264">
-        <v>4912</v>
+        <v>3147</v>
       </c>
       <c r="C264">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="B265">
-        <v>6089</v>
+        <v>4912</v>
       </c>
       <c r="C265">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>27</v>
       </c>
       <c r="B266">
-        <v>7593</v>
+        <v>6089</v>
       </c>
       <c r="C266">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3530,21 +3530,21 @@
         <v>27</v>
       </c>
       <c r="B267">
-        <v>8031</v>
+        <v>7593</v>
       </c>
       <c r="C267">
-        <v>20082009</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B268">
-        <v>28</v>
+        <v>8031</v>
       </c>
       <c r="C268">
-        <v>20162017</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>28</v>
       </c>
       <c r="B269">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C269">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>28</v>
       </c>
       <c r="B270">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C270">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>28</v>
       </c>
       <c r="B271">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C271">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>28</v>
       </c>
       <c r="B272">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="C272">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>28</v>
       </c>
       <c r="B273">
-        <v>1564</v>
+        <v>166</v>
       </c>
       <c r="C273">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>28</v>
       </c>
       <c r="B274">
-        <v>2191</v>
+        <v>1564</v>
       </c>
       <c r="C274">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>28</v>
       </c>
       <c r="B275">
-        <v>3950</v>
+        <v>2191</v>
       </c>
       <c r="C275">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>28</v>
       </c>
       <c r="B276">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C276">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>28</v>
       </c>
       <c r="B277">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="C277">
-        <v>20112012</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>28</v>
       </c>
       <c r="B278">
-        <v>4845</v>
+        <v>3952</v>
       </c>
       <c r="C278">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>28</v>
       </c>
       <c r="B279">
-        <v>4923</v>
+        <v>4845</v>
       </c>
       <c r="C279">
-        <v>20102011</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>28</v>
       </c>
       <c r="B280">
-        <v>6017</v>
+        <v>4923</v>
       </c>
       <c r="C280">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3684,21 +3684,21 @@
         <v>28</v>
       </c>
       <c r="B281">
-        <v>7570</v>
+        <v>6017</v>
       </c>
       <c r="C281">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B282">
-        <v>32</v>
+        <v>7570</v>
       </c>
       <c r="C282">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>29</v>
       </c>
       <c r="B283">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C283">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>29</v>
       </c>
       <c r="B284">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="C284">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>29</v>
       </c>
       <c r="B285">
-        <v>1574</v>
+        <v>170</v>
       </c>
       <c r="C285">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>29</v>
       </c>
       <c r="B286">
-        <v>2192</v>
+        <v>1574</v>
       </c>
       <c r="C286">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>29</v>
       </c>
       <c r="B287">
-        <v>4844</v>
+        <v>2192</v>
       </c>
       <c r="C287">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>29</v>
       </c>
       <c r="B288">
-        <v>6015</v>
+        <v>4844</v>
       </c>
       <c r="C288">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3772,21 +3772,21 @@
         <v>29</v>
       </c>
       <c r="B289">
-        <v>7574</v>
+        <v>6015</v>
       </c>
       <c r="C289">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B290">
-        <v>392</v>
+        <v>7574</v>
       </c>
       <c r="C290">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>30</v>
       </c>
       <c r="B291">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C291">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>30</v>
       </c>
       <c r="B292">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C292">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>30</v>
       </c>
       <c r="B293">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C293">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>30</v>
       </c>
       <c r="B294">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C294">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>30</v>
       </c>
       <c r="B295">
-        <v>1576</v>
+        <v>396</v>
       </c>
       <c r="C295">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>30</v>
       </c>
       <c r="B296">
-        <v>2287</v>
+        <v>1576</v>
       </c>
       <c r="C296">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>30</v>
       </c>
       <c r="B297">
-        <v>4124</v>
+        <v>2287</v>
       </c>
       <c r="C297">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="B298">
-        <v>4154</v>
+        <v>4124</v>
       </c>
       <c r="C298">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>30</v>
       </c>
       <c r="B299">
-        <v>5018</v>
+        <v>4154</v>
       </c>
       <c r="C299">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>30</v>
       </c>
       <c r="B300">
-        <v>6088</v>
+        <v>5018</v>
       </c>
       <c r="C300">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3904,21 +3904,21 @@
         <v>30</v>
       </c>
       <c r="B301">
-        <v>7729</v>
+        <v>6088</v>
       </c>
       <c r="C301">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>7729</v>
       </c>
       <c r="C302">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>31</v>
       </c>
       <c r="B303">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C303">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>31</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C304">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>31</v>
       </c>
       <c r="B305">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C305">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>31</v>
       </c>
       <c r="B306">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="C306">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>31</v>
       </c>
       <c r="B307">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="C307">
-        <v>20122013</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>31</v>
       </c>
       <c r="B308">
-        <v>1625</v>
+        <v>246</v>
       </c>
       <c r="C308">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>31</v>
       </c>
       <c r="B309">
-        <v>2012</v>
+        <v>1625</v>
       </c>
       <c r="C309">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>31</v>
       </c>
       <c r="B310">
-        <v>3119</v>
+        <v>2012</v>
       </c>
       <c r="C310">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>31</v>
       </c>
       <c r="B311">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="C311">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>31</v>
       </c>
       <c r="B312">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="C312">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>31</v>
       </c>
       <c r="B313">
-        <v>3131</v>
+        <v>3125</v>
       </c>
       <c r="C313">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>31</v>
       </c>
       <c r="B314">
-        <v>3137</v>
+        <v>3131</v>
       </c>
       <c r="C314">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>31</v>
       </c>
       <c r="B315">
-        <v>4759</v>
+        <v>3137</v>
       </c>
       <c r="C315">
-        <v>20202021</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>31</v>
       </c>
       <c r="B316">
-        <v>6135</v>
+        <v>4759</v>
       </c>
       <c r="C316">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4080,21 +4080,21 @@
         <v>31</v>
       </c>
       <c r="B317">
-        <v>7704</v>
+        <v>6135</v>
       </c>
       <c r="C317">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B318">
-        <v>58</v>
+        <v>7704</v>
       </c>
       <c r="C318">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4102,10 +4102,10 @@
         <v>32</v>
       </c>
       <c r="B319">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C319">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4113,10 +4113,10 @@
         <v>32</v>
       </c>
       <c r="B320">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C320">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4124,10 +4124,10 @@
         <v>32</v>
       </c>
       <c r="B321">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C321">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4135,10 +4135,10 @@
         <v>32</v>
       </c>
       <c r="B322">
-        <v>1191</v>
+        <v>72</v>
       </c>
       <c r="C322">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>32</v>
       </c>
       <c r="B323">
-        <v>1874</v>
+        <v>1191</v>
       </c>
       <c r="C323">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>32</v>
       </c>
       <c r="B324">
-        <v>3645</v>
+        <v>1874</v>
       </c>
       <c r="C324">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>32</v>
       </c>
       <c r="B325">
-        <v>5477</v>
+        <v>3645</v>
       </c>
       <c r="C325">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>32</v>
       </c>
       <c r="B326">
-        <v>7120</v>
+        <v>5477</v>
       </c>
       <c r="C326">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4190,21 +4190,21 @@
         <v>32</v>
       </c>
       <c r="B327">
-        <v>8935</v>
+        <v>7120</v>
       </c>
       <c r="C327">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B328">
-        <v>65</v>
+        <v>8935</v>
       </c>
       <c r="C328">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>33</v>
       </c>
       <c r="B329">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C329">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>33</v>
       </c>
       <c r="B330">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C330">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>33</v>
       </c>
       <c r="B331">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C331">
-        <v>20152016</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>33</v>
       </c>
       <c r="B332">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="C332">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>33</v>
       </c>
       <c r="B333">
-        <v>1508</v>
+        <v>180</v>
       </c>
       <c r="C333">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>33</v>
       </c>
       <c r="B334">
-        <v>2392</v>
+        <v>1508</v>
       </c>
       <c r="C334">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>33</v>
       </c>
       <c r="B335">
-        <v>4127</v>
+        <v>2392</v>
       </c>
       <c r="C335">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>33</v>
       </c>
       <c r="B336">
-        <v>4136</v>
+        <v>4127</v>
       </c>
       <c r="C336">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>33</v>
       </c>
       <c r="B337">
-        <v>4193</v>
+        <v>4136</v>
       </c>
       <c r="C337">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="B338">
-        <v>4199</v>
+        <v>4193</v>
       </c>
       <c r="C338">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>33</v>
       </c>
       <c r="B339">
-        <v>4505</v>
+        <v>4199</v>
       </c>
       <c r="C339">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>33</v>
       </c>
       <c r="B340">
-        <v>6019</v>
+        <v>4505</v>
       </c>
       <c r="C340">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4344,21 +4344,21 @@
         <v>33</v>
       </c>
       <c r="B341">
-        <v>7500</v>
+        <v>6019</v>
       </c>
       <c r="C341">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B342">
-        <v>73</v>
+        <v>7500</v>
       </c>
       <c r="C342">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>34</v>
       </c>
       <c r="B343">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C343">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>34</v>
       </c>
       <c r="B344">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C344">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>34</v>
       </c>
       <c r="B345">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C345">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>34</v>
       </c>
       <c r="B346">
-        <v>1579</v>
+        <v>181</v>
       </c>
       <c r="C346">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>34</v>
       </c>
       <c r="B347">
-        <v>2396</v>
+        <v>1579</v>
       </c>
       <c r="C347">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>34</v>
       </c>
       <c r="B348">
-        <v>4164</v>
+        <v>2396</v>
       </c>
       <c r="C348">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>34</v>
       </c>
       <c r="B349">
-        <v>4185</v>
+        <v>4164</v>
       </c>
       <c r="C349">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>34</v>
       </c>
       <c r="B350">
-        <v>4645</v>
+        <v>4185</v>
       </c>
       <c r="C350">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>34</v>
       </c>
       <c r="B351">
-        <v>6018</v>
+        <v>4645</v>
       </c>
       <c r="C351">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4465,21 +4465,21 @@
         <v>34</v>
       </c>
       <c r="B352">
-        <v>7501</v>
+        <v>6018</v>
       </c>
       <c r="C352">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B353">
-        <v>83</v>
+        <v>7501</v>
       </c>
       <c r="C353">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>35</v>
       </c>
       <c r="B354">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C354">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>35</v>
       </c>
       <c r="B355">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C355">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>35</v>
       </c>
       <c r="B356">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="C356">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>35</v>
       </c>
       <c r="B357">
-        <v>1578</v>
+        <v>188</v>
       </c>
       <c r="C357">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>35</v>
       </c>
       <c r="B358">
-        <v>4131</v>
+        <v>1578</v>
       </c>
       <c r="C358">
-        <v>20132014</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>35</v>
       </c>
       <c r="B359">
-        <v>4168</v>
+        <v>4131</v>
       </c>
       <c r="C359">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>35</v>
       </c>
       <c r="B360">
-        <v>4195</v>
+        <v>4168</v>
       </c>
       <c r="C360">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>35</v>
       </c>
       <c r="B361">
-        <v>4200</v>
+        <v>4195</v>
       </c>
       <c r="C361">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>35</v>
       </c>
       <c r="B362">
-        <v>4388</v>
+        <v>4200</v>
       </c>
       <c r="C362">
-        <v>20192020</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>35</v>
       </c>
       <c r="B363">
-        <v>4676</v>
+        <v>4388</v>
       </c>
       <c r="C363">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>35</v>
       </c>
       <c r="B364">
-        <v>6020</v>
+        <v>4676</v>
       </c>
       <c r="C364">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4608,21 +4608,21 @@
         <v>35</v>
       </c>
       <c r="B365">
-        <v>7499</v>
+        <v>6020</v>
       </c>
       <c r="C365">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>7499</v>
       </c>
       <c r="C366">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>36</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C367">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>36</v>
       </c>
       <c r="B368">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C368">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>36</v>
       </c>
       <c r="B369">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C369">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>36</v>
       </c>
       <c r="B370">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C370">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>36</v>
       </c>
       <c r="B371">
-        <v>1636</v>
+        <v>177</v>
       </c>
       <c r="C371">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>36</v>
       </c>
       <c r="B372">
-        <v>4105</v>
+        <v>1636</v>
       </c>
       <c r="C372">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>36</v>
       </c>
       <c r="B373">
-        <v>4123</v>
+        <v>4105</v>
       </c>
       <c r="C373">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>36</v>
       </c>
       <c r="B374">
-        <v>4133</v>
+        <v>4123</v>
       </c>
       <c r="C374">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>36</v>
       </c>
       <c r="B375">
-        <v>4140</v>
+        <v>4133</v>
       </c>
       <c r="C375">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>36</v>
       </c>
       <c r="B376">
-        <v>4392</v>
+        <v>4140</v>
       </c>
       <c r="C376">
-        <v>20192020</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>36</v>
       </c>
       <c r="B377">
-        <v>4624</v>
+        <v>4392</v>
       </c>
       <c r="C377">
-        <v>20082009</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>36</v>
       </c>
       <c r="B378">
-        <v>4628</v>
+        <v>4624</v>
       </c>
       <c r="C378">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>36</v>
       </c>
       <c r="B379">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="C379">
-        <v>20062007</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>36</v>
       </c>
       <c r="B380">
-        <v>4673</v>
+        <v>4629</v>
       </c>
       <c r="C380">
-        <v>20202021</v>
+        <v>20062007</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>36</v>
       </c>
       <c r="B381">
-        <v>6192</v>
+        <v>4673</v>
       </c>
       <c r="C381">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4795,21 +4795,21 @@
         <v>36</v>
       </c>
       <c r="B382">
-        <v>7664</v>
+        <v>6192</v>
       </c>
       <c r="C382">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B383">
-        <v>207</v>
+        <v>7664</v>
       </c>
       <c r="C383">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>37</v>
       </c>
       <c r="B384">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C384">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>37</v>
       </c>
       <c r="B385">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C385">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>37</v>
       </c>
       <c r="B386">
-        <v>933</v>
+        <v>209</v>
       </c>
       <c r="C386">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>37</v>
       </c>
       <c r="B387">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C387">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>37</v>
       </c>
       <c r="B388">
-        <v>1752</v>
+        <v>934</v>
       </c>
       <c r="C388">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>37</v>
       </c>
       <c r="B389">
-        <v>2667</v>
+        <v>1752</v>
       </c>
       <c r="C389">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>37</v>
       </c>
       <c r="B390">
-        <v>4957</v>
+        <v>2667</v>
       </c>
       <c r="C390">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>37</v>
       </c>
       <c r="B391">
-        <v>6282</v>
+        <v>4957</v>
       </c>
       <c r="C391">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4905,21 +4905,21 @@
         <v>37</v>
       </c>
       <c r="B392">
-        <v>7954</v>
+        <v>6282</v>
       </c>
       <c r="C392">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B393">
-        <v>726</v>
+        <v>7954</v>
       </c>
       <c r="C393">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>38</v>
       </c>
       <c r="B394">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C394">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>38</v>
       </c>
       <c r="B395">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C395">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>38</v>
       </c>
       <c r="B396">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C396">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>38</v>
       </c>
       <c r="B397">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C397">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>38</v>
       </c>
       <c r="B398">
-        <v>1566</v>
+        <v>731</v>
       </c>
       <c r="C398">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>38</v>
       </c>
       <c r="B399">
-        <v>2282</v>
+        <v>1566</v>
       </c>
       <c r="C399">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>38</v>
       </c>
       <c r="B400">
-        <v>4534</v>
+        <v>2282</v>
       </c>
       <c r="C400">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>38</v>
       </c>
       <c r="B401">
-        <v>5936</v>
+        <v>4534</v>
       </c>
       <c r="C401">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5015,21 +5015,21 @@
         <v>38</v>
       </c>
       <c r="B402">
-        <v>7967</v>
+        <v>5936</v>
       </c>
       <c r="C402">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B403">
-        <v>68</v>
+        <v>7967</v>
       </c>
       <c r="C403">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>39</v>
       </c>
       <c r="B404">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C404">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>39</v>
       </c>
       <c r="B405">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C405">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>39</v>
       </c>
       <c r="B406">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C406">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>39</v>
       </c>
       <c r="B407">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="C407">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>39</v>
       </c>
       <c r="B408">
-        <v>1680</v>
+        <v>182</v>
       </c>
       <c r="C408">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>39</v>
       </c>
       <c r="B409">
-        <v>2588</v>
+        <v>1680</v>
       </c>
       <c r="C409">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>39</v>
       </c>
       <c r="B410">
-        <v>3940</v>
+        <v>2588</v>
       </c>
       <c r="C410">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>39</v>
       </c>
       <c r="B411">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C411">
-        <v>20082009</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>39</v>
       </c>
       <c r="B412">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C412">
-        <v>20092010</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>39</v>
       </c>
       <c r="B413">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="C413">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>39</v>
       </c>
       <c r="B414">
-        <v>4889</v>
+        <v>3945</v>
       </c>
       <c r="C414">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>39</v>
       </c>
       <c r="B415">
-        <v>6198</v>
+        <v>4889</v>
       </c>
       <c r="C415">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5169,21 +5169,21 @@
         <v>39</v>
       </c>
       <c r="B416">
-        <v>7608</v>
+        <v>6198</v>
       </c>
       <c r="C416">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B417">
-        <v>77</v>
+        <v>7608</v>
       </c>
       <c r="C417">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>40</v>
       </c>
       <c r="B418">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C418">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>40</v>
       </c>
       <c r="B419">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C419">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>40</v>
       </c>
       <c r="B420">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C420">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>40</v>
       </c>
       <c r="B421">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C421">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>40</v>
       </c>
       <c r="B422">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="C422">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>40</v>
       </c>
       <c r="B423">
-        <v>1749</v>
+        <v>183</v>
       </c>
       <c r="C423">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>40</v>
       </c>
       <c r="B424">
-        <v>2642</v>
+        <v>1749</v>
       </c>
       <c r="C424">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>40</v>
       </c>
       <c r="B425">
-        <v>3946</v>
+        <v>2642</v>
       </c>
       <c r="C425">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>40</v>
       </c>
       <c r="B426">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C426">
-        <v>20102011</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>40</v>
       </c>
       <c r="B427">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="C427">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="B428">
-        <v>4972</v>
+        <v>3949</v>
       </c>
       <c r="C428">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>40</v>
       </c>
       <c r="B429">
-        <v>6205</v>
+        <v>4972</v>
       </c>
       <c r="C429">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5323,21 +5323,21 @@
         <v>40</v>
       </c>
       <c r="B430">
-        <v>7864</v>
+        <v>6205</v>
       </c>
       <c r="C430">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B431">
-        <v>162</v>
+        <v>7864</v>
       </c>
       <c r="C431">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>41</v>
       </c>
       <c r="B432">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="C432">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>41</v>
       </c>
       <c r="B433">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C433">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>41</v>
       </c>
       <c r="B434">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C434">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>41</v>
       </c>
       <c r="B435">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C435">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>41</v>
       </c>
       <c r="B436">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C436">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>41</v>
       </c>
       <c r="B437">
-        <v>1071</v>
+        <v>254</v>
       </c>
       <c r="C437">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>41</v>
       </c>
       <c r="B438">
-        <v>1864</v>
+        <v>1071</v>
       </c>
       <c r="C438">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>41</v>
       </c>
       <c r="B439">
-        <v>3686</v>
+        <v>1864</v>
       </c>
       <c r="C439">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>41</v>
       </c>
       <c r="B440">
-        <v>5434</v>
+        <v>3686</v>
       </c>
       <c r="C440">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>41</v>
       </c>
       <c r="B441">
-        <v>6935</v>
+        <v>5434</v>
       </c>
       <c r="C441">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5455,21 +5455,21 @@
         <v>41</v>
       </c>
       <c r="B442">
-        <v>8810</v>
+        <v>6935</v>
       </c>
       <c r="C442">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B443">
-        <v>130</v>
+        <v>8810</v>
       </c>
       <c r="C443">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>42</v>
       </c>
       <c r="B444">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C444">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>42</v>
       </c>
       <c r="B445">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C445">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>42</v>
       </c>
       <c r="B446">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C446">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>42</v>
       </c>
       <c r="B447">
-        <v>1073</v>
+        <v>153</v>
       </c>
       <c r="C447">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>42</v>
       </c>
       <c r="B448">
-        <v>1865</v>
+        <v>1073</v>
       </c>
       <c r="C448">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>42</v>
       </c>
       <c r="B449">
-        <v>3684</v>
+        <v>1865</v>
       </c>
       <c r="C449">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>42</v>
       </c>
       <c r="B450">
-        <v>5495</v>
+        <v>3684</v>
       </c>
       <c r="C450">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>42</v>
       </c>
       <c r="B451">
-        <v>6936</v>
+        <v>5495</v>
       </c>
       <c r="C451">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5565,21 +5565,21 @@
         <v>42</v>
       </c>
       <c r="B452">
-        <v>8811</v>
+        <v>6936</v>
       </c>
       <c r="C452">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B453">
-        <v>313</v>
+        <v>8811</v>
       </c>
       <c r="C453">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>43</v>
       </c>
       <c r="B454">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C454">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>43</v>
       </c>
       <c r="B455">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C455">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>43</v>
       </c>
       <c r="B456">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C456">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>43</v>
       </c>
       <c r="B457">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C457">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>43</v>
       </c>
       <c r="B458">
-        <v>1583</v>
+        <v>317</v>
       </c>
       <c r="C458">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>43</v>
       </c>
       <c r="B459">
-        <v>2315</v>
+        <v>1583</v>
       </c>
       <c r="C459">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>43</v>
       </c>
       <c r="B460">
-        <v>4664</v>
+        <v>2315</v>
       </c>
       <c r="C460">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>43</v>
       </c>
       <c r="B461">
-        <v>6104</v>
+        <v>4664</v>
       </c>
       <c r="C461">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5675,21 +5675,21 @@
         <v>43</v>
       </c>
       <c r="B462">
-        <v>7489</v>
+        <v>6104</v>
       </c>
       <c r="C462">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B463">
-        <v>307</v>
+        <v>7489</v>
       </c>
       <c r="C463">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>44</v>
       </c>
       <c r="B464">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C464">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>44</v>
       </c>
       <c r="B465">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C465">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>44</v>
       </c>
       <c r="B466">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C466">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>44</v>
       </c>
       <c r="B467">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C467">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>44</v>
       </c>
       <c r="B468">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C468">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>44</v>
       </c>
       <c r="B469">
-        <v>1582</v>
+        <v>312</v>
       </c>
       <c r="C469">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>44</v>
       </c>
       <c r="B470">
-        <v>2270</v>
+        <v>1582</v>
       </c>
       <c r="C470">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>44</v>
       </c>
       <c r="B471">
-        <v>4507</v>
+        <v>2270</v>
       </c>
       <c r="C471">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>44</v>
       </c>
       <c r="B472">
-        <v>6038</v>
+        <v>4507</v>
       </c>
       <c r="C472">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>44</v>
       </c>
       <c r="B473">
-        <v>7425</v>
+        <v>6038</v>
       </c>
       <c r="C473">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5807,21 +5807,21 @@
         <v>44</v>
       </c>
       <c r="B474">
-        <v>9525</v>
+        <v>7425</v>
       </c>
       <c r="C474">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B475">
-        <v>55</v>
+        <v>9525</v>
       </c>
       <c r="C475">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>45</v>
       </c>
       <c r="B476">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C476">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>45</v>
       </c>
       <c r="B477">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C477">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>45</v>
       </c>
       <c r="B478">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="C478">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>45</v>
       </c>
       <c r="B479">
-        <v>1584</v>
+        <v>179</v>
       </c>
       <c r="C479">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>45</v>
       </c>
       <c r="B480">
-        <v>2273</v>
+        <v>1584</v>
       </c>
       <c r="C480">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>45</v>
       </c>
       <c r="B481">
-        <v>4228</v>
+        <v>2273</v>
       </c>
       <c r="C481">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>45</v>
       </c>
       <c r="B482">
-        <v>4236</v>
+        <v>4228</v>
       </c>
       <c r="C482">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>45</v>
       </c>
       <c r="B483">
-        <v>4243</v>
+        <v>4236</v>
       </c>
       <c r="C483">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="B484">
-        <v>4246</v>
+        <v>4243</v>
       </c>
       <c r="C484">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>45</v>
       </c>
       <c r="B485">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="C485">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>45</v>
       </c>
       <c r="B486">
-        <v>4748</v>
+        <v>4247</v>
       </c>
       <c r="C486">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>45</v>
       </c>
       <c r="B487">
-        <v>5950</v>
+        <v>4748</v>
       </c>
       <c r="C487">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5961,21 +5961,21 @@
         <v>45</v>
       </c>
       <c r="B488">
-        <v>7484</v>
+        <v>5950</v>
       </c>
       <c r="C488">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B489">
-        <v>51</v>
+        <v>7484</v>
       </c>
       <c r="C489">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>46</v>
       </c>
       <c r="B490">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C490">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>46</v>
       </c>
       <c r="B491">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C491">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>46</v>
       </c>
       <c r="B492">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C492">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>46</v>
       </c>
       <c r="B493">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="C493">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>46</v>
       </c>
       <c r="B494">
-        <v>1585</v>
+        <v>178</v>
       </c>
       <c r="C494">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>46</v>
       </c>
       <c r="B495">
-        <v>2272</v>
+        <v>1585</v>
       </c>
       <c r="C495">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>46</v>
       </c>
       <c r="B496">
-        <v>4226</v>
+        <v>2272</v>
       </c>
       <c r="C496">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>46</v>
       </c>
       <c r="B497">
-        <v>4234</v>
+        <v>4226</v>
       </c>
       <c r="C497">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>46</v>
       </c>
       <c r="B498">
-        <v>4746</v>
+        <v>4234</v>
       </c>
       <c r="C498">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>46</v>
       </c>
       <c r="B499">
-        <v>5951</v>
+        <v>4746</v>
       </c>
       <c r="C499">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6093,21 +6093,21 @@
         <v>46</v>
       </c>
       <c r="B500">
-        <v>7482</v>
+        <v>5951</v>
       </c>
       <c r="C500">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B501">
-        <v>1366</v>
+        <v>7482</v>
       </c>
       <c r="C501">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>47</v>
       </c>
       <c r="B502">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C502">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>47</v>
       </c>
       <c r="B503">
-        <v>1586</v>
+        <v>1367</v>
       </c>
       <c r="C503">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>47</v>
       </c>
       <c r="B504">
-        <v>2275</v>
+        <v>1586</v>
       </c>
       <c r="C504">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>47</v>
       </c>
       <c r="B505">
-        <v>4749</v>
+        <v>2275</v>
       </c>
       <c r="C505">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>47</v>
       </c>
       <c r="B506">
-        <v>6098</v>
+        <v>4749</v>
       </c>
       <c r="C506">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6170,21 +6170,21 @@
         <v>47</v>
       </c>
       <c r="B507">
-        <v>7702</v>
+        <v>6098</v>
       </c>
       <c r="C507">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B508">
-        <v>44</v>
+        <v>7702</v>
       </c>
       <c r="C508">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>48</v>
       </c>
       <c r="B509">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C509">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6203,10 +6203,10 @@
         <v>48</v>
       </c>
       <c r="B510">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C510">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6214,10 +6214,10 @@
         <v>48</v>
       </c>
       <c r="B511">
-        <v>993</v>
+        <v>46</v>
       </c>
       <c r="C511">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6225,10 +6225,10 @@
         <v>48</v>
       </c>
       <c r="B512">
-        <v>1839</v>
+        <v>993</v>
       </c>
       <c r="C512">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>48</v>
       </c>
       <c r="B513">
-        <v>3695</v>
+        <v>1839</v>
       </c>
       <c r="C513">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>48</v>
       </c>
       <c r="B514">
-        <v>4224</v>
+        <v>3695</v>
       </c>
       <c r="C514">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>48</v>
       </c>
       <c r="B515">
-        <v>4231</v>
+        <v>4224</v>
       </c>
       <c r="C515">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>48</v>
       </c>
       <c r="B516">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="C516">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>48</v>
       </c>
       <c r="B517">
-        <v>4242</v>
+        <v>4237</v>
       </c>
       <c r="C517">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>48</v>
       </c>
       <c r="B518">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="C518">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>48</v>
       </c>
       <c r="B519">
-        <v>5496</v>
+        <v>4244</v>
       </c>
       <c r="C519">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>48</v>
       </c>
       <c r="B520">
-        <v>7048</v>
+        <v>5496</v>
       </c>
       <c r="C520">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6324,21 +6324,21 @@
         <v>48</v>
       </c>
       <c r="B521">
-        <v>8739</v>
+        <v>7048</v>
       </c>
       <c r="C521">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B522">
-        <v>1099</v>
+        <v>8739</v>
       </c>
       <c r="C522">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>49</v>
       </c>
       <c r="B523">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C523">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>49</v>
       </c>
       <c r="B524">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C524">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>49</v>
       </c>
       <c r="B525">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C525">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>49</v>
       </c>
       <c r="B526">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C526">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>49</v>
       </c>
       <c r="B527">
-        <v>1843</v>
+        <v>1105</v>
       </c>
       <c r="C527">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>49</v>
       </c>
       <c r="B528">
-        <v>3643</v>
+        <v>1843</v>
       </c>
       <c r="C528">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>49</v>
       </c>
       <c r="B529">
-        <v>5503</v>
+        <v>3643</v>
       </c>
       <c r="C529">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>49</v>
       </c>
       <c r="B530">
-        <v>6960</v>
+        <v>5503</v>
       </c>
       <c r="C530">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6434,21 +6434,21 @@
         <v>49</v>
       </c>
       <c r="B531">
-        <v>8783</v>
+        <v>6960</v>
       </c>
       <c r="C531">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B532">
-        <v>612</v>
+        <v>8783</v>
       </c>
       <c r="C532">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>50</v>
       </c>
       <c r="B533">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C533">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>50</v>
       </c>
       <c r="B534">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C534">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>50</v>
       </c>
       <c r="B535">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C535">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>50</v>
       </c>
       <c r="B536">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C536">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>50</v>
       </c>
       <c r="B537">
-        <v>1125</v>
+        <v>616</v>
       </c>
       <c r="C537">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>50</v>
       </c>
       <c r="B538">
-        <v>1881</v>
+        <v>1125</v>
       </c>
       <c r="C538">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>50</v>
       </c>
       <c r="B539">
-        <v>3702</v>
+        <v>1881</v>
       </c>
       <c r="C539">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>50</v>
       </c>
       <c r="B540">
-        <v>5627</v>
+        <v>3702</v>
       </c>
       <c r="C540">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>50</v>
       </c>
       <c r="B541">
-        <v>6966</v>
+        <v>5627</v>
       </c>
       <c r="C541">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6555,21 +6555,21 @@
         <v>50</v>
       </c>
       <c r="B542">
-        <v>8837</v>
+        <v>6966</v>
       </c>
       <c r="C542">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B543">
-        <v>255</v>
+        <v>8837</v>
       </c>
       <c r="C543">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>51</v>
       </c>
       <c r="B544">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C544">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>51</v>
       </c>
       <c r="B545">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C545">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>51</v>
       </c>
       <c r="B546">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C546">
-        <v>20162017</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>51</v>
       </c>
       <c r="B547">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C547">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>51</v>
       </c>
       <c r="B548">
-        <v>1589</v>
+        <v>279</v>
       </c>
       <c r="C548">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>51</v>
       </c>
       <c r="B549">
-        <v>2328</v>
+        <v>1589</v>
       </c>
       <c r="C549">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>51</v>
       </c>
       <c r="B550">
-        <v>3972</v>
+        <v>2328</v>
       </c>
       <c r="C550">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>51</v>
       </c>
       <c r="B551">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="C551">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>51</v>
       </c>
       <c r="B552">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="C552">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>51</v>
       </c>
       <c r="B553">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="C553">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>51</v>
       </c>
       <c r="B554">
-        <v>4760</v>
+        <v>3975</v>
       </c>
       <c r="C554">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>51</v>
       </c>
       <c r="B555">
-        <v>5948</v>
+        <v>4760</v>
       </c>
       <c r="C555">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6709,21 +6709,21 @@
         <v>51</v>
       </c>
       <c r="B556">
-        <v>7428</v>
+        <v>5948</v>
       </c>
       <c r="C556">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B557">
-        <v>13</v>
+        <v>7428</v>
       </c>
       <c r="C557">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>52</v>
       </c>
       <c r="B558">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C558">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>52</v>
       </c>
       <c r="B559">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C559">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>52</v>
       </c>
       <c r="B560">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C560">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>52</v>
       </c>
       <c r="B561">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="C561">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>52</v>
       </c>
       <c r="B562">
-        <v>1593</v>
+        <v>173</v>
       </c>
       <c r="C562">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>52</v>
       </c>
       <c r="B563">
-        <v>2321</v>
+        <v>1593</v>
       </c>
       <c r="C563">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>52</v>
       </c>
       <c r="B564">
-        <v>4225</v>
+        <v>2321</v>
       </c>
       <c r="C564">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>52</v>
       </c>
       <c r="B565">
-        <v>4232</v>
+        <v>4225</v>
       </c>
       <c r="C565">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>52</v>
       </c>
       <c r="B566">
-        <v>4238</v>
+        <v>4232</v>
       </c>
       <c r="C566">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>52</v>
       </c>
       <c r="B567">
-        <v>4885</v>
+        <v>4238</v>
       </c>
       <c r="C567">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>52</v>
       </c>
       <c r="B568">
-        <v>6117</v>
+        <v>4885</v>
       </c>
       <c r="C568">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6852,21 +6852,21 @@
         <v>52</v>
       </c>
       <c r="B569">
-        <v>7731</v>
+        <v>6117</v>
       </c>
       <c r="C569">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B570">
-        <v>174</v>
+        <v>7731</v>
       </c>
       <c r="C570">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>53</v>
       </c>
       <c r="B571">
-        <v>965</v>
+        <v>174</v>
       </c>
       <c r="C571">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>53</v>
       </c>
       <c r="B572">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C572">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>53</v>
       </c>
       <c r="B573">
-        <v>1594</v>
+        <v>966</v>
       </c>
       <c r="C573">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>53</v>
       </c>
       <c r="B574">
-        <v>2320</v>
+        <v>1594</v>
       </c>
       <c r="C574">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>53</v>
       </c>
       <c r="B575">
-        <v>4284</v>
+        <v>2320</v>
       </c>
       <c r="C575">
-        <v>20142015</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>53</v>
       </c>
       <c r="B576">
-        <v>4291</v>
+        <v>4284</v>
       </c>
       <c r="C576">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>53</v>
       </c>
       <c r="B577">
-        <v>4309</v>
+        <v>4291</v>
       </c>
       <c r="C577">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>53</v>
       </c>
       <c r="B578">
-        <v>4322</v>
+        <v>4309</v>
       </c>
       <c r="C578">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>53</v>
       </c>
       <c r="B579">
-        <v>4886</v>
+        <v>4322</v>
       </c>
       <c r="C579">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>53</v>
       </c>
       <c r="B580">
-        <v>6116</v>
+        <v>4886</v>
       </c>
       <c r="C580">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6984,21 +6984,21 @@
         <v>53</v>
       </c>
       <c r="B581">
-        <v>7732</v>
+        <v>6116</v>
       </c>
       <c r="C581">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B582">
-        <v>449</v>
+        <v>7732</v>
       </c>
       <c r="C582">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>54</v>
       </c>
       <c r="B583">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C583">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>54</v>
       </c>
       <c r="B584">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C584">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>54</v>
       </c>
       <c r="B585">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C585">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>54</v>
       </c>
       <c r="B586">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C586">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>54</v>
       </c>
       <c r="B587">
-        <v>990</v>
+        <v>453</v>
       </c>
       <c r="C587">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>54</v>
       </c>
       <c r="B588">
-        <v>1844</v>
+        <v>990</v>
       </c>
       <c r="C588">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>54</v>
       </c>
       <c r="B589">
-        <v>3570</v>
+        <v>1844</v>
       </c>
       <c r="C589">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>54</v>
       </c>
       <c r="B590">
-        <v>5534</v>
+        <v>3570</v>
       </c>
       <c r="C590">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>54</v>
       </c>
       <c r="B591">
-        <v>6967</v>
+        <v>5534</v>
       </c>
       <c r="C591">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7105,21 +7105,21 @@
         <v>54</v>
       </c>
       <c r="B592">
-        <v>8741</v>
+        <v>6967</v>
       </c>
       <c r="C592">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B593">
-        <v>1086</v>
+        <v>8741</v>
       </c>
       <c r="C593">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>55</v>
       </c>
       <c r="B594">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C594">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>55</v>
       </c>
       <c r="B595">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C595">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>55</v>
       </c>
       <c r="B596">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C596">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>55</v>
       </c>
       <c r="B597">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C597">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>55</v>
       </c>
       <c r="B598">
-        <v>1596</v>
+        <v>1090</v>
       </c>
       <c r="C598">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>55</v>
       </c>
       <c r="B599">
-        <v>2312</v>
+        <v>1596</v>
       </c>
       <c r="C599">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>55</v>
       </c>
       <c r="B600">
-        <v>4764</v>
+        <v>2312</v>
       </c>
       <c r="C600">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>55</v>
       </c>
       <c r="B601">
-        <v>6037</v>
+        <v>4764</v>
       </c>
       <c r="C601">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7215,21 +7215,21 @@
         <v>55</v>
       </c>
       <c r="B602">
-        <v>7663</v>
+        <v>6037</v>
       </c>
       <c r="C602">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>7663</v>
       </c>
       <c r="C603">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>56</v>
       </c>
       <c r="B604">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="C604">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>56</v>
       </c>
       <c r="B605">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C605">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7259,10 +7259,10 @@
         <v>56</v>
       </c>
       <c r="B606">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C606">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7270,10 +7270,10 @@
         <v>56</v>
       </c>
       <c r="B607">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C607">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7281,10 +7281,10 @@
         <v>56</v>
       </c>
       <c r="B608">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="C608">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>56</v>
       </c>
       <c r="B609">
-        <v>1600</v>
+        <v>223</v>
       </c>
       <c r="C609">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>56</v>
       </c>
       <c r="B610">
-        <v>2361</v>
+        <v>1600</v>
       </c>
       <c r="C610">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>56</v>
       </c>
       <c r="B611">
-        <v>4478</v>
+        <v>2361</v>
       </c>
       <c r="C611">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>56</v>
       </c>
       <c r="B612">
-        <v>5992</v>
+        <v>4478</v>
       </c>
       <c r="C612">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7336,21 +7336,21 @@
         <v>56</v>
       </c>
       <c r="B613">
-        <v>7494</v>
+        <v>5992</v>
       </c>
       <c r="C613">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B614">
-        <v>416</v>
+        <v>7494</v>
       </c>
       <c r="C614">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>57</v>
       </c>
       <c r="B615">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C615">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>57</v>
       </c>
       <c r="B616">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C616">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>57</v>
       </c>
       <c r="B617">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C617">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>57</v>
       </c>
       <c r="B618">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C618">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>57</v>
       </c>
       <c r="B619">
-        <v>1604</v>
+        <v>420</v>
       </c>
       <c r="C619">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>57</v>
       </c>
       <c r="B620">
-        <v>2254</v>
+        <v>1604</v>
       </c>
       <c r="C620">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>57</v>
       </c>
       <c r="B621">
-        <v>4533</v>
+        <v>2254</v>
       </c>
       <c r="C621">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>57</v>
       </c>
       <c r="B622">
-        <v>6046</v>
+        <v>4533</v>
       </c>
       <c r="C622">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7446,21 +7446,21 @@
         <v>57</v>
       </c>
       <c r="B623">
-        <v>7492</v>
+        <v>6046</v>
       </c>
       <c r="C623">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B624">
-        <v>439</v>
+        <v>7492</v>
       </c>
       <c r="C624">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>58</v>
       </c>
       <c r="B625">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C625">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>58</v>
       </c>
       <c r="B626">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C626">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>58</v>
       </c>
       <c r="B627">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C627">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>58</v>
       </c>
       <c r="B628">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C628">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>58</v>
       </c>
       <c r="B629">
-        <v>1606</v>
+        <v>448</v>
       </c>
       <c r="C629">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>58</v>
       </c>
       <c r="B630">
-        <v>2256</v>
+        <v>1606</v>
       </c>
       <c r="C630">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>58</v>
       </c>
       <c r="B631">
-        <v>4572</v>
+        <v>2256</v>
       </c>
       <c r="C631">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>58</v>
       </c>
       <c r="B632">
-        <v>5944</v>
+        <v>4572</v>
       </c>
       <c r="C632">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7556,21 +7556,21 @@
         <v>58</v>
       </c>
       <c r="B633">
-        <v>7958</v>
+        <v>5944</v>
       </c>
       <c r="C633">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B634">
-        <v>426</v>
+        <v>7958</v>
       </c>
       <c r="C634">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>59</v>
       </c>
       <c r="B635">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C635">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>59</v>
       </c>
       <c r="B636">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C636">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>59</v>
       </c>
       <c r="B637">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C637">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>59</v>
       </c>
       <c r="B638">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C638">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>59</v>
       </c>
       <c r="B639">
-        <v>1608</v>
+        <v>433</v>
       </c>
       <c r="C639">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>59</v>
       </c>
       <c r="B640">
-        <v>2251</v>
+        <v>1608</v>
       </c>
       <c r="C640">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>59</v>
       </c>
       <c r="B641">
-        <v>4635</v>
+        <v>2251</v>
       </c>
       <c r="C641">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>59</v>
       </c>
       <c r="B642">
-        <v>6048</v>
+        <v>4635</v>
       </c>
       <c r="C642">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7666,21 +7666,21 @@
         <v>59</v>
       </c>
       <c r="B643">
-        <v>7526</v>
+        <v>6048</v>
       </c>
       <c r="C643">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B644">
-        <v>747</v>
+        <v>7526</v>
       </c>
       <c r="C644">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>60</v>
       </c>
       <c r="B645">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C645">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>60</v>
       </c>
       <c r="B646">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C646">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>60</v>
       </c>
       <c r="B647">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C647">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>60</v>
       </c>
       <c r="B648">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C648">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>60</v>
       </c>
       <c r="B649">
-        <v>1115</v>
+        <v>751</v>
       </c>
       <c r="C649">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>60</v>
       </c>
       <c r="B650">
-        <v>1862</v>
+        <v>1115</v>
       </c>
       <c r="C650">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>60</v>
       </c>
       <c r="B651">
-        <v>4379</v>
+        <v>1862</v>
       </c>
       <c r="C651">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>60</v>
       </c>
       <c r="B652">
-        <v>5506</v>
+        <v>4379</v>
       </c>
       <c r="C652">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>60</v>
       </c>
       <c r="B653">
-        <v>7061</v>
+        <v>5506</v>
       </c>
       <c r="C653">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7787,21 +7787,21 @@
         <v>60</v>
       </c>
       <c r="B654">
-        <v>8899</v>
+        <v>7061</v>
       </c>
       <c r="C654">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="A655" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B655">
-        <v>752</v>
+        <v>8899</v>
       </c>
       <c r="C655">
-        <v>2015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7809,10 +7809,10 @@
         <v>61</v>
       </c>
       <c r="B656">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C656">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7820,10 +7820,10 @@
         <v>61</v>
       </c>
       <c r="B657">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C657">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7831,10 +7831,10 @@
         <v>61</v>
       </c>
       <c r="B658">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C658">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7842,10 +7842,10 @@
         <v>61</v>
       </c>
       <c r="B659">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C659">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7853,10 +7853,10 @@
         <v>61</v>
       </c>
       <c r="B660">
-        <v>1121</v>
+        <v>761</v>
       </c>
       <c r="C660">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7864,10 +7864,10 @@
         <v>61</v>
       </c>
       <c r="B661">
-        <v>1863</v>
+        <v>1121</v>
       </c>
       <c r="C661">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7875,10 +7875,10 @@
         <v>61</v>
       </c>
       <c r="B662">
-        <v>4381</v>
+        <v>1863</v>
       </c>
       <c r="C662">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7886,10 +7886,10 @@
         <v>61</v>
       </c>
       <c r="B663">
-        <v>5504</v>
+        <v>4381</v>
       </c>
       <c r="C663">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7897,10 +7897,10 @@
         <v>61</v>
       </c>
       <c r="B664">
-        <v>7062</v>
+        <v>5504</v>
       </c>
       <c r="C664">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7908,21 +7908,21 @@
         <v>61</v>
       </c>
       <c r="B665">
-        <v>8938</v>
+        <v>7062</v>
       </c>
       <c r="C665">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="666" spans="1:3">
       <c r="A666" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B666">
-        <v>34</v>
+        <v>8938</v>
       </c>
       <c r="C666">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7930,10 +7930,10 @@
         <v>62</v>
       </c>
       <c r="B667">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C667">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7941,10 +7941,10 @@
         <v>62</v>
       </c>
       <c r="B668">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C668">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7952,10 +7952,10 @@
         <v>62</v>
       </c>
       <c r="B669">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C669">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7963,10 +7963,10 @@
         <v>62</v>
       </c>
       <c r="B670">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C670">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7974,10 +7974,10 @@
         <v>62</v>
       </c>
       <c r="B671">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="C671">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7985,10 +7985,10 @@
         <v>62</v>
       </c>
       <c r="B672">
-        <v>1677</v>
+        <v>171</v>
       </c>
       <c r="C672">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7996,10 +7996,10 @@
         <v>62</v>
       </c>
       <c r="B673">
-        <v>2319</v>
+        <v>1677</v>
       </c>
       <c r="C673">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8007,10 +8007,10 @@
         <v>62</v>
       </c>
       <c r="B674">
-        <v>3631</v>
+        <v>2319</v>
       </c>
       <c r="C674">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8018,10 +8018,10 @@
         <v>62</v>
       </c>
       <c r="B675">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C675">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8029,10 +8029,10 @@
         <v>62</v>
       </c>
       <c r="B676">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="C676">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8040,10 +8040,10 @@
         <v>62</v>
       </c>
       <c r="B677">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="C677">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8051,10 +8051,10 @@
         <v>62</v>
       </c>
       <c r="B678">
-        <v>4944</v>
+        <v>3637</v>
       </c>
       <c r="C678">
-        <v>20202021</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8062,10 +8062,10 @@
         <v>62</v>
       </c>
       <c r="B679">
-        <v>6211</v>
+        <v>4944</v>
       </c>
       <c r="C679">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8073,21 +8073,21 @@
         <v>62</v>
       </c>
       <c r="B680">
-        <v>7665</v>
+        <v>6211</v>
       </c>
       <c r="C680">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="681" spans="1:3">
       <c r="A681" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B681">
-        <v>39</v>
+        <v>7665</v>
       </c>
       <c r="C681">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8095,10 +8095,10 @@
         <v>63</v>
       </c>
       <c r="B682">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C682">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8106,10 +8106,10 @@
         <v>63</v>
       </c>
       <c r="B683">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C683">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8117,10 +8117,10 @@
         <v>63</v>
       </c>
       <c r="B684">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C684">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8128,10 +8128,10 @@
         <v>63</v>
       </c>
       <c r="B685">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C685">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8139,10 +8139,10 @@
         <v>63</v>
       </c>
       <c r="B686">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="C686">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8150,10 +8150,10 @@
         <v>63</v>
       </c>
       <c r="B687">
-        <v>1670</v>
+        <v>172</v>
       </c>
       <c r="C687">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8161,10 +8161,10 @@
         <v>63</v>
       </c>
       <c r="B688">
-        <v>2415</v>
+        <v>1670</v>
       </c>
       <c r="C688">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8172,10 +8172,10 @@
         <v>63</v>
       </c>
       <c r="B689">
-        <v>4167</v>
+        <v>2415</v>
       </c>
       <c r="C689">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8183,10 +8183,10 @@
         <v>63</v>
       </c>
       <c r="B690">
-        <v>4245</v>
+        <v>4167</v>
       </c>
       <c r="C690">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8194,10 +8194,10 @@
         <v>63</v>
       </c>
       <c r="B691">
-        <v>4249</v>
+        <v>4245</v>
       </c>
       <c r="C691">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8205,10 +8205,10 @@
         <v>63</v>
       </c>
       <c r="B692">
-        <v>4842</v>
+        <v>4249</v>
       </c>
       <c r="C692">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8216,10 +8216,10 @@
         <v>63</v>
       </c>
       <c r="B693">
-        <v>6120</v>
+        <v>4842</v>
       </c>
       <c r="C693">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8227,21 +8227,21 @@
         <v>63</v>
       </c>
       <c r="B694">
-        <v>7592</v>
+        <v>6120</v>
       </c>
       <c r="C694">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="695" spans="1:3">
       <c r="A695" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B695">
-        <v>104</v>
+        <v>7592</v>
       </c>
       <c r="C695">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8249,10 +8249,10 @@
         <v>64</v>
       </c>
       <c r="B696">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C696">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8260,10 +8260,10 @@
         <v>64</v>
       </c>
       <c r="B697">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C697">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8271,10 +8271,10 @@
         <v>64</v>
       </c>
       <c r="B698">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C698">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8282,10 +8282,10 @@
         <v>64</v>
       </c>
       <c r="B699">
-        <v>994</v>
+        <v>107</v>
       </c>
       <c r="C699">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8293,10 +8293,10 @@
         <v>64</v>
       </c>
       <c r="B700">
-        <v>1848</v>
+        <v>994</v>
       </c>
       <c r="C700">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8304,10 +8304,10 @@
         <v>64</v>
       </c>
       <c r="B701">
-        <v>3703</v>
+        <v>1848</v>
       </c>
       <c r="C701">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8315,10 +8315,10 @@
         <v>64</v>
       </c>
       <c r="B702">
-        <v>4307</v>
+        <v>3703</v>
       </c>
       <c r="C702">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8326,10 +8326,10 @@
         <v>64</v>
       </c>
       <c r="B703">
-        <v>4315</v>
+        <v>4307</v>
       </c>
       <c r="C703">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8337,10 +8337,10 @@
         <v>64</v>
       </c>
       <c r="B704">
-        <v>4329</v>
+        <v>4315</v>
       </c>
       <c r="C704">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8348,10 +8348,10 @@
         <v>64</v>
       </c>
       <c r="B705">
-        <v>5505</v>
+        <v>4329</v>
       </c>
       <c r="C705">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8359,10 +8359,10 @@
         <v>64</v>
       </c>
       <c r="B706">
-        <v>7064</v>
+        <v>5505</v>
       </c>
       <c r="C706">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8370,21 +8370,21 @@
         <v>64</v>
       </c>
       <c r="B707">
-        <v>8737</v>
+        <v>7064</v>
       </c>
       <c r="C707">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="708" spans="1:3">
       <c r="A708" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B708">
-        <v>136</v>
+        <v>8737</v>
       </c>
       <c r="C708">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8392,10 +8392,10 @@
         <v>65</v>
       </c>
       <c r="B709">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C709">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8403,10 +8403,10 @@
         <v>65</v>
       </c>
       <c r="B710">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C710">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8414,10 +8414,10 @@
         <v>65</v>
       </c>
       <c r="B711">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C711">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8425,10 +8425,10 @@
         <v>65</v>
       </c>
       <c r="B712">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C712">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8436,10 +8436,10 @@
         <v>65</v>
       </c>
       <c r="B713">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C713">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8447,10 +8447,10 @@
         <v>65</v>
       </c>
       <c r="B714">
-        <v>1610</v>
+        <v>186</v>
       </c>
       <c r="C714">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8458,10 +8458,10 @@
         <v>65</v>
       </c>
       <c r="B715">
-        <v>2249</v>
+        <v>1610</v>
       </c>
       <c r="C715">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8469,10 +8469,10 @@
         <v>65</v>
       </c>
       <c r="B716">
-        <v>4906</v>
+        <v>2249</v>
       </c>
       <c r="C716">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8480,10 +8480,10 @@
         <v>65</v>
       </c>
       <c r="B717">
-        <v>6044</v>
+        <v>4906</v>
       </c>
       <c r="C717">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8491,21 +8491,21 @@
         <v>65</v>
       </c>
       <c r="B718">
-        <v>7504</v>
+        <v>6044</v>
       </c>
       <c r="C718">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="719" spans="1:3">
       <c r="A719" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B719">
-        <v>798</v>
+        <v>7504</v>
       </c>
       <c r="C719">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8513,10 +8513,10 @@
         <v>66</v>
       </c>
       <c r="B720">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C720">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8524,10 +8524,10 @@
         <v>66</v>
       </c>
       <c r="B721">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C721">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8535,10 +8535,10 @@
         <v>66</v>
       </c>
       <c r="B722">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C722">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8546,10 +8546,10 @@
         <v>66</v>
       </c>
       <c r="B723">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C723">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8557,10 +8557,10 @@
         <v>66</v>
       </c>
       <c r="B724">
-        <v>1644</v>
+        <v>802</v>
       </c>
       <c r="C724">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8568,10 +8568,10 @@
         <v>66</v>
       </c>
       <c r="B725">
-        <v>2650</v>
+        <v>1644</v>
       </c>
       <c r="C725">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8579,10 +8579,10 @@
         <v>66</v>
       </c>
       <c r="B726">
-        <v>5257</v>
+        <v>2650</v>
       </c>
       <c r="C726">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8590,10 +8590,10 @@
         <v>66</v>
       </c>
       <c r="B727">
-        <v>6726</v>
+        <v>5257</v>
       </c>
       <c r="C727">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8601,21 +8601,21 @@
         <v>66</v>
       </c>
       <c r="B728">
-        <v>8428</v>
+        <v>6726</v>
       </c>
       <c r="C728">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="729" spans="1:3">
       <c r="A729" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B729">
-        <v>19</v>
+        <v>8428</v>
       </c>
       <c r="C729">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8623,10 +8623,10 @@
         <v>67</v>
       </c>
       <c r="B730">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C730">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8634,10 +8634,10 @@
         <v>67</v>
       </c>
       <c r="B731">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C731">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8645,10 +8645,10 @@
         <v>67</v>
       </c>
       <c r="B732">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="C732">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8656,10 +8656,10 @@
         <v>67</v>
       </c>
       <c r="B733">
-        <v>1614</v>
+        <v>175</v>
       </c>
       <c r="C733">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8667,10 +8667,10 @@
         <v>67</v>
       </c>
       <c r="B734">
-        <v>2648</v>
+        <v>1614</v>
       </c>
       <c r="C734">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8678,10 +8678,10 @@
         <v>67</v>
       </c>
       <c r="B735">
-        <v>4840</v>
+        <v>2648</v>
       </c>
       <c r="C735">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8689,10 +8689,10 @@
         <v>67</v>
       </c>
       <c r="B736">
-        <v>6125</v>
+        <v>4840</v>
       </c>
       <c r="C736">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8700,21 +8700,21 @@
         <v>67</v>
       </c>
       <c r="B737">
-        <v>7768</v>
+        <v>6125</v>
       </c>
       <c r="C737">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="738" spans="1:3">
       <c r="A738" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B738">
-        <v>1</v>
+        <v>7768</v>
       </c>
       <c r="C738">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8722,10 +8722,10 @@
         <v>68</v>
       </c>
       <c r="B739">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C739">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8733,10 +8733,10 @@
         <v>68</v>
       </c>
       <c r="B740">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C740">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8744,10 +8744,10 @@
         <v>68</v>
       </c>
       <c r="B741">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C741">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8755,10 +8755,10 @@
         <v>68</v>
       </c>
       <c r="B742">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="C742">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8766,10 +8766,10 @@
         <v>68</v>
       </c>
       <c r="B743">
-        <v>1076</v>
+        <v>163</v>
       </c>
       <c r="C743">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8777,10 +8777,10 @@
         <v>68</v>
       </c>
       <c r="B744">
-        <v>1846</v>
+        <v>1076</v>
       </c>
       <c r="C744">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8788,10 +8788,10 @@
         <v>68</v>
       </c>
       <c r="B745">
-        <v>4227</v>
+        <v>1846</v>
       </c>
       <c r="C745">
-        <v>2012</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8799,10 +8799,10 @@
         <v>68</v>
       </c>
       <c r="B746">
-        <v>4235</v>
+        <v>4227</v>
       </c>
       <c r="C746">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8810,10 +8810,10 @@
         <v>68</v>
       </c>
       <c r="B747">
-        <v>4241</v>
+        <v>4235</v>
       </c>
       <c r="C747">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8821,10 +8821,10 @@
         <v>68</v>
       </c>
       <c r="B748">
-        <v>4473</v>
+        <v>4241</v>
       </c>
       <c r="C748">
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8832,10 +8832,10 @@
         <v>68</v>
       </c>
       <c r="B749">
-        <v>5674</v>
+        <v>4473</v>
       </c>
       <c r="C749">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8843,10 +8843,10 @@
         <v>68</v>
       </c>
       <c r="B750">
-        <v>6969</v>
+        <v>5674</v>
       </c>
       <c r="C750">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8854,21 +8854,21 @@
         <v>68</v>
       </c>
       <c r="B751">
-        <v>8777</v>
+        <v>6969</v>
       </c>
       <c r="C751">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="752" spans="1:3">
       <c r="A752" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B752">
-        <v>1290</v>
+        <v>8777</v>
       </c>
       <c r="C752">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8876,10 +8876,10 @@
         <v>69</v>
       </c>
       <c r="B753">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C753">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8887,10 +8887,10 @@
         <v>69</v>
       </c>
       <c r="B754">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C754">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8898,10 +8898,10 @@
         <v>69</v>
       </c>
       <c r="B755">
-        <v>1857</v>
+        <v>1292</v>
       </c>
       <c r="C755">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8909,10 +8909,10 @@
         <v>69</v>
       </c>
       <c r="B756">
-        <v>3710</v>
+        <v>1857</v>
       </c>
       <c r="C756">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8920,10 +8920,10 @@
         <v>69</v>
       </c>
       <c r="B757">
-        <v>4279</v>
+        <v>3710</v>
       </c>
       <c r="C757">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8931,10 +8931,10 @@
         <v>69</v>
       </c>
       <c r="B758">
-        <v>4283</v>
+        <v>4279</v>
       </c>
       <c r="C758">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8942,10 +8942,10 @@
         <v>69</v>
       </c>
       <c r="B759">
-        <v>4288</v>
+        <v>4283</v>
       </c>
       <c r="C759">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8953,10 +8953,10 @@
         <v>69</v>
       </c>
       <c r="B760">
-        <v>6541</v>
+        <v>4288</v>
       </c>
       <c r="C760">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8964,10 +8964,10 @@
         <v>69</v>
       </c>
       <c r="B761">
-        <v>6970</v>
+        <v>6541</v>
       </c>
       <c r="C761">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8975,21 +8975,21 @@
         <v>69</v>
       </c>
       <c r="B762">
-        <v>8845</v>
+        <v>6970</v>
       </c>
       <c r="C762">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="763" spans="1:3">
       <c r="A763" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B763">
-        <v>360</v>
+        <v>8845</v>
       </c>
       <c r="C763">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8997,10 +8997,10 @@
         <v>70</v>
       </c>
       <c r="B764">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C764">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9008,10 +9008,10 @@
         <v>70</v>
       </c>
       <c r="B765">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C765">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9019,10 +9019,10 @@
         <v>70</v>
       </c>
       <c r="B766">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C766">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9030,10 +9030,10 @@
         <v>70</v>
       </c>
       <c r="B767">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C767">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9041,10 +9041,10 @@
         <v>70</v>
       </c>
       <c r="B768">
-        <v>1618</v>
+        <v>364</v>
       </c>
       <c r="C768">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9052,10 +9052,10 @@
         <v>70</v>
       </c>
       <c r="B769">
-        <v>2317</v>
+        <v>1618</v>
       </c>
       <c r="C769">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9063,10 +9063,10 @@
         <v>70</v>
       </c>
       <c r="B770">
-        <v>4751</v>
+        <v>2317</v>
       </c>
       <c r="C770">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9074,10 +9074,10 @@
         <v>70</v>
       </c>
       <c r="B771">
-        <v>5943</v>
+        <v>4751</v>
       </c>
       <c r="C771">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9085,21 +9085,21 @@
         <v>70</v>
       </c>
       <c r="B772">
-        <v>8222</v>
+        <v>5943</v>
       </c>
       <c r="C772">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="773" spans="1:3">
       <c r="A773" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B773">
-        <v>853</v>
+        <v>8222</v>
       </c>
       <c r="C773">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9107,10 +9107,10 @@
         <v>71</v>
       </c>
       <c r="B774">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C774">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9118,10 +9118,10 @@
         <v>71</v>
       </c>
       <c r="B775">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C775">
-        <v>20152016</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9129,10 +9129,10 @@
         <v>71</v>
       </c>
       <c r="B776">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C776">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9140,10 +9140,10 @@
         <v>71</v>
       </c>
       <c r="B777">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C777">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9151,10 +9151,10 @@
         <v>71</v>
       </c>
       <c r="B778">
-        <v>1095</v>
+        <v>857</v>
       </c>
       <c r="C778">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9162,10 +9162,10 @@
         <v>71</v>
       </c>
       <c r="B779">
-        <v>1905</v>
+        <v>1095</v>
       </c>
       <c r="C779">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9173,10 +9173,10 @@
         <v>71</v>
       </c>
       <c r="B780">
-        <v>3789</v>
+        <v>1905</v>
       </c>
       <c r="C780">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9184,10 +9184,10 @@
         <v>71</v>
       </c>
       <c r="B781">
-        <v>5809</v>
+        <v>3789</v>
       </c>
       <c r="C781">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9195,10 +9195,10 @@
         <v>71</v>
       </c>
       <c r="B782">
-        <v>7067</v>
+        <v>5809</v>
       </c>
       <c r="C782">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9206,21 +9206,21 @@
         <v>71</v>
       </c>
       <c r="B783">
-        <v>8937</v>
+        <v>7067</v>
       </c>
       <c r="C783">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="784" spans="1:3">
       <c r="A784" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B784">
-        <v>858</v>
+        <v>8937</v>
       </c>
       <c r="C784">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9228,10 +9228,10 @@
         <v>72</v>
       </c>
       <c r="B785">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C785">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9239,10 +9239,10 @@
         <v>72</v>
       </c>
       <c r="B786">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C786">
-        <v>20152016</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9250,10 +9250,10 @@
         <v>72</v>
       </c>
       <c r="B787">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C787">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9261,10 +9261,10 @@
         <v>72</v>
       </c>
       <c r="B788">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C788">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9272,10 +9272,10 @@
         <v>72</v>
       </c>
       <c r="B789">
-        <v>1096</v>
+        <v>862</v>
       </c>
       <c r="C789">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9283,10 +9283,10 @@
         <v>72</v>
       </c>
       <c r="B790">
-        <v>1949</v>
+        <v>1096</v>
       </c>
       <c r="C790">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9294,10 +9294,10 @@
         <v>72</v>
       </c>
       <c r="B791">
-        <v>4651</v>
+        <v>1949</v>
       </c>
       <c r="C791">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9305,10 +9305,10 @@
         <v>72</v>
       </c>
       <c r="B792">
-        <v>5908</v>
+        <v>4651</v>
       </c>
       <c r="C792">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9316,10 +9316,10 @@
         <v>72</v>
       </c>
       <c r="B793">
-        <v>7173</v>
+        <v>5908</v>
       </c>
       <c r="C793">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9327,21 +9327,21 @@
         <v>72</v>
       </c>
       <c r="B794">
-        <v>9288</v>
+        <v>7173</v>
       </c>
       <c r="C794">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="795" spans="1:3">
       <c r="A795" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B795">
-        <v>622</v>
+        <v>9288</v>
       </c>
       <c r="C795">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9349,10 +9349,10 @@
         <v>73</v>
       </c>
       <c r="B796">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C796">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9360,10 +9360,10 @@
         <v>73</v>
       </c>
       <c r="B797">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C797">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9371,10 +9371,10 @@
         <v>73</v>
       </c>
       <c r="B798">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C798">
-        <v>20142015</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9382,10 +9382,10 @@
         <v>73</v>
       </c>
       <c r="B799">
-        <v>1102</v>
+        <v>631</v>
       </c>
       <c r="C799">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9393,10 +9393,10 @@
         <v>73</v>
       </c>
       <c r="B800">
-        <v>1868</v>
+        <v>1102</v>
       </c>
       <c r="C800">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9404,10 +9404,10 @@
         <v>73</v>
       </c>
       <c r="B801">
-        <v>2011</v>
+        <v>1868</v>
       </c>
       <c r="C801">
-        <v>20132014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9415,10 +9415,10 @@
         <v>73</v>
       </c>
       <c r="B802">
-        <v>3714</v>
+        <v>2011</v>
       </c>
       <c r="C802">
-        <v>2020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9426,10 +9426,10 @@
         <v>73</v>
       </c>
       <c r="B803">
-        <v>5631</v>
+        <v>3714</v>
       </c>
       <c r="C803">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9437,10 +9437,10 @@
         <v>73</v>
       </c>
       <c r="B804">
-        <v>7166</v>
+        <v>5631</v>
       </c>
       <c r="C804">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9448,9 +9448,20 @@
         <v>73</v>
       </c>
       <c r="B805">
+        <v>7166</v>
+      </c>
+      <c r="C805">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3">
+      <c r="A806" t="s">
+        <v>73</v>
+      </c>
+      <c r="B806">
         <v>8952</v>
       </c>
-      <c r="C805">
+      <c r="C806">
         <v>2023</v>
       </c>
     </row>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="74">
   <si>
     <t>League</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C806"/>
+  <dimension ref="A1:C807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B234">
-        <v>843</v>
+        <v>9545</v>
       </c>
       <c r="C234">
-        <v>2017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>25</v>
       </c>
       <c r="B235">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C235">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>25</v>
       </c>
       <c r="B236">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C236">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>25</v>
       </c>
       <c r="B237">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C237">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>25</v>
       </c>
       <c r="B238">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C238">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>25</v>
       </c>
       <c r="B239">
-        <v>1093</v>
+        <v>847</v>
       </c>
       <c r="C239">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>25</v>
       </c>
       <c r="B240">
-        <v>1872</v>
+        <v>1093</v>
       </c>
       <c r="C240">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>25</v>
       </c>
       <c r="B241">
-        <v>3553</v>
+        <v>1872</v>
       </c>
       <c r="C241">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>25</v>
       </c>
       <c r="B242">
-        <v>5580</v>
+        <v>3553</v>
       </c>
       <c r="C242">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>25</v>
       </c>
       <c r="B243">
-        <v>7038</v>
+        <v>5580</v>
       </c>
       <c r="C243">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3277,21 +3277,21 @@
         <v>25</v>
       </c>
       <c r="B244">
-        <v>8934</v>
+        <v>7038</v>
       </c>
       <c r="C244">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B245">
-        <v>210</v>
+        <v>8934</v>
       </c>
       <c r="C245">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>26</v>
       </c>
       <c r="B246">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C246">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>26</v>
       </c>
       <c r="B247">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C247">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>26</v>
       </c>
       <c r="B248">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C248">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>26</v>
       </c>
       <c r="B249">
-        <v>1673</v>
+        <v>218</v>
       </c>
       <c r="C249">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>26</v>
       </c>
       <c r="B250">
-        <v>2889</v>
+        <v>1673</v>
       </c>
       <c r="C250">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>26</v>
       </c>
       <c r="B251">
-        <v>5342</v>
+        <v>2889</v>
       </c>
       <c r="C251">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>26</v>
       </c>
       <c r="B252">
-        <v>6752</v>
+        <v>5342</v>
       </c>
       <c r="C252">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3376,21 +3376,21 @@
         <v>26</v>
       </c>
       <c r="B253">
-        <v>8520</v>
+        <v>6752</v>
       </c>
       <c r="C253">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B254">
-        <v>22</v>
+        <v>8520</v>
       </c>
       <c r="C254">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>27</v>
       </c>
       <c r="B255">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C255">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>27</v>
       </c>
       <c r="B256">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C256">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>27</v>
       </c>
       <c r="B257">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C257">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="B258">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C258">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>27</v>
       </c>
       <c r="B259">
-        <v>1624</v>
+        <v>165</v>
       </c>
       <c r="C259">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>27</v>
       </c>
       <c r="B260">
-        <v>2187</v>
+        <v>1624</v>
       </c>
       <c r="C260">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>27</v>
       </c>
       <c r="B261">
-        <v>3141</v>
+        <v>2187</v>
       </c>
       <c r="C261">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>27</v>
       </c>
       <c r="B262">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="C262">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>27</v>
       </c>
       <c r="B263">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="C263">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>27</v>
       </c>
       <c r="B264">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="C264">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="B265">
-        <v>4912</v>
+        <v>3147</v>
       </c>
       <c r="C265">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>27</v>
       </c>
       <c r="B266">
-        <v>6089</v>
+        <v>4912</v>
       </c>
       <c r="C266">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>27</v>
       </c>
       <c r="B267">
-        <v>7593</v>
+        <v>6089</v>
       </c>
       <c r="C267">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3541,21 +3541,21 @@
         <v>27</v>
       </c>
       <c r="B268">
-        <v>8031</v>
+        <v>7593</v>
       </c>
       <c r="C268">
-        <v>20082009</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B269">
-        <v>28</v>
+        <v>8031</v>
       </c>
       <c r="C269">
-        <v>20162017</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>28</v>
       </c>
       <c r="B270">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C270">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>28</v>
       </c>
       <c r="B271">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C271">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>28</v>
       </c>
       <c r="B272">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C272">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>28</v>
       </c>
       <c r="B273">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="C273">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>28</v>
       </c>
       <c r="B274">
-        <v>1564</v>
+        <v>166</v>
       </c>
       <c r="C274">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>28</v>
       </c>
       <c r="B275">
-        <v>2191</v>
+        <v>1564</v>
       </c>
       <c r="C275">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>28</v>
       </c>
       <c r="B276">
-        <v>3950</v>
+        <v>2191</v>
       </c>
       <c r="C276">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>28</v>
       </c>
       <c r="B277">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C277">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>28</v>
       </c>
       <c r="B278">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="C278">
-        <v>20112012</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>28</v>
       </c>
       <c r="B279">
-        <v>4845</v>
+        <v>3952</v>
       </c>
       <c r="C279">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>28</v>
       </c>
       <c r="B280">
-        <v>4923</v>
+        <v>4845</v>
       </c>
       <c r="C280">
-        <v>20102011</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>28</v>
       </c>
       <c r="B281">
-        <v>6017</v>
+        <v>4923</v>
       </c>
       <c r="C281">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3695,21 +3695,21 @@
         <v>28</v>
       </c>
       <c r="B282">
-        <v>7570</v>
+        <v>6017</v>
       </c>
       <c r="C282">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B283">
-        <v>32</v>
+        <v>7570</v>
       </c>
       <c r="C283">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>29</v>
       </c>
       <c r="B284">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C284">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>29</v>
       </c>
       <c r="B285">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="C285">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>29</v>
       </c>
       <c r="B286">
-        <v>1574</v>
+        <v>170</v>
       </c>
       <c r="C286">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>29</v>
       </c>
       <c r="B287">
-        <v>2192</v>
+        <v>1574</v>
       </c>
       <c r="C287">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>29</v>
       </c>
       <c r="B288">
-        <v>4844</v>
+        <v>2192</v>
       </c>
       <c r="C288">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>29</v>
       </c>
       <c r="B289">
-        <v>6015</v>
+        <v>4844</v>
       </c>
       <c r="C289">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3783,21 +3783,21 @@
         <v>29</v>
       </c>
       <c r="B290">
-        <v>7574</v>
+        <v>6015</v>
       </c>
       <c r="C290">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B291">
-        <v>392</v>
+        <v>7574</v>
       </c>
       <c r="C291">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>30</v>
       </c>
       <c r="B292">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C292">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>30</v>
       </c>
       <c r="B293">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C293">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>30</v>
       </c>
       <c r="B294">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C294">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>30</v>
       </c>
       <c r="B295">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C295">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>30</v>
       </c>
       <c r="B296">
-        <v>1576</v>
+        <v>396</v>
       </c>
       <c r="C296">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>30</v>
       </c>
       <c r="B297">
-        <v>2287</v>
+        <v>1576</v>
       </c>
       <c r="C297">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="B298">
-        <v>4124</v>
+        <v>2287</v>
       </c>
       <c r="C298">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>30</v>
       </c>
       <c r="B299">
-        <v>4154</v>
+        <v>4124</v>
       </c>
       <c r="C299">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>30</v>
       </c>
       <c r="B300">
-        <v>5018</v>
+        <v>4154</v>
       </c>
       <c r="C300">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="B301">
-        <v>6088</v>
+        <v>5018</v>
       </c>
       <c r="C301">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3915,21 +3915,21 @@
         <v>30</v>
       </c>
       <c r="B302">
-        <v>7729</v>
+        <v>6088</v>
       </c>
       <c r="C302">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>7729</v>
       </c>
       <c r="C303">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>31</v>
       </c>
       <c r="B304">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C304">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>31</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C305">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>31</v>
       </c>
       <c r="B306">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C306">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>31</v>
       </c>
       <c r="B307">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="C307">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>31</v>
       </c>
       <c r="B308">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="C308">
-        <v>20122013</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>31</v>
       </c>
       <c r="B309">
-        <v>1625</v>
+        <v>246</v>
       </c>
       <c r="C309">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>31</v>
       </c>
       <c r="B310">
-        <v>2012</v>
+        <v>1625</v>
       </c>
       <c r="C310">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>31</v>
       </c>
       <c r="B311">
-        <v>3119</v>
+        <v>2012</v>
       </c>
       <c r="C311">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>31</v>
       </c>
       <c r="B312">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="C312">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>31</v>
       </c>
       <c r="B313">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="C313">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>31</v>
       </c>
       <c r="B314">
-        <v>3131</v>
+        <v>3125</v>
       </c>
       <c r="C314">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>31</v>
       </c>
       <c r="B315">
-        <v>3137</v>
+        <v>3131</v>
       </c>
       <c r="C315">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>31</v>
       </c>
       <c r="B316">
-        <v>4759</v>
+        <v>3137</v>
       </c>
       <c r="C316">
-        <v>20202021</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>31</v>
       </c>
       <c r="B317">
-        <v>6135</v>
+        <v>4759</v>
       </c>
       <c r="C317">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4091,21 +4091,21 @@
         <v>31</v>
       </c>
       <c r="B318">
-        <v>7704</v>
+        <v>6135</v>
       </c>
       <c r="C318">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B319">
-        <v>58</v>
+        <v>7704</v>
       </c>
       <c r="C319">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4113,10 +4113,10 @@
         <v>32</v>
       </c>
       <c r="B320">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C320">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4124,10 +4124,10 @@
         <v>32</v>
       </c>
       <c r="B321">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C321">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4135,10 +4135,10 @@
         <v>32</v>
       </c>
       <c r="B322">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C322">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>32</v>
       </c>
       <c r="B323">
-        <v>1191</v>
+        <v>72</v>
       </c>
       <c r="C323">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>32</v>
       </c>
       <c r="B324">
-        <v>1874</v>
+        <v>1191</v>
       </c>
       <c r="C324">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>32</v>
       </c>
       <c r="B325">
-        <v>3645</v>
+        <v>1874</v>
       </c>
       <c r="C325">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>32</v>
       </c>
       <c r="B326">
-        <v>5477</v>
+        <v>3645</v>
       </c>
       <c r="C326">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>32</v>
       </c>
       <c r="B327">
-        <v>7120</v>
+        <v>5477</v>
       </c>
       <c r="C327">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4201,21 +4201,21 @@
         <v>32</v>
       </c>
       <c r="B328">
-        <v>8935</v>
+        <v>7120</v>
       </c>
       <c r="C328">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B329">
-        <v>65</v>
+        <v>8935</v>
       </c>
       <c r="C329">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>33</v>
       </c>
       <c r="B330">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C330">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>33</v>
       </c>
       <c r="B331">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C331">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>33</v>
       </c>
       <c r="B332">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C332">
-        <v>20152016</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>33</v>
       </c>
       <c r="B333">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="C333">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>33</v>
       </c>
       <c r="B334">
-        <v>1508</v>
+        <v>180</v>
       </c>
       <c r="C334">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>33</v>
       </c>
       <c r="B335">
-        <v>2392</v>
+        <v>1508</v>
       </c>
       <c r="C335">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>33</v>
       </c>
       <c r="B336">
-        <v>4127</v>
+        <v>2392</v>
       </c>
       <c r="C336">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>33</v>
       </c>
       <c r="B337">
-        <v>4136</v>
+        <v>4127</v>
       </c>
       <c r="C337">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="B338">
-        <v>4193</v>
+        <v>4136</v>
       </c>
       <c r="C338">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>33</v>
       </c>
       <c r="B339">
-        <v>4199</v>
+        <v>4193</v>
       </c>
       <c r="C339">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>33</v>
       </c>
       <c r="B340">
-        <v>4505</v>
+        <v>4199</v>
       </c>
       <c r="C340">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>33</v>
       </c>
       <c r="B341">
-        <v>6019</v>
+        <v>4505</v>
       </c>
       <c r="C341">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4355,21 +4355,21 @@
         <v>33</v>
       </c>
       <c r="B342">
-        <v>7500</v>
+        <v>6019</v>
       </c>
       <c r="C342">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B343">
-        <v>73</v>
+        <v>7500</v>
       </c>
       <c r="C343">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>34</v>
       </c>
       <c r="B344">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C344">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>34</v>
       </c>
       <c r="B345">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C345">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>34</v>
       </c>
       <c r="B346">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C346">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>34</v>
       </c>
       <c r="B347">
-        <v>1579</v>
+        <v>181</v>
       </c>
       <c r="C347">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>34</v>
       </c>
       <c r="B348">
-        <v>2396</v>
+        <v>1579</v>
       </c>
       <c r="C348">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>34</v>
       </c>
       <c r="B349">
-        <v>4164</v>
+        <v>2396</v>
       </c>
       <c r="C349">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>34</v>
       </c>
       <c r="B350">
-        <v>4185</v>
+        <v>4164</v>
       </c>
       <c r="C350">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>34</v>
       </c>
       <c r="B351">
-        <v>4645</v>
+        <v>4185</v>
       </c>
       <c r="C351">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>34</v>
       </c>
       <c r="B352">
-        <v>6018</v>
+        <v>4645</v>
       </c>
       <c r="C352">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4476,21 +4476,21 @@
         <v>34</v>
       </c>
       <c r="B353">
-        <v>7501</v>
+        <v>6018</v>
       </c>
       <c r="C353">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B354">
-        <v>83</v>
+        <v>7501</v>
       </c>
       <c r="C354">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>35</v>
       </c>
       <c r="B355">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C355">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>35</v>
       </c>
       <c r="B356">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C356">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>35</v>
       </c>
       <c r="B357">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="C357">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>35</v>
       </c>
       <c r="B358">
-        <v>1578</v>
+        <v>188</v>
       </c>
       <c r="C358">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>35</v>
       </c>
       <c r="B359">
-        <v>4131</v>
+        <v>1578</v>
       </c>
       <c r="C359">
-        <v>20132014</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>35</v>
       </c>
       <c r="B360">
-        <v>4168</v>
+        <v>4131</v>
       </c>
       <c r="C360">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>35</v>
       </c>
       <c r="B361">
-        <v>4195</v>
+        <v>4168</v>
       </c>
       <c r="C361">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>35</v>
       </c>
       <c r="B362">
-        <v>4200</v>
+        <v>4195</v>
       </c>
       <c r="C362">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>35</v>
       </c>
       <c r="B363">
-        <v>4388</v>
+        <v>4200</v>
       </c>
       <c r="C363">
-        <v>20192020</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>35</v>
       </c>
       <c r="B364">
-        <v>4676</v>
+        <v>4388</v>
       </c>
       <c r="C364">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>35</v>
       </c>
       <c r="B365">
-        <v>6020</v>
+        <v>4676</v>
       </c>
       <c r="C365">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4619,21 +4619,21 @@
         <v>35</v>
       </c>
       <c r="B366">
-        <v>7499</v>
+        <v>6020</v>
       </c>
       <c r="C366">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>7499</v>
       </c>
       <c r="C367">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>36</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C368">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>36</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C369">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>36</v>
       </c>
       <c r="B370">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C370">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>36</v>
       </c>
       <c r="B371">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C371">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>36</v>
       </c>
       <c r="B372">
-        <v>1636</v>
+        <v>177</v>
       </c>
       <c r="C372">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>36</v>
       </c>
       <c r="B373">
-        <v>4105</v>
+        <v>1636</v>
       </c>
       <c r="C373">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>36</v>
       </c>
       <c r="B374">
-        <v>4123</v>
+        <v>4105</v>
       </c>
       <c r="C374">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>36</v>
       </c>
       <c r="B375">
-        <v>4133</v>
+        <v>4123</v>
       </c>
       <c r="C375">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>36</v>
       </c>
       <c r="B376">
-        <v>4140</v>
+        <v>4133</v>
       </c>
       <c r="C376">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>36</v>
       </c>
       <c r="B377">
-        <v>4392</v>
+        <v>4140</v>
       </c>
       <c r="C377">
-        <v>20192020</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>36</v>
       </c>
       <c r="B378">
-        <v>4624</v>
+        <v>4392</v>
       </c>
       <c r="C378">
-        <v>20082009</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>36</v>
       </c>
       <c r="B379">
-        <v>4628</v>
+        <v>4624</v>
       </c>
       <c r="C379">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>36</v>
       </c>
       <c r="B380">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="C380">
-        <v>20062007</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>36</v>
       </c>
       <c r="B381">
-        <v>4673</v>
+        <v>4629</v>
       </c>
       <c r="C381">
-        <v>20202021</v>
+        <v>20062007</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>36</v>
       </c>
       <c r="B382">
-        <v>6192</v>
+        <v>4673</v>
       </c>
       <c r="C382">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4806,21 +4806,21 @@
         <v>36</v>
       </c>
       <c r="B383">
-        <v>7664</v>
+        <v>6192</v>
       </c>
       <c r="C383">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B384">
-        <v>207</v>
+        <v>7664</v>
       </c>
       <c r="C384">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>37</v>
       </c>
       <c r="B385">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C385">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>37</v>
       </c>
       <c r="B386">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C386">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>37</v>
       </c>
       <c r="B387">
-        <v>933</v>
+        <v>209</v>
       </c>
       <c r="C387">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>37</v>
       </c>
       <c r="B388">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C388">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>37</v>
       </c>
       <c r="B389">
-        <v>1752</v>
+        <v>934</v>
       </c>
       <c r="C389">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>37</v>
       </c>
       <c r="B390">
-        <v>2667</v>
+        <v>1752</v>
       </c>
       <c r="C390">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>37</v>
       </c>
       <c r="B391">
-        <v>4957</v>
+        <v>2667</v>
       </c>
       <c r="C391">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>37</v>
       </c>
       <c r="B392">
-        <v>6282</v>
+        <v>4957</v>
       </c>
       <c r="C392">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4916,21 +4916,21 @@
         <v>37</v>
       </c>
       <c r="B393">
-        <v>7954</v>
+        <v>6282</v>
       </c>
       <c r="C393">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B394">
-        <v>726</v>
+        <v>7954</v>
       </c>
       <c r="C394">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>38</v>
       </c>
       <c r="B395">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C395">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>38</v>
       </c>
       <c r="B396">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C396">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>38</v>
       </c>
       <c r="B397">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C397">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>38</v>
       </c>
       <c r="B398">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C398">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>38</v>
       </c>
       <c r="B399">
-        <v>1566</v>
+        <v>731</v>
       </c>
       <c r="C399">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>38</v>
       </c>
       <c r="B400">
-        <v>2282</v>
+        <v>1566</v>
       </c>
       <c r="C400">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>38</v>
       </c>
       <c r="B401">
-        <v>4534</v>
+        <v>2282</v>
       </c>
       <c r="C401">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>38</v>
       </c>
       <c r="B402">
-        <v>5936</v>
+        <v>4534</v>
       </c>
       <c r="C402">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5026,21 +5026,21 @@
         <v>38</v>
       </c>
       <c r="B403">
-        <v>7967</v>
+        <v>5936</v>
       </c>
       <c r="C403">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B404">
-        <v>68</v>
+        <v>7967</v>
       </c>
       <c r="C404">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>39</v>
       </c>
       <c r="B405">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C405">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>39</v>
       </c>
       <c r="B406">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C406">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>39</v>
       </c>
       <c r="B407">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C407">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>39</v>
       </c>
       <c r="B408">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="C408">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>39</v>
       </c>
       <c r="B409">
-        <v>1680</v>
+        <v>182</v>
       </c>
       <c r="C409">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>39</v>
       </c>
       <c r="B410">
-        <v>2588</v>
+        <v>1680</v>
       </c>
       <c r="C410">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>39</v>
       </c>
       <c r="B411">
-        <v>3940</v>
+        <v>2588</v>
       </c>
       <c r="C411">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>39</v>
       </c>
       <c r="B412">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C412">
-        <v>20082009</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>39</v>
       </c>
       <c r="B413">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C413">
-        <v>20092010</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>39</v>
       </c>
       <c r="B414">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="C414">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>39</v>
       </c>
       <c r="B415">
-        <v>4889</v>
+        <v>3945</v>
       </c>
       <c r="C415">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5169,10 +5169,10 @@
         <v>39</v>
       </c>
       <c r="B416">
-        <v>6198</v>
+        <v>4889</v>
       </c>
       <c r="C416">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5180,21 +5180,21 @@
         <v>39</v>
       </c>
       <c r="B417">
-        <v>7608</v>
+        <v>6198</v>
       </c>
       <c r="C417">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B418">
-        <v>77</v>
+        <v>7608</v>
       </c>
       <c r="C418">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>40</v>
       </c>
       <c r="B419">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C419">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>40</v>
       </c>
       <c r="B420">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C420">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>40</v>
       </c>
       <c r="B421">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C421">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>40</v>
       </c>
       <c r="B422">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C422">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>40</v>
       </c>
       <c r="B423">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="C423">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>40</v>
       </c>
       <c r="B424">
-        <v>1749</v>
+        <v>183</v>
       </c>
       <c r="C424">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>40</v>
       </c>
       <c r="B425">
-        <v>2642</v>
+        <v>1749</v>
       </c>
       <c r="C425">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>40</v>
       </c>
       <c r="B426">
-        <v>3946</v>
+        <v>2642</v>
       </c>
       <c r="C426">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>40</v>
       </c>
       <c r="B427">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C427">
-        <v>20102011</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="B428">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="C428">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>40</v>
       </c>
       <c r="B429">
-        <v>4972</v>
+        <v>3949</v>
       </c>
       <c r="C429">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>40</v>
       </c>
       <c r="B430">
-        <v>6205</v>
+        <v>4972</v>
       </c>
       <c r="C430">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5334,21 +5334,21 @@
         <v>40</v>
       </c>
       <c r="B431">
-        <v>7864</v>
+        <v>6205</v>
       </c>
       <c r="C431">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B432">
-        <v>162</v>
+        <v>7864</v>
       </c>
       <c r="C432">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>41</v>
       </c>
       <c r="B433">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="C433">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>41</v>
       </c>
       <c r="B434">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C434">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>41</v>
       </c>
       <c r="B435">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C435">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>41</v>
       </c>
       <c r="B436">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C436">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>41</v>
       </c>
       <c r="B437">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C437">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>41</v>
       </c>
       <c r="B438">
-        <v>1071</v>
+        <v>254</v>
       </c>
       <c r="C438">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>41</v>
       </c>
       <c r="B439">
-        <v>1864</v>
+        <v>1071</v>
       </c>
       <c r="C439">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>41</v>
       </c>
       <c r="B440">
-        <v>3686</v>
+        <v>1864</v>
       </c>
       <c r="C440">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>41</v>
       </c>
       <c r="B441">
-        <v>5434</v>
+        <v>3686</v>
       </c>
       <c r="C441">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>41</v>
       </c>
       <c r="B442">
-        <v>6935</v>
+        <v>5434</v>
       </c>
       <c r="C442">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5466,21 +5466,21 @@
         <v>41</v>
       </c>
       <c r="B443">
-        <v>8810</v>
+        <v>6935</v>
       </c>
       <c r="C443">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B444">
-        <v>130</v>
+        <v>8810</v>
       </c>
       <c r="C444">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>42</v>
       </c>
       <c r="B445">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C445">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>42</v>
       </c>
       <c r="B446">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C446">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>42</v>
       </c>
       <c r="B447">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C447">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>42</v>
       </c>
       <c r="B448">
-        <v>1073</v>
+        <v>153</v>
       </c>
       <c r="C448">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>42</v>
       </c>
       <c r="B449">
-        <v>1865</v>
+        <v>1073</v>
       </c>
       <c r="C449">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>42</v>
       </c>
       <c r="B450">
-        <v>3684</v>
+        <v>1865</v>
       </c>
       <c r="C450">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>42</v>
       </c>
       <c r="B451">
-        <v>5495</v>
+        <v>3684</v>
       </c>
       <c r="C451">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>42</v>
       </c>
       <c r="B452">
-        <v>6936</v>
+        <v>5495</v>
       </c>
       <c r="C452">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5576,21 +5576,21 @@
         <v>42</v>
       </c>
       <c r="B453">
-        <v>8811</v>
+        <v>6936</v>
       </c>
       <c r="C453">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B454">
-        <v>313</v>
+        <v>8811</v>
       </c>
       <c r="C454">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>43</v>
       </c>
       <c r="B455">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C455">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>43</v>
       </c>
       <c r="B456">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C456">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>43</v>
       </c>
       <c r="B457">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C457">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>43</v>
       </c>
       <c r="B458">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C458">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>43</v>
       </c>
       <c r="B459">
-        <v>1583</v>
+        <v>317</v>
       </c>
       <c r="C459">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>43</v>
       </c>
       <c r="B460">
-        <v>2315</v>
+        <v>1583</v>
       </c>
       <c r="C460">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>43</v>
       </c>
       <c r="B461">
-        <v>4664</v>
+        <v>2315</v>
       </c>
       <c r="C461">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>43</v>
       </c>
       <c r="B462">
-        <v>6104</v>
+        <v>4664</v>
       </c>
       <c r="C462">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5686,21 +5686,21 @@
         <v>43</v>
       </c>
       <c r="B463">
-        <v>7489</v>
+        <v>6104</v>
       </c>
       <c r="C463">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B464">
-        <v>307</v>
+        <v>7489</v>
       </c>
       <c r="C464">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>44</v>
       </c>
       <c r="B465">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C465">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>44</v>
       </c>
       <c r="B466">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C466">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>44</v>
       </c>
       <c r="B467">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C467">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>44</v>
       </c>
       <c r="B468">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C468">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>44</v>
       </c>
       <c r="B469">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C469">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>44</v>
       </c>
       <c r="B470">
-        <v>1582</v>
+        <v>312</v>
       </c>
       <c r="C470">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>44</v>
       </c>
       <c r="B471">
-        <v>2270</v>
+        <v>1582</v>
       </c>
       <c r="C471">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>44</v>
       </c>
       <c r="B472">
-        <v>4507</v>
+        <v>2270</v>
       </c>
       <c r="C472">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>44</v>
       </c>
       <c r="B473">
-        <v>6038</v>
+        <v>4507</v>
       </c>
       <c r="C473">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>44</v>
       </c>
       <c r="B474">
-        <v>7425</v>
+        <v>6038</v>
       </c>
       <c r="C474">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5818,21 +5818,21 @@
         <v>44</v>
       </c>
       <c r="B475">
-        <v>9525</v>
+        <v>7425</v>
       </c>
       <c r="C475">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B476">
-        <v>55</v>
+        <v>9525</v>
       </c>
       <c r="C476">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>45</v>
       </c>
       <c r="B477">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C477">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>45</v>
       </c>
       <c r="B478">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C478">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>45</v>
       </c>
       <c r="B479">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="C479">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>45</v>
       </c>
       <c r="B480">
-        <v>1584</v>
+        <v>179</v>
       </c>
       <c r="C480">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>45</v>
       </c>
       <c r="B481">
-        <v>2273</v>
+        <v>1584</v>
       </c>
       <c r="C481">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>45</v>
       </c>
       <c r="B482">
-        <v>4228</v>
+        <v>2273</v>
       </c>
       <c r="C482">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>45</v>
       </c>
       <c r="B483">
-        <v>4236</v>
+        <v>4228</v>
       </c>
       <c r="C483">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="B484">
-        <v>4243</v>
+        <v>4236</v>
       </c>
       <c r="C484">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>45</v>
       </c>
       <c r="B485">
-        <v>4246</v>
+        <v>4243</v>
       </c>
       <c r="C485">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>45</v>
       </c>
       <c r="B486">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="C486">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>45</v>
       </c>
       <c r="B487">
-        <v>4748</v>
+        <v>4247</v>
       </c>
       <c r="C487">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>45</v>
       </c>
       <c r="B488">
-        <v>5950</v>
+        <v>4748</v>
       </c>
       <c r="C488">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5972,21 +5972,21 @@
         <v>45</v>
       </c>
       <c r="B489">
-        <v>7484</v>
+        <v>5950</v>
       </c>
       <c r="C489">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B490">
-        <v>51</v>
+        <v>7484</v>
       </c>
       <c r="C490">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>46</v>
       </c>
       <c r="B491">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C491">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>46</v>
       </c>
       <c r="B492">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C492">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>46</v>
       </c>
       <c r="B493">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C493">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>46</v>
       </c>
       <c r="B494">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="C494">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>46</v>
       </c>
       <c r="B495">
-        <v>1585</v>
+        <v>178</v>
       </c>
       <c r="C495">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>46</v>
       </c>
       <c r="B496">
-        <v>2272</v>
+        <v>1585</v>
       </c>
       <c r="C496">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>46</v>
       </c>
       <c r="B497">
-        <v>4226</v>
+        <v>2272</v>
       </c>
       <c r="C497">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>46</v>
       </c>
       <c r="B498">
-        <v>4234</v>
+        <v>4226</v>
       </c>
       <c r="C498">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>46</v>
       </c>
       <c r="B499">
-        <v>4746</v>
+        <v>4234</v>
       </c>
       <c r="C499">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>46</v>
       </c>
       <c r="B500">
-        <v>5951</v>
+        <v>4746</v>
       </c>
       <c r="C500">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6104,21 +6104,21 @@
         <v>46</v>
       </c>
       <c r="B501">
-        <v>7482</v>
+        <v>5951</v>
       </c>
       <c r="C501">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B502">
-        <v>1366</v>
+        <v>7482</v>
       </c>
       <c r="C502">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>47</v>
       </c>
       <c r="B503">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C503">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>47</v>
       </c>
       <c r="B504">
-        <v>1586</v>
+        <v>1367</v>
       </c>
       <c r="C504">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>47</v>
       </c>
       <c r="B505">
-        <v>2275</v>
+        <v>1586</v>
       </c>
       <c r="C505">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>47</v>
       </c>
       <c r="B506">
-        <v>4749</v>
+        <v>2275</v>
       </c>
       <c r="C506">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>47</v>
       </c>
       <c r="B507">
-        <v>6098</v>
+        <v>4749</v>
       </c>
       <c r="C507">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6181,21 +6181,21 @@
         <v>47</v>
       </c>
       <c r="B508">
-        <v>7702</v>
+        <v>6098</v>
       </c>
       <c r="C508">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B509">
-        <v>44</v>
+        <v>7702</v>
       </c>
       <c r="C509">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6203,10 +6203,10 @@
         <v>48</v>
       </c>
       <c r="B510">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C510">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6214,10 +6214,10 @@
         <v>48</v>
       </c>
       <c r="B511">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C511">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6225,10 +6225,10 @@
         <v>48</v>
       </c>
       <c r="B512">
-        <v>993</v>
+        <v>46</v>
       </c>
       <c r="C512">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>48</v>
       </c>
       <c r="B513">
-        <v>1839</v>
+        <v>993</v>
       </c>
       <c r="C513">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>48</v>
       </c>
       <c r="B514">
-        <v>3695</v>
+        <v>1839</v>
       </c>
       <c r="C514">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>48</v>
       </c>
       <c r="B515">
-        <v>4224</v>
+        <v>3695</v>
       </c>
       <c r="C515">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>48</v>
       </c>
       <c r="B516">
-        <v>4231</v>
+        <v>4224</v>
       </c>
       <c r="C516">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>48</v>
       </c>
       <c r="B517">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="C517">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>48</v>
       </c>
       <c r="B518">
-        <v>4242</v>
+        <v>4237</v>
       </c>
       <c r="C518">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>48</v>
       </c>
       <c r="B519">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="C519">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>48</v>
       </c>
       <c r="B520">
-        <v>5496</v>
+        <v>4244</v>
       </c>
       <c r="C520">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>48</v>
       </c>
       <c r="B521">
-        <v>7048</v>
+        <v>5496</v>
       </c>
       <c r="C521">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6335,21 +6335,21 @@
         <v>48</v>
       </c>
       <c r="B522">
-        <v>8739</v>
+        <v>7048</v>
       </c>
       <c r="C522">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B523">
-        <v>1099</v>
+        <v>8739</v>
       </c>
       <c r="C523">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>49</v>
       </c>
       <c r="B524">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C524">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>49</v>
       </c>
       <c r="B525">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C525">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>49</v>
       </c>
       <c r="B526">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C526">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>49</v>
       </c>
       <c r="B527">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C527">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>49</v>
       </c>
       <c r="B528">
-        <v>1843</v>
+        <v>1105</v>
       </c>
       <c r="C528">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>49</v>
       </c>
       <c r="B529">
-        <v>3643</v>
+        <v>1843</v>
       </c>
       <c r="C529">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>49</v>
       </c>
       <c r="B530">
-        <v>5503</v>
+        <v>3643</v>
       </c>
       <c r="C530">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>49</v>
       </c>
       <c r="B531">
-        <v>6960</v>
+        <v>5503</v>
       </c>
       <c r="C531">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6445,21 +6445,21 @@
         <v>49</v>
       </c>
       <c r="B532">
-        <v>8783</v>
+        <v>6960</v>
       </c>
       <c r="C532">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B533">
-        <v>612</v>
+        <v>8783</v>
       </c>
       <c r="C533">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>50</v>
       </c>
       <c r="B534">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C534">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>50</v>
       </c>
       <c r="B535">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C535">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>50</v>
       </c>
       <c r="B536">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C536">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>50</v>
       </c>
       <c r="B537">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C537">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>50</v>
       </c>
       <c r="B538">
-        <v>1125</v>
+        <v>616</v>
       </c>
       <c r="C538">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>50</v>
       </c>
       <c r="B539">
-        <v>1881</v>
+        <v>1125</v>
       </c>
       <c r="C539">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>50</v>
       </c>
       <c r="B540">
-        <v>3702</v>
+        <v>1881</v>
       </c>
       <c r="C540">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>50</v>
       </c>
       <c r="B541">
-        <v>5627</v>
+        <v>3702</v>
       </c>
       <c r="C541">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>50</v>
       </c>
       <c r="B542">
-        <v>6966</v>
+        <v>5627</v>
       </c>
       <c r="C542">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6566,21 +6566,21 @@
         <v>50</v>
       </c>
       <c r="B543">
-        <v>8837</v>
+        <v>6966</v>
       </c>
       <c r="C543">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B544">
-        <v>255</v>
+        <v>8837</v>
       </c>
       <c r="C544">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>51</v>
       </c>
       <c r="B545">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C545">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>51</v>
       </c>
       <c r="B546">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C546">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>51</v>
       </c>
       <c r="B547">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C547">
-        <v>20162017</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>51</v>
       </c>
       <c r="B548">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C548">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>51</v>
       </c>
       <c r="B549">
-        <v>1589</v>
+        <v>279</v>
       </c>
       <c r="C549">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>51</v>
       </c>
       <c r="B550">
-        <v>2328</v>
+        <v>1589</v>
       </c>
       <c r="C550">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>51</v>
       </c>
       <c r="B551">
-        <v>3972</v>
+        <v>2328</v>
       </c>
       <c r="C551">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>51</v>
       </c>
       <c r="B552">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="C552">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>51</v>
       </c>
       <c r="B553">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="C553">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>51</v>
       </c>
       <c r="B554">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="C554">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>51</v>
       </c>
       <c r="B555">
-        <v>4760</v>
+        <v>3975</v>
       </c>
       <c r="C555">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>51</v>
       </c>
       <c r="B556">
-        <v>5948</v>
+        <v>4760</v>
       </c>
       <c r="C556">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6720,21 +6720,21 @@
         <v>51</v>
       </c>
       <c r="B557">
-        <v>7428</v>
+        <v>5948</v>
       </c>
       <c r="C557">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B558">
-        <v>13</v>
+        <v>7428</v>
       </c>
       <c r="C558">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>52</v>
       </c>
       <c r="B559">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C559">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>52</v>
       </c>
       <c r="B560">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C560">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>52</v>
       </c>
       <c r="B561">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C561">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>52</v>
       </c>
       <c r="B562">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="C562">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>52</v>
       </c>
       <c r="B563">
-        <v>1593</v>
+        <v>173</v>
       </c>
       <c r="C563">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>52</v>
       </c>
       <c r="B564">
-        <v>2321</v>
+        <v>1593</v>
       </c>
       <c r="C564">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>52</v>
       </c>
       <c r="B565">
-        <v>4225</v>
+        <v>2321</v>
       </c>
       <c r="C565">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>52</v>
       </c>
       <c r="B566">
-        <v>4232</v>
+        <v>4225</v>
       </c>
       <c r="C566">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>52</v>
       </c>
       <c r="B567">
-        <v>4238</v>
+        <v>4232</v>
       </c>
       <c r="C567">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>52</v>
       </c>
       <c r="B568">
-        <v>4885</v>
+        <v>4238</v>
       </c>
       <c r="C568">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>52</v>
       </c>
       <c r="B569">
-        <v>6117</v>
+        <v>4885</v>
       </c>
       <c r="C569">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6863,21 +6863,21 @@
         <v>52</v>
       </c>
       <c r="B570">
-        <v>7731</v>
+        <v>6117</v>
       </c>
       <c r="C570">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B571">
-        <v>174</v>
+        <v>7731</v>
       </c>
       <c r="C571">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>53</v>
       </c>
       <c r="B572">
-        <v>965</v>
+        <v>174</v>
       </c>
       <c r="C572">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>53</v>
       </c>
       <c r="B573">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C573">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>53</v>
       </c>
       <c r="B574">
-        <v>1594</v>
+        <v>966</v>
       </c>
       <c r="C574">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>53</v>
       </c>
       <c r="B575">
-        <v>2320</v>
+        <v>1594</v>
       </c>
       <c r="C575">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>53</v>
       </c>
       <c r="B576">
-        <v>4284</v>
+        <v>2320</v>
       </c>
       <c r="C576">
-        <v>20142015</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>53</v>
       </c>
       <c r="B577">
-        <v>4291</v>
+        <v>4284</v>
       </c>
       <c r="C577">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>53</v>
       </c>
       <c r="B578">
-        <v>4309</v>
+        <v>4291</v>
       </c>
       <c r="C578">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>53</v>
       </c>
       <c r="B579">
-        <v>4322</v>
+        <v>4309</v>
       </c>
       <c r="C579">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>53</v>
       </c>
       <c r="B580">
-        <v>4886</v>
+        <v>4322</v>
       </c>
       <c r="C580">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>53</v>
       </c>
       <c r="B581">
-        <v>6116</v>
+        <v>4886</v>
       </c>
       <c r="C581">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6995,21 +6995,21 @@
         <v>53</v>
       </c>
       <c r="B582">
-        <v>7732</v>
+        <v>6116</v>
       </c>
       <c r="C582">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B583">
-        <v>449</v>
+        <v>7732</v>
       </c>
       <c r="C583">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>54</v>
       </c>
       <c r="B584">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C584">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>54</v>
       </c>
       <c r="B585">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C585">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>54</v>
       </c>
       <c r="B586">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C586">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>54</v>
       </c>
       <c r="B587">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C587">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>54</v>
       </c>
       <c r="B588">
-        <v>990</v>
+        <v>453</v>
       </c>
       <c r="C588">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>54</v>
       </c>
       <c r="B589">
-        <v>1844</v>
+        <v>990</v>
       </c>
       <c r="C589">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>54</v>
       </c>
       <c r="B590">
-        <v>3570</v>
+        <v>1844</v>
       </c>
       <c r="C590">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>54</v>
       </c>
       <c r="B591">
-        <v>5534</v>
+        <v>3570</v>
       </c>
       <c r="C591">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>54</v>
       </c>
       <c r="B592">
-        <v>6967</v>
+        <v>5534</v>
       </c>
       <c r="C592">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7116,21 +7116,21 @@
         <v>54</v>
       </c>
       <c r="B593">
-        <v>8741</v>
+        <v>6967</v>
       </c>
       <c r="C593">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="A594" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B594">
-        <v>1086</v>
+        <v>8741</v>
       </c>
       <c r="C594">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>55</v>
       </c>
       <c r="B595">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C595">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>55</v>
       </c>
       <c r="B596">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C596">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>55</v>
       </c>
       <c r="B597">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C597">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>55</v>
       </c>
       <c r="B598">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C598">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>55</v>
       </c>
       <c r="B599">
-        <v>1596</v>
+        <v>1090</v>
       </c>
       <c r="C599">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>55</v>
       </c>
       <c r="B600">
-        <v>2312</v>
+        <v>1596</v>
       </c>
       <c r="C600">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>55</v>
       </c>
       <c r="B601">
-        <v>4764</v>
+        <v>2312</v>
       </c>
       <c r="C601">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>55</v>
       </c>
       <c r="B602">
-        <v>6037</v>
+        <v>4764</v>
       </c>
       <c r="C602">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7226,21 +7226,21 @@
         <v>55</v>
       </c>
       <c r="B603">
-        <v>7663</v>
+        <v>6037</v>
       </c>
       <c r="C603">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B604">
-        <v>2</v>
+        <v>7663</v>
       </c>
       <c r="C604">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>56</v>
       </c>
       <c r="B605">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="C605">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7259,10 +7259,10 @@
         <v>56</v>
       </c>
       <c r="B606">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C606">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7270,10 +7270,10 @@
         <v>56</v>
       </c>
       <c r="B607">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C607">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7281,10 +7281,10 @@
         <v>56</v>
       </c>
       <c r="B608">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C608">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>56</v>
       </c>
       <c r="B609">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="C609">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>56</v>
       </c>
       <c r="B610">
-        <v>1600</v>
+        <v>223</v>
       </c>
       <c r="C610">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>56</v>
       </c>
       <c r="B611">
-        <v>2361</v>
+        <v>1600</v>
       </c>
       <c r="C611">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>56</v>
       </c>
       <c r="B612">
-        <v>4478</v>
+        <v>2361</v>
       </c>
       <c r="C612">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>56</v>
       </c>
       <c r="B613">
-        <v>5992</v>
+        <v>4478</v>
       </c>
       <c r="C613">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7347,21 +7347,21 @@
         <v>56</v>
       </c>
       <c r="B614">
-        <v>7494</v>
+        <v>5992</v>
       </c>
       <c r="C614">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B615">
-        <v>416</v>
+        <v>7494</v>
       </c>
       <c r="C615">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>57</v>
       </c>
       <c r="B616">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C616">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>57</v>
       </c>
       <c r="B617">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C617">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>57</v>
       </c>
       <c r="B618">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C618">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>57</v>
       </c>
       <c r="B619">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C619">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>57</v>
       </c>
       <c r="B620">
-        <v>1604</v>
+        <v>420</v>
       </c>
       <c r="C620">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>57</v>
       </c>
       <c r="B621">
-        <v>2254</v>
+        <v>1604</v>
       </c>
       <c r="C621">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>57</v>
       </c>
       <c r="B622">
-        <v>4533</v>
+        <v>2254</v>
       </c>
       <c r="C622">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>57</v>
       </c>
       <c r="B623">
-        <v>6046</v>
+        <v>4533</v>
       </c>
       <c r="C623">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7457,21 +7457,21 @@
         <v>57</v>
       </c>
       <c r="B624">
-        <v>7492</v>
+        <v>6046</v>
       </c>
       <c r="C624">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B625">
-        <v>439</v>
+        <v>7492</v>
       </c>
       <c r="C625">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>58</v>
       </c>
       <c r="B626">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C626">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>58</v>
       </c>
       <c r="B627">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C627">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>58</v>
       </c>
       <c r="B628">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C628">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>58</v>
       </c>
       <c r="B629">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C629">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>58</v>
       </c>
       <c r="B630">
-        <v>1606</v>
+        <v>448</v>
       </c>
       <c r="C630">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>58</v>
       </c>
       <c r="B631">
-        <v>2256</v>
+        <v>1606</v>
       </c>
       <c r="C631">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>58</v>
       </c>
       <c r="B632">
-        <v>4572</v>
+        <v>2256</v>
       </c>
       <c r="C632">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>58</v>
       </c>
       <c r="B633">
-        <v>5944</v>
+        <v>4572</v>
       </c>
       <c r="C633">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7567,21 +7567,21 @@
         <v>58</v>
       </c>
       <c r="B634">
-        <v>7958</v>
+        <v>5944</v>
       </c>
       <c r="C634">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B635">
-        <v>426</v>
+        <v>7958</v>
       </c>
       <c r="C635">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>59</v>
       </c>
       <c r="B636">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C636">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>59</v>
       </c>
       <c r="B637">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C637">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>59</v>
       </c>
       <c r="B638">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C638">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>59</v>
       </c>
       <c r="B639">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C639">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>59</v>
       </c>
       <c r="B640">
-        <v>1608</v>
+        <v>433</v>
       </c>
       <c r="C640">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>59</v>
       </c>
       <c r="B641">
-        <v>2251</v>
+        <v>1608</v>
       </c>
       <c r="C641">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>59</v>
       </c>
       <c r="B642">
-        <v>4635</v>
+        <v>2251</v>
       </c>
       <c r="C642">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>59</v>
       </c>
       <c r="B643">
-        <v>6048</v>
+        <v>4635</v>
       </c>
       <c r="C643">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7677,21 +7677,21 @@
         <v>59</v>
       </c>
       <c r="B644">
-        <v>7526</v>
+        <v>6048</v>
       </c>
       <c r="C644">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B645">
-        <v>747</v>
+        <v>7526</v>
       </c>
       <c r="C645">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>60</v>
       </c>
       <c r="B646">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C646">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>60</v>
       </c>
       <c r="B647">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C647">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>60</v>
       </c>
       <c r="B648">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C648">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>60</v>
       </c>
       <c r="B649">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C649">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>60</v>
       </c>
       <c r="B650">
-        <v>1115</v>
+        <v>751</v>
       </c>
       <c r="C650">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>60</v>
       </c>
       <c r="B651">
-        <v>1862</v>
+        <v>1115</v>
       </c>
       <c r="C651">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>60</v>
       </c>
       <c r="B652">
-        <v>4379</v>
+        <v>1862</v>
       </c>
       <c r="C652">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>60</v>
       </c>
       <c r="B653">
-        <v>5506</v>
+        <v>4379</v>
       </c>
       <c r="C653">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>60</v>
       </c>
       <c r="B654">
-        <v>7061</v>
+        <v>5506</v>
       </c>
       <c r="C654">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7798,21 +7798,21 @@
         <v>60</v>
       </c>
       <c r="B655">
-        <v>8899</v>
+        <v>7061</v>
       </c>
       <c r="C655">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="A656" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B656">
-        <v>752</v>
+        <v>8899</v>
       </c>
       <c r="C656">
-        <v>2015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7820,10 +7820,10 @@
         <v>61</v>
       </c>
       <c r="B657">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C657">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7831,10 +7831,10 @@
         <v>61</v>
       </c>
       <c r="B658">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C658">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7842,10 +7842,10 @@
         <v>61</v>
       </c>
       <c r="B659">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C659">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7853,10 +7853,10 @@
         <v>61</v>
       </c>
       <c r="B660">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C660">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7864,10 +7864,10 @@
         <v>61</v>
       </c>
       <c r="B661">
-        <v>1121</v>
+        <v>761</v>
       </c>
       <c r="C661">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7875,10 +7875,10 @@
         <v>61</v>
       </c>
       <c r="B662">
-        <v>1863</v>
+        <v>1121</v>
       </c>
       <c r="C662">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7886,10 +7886,10 @@
         <v>61</v>
       </c>
       <c r="B663">
-        <v>4381</v>
+        <v>1863</v>
       </c>
       <c r="C663">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7897,10 +7897,10 @@
         <v>61</v>
       </c>
       <c r="B664">
-        <v>5504</v>
+        <v>4381</v>
       </c>
       <c r="C664">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7908,10 +7908,10 @@
         <v>61</v>
       </c>
       <c r="B665">
-        <v>7062</v>
+        <v>5504</v>
       </c>
       <c r="C665">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7919,21 +7919,21 @@
         <v>61</v>
       </c>
       <c r="B666">
-        <v>8938</v>
+        <v>7062</v>
       </c>
       <c r="C666">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="667" spans="1:3">
       <c r="A667" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B667">
-        <v>34</v>
+        <v>8938</v>
       </c>
       <c r="C667">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7941,10 +7941,10 @@
         <v>62</v>
       </c>
       <c r="B668">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C668">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7952,10 +7952,10 @@
         <v>62</v>
       </c>
       <c r="B669">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C669">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7963,10 +7963,10 @@
         <v>62</v>
       </c>
       <c r="B670">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C670">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7974,10 +7974,10 @@
         <v>62</v>
       </c>
       <c r="B671">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C671">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7985,10 +7985,10 @@
         <v>62</v>
       </c>
       <c r="B672">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="C672">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7996,10 +7996,10 @@
         <v>62</v>
       </c>
       <c r="B673">
-        <v>1677</v>
+        <v>171</v>
       </c>
       <c r="C673">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8007,10 +8007,10 @@
         <v>62</v>
       </c>
       <c r="B674">
-        <v>2319</v>
+        <v>1677</v>
       </c>
       <c r="C674">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8018,10 +8018,10 @@
         <v>62</v>
       </c>
       <c r="B675">
-        <v>3631</v>
+        <v>2319</v>
       </c>
       <c r="C675">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8029,10 +8029,10 @@
         <v>62</v>
       </c>
       <c r="B676">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C676">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8040,10 +8040,10 @@
         <v>62</v>
       </c>
       <c r="B677">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="C677">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8051,10 +8051,10 @@
         <v>62</v>
       </c>
       <c r="B678">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="C678">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8062,10 +8062,10 @@
         <v>62</v>
       </c>
       <c r="B679">
-        <v>4944</v>
+        <v>3637</v>
       </c>
       <c r="C679">
-        <v>20202021</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8073,10 +8073,10 @@
         <v>62</v>
       </c>
       <c r="B680">
-        <v>6211</v>
+        <v>4944</v>
       </c>
       <c r="C680">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8084,21 +8084,21 @@
         <v>62</v>
       </c>
       <c r="B681">
-        <v>7665</v>
+        <v>6211</v>
       </c>
       <c r="C681">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="682" spans="1:3">
       <c r="A682" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B682">
-        <v>39</v>
+        <v>7665</v>
       </c>
       <c r="C682">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8106,10 +8106,10 @@
         <v>63</v>
       </c>
       <c r="B683">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C683">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8117,10 +8117,10 @@
         <v>63</v>
       </c>
       <c r="B684">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C684">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8128,10 +8128,10 @@
         <v>63</v>
       </c>
       <c r="B685">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C685">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8139,10 +8139,10 @@
         <v>63</v>
       </c>
       <c r="B686">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C686">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8150,10 +8150,10 @@
         <v>63</v>
       </c>
       <c r="B687">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="C687">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8161,10 +8161,10 @@
         <v>63</v>
       </c>
       <c r="B688">
-        <v>1670</v>
+        <v>172</v>
       </c>
       <c r="C688">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8172,10 +8172,10 @@
         <v>63</v>
       </c>
       <c r="B689">
-        <v>2415</v>
+        <v>1670</v>
       </c>
       <c r="C689">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8183,10 +8183,10 @@
         <v>63</v>
       </c>
       <c r="B690">
-        <v>4167</v>
+        <v>2415</v>
       </c>
       <c r="C690">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8194,10 +8194,10 @@
         <v>63</v>
       </c>
       <c r="B691">
-        <v>4245</v>
+        <v>4167</v>
       </c>
       <c r="C691">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8205,10 +8205,10 @@
         <v>63</v>
       </c>
       <c r="B692">
-        <v>4249</v>
+        <v>4245</v>
       </c>
       <c r="C692">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8216,10 +8216,10 @@
         <v>63</v>
       </c>
       <c r="B693">
-        <v>4842</v>
+        <v>4249</v>
       </c>
       <c r="C693">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8227,10 +8227,10 @@
         <v>63</v>
       </c>
       <c r="B694">
-        <v>6120</v>
+        <v>4842</v>
       </c>
       <c r="C694">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8238,21 +8238,21 @@
         <v>63</v>
       </c>
       <c r="B695">
-        <v>7592</v>
+        <v>6120</v>
       </c>
       <c r="C695">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="696" spans="1:3">
       <c r="A696" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B696">
-        <v>104</v>
+        <v>7592</v>
       </c>
       <c r="C696">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8260,10 +8260,10 @@
         <v>64</v>
       </c>
       <c r="B697">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C697">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8271,10 +8271,10 @@
         <v>64</v>
       </c>
       <c r="B698">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C698">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8282,10 +8282,10 @@
         <v>64</v>
       </c>
       <c r="B699">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C699">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8293,10 +8293,10 @@
         <v>64</v>
       </c>
       <c r="B700">
-        <v>994</v>
+        <v>107</v>
       </c>
       <c r="C700">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8304,10 +8304,10 @@
         <v>64</v>
       </c>
       <c r="B701">
-        <v>1848</v>
+        <v>994</v>
       </c>
       <c r="C701">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8315,10 +8315,10 @@
         <v>64</v>
       </c>
       <c r="B702">
-        <v>3703</v>
+        <v>1848</v>
       </c>
       <c r="C702">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8326,10 +8326,10 @@
         <v>64</v>
       </c>
       <c r="B703">
-        <v>4307</v>
+        <v>3703</v>
       </c>
       <c r="C703">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8337,10 +8337,10 @@
         <v>64</v>
       </c>
       <c r="B704">
-        <v>4315</v>
+        <v>4307</v>
       </c>
       <c r="C704">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8348,10 +8348,10 @@
         <v>64</v>
       </c>
       <c r="B705">
-        <v>4329</v>
+        <v>4315</v>
       </c>
       <c r="C705">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8359,10 +8359,10 @@
         <v>64</v>
       </c>
       <c r="B706">
-        <v>5505</v>
+        <v>4329</v>
       </c>
       <c r="C706">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8370,10 +8370,10 @@
         <v>64</v>
       </c>
       <c r="B707">
-        <v>7064</v>
+        <v>5505</v>
       </c>
       <c r="C707">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8381,21 +8381,21 @@
         <v>64</v>
       </c>
       <c r="B708">
-        <v>8737</v>
+        <v>7064</v>
       </c>
       <c r="C708">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="709" spans="1:3">
       <c r="A709" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B709">
-        <v>136</v>
+        <v>8737</v>
       </c>
       <c r="C709">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8403,10 +8403,10 @@
         <v>65</v>
       </c>
       <c r="B710">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C710">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8414,10 +8414,10 @@
         <v>65</v>
       </c>
       <c r="B711">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C711">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8425,10 +8425,10 @@
         <v>65</v>
       </c>
       <c r="B712">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C712">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8436,10 +8436,10 @@
         <v>65</v>
       </c>
       <c r="B713">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C713">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8447,10 +8447,10 @@
         <v>65</v>
       </c>
       <c r="B714">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C714">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8458,10 +8458,10 @@
         <v>65</v>
       </c>
       <c r="B715">
-        <v>1610</v>
+        <v>186</v>
       </c>
       <c r="C715">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8469,10 +8469,10 @@
         <v>65</v>
       </c>
       <c r="B716">
-        <v>2249</v>
+        <v>1610</v>
       </c>
       <c r="C716">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8480,10 +8480,10 @@
         <v>65</v>
       </c>
       <c r="B717">
-        <v>4906</v>
+        <v>2249</v>
       </c>
       <c r="C717">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8491,10 +8491,10 @@
         <v>65</v>
       </c>
       <c r="B718">
-        <v>6044</v>
+        <v>4906</v>
       </c>
       <c r="C718">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8502,21 +8502,21 @@
         <v>65</v>
       </c>
       <c r="B719">
-        <v>7504</v>
+        <v>6044</v>
       </c>
       <c r="C719">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="720" spans="1:3">
       <c r="A720" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B720">
-        <v>798</v>
+        <v>7504</v>
       </c>
       <c r="C720">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8524,10 +8524,10 @@
         <v>66</v>
       </c>
       <c r="B721">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C721">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8535,10 +8535,10 @@
         <v>66</v>
       </c>
       <c r="B722">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C722">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8546,10 +8546,10 @@
         <v>66</v>
       </c>
       <c r="B723">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C723">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8557,10 +8557,10 @@
         <v>66</v>
       </c>
       <c r="B724">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C724">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8568,10 +8568,10 @@
         <v>66</v>
       </c>
       <c r="B725">
-        <v>1644</v>
+        <v>802</v>
       </c>
       <c r="C725">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8579,10 +8579,10 @@
         <v>66</v>
       </c>
       <c r="B726">
-        <v>2650</v>
+        <v>1644</v>
       </c>
       <c r="C726">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8590,10 +8590,10 @@
         <v>66</v>
       </c>
       <c r="B727">
-        <v>5257</v>
+        <v>2650</v>
       </c>
       <c r="C727">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8601,10 +8601,10 @@
         <v>66</v>
       </c>
       <c r="B728">
-        <v>6726</v>
+        <v>5257</v>
       </c>
       <c r="C728">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8612,21 +8612,21 @@
         <v>66</v>
       </c>
       <c r="B729">
-        <v>8428</v>
+        <v>6726</v>
       </c>
       <c r="C729">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="730" spans="1:3">
       <c r="A730" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B730">
-        <v>19</v>
+        <v>8428</v>
       </c>
       <c r="C730">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8634,10 +8634,10 @@
         <v>67</v>
       </c>
       <c r="B731">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C731">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8645,10 +8645,10 @@
         <v>67</v>
       </c>
       <c r="B732">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C732">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8656,10 +8656,10 @@
         <v>67</v>
       </c>
       <c r="B733">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="C733">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8667,10 +8667,10 @@
         <v>67</v>
       </c>
       <c r="B734">
-        <v>1614</v>
+        <v>175</v>
       </c>
       <c r="C734">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8678,10 +8678,10 @@
         <v>67</v>
       </c>
       <c r="B735">
-        <v>2648</v>
+        <v>1614</v>
       </c>
       <c r="C735">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8689,10 +8689,10 @@
         <v>67</v>
       </c>
       <c r="B736">
-        <v>4840</v>
+        <v>2648</v>
       </c>
       <c r="C736">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8700,10 +8700,10 @@
         <v>67</v>
       </c>
       <c r="B737">
-        <v>6125</v>
+        <v>4840</v>
       </c>
       <c r="C737">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8711,21 +8711,21 @@
         <v>67</v>
       </c>
       <c r="B738">
-        <v>7768</v>
+        <v>6125</v>
       </c>
       <c r="C738">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="739" spans="1:3">
       <c r="A739" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B739">
-        <v>1</v>
+        <v>7768</v>
       </c>
       <c r="C739">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8733,10 +8733,10 @@
         <v>68</v>
       </c>
       <c r="B740">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C740">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8744,10 +8744,10 @@
         <v>68</v>
       </c>
       <c r="B741">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C741">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8755,10 +8755,10 @@
         <v>68</v>
       </c>
       <c r="B742">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C742">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8766,10 +8766,10 @@
         <v>68</v>
       </c>
       <c r="B743">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="C743">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8777,10 +8777,10 @@
         <v>68</v>
       </c>
       <c r="B744">
-        <v>1076</v>
+        <v>163</v>
       </c>
       <c r="C744">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8788,10 +8788,10 @@
         <v>68</v>
       </c>
       <c r="B745">
-        <v>1846</v>
+        <v>1076</v>
       </c>
       <c r="C745">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8799,10 +8799,10 @@
         <v>68</v>
       </c>
       <c r="B746">
-        <v>4227</v>
+        <v>1846</v>
       </c>
       <c r="C746">
-        <v>2012</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8810,10 +8810,10 @@
         <v>68</v>
       </c>
       <c r="B747">
-        <v>4235</v>
+        <v>4227</v>
       </c>
       <c r="C747">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8821,10 +8821,10 @@
         <v>68</v>
       </c>
       <c r="B748">
-        <v>4241</v>
+        <v>4235</v>
       </c>
       <c r="C748">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8832,10 +8832,10 @@
         <v>68</v>
       </c>
       <c r="B749">
-        <v>4473</v>
+        <v>4241</v>
       </c>
       <c r="C749">
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8843,10 +8843,10 @@
         <v>68</v>
       </c>
       <c r="B750">
-        <v>5674</v>
+        <v>4473</v>
       </c>
       <c r="C750">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8854,10 +8854,10 @@
         <v>68</v>
       </c>
       <c r="B751">
-        <v>6969</v>
+        <v>5674</v>
       </c>
       <c r="C751">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8865,21 +8865,21 @@
         <v>68</v>
       </c>
       <c r="B752">
-        <v>8777</v>
+        <v>6969</v>
       </c>
       <c r="C752">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="753" spans="1:3">
       <c r="A753" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B753">
-        <v>1290</v>
+        <v>8777</v>
       </c>
       <c r="C753">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8887,10 +8887,10 @@
         <v>69</v>
       </c>
       <c r="B754">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C754">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8898,10 +8898,10 @@
         <v>69</v>
       </c>
       <c r="B755">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C755">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8909,10 +8909,10 @@
         <v>69</v>
       </c>
       <c r="B756">
-        <v>1857</v>
+        <v>1292</v>
       </c>
       <c r="C756">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8920,10 +8920,10 @@
         <v>69</v>
       </c>
       <c r="B757">
-        <v>3710</v>
+        <v>1857</v>
       </c>
       <c r="C757">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8931,10 +8931,10 @@
         <v>69</v>
       </c>
       <c r="B758">
-        <v>4279</v>
+        <v>3710</v>
       </c>
       <c r="C758">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8942,10 +8942,10 @@
         <v>69</v>
       </c>
       <c r="B759">
-        <v>4283</v>
+        <v>4279</v>
       </c>
       <c r="C759">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8953,10 +8953,10 @@
         <v>69</v>
       </c>
       <c r="B760">
-        <v>4288</v>
+        <v>4283</v>
       </c>
       <c r="C760">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8964,10 +8964,10 @@
         <v>69</v>
       </c>
       <c r="B761">
-        <v>6541</v>
+        <v>4288</v>
       </c>
       <c r="C761">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8975,10 +8975,10 @@
         <v>69</v>
       </c>
       <c r="B762">
-        <v>6970</v>
+        <v>6541</v>
       </c>
       <c r="C762">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8986,21 +8986,21 @@
         <v>69</v>
       </c>
       <c r="B763">
-        <v>8845</v>
+        <v>6970</v>
       </c>
       <c r="C763">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="764" spans="1:3">
       <c r="A764" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B764">
-        <v>360</v>
+        <v>8845</v>
       </c>
       <c r="C764">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9008,10 +9008,10 @@
         <v>70</v>
       </c>
       <c r="B765">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C765">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9019,10 +9019,10 @@
         <v>70</v>
       </c>
       <c r="B766">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C766">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9030,10 +9030,10 @@
         <v>70</v>
       </c>
       <c r="B767">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C767">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9041,10 +9041,10 @@
         <v>70</v>
       </c>
       <c r="B768">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C768">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9052,10 +9052,10 @@
         <v>70</v>
       </c>
       <c r="B769">
-        <v>1618</v>
+        <v>364</v>
       </c>
       <c r="C769">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9063,10 +9063,10 @@
         <v>70</v>
       </c>
       <c r="B770">
-        <v>2317</v>
+        <v>1618</v>
       </c>
       <c r="C770">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9074,10 +9074,10 @@
         <v>70</v>
       </c>
       <c r="B771">
-        <v>4751</v>
+        <v>2317</v>
       </c>
       <c r="C771">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9085,10 +9085,10 @@
         <v>70</v>
       </c>
       <c r="B772">
-        <v>5943</v>
+        <v>4751</v>
       </c>
       <c r="C772">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9096,21 +9096,21 @@
         <v>70</v>
       </c>
       <c r="B773">
-        <v>8222</v>
+        <v>5943</v>
       </c>
       <c r="C773">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="774" spans="1:3">
       <c r="A774" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B774">
-        <v>853</v>
+        <v>8222</v>
       </c>
       <c r="C774">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9118,10 +9118,10 @@
         <v>71</v>
       </c>
       <c r="B775">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C775">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9129,10 +9129,10 @@
         <v>71</v>
       </c>
       <c r="B776">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C776">
-        <v>20152016</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9140,10 +9140,10 @@
         <v>71</v>
       </c>
       <c r="B777">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C777">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9151,10 +9151,10 @@
         <v>71</v>
       </c>
       <c r="B778">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C778">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9162,10 +9162,10 @@
         <v>71</v>
       </c>
       <c r="B779">
-        <v>1095</v>
+        <v>857</v>
       </c>
       <c r="C779">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9173,10 +9173,10 @@
         <v>71</v>
       </c>
       <c r="B780">
-        <v>1905</v>
+        <v>1095</v>
       </c>
       <c r="C780">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9184,10 +9184,10 @@
         <v>71</v>
       </c>
       <c r="B781">
-        <v>3789</v>
+        <v>1905</v>
       </c>
       <c r="C781">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9195,10 +9195,10 @@
         <v>71</v>
       </c>
       <c r="B782">
-        <v>5809</v>
+        <v>3789</v>
       </c>
       <c r="C782">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9206,10 +9206,10 @@
         <v>71</v>
       </c>
       <c r="B783">
-        <v>7067</v>
+        <v>5809</v>
       </c>
       <c r="C783">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9217,21 +9217,21 @@
         <v>71</v>
       </c>
       <c r="B784">
-        <v>8937</v>
+        <v>7067</v>
       </c>
       <c r="C784">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="785" spans="1:3">
       <c r="A785" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B785">
-        <v>858</v>
+        <v>8937</v>
       </c>
       <c r="C785">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9239,10 +9239,10 @@
         <v>72</v>
       </c>
       <c r="B786">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C786">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9250,10 +9250,10 @@
         <v>72</v>
       </c>
       <c r="B787">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C787">
-        <v>20152016</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9261,10 +9261,10 @@
         <v>72</v>
       </c>
       <c r="B788">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C788">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9272,10 +9272,10 @@
         <v>72</v>
       </c>
       <c r="B789">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C789">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9283,10 +9283,10 @@
         <v>72</v>
       </c>
       <c r="B790">
-        <v>1096</v>
+        <v>862</v>
       </c>
       <c r="C790">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9294,10 +9294,10 @@
         <v>72</v>
       </c>
       <c r="B791">
-        <v>1949</v>
+        <v>1096</v>
       </c>
       <c r="C791">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9305,10 +9305,10 @@
         <v>72</v>
       </c>
       <c r="B792">
-        <v>4651</v>
+        <v>1949</v>
       </c>
       <c r="C792">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9316,10 +9316,10 @@
         <v>72</v>
       </c>
       <c r="B793">
-        <v>5908</v>
+        <v>4651</v>
       </c>
       <c r="C793">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9327,10 +9327,10 @@
         <v>72</v>
       </c>
       <c r="B794">
-        <v>7173</v>
+        <v>5908</v>
       </c>
       <c r="C794">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9338,21 +9338,21 @@
         <v>72</v>
       </c>
       <c r="B795">
-        <v>9288</v>
+        <v>7173</v>
       </c>
       <c r="C795">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="796" spans="1:3">
       <c r="A796" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B796">
-        <v>622</v>
+        <v>9288</v>
       </c>
       <c r="C796">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9360,10 +9360,10 @@
         <v>73</v>
       </c>
       <c r="B797">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C797">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9371,10 +9371,10 @@
         <v>73</v>
       </c>
       <c r="B798">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C798">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9382,10 +9382,10 @@
         <v>73</v>
       </c>
       <c r="B799">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C799">
-        <v>20142015</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9393,10 +9393,10 @@
         <v>73</v>
       </c>
       <c r="B800">
-        <v>1102</v>
+        <v>631</v>
       </c>
       <c r="C800">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9404,10 +9404,10 @@
         <v>73</v>
       </c>
       <c r="B801">
-        <v>1868</v>
+        <v>1102</v>
       </c>
       <c r="C801">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9415,10 +9415,10 @@
         <v>73</v>
       </c>
       <c r="B802">
-        <v>2011</v>
+        <v>1868</v>
       </c>
       <c r="C802">
-        <v>20132014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9426,10 +9426,10 @@
         <v>73</v>
       </c>
       <c r="B803">
-        <v>3714</v>
+        <v>2011</v>
       </c>
       <c r="C803">
-        <v>2020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9437,10 +9437,10 @@
         <v>73</v>
       </c>
       <c r="B804">
-        <v>5631</v>
+        <v>3714</v>
       </c>
       <c r="C804">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9448,10 +9448,10 @@
         <v>73</v>
       </c>
       <c r="B805">
-        <v>7166</v>
+        <v>5631</v>
       </c>
       <c r="C805">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9459,9 +9459,20 @@
         <v>73</v>
       </c>
       <c r="B806">
+        <v>7166</v>
+      </c>
+      <c r="C806">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3">
+      <c r="A807" t="s">
+        <v>73</v>
+      </c>
+      <c r="B807">
         <v>8952</v>
       </c>
-      <c r="C806">
+      <c r="C807">
         <v>2023</v>
       </c>
     </row>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="74">
   <si>
     <t>League</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C807"/>
+  <dimension ref="A1:C809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B117">
-        <v>2047</v>
+        <v>9551</v>
       </c>
       <c r="C117">
-        <v>2019</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1891,10 +1891,10 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>3801</v>
+        <v>2047</v>
       </c>
       <c r="C118">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1902,10 +1902,10 @@
         <v>14</v>
       </c>
       <c r="B119">
-        <v>6003</v>
+        <v>3801</v>
       </c>
       <c r="C119">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1913,10 +1913,10 @@
         <v>14</v>
       </c>
       <c r="B120">
-        <v>7112</v>
+        <v>6003</v>
       </c>
       <c r="C120">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1924,21 +1924,21 @@
         <v>14</v>
       </c>
       <c r="B121">
-        <v>8946</v>
+        <v>7112</v>
       </c>
       <c r="C121">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B122">
-        <v>499</v>
+        <v>8946</v>
       </c>
       <c r="C122">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1946,10 +1946,10 @@
         <v>15</v>
       </c>
       <c r="B123">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C123">
-        <v>20162017</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1957,10 +1957,10 @@
         <v>15</v>
       </c>
       <c r="B124">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C124">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1968,10 +1968,10 @@
         <v>15</v>
       </c>
       <c r="B125">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C125">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1979,10 +1979,10 @@
         <v>15</v>
       </c>
       <c r="B126">
-        <v>1202</v>
+        <v>502</v>
       </c>
       <c r="C126">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1990,10 +1990,10 @@
         <v>15</v>
       </c>
       <c r="B127">
-        <v>1870</v>
+        <v>1202</v>
       </c>
       <c r="C127">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2001,10 +2001,10 @@
         <v>15</v>
       </c>
       <c r="B128">
-        <v>3765</v>
+        <v>1870</v>
       </c>
       <c r="C128">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2012,10 +2012,10 @@
         <v>15</v>
       </c>
       <c r="B129">
-        <v>5704</v>
+        <v>3765</v>
       </c>
       <c r="C129">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2023,10 +2023,10 @@
         <v>15</v>
       </c>
       <c r="B130">
-        <v>7114</v>
+        <v>5704</v>
       </c>
       <c r="C130">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2034,21 +2034,21 @@
         <v>15</v>
       </c>
       <c r="B131">
-        <v>8875</v>
+        <v>7114</v>
       </c>
       <c r="C131">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B132">
-        <v>494</v>
+        <v>8875</v>
       </c>
       <c r="C132">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2056,10 +2056,10 @@
         <v>16</v>
       </c>
       <c r="B133">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C133">
-        <v>20162017</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2067,10 +2067,10 @@
         <v>16</v>
       </c>
       <c r="B134">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C134">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>16</v>
       </c>
       <c r="B135">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C135">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2089,10 +2089,10 @@
         <v>16</v>
       </c>
       <c r="B136">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C136">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2100,10 +2100,10 @@
         <v>16</v>
       </c>
       <c r="B137">
-        <v>1053</v>
+        <v>498</v>
       </c>
       <c r="C137">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>16</v>
       </c>
       <c r="B138">
-        <v>1869</v>
+        <v>1053</v>
       </c>
       <c r="C138">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>16</v>
       </c>
       <c r="B139">
-        <v>3646</v>
+        <v>1869</v>
       </c>
       <c r="C139">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>16</v>
       </c>
       <c r="B140">
-        <v>5682</v>
+        <v>3646</v>
       </c>
       <c r="C140">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>16</v>
       </c>
       <c r="B141">
-        <v>7036</v>
+        <v>5682</v>
       </c>
       <c r="C141">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2155,21 +2155,21 @@
         <v>16</v>
       </c>
       <c r="B142">
-        <v>8833</v>
+        <v>7036</v>
       </c>
       <c r="C142">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B143">
-        <v>503</v>
+        <v>8833</v>
       </c>
       <c r="C143">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2177,10 +2177,10 @@
         <v>17</v>
       </c>
       <c r="B144">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C144">
-        <v>20162017</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>17</v>
       </c>
       <c r="B145">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C145">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>17</v>
       </c>
       <c r="B146">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C146">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>17</v>
       </c>
       <c r="B147">
-        <v>1203</v>
+        <v>506</v>
       </c>
       <c r="C147">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>17</v>
       </c>
       <c r="B148">
-        <v>1951</v>
+        <v>1203</v>
       </c>
       <c r="C148">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>17</v>
       </c>
       <c r="B149">
-        <v>5012</v>
+        <v>1951</v>
       </c>
       <c r="C149">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>17</v>
       </c>
       <c r="B150">
-        <v>5879</v>
+        <v>5012</v>
       </c>
       <c r="C150">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>17</v>
       </c>
       <c r="B151">
-        <v>7257</v>
+        <v>5879</v>
       </c>
       <c r="C151">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2265,21 +2265,21 @@
         <v>17</v>
       </c>
       <c r="B152">
-        <v>9040</v>
+        <v>7257</v>
       </c>
       <c r="C152">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B153">
-        <v>127</v>
+        <v>9040</v>
       </c>
       <c r="C153">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>18</v>
       </c>
       <c r="B154">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C154">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>18</v>
       </c>
       <c r="B155">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C155">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>18</v>
       </c>
       <c r="B156">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C156">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>18</v>
       </c>
       <c r="B157">
-        <v>1072</v>
+        <v>152</v>
       </c>
       <c r="C157">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>18</v>
       </c>
       <c r="B158">
-        <v>1871</v>
+        <v>1072</v>
       </c>
       <c r="C158">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>18</v>
       </c>
       <c r="B159">
-        <v>4306</v>
+        <v>1871</v>
       </c>
       <c r="C159">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>18</v>
       </c>
       <c r="B160">
-        <v>4313</v>
+        <v>4306</v>
       </c>
       <c r="C160">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>18</v>
       </c>
       <c r="B161">
-        <v>4330</v>
+        <v>4313</v>
       </c>
       <c r="C161">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>18</v>
       </c>
       <c r="B162">
-        <v>4337</v>
+        <v>4330</v>
       </c>
       <c r="C162">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>18</v>
       </c>
       <c r="B163">
-        <v>4382</v>
+        <v>4337</v>
       </c>
       <c r="C163">
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>18</v>
       </c>
       <c r="B164">
-        <v>5728</v>
+        <v>4382</v>
       </c>
       <c r="C164">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>18</v>
       </c>
       <c r="B165">
-        <v>7356</v>
+        <v>5728</v>
       </c>
       <c r="C165">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2419,21 +2419,21 @@
         <v>18</v>
       </c>
       <c r="B166">
-        <v>9186</v>
+        <v>7356</v>
       </c>
       <c r="C166">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B167">
-        <v>479</v>
+        <v>9186</v>
       </c>
       <c r="C167">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>19</v>
       </c>
       <c r="B168">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C168">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>19</v>
       </c>
       <c r="B169">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C169">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>19</v>
       </c>
       <c r="B170">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C170">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>19</v>
       </c>
       <c r="B171">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C171">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="B172">
-        <v>1069</v>
+        <v>483</v>
       </c>
       <c r="C172">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>19</v>
       </c>
       <c r="B173">
-        <v>1828</v>
+        <v>1069</v>
       </c>
       <c r="C173">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>19</v>
       </c>
       <c r="B174">
-        <v>3638</v>
+        <v>1828</v>
       </c>
       <c r="C174">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>19</v>
       </c>
       <c r="B175">
-        <v>5421</v>
+        <v>3638</v>
       </c>
       <c r="C175">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>19</v>
       </c>
       <c r="B176">
-        <v>6905</v>
+        <v>5421</v>
       </c>
       <c r="C176">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2540,21 +2540,21 @@
         <v>19</v>
       </c>
       <c r="B177">
-        <v>8936</v>
+        <v>6905</v>
       </c>
       <c r="C177">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B178">
-        <v>484</v>
+        <v>8936</v>
       </c>
       <c r="C178">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>20</v>
       </c>
       <c r="B179">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C179">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>20</v>
       </c>
       <c r="B180">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C180">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>20</v>
       </c>
       <c r="B181">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C181">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>20</v>
       </c>
       <c r="B182">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C182">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>20</v>
       </c>
       <c r="B183">
-        <v>1070</v>
+        <v>488</v>
       </c>
       <c r="C183">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>20</v>
       </c>
       <c r="B184">
-        <v>1829</v>
+        <v>1070</v>
       </c>
       <c r="C184">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>20</v>
       </c>
       <c r="B185">
-        <v>3640</v>
+        <v>1829</v>
       </c>
       <c r="C185">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>20</v>
       </c>
       <c r="B186">
-        <v>5431</v>
+        <v>3640</v>
       </c>
       <c r="C186">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>20</v>
       </c>
       <c r="B187">
-        <v>6908</v>
+        <v>5431</v>
       </c>
       <c r="C187">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2661,21 +2661,21 @@
         <v>20</v>
       </c>
       <c r="B188">
-        <v>8897</v>
+        <v>6908</v>
       </c>
       <c r="C188">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B189">
-        <v>397</v>
+        <v>8897</v>
       </c>
       <c r="C189">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>21</v>
       </c>
       <c r="B190">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C190">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>21</v>
       </c>
       <c r="B191">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C191">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>21</v>
       </c>
       <c r="B192">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C192">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>21</v>
       </c>
       <c r="B193">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C193">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>21</v>
       </c>
       <c r="B194">
-        <v>1557</v>
+        <v>404</v>
       </c>
       <c r="C194">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>21</v>
       </c>
       <c r="B195">
-        <v>2278</v>
+        <v>1557</v>
       </c>
       <c r="C195">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>21</v>
       </c>
       <c r="B196">
-        <v>4660</v>
+        <v>2278</v>
       </c>
       <c r="C196">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>21</v>
       </c>
       <c r="B197">
-        <v>5956</v>
+        <v>4660</v>
       </c>
       <c r="C197">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>21</v>
       </c>
       <c r="B198">
-        <v>7457</v>
+        <v>5956</v>
       </c>
       <c r="C198">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2782,21 +2782,21 @@
         <v>21</v>
       </c>
       <c r="B199">
-        <v>9542</v>
+        <v>7457</v>
       </c>
       <c r="C199">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B200">
-        <v>537</v>
+        <v>9542</v>
       </c>
       <c r="C200">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>22</v>
       </c>
       <c r="B201">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C201">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>22</v>
       </c>
       <c r="B202">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C202">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>22</v>
       </c>
       <c r="B203">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C203">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>22</v>
       </c>
       <c r="B204">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C204">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>22</v>
       </c>
       <c r="B205">
-        <v>1545</v>
+        <v>541</v>
       </c>
       <c r="C205">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>22</v>
       </c>
       <c r="B206">
-        <v>2268</v>
+        <v>1545</v>
       </c>
       <c r="C206">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2870,10 +2870,10 @@
         <v>22</v>
       </c>
       <c r="B207">
-        <v>4308</v>
+        <v>2268</v>
       </c>
       <c r="C207">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2881,10 +2881,10 @@
         <v>22</v>
       </c>
       <c r="B208">
-        <v>4314</v>
+        <v>4308</v>
       </c>
       <c r="C208">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>22</v>
       </c>
       <c r="B209">
-        <v>4328</v>
+        <v>4314</v>
       </c>
       <c r="C209">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>22</v>
       </c>
       <c r="B210">
-        <v>4335</v>
+        <v>4328</v>
       </c>
       <c r="C210">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2914,10 +2914,10 @@
         <v>22</v>
       </c>
       <c r="B211">
-        <v>4801</v>
+        <v>4335</v>
       </c>
       <c r="C211">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2925,10 +2925,10 @@
         <v>22</v>
       </c>
       <c r="B212">
-        <v>5938</v>
+        <v>4801</v>
       </c>
       <c r="C212">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2936,21 +2936,21 @@
         <v>22</v>
       </c>
       <c r="B213">
-        <v>7586</v>
+        <v>5938</v>
       </c>
       <c r="C213">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B214">
-        <v>700</v>
+        <v>7586</v>
       </c>
       <c r="C214">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2958,10 +2958,10 @@
         <v>23</v>
       </c>
       <c r="B215">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C215">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2969,10 +2969,10 @@
         <v>23</v>
       </c>
       <c r="B216">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C216">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>23</v>
       </c>
       <c r="B217">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C217">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>23</v>
       </c>
       <c r="B218">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C218">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3002,10 +3002,10 @@
         <v>23</v>
       </c>
       <c r="B219">
-        <v>1539</v>
+        <v>704</v>
       </c>
       <c r="C219">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>23</v>
       </c>
       <c r="B220">
-        <v>4389</v>
+        <v>1539</v>
       </c>
       <c r="C220">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>23</v>
       </c>
       <c r="B221">
-        <v>4641</v>
+        <v>4389</v>
       </c>
       <c r="C221">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3035,10 +3035,10 @@
         <v>23</v>
       </c>
       <c r="B222">
-        <v>5959</v>
+        <v>4641</v>
       </c>
       <c r="C222">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3046,21 +3046,21 @@
         <v>23</v>
       </c>
       <c r="B223">
-        <v>7450</v>
+        <v>5959</v>
       </c>
       <c r="C223">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B224">
-        <v>561</v>
+        <v>7450</v>
       </c>
       <c r="C224">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3068,10 +3068,10 @@
         <v>24</v>
       </c>
       <c r="B225">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C225">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3079,10 +3079,10 @@
         <v>24</v>
       </c>
       <c r="B226">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C226">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3090,10 +3090,10 @@
         <v>24</v>
       </c>
       <c r="B227">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C227">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>24</v>
       </c>
       <c r="B228">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C228">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>24</v>
       </c>
       <c r="B229">
-        <v>1538</v>
+        <v>565</v>
       </c>
       <c r="C229">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>24</v>
       </c>
       <c r="B230">
-        <v>2245</v>
+        <v>1538</v>
       </c>
       <c r="C230">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>24</v>
       </c>
       <c r="B231">
-        <v>4642</v>
+        <v>2245</v>
       </c>
       <c r="C231">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>24</v>
       </c>
       <c r="B232">
-        <v>5961</v>
+        <v>4642</v>
       </c>
       <c r="C232">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>24</v>
       </c>
       <c r="B233">
-        <v>7426</v>
+        <v>5961</v>
       </c>
       <c r="C233">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3167,21 +3167,21 @@
         <v>24</v>
       </c>
       <c r="B234">
-        <v>9545</v>
+        <v>7426</v>
       </c>
       <c r="C234">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B235">
-        <v>843</v>
+        <v>9545</v>
       </c>
       <c r="C235">
-        <v>2017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>25</v>
       </c>
       <c r="B236">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C236">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>25</v>
       </c>
       <c r="B237">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C237">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>25</v>
       </c>
       <c r="B238">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C238">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>25</v>
       </c>
       <c r="B239">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C239">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>25</v>
       </c>
       <c r="B240">
-        <v>1093</v>
+        <v>847</v>
       </c>
       <c r="C240">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>25</v>
       </c>
       <c r="B241">
-        <v>1872</v>
+        <v>1093</v>
       </c>
       <c r="C241">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>25</v>
       </c>
       <c r="B242">
-        <v>3553</v>
+        <v>1872</v>
       </c>
       <c r="C242">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>25</v>
       </c>
       <c r="B243">
-        <v>5580</v>
+        <v>3553</v>
       </c>
       <c r="C243">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>25</v>
       </c>
       <c r="B244">
-        <v>7038</v>
+        <v>5580</v>
       </c>
       <c r="C244">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3288,21 +3288,21 @@
         <v>25</v>
       </c>
       <c r="B245">
-        <v>8934</v>
+        <v>7038</v>
       </c>
       <c r="C245">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B246">
-        <v>210</v>
+        <v>8934</v>
       </c>
       <c r="C246">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>26</v>
       </c>
       <c r="B247">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C247">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>26</v>
       </c>
       <c r="B248">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C248">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>26</v>
       </c>
       <c r="B249">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C249">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>26</v>
       </c>
       <c r="B250">
-        <v>1673</v>
+        <v>218</v>
       </c>
       <c r="C250">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>26</v>
       </c>
       <c r="B251">
-        <v>2889</v>
+        <v>1673</v>
       </c>
       <c r="C251">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>26</v>
       </c>
       <c r="B252">
-        <v>5342</v>
+        <v>2889</v>
       </c>
       <c r="C252">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>26</v>
       </c>
       <c r="B253">
-        <v>6752</v>
+        <v>5342</v>
       </c>
       <c r="C253">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3387,21 +3387,21 @@
         <v>26</v>
       </c>
       <c r="B254">
-        <v>8520</v>
+        <v>6752</v>
       </c>
       <c r="C254">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B255">
-        <v>22</v>
+        <v>8520</v>
       </c>
       <c r="C255">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>27</v>
       </c>
       <c r="B256">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C256">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>27</v>
       </c>
       <c r="B257">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C257">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="B258">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C258">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>27</v>
       </c>
       <c r="B259">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C259">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>27</v>
       </c>
       <c r="B260">
-        <v>1624</v>
+        <v>165</v>
       </c>
       <c r="C260">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>27</v>
       </c>
       <c r="B261">
-        <v>2187</v>
+        <v>1624</v>
       </c>
       <c r="C261">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>27</v>
       </c>
       <c r="B262">
-        <v>3141</v>
+        <v>2187</v>
       </c>
       <c r="C262">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>27</v>
       </c>
       <c r="B263">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="C263">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>27</v>
       </c>
       <c r="B264">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="C264">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="B265">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="C265">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>27</v>
       </c>
       <c r="B266">
-        <v>4912</v>
+        <v>3147</v>
       </c>
       <c r="C266">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>27</v>
       </c>
       <c r="B267">
-        <v>6089</v>
+        <v>4912</v>
       </c>
       <c r="C267">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>27</v>
       </c>
       <c r="B268">
-        <v>7593</v>
+        <v>6089</v>
       </c>
       <c r="C268">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3552,21 +3552,21 @@
         <v>27</v>
       </c>
       <c r="B269">
-        <v>8031</v>
+        <v>7593</v>
       </c>
       <c r="C269">
-        <v>20082009</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B270">
-        <v>28</v>
+        <v>8031</v>
       </c>
       <c r="C270">
-        <v>20162017</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>28</v>
       </c>
       <c r="B271">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C271">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>28</v>
       </c>
       <c r="B272">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C272">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>28</v>
       </c>
       <c r="B273">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C273">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>28</v>
       </c>
       <c r="B274">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="C274">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>28</v>
       </c>
       <c r="B275">
-        <v>1564</v>
+        <v>166</v>
       </c>
       <c r="C275">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>28</v>
       </c>
       <c r="B276">
-        <v>2191</v>
+        <v>1564</v>
       </c>
       <c r="C276">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>28</v>
       </c>
       <c r="B277">
-        <v>3950</v>
+        <v>2191</v>
       </c>
       <c r="C277">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>28</v>
       </c>
       <c r="B278">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C278">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>28</v>
       </c>
       <c r="B279">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="C279">
-        <v>20112012</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>28</v>
       </c>
       <c r="B280">
-        <v>4845</v>
+        <v>3952</v>
       </c>
       <c r="C280">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>28</v>
       </c>
       <c r="B281">
-        <v>4923</v>
+        <v>4845</v>
       </c>
       <c r="C281">
-        <v>20102011</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>28</v>
       </c>
       <c r="B282">
-        <v>6017</v>
+        <v>4923</v>
       </c>
       <c r="C282">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3706,21 +3706,21 @@
         <v>28</v>
       </c>
       <c r="B283">
-        <v>7570</v>
+        <v>6017</v>
       </c>
       <c r="C283">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B284">
-        <v>32</v>
+        <v>7570</v>
       </c>
       <c r="C284">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>29</v>
       </c>
       <c r="B285">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C285">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>29</v>
       </c>
       <c r="B286">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="C286">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>29</v>
       </c>
       <c r="B287">
-        <v>1574</v>
+        <v>170</v>
       </c>
       <c r="C287">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>29</v>
       </c>
       <c r="B288">
-        <v>2192</v>
+        <v>1574</v>
       </c>
       <c r="C288">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>29</v>
       </c>
       <c r="B289">
-        <v>4844</v>
+        <v>2192</v>
       </c>
       <c r="C289">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>29</v>
       </c>
       <c r="B290">
-        <v>6015</v>
+        <v>4844</v>
       </c>
       <c r="C290">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3794,21 +3794,21 @@
         <v>29</v>
       </c>
       <c r="B291">
-        <v>7574</v>
+        <v>6015</v>
       </c>
       <c r="C291">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B292">
-        <v>392</v>
+        <v>7574</v>
       </c>
       <c r="C292">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>30</v>
       </c>
       <c r="B293">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C293">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>30</v>
       </c>
       <c r="B294">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C294">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>30</v>
       </c>
       <c r="B295">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C295">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>30</v>
       </c>
       <c r="B296">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C296">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>30</v>
       </c>
       <c r="B297">
-        <v>1576</v>
+        <v>396</v>
       </c>
       <c r="C297">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="B298">
-        <v>2287</v>
+        <v>1576</v>
       </c>
       <c r="C298">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>30</v>
       </c>
       <c r="B299">
-        <v>4124</v>
+        <v>2287</v>
       </c>
       <c r="C299">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>30</v>
       </c>
       <c r="B300">
-        <v>4154</v>
+        <v>4124</v>
       </c>
       <c r="C300">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="B301">
-        <v>5018</v>
+        <v>4154</v>
       </c>
       <c r="C301">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>30</v>
       </c>
       <c r="B302">
-        <v>6088</v>
+        <v>5018</v>
       </c>
       <c r="C302">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3926,21 +3926,21 @@
         <v>30</v>
       </c>
       <c r="B303">
-        <v>7729</v>
+        <v>6088</v>
       </c>
       <c r="C303">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B304">
-        <v>9</v>
+        <v>7729</v>
       </c>
       <c r="C304">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>31</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C305">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>31</v>
       </c>
       <c r="B306">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C306">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>31</v>
       </c>
       <c r="B307">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C307">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>31</v>
       </c>
       <c r="B308">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="C308">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>31</v>
       </c>
       <c r="B309">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="C309">
-        <v>20122013</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>31</v>
       </c>
       <c r="B310">
-        <v>1625</v>
+        <v>246</v>
       </c>
       <c r="C310">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>31</v>
       </c>
       <c r="B311">
-        <v>2012</v>
+        <v>1625</v>
       </c>
       <c r="C311">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>31</v>
       </c>
       <c r="B312">
-        <v>3119</v>
+        <v>2012</v>
       </c>
       <c r="C312">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>31</v>
       </c>
       <c r="B313">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="C313">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>31</v>
       </c>
       <c r="B314">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="C314">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>31</v>
       </c>
       <c r="B315">
-        <v>3131</v>
+        <v>3125</v>
       </c>
       <c r="C315">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>31</v>
       </c>
       <c r="B316">
-        <v>3137</v>
+        <v>3131</v>
       </c>
       <c r="C316">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>31</v>
       </c>
       <c r="B317">
-        <v>4759</v>
+        <v>3137</v>
       </c>
       <c r="C317">
-        <v>20202021</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4091,10 +4091,10 @@
         <v>31</v>
       </c>
       <c r="B318">
-        <v>6135</v>
+        <v>4759</v>
       </c>
       <c r="C318">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4102,21 +4102,21 @@
         <v>31</v>
       </c>
       <c r="B319">
-        <v>7704</v>
+        <v>6135</v>
       </c>
       <c r="C319">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B320">
-        <v>58</v>
+        <v>7704</v>
       </c>
       <c r="C320">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4124,10 +4124,10 @@
         <v>32</v>
       </c>
       <c r="B321">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C321">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4135,10 +4135,10 @@
         <v>32</v>
       </c>
       <c r="B322">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C322">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>32</v>
       </c>
       <c r="B323">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C323">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>32</v>
       </c>
       <c r="B324">
-        <v>1191</v>
+        <v>72</v>
       </c>
       <c r="C324">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>32</v>
       </c>
       <c r="B325">
-        <v>1874</v>
+        <v>1191</v>
       </c>
       <c r="C325">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>32</v>
       </c>
       <c r="B326">
-        <v>3645</v>
+        <v>1874</v>
       </c>
       <c r="C326">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>32</v>
       </c>
       <c r="B327">
-        <v>5477</v>
+        <v>3645</v>
       </c>
       <c r="C327">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>32</v>
       </c>
       <c r="B328">
-        <v>7120</v>
+        <v>5477</v>
       </c>
       <c r="C328">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4212,21 +4212,21 @@
         <v>32</v>
       </c>
       <c r="B329">
-        <v>8935</v>
+        <v>7120</v>
       </c>
       <c r="C329">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B330">
-        <v>65</v>
+        <v>8935</v>
       </c>
       <c r="C330">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>33</v>
       </c>
       <c r="B331">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C331">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>33</v>
       </c>
       <c r="B332">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C332">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>33</v>
       </c>
       <c r="B333">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C333">
-        <v>20152016</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>33</v>
       </c>
       <c r="B334">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="C334">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>33</v>
       </c>
       <c r="B335">
-        <v>1508</v>
+        <v>180</v>
       </c>
       <c r="C335">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>33</v>
       </c>
       <c r="B336">
-        <v>2392</v>
+        <v>1508</v>
       </c>
       <c r="C336">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>33</v>
       </c>
       <c r="B337">
-        <v>4127</v>
+        <v>2392</v>
       </c>
       <c r="C337">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="B338">
-        <v>4136</v>
+        <v>4127</v>
       </c>
       <c r="C338">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>33</v>
       </c>
       <c r="B339">
-        <v>4193</v>
+        <v>4136</v>
       </c>
       <c r="C339">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>33</v>
       </c>
       <c r="B340">
-        <v>4199</v>
+        <v>4193</v>
       </c>
       <c r="C340">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>33</v>
       </c>
       <c r="B341">
-        <v>4505</v>
+        <v>4199</v>
       </c>
       <c r="C341">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>33</v>
       </c>
       <c r="B342">
-        <v>6019</v>
+        <v>4505</v>
       </c>
       <c r="C342">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4366,21 +4366,21 @@
         <v>33</v>
       </c>
       <c r="B343">
-        <v>7500</v>
+        <v>6019</v>
       </c>
       <c r="C343">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B344">
-        <v>73</v>
+        <v>7500</v>
       </c>
       <c r="C344">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>34</v>
       </c>
       <c r="B345">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C345">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>34</v>
       </c>
       <c r="B346">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C346">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>34</v>
       </c>
       <c r="B347">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C347">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>34</v>
       </c>
       <c r="B348">
-        <v>1579</v>
+        <v>181</v>
       </c>
       <c r="C348">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>34</v>
       </c>
       <c r="B349">
-        <v>2396</v>
+        <v>1579</v>
       </c>
       <c r="C349">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>34</v>
       </c>
       <c r="B350">
-        <v>4164</v>
+        <v>2396</v>
       </c>
       <c r="C350">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>34</v>
       </c>
       <c r="B351">
-        <v>4185</v>
+        <v>4164</v>
       </c>
       <c r="C351">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>34</v>
       </c>
       <c r="B352">
-        <v>4645</v>
+        <v>4185</v>
       </c>
       <c r="C352">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>34</v>
       </c>
       <c r="B353">
-        <v>6018</v>
+        <v>4645</v>
       </c>
       <c r="C353">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4487,21 +4487,21 @@
         <v>34</v>
       </c>
       <c r="B354">
-        <v>7501</v>
+        <v>6018</v>
       </c>
       <c r="C354">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B355">
-        <v>83</v>
+        <v>7501</v>
       </c>
       <c r="C355">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>35</v>
       </c>
       <c r="B356">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C356">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>35</v>
       </c>
       <c r="B357">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C357">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>35</v>
       </c>
       <c r="B358">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="C358">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>35</v>
       </c>
       <c r="B359">
-        <v>1578</v>
+        <v>188</v>
       </c>
       <c r="C359">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>35</v>
       </c>
       <c r="B360">
-        <v>4131</v>
+        <v>1578</v>
       </c>
       <c r="C360">
-        <v>20132014</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>35</v>
       </c>
       <c r="B361">
-        <v>4168</v>
+        <v>4131</v>
       </c>
       <c r="C361">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>35</v>
       </c>
       <c r="B362">
-        <v>4195</v>
+        <v>4168</v>
       </c>
       <c r="C362">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>35</v>
       </c>
       <c r="B363">
-        <v>4200</v>
+        <v>4195</v>
       </c>
       <c r="C363">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>35</v>
       </c>
       <c r="B364">
-        <v>4388</v>
+        <v>4200</v>
       </c>
       <c r="C364">
-        <v>20192020</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>35</v>
       </c>
       <c r="B365">
-        <v>4676</v>
+        <v>4388</v>
       </c>
       <c r="C365">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>35</v>
       </c>
       <c r="B366">
-        <v>6020</v>
+        <v>4676</v>
       </c>
       <c r="C366">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4630,21 +4630,21 @@
         <v>35</v>
       </c>
       <c r="B367">
-        <v>7499</v>
+        <v>6020</v>
       </c>
       <c r="C367">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B368">
-        <v>3</v>
+        <v>7499</v>
       </c>
       <c r="C368">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>36</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C369">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>36</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C370">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>36</v>
       </c>
       <c r="B371">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C371">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>36</v>
       </c>
       <c r="B372">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C372">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>36</v>
       </c>
       <c r="B373">
-        <v>1636</v>
+        <v>177</v>
       </c>
       <c r="C373">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>36</v>
       </c>
       <c r="B374">
-        <v>4105</v>
+        <v>1636</v>
       </c>
       <c r="C374">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>36</v>
       </c>
       <c r="B375">
-        <v>4123</v>
+        <v>4105</v>
       </c>
       <c r="C375">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>36</v>
       </c>
       <c r="B376">
-        <v>4133</v>
+        <v>4123</v>
       </c>
       <c r="C376">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>36</v>
       </c>
       <c r="B377">
-        <v>4140</v>
+        <v>4133</v>
       </c>
       <c r="C377">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>36</v>
       </c>
       <c r="B378">
-        <v>4392</v>
+        <v>4140</v>
       </c>
       <c r="C378">
-        <v>20192020</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>36</v>
       </c>
       <c r="B379">
-        <v>4624</v>
+        <v>4392</v>
       </c>
       <c r="C379">
-        <v>20082009</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>36</v>
       </c>
       <c r="B380">
-        <v>4628</v>
+        <v>4624</v>
       </c>
       <c r="C380">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>36</v>
       </c>
       <c r="B381">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="C381">
-        <v>20062007</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>36</v>
       </c>
       <c r="B382">
-        <v>4673</v>
+        <v>4629</v>
       </c>
       <c r="C382">
-        <v>20202021</v>
+        <v>20062007</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>36</v>
       </c>
       <c r="B383">
-        <v>6192</v>
+        <v>4673</v>
       </c>
       <c r="C383">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4817,21 +4817,21 @@
         <v>36</v>
       </c>
       <c r="B384">
-        <v>7664</v>
+        <v>6192</v>
       </c>
       <c r="C384">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B385">
-        <v>207</v>
+        <v>7664</v>
       </c>
       <c r="C385">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>37</v>
       </c>
       <c r="B386">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C386">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>37</v>
       </c>
       <c r="B387">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C387">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>37</v>
       </c>
       <c r="B388">
-        <v>933</v>
+        <v>209</v>
       </c>
       <c r="C388">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>37</v>
       </c>
       <c r="B389">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C389">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>37</v>
       </c>
       <c r="B390">
-        <v>1752</v>
+        <v>934</v>
       </c>
       <c r="C390">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>37</v>
       </c>
       <c r="B391">
-        <v>2667</v>
+        <v>1752</v>
       </c>
       <c r="C391">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>37</v>
       </c>
       <c r="B392">
-        <v>4957</v>
+        <v>2667</v>
       </c>
       <c r="C392">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>37</v>
       </c>
       <c r="B393">
-        <v>6282</v>
+        <v>4957</v>
       </c>
       <c r="C393">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4927,21 +4927,21 @@
         <v>37</v>
       </c>
       <c r="B394">
-        <v>7954</v>
+        <v>6282</v>
       </c>
       <c r="C394">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B395">
-        <v>726</v>
+        <v>7954</v>
       </c>
       <c r="C395">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>38</v>
       </c>
       <c r="B396">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C396">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>38</v>
       </c>
       <c r="B397">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C397">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>38</v>
       </c>
       <c r="B398">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C398">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>38</v>
       </c>
       <c r="B399">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C399">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>38</v>
       </c>
       <c r="B400">
-        <v>1566</v>
+        <v>731</v>
       </c>
       <c r="C400">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>38</v>
       </c>
       <c r="B401">
-        <v>2282</v>
+        <v>1566</v>
       </c>
       <c r="C401">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>38</v>
       </c>
       <c r="B402">
-        <v>4534</v>
+        <v>2282</v>
       </c>
       <c r="C402">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>38</v>
       </c>
       <c r="B403">
-        <v>5936</v>
+        <v>4534</v>
       </c>
       <c r="C403">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5037,21 +5037,21 @@
         <v>38</v>
       </c>
       <c r="B404">
-        <v>7967</v>
+        <v>5936</v>
       </c>
       <c r="C404">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B405">
-        <v>68</v>
+        <v>7967</v>
       </c>
       <c r="C405">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>39</v>
       </c>
       <c r="B406">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C406">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>39</v>
       </c>
       <c r="B407">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C407">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>39</v>
       </c>
       <c r="B408">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C408">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>39</v>
       </c>
       <c r="B409">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="C409">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>39</v>
       </c>
       <c r="B410">
-        <v>1680</v>
+        <v>182</v>
       </c>
       <c r="C410">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>39</v>
       </c>
       <c r="B411">
-        <v>2588</v>
+        <v>1680</v>
       </c>
       <c r="C411">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>39</v>
       </c>
       <c r="B412">
-        <v>3940</v>
+        <v>2588</v>
       </c>
       <c r="C412">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>39</v>
       </c>
       <c r="B413">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C413">
-        <v>20082009</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>39</v>
       </c>
       <c r="B414">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C414">
-        <v>20092010</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>39</v>
       </c>
       <c r="B415">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="C415">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5169,10 +5169,10 @@
         <v>39</v>
       </c>
       <c r="B416">
-        <v>4889</v>
+        <v>3945</v>
       </c>
       <c r="C416">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>39</v>
       </c>
       <c r="B417">
-        <v>6198</v>
+        <v>4889</v>
       </c>
       <c r="C417">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5191,21 +5191,21 @@
         <v>39</v>
       </c>
       <c r="B418">
-        <v>7608</v>
+        <v>6198</v>
       </c>
       <c r="C418">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B419">
-        <v>77</v>
+        <v>7608</v>
       </c>
       <c r="C419">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>40</v>
       </c>
       <c r="B420">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C420">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>40</v>
       </c>
       <c r="B421">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C421">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>40</v>
       </c>
       <c r="B422">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C422">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>40</v>
       </c>
       <c r="B423">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C423">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>40</v>
       </c>
       <c r="B424">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="C424">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>40</v>
       </c>
       <c r="B425">
-        <v>1749</v>
+        <v>183</v>
       </c>
       <c r="C425">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>40</v>
       </c>
       <c r="B426">
-        <v>2642</v>
+        <v>1749</v>
       </c>
       <c r="C426">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>40</v>
       </c>
       <c r="B427">
-        <v>3946</v>
+        <v>2642</v>
       </c>
       <c r="C427">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="B428">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C428">
-        <v>20102011</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>40</v>
       </c>
       <c r="B429">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="C429">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>40</v>
       </c>
       <c r="B430">
-        <v>4972</v>
+        <v>3949</v>
       </c>
       <c r="C430">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>40</v>
       </c>
       <c r="B431">
-        <v>6205</v>
+        <v>4972</v>
       </c>
       <c r="C431">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5345,21 +5345,21 @@
         <v>40</v>
       </c>
       <c r="B432">
-        <v>7864</v>
+        <v>6205</v>
       </c>
       <c r="C432">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B433">
-        <v>162</v>
+        <v>7864</v>
       </c>
       <c r="C433">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>41</v>
       </c>
       <c r="B434">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="C434">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>41</v>
       </c>
       <c r="B435">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C435">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>41</v>
       </c>
       <c r="B436">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C436">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>41</v>
       </c>
       <c r="B437">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C437">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>41</v>
       </c>
       <c r="B438">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C438">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>41</v>
       </c>
       <c r="B439">
-        <v>1071</v>
+        <v>254</v>
       </c>
       <c r="C439">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>41</v>
       </c>
       <c r="B440">
-        <v>1864</v>
+        <v>1071</v>
       </c>
       <c r="C440">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>41</v>
       </c>
       <c r="B441">
-        <v>3686</v>
+        <v>1864</v>
       </c>
       <c r="C441">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>41</v>
       </c>
       <c r="B442">
-        <v>5434</v>
+        <v>3686</v>
       </c>
       <c r="C442">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>41</v>
       </c>
       <c r="B443">
-        <v>6935</v>
+        <v>5434</v>
       </c>
       <c r="C443">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5477,21 +5477,21 @@
         <v>41</v>
       </c>
       <c r="B444">
-        <v>8810</v>
+        <v>6935</v>
       </c>
       <c r="C444">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B445">
-        <v>130</v>
+        <v>8810</v>
       </c>
       <c r="C445">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>42</v>
       </c>
       <c r="B446">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C446">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>42</v>
       </c>
       <c r="B447">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C447">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>42</v>
       </c>
       <c r="B448">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C448">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>42</v>
       </c>
       <c r="B449">
-        <v>1073</v>
+        <v>153</v>
       </c>
       <c r="C449">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>42</v>
       </c>
       <c r="B450">
-        <v>1865</v>
+        <v>1073</v>
       </c>
       <c r="C450">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>42</v>
       </c>
       <c r="B451">
-        <v>3684</v>
+        <v>1865</v>
       </c>
       <c r="C451">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>42</v>
       </c>
       <c r="B452">
-        <v>5495</v>
+        <v>3684</v>
       </c>
       <c r="C452">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>42</v>
       </c>
       <c r="B453">
-        <v>6936</v>
+        <v>5495</v>
       </c>
       <c r="C453">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5587,21 +5587,21 @@
         <v>42</v>
       </c>
       <c r="B454">
-        <v>8811</v>
+        <v>6936</v>
       </c>
       <c r="C454">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B455">
-        <v>313</v>
+        <v>8811</v>
       </c>
       <c r="C455">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>43</v>
       </c>
       <c r="B456">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C456">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>43</v>
       </c>
       <c r="B457">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C457">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>43</v>
       </c>
       <c r="B458">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C458">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>43</v>
       </c>
       <c r="B459">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C459">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>43</v>
       </c>
       <c r="B460">
-        <v>1583</v>
+        <v>317</v>
       </c>
       <c r="C460">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>43</v>
       </c>
       <c r="B461">
-        <v>2315</v>
+        <v>1583</v>
       </c>
       <c r="C461">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>43</v>
       </c>
       <c r="B462">
-        <v>4664</v>
+        <v>2315</v>
       </c>
       <c r="C462">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>43</v>
       </c>
       <c r="B463">
-        <v>6104</v>
+        <v>4664</v>
       </c>
       <c r="C463">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5697,21 +5697,21 @@
         <v>43</v>
       </c>
       <c r="B464">
-        <v>7489</v>
+        <v>6104</v>
       </c>
       <c r="C464">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B465">
-        <v>307</v>
+        <v>7489</v>
       </c>
       <c r="C465">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>44</v>
       </c>
       <c r="B466">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C466">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>44</v>
       </c>
       <c r="B467">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C467">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>44</v>
       </c>
       <c r="B468">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C468">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>44</v>
       </c>
       <c r="B469">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C469">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>44</v>
       </c>
       <c r="B470">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C470">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>44</v>
       </c>
       <c r="B471">
-        <v>1582</v>
+        <v>312</v>
       </c>
       <c r="C471">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>44</v>
       </c>
       <c r="B472">
-        <v>2270</v>
+        <v>1582</v>
       </c>
       <c r="C472">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>44</v>
       </c>
       <c r="B473">
-        <v>4507</v>
+        <v>2270</v>
       </c>
       <c r="C473">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>44</v>
       </c>
       <c r="B474">
-        <v>6038</v>
+        <v>4507</v>
       </c>
       <c r="C474">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>44</v>
       </c>
       <c r="B475">
-        <v>7425</v>
+        <v>6038</v>
       </c>
       <c r="C475">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5829,21 +5829,21 @@
         <v>44</v>
       </c>
       <c r="B476">
-        <v>9525</v>
+        <v>7425</v>
       </c>
       <c r="C476">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B477">
-        <v>55</v>
+        <v>9525</v>
       </c>
       <c r="C477">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>45</v>
       </c>
       <c r="B478">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C478">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>45</v>
       </c>
       <c r="B479">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C479">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>45</v>
       </c>
       <c r="B480">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="C480">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>45</v>
       </c>
       <c r="B481">
-        <v>1584</v>
+        <v>179</v>
       </c>
       <c r="C481">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>45</v>
       </c>
       <c r="B482">
-        <v>2273</v>
+        <v>1584</v>
       </c>
       <c r="C482">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>45</v>
       </c>
       <c r="B483">
-        <v>4228</v>
+        <v>2273</v>
       </c>
       <c r="C483">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="B484">
-        <v>4236</v>
+        <v>4228</v>
       </c>
       <c r="C484">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>45</v>
       </c>
       <c r="B485">
-        <v>4243</v>
+        <v>4236</v>
       </c>
       <c r="C485">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>45</v>
       </c>
       <c r="B486">
-        <v>4246</v>
+        <v>4243</v>
       </c>
       <c r="C486">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>45</v>
       </c>
       <c r="B487">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="C487">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>45</v>
       </c>
       <c r="B488">
-        <v>4748</v>
+        <v>4247</v>
       </c>
       <c r="C488">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>45</v>
       </c>
       <c r="B489">
-        <v>5950</v>
+        <v>4748</v>
       </c>
       <c r="C489">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5983,21 +5983,21 @@
         <v>45</v>
       </c>
       <c r="B490">
-        <v>7484</v>
+        <v>5950</v>
       </c>
       <c r="C490">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B491">
-        <v>51</v>
+        <v>7484</v>
       </c>
       <c r="C491">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>46</v>
       </c>
       <c r="B492">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C492">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>46</v>
       </c>
       <c r="B493">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C493">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>46</v>
       </c>
       <c r="B494">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C494">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>46</v>
       </c>
       <c r="B495">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="C495">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>46</v>
       </c>
       <c r="B496">
-        <v>1585</v>
+        <v>178</v>
       </c>
       <c r="C496">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>46</v>
       </c>
       <c r="B497">
-        <v>2272</v>
+        <v>1585</v>
       </c>
       <c r="C497">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>46</v>
       </c>
       <c r="B498">
-        <v>4226</v>
+        <v>2272</v>
       </c>
       <c r="C498">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>46</v>
       </c>
       <c r="B499">
-        <v>4234</v>
+        <v>4226</v>
       </c>
       <c r="C499">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>46</v>
       </c>
       <c r="B500">
-        <v>4746</v>
+        <v>4234</v>
       </c>
       <c r="C500">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>46</v>
       </c>
       <c r="B501">
-        <v>5951</v>
+        <v>4746</v>
       </c>
       <c r="C501">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6115,21 +6115,21 @@
         <v>46</v>
       </c>
       <c r="B502">
-        <v>7482</v>
+        <v>5951</v>
       </c>
       <c r="C502">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B503">
-        <v>1366</v>
+        <v>7482</v>
       </c>
       <c r="C503">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>47</v>
       </c>
       <c r="B504">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C504">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>47</v>
       </c>
       <c r="B505">
-        <v>1586</v>
+        <v>1367</v>
       </c>
       <c r="C505">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>47</v>
       </c>
       <c r="B506">
-        <v>2275</v>
+        <v>1586</v>
       </c>
       <c r="C506">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>47</v>
       </c>
       <c r="B507">
-        <v>4749</v>
+        <v>2275</v>
       </c>
       <c r="C507">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>47</v>
       </c>
       <c r="B508">
-        <v>6098</v>
+        <v>4749</v>
       </c>
       <c r="C508">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6192,21 +6192,21 @@
         <v>47</v>
       </c>
       <c r="B509">
-        <v>7702</v>
+        <v>6098</v>
       </c>
       <c r="C509">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B510">
-        <v>44</v>
+        <v>7702</v>
       </c>
       <c r="C510">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6214,10 +6214,10 @@
         <v>48</v>
       </c>
       <c r="B511">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C511">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6225,10 +6225,10 @@
         <v>48</v>
       </c>
       <c r="B512">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C512">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>48</v>
       </c>
       <c r="B513">
-        <v>993</v>
+        <v>46</v>
       </c>
       <c r="C513">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>48</v>
       </c>
       <c r="B514">
-        <v>1839</v>
+        <v>993</v>
       </c>
       <c r="C514">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>48</v>
       </c>
       <c r="B515">
-        <v>3695</v>
+        <v>1839</v>
       </c>
       <c r="C515">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>48</v>
       </c>
       <c r="B516">
-        <v>4224</v>
+        <v>3695</v>
       </c>
       <c r="C516">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>48</v>
       </c>
       <c r="B517">
-        <v>4231</v>
+        <v>4224</v>
       </c>
       <c r="C517">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>48</v>
       </c>
       <c r="B518">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="C518">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>48</v>
       </c>
       <c r="B519">
-        <v>4242</v>
+        <v>4237</v>
       </c>
       <c r="C519">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>48</v>
       </c>
       <c r="B520">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="C520">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>48</v>
       </c>
       <c r="B521">
-        <v>5496</v>
+        <v>4244</v>
       </c>
       <c r="C521">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>48</v>
       </c>
       <c r="B522">
-        <v>7048</v>
+        <v>5496</v>
       </c>
       <c r="C522">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6346,21 +6346,21 @@
         <v>48</v>
       </c>
       <c r="B523">
-        <v>8739</v>
+        <v>7048</v>
       </c>
       <c r="C523">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B524">
-        <v>1099</v>
+        <v>8739</v>
       </c>
       <c r="C524">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>49</v>
       </c>
       <c r="B525">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C525">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>49</v>
       </c>
       <c r="B526">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C526">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>49</v>
       </c>
       <c r="B527">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C527">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>49</v>
       </c>
       <c r="B528">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C528">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>49</v>
       </c>
       <c r="B529">
-        <v>1843</v>
+        <v>1105</v>
       </c>
       <c r="C529">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>49</v>
       </c>
       <c r="B530">
-        <v>3643</v>
+        <v>1843</v>
       </c>
       <c r="C530">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>49</v>
       </c>
       <c r="B531">
-        <v>5503</v>
+        <v>3643</v>
       </c>
       <c r="C531">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>49</v>
       </c>
       <c r="B532">
-        <v>6960</v>
+        <v>5503</v>
       </c>
       <c r="C532">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6456,21 +6456,21 @@
         <v>49</v>
       </c>
       <c r="B533">
-        <v>8783</v>
+        <v>6960</v>
       </c>
       <c r="C533">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B534">
-        <v>612</v>
+        <v>8783</v>
       </c>
       <c r="C534">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>50</v>
       </c>
       <c r="B535">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C535">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>50</v>
       </c>
       <c r="B536">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C536">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>50</v>
       </c>
       <c r="B537">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C537">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>50</v>
       </c>
       <c r="B538">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C538">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>50</v>
       </c>
       <c r="B539">
-        <v>1125</v>
+        <v>616</v>
       </c>
       <c r="C539">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>50</v>
       </c>
       <c r="B540">
-        <v>1881</v>
+        <v>1125</v>
       </c>
       <c r="C540">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>50</v>
       </c>
       <c r="B541">
-        <v>3702</v>
+        <v>1881</v>
       </c>
       <c r="C541">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>50</v>
       </c>
       <c r="B542">
-        <v>5627</v>
+        <v>3702</v>
       </c>
       <c r="C542">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>50</v>
       </c>
       <c r="B543">
-        <v>6966</v>
+        <v>5627</v>
       </c>
       <c r="C543">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6577,21 +6577,21 @@
         <v>50</v>
       </c>
       <c r="B544">
-        <v>8837</v>
+        <v>6966</v>
       </c>
       <c r="C544">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B545">
-        <v>255</v>
+        <v>8837</v>
       </c>
       <c r="C545">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>51</v>
       </c>
       <c r="B546">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C546">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>51</v>
       </c>
       <c r="B547">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C547">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>51</v>
       </c>
       <c r="B548">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C548">
-        <v>20162017</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>51</v>
       </c>
       <c r="B549">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C549">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>51</v>
       </c>
       <c r="B550">
-        <v>1589</v>
+        <v>279</v>
       </c>
       <c r="C550">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>51</v>
       </c>
       <c r="B551">
-        <v>2328</v>
+        <v>1589</v>
       </c>
       <c r="C551">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>51</v>
       </c>
       <c r="B552">
-        <v>3972</v>
+        <v>2328</v>
       </c>
       <c r="C552">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>51</v>
       </c>
       <c r="B553">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="C553">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>51</v>
       </c>
       <c r="B554">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="C554">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>51</v>
       </c>
       <c r="B555">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="C555">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>51</v>
       </c>
       <c r="B556">
-        <v>4760</v>
+        <v>3975</v>
       </c>
       <c r="C556">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>51</v>
       </c>
       <c r="B557">
-        <v>5948</v>
+        <v>4760</v>
       </c>
       <c r="C557">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6731,32 +6731,32 @@
         <v>51</v>
       </c>
       <c r="B558">
-        <v>7428</v>
+        <v>5948</v>
       </c>
       <c r="C558">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B559">
-        <v>13</v>
+        <v>7428</v>
       </c>
       <c r="C559">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B560">
-        <v>14</v>
+        <v>9553</v>
       </c>
       <c r="C560">
-        <v>20152016</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>52</v>
       </c>
       <c r="B561">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C561">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>52</v>
       </c>
       <c r="B562">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C562">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>52</v>
       </c>
       <c r="B563">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="C563">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>52</v>
       </c>
       <c r="B564">
-        <v>1593</v>
+        <v>18</v>
       </c>
       <c r="C564">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>52</v>
       </c>
       <c r="B565">
-        <v>2321</v>
+        <v>173</v>
       </c>
       <c r="C565">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>52</v>
       </c>
       <c r="B566">
-        <v>4225</v>
+        <v>1593</v>
       </c>
       <c r="C566">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>52</v>
       </c>
       <c r="B567">
-        <v>4232</v>
+        <v>2321</v>
       </c>
       <c r="C567">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>52</v>
       </c>
       <c r="B568">
-        <v>4238</v>
+        <v>4225</v>
       </c>
       <c r="C568">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>52</v>
       </c>
       <c r="B569">
-        <v>4885</v>
+        <v>4232</v>
       </c>
       <c r="C569">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>52</v>
       </c>
       <c r="B570">
-        <v>6117</v>
+        <v>4238</v>
       </c>
       <c r="C570">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6874,32 +6874,32 @@
         <v>52</v>
       </c>
       <c r="B571">
-        <v>7731</v>
+        <v>4885</v>
       </c>
       <c r="C571">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B572">
-        <v>174</v>
+        <v>6117</v>
       </c>
       <c r="C572">
-        <v>20172018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B573">
-        <v>965</v>
+        <v>7731</v>
       </c>
       <c r="C573">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>53</v>
       </c>
       <c r="B574">
-        <v>966</v>
+        <v>174</v>
       </c>
       <c r="C574">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>53</v>
       </c>
       <c r="B575">
-        <v>1594</v>
+        <v>965</v>
       </c>
       <c r="C575">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>53</v>
       </c>
       <c r="B576">
-        <v>2320</v>
+        <v>966</v>
       </c>
       <c r="C576">
-        <v>20192020</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>53</v>
       </c>
       <c r="B577">
-        <v>4284</v>
+        <v>1594</v>
       </c>
       <c r="C577">
-        <v>20142015</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>53</v>
       </c>
       <c r="B578">
-        <v>4291</v>
+        <v>2320</v>
       </c>
       <c r="C578">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>53</v>
       </c>
       <c r="B579">
-        <v>4309</v>
+        <v>4284</v>
       </c>
       <c r="C579">
-        <v>20102011</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>53</v>
       </c>
       <c r="B580">
-        <v>4322</v>
+        <v>4291</v>
       </c>
       <c r="C580">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>53</v>
       </c>
       <c r="B581">
-        <v>4886</v>
+        <v>4309</v>
       </c>
       <c r="C581">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>53</v>
       </c>
       <c r="B582">
-        <v>6116</v>
+        <v>4322</v>
       </c>
       <c r="C582">
-        <v>20212022</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7006,32 +7006,32 @@
         <v>53</v>
       </c>
       <c r="B583">
-        <v>7732</v>
+        <v>4886</v>
       </c>
       <c r="C583">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B584">
-        <v>449</v>
+        <v>6116</v>
       </c>
       <c r="C584">
-        <v>2017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B585">
-        <v>450</v>
+        <v>7732</v>
       </c>
       <c r="C585">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>54</v>
       </c>
       <c r="B586">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C586">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>54</v>
       </c>
       <c r="B587">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C587">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>54</v>
       </c>
       <c r="B588">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C588">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>54</v>
       </c>
       <c r="B589">
-        <v>990</v>
+        <v>452</v>
       </c>
       <c r="C589">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>54</v>
       </c>
       <c r="B590">
-        <v>1844</v>
+        <v>453</v>
       </c>
       <c r="C590">
-        <v>2019</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>54</v>
       </c>
       <c r="B591">
-        <v>3570</v>
+        <v>990</v>
       </c>
       <c r="C591">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>54</v>
       </c>
       <c r="B592">
-        <v>5534</v>
+        <v>1844</v>
       </c>
       <c r="C592">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>54</v>
       </c>
       <c r="B593">
-        <v>6967</v>
+        <v>3570</v>
       </c>
       <c r="C593">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7127,32 +7127,32 @@
         <v>54</v>
       </c>
       <c r="B594">
-        <v>8741</v>
+        <v>5534</v>
       </c>
       <c r="C594">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B595">
-        <v>1086</v>
+        <v>6967</v>
       </c>
       <c r="C595">
-        <v>20172018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="A596" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B596">
-        <v>1087</v>
+        <v>8741</v>
       </c>
       <c r="C596">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>55</v>
       </c>
       <c r="B597">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C597">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>55</v>
       </c>
       <c r="B598">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C598">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>55</v>
       </c>
       <c r="B599">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C599">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>55</v>
       </c>
       <c r="B600">
-        <v>1596</v>
+        <v>1089</v>
       </c>
       <c r="C600">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>55</v>
       </c>
       <c r="B601">
-        <v>2312</v>
+        <v>1090</v>
       </c>
       <c r="C601">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>55</v>
       </c>
       <c r="B602">
-        <v>4764</v>
+        <v>1596</v>
       </c>
       <c r="C602">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>55</v>
       </c>
       <c r="B603">
-        <v>6037</v>
+        <v>2312</v>
       </c>
       <c r="C603">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7237,32 +7237,32 @@
         <v>55</v>
       </c>
       <c r="B604">
-        <v>7663</v>
+        <v>4764</v>
       </c>
       <c r="C604">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>6037</v>
       </c>
       <c r="C605">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B606">
-        <v>164</v>
+        <v>7663</v>
       </c>
       <c r="C606">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7270,10 +7270,10 @@
         <v>56</v>
       </c>
       <c r="B607">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="C607">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7281,10 +7281,10 @@
         <v>56</v>
       </c>
       <c r="B608">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C608">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>56</v>
       </c>
       <c r="B609">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C609">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>56</v>
       </c>
       <c r="B610">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="C610">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>56</v>
       </c>
       <c r="B611">
-        <v>1600</v>
+        <v>169</v>
       </c>
       <c r="C611">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>56</v>
       </c>
       <c r="B612">
-        <v>2361</v>
+        <v>223</v>
       </c>
       <c r="C612">
-        <v>20192020</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>56</v>
       </c>
       <c r="B613">
-        <v>4478</v>
+        <v>1600</v>
       </c>
       <c r="C613">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>56</v>
       </c>
       <c r="B614">
-        <v>5992</v>
+        <v>2361</v>
       </c>
       <c r="C614">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7358,32 +7358,32 @@
         <v>56</v>
       </c>
       <c r="B615">
-        <v>7494</v>
+        <v>4478</v>
       </c>
       <c r="C615">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B616">
-        <v>416</v>
+        <v>5992</v>
       </c>
       <c r="C616">
-        <v>20172018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B617">
-        <v>417</v>
+        <v>7494</v>
       </c>
       <c r="C617">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>57</v>
       </c>
       <c r="B618">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C618">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>57</v>
       </c>
       <c r="B619">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C619">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>57</v>
       </c>
       <c r="B620">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C620">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>57</v>
       </c>
       <c r="B621">
-        <v>1604</v>
+        <v>419</v>
       </c>
       <c r="C621">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>57</v>
       </c>
       <c r="B622">
-        <v>2254</v>
+        <v>420</v>
       </c>
       <c r="C622">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>57</v>
       </c>
       <c r="B623">
-        <v>4533</v>
+        <v>1604</v>
       </c>
       <c r="C623">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>57</v>
       </c>
       <c r="B624">
-        <v>6046</v>
+        <v>2254</v>
       </c>
       <c r="C624">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7468,32 +7468,32 @@
         <v>57</v>
       </c>
       <c r="B625">
-        <v>7492</v>
+        <v>4533</v>
       </c>
       <c r="C625">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B626">
-        <v>439</v>
+        <v>6046</v>
       </c>
       <c r="C626">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B627">
-        <v>440</v>
+        <v>7492</v>
       </c>
       <c r="C627">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>58</v>
       </c>
       <c r="B628">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C628">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>58</v>
       </c>
       <c r="B629">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C629">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>58</v>
       </c>
       <c r="B630">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C630">
-        <v>20162017</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>58</v>
       </c>
       <c r="B631">
-        <v>1606</v>
+        <v>447</v>
       </c>
       <c r="C631">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>58</v>
       </c>
       <c r="B632">
-        <v>2256</v>
+        <v>448</v>
       </c>
       <c r="C632">
-        <v>20192020</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>58</v>
       </c>
       <c r="B633">
-        <v>4572</v>
+        <v>1606</v>
       </c>
       <c r="C633">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>58</v>
       </c>
       <c r="B634">
-        <v>5944</v>
+        <v>2256</v>
       </c>
       <c r="C634">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7578,32 +7578,32 @@
         <v>58</v>
       </c>
       <c r="B635">
-        <v>7958</v>
+        <v>4572</v>
       </c>
       <c r="C635">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B636">
-        <v>426</v>
+        <v>5944</v>
       </c>
       <c r="C636">
-        <v>20172018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="637" spans="1:3">
       <c r="A637" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B637">
-        <v>427</v>
+        <v>7958</v>
       </c>
       <c r="C637">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>59</v>
       </c>
       <c r="B638">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C638">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>59</v>
       </c>
       <c r="B639">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C639">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>59</v>
       </c>
       <c r="B640">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C640">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>59</v>
       </c>
       <c r="B641">
-        <v>1608</v>
+        <v>429</v>
       </c>
       <c r="C641">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>59</v>
       </c>
       <c r="B642">
-        <v>2251</v>
+        <v>433</v>
       </c>
       <c r="C642">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>59</v>
       </c>
       <c r="B643">
-        <v>4635</v>
+        <v>1608</v>
       </c>
       <c r="C643">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>59</v>
       </c>
       <c r="B644">
-        <v>6048</v>
+        <v>2251</v>
       </c>
       <c r="C644">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7688,32 +7688,32 @@
         <v>59</v>
       </c>
       <c r="B645">
-        <v>7526</v>
+        <v>4635</v>
       </c>
       <c r="C645">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="646" spans="1:3">
       <c r="A646" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B646">
-        <v>747</v>
+        <v>6048</v>
       </c>
       <c r="C646">
-        <v>2017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="647" spans="1:3">
       <c r="A647" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B647">
-        <v>748</v>
+        <v>7526</v>
       </c>
       <c r="C647">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>60</v>
       </c>
       <c r="B648">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C648">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>60</v>
       </c>
       <c r="B649">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C649">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>60</v>
       </c>
       <c r="B650">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C650">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>60</v>
       </c>
       <c r="B651">
-        <v>1115</v>
+        <v>750</v>
       </c>
       <c r="C651">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>60</v>
       </c>
       <c r="B652">
-        <v>1862</v>
+        <v>751</v>
       </c>
       <c r="C652">
-        <v>2019</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>60</v>
       </c>
       <c r="B653">
-        <v>4379</v>
+        <v>1115</v>
       </c>
       <c r="C653">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>60</v>
       </c>
       <c r="B654">
-        <v>5506</v>
+        <v>1862</v>
       </c>
       <c r="C654">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>60</v>
       </c>
       <c r="B655">
-        <v>7061</v>
+        <v>4379</v>
       </c>
       <c r="C655">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7809,32 +7809,32 @@
         <v>60</v>
       </c>
       <c r="B656">
-        <v>8899</v>
+        <v>5506</v>
       </c>
       <c r="C656">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="A657" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B657">
-        <v>752</v>
+        <v>7061</v>
       </c>
       <c r="C657">
-        <v>2015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="658" spans="1:3">
       <c r="A658" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B658">
-        <v>753</v>
+        <v>8899</v>
       </c>
       <c r="C658">
-        <v>2013</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7842,10 +7842,10 @@
         <v>61</v>
       </c>
       <c r="B659">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C659">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7853,10 +7853,10 @@
         <v>61</v>
       </c>
       <c r="B660">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C660">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7864,10 +7864,10 @@
         <v>61</v>
       </c>
       <c r="B661">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C661">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7875,10 +7875,10 @@
         <v>61</v>
       </c>
       <c r="B662">
-        <v>1121</v>
+        <v>760</v>
       </c>
       <c r="C662">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7886,10 +7886,10 @@
         <v>61</v>
       </c>
       <c r="B663">
-        <v>1863</v>
+        <v>761</v>
       </c>
       <c r="C663">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7897,10 +7897,10 @@
         <v>61</v>
       </c>
       <c r="B664">
-        <v>4381</v>
+        <v>1121</v>
       </c>
       <c r="C664">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7908,10 +7908,10 @@
         <v>61</v>
       </c>
       <c r="B665">
-        <v>5504</v>
+        <v>1863</v>
       </c>
       <c r="C665">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7919,10 +7919,10 @@
         <v>61</v>
       </c>
       <c r="B666">
-        <v>7062</v>
+        <v>4381</v>
       </c>
       <c r="C666">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7930,32 +7930,32 @@
         <v>61</v>
       </c>
       <c r="B667">
-        <v>8938</v>
+        <v>5504</v>
       </c>
       <c r="C667">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="668" spans="1:3">
       <c r="A668" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B668">
-        <v>34</v>
+        <v>7062</v>
       </c>
       <c r="C668">
-        <v>20162017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="669" spans="1:3">
       <c r="A669" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B669">
-        <v>35</v>
+        <v>8938</v>
       </c>
       <c r="C669">
-        <v>20152016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7963,10 +7963,10 @@
         <v>62</v>
       </c>
       <c r="B670">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C670">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7974,10 +7974,10 @@
         <v>62</v>
       </c>
       <c r="B671">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C671">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7985,10 +7985,10 @@
         <v>62</v>
       </c>
       <c r="B672">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C672">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7996,10 +7996,10 @@
         <v>62</v>
       </c>
       <c r="B673">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="C673">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8007,10 +8007,10 @@
         <v>62</v>
       </c>
       <c r="B674">
-        <v>1677</v>
+        <v>38</v>
       </c>
       <c r="C674">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8018,10 +8018,10 @@
         <v>62</v>
       </c>
       <c r="B675">
-        <v>2319</v>
+        <v>171</v>
       </c>
       <c r="C675">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8029,10 +8029,10 @@
         <v>62</v>
       </c>
       <c r="B676">
-        <v>3631</v>
+        <v>1677</v>
       </c>
       <c r="C676">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8040,10 +8040,10 @@
         <v>62</v>
       </c>
       <c r="B677">
-        <v>3632</v>
+        <v>2319</v>
       </c>
       <c r="C677">
-        <v>20102011</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8051,10 +8051,10 @@
         <v>62</v>
       </c>
       <c r="B678">
-        <v>3636</v>
+        <v>3631</v>
       </c>
       <c r="C678">
-        <v>20092010</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8062,10 +8062,10 @@
         <v>62</v>
       </c>
       <c r="B679">
-        <v>3637</v>
+        <v>3632</v>
       </c>
       <c r="C679">
-        <v>20082009</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8073,10 +8073,10 @@
         <v>62</v>
       </c>
       <c r="B680">
-        <v>4944</v>
+        <v>3636</v>
       </c>
       <c r="C680">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8084,10 +8084,10 @@
         <v>62</v>
       </c>
       <c r="B681">
-        <v>6211</v>
+        <v>3637</v>
       </c>
       <c r="C681">
-        <v>20212022</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8095,32 +8095,32 @@
         <v>62</v>
       </c>
       <c r="B682">
-        <v>7665</v>
+        <v>4944</v>
       </c>
       <c r="C682">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="683" spans="1:3">
       <c r="A683" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B683">
-        <v>39</v>
+        <v>6211</v>
       </c>
       <c r="C683">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="684" spans="1:3">
       <c r="A684" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B684">
-        <v>40</v>
+        <v>7665</v>
       </c>
       <c r="C684">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8128,10 +8128,10 @@
         <v>63</v>
       </c>
       <c r="B685">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C685">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8139,10 +8139,10 @@
         <v>63</v>
       </c>
       <c r="B686">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C686">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8150,10 +8150,10 @@
         <v>63</v>
       </c>
       <c r="B687">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C687">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8161,10 +8161,10 @@
         <v>63</v>
       </c>
       <c r="B688">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="C688">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8172,10 +8172,10 @@
         <v>63</v>
       </c>
       <c r="B689">
-        <v>1670</v>
+        <v>43</v>
       </c>
       <c r="C689">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8183,10 +8183,10 @@
         <v>63</v>
       </c>
       <c r="B690">
-        <v>2415</v>
+        <v>172</v>
       </c>
       <c r="C690">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8194,10 +8194,10 @@
         <v>63</v>
       </c>
       <c r="B691">
-        <v>4167</v>
+        <v>1670</v>
       </c>
       <c r="C691">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8205,10 +8205,10 @@
         <v>63</v>
       </c>
       <c r="B692">
-        <v>4245</v>
+        <v>2415</v>
       </c>
       <c r="C692">
-        <v>20102011</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8216,10 +8216,10 @@
         <v>63</v>
       </c>
       <c r="B693">
-        <v>4249</v>
+        <v>4167</v>
       </c>
       <c r="C693">
-        <v>20092010</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8227,10 +8227,10 @@
         <v>63</v>
       </c>
       <c r="B694">
-        <v>4842</v>
+        <v>4245</v>
       </c>
       <c r="C694">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8238,10 +8238,10 @@
         <v>63</v>
       </c>
       <c r="B695">
-        <v>6120</v>
+        <v>4249</v>
       </c>
       <c r="C695">
-        <v>20212022</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8249,32 +8249,32 @@
         <v>63</v>
       </c>
       <c r="B696">
-        <v>7592</v>
+        <v>4842</v>
       </c>
       <c r="C696">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="697" spans="1:3">
       <c r="A697" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B697">
-        <v>104</v>
+        <v>6120</v>
       </c>
       <c r="C697">
-        <v>2017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="698" spans="1:3">
       <c r="A698" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B698">
-        <v>105</v>
+        <v>7592</v>
       </c>
       <c r="C698">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8282,10 +8282,10 @@
         <v>64</v>
       </c>
       <c r="B699">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C699">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8293,10 +8293,10 @@
         <v>64</v>
       </c>
       <c r="B700">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C700">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8304,10 +8304,10 @@
         <v>64</v>
       </c>
       <c r="B701">
-        <v>994</v>
+        <v>106</v>
       </c>
       <c r="C701">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8315,10 +8315,10 @@
         <v>64</v>
       </c>
       <c r="B702">
-        <v>1848</v>
+        <v>107</v>
       </c>
       <c r="C702">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8326,10 +8326,10 @@
         <v>64</v>
       </c>
       <c r="B703">
-        <v>3703</v>
+        <v>994</v>
       </c>
       <c r="C703">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8337,10 +8337,10 @@
         <v>64</v>
       </c>
       <c r="B704">
-        <v>4307</v>
+        <v>1848</v>
       </c>
       <c r="C704">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8348,10 +8348,10 @@
         <v>64</v>
       </c>
       <c r="B705">
-        <v>4315</v>
+        <v>3703</v>
       </c>
       <c r="C705">
-        <v>2011</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8359,10 +8359,10 @@
         <v>64</v>
       </c>
       <c r="B706">
-        <v>4329</v>
+        <v>4307</v>
       </c>
       <c r="C706">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8370,10 +8370,10 @@
         <v>64</v>
       </c>
       <c r="B707">
-        <v>5505</v>
+        <v>4315</v>
       </c>
       <c r="C707">
-        <v>2021</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8381,10 +8381,10 @@
         <v>64</v>
       </c>
       <c r="B708">
-        <v>7064</v>
+        <v>4329</v>
       </c>
       <c r="C708">
-        <v>2022</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8392,32 +8392,32 @@
         <v>64</v>
       </c>
       <c r="B709">
-        <v>8737</v>
+        <v>5505</v>
       </c>
       <c r="C709">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="710" spans="1:3">
       <c r="A710" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B710">
-        <v>136</v>
+        <v>7064</v>
       </c>
       <c r="C710">
-        <v>20162017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="711" spans="1:3">
       <c r="A711" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B711">
-        <v>137</v>
+        <v>8737</v>
       </c>
       <c r="C711">
-        <v>20152016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8425,10 +8425,10 @@
         <v>65</v>
       </c>
       <c r="B712">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C712">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8436,10 +8436,10 @@
         <v>65</v>
       </c>
       <c r="B713">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C713">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8447,10 +8447,10 @@
         <v>65</v>
       </c>
       <c r="B714">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C714">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8458,10 +8458,10 @@
         <v>65</v>
       </c>
       <c r="B715">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="C715">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8469,10 +8469,10 @@
         <v>65</v>
       </c>
       <c r="B716">
-        <v>1610</v>
+        <v>140</v>
       </c>
       <c r="C716">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8480,10 +8480,10 @@
         <v>65</v>
       </c>
       <c r="B717">
-        <v>2249</v>
+        <v>186</v>
       </c>
       <c r="C717">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8491,10 +8491,10 @@
         <v>65</v>
       </c>
       <c r="B718">
-        <v>4906</v>
+        <v>1610</v>
       </c>
       <c r="C718">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8502,10 +8502,10 @@
         <v>65</v>
       </c>
       <c r="B719">
-        <v>6044</v>
+        <v>2249</v>
       </c>
       <c r="C719">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8513,32 +8513,32 @@
         <v>65</v>
       </c>
       <c r="B720">
-        <v>7504</v>
+        <v>4906</v>
       </c>
       <c r="C720">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="721" spans="1:3">
       <c r="A721" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B721">
-        <v>798</v>
+        <v>6044</v>
       </c>
       <c r="C721">
-        <v>20172018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="722" spans="1:3">
       <c r="A722" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B722">
-        <v>799</v>
+        <v>7504</v>
       </c>
       <c r="C722">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8546,10 +8546,10 @@
         <v>66</v>
       </c>
       <c r="B723">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C723">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8557,10 +8557,10 @@
         <v>66</v>
       </c>
       <c r="B724">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C724">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8568,10 +8568,10 @@
         <v>66</v>
       </c>
       <c r="B725">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C725">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8579,10 +8579,10 @@
         <v>66</v>
       </c>
       <c r="B726">
-        <v>1644</v>
+        <v>801</v>
       </c>
       <c r="C726">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8590,10 +8590,10 @@
         <v>66</v>
       </c>
       <c r="B727">
-        <v>2650</v>
+        <v>802</v>
       </c>
       <c r="C727">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8601,10 +8601,10 @@
         <v>66</v>
       </c>
       <c r="B728">
-        <v>5257</v>
+        <v>1644</v>
       </c>
       <c r="C728">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8612,10 +8612,10 @@
         <v>66</v>
       </c>
       <c r="B729">
-        <v>6726</v>
+        <v>2650</v>
       </c>
       <c r="C729">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8623,32 +8623,32 @@
         <v>66</v>
       </c>
       <c r="B730">
-        <v>8428</v>
+        <v>5257</v>
       </c>
       <c r="C730">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="731" spans="1:3">
       <c r="A731" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B731">
-        <v>19</v>
+        <v>6726</v>
       </c>
       <c r="C731">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="732" spans="1:3">
       <c r="A732" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B732">
-        <v>20</v>
+        <v>8428</v>
       </c>
       <c r="C732">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8656,10 +8656,10 @@
         <v>67</v>
       </c>
       <c r="B733">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C733">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8667,10 +8667,10 @@
         <v>67</v>
       </c>
       <c r="B734">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="C734">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8678,10 +8678,10 @@
         <v>67</v>
       </c>
       <c r="B735">
-        <v>1614</v>
+        <v>21</v>
       </c>
       <c r="C735">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8689,10 +8689,10 @@
         <v>67</v>
       </c>
       <c r="B736">
-        <v>2648</v>
+        <v>175</v>
       </c>
       <c r="C736">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8700,10 +8700,10 @@
         <v>67</v>
       </c>
       <c r="B737">
-        <v>4840</v>
+        <v>1614</v>
       </c>
       <c r="C737">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8711,10 +8711,10 @@
         <v>67</v>
       </c>
       <c r="B738">
-        <v>6125</v>
+        <v>2648</v>
       </c>
       <c r="C738">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8722,32 +8722,32 @@
         <v>67</v>
       </c>
       <c r="B739">
-        <v>7768</v>
+        <v>4840</v>
       </c>
       <c r="C739">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="740" spans="1:3">
       <c r="A740" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B740">
-        <v>1</v>
+        <v>6125</v>
       </c>
       <c r="C740">
-        <v>2016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="741" spans="1:3">
       <c r="A741" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B741">
-        <v>16</v>
+        <v>7768</v>
       </c>
       <c r="C741">
-        <v>2015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8755,10 +8755,10 @@
         <v>68</v>
       </c>
       <c r="B742">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C742">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8766,10 +8766,10 @@
         <v>68</v>
       </c>
       <c r="B743">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C743">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8777,10 +8777,10 @@
         <v>68</v>
       </c>
       <c r="B744">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="C744">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8788,10 +8788,10 @@
         <v>68</v>
       </c>
       <c r="B745">
-        <v>1076</v>
+        <v>24</v>
       </c>
       <c r="C745">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8799,10 +8799,10 @@
         <v>68</v>
       </c>
       <c r="B746">
-        <v>1846</v>
+        <v>163</v>
       </c>
       <c r="C746">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8810,10 +8810,10 @@
         <v>68</v>
       </c>
       <c r="B747">
-        <v>4227</v>
+        <v>1076</v>
       </c>
       <c r="C747">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8821,10 +8821,10 @@
         <v>68</v>
       </c>
       <c r="B748">
-        <v>4235</v>
+        <v>1846</v>
       </c>
       <c r="C748">
-        <v>2011</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8832,10 +8832,10 @@
         <v>68</v>
       </c>
       <c r="B749">
-        <v>4241</v>
+        <v>4227</v>
       </c>
       <c r="C749">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8843,10 +8843,10 @@
         <v>68</v>
       </c>
       <c r="B750">
-        <v>4473</v>
+        <v>4235</v>
       </c>
       <c r="C750">
-        <v>2020</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8854,10 +8854,10 @@
         <v>68</v>
       </c>
       <c r="B751">
-        <v>5674</v>
+        <v>4241</v>
       </c>
       <c r="C751">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8865,10 +8865,10 @@
         <v>68</v>
       </c>
       <c r="B752">
-        <v>6969</v>
+        <v>4473</v>
       </c>
       <c r="C752">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8876,32 +8876,32 @@
         <v>68</v>
       </c>
       <c r="B753">
-        <v>8777</v>
+        <v>5674</v>
       </c>
       <c r="C753">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="754" spans="1:3">
       <c r="A754" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B754">
-        <v>1290</v>
+        <v>6969</v>
       </c>
       <c r="C754">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="755" spans="1:3">
       <c r="A755" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B755">
-        <v>1291</v>
+        <v>8777</v>
       </c>
       <c r="C755">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8909,10 +8909,10 @@
         <v>69</v>
       </c>
       <c r="B756">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C756">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8920,10 +8920,10 @@
         <v>69</v>
       </c>
       <c r="B757">
-        <v>1857</v>
+        <v>1291</v>
       </c>
       <c r="C757">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8931,10 +8931,10 @@
         <v>69</v>
       </c>
       <c r="B758">
-        <v>3710</v>
+        <v>1292</v>
       </c>
       <c r="C758">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8942,10 +8942,10 @@
         <v>69</v>
       </c>
       <c r="B759">
-        <v>4279</v>
+        <v>1857</v>
       </c>
       <c r="C759">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8953,10 +8953,10 @@
         <v>69</v>
       </c>
       <c r="B760">
-        <v>4283</v>
+        <v>3710</v>
       </c>
       <c r="C760">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8964,10 +8964,10 @@
         <v>69</v>
       </c>
       <c r="B761">
-        <v>4288</v>
+        <v>4279</v>
       </c>
       <c r="C761">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8975,10 +8975,10 @@
         <v>69</v>
       </c>
       <c r="B762">
-        <v>6541</v>
+        <v>4283</v>
       </c>
       <c r="C762">
-        <v>2021</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8986,10 +8986,10 @@
         <v>69</v>
       </c>
       <c r="B763">
-        <v>6970</v>
+        <v>4288</v>
       </c>
       <c r="C763">
-        <v>2022</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8997,32 +8997,32 @@
         <v>69</v>
       </c>
       <c r="B764">
-        <v>8845</v>
+        <v>6541</v>
       </c>
       <c r="C764">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="765" spans="1:3">
       <c r="A765" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B765">
-        <v>360</v>
+        <v>6970</v>
       </c>
       <c r="C765">
-        <v>20172018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="766" spans="1:3">
       <c r="A766" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B766">
-        <v>361</v>
+        <v>8845</v>
       </c>
       <c r="C766">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9030,10 +9030,10 @@
         <v>70</v>
       </c>
       <c r="B767">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C767">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9041,10 +9041,10 @@
         <v>70</v>
       </c>
       <c r="B768">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C768">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9052,10 +9052,10 @@
         <v>70</v>
       </c>
       <c r="B769">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C769">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9063,10 +9063,10 @@
         <v>70</v>
       </c>
       <c r="B770">
-        <v>1618</v>
+        <v>363</v>
       </c>
       <c r="C770">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9074,10 +9074,10 @@
         <v>70</v>
       </c>
       <c r="B771">
-        <v>2317</v>
+        <v>364</v>
       </c>
       <c r="C771">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9085,10 +9085,10 @@
         <v>70</v>
       </c>
       <c r="B772">
-        <v>4751</v>
+        <v>1618</v>
       </c>
       <c r="C772">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9096,10 +9096,10 @@
         <v>70</v>
       </c>
       <c r="B773">
-        <v>5943</v>
+        <v>2317</v>
       </c>
       <c r="C773">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9107,32 +9107,32 @@
         <v>70</v>
       </c>
       <c r="B774">
-        <v>8222</v>
+        <v>4751</v>
       </c>
       <c r="C774">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="775" spans="1:3">
       <c r="A775" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B775">
-        <v>853</v>
+        <v>5943</v>
       </c>
       <c r="C775">
-        <v>2017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="776" spans="1:3">
       <c r="A776" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B776">
-        <v>854</v>
+        <v>8222</v>
       </c>
       <c r="C776">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9140,10 +9140,10 @@
         <v>71</v>
       </c>
       <c r="B777">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C777">
-        <v>20152016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9151,10 +9151,10 @@
         <v>71</v>
       </c>
       <c r="B778">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C778">
-        <v>20142015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9162,10 +9162,10 @@
         <v>71</v>
       </c>
       <c r="B779">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C779">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9173,10 +9173,10 @@
         <v>71</v>
       </c>
       <c r="B780">
-        <v>1095</v>
+        <v>856</v>
       </c>
       <c r="C780">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9184,10 +9184,10 @@
         <v>71</v>
       </c>
       <c r="B781">
-        <v>1905</v>
+        <v>857</v>
       </c>
       <c r="C781">
-        <v>2019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9195,10 +9195,10 @@
         <v>71</v>
       </c>
       <c r="B782">
-        <v>3789</v>
+        <v>1095</v>
       </c>
       <c r="C782">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9206,10 +9206,10 @@
         <v>71</v>
       </c>
       <c r="B783">
-        <v>5809</v>
+        <v>1905</v>
       </c>
       <c r="C783">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9217,10 +9217,10 @@
         <v>71</v>
       </c>
       <c r="B784">
-        <v>7067</v>
+        <v>3789</v>
       </c>
       <c r="C784">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9228,32 +9228,32 @@
         <v>71</v>
       </c>
       <c r="B785">
-        <v>8937</v>
+        <v>5809</v>
       </c>
       <c r="C785">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="786" spans="1:3">
       <c r="A786" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B786">
-        <v>858</v>
+        <v>7067</v>
       </c>
       <c r="C786">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="787" spans="1:3">
       <c r="A787" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B787">
-        <v>859</v>
+        <v>8937</v>
       </c>
       <c r="C787">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9261,10 +9261,10 @@
         <v>72</v>
       </c>
       <c r="B788">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C788">
-        <v>20152016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9272,10 +9272,10 @@
         <v>72</v>
       </c>
       <c r="B789">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C789">
-        <v>20142015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9283,10 +9283,10 @@
         <v>72</v>
       </c>
       <c r="B790">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C790">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9294,10 +9294,10 @@
         <v>72</v>
       </c>
       <c r="B791">
-        <v>1096</v>
+        <v>861</v>
       </c>
       <c r="C791">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9305,10 +9305,10 @@
         <v>72</v>
       </c>
       <c r="B792">
-        <v>1949</v>
+        <v>862</v>
       </c>
       <c r="C792">
-        <v>2019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9316,10 +9316,10 @@
         <v>72</v>
       </c>
       <c r="B793">
-        <v>4651</v>
+        <v>1096</v>
       </c>
       <c r="C793">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9327,10 +9327,10 @@
         <v>72</v>
       </c>
       <c r="B794">
-        <v>5908</v>
+        <v>1949</v>
       </c>
       <c r="C794">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9338,10 +9338,10 @@
         <v>72</v>
       </c>
       <c r="B795">
-        <v>7173</v>
+        <v>4651</v>
       </c>
       <c r="C795">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9349,32 +9349,32 @@
         <v>72</v>
       </c>
       <c r="B796">
-        <v>9288</v>
+        <v>5908</v>
       </c>
       <c r="C796">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="797" spans="1:3">
       <c r="A797" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B797">
-        <v>622</v>
+        <v>7173</v>
       </c>
       <c r="C797">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="798" spans="1:3">
       <c r="A798" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B798">
-        <v>623</v>
+        <v>9288</v>
       </c>
       <c r="C798">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9382,10 +9382,10 @@
         <v>73</v>
       </c>
       <c r="B799">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C799">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9393,10 +9393,10 @@
         <v>73</v>
       </c>
       <c r="B800">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C800">
-        <v>20142015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9404,10 +9404,10 @@
         <v>73</v>
       </c>
       <c r="B801">
-        <v>1102</v>
+        <v>624</v>
       </c>
       <c r="C801">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9415,10 +9415,10 @@
         <v>73</v>
       </c>
       <c r="B802">
-        <v>1868</v>
+        <v>631</v>
       </c>
       <c r="C802">
-        <v>2019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9426,10 +9426,10 @@
         <v>73</v>
       </c>
       <c r="B803">
-        <v>2011</v>
+        <v>1102</v>
       </c>
       <c r="C803">
-        <v>20132014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9437,10 +9437,10 @@
         <v>73</v>
       </c>
       <c r="B804">
-        <v>3714</v>
+        <v>1868</v>
       </c>
       <c r="C804">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9448,10 +9448,10 @@
         <v>73</v>
       </c>
       <c r="B805">
-        <v>5631</v>
+        <v>2011</v>
       </c>
       <c r="C805">
-        <v>2021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9459,10 +9459,10 @@
         <v>73</v>
       </c>
       <c r="B806">
-        <v>7166</v>
+        <v>3714</v>
       </c>
       <c r="C806">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9470,9 +9470,31 @@
         <v>73</v>
       </c>
       <c r="B807">
+        <v>5631</v>
+      </c>
+      <c r="C807">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3">
+      <c r="A808" t="s">
+        <v>73</v>
+      </c>
+      <c r="B808">
+        <v>7166</v>
+      </c>
+      <c r="C808">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3">
+      <c r="A809" t="s">
+        <v>73</v>
+      </c>
+      <c r="B809">
         <v>8952</v>
       </c>
-      <c r="C807">
+      <c r="C809">
         <v>2023</v>
       </c>
     </row>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="74">
   <si>
     <t>League</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C809"/>
+  <dimension ref="A1:C810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B225">
-        <v>561</v>
+        <v>9567</v>
       </c>
       <c r="C225">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3079,10 +3079,10 @@
         <v>24</v>
       </c>
       <c r="B226">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C226">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3090,10 +3090,10 @@
         <v>24</v>
       </c>
       <c r="B227">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C227">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>24</v>
       </c>
       <c r="B228">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C228">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>24</v>
       </c>
       <c r="B229">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C229">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>24</v>
       </c>
       <c r="B230">
-        <v>1538</v>
+        <v>565</v>
       </c>
       <c r="C230">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>24</v>
       </c>
       <c r="B231">
-        <v>2245</v>
+        <v>1538</v>
       </c>
       <c r="C231">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>24</v>
       </c>
       <c r="B232">
-        <v>4642</v>
+        <v>2245</v>
       </c>
       <c r="C232">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>24</v>
       </c>
       <c r="B233">
-        <v>5961</v>
+        <v>4642</v>
       </c>
       <c r="C233">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>24</v>
       </c>
       <c r="B234">
-        <v>7426</v>
+        <v>5961</v>
       </c>
       <c r="C234">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3178,21 +3178,21 @@
         <v>24</v>
       </c>
       <c r="B235">
-        <v>9545</v>
+        <v>7426</v>
       </c>
       <c r="C235">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B236">
-        <v>843</v>
+        <v>9545</v>
       </c>
       <c r="C236">
-        <v>2017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>25</v>
       </c>
       <c r="B237">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C237">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>25</v>
       </c>
       <c r="B238">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C238">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>25</v>
       </c>
       <c r="B239">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C239">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>25</v>
       </c>
       <c r="B240">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C240">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>25</v>
       </c>
       <c r="B241">
-        <v>1093</v>
+        <v>847</v>
       </c>
       <c r="C241">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>25</v>
       </c>
       <c r="B242">
-        <v>1872</v>
+        <v>1093</v>
       </c>
       <c r="C242">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>25</v>
       </c>
       <c r="B243">
-        <v>3553</v>
+        <v>1872</v>
       </c>
       <c r="C243">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>25</v>
       </c>
       <c r="B244">
-        <v>5580</v>
+        <v>3553</v>
       </c>
       <c r="C244">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>25</v>
       </c>
       <c r="B245">
-        <v>7038</v>
+        <v>5580</v>
       </c>
       <c r="C245">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3299,21 +3299,21 @@
         <v>25</v>
       </c>
       <c r="B246">
-        <v>8934</v>
+        <v>7038</v>
       </c>
       <c r="C246">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B247">
-        <v>210</v>
+        <v>8934</v>
       </c>
       <c r="C247">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>26</v>
       </c>
       <c r="B248">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C248">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>26</v>
       </c>
       <c r="B249">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C249">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>26</v>
       </c>
       <c r="B250">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C250">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>26</v>
       </c>
       <c r="B251">
-        <v>1673</v>
+        <v>218</v>
       </c>
       <c r="C251">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>26</v>
       </c>
       <c r="B252">
-        <v>2889</v>
+        <v>1673</v>
       </c>
       <c r="C252">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>26</v>
       </c>
       <c r="B253">
-        <v>5342</v>
+        <v>2889</v>
       </c>
       <c r="C253">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>26</v>
       </c>
       <c r="B254">
-        <v>6752</v>
+        <v>5342</v>
       </c>
       <c r="C254">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3398,21 +3398,21 @@
         <v>26</v>
       </c>
       <c r="B255">
-        <v>8520</v>
+        <v>6752</v>
       </c>
       <c r="C255">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B256">
-        <v>22</v>
+        <v>8520</v>
       </c>
       <c r="C256">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>27</v>
       </c>
       <c r="B257">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C257">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="B258">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C258">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>27</v>
       </c>
       <c r="B259">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C259">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>27</v>
       </c>
       <c r="B260">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C260">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>27</v>
       </c>
       <c r="B261">
-        <v>1624</v>
+        <v>165</v>
       </c>
       <c r="C261">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>27</v>
       </c>
       <c r="B262">
-        <v>2187</v>
+        <v>1624</v>
       </c>
       <c r="C262">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>27</v>
       </c>
       <c r="B263">
-        <v>3141</v>
+        <v>2187</v>
       </c>
       <c r="C263">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>27</v>
       </c>
       <c r="B264">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="C264">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="B265">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="C265">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>27</v>
       </c>
       <c r="B266">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="C266">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>27</v>
       </c>
       <c r="B267">
-        <v>4912</v>
+        <v>3147</v>
       </c>
       <c r="C267">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>27</v>
       </c>
       <c r="B268">
-        <v>6089</v>
+        <v>4912</v>
       </c>
       <c r="C268">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>27</v>
       </c>
       <c r="B269">
-        <v>7593</v>
+        <v>6089</v>
       </c>
       <c r="C269">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3563,21 +3563,21 @@
         <v>27</v>
       </c>
       <c r="B270">
-        <v>8031</v>
+        <v>7593</v>
       </c>
       <c r="C270">
-        <v>20082009</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B271">
-        <v>28</v>
+        <v>8031</v>
       </c>
       <c r="C271">
-        <v>20162017</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>28</v>
       </c>
       <c r="B272">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C272">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>28</v>
       </c>
       <c r="B273">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C273">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>28</v>
       </c>
       <c r="B274">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C274">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>28</v>
       </c>
       <c r="B275">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="C275">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>28</v>
       </c>
       <c r="B276">
-        <v>1564</v>
+        <v>166</v>
       </c>
       <c r="C276">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>28</v>
       </c>
       <c r="B277">
-        <v>2191</v>
+        <v>1564</v>
       </c>
       <c r="C277">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>28</v>
       </c>
       <c r="B278">
-        <v>3950</v>
+        <v>2191</v>
       </c>
       <c r="C278">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>28</v>
       </c>
       <c r="B279">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C279">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>28</v>
       </c>
       <c r="B280">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="C280">
-        <v>20112012</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>28</v>
       </c>
       <c r="B281">
-        <v>4845</v>
+        <v>3952</v>
       </c>
       <c r="C281">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>28</v>
       </c>
       <c r="B282">
-        <v>4923</v>
+        <v>4845</v>
       </c>
       <c r="C282">
-        <v>20102011</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>28</v>
       </c>
       <c r="B283">
-        <v>6017</v>
+        <v>4923</v>
       </c>
       <c r="C283">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3717,21 +3717,21 @@
         <v>28</v>
       </c>
       <c r="B284">
-        <v>7570</v>
+        <v>6017</v>
       </c>
       <c r="C284">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B285">
-        <v>32</v>
+        <v>7570</v>
       </c>
       <c r="C285">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>29</v>
       </c>
       <c r="B286">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C286">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>29</v>
       </c>
       <c r="B287">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="C287">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>29</v>
       </c>
       <c r="B288">
-        <v>1574</v>
+        <v>170</v>
       </c>
       <c r="C288">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>29</v>
       </c>
       <c r="B289">
-        <v>2192</v>
+        <v>1574</v>
       </c>
       <c r="C289">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>29</v>
       </c>
       <c r="B290">
-        <v>4844</v>
+        <v>2192</v>
       </c>
       <c r="C290">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>29</v>
       </c>
       <c r="B291">
-        <v>6015</v>
+        <v>4844</v>
       </c>
       <c r="C291">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3805,21 +3805,21 @@
         <v>29</v>
       </c>
       <c r="B292">
-        <v>7574</v>
+        <v>6015</v>
       </c>
       <c r="C292">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B293">
-        <v>392</v>
+        <v>7574</v>
       </c>
       <c r="C293">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>30</v>
       </c>
       <c r="B294">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C294">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>30</v>
       </c>
       <c r="B295">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C295">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>30</v>
       </c>
       <c r="B296">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C296">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>30</v>
       </c>
       <c r="B297">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C297">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="B298">
-        <v>1576</v>
+        <v>396</v>
       </c>
       <c r="C298">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>30</v>
       </c>
       <c r="B299">
-        <v>2287</v>
+        <v>1576</v>
       </c>
       <c r="C299">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>30</v>
       </c>
       <c r="B300">
-        <v>4124</v>
+        <v>2287</v>
       </c>
       <c r="C300">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="B301">
-        <v>4154</v>
+        <v>4124</v>
       </c>
       <c r="C301">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>30</v>
       </c>
       <c r="B302">
-        <v>5018</v>
+        <v>4154</v>
       </c>
       <c r="C302">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>30</v>
       </c>
       <c r="B303">
-        <v>6088</v>
+        <v>5018</v>
       </c>
       <c r="C303">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3937,21 +3937,21 @@
         <v>30</v>
       </c>
       <c r="B304">
-        <v>7729</v>
+        <v>6088</v>
       </c>
       <c r="C304">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B305">
-        <v>9</v>
+        <v>7729</v>
       </c>
       <c r="C305">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>31</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C306">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>31</v>
       </c>
       <c r="B307">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C307">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>31</v>
       </c>
       <c r="B308">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C308">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>31</v>
       </c>
       <c r="B309">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="C309">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>31</v>
       </c>
       <c r="B310">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="C310">
-        <v>20122013</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>31</v>
       </c>
       <c r="B311">
-        <v>1625</v>
+        <v>246</v>
       </c>
       <c r="C311">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>31</v>
       </c>
       <c r="B312">
-        <v>2012</v>
+        <v>1625</v>
       </c>
       <c r="C312">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>31</v>
       </c>
       <c r="B313">
-        <v>3119</v>
+        <v>2012</v>
       </c>
       <c r="C313">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>31</v>
       </c>
       <c r="B314">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="C314">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>31</v>
       </c>
       <c r="B315">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="C315">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>31</v>
       </c>
       <c r="B316">
-        <v>3131</v>
+        <v>3125</v>
       </c>
       <c r="C316">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>31</v>
       </c>
       <c r="B317">
-        <v>3137</v>
+        <v>3131</v>
       </c>
       <c r="C317">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4091,10 +4091,10 @@
         <v>31</v>
       </c>
       <c r="B318">
-        <v>4759</v>
+        <v>3137</v>
       </c>
       <c r="C318">
-        <v>20202021</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4102,10 +4102,10 @@
         <v>31</v>
       </c>
       <c r="B319">
-        <v>6135</v>
+        <v>4759</v>
       </c>
       <c r="C319">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4113,21 +4113,21 @@
         <v>31</v>
       </c>
       <c r="B320">
-        <v>7704</v>
+        <v>6135</v>
       </c>
       <c r="C320">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B321">
-        <v>58</v>
+        <v>7704</v>
       </c>
       <c r="C321">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4135,10 +4135,10 @@
         <v>32</v>
       </c>
       <c r="B322">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C322">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>32</v>
       </c>
       <c r="B323">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C323">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>32</v>
       </c>
       <c r="B324">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C324">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>32</v>
       </c>
       <c r="B325">
-        <v>1191</v>
+        <v>72</v>
       </c>
       <c r="C325">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>32</v>
       </c>
       <c r="B326">
-        <v>1874</v>
+        <v>1191</v>
       </c>
       <c r="C326">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>32</v>
       </c>
       <c r="B327">
-        <v>3645</v>
+        <v>1874</v>
       </c>
       <c r="C327">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>32</v>
       </c>
       <c r="B328">
-        <v>5477</v>
+        <v>3645</v>
       </c>
       <c r="C328">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>32</v>
       </c>
       <c r="B329">
-        <v>7120</v>
+        <v>5477</v>
       </c>
       <c r="C329">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4223,21 +4223,21 @@
         <v>32</v>
       </c>
       <c r="B330">
-        <v>8935</v>
+        <v>7120</v>
       </c>
       <c r="C330">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B331">
-        <v>65</v>
+        <v>8935</v>
       </c>
       <c r="C331">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>33</v>
       </c>
       <c r="B332">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C332">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>33</v>
       </c>
       <c r="B333">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C333">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>33</v>
       </c>
       <c r="B334">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C334">
-        <v>20152016</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>33</v>
       </c>
       <c r="B335">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="C335">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>33</v>
       </c>
       <c r="B336">
-        <v>1508</v>
+        <v>180</v>
       </c>
       <c r="C336">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>33</v>
       </c>
       <c r="B337">
-        <v>2392</v>
+        <v>1508</v>
       </c>
       <c r="C337">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="B338">
-        <v>4127</v>
+        <v>2392</v>
       </c>
       <c r="C338">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>33</v>
       </c>
       <c r="B339">
-        <v>4136</v>
+        <v>4127</v>
       </c>
       <c r="C339">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>33</v>
       </c>
       <c r="B340">
-        <v>4193</v>
+        <v>4136</v>
       </c>
       <c r="C340">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>33</v>
       </c>
       <c r="B341">
-        <v>4199</v>
+        <v>4193</v>
       </c>
       <c r="C341">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>33</v>
       </c>
       <c r="B342">
-        <v>4505</v>
+        <v>4199</v>
       </c>
       <c r="C342">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>33</v>
       </c>
       <c r="B343">
-        <v>6019</v>
+        <v>4505</v>
       </c>
       <c r="C343">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4377,21 +4377,21 @@
         <v>33</v>
       </c>
       <c r="B344">
-        <v>7500</v>
+        <v>6019</v>
       </c>
       <c r="C344">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B345">
-        <v>73</v>
+        <v>7500</v>
       </c>
       <c r="C345">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>34</v>
       </c>
       <c r="B346">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C346">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>34</v>
       </c>
       <c r="B347">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C347">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>34</v>
       </c>
       <c r="B348">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C348">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>34</v>
       </c>
       <c r="B349">
-        <v>1579</v>
+        <v>181</v>
       </c>
       <c r="C349">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>34</v>
       </c>
       <c r="B350">
-        <v>2396</v>
+        <v>1579</v>
       </c>
       <c r="C350">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>34</v>
       </c>
       <c r="B351">
-        <v>4164</v>
+        <v>2396</v>
       </c>
       <c r="C351">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>34</v>
       </c>
       <c r="B352">
-        <v>4185</v>
+        <v>4164</v>
       </c>
       <c r="C352">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>34</v>
       </c>
       <c r="B353">
-        <v>4645</v>
+        <v>4185</v>
       </c>
       <c r="C353">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>34</v>
       </c>
       <c r="B354">
-        <v>6018</v>
+        <v>4645</v>
       </c>
       <c r="C354">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4498,21 +4498,21 @@
         <v>34</v>
       </c>
       <c r="B355">
-        <v>7501</v>
+        <v>6018</v>
       </c>
       <c r="C355">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B356">
-        <v>83</v>
+        <v>7501</v>
       </c>
       <c r="C356">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>35</v>
       </c>
       <c r="B357">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C357">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>35</v>
       </c>
       <c r="B358">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C358">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>35</v>
       </c>
       <c r="B359">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="C359">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>35</v>
       </c>
       <c r="B360">
-        <v>1578</v>
+        <v>188</v>
       </c>
       <c r="C360">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>35</v>
       </c>
       <c r="B361">
-        <v>4131</v>
+        <v>1578</v>
       </c>
       <c r="C361">
-        <v>20132014</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>35</v>
       </c>
       <c r="B362">
-        <v>4168</v>
+        <v>4131</v>
       </c>
       <c r="C362">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>35</v>
       </c>
       <c r="B363">
-        <v>4195</v>
+        <v>4168</v>
       </c>
       <c r="C363">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>35</v>
       </c>
       <c r="B364">
-        <v>4200</v>
+        <v>4195</v>
       </c>
       <c r="C364">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>35</v>
       </c>
       <c r="B365">
-        <v>4388</v>
+        <v>4200</v>
       </c>
       <c r="C365">
-        <v>20192020</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>35</v>
       </c>
       <c r="B366">
-        <v>4676</v>
+        <v>4388</v>
       </c>
       <c r="C366">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>35</v>
       </c>
       <c r="B367">
-        <v>6020</v>
+        <v>4676</v>
       </c>
       <c r="C367">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4641,21 +4641,21 @@
         <v>35</v>
       </c>
       <c r="B368">
-        <v>7499</v>
+        <v>6020</v>
       </c>
       <c r="C368">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B369">
-        <v>3</v>
+        <v>7499</v>
       </c>
       <c r="C369">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>36</v>
       </c>
       <c r="B370">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C370">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>36</v>
       </c>
       <c r="B371">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C371">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>36</v>
       </c>
       <c r="B372">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C372">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>36</v>
       </c>
       <c r="B373">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C373">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>36</v>
       </c>
       <c r="B374">
-        <v>1636</v>
+        <v>177</v>
       </c>
       <c r="C374">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>36</v>
       </c>
       <c r="B375">
-        <v>4105</v>
+        <v>1636</v>
       </c>
       <c r="C375">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>36</v>
       </c>
       <c r="B376">
-        <v>4123</v>
+        <v>4105</v>
       </c>
       <c r="C376">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>36</v>
       </c>
       <c r="B377">
-        <v>4133</v>
+        <v>4123</v>
       </c>
       <c r="C377">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>36</v>
       </c>
       <c r="B378">
-        <v>4140</v>
+        <v>4133</v>
       </c>
       <c r="C378">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>36</v>
       </c>
       <c r="B379">
-        <v>4392</v>
+        <v>4140</v>
       </c>
       <c r="C379">
-        <v>20192020</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>36</v>
       </c>
       <c r="B380">
-        <v>4624</v>
+        <v>4392</v>
       </c>
       <c r="C380">
-        <v>20082009</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>36</v>
       </c>
       <c r="B381">
-        <v>4628</v>
+        <v>4624</v>
       </c>
       <c r="C381">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>36</v>
       </c>
       <c r="B382">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="C382">
-        <v>20062007</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>36</v>
       </c>
       <c r="B383">
-        <v>4673</v>
+        <v>4629</v>
       </c>
       <c r="C383">
-        <v>20202021</v>
+        <v>20062007</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>36</v>
       </c>
       <c r="B384">
-        <v>6192</v>
+        <v>4673</v>
       </c>
       <c r="C384">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4828,21 +4828,21 @@
         <v>36</v>
       </c>
       <c r="B385">
-        <v>7664</v>
+        <v>6192</v>
       </c>
       <c r="C385">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B386">
-        <v>207</v>
+        <v>7664</v>
       </c>
       <c r="C386">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>37</v>
       </c>
       <c r="B387">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C387">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>37</v>
       </c>
       <c r="B388">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C388">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>37</v>
       </c>
       <c r="B389">
-        <v>933</v>
+        <v>209</v>
       </c>
       <c r="C389">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>37</v>
       </c>
       <c r="B390">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C390">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>37</v>
       </c>
       <c r="B391">
-        <v>1752</v>
+        <v>934</v>
       </c>
       <c r="C391">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>37</v>
       </c>
       <c r="B392">
-        <v>2667</v>
+        <v>1752</v>
       </c>
       <c r="C392">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>37</v>
       </c>
       <c r="B393">
-        <v>4957</v>
+        <v>2667</v>
       </c>
       <c r="C393">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>37</v>
       </c>
       <c r="B394">
-        <v>6282</v>
+        <v>4957</v>
       </c>
       <c r="C394">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4938,21 +4938,21 @@
         <v>37</v>
       </c>
       <c r="B395">
-        <v>7954</v>
+        <v>6282</v>
       </c>
       <c r="C395">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B396">
-        <v>726</v>
+        <v>7954</v>
       </c>
       <c r="C396">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>38</v>
       </c>
       <c r="B397">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C397">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>38</v>
       </c>
       <c r="B398">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C398">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>38</v>
       </c>
       <c r="B399">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C399">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>38</v>
       </c>
       <c r="B400">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C400">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>38</v>
       </c>
       <c r="B401">
-        <v>1566</v>
+        <v>731</v>
       </c>
       <c r="C401">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>38</v>
       </c>
       <c r="B402">
-        <v>2282</v>
+        <v>1566</v>
       </c>
       <c r="C402">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>38</v>
       </c>
       <c r="B403">
-        <v>4534</v>
+        <v>2282</v>
       </c>
       <c r="C403">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>38</v>
       </c>
       <c r="B404">
-        <v>5936</v>
+        <v>4534</v>
       </c>
       <c r="C404">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5048,21 +5048,21 @@
         <v>38</v>
       </c>
       <c r="B405">
-        <v>7967</v>
+        <v>5936</v>
       </c>
       <c r="C405">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B406">
-        <v>68</v>
+        <v>7967</v>
       </c>
       <c r="C406">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>39</v>
       </c>
       <c r="B407">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C407">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>39</v>
       </c>
       <c r="B408">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C408">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>39</v>
       </c>
       <c r="B409">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C409">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>39</v>
       </c>
       <c r="B410">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="C410">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>39</v>
       </c>
       <c r="B411">
-        <v>1680</v>
+        <v>182</v>
       </c>
       <c r="C411">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>39</v>
       </c>
       <c r="B412">
-        <v>2588</v>
+        <v>1680</v>
       </c>
       <c r="C412">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>39</v>
       </c>
       <c r="B413">
-        <v>3940</v>
+        <v>2588</v>
       </c>
       <c r="C413">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>39</v>
       </c>
       <c r="B414">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C414">
-        <v>20082009</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>39</v>
       </c>
       <c r="B415">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C415">
-        <v>20092010</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5169,10 +5169,10 @@
         <v>39</v>
       </c>
       <c r="B416">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="C416">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>39</v>
       </c>
       <c r="B417">
-        <v>4889</v>
+        <v>3945</v>
       </c>
       <c r="C417">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>39</v>
       </c>
       <c r="B418">
-        <v>6198</v>
+        <v>4889</v>
       </c>
       <c r="C418">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5202,21 +5202,21 @@
         <v>39</v>
       </c>
       <c r="B419">
-        <v>7608</v>
+        <v>6198</v>
       </c>
       <c r="C419">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B420">
-        <v>77</v>
+        <v>7608</v>
       </c>
       <c r="C420">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>40</v>
       </c>
       <c r="B421">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C421">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>40</v>
       </c>
       <c r="B422">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C422">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>40</v>
       </c>
       <c r="B423">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C423">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>40</v>
       </c>
       <c r="B424">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C424">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>40</v>
       </c>
       <c r="B425">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="C425">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>40</v>
       </c>
       <c r="B426">
-        <v>1749</v>
+        <v>183</v>
       </c>
       <c r="C426">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>40</v>
       </c>
       <c r="B427">
-        <v>2642</v>
+        <v>1749</v>
       </c>
       <c r="C427">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="B428">
-        <v>3946</v>
+        <v>2642</v>
       </c>
       <c r="C428">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>40</v>
       </c>
       <c r="B429">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C429">
-        <v>20102011</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>40</v>
       </c>
       <c r="B430">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="C430">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>40</v>
       </c>
       <c r="B431">
-        <v>4972</v>
+        <v>3949</v>
       </c>
       <c r="C431">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>40</v>
       </c>
       <c r="B432">
-        <v>6205</v>
+        <v>4972</v>
       </c>
       <c r="C432">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5356,21 +5356,21 @@
         <v>40</v>
       </c>
       <c r="B433">
-        <v>7864</v>
+        <v>6205</v>
       </c>
       <c r="C433">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B434">
-        <v>162</v>
+        <v>7864</v>
       </c>
       <c r="C434">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>41</v>
       </c>
       <c r="B435">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="C435">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>41</v>
       </c>
       <c r="B436">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C436">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>41</v>
       </c>
       <c r="B437">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C437">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>41</v>
       </c>
       <c r="B438">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C438">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>41</v>
       </c>
       <c r="B439">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C439">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>41</v>
       </c>
       <c r="B440">
-        <v>1071</v>
+        <v>254</v>
       </c>
       <c r="C440">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>41</v>
       </c>
       <c r="B441">
-        <v>1864</v>
+        <v>1071</v>
       </c>
       <c r="C441">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>41</v>
       </c>
       <c r="B442">
-        <v>3686</v>
+        <v>1864</v>
       </c>
       <c r="C442">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>41</v>
       </c>
       <c r="B443">
-        <v>5434</v>
+        <v>3686</v>
       </c>
       <c r="C443">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>41</v>
       </c>
       <c r="B444">
-        <v>6935</v>
+        <v>5434</v>
       </c>
       <c r="C444">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5488,21 +5488,21 @@
         <v>41</v>
       </c>
       <c r="B445">
-        <v>8810</v>
+        <v>6935</v>
       </c>
       <c r="C445">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B446">
-        <v>130</v>
+        <v>8810</v>
       </c>
       <c r="C446">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>42</v>
       </c>
       <c r="B447">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C447">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>42</v>
       </c>
       <c r="B448">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C448">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>42</v>
       </c>
       <c r="B449">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C449">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>42</v>
       </c>
       <c r="B450">
-        <v>1073</v>
+        <v>153</v>
       </c>
       <c r="C450">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>42</v>
       </c>
       <c r="B451">
-        <v>1865</v>
+        <v>1073</v>
       </c>
       <c r="C451">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>42</v>
       </c>
       <c r="B452">
-        <v>3684</v>
+        <v>1865</v>
       </c>
       <c r="C452">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>42</v>
       </c>
       <c r="B453">
-        <v>5495</v>
+        <v>3684</v>
       </c>
       <c r="C453">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>42</v>
       </c>
       <c r="B454">
-        <v>6936</v>
+        <v>5495</v>
       </c>
       <c r="C454">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5598,21 +5598,21 @@
         <v>42</v>
       </c>
       <c r="B455">
-        <v>8811</v>
+        <v>6936</v>
       </c>
       <c r="C455">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B456">
-        <v>313</v>
+        <v>8811</v>
       </c>
       <c r="C456">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>43</v>
       </c>
       <c r="B457">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C457">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>43</v>
       </c>
       <c r="B458">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C458">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>43</v>
       </c>
       <c r="B459">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C459">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>43</v>
       </c>
       <c r="B460">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C460">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>43</v>
       </c>
       <c r="B461">
-        <v>1583</v>
+        <v>317</v>
       </c>
       <c r="C461">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>43</v>
       </c>
       <c r="B462">
-        <v>2315</v>
+        <v>1583</v>
       </c>
       <c r="C462">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>43</v>
       </c>
       <c r="B463">
-        <v>4664</v>
+        <v>2315</v>
       </c>
       <c r="C463">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>43</v>
       </c>
       <c r="B464">
-        <v>6104</v>
+        <v>4664</v>
       </c>
       <c r="C464">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5708,21 +5708,21 @@
         <v>43</v>
       </c>
       <c r="B465">
-        <v>7489</v>
+        <v>6104</v>
       </c>
       <c r="C465">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B466">
-        <v>307</v>
+        <v>7489</v>
       </c>
       <c r="C466">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>44</v>
       </c>
       <c r="B467">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C467">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>44</v>
       </c>
       <c r="B468">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C468">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>44</v>
       </c>
       <c r="B469">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C469">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>44</v>
       </c>
       <c r="B470">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C470">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>44</v>
       </c>
       <c r="B471">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C471">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>44</v>
       </c>
       <c r="B472">
-        <v>1582</v>
+        <v>312</v>
       </c>
       <c r="C472">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>44</v>
       </c>
       <c r="B473">
-        <v>2270</v>
+        <v>1582</v>
       </c>
       <c r="C473">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>44</v>
       </c>
       <c r="B474">
-        <v>4507</v>
+        <v>2270</v>
       </c>
       <c r="C474">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>44</v>
       </c>
       <c r="B475">
-        <v>6038</v>
+        <v>4507</v>
       </c>
       <c r="C475">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>44</v>
       </c>
       <c r="B476">
-        <v>7425</v>
+        <v>6038</v>
       </c>
       <c r="C476">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5840,21 +5840,21 @@
         <v>44</v>
       </c>
       <c r="B477">
-        <v>9525</v>
+        <v>7425</v>
       </c>
       <c r="C477">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B478">
-        <v>55</v>
+        <v>9525</v>
       </c>
       <c r="C478">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>45</v>
       </c>
       <c r="B479">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C479">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>45</v>
       </c>
       <c r="B480">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C480">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>45</v>
       </c>
       <c r="B481">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="C481">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>45</v>
       </c>
       <c r="B482">
-        <v>1584</v>
+        <v>179</v>
       </c>
       <c r="C482">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>45</v>
       </c>
       <c r="B483">
-        <v>2273</v>
+        <v>1584</v>
       </c>
       <c r="C483">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="B484">
-        <v>4228</v>
+        <v>2273</v>
       </c>
       <c r="C484">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>45</v>
       </c>
       <c r="B485">
-        <v>4236</v>
+        <v>4228</v>
       </c>
       <c r="C485">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>45</v>
       </c>
       <c r="B486">
-        <v>4243</v>
+        <v>4236</v>
       </c>
       <c r="C486">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>45</v>
       </c>
       <c r="B487">
-        <v>4246</v>
+        <v>4243</v>
       </c>
       <c r="C487">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>45</v>
       </c>
       <c r="B488">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="C488">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>45</v>
       </c>
       <c r="B489">
-        <v>4748</v>
+        <v>4247</v>
       </c>
       <c r="C489">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>45</v>
       </c>
       <c r="B490">
-        <v>5950</v>
+        <v>4748</v>
       </c>
       <c r="C490">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5994,21 +5994,21 @@
         <v>45</v>
       </c>
       <c r="B491">
-        <v>7484</v>
+        <v>5950</v>
       </c>
       <c r="C491">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B492">
-        <v>51</v>
+        <v>7484</v>
       </c>
       <c r="C492">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>46</v>
       </c>
       <c r="B493">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C493">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>46</v>
       </c>
       <c r="B494">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C494">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>46</v>
       </c>
       <c r="B495">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C495">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>46</v>
       </c>
       <c r="B496">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="C496">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>46</v>
       </c>
       <c r="B497">
-        <v>1585</v>
+        <v>178</v>
       </c>
       <c r="C497">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>46</v>
       </c>
       <c r="B498">
-        <v>2272</v>
+        <v>1585</v>
       </c>
       <c r="C498">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>46</v>
       </c>
       <c r="B499">
-        <v>4226</v>
+        <v>2272</v>
       </c>
       <c r="C499">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>46</v>
       </c>
       <c r="B500">
-        <v>4234</v>
+        <v>4226</v>
       </c>
       <c r="C500">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>46</v>
       </c>
       <c r="B501">
-        <v>4746</v>
+        <v>4234</v>
       </c>
       <c r="C501">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>46</v>
       </c>
       <c r="B502">
-        <v>5951</v>
+        <v>4746</v>
       </c>
       <c r="C502">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6126,21 +6126,21 @@
         <v>46</v>
       </c>
       <c r="B503">
-        <v>7482</v>
+        <v>5951</v>
       </c>
       <c r="C503">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B504">
-        <v>1366</v>
+        <v>7482</v>
       </c>
       <c r="C504">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>47</v>
       </c>
       <c r="B505">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C505">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>47</v>
       </c>
       <c r="B506">
-        <v>1586</v>
+        <v>1367</v>
       </c>
       <c r="C506">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>47</v>
       </c>
       <c r="B507">
-        <v>2275</v>
+        <v>1586</v>
       </c>
       <c r="C507">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>47</v>
       </c>
       <c r="B508">
-        <v>4749</v>
+        <v>2275</v>
       </c>
       <c r="C508">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>47</v>
       </c>
       <c r="B509">
-        <v>6098</v>
+        <v>4749</v>
       </c>
       <c r="C509">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6203,21 +6203,21 @@
         <v>47</v>
       </c>
       <c r="B510">
-        <v>7702</v>
+        <v>6098</v>
       </c>
       <c r="C510">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B511">
-        <v>44</v>
+        <v>7702</v>
       </c>
       <c r="C511">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6225,10 +6225,10 @@
         <v>48</v>
       </c>
       <c r="B512">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C512">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>48</v>
       </c>
       <c r="B513">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C513">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>48</v>
       </c>
       <c r="B514">
-        <v>993</v>
+        <v>46</v>
       </c>
       <c r="C514">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>48</v>
       </c>
       <c r="B515">
-        <v>1839</v>
+        <v>993</v>
       </c>
       <c r="C515">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>48</v>
       </c>
       <c r="B516">
-        <v>3695</v>
+        <v>1839</v>
       </c>
       <c r="C516">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>48</v>
       </c>
       <c r="B517">
-        <v>4224</v>
+        <v>3695</v>
       </c>
       <c r="C517">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>48</v>
       </c>
       <c r="B518">
-        <v>4231</v>
+        <v>4224</v>
       </c>
       <c r="C518">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>48</v>
       </c>
       <c r="B519">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="C519">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>48</v>
       </c>
       <c r="B520">
-        <v>4242</v>
+        <v>4237</v>
       </c>
       <c r="C520">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>48</v>
       </c>
       <c r="B521">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="C521">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>48</v>
       </c>
       <c r="B522">
-        <v>5496</v>
+        <v>4244</v>
       </c>
       <c r="C522">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>48</v>
       </c>
       <c r="B523">
-        <v>7048</v>
+        <v>5496</v>
       </c>
       <c r="C523">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6357,21 +6357,21 @@
         <v>48</v>
       </c>
       <c r="B524">
-        <v>8739</v>
+        <v>7048</v>
       </c>
       <c r="C524">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B525">
-        <v>1099</v>
+        <v>8739</v>
       </c>
       <c r="C525">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>49</v>
       </c>
       <c r="B526">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C526">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>49</v>
       </c>
       <c r="B527">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C527">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>49</v>
       </c>
       <c r="B528">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C528">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>49</v>
       </c>
       <c r="B529">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C529">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>49</v>
       </c>
       <c r="B530">
-        <v>1843</v>
+        <v>1105</v>
       </c>
       <c r="C530">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>49</v>
       </c>
       <c r="B531">
-        <v>3643</v>
+        <v>1843</v>
       </c>
       <c r="C531">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>49</v>
       </c>
       <c r="B532">
-        <v>5503</v>
+        <v>3643</v>
       </c>
       <c r="C532">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>49</v>
       </c>
       <c r="B533">
-        <v>6960</v>
+        <v>5503</v>
       </c>
       <c r="C533">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6467,21 +6467,21 @@
         <v>49</v>
       </c>
       <c r="B534">
-        <v>8783</v>
+        <v>6960</v>
       </c>
       <c r="C534">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B535">
-        <v>612</v>
+        <v>8783</v>
       </c>
       <c r="C535">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>50</v>
       </c>
       <c r="B536">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C536">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>50</v>
       </c>
       <c r="B537">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C537">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>50</v>
       </c>
       <c r="B538">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C538">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>50</v>
       </c>
       <c r="B539">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C539">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>50</v>
       </c>
       <c r="B540">
-        <v>1125</v>
+        <v>616</v>
       </c>
       <c r="C540">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>50</v>
       </c>
       <c r="B541">
-        <v>1881</v>
+        <v>1125</v>
       </c>
       <c r="C541">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>50</v>
       </c>
       <c r="B542">
-        <v>3702</v>
+        <v>1881</v>
       </c>
       <c r="C542">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>50</v>
       </c>
       <c r="B543">
-        <v>5627</v>
+        <v>3702</v>
       </c>
       <c r="C543">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>50</v>
       </c>
       <c r="B544">
-        <v>6966</v>
+        <v>5627</v>
       </c>
       <c r="C544">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6588,21 +6588,21 @@
         <v>50</v>
       </c>
       <c r="B545">
-        <v>8837</v>
+        <v>6966</v>
       </c>
       <c r="C545">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B546">
-        <v>255</v>
+        <v>8837</v>
       </c>
       <c r="C546">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>51</v>
       </c>
       <c r="B547">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C547">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>51</v>
       </c>
       <c r="B548">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C548">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>51</v>
       </c>
       <c r="B549">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C549">
-        <v>20162017</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>51</v>
       </c>
       <c r="B550">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C550">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>51</v>
       </c>
       <c r="B551">
-        <v>1589</v>
+        <v>279</v>
       </c>
       <c r="C551">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>51</v>
       </c>
       <c r="B552">
-        <v>2328</v>
+        <v>1589</v>
       </c>
       <c r="C552">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>51</v>
       </c>
       <c r="B553">
-        <v>3972</v>
+        <v>2328</v>
       </c>
       <c r="C553">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>51</v>
       </c>
       <c r="B554">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="C554">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>51</v>
       </c>
       <c r="B555">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="C555">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>51</v>
       </c>
       <c r="B556">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="C556">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>51</v>
       </c>
       <c r="B557">
-        <v>4760</v>
+        <v>3975</v>
       </c>
       <c r="C557">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>51</v>
       </c>
       <c r="B558">
-        <v>5948</v>
+        <v>4760</v>
       </c>
       <c r="C558">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>51</v>
       </c>
       <c r="B559">
-        <v>7428</v>
+        <v>5948</v>
       </c>
       <c r="C559">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6753,21 +6753,21 @@
         <v>51</v>
       </c>
       <c r="B560">
-        <v>9553</v>
+        <v>7428</v>
       </c>
       <c r="C560">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="561" spans="1:3">
       <c r="A561" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B561">
-        <v>13</v>
+        <v>9553</v>
       </c>
       <c r="C561">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>52</v>
       </c>
       <c r="B562">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C562">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>52</v>
       </c>
       <c r="B563">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C563">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>52</v>
       </c>
       <c r="B564">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C564">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>52</v>
       </c>
       <c r="B565">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="C565">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>52</v>
       </c>
       <c r="B566">
-        <v>1593</v>
+        <v>173</v>
       </c>
       <c r="C566">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>52</v>
       </c>
       <c r="B567">
-        <v>2321</v>
+        <v>1593</v>
       </c>
       <c r="C567">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>52</v>
       </c>
       <c r="B568">
-        <v>4225</v>
+        <v>2321</v>
       </c>
       <c r="C568">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>52</v>
       </c>
       <c r="B569">
-        <v>4232</v>
+        <v>4225</v>
       </c>
       <c r="C569">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>52</v>
       </c>
       <c r="B570">
-        <v>4238</v>
+        <v>4232</v>
       </c>
       <c r="C570">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>52</v>
       </c>
       <c r="B571">
-        <v>4885</v>
+        <v>4238</v>
       </c>
       <c r="C571">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>52</v>
       </c>
       <c r="B572">
-        <v>6117</v>
+        <v>4885</v>
       </c>
       <c r="C572">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6896,21 +6896,21 @@
         <v>52</v>
       </c>
       <c r="B573">
-        <v>7731</v>
+        <v>6117</v>
       </c>
       <c r="C573">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B574">
-        <v>174</v>
+        <v>7731</v>
       </c>
       <c r="C574">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>53</v>
       </c>
       <c r="B575">
-        <v>965</v>
+        <v>174</v>
       </c>
       <c r="C575">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>53</v>
       </c>
       <c r="B576">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C576">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>53</v>
       </c>
       <c r="B577">
-        <v>1594</v>
+        <v>966</v>
       </c>
       <c r="C577">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>53</v>
       </c>
       <c r="B578">
-        <v>2320</v>
+        <v>1594</v>
       </c>
       <c r="C578">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>53</v>
       </c>
       <c r="B579">
-        <v>4284</v>
+        <v>2320</v>
       </c>
       <c r="C579">
-        <v>20142015</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>53</v>
       </c>
       <c r="B580">
-        <v>4291</v>
+        <v>4284</v>
       </c>
       <c r="C580">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>53</v>
       </c>
       <c r="B581">
-        <v>4309</v>
+        <v>4291</v>
       </c>
       <c r="C581">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>53</v>
       </c>
       <c r="B582">
-        <v>4322</v>
+        <v>4309</v>
       </c>
       <c r="C582">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>53</v>
       </c>
       <c r="B583">
-        <v>4886</v>
+        <v>4322</v>
       </c>
       <c r="C583">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>53</v>
       </c>
       <c r="B584">
-        <v>6116</v>
+        <v>4886</v>
       </c>
       <c r="C584">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7028,21 +7028,21 @@
         <v>53</v>
       </c>
       <c r="B585">
-        <v>7732</v>
+        <v>6116</v>
       </c>
       <c r="C585">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B586">
-        <v>449</v>
+        <v>7732</v>
       </c>
       <c r="C586">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>54</v>
       </c>
       <c r="B587">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C587">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>54</v>
       </c>
       <c r="B588">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C588">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>54</v>
       </c>
       <c r="B589">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C589">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>54</v>
       </c>
       <c r="B590">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C590">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>54</v>
       </c>
       <c r="B591">
-        <v>990</v>
+        <v>453</v>
       </c>
       <c r="C591">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>54</v>
       </c>
       <c r="B592">
-        <v>1844</v>
+        <v>990</v>
       </c>
       <c r="C592">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>54</v>
       </c>
       <c r="B593">
-        <v>3570</v>
+        <v>1844</v>
       </c>
       <c r="C593">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>54</v>
       </c>
       <c r="B594">
-        <v>5534</v>
+        <v>3570</v>
       </c>
       <c r="C594">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>54</v>
       </c>
       <c r="B595">
-        <v>6967</v>
+        <v>5534</v>
       </c>
       <c r="C595">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7149,21 +7149,21 @@
         <v>54</v>
       </c>
       <c r="B596">
-        <v>8741</v>
+        <v>6967</v>
       </c>
       <c r="C596">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="597" spans="1:3">
       <c r="A597" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B597">
-        <v>1086</v>
+        <v>8741</v>
       </c>
       <c r="C597">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>55</v>
       </c>
       <c r="B598">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C598">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>55</v>
       </c>
       <c r="B599">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C599">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>55</v>
       </c>
       <c r="B600">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C600">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>55</v>
       </c>
       <c r="B601">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C601">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>55</v>
       </c>
       <c r="B602">
-        <v>1596</v>
+        <v>1090</v>
       </c>
       <c r="C602">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>55</v>
       </c>
       <c r="B603">
-        <v>2312</v>
+        <v>1596</v>
       </c>
       <c r="C603">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>55</v>
       </c>
       <c r="B604">
-        <v>4764</v>
+        <v>2312</v>
       </c>
       <c r="C604">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>55</v>
       </c>
       <c r="B605">
-        <v>6037</v>
+        <v>4764</v>
       </c>
       <c r="C605">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7259,21 +7259,21 @@
         <v>55</v>
       </c>
       <c r="B606">
-        <v>7663</v>
+        <v>6037</v>
       </c>
       <c r="C606">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B607">
-        <v>2</v>
+        <v>7663</v>
       </c>
       <c r="C607">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7281,10 +7281,10 @@
         <v>56</v>
       </c>
       <c r="B608">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="C608">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>56</v>
       </c>
       <c r="B609">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C609">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>56</v>
       </c>
       <c r="B610">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C610">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>56</v>
       </c>
       <c r="B611">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C611">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>56</v>
       </c>
       <c r="B612">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="C612">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>56</v>
       </c>
       <c r="B613">
-        <v>1600</v>
+        <v>223</v>
       </c>
       <c r="C613">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>56</v>
       </c>
       <c r="B614">
-        <v>2361</v>
+        <v>1600</v>
       </c>
       <c r="C614">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>56</v>
       </c>
       <c r="B615">
-        <v>4478</v>
+        <v>2361</v>
       </c>
       <c r="C615">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>56</v>
       </c>
       <c r="B616">
-        <v>5992</v>
+        <v>4478</v>
       </c>
       <c r="C616">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7380,21 +7380,21 @@
         <v>56</v>
       </c>
       <c r="B617">
-        <v>7494</v>
+        <v>5992</v>
       </c>
       <c r="C617">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B618">
-        <v>416</v>
+        <v>7494</v>
       </c>
       <c r="C618">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>57</v>
       </c>
       <c r="B619">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C619">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>57</v>
       </c>
       <c r="B620">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C620">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>57</v>
       </c>
       <c r="B621">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C621">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>57</v>
       </c>
       <c r="B622">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C622">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>57</v>
       </c>
       <c r="B623">
-        <v>1604</v>
+        <v>420</v>
       </c>
       <c r="C623">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>57</v>
       </c>
       <c r="B624">
-        <v>2254</v>
+        <v>1604</v>
       </c>
       <c r="C624">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>57</v>
       </c>
       <c r="B625">
-        <v>4533</v>
+        <v>2254</v>
       </c>
       <c r="C625">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>57</v>
       </c>
       <c r="B626">
-        <v>6046</v>
+        <v>4533</v>
       </c>
       <c r="C626">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7490,21 +7490,21 @@
         <v>57</v>
       </c>
       <c r="B627">
-        <v>7492</v>
+        <v>6046</v>
       </c>
       <c r="C627">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B628">
-        <v>439</v>
+        <v>7492</v>
       </c>
       <c r="C628">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>58</v>
       </c>
       <c r="B629">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C629">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>58</v>
       </c>
       <c r="B630">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C630">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>58</v>
       </c>
       <c r="B631">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C631">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>58</v>
       </c>
       <c r="B632">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C632">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>58</v>
       </c>
       <c r="B633">
-        <v>1606</v>
+        <v>448</v>
       </c>
       <c r="C633">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>58</v>
       </c>
       <c r="B634">
-        <v>2256</v>
+        <v>1606</v>
       </c>
       <c r="C634">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>58</v>
       </c>
       <c r="B635">
-        <v>4572</v>
+        <v>2256</v>
       </c>
       <c r="C635">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>58</v>
       </c>
       <c r="B636">
-        <v>5944</v>
+        <v>4572</v>
       </c>
       <c r="C636">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7600,21 +7600,21 @@
         <v>58</v>
       </c>
       <c r="B637">
-        <v>7958</v>
+        <v>5944</v>
       </c>
       <c r="C637">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="638" spans="1:3">
       <c r="A638" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B638">
-        <v>426</v>
+        <v>7958</v>
       </c>
       <c r="C638">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>59</v>
       </c>
       <c r="B639">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C639">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>59</v>
       </c>
       <c r="B640">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C640">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>59</v>
       </c>
       <c r="B641">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C641">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>59</v>
       </c>
       <c r="B642">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C642">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>59</v>
       </c>
       <c r="B643">
-        <v>1608</v>
+        <v>433</v>
       </c>
       <c r="C643">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>59</v>
       </c>
       <c r="B644">
-        <v>2251</v>
+        <v>1608</v>
       </c>
       <c r="C644">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>59</v>
       </c>
       <c r="B645">
-        <v>4635</v>
+        <v>2251</v>
       </c>
       <c r="C645">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>59</v>
       </c>
       <c r="B646">
-        <v>6048</v>
+        <v>4635</v>
       </c>
       <c r="C646">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7710,21 +7710,21 @@
         <v>59</v>
       </c>
       <c r="B647">
-        <v>7526</v>
+        <v>6048</v>
       </c>
       <c r="C647">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="648" spans="1:3">
       <c r="A648" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B648">
-        <v>747</v>
+        <v>7526</v>
       </c>
       <c r="C648">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>60</v>
       </c>
       <c r="B649">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C649">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>60</v>
       </c>
       <c r="B650">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C650">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>60</v>
       </c>
       <c r="B651">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C651">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>60</v>
       </c>
       <c r="B652">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C652">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>60</v>
       </c>
       <c r="B653">
-        <v>1115</v>
+        <v>751</v>
       </c>
       <c r="C653">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>60</v>
       </c>
       <c r="B654">
-        <v>1862</v>
+        <v>1115</v>
       </c>
       <c r="C654">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>60</v>
       </c>
       <c r="B655">
-        <v>4379</v>
+        <v>1862</v>
       </c>
       <c r="C655">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7809,10 +7809,10 @@
         <v>60</v>
       </c>
       <c r="B656">
-        <v>5506</v>
+        <v>4379</v>
       </c>
       <c r="C656">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7820,10 +7820,10 @@
         <v>60</v>
       </c>
       <c r="B657">
-        <v>7061</v>
+        <v>5506</v>
       </c>
       <c r="C657">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7831,21 +7831,21 @@
         <v>60</v>
       </c>
       <c r="B658">
-        <v>8899</v>
+        <v>7061</v>
       </c>
       <c r="C658">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="A659" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B659">
-        <v>752</v>
+        <v>8899</v>
       </c>
       <c r="C659">
-        <v>2015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7853,10 +7853,10 @@
         <v>61</v>
       </c>
       <c r="B660">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C660">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7864,10 +7864,10 @@
         <v>61</v>
       </c>
       <c r="B661">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C661">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7875,10 +7875,10 @@
         <v>61</v>
       </c>
       <c r="B662">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C662">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7886,10 +7886,10 @@
         <v>61</v>
       </c>
       <c r="B663">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C663">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7897,10 +7897,10 @@
         <v>61</v>
       </c>
       <c r="B664">
-        <v>1121</v>
+        <v>761</v>
       </c>
       <c r="C664">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7908,10 +7908,10 @@
         <v>61</v>
       </c>
       <c r="B665">
-        <v>1863</v>
+        <v>1121</v>
       </c>
       <c r="C665">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7919,10 +7919,10 @@
         <v>61</v>
       </c>
       <c r="B666">
-        <v>4381</v>
+        <v>1863</v>
       </c>
       <c r="C666">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7930,10 +7930,10 @@
         <v>61</v>
       </c>
       <c r="B667">
-        <v>5504</v>
+        <v>4381</v>
       </c>
       <c r="C667">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7941,10 +7941,10 @@
         <v>61</v>
       </c>
       <c r="B668">
-        <v>7062</v>
+        <v>5504</v>
       </c>
       <c r="C668">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7952,21 +7952,21 @@
         <v>61</v>
       </c>
       <c r="B669">
-        <v>8938</v>
+        <v>7062</v>
       </c>
       <c r="C669">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="670" spans="1:3">
       <c r="A670" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B670">
-        <v>34</v>
+        <v>8938</v>
       </c>
       <c r="C670">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7974,10 +7974,10 @@
         <v>62</v>
       </c>
       <c r="B671">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C671">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7985,10 +7985,10 @@
         <v>62</v>
       </c>
       <c r="B672">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C672">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7996,10 +7996,10 @@
         <v>62</v>
       </c>
       <c r="B673">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C673">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8007,10 +8007,10 @@
         <v>62</v>
       </c>
       <c r="B674">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C674">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8018,10 +8018,10 @@
         <v>62</v>
       </c>
       <c r="B675">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="C675">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8029,10 +8029,10 @@
         <v>62</v>
       </c>
       <c r="B676">
-        <v>1677</v>
+        <v>171</v>
       </c>
       <c r="C676">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8040,10 +8040,10 @@
         <v>62</v>
       </c>
       <c r="B677">
-        <v>2319</v>
+        <v>1677</v>
       </c>
       <c r="C677">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8051,10 +8051,10 @@
         <v>62</v>
       </c>
       <c r="B678">
-        <v>3631</v>
+        <v>2319</v>
       </c>
       <c r="C678">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8062,10 +8062,10 @@
         <v>62</v>
       </c>
       <c r="B679">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C679">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8073,10 +8073,10 @@
         <v>62</v>
       </c>
       <c r="B680">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="C680">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8084,10 +8084,10 @@
         <v>62</v>
       </c>
       <c r="B681">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="C681">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8095,10 +8095,10 @@
         <v>62</v>
       </c>
       <c r="B682">
-        <v>4944</v>
+        <v>3637</v>
       </c>
       <c r="C682">
-        <v>20202021</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8106,10 +8106,10 @@
         <v>62</v>
       </c>
       <c r="B683">
-        <v>6211</v>
+        <v>4944</v>
       </c>
       <c r="C683">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8117,21 +8117,21 @@
         <v>62</v>
       </c>
       <c r="B684">
-        <v>7665</v>
+        <v>6211</v>
       </c>
       <c r="C684">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="685" spans="1:3">
       <c r="A685" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B685">
-        <v>39</v>
+        <v>7665</v>
       </c>
       <c r="C685">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8139,10 +8139,10 @@
         <v>63</v>
       </c>
       <c r="B686">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C686">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8150,10 +8150,10 @@
         <v>63</v>
       </c>
       <c r="B687">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C687">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8161,10 +8161,10 @@
         <v>63</v>
       </c>
       <c r="B688">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C688">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8172,10 +8172,10 @@
         <v>63</v>
       </c>
       <c r="B689">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C689">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8183,10 +8183,10 @@
         <v>63</v>
       </c>
       <c r="B690">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="C690">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8194,10 +8194,10 @@
         <v>63</v>
       </c>
       <c r="B691">
-        <v>1670</v>
+        <v>172</v>
       </c>
       <c r="C691">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8205,10 +8205,10 @@
         <v>63</v>
       </c>
       <c r="B692">
-        <v>2415</v>
+        <v>1670</v>
       </c>
       <c r="C692">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8216,10 +8216,10 @@
         <v>63</v>
       </c>
       <c r="B693">
-        <v>4167</v>
+        <v>2415</v>
       </c>
       <c r="C693">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8227,10 +8227,10 @@
         <v>63</v>
       </c>
       <c r="B694">
-        <v>4245</v>
+        <v>4167</v>
       </c>
       <c r="C694">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8238,10 +8238,10 @@
         <v>63</v>
       </c>
       <c r="B695">
-        <v>4249</v>
+        <v>4245</v>
       </c>
       <c r="C695">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8249,10 +8249,10 @@
         <v>63</v>
       </c>
       <c r="B696">
-        <v>4842</v>
+        <v>4249</v>
       </c>
       <c r="C696">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8260,10 +8260,10 @@
         <v>63</v>
       </c>
       <c r="B697">
-        <v>6120</v>
+        <v>4842</v>
       </c>
       <c r="C697">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8271,21 +8271,21 @@
         <v>63</v>
       </c>
       <c r="B698">
-        <v>7592</v>
+        <v>6120</v>
       </c>
       <c r="C698">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="699" spans="1:3">
       <c r="A699" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B699">
-        <v>104</v>
+        <v>7592</v>
       </c>
       <c r="C699">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8293,10 +8293,10 @@
         <v>64</v>
       </c>
       <c r="B700">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C700">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8304,10 +8304,10 @@
         <v>64</v>
       </c>
       <c r="B701">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C701">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8315,10 +8315,10 @@
         <v>64</v>
       </c>
       <c r="B702">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C702">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8326,10 +8326,10 @@
         <v>64</v>
       </c>
       <c r="B703">
-        <v>994</v>
+        <v>107</v>
       </c>
       <c r="C703">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8337,10 +8337,10 @@
         <v>64</v>
       </c>
       <c r="B704">
-        <v>1848</v>
+        <v>994</v>
       </c>
       <c r="C704">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8348,10 +8348,10 @@
         <v>64</v>
       </c>
       <c r="B705">
-        <v>3703</v>
+        <v>1848</v>
       </c>
       <c r="C705">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8359,10 +8359,10 @@
         <v>64</v>
       </c>
       <c r="B706">
-        <v>4307</v>
+        <v>3703</v>
       </c>
       <c r="C706">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8370,10 +8370,10 @@
         <v>64</v>
       </c>
       <c r="B707">
-        <v>4315</v>
+        <v>4307</v>
       </c>
       <c r="C707">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8381,10 +8381,10 @@
         <v>64</v>
       </c>
       <c r="B708">
-        <v>4329</v>
+        <v>4315</v>
       </c>
       <c r="C708">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8392,10 +8392,10 @@
         <v>64</v>
       </c>
       <c r="B709">
-        <v>5505</v>
+        <v>4329</v>
       </c>
       <c r="C709">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8403,10 +8403,10 @@
         <v>64</v>
       </c>
       <c r="B710">
-        <v>7064</v>
+        <v>5505</v>
       </c>
       <c r="C710">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8414,21 +8414,21 @@
         <v>64</v>
       </c>
       <c r="B711">
-        <v>8737</v>
+        <v>7064</v>
       </c>
       <c r="C711">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="712" spans="1:3">
       <c r="A712" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B712">
-        <v>136</v>
+        <v>8737</v>
       </c>
       <c r="C712">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8436,10 +8436,10 @@
         <v>65</v>
       </c>
       <c r="B713">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C713">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8447,10 +8447,10 @@
         <v>65</v>
       </c>
       <c r="B714">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C714">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8458,10 +8458,10 @@
         <v>65</v>
       </c>
       <c r="B715">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C715">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8469,10 +8469,10 @@
         <v>65</v>
       </c>
       <c r="B716">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C716">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8480,10 +8480,10 @@
         <v>65</v>
       </c>
       <c r="B717">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C717">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8491,10 +8491,10 @@
         <v>65</v>
       </c>
       <c r="B718">
-        <v>1610</v>
+        <v>186</v>
       </c>
       <c r="C718">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8502,10 +8502,10 @@
         <v>65</v>
       </c>
       <c r="B719">
-        <v>2249</v>
+        <v>1610</v>
       </c>
       <c r="C719">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8513,10 +8513,10 @@
         <v>65</v>
       </c>
       <c r="B720">
-        <v>4906</v>
+        <v>2249</v>
       </c>
       <c r="C720">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8524,10 +8524,10 @@
         <v>65</v>
       </c>
       <c r="B721">
-        <v>6044</v>
+        <v>4906</v>
       </c>
       <c r="C721">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8535,21 +8535,21 @@
         <v>65</v>
       </c>
       <c r="B722">
-        <v>7504</v>
+        <v>6044</v>
       </c>
       <c r="C722">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="723" spans="1:3">
       <c r="A723" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B723">
-        <v>798</v>
+        <v>7504</v>
       </c>
       <c r="C723">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8557,10 +8557,10 @@
         <v>66</v>
       </c>
       <c r="B724">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C724">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8568,10 +8568,10 @@
         <v>66</v>
       </c>
       <c r="B725">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C725">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8579,10 +8579,10 @@
         <v>66</v>
       </c>
       <c r="B726">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C726">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8590,10 +8590,10 @@
         <v>66</v>
       </c>
       <c r="B727">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C727">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8601,10 +8601,10 @@
         <v>66</v>
       </c>
       <c r="B728">
-        <v>1644</v>
+        <v>802</v>
       </c>
       <c r="C728">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8612,10 +8612,10 @@
         <v>66</v>
       </c>
       <c r="B729">
-        <v>2650</v>
+        <v>1644</v>
       </c>
       <c r="C729">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8623,10 +8623,10 @@
         <v>66</v>
       </c>
       <c r="B730">
-        <v>5257</v>
+        <v>2650</v>
       </c>
       <c r="C730">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8634,10 +8634,10 @@
         <v>66</v>
       </c>
       <c r="B731">
-        <v>6726</v>
+        <v>5257</v>
       </c>
       <c r="C731">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8645,21 +8645,21 @@
         <v>66</v>
       </c>
       <c r="B732">
-        <v>8428</v>
+        <v>6726</v>
       </c>
       <c r="C732">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="733" spans="1:3">
       <c r="A733" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B733">
-        <v>19</v>
+        <v>8428</v>
       </c>
       <c r="C733">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8667,10 +8667,10 @@
         <v>67</v>
       </c>
       <c r="B734">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C734">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8678,10 +8678,10 @@
         <v>67</v>
       </c>
       <c r="B735">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C735">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8689,10 +8689,10 @@
         <v>67</v>
       </c>
       <c r="B736">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="C736">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8700,10 +8700,10 @@
         <v>67</v>
       </c>
       <c r="B737">
-        <v>1614</v>
+        <v>175</v>
       </c>
       <c r="C737">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8711,10 +8711,10 @@
         <v>67</v>
       </c>
       <c r="B738">
-        <v>2648</v>
+        <v>1614</v>
       </c>
       <c r="C738">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8722,10 +8722,10 @@
         <v>67</v>
       </c>
       <c r="B739">
-        <v>4840</v>
+        <v>2648</v>
       </c>
       <c r="C739">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8733,10 +8733,10 @@
         <v>67</v>
       </c>
       <c r="B740">
-        <v>6125</v>
+        <v>4840</v>
       </c>
       <c r="C740">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8744,21 +8744,21 @@
         <v>67</v>
       </c>
       <c r="B741">
-        <v>7768</v>
+        <v>6125</v>
       </c>
       <c r="C741">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="742" spans="1:3">
       <c r="A742" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B742">
-        <v>1</v>
+        <v>7768</v>
       </c>
       <c r="C742">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8766,10 +8766,10 @@
         <v>68</v>
       </c>
       <c r="B743">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C743">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8777,10 +8777,10 @@
         <v>68</v>
       </c>
       <c r="B744">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C744">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8788,10 +8788,10 @@
         <v>68</v>
       </c>
       <c r="B745">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C745">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8799,10 +8799,10 @@
         <v>68</v>
       </c>
       <c r="B746">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="C746">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8810,10 +8810,10 @@
         <v>68</v>
       </c>
       <c r="B747">
-        <v>1076</v>
+        <v>163</v>
       </c>
       <c r="C747">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8821,10 +8821,10 @@
         <v>68</v>
       </c>
       <c r="B748">
-        <v>1846</v>
+        <v>1076</v>
       </c>
       <c r="C748">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8832,10 +8832,10 @@
         <v>68</v>
       </c>
       <c r="B749">
-        <v>4227</v>
+        <v>1846</v>
       </c>
       <c r="C749">
-        <v>2012</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8843,10 +8843,10 @@
         <v>68</v>
       </c>
       <c r="B750">
-        <v>4235</v>
+        <v>4227</v>
       </c>
       <c r="C750">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8854,10 +8854,10 @@
         <v>68</v>
       </c>
       <c r="B751">
-        <v>4241</v>
+        <v>4235</v>
       </c>
       <c r="C751">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8865,10 +8865,10 @@
         <v>68</v>
       </c>
       <c r="B752">
-        <v>4473</v>
+        <v>4241</v>
       </c>
       <c r="C752">
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8876,10 +8876,10 @@
         <v>68</v>
       </c>
       <c r="B753">
-        <v>5674</v>
+        <v>4473</v>
       </c>
       <c r="C753">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8887,10 +8887,10 @@
         <v>68</v>
       </c>
       <c r="B754">
-        <v>6969</v>
+        <v>5674</v>
       </c>
       <c r="C754">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8898,21 +8898,21 @@
         <v>68</v>
       </c>
       <c r="B755">
-        <v>8777</v>
+        <v>6969</v>
       </c>
       <c r="C755">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="756" spans="1:3">
       <c r="A756" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B756">
-        <v>1290</v>
+        <v>8777</v>
       </c>
       <c r="C756">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8920,10 +8920,10 @@
         <v>69</v>
       </c>
       <c r="B757">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C757">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8931,10 +8931,10 @@
         <v>69</v>
       </c>
       <c r="B758">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C758">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8942,10 +8942,10 @@
         <v>69</v>
       </c>
       <c r="B759">
-        <v>1857</v>
+        <v>1292</v>
       </c>
       <c r="C759">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8953,10 +8953,10 @@
         <v>69</v>
       </c>
       <c r="B760">
-        <v>3710</v>
+        <v>1857</v>
       </c>
       <c r="C760">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8964,10 +8964,10 @@
         <v>69</v>
       </c>
       <c r="B761">
-        <v>4279</v>
+        <v>3710</v>
       </c>
       <c r="C761">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8975,10 +8975,10 @@
         <v>69</v>
       </c>
       <c r="B762">
-        <v>4283</v>
+        <v>4279</v>
       </c>
       <c r="C762">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8986,10 +8986,10 @@
         <v>69</v>
       </c>
       <c r="B763">
-        <v>4288</v>
+        <v>4283</v>
       </c>
       <c r="C763">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8997,10 +8997,10 @@
         <v>69</v>
       </c>
       <c r="B764">
-        <v>6541</v>
+        <v>4288</v>
       </c>
       <c r="C764">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9008,10 +9008,10 @@
         <v>69</v>
       </c>
       <c r="B765">
-        <v>6970</v>
+        <v>6541</v>
       </c>
       <c r="C765">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9019,21 +9019,21 @@
         <v>69</v>
       </c>
       <c r="B766">
-        <v>8845</v>
+        <v>6970</v>
       </c>
       <c r="C766">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="767" spans="1:3">
       <c r="A767" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B767">
-        <v>360</v>
+        <v>8845</v>
       </c>
       <c r="C767">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9041,10 +9041,10 @@
         <v>70</v>
       </c>
       <c r="B768">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C768">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9052,10 +9052,10 @@
         <v>70</v>
       </c>
       <c r="B769">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C769">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9063,10 +9063,10 @@
         <v>70</v>
       </c>
       <c r="B770">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C770">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9074,10 +9074,10 @@
         <v>70</v>
       </c>
       <c r="B771">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C771">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9085,10 +9085,10 @@
         <v>70</v>
       </c>
       <c r="B772">
-        <v>1618</v>
+        <v>364</v>
       </c>
       <c r="C772">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9096,10 +9096,10 @@
         <v>70</v>
       </c>
       <c r="B773">
-        <v>2317</v>
+        <v>1618</v>
       </c>
       <c r="C773">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9107,10 +9107,10 @@
         <v>70</v>
       </c>
       <c r="B774">
-        <v>4751</v>
+        <v>2317</v>
       </c>
       <c r="C774">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9118,10 +9118,10 @@
         <v>70</v>
       </c>
       <c r="B775">
-        <v>5943</v>
+        <v>4751</v>
       </c>
       <c r="C775">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9129,21 +9129,21 @@
         <v>70</v>
       </c>
       <c r="B776">
-        <v>8222</v>
+        <v>5943</v>
       </c>
       <c r="C776">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="777" spans="1:3">
       <c r="A777" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B777">
-        <v>853</v>
+        <v>8222</v>
       </c>
       <c r="C777">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9151,10 +9151,10 @@
         <v>71</v>
       </c>
       <c r="B778">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C778">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9162,10 +9162,10 @@
         <v>71</v>
       </c>
       <c r="B779">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C779">
-        <v>20152016</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9173,10 +9173,10 @@
         <v>71</v>
       </c>
       <c r="B780">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C780">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9184,10 +9184,10 @@
         <v>71</v>
       </c>
       <c r="B781">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C781">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9195,10 +9195,10 @@
         <v>71</v>
       </c>
       <c r="B782">
-        <v>1095</v>
+        <v>857</v>
       </c>
       <c r="C782">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9206,10 +9206,10 @@
         <v>71</v>
       </c>
       <c r="B783">
-        <v>1905</v>
+        <v>1095</v>
       </c>
       <c r="C783">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9217,10 +9217,10 @@
         <v>71</v>
       </c>
       <c r="B784">
-        <v>3789</v>
+        <v>1905</v>
       </c>
       <c r="C784">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9228,10 +9228,10 @@
         <v>71</v>
       </c>
       <c r="B785">
-        <v>5809</v>
+        <v>3789</v>
       </c>
       <c r="C785">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9239,10 +9239,10 @@
         <v>71</v>
       </c>
       <c r="B786">
-        <v>7067</v>
+        <v>5809</v>
       </c>
       <c r="C786">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9250,21 +9250,21 @@
         <v>71</v>
       </c>
       <c r="B787">
-        <v>8937</v>
+        <v>7067</v>
       </c>
       <c r="C787">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="788" spans="1:3">
       <c r="A788" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B788">
-        <v>858</v>
+        <v>8937</v>
       </c>
       <c r="C788">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9272,10 +9272,10 @@
         <v>72</v>
       </c>
       <c r="B789">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C789">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9283,10 +9283,10 @@
         <v>72</v>
       </c>
       <c r="B790">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C790">
-        <v>20152016</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9294,10 +9294,10 @@
         <v>72</v>
       </c>
       <c r="B791">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C791">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9305,10 +9305,10 @@
         <v>72</v>
       </c>
       <c r="B792">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C792">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9316,10 +9316,10 @@
         <v>72</v>
       </c>
       <c r="B793">
-        <v>1096</v>
+        <v>862</v>
       </c>
       <c r="C793">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9327,10 +9327,10 @@
         <v>72</v>
       </c>
       <c r="B794">
-        <v>1949</v>
+        <v>1096</v>
       </c>
       <c r="C794">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9338,10 +9338,10 @@
         <v>72</v>
       </c>
       <c r="B795">
-        <v>4651</v>
+        <v>1949</v>
       </c>
       <c r="C795">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9349,10 +9349,10 @@
         <v>72</v>
       </c>
       <c r="B796">
-        <v>5908</v>
+        <v>4651</v>
       </c>
       <c r="C796">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9360,10 +9360,10 @@
         <v>72</v>
       </c>
       <c r="B797">
-        <v>7173</v>
+        <v>5908</v>
       </c>
       <c r="C797">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9371,21 +9371,21 @@
         <v>72</v>
       </c>
       <c r="B798">
-        <v>9288</v>
+        <v>7173</v>
       </c>
       <c r="C798">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="799" spans="1:3">
       <c r="A799" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B799">
-        <v>622</v>
+        <v>9288</v>
       </c>
       <c r="C799">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9393,10 +9393,10 @@
         <v>73</v>
       </c>
       <c r="B800">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C800">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9404,10 +9404,10 @@
         <v>73</v>
       </c>
       <c r="B801">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C801">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9415,10 +9415,10 @@
         <v>73</v>
       </c>
       <c r="B802">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C802">
-        <v>20142015</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9426,10 +9426,10 @@
         <v>73</v>
       </c>
       <c r="B803">
-        <v>1102</v>
+        <v>631</v>
       </c>
       <c r="C803">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9437,10 +9437,10 @@
         <v>73</v>
       </c>
       <c r="B804">
-        <v>1868</v>
+        <v>1102</v>
       </c>
       <c r="C804">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9448,10 +9448,10 @@
         <v>73</v>
       </c>
       <c r="B805">
-        <v>2011</v>
+        <v>1868</v>
       </c>
       <c r="C805">
-        <v>20132014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9459,10 +9459,10 @@
         <v>73</v>
       </c>
       <c r="B806">
-        <v>3714</v>
+        <v>2011</v>
       </c>
       <c r="C806">
-        <v>2020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9470,10 +9470,10 @@
         <v>73</v>
       </c>
       <c r="B807">
-        <v>5631</v>
+        <v>3714</v>
       </c>
       <c r="C807">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9481,10 +9481,10 @@
         <v>73</v>
       </c>
       <c r="B808">
-        <v>7166</v>
+        <v>5631</v>
       </c>
       <c r="C808">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9492,9 +9492,20 @@
         <v>73</v>
       </c>
       <c r="B809">
+        <v>7166</v>
+      </c>
+      <c r="C809">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3">
+      <c r="A810" t="s">
+        <v>73</v>
+      </c>
+      <c r="B810">
         <v>8952</v>
       </c>
-      <c r="C809">
+      <c r="C810">
         <v>2023</v>
       </c>
     </row>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="74">
   <si>
     <t>League</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C810"/>
+  <dimension ref="A1:C812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1173,13 +1173,13 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>512</v>
+        <v>9577</v>
       </c>
       <c r="C53">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>8</v>
       </c>
       <c r="B54">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C54">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="B55">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C55">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>8</v>
       </c>
       <c r="B56">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C56">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>8</v>
       </c>
       <c r="B57">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C57">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="B58">
-        <v>997</v>
+        <v>516</v>
       </c>
       <c r="C58">
-        <v>2018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>8</v>
       </c>
       <c r="B59">
-        <v>1823</v>
+        <v>997</v>
       </c>
       <c r="C59">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>8</v>
       </c>
       <c r="B60">
-        <v>3644</v>
+        <v>1823</v>
       </c>
       <c r="C60">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>8</v>
       </c>
       <c r="B61">
-        <v>5590</v>
+        <v>3644</v>
       </c>
       <c r="C61">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>8</v>
       </c>
       <c r="B62">
-        <v>7033</v>
+        <v>5590</v>
       </c>
       <c r="C62">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1286,21 +1286,21 @@
         <v>8</v>
       </c>
       <c r="B63">
-        <v>8926</v>
+        <v>7033</v>
       </c>
       <c r="C63">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64">
-        <v>100</v>
+        <v>8926</v>
       </c>
       <c r="C64">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>9</v>
       </c>
       <c r="B66">
-        <v>580</v>
+        <v>101</v>
       </c>
       <c r="C66">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>9</v>
       </c>
       <c r="B67">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C67">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>9</v>
       </c>
       <c r="B68">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C68">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>9</v>
       </c>
       <c r="B69">
-        <v>1198</v>
+        <v>582</v>
       </c>
       <c r="C69">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>9</v>
       </c>
       <c r="B70">
-        <v>1936</v>
+        <v>1198</v>
       </c>
       <c r="C70">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>9</v>
       </c>
       <c r="B71">
-        <v>3817</v>
+        <v>1936</v>
       </c>
       <c r="C71">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>9</v>
       </c>
       <c r="B72">
-        <v>5713</v>
+        <v>3817</v>
       </c>
       <c r="C72">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>9</v>
       </c>
       <c r="B73">
-        <v>7097</v>
+        <v>5713</v>
       </c>
       <c r="C73">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1407,21 +1407,21 @@
         <v>9</v>
       </c>
       <c r="B74">
-        <v>9035</v>
+        <v>7097</v>
       </c>
       <c r="C74">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75">
-        <v>102</v>
+        <v>9035</v>
       </c>
       <c r="C75">
-        <v>2014</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="B76">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>10</v>
       </c>
       <c r="B77">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C77">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>10</v>
       </c>
       <c r="B78">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="C78">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>10</v>
       </c>
       <c r="B79">
-        <v>1199</v>
+        <v>193</v>
       </c>
       <c r="C79">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>10</v>
       </c>
       <c r="B80">
-        <v>1937</v>
+        <v>1199</v>
       </c>
       <c r="C80">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>10</v>
       </c>
       <c r="B81">
-        <v>4565</v>
+        <v>1937</v>
       </c>
       <c r="C81">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>10</v>
       </c>
       <c r="B82">
-        <v>5721</v>
+        <v>4565</v>
       </c>
       <c r="C82">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="B83">
-        <v>5855</v>
+        <v>5721</v>
       </c>
       <c r="C83">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>10</v>
       </c>
       <c r="B84">
-        <v>7107</v>
+        <v>5855</v>
       </c>
       <c r="C84">
-        <v>2022</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1528,21 +1528,21 @@
         <v>10</v>
       </c>
       <c r="B85">
-        <v>9042</v>
+        <v>7107</v>
       </c>
       <c r="C85">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86">
-        <v>583</v>
+        <v>9042</v>
       </c>
       <c r="C86">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>11</v>
       </c>
       <c r="B87">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C87">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>11</v>
       </c>
       <c r="B88">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C88">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>11</v>
       </c>
       <c r="B89">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C89">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>11</v>
       </c>
       <c r="B90">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C90">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>11</v>
       </c>
       <c r="B91">
-        <v>1211</v>
+        <v>587</v>
       </c>
       <c r="C91">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>11</v>
       </c>
       <c r="B92">
-        <v>1938</v>
+        <v>1211</v>
       </c>
       <c r="C92">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>11</v>
       </c>
       <c r="B93">
-        <v>4566</v>
+        <v>1938</v>
       </c>
       <c r="C93">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>11</v>
       </c>
       <c r="B94">
-        <v>5727</v>
+        <v>4566</v>
       </c>
       <c r="C94">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>11</v>
       </c>
       <c r="B95">
-        <v>7109</v>
+        <v>5727</v>
       </c>
       <c r="C95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1649,21 +1649,21 @@
         <v>11</v>
       </c>
       <c r="B96">
-        <v>9087</v>
+        <v>7109</v>
       </c>
       <c r="C96">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97">
-        <v>588</v>
+        <v>9087</v>
       </c>
       <c r="C97">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>12</v>
       </c>
       <c r="B98">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C98">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>12</v>
       </c>
       <c r="B99">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C99">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>12</v>
       </c>
       <c r="B100">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C100">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>12</v>
       </c>
       <c r="B101">
-        <v>1200</v>
+        <v>591</v>
       </c>
       <c r="C101">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>12</v>
       </c>
       <c r="B102">
-        <v>1939</v>
+        <v>1200</v>
       </c>
       <c r="C102">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>12</v>
       </c>
       <c r="B103">
-        <v>4854</v>
+        <v>1939</v>
       </c>
       <c r="C103">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>12</v>
       </c>
       <c r="B104">
-        <v>5832</v>
+        <v>4854</v>
       </c>
       <c r="C104">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>12</v>
       </c>
       <c r="B105">
-        <v>7093</v>
+        <v>5832</v>
       </c>
       <c r="C105">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1759,21 +1759,21 @@
         <v>12</v>
       </c>
       <c r="B106">
-        <v>9086</v>
+        <v>7093</v>
       </c>
       <c r="C106">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107">
-        <v>690</v>
+        <v>9086</v>
       </c>
       <c r="C107">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>13</v>
       </c>
       <c r="B108">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C108">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>13</v>
       </c>
       <c r="B109">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C109">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>13</v>
       </c>
       <c r="B110">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C110">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1814,10 +1814,10 @@
         <v>13</v>
       </c>
       <c r="B111">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C111">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1825,10 +1825,10 @@
         <v>13</v>
       </c>
       <c r="B112">
-        <v>1547</v>
+        <v>695</v>
       </c>
       <c r="C112">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1836,10 +1836,10 @@
         <v>13</v>
       </c>
       <c r="B113">
-        <v>2285</v>
+        <v>1547</v>
       </c>
       <c r="C113">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1847,10 +1847,10 @@
         <v>13</v>
       </c>
       <c r="B114">
-        <v>4574</v>
+        <v>2285</v>
       </c>
       <c r="C114">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1858,10 +1858,10 @@
         <v>13</v>
       </c>
       <c r="B115">
-        <v>6012</v>
+        <v>4574</v>
       </c>
       <c r="C115">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1869,10 +1869,10 @@
         <v>13</v>
       </c>
       <c r="B116">
-        <v>7483</v>
+        <v>6012</v>
       </c>
       <c r="C116">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1880,21 +1880,21 @@
         <v>13</v>
       </c>
       <c r="B117">
-        <v>9551</v>
+        <v>7483</v>
       </c>
       <c r="C117">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B118">
-        <v>2047</v>
+        <v>9551</v>
       </c>
       <c r="C118">
-        <v>2019</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1902,10 +1902,10 @@
         <v>14</v>
       </c>
       <c r="B119">
-        <v>3801</v>
+        <v>2047</v>
       </c>
       <c r="C119">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1913,10 +1913,10 @@
         <v>14</v>
       </c>
       <c r="B120">
-        <v>6003</v>
+        <v>3801</v>
       </c>
       <c r="C120">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1924,10 +1924,10 @@
         <v>14</v>
       </c>
       <c r="B121">
-        <v>7112</v>
+        <v>6003</v>
       </c>
       <c r="C121">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1935,21 +1935,21 @@
         <v>14</v>
       </c>
       <c r="B122">
-        <v>8946</v>
+        <v>7112</v>
       </c>
       <c r="C122">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B123">
-        <v>499</v>
+        <v>8946</v>
       </c>
       <c r="C123">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1957,10 +1957,10 @@
         <v>15</v>
       </c>
       <c r="B124">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C124">
-        <v>20162017</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1968,10 +1968,10 @@
         <v>15</v>
       </c>
       <c r="B125">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C125">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1979,10 +1979,10 @@
         <v>15</v>
       </c>
       <c r="B126">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C126">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1990,10 +1990,10 @@
         <v>15</v>
       </c>
       <c r="B127">
-        <v>1202</v>
+        <v>502</v>
       </c>
       <c r="C127">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2001,10 +2001,10 @@
         <v>15</v>
       </c>
       <c r="B128">
-        <v>1870</v>
+        <v>1202</v>
       </c>
       <c r="C128">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2012,10 +2012,10 @@
         <v>15</v>
       </c>
       <c r="B129">
-        <v>3765</v>
+        <v>1870</v>
       </c>
       <c r="C129">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2023,10 +2023,10 @@
         <v>15</v>
       </c>
       <c r="B130">
-        <v>5704</v>
+        <v>3765</v>
       </c>
       <c r="C130">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2034,10 +2034,10 @@
         <v>15</v>
       </c>
       <c r="B131">
-        <v>7114</v>
+        <v>5704</v>
       </c>
       <c r="C131">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2045,21 +2045,21 @@
         <v>15</v>
       </c>
       <c r="B132">
-        <v>8875</v>
+        <v>7114</v>
       </c>
       <c r="C132">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B133">
-        <v>494</v>
+        <v>8875</v>
       </c>
       <c r="C133">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2067,10 +2067,10 @@
         <v>16</v>
       </c>
       <c r="B134">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C134">
-        <v>20162017</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>16</v>
       </c>
       <c r="B135">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C135">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2089,10 +2089,10 @@
         <v>16</v>
       </c>
       <c r="B136">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C136">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2100,10 +2100,10 @@
         <v>16</v>
       </c>
       <c r="B137">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C137">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>16</v>
       </c>
       <c r="B138">
-        <v>1053</v>
+        <v>498</v>
       </c>
       <c r="C138">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>16</v>
       </c>
       <c r="B139">
-        <v>1869</v>
+        <v>1053</v>
       </c>
       <c r="C139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>16</v>
       </c>
       <c r="B140">
-        <v>3646</v>
+        <v>1869</v>
       </c>
       <c r="C140">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>16</v>
       </c>
       <c r="B141">
-        <v>5682</v>
+        <v>3646</v>
       </c>
       <c r="C141">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2155,10 +2155,10 @@
         <v>16</v>
       </c>
       <c r="B142">
-        <v>7036</v>
+        <v>5682</v>
       </c>
       <c r="C142">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2166,21 +2166,21 @@
         <v>16</v>
       </c>
       <c r="B143">
-        <v>8833</v>
+        <v>7036</v>
       </c>
       <c r="C143">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B144">
-        <v>503</v>
+        <v>8833</v>
       </c>
       <c r="C144">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>17</v>
       </c>
       <c r="B145">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C145">
-        <v>20162017</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>17</v>
       </c>
       <c r="B146">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C146">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>17</v>
       </c>
       <c r="B147">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C147">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>17</v>
       </c>
       <c r="B148">
-        <v>1203</v>
+        <v>506</v>
       </c>
       <c r="C148">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>17</v>
       </c>
       <c r="B149">
-        <v>1951</v>
+        <v>1203</v>
       </c>
       <c r="C149">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>17</v>
       </c>
       <c r="B150">
-        <v>5012</v>
+        <v>1951</v>
       </c>
       <c r="C150">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>17</v>
       </c>
       <c r="B151">
-        <v>5879</v>
+        <v>5012</v>
       </c>
       <c r="C151">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>17</v>
       </c>
       <c r="B152">
-        <v>7257</v>
+        <v>5879</v>
       </c>
       <c r="C152">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2276,21 +2276,21 @@
         <v>17</v>
       </c>
       <c r="B153">
-        <v>9040</v>
+        <v>7257</v>
       </c>
       <c r="C153">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B154">
-        <v>127</v>
+        <v>9040</v>
       </c>
       <c r="C154">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>18</v>
       </c>
       <c r="B155">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C155">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>18</v>
       </c>
       <c r="B156">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C156">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>18</v>
       </c>
       <c r="B157">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C157">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>18</v>
       </c>
       <c r="B158">
-        <v>1072</v>
+        <v>152</v>
       </c>
       <c r="C158">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>18</v>
       </c>
       <c r="B159">
-        <v>1871</v>
+        <v>1072</v>
       </c>
       <c r="C159">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>18</v>
       </c>
       <c r="B160">
-        <v>4306</v>
+        <v>1871</v>
       </c>
       <c r="C160">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>18</v>
       </c>
       <c r="B161">
-        <v>4313</v>
+        <v>4306</v>
       </c>
       <c r="C161">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>18</v>
       </c>
       <c r="B162">
-        <v>4330</v>
+        <v>4313</v>
       </c>
       <c r="C162">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>18</v>
       </c>
       <c r="B163">
-        <v>4337</v>
+        <v>4330</v>
       </c>
       <c r="C163">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>18</v>
       </c>
       <c r="B164">
-        <v>4382</v>
+        <v>4337</v>
       </c>
       <c r="C164">
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>18</v>
       </c>
       <c r="B165">
-        <v>5728</v>
+        <v>4382</v>
       </c>
       <c r="C165">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>18</v>
       </c>
       <c r="B166">
-        <v>7356</v>
+        <v>5728</v>
       </c>
       <c r="C166">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2430,21 +2430,21 @@
         <v>18</v>
       </c>
       <c r="B167">
-        <v>9186</v>
+        <v>7356</v>
       </c>
       <c r="C167">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B168">
-        <v>479</v>
+        <v>9186</v>
       </c>
       <c r="C168">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>19</v>
       </c>
       <c r="B169">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C169">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>19</v>
       </c>
       <c r="B170">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C170">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>19</v>
       </c>
       <c r="B171">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C171">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="B172">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C172">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>19</v>
       </c>
       <c r="B173">
-        <v>1069</v>
+        <v>483</v>
       </c>
       <c r="C173">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>19</v>
       </c>
       <c r="B174">
-        <v>1828</v>
+        <v>1069</v>
       </c>
       <c r="C174">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>19</v>
       </c>
       <c r="B175">
-        <v>3638</v>
+        <v>1828</v>
       </c>
       <c r="C175">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>19</v>
       </c>
       <c r="B176">
-        <v>5421</v>
+        <v>3638</v>
       </c>
       <c r="C176">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>19</v>
       </c>
       <c r="B177">
-        <v>6905</v>
+        <v>5421</v>
       </c>
       <c r="C177">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2551,21 +2551,21 @@
         <v>19</v>
       </c>
       <c r="B178">
-        <v>8936</v>
+        <v>6905</v>
       </c>
       <c r="C178">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B179">
-        <v>484</v>
+        <v>8936</v>
       </c>
       <c r="C179">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>20</v>
       </c>
       <c r="B180">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C180">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>20</v>
       </c>
       <c r="B181">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C181">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>20</v>
       </c>
       <c r="B182">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C182">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>20</v>
       </c>
       <c r="B183">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C183">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>20</v>
       </c>
       <c r="B184">
-        <v>1070</v>
+        <v>488</v>
       </c>
       <c r="C184">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>20</v>
       </c>
       <c r="B185">
-        <v>1829</v>
+        <v>1070</v>
       </c>
       <c r="C185">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>20</v>
       </c>
       <c r="B186">
-        <v>3640</v>
+        <v>1829</v>
       </c>
       <c r="C186">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>20</v>
       </c>
       <c r="B187">
-        <v>5431</v>
+        <v>3640</v>
       </c>
       <c r="C187">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>20</v>
       </c>
       <c r="B188">
-        <v>6908</v>
+        <v>5431</v>
       </c>
       <c r="C188">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2672,21 +2672,21 @@
         <v>20</v>
       </c>
       <c r="B189">
-        <v>8897</v>
+        <v>6908</v>
       </c>
       <c r="C189">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B190">
-        <v>397</v>
+        <v>8897</v>
       </c>
       <c r="C190">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>21</v>
       </c>
       <c r="B191">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C191">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>21</v>
       </c>
       <c r="B192">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C192">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>21</v>
       </c>
       <c r="B193">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C193">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>21</v>
       </c>
       <c r="B194">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C194">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>21</v>
       </c>
       <c r="B195">
-        <v>1557</v>
+        <v>404</v>
       </c>
       <c r="C195">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>21</v>
       </c>
       <c r="B196">
-        <v>2278</v>
+        <v>1557</v>
       </c>
       <c r="C196">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>21</v>
       </c>
       <c r="B197">
-        <v>4660</v>
+        <v>2278</v>
       </c>
       <c r="C197">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>21</v>
       </c>
       <c r="B198">
-        <v>5956</v>
+        <v>4660</v>
       </c>
       <c r="C198">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2782,10 +2782,10 @@
         <v>21</v>
       </c>
       <c r="B199">
-        <v>7457</v>
+        <v>5956</v>
       </c>
       <c r="C199">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2793,21 +2793,21 @@
         <v>21</v>
       </c>
       <c r="B200">
-        <v>9542</v>
+        <v>7457</v>
       </c>
       <c r="C200">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B201">
-        <v>537</v>
+        <v>9542</v>
       </c>
       <c r="C201">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>22</v>
       </c>
       <c r="B202">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C202">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>22</v>
       </c>
       <c r="B203">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C203">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>22</v>
       </c>
       <c r="B204">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C204">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>22</v>
       </c>
       <c r="B205">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C205">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>22</v>
       </c>
       <c r="B206">
-        <v>1545</v>
+        <v>541</v>
       </c>
       <c r="C206">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2870,10 +2870,10 @@
         <v>22</v>
       </c>
       <c r="B207">
-        <v>2268</v>
+        <v>1545</v>
       </c>
       <c r="C207">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2881,10 +2881,10 @@
         <v>22</v>
       </c>
       <c r="B208">
-        <v>4308</v>
+        <v>2268</v>
       </c>
       <c r="C208">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>22</v>
       </c>
       <c r="B209">
-        <v>4314</v>
+        <v>4308</v>
       </c>
       <c r="C209">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>22</v>
       </c>
       <c r="B210">
-        <v>4328</v>
+        <v>4314</v>
       </c>
       <c r="C210">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2914,10 +2914,10 @@
         <v>22</v>
       </c>
       <c r="B211">
-        <v>4335</v>
+        <v>4328</v>
       </c>
       <c r="C211">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2925,10 +2925,10 @@
         <v>22</v>
       </c>
       <c r="B212">
-        <v>4801</v>
+        <v>4335</v>
       </c>
       <c r="C212">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2936,10 +2936,10 @@
         <v>22</v>
       </c>
       <c r="B213">
-        <v>5938</v>
+        <v>4801</v>
       </c>
       <c r="C213">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2947,21 +2947,21 @@
         <v>22</v>
       </c>
       <c r="B214">
-        <v>7586</v>
+        <v>5938</v>
       </c>
       <c r="C214">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B215">
-        <v>700</v>
+        <v>7586</v>
       </c>
       <c r="C215">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2969,10 +2969,10 @@
         <v>23</v>
       </c>
       <c r="B216">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C216">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>23</v>
       </c>
       <c r="B217">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C217">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>23</v>
       </c>
       <c r="B218">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C218">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3002,10 +3002,10 @@
         <v>23</v>
       </c>
       <c r="B219">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C219">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>23</v>
       </c>
       <c r="B220">
-        <v>1539</v>
+        <v>704</v>
       </c>
       <c r="C220">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>23</v>
       </c>
       <c r="B221">
-        <v>4389</v>
+        <v>1539</v>
       </c>
       <c r="C221">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3035,10 +3035,10 @@
         <v>23</v>
       </c>
       <c r="B222">
-        <v>4641</v>
+        <v>4389</v>
       </c>
       <c r="C222">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3046,10 +3046,10 @@
         <v>23</v>
       </c>
       <c r="B223">
-        <v>5959</v>
+        <v>4641</v>
       </c>
       <c r="C223">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3057,10 +3057,10 @@
         <v>23</v>
       </c>
       <c r="B224">
-        <v>7450</v>
+        <v>5959</v>
       </c>
       <c r="C224">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3068,21 +3068,21 @@
         <v>23</v>
       </c>
       <c r="B225">
-        <v>9567</v>
+        <v>7450</v>
       </c>
       <c r="C225">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B226">
-        <v>561</v>
+        <v>9567</v>
       </c>
       <c r="C226">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3090,10 +3090,10 @@
         <v>24</v>
       </c>
       <c r="B227">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C227">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>24</v>
       </c>
       <c r="B228">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C228">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>24</v>
       </c>
       <c r="B229">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C229">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>24</v>
       </c>
       <c r="B230">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C230">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>24</v>
       </c>
       <c r="B231">
-        <v>1538</v>
+        <v>565</v>
       </c>
       <c r="C231">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>24</v>
       </c>
       <c r="B232">
-        <v>2245</v>
+        <v>1538</v>
       </c>
       <c r="C232">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>24</v>
       </c>
       <c r="B233">
-        <v>4642</v>
+        <v>2245</v>
       </c>
       <c r="C233">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>24</v>
       </c>
       <c r="B234">
-        <v>5961</v>
+        <v>4642</v>
       </c>
       <c r="C234">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>24</v>
       </c>
       <c r="B235">
-        <v>7426</v>
+        <v>5961</v>
       </c>
       <c r="C235">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3189,21 +3189,21 @@
         <v>24</v>
       </c>
       <c r="B236">
-        <v>9545</v>
+        <v>7426</v>
       </c>
       <c r="C236">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B237">
-        <v>843</v>
+        <v>9545</v>
       </c>
       <c r="C237">
-        <v>2017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>25</v>
       </c>
       <c r="B238">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C238">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>25</v>
       </c>
       <c r="B239">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C239">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>25</v>
       </c>
       <c r="B240">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C240">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>25</v>
       </c>
       <c r="B241">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C241">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>25</v>
       </c>
       <c r="B242">
-        <v>1093</v>
+        <v>847</v>
       </c>
       <c r="C242">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>25</v>
       </c>
       <c r="B243">
-        <v>1872</v>
+        <v>1093</v>
       </c>
       <c r="C243">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>25</v>
       </c>
       <c r="B244">
-        <v>3553</v>
+        <v>1872</v>
       </c>
       <c r="C244">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>25</v>
       </c>
       <c r="B245">
-        <v>5580</v>
+        <v>3553</v>
       </c>
       <c r="C245">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>25</v>
       </c>
       <c r="B246">
-        <v>7038</v>
+        <v>5580</v>
       </c>
       <c r="C246">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3310,21 +3310,21 @@
         <v>25</v>
       </c>
       <c r="B247">
-        <v>8934</v>
+        <v>7038</v>
       </c>
       <c r="C247">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B248">
-        <v>210</v>
+        <v>8934</v>
       </c>
       <c r="C248">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>26</v>
       </c>
       <c r="B249">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C249">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>26</v>
       </c>
       <c r="B250">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C250">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>26</v>
       </c>
       <c r="B251">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C251">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>26</v>
       </c>
       <c r="B252">
-        <v>1673</v>
+        <v>218</v>
       </c>
       <c r="C252">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>26</v>
       </c>
       <c r="B253">
-        <v>2889</v>
+        <v>1673</v>
       </c>
       <c r="C253">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>26</v>
       </c>
       <c r="B254">
-        <v>5342</v>
+        <v>2889</v>
       </c>
       <c r="C254">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>26</v>
       </c>
       <c r="B255">
-        <v>6752</v>
+        <v>5342</v>
       </c>
       <c r="C255">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3409,21 +3409,21 @@
         <v>26</v>
       </c>
       <c r="B256">
-        <v>8520</v>
+        <v>6752</v>
       </c>
       <c r="C256">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B257">
-        <v>22</v>
+        <v>8520</v>
       </c>
       <c r="C257">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="B258">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C258">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>27</v>
       </c>
       <c r="B259">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C259">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>27</v>
       </c>
       <c r="B260">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C260">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>27</v>
       </c>
       <c r="B261">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C261">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>27</v>
       </c>
       <c r="B262">
-        <v>1624</v>
+        <v>165</v>
       </c>
       <c r="C262">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>27</v>
       </c>
       <c r="B263">
-        <v>2187</v>
+        <v>1624</v>
       </c>
       <c r="C263">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>27</v>
       </c>
       <c r="B264">
-        <v>3141</v>
+        <v>2187</v>
       </c>
       <c r="C264">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="B265">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="C265">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>27</v>
       </c>
       <c r="B266">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="C266">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>27</v>
       </c>
       <c r="B267">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="C267">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>27</v>
       </c>
       <c r="B268">
-        <v>4912</v>
+        <v>3147</v>
       </c>
       <c r="C268">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>27</v>
       </c>
       <c r="B269">
-        <v>6089</v>
+        <v>4912</v>
       </c>
       <c r="C269">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>27</v>
       </c>
       <c r="B270">
-        <v>7593</v>
+        <v>6089</v>
       </c>
       <c r="C270">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3574,21 +3574,21 @@
         <v>27</v>
       </c>
       <c r="B271">
-        <v>8031</v>
+        <v>7593</v>
       </c>
       <c r="C271">
-        <v>20082009</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B272">
-        <v>28</v>
+        <v>8031</v>
       </c>
       <c r="C272">
-        <v>20162017</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>28</v>
       </c>
       <c r="B273">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C273">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>28</v>
       </c>
       <c r="B274">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C274">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>28</v>
       </c>
       <c r="B275">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C275">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>28</v>
       </c>
       <c r="B276">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="C276">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>28</v>
       </c>
       <c r="B277">
-        <v>1564</v>
+        <v>166</v>
       </c>
       <c r="C277">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>28</v>
       </c>
       <c r="B278">
-        <v>2191</v>
+        <v>1564</v>
       </c>
       <c r="C278">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>28</v>
       </c>
       <c r="B279">
-        <v>3950</v>
+        <v>2191</v>
       </c>
       <c r="C279">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>28</v>
       </c>
       <c r="B280">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C280">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>28</v>
       </c>
       <c r="B281">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="C281">
-        <v>20112012</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>28</v>
       </c>
       <c r="B282">
-        <v>4845</v>
+        <v>3952</v>
       </c>
       <c r="C282">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>28</v>
       </c>
       <c r="B283">
-        <v>4923</v>
+        <v>4845</v>
       </c>
       <c r="C283">
-        <v>20102011</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>28</v>
       </c>
       <c r="B284">
-        <v>6017</v>
+        <v>4923</v>
       </c>
       <c r="C284">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3728,21 +3728,21 @@
         <v>28</v>
       </c>
       <c r="B285">
-        <v>7570</v>
+        <v>6017</v>
       </c>
       <c r="C285">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B286">
-        <v>32</v>
+        <v>7570</v>
       </c>
       <c r="C286">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>29</v>
       </c>
       <c r="B287">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C287">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>29</v>
       </c>
       <c r="B288">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="C288">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>29</v>
       </c>
       <c r="B289">
-        <v>1574</v>
+        <v>170</v>
       </c>
       <c r="C289">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>29</v>
       </c>
       <c r="B290">
-        <v>2192</v>
+        <v>1574</v>
       </c>
       <c r="C290">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>29</v>
       </c>
       <c r="B291">
-        <v>4844</v>
+        <v>2192</v>
       </c>
       <c r="C291">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>29</v>
       </c>
       <c r="B292">
-        <v>6015</v>
+        <v>4844</v>
       </c>
       <c r="C292">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3816,21 +3816,21 @@
         <v>29</v>
       </c>
       <c r="B293">
-        <v>7574</v>
+        <v>6015</v>
       </c>
       <c r="C293">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B294">
-        <v>392</v>
+        <v>7574</v>
       </c>
       <c r="C294">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>30</v>
       </c>
       <c r="B295">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C295">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>30</v>
       </c>
       <c r="B296">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C296">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>30</v>
       </c>
       <c r="B297">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C297">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="B298">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C298">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>30</v>
       </c>
       <c r="B299">
-        <v>1576</v>
+        <v>396</v>
       </c>
       <c r="C299">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>30</v>
       </c>
       <c r="B300">
-        <v>2287</v>
+        <v>1576</v>
       </c>
       <c r="C300">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="B301">
-        <v>4124</v>
+        <v>2287</v>
       </c>
       <c r="C301">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>30</v>
       </c>
       <c r="B302">
-        <v>4154</v>
+        <v>4124</v>
       </c>
       <c r="C302">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>30</v>
       </c>
       <c r="B303">
-        <v>5018</v>
+        <v>4154</v>
       </c>
       <c r="C303">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>30</v>
       </c>
       <c r="B304">
-        <v>6088</v>
+        <v>5018</v>
       </c>
       <c r="C304">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3948,21 +3948,21 @@
         <v>30</v>
       </c>
       <c r="B305">
-        <v>7729</v>
+        <v>6088</v>
       </c>
       <c r="C305">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B306">
-        <v>9</v>
+        <v>7729</v>
       </c>
       <c r="C306">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>31</v>
       </c>
       <c r="B307">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C307">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>31</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C308">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>31</v>
       </c>
       <c r="B309">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C309">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>31</v>
       </c>
       <c r="B310">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="C310">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>31</v>
       </c>
       <c r="B311">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="C311">
-        <v>20122013</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>31</v>
       </c>
       <c r="B312">
-        <v>1625</v>
+        <v>246</v>
       </c>
       <c r="C312">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>31</v>
       </c>
       <c r="B313">
-        <v>2012</v>
+        <v>1625</v>
       </c>
       <c r="C313">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>31</v>
       </c>
       <c r="B314">
-        <v>3119</v>
+        <v>2012</v>
       </c>
       <c r="C314">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>31</v>
       </c>
       <c r="B315">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="C315">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>31</v>
       </c>
       <c r="B316">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="C316">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>31</v>
       </c>
       <c r="B317">
-        <v>3131</v>
+        <v>3125</v>
       </c>
       <c r="C317">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4091,10 +4091,10 @@
         <v>31</v>
       </c>
       <c r="B318">
-        <v>3137</v>
+        <v>3131</v>
       </c>
       <c r="C318">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4102,10 +4102,10 @@
         <v>31</v>
       </c>
       <c r="B319">
-        <v>4759</v>
+        <v>3137</v>
       </c>
       <c r="C319">
-        <v>20202021</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4113,10 +4113,10 @@
         <v>31</v>
       </c>
       <c r="B320">
-        <v>6135</v>
+        <v>4759</v>
       </c>
       <c r="C320">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4124,21 +4124,21 @@
         <v>31</v>
       </c>
       <c r="B321">
-        <v>7704</v>
+        <v>6135</v>
       </c>
       <c r="C321">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B322">
-        <v>58</v>
+        <v>7704</v>
       </c>
       <c r="C322">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>32</v>
       </c>
       <c r="B323">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C323">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>32</v>
       </c>
       <c r="B324">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C324">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>32</v>
       </c>
       <c r="B325">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C325">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>32</v>
       </c>
       <c r="B326">
-        <v>1191</v>
+        <v>72</v>
       </c>
       <c r="C326">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>32</v>
       </c>
       <c r="B327">
-        <v>1874</v>
+        <v>1191</v>
       </c>
       <c r="C327">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>32</v>
       </c>
       <c r="B328">
-        <v>3645</v>
+        <v>1874</v>
       </c>
       <c r="C328">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>32</v>
       </c>
       <c r="B329">
-        <v>5477</v>
+        <v>3645</v>
       </c>
       <c r="C329">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>32</v>
       </c>
       <c r="B330">
-        <v>7120</v>
+        <v>5477</v>
       </c>
       <c r="C330">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4234,21 +4234,21 @@
         <v>32</v>
       </c>
       <c r="B331">
-        <v>8935</v>
+        <v>7120</v>
       </c>
       <c r="C331">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B332">
-        <v>65</v>
+        <v>8935</v>
       </c>
       <c r="C332">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>33</v>
       </c>
       <c r="B333">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C333">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>33</v>
       </c>
       <c r="B334">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C334">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>33</v>
       </c>
       <c r="B335">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C335">
-        <v>20152016</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>33</v>
       </c>
       <c r="B336">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="C336">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>33</v>
       </c>
       <c r="B337">
-        <v>1508</v>
+        <v>180</v>
       </c>
       <c r="C337">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="B338">
-        <v>2392</v>
+        <v>1508</v>
       </c>
       <c r="C338">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>33</v>
       </c>
       <c r="B339">
-        <v>4127</v>
+        <v>2392</v>
       </c>
       <c r="C339">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>33</v>
       </c>
       <c r="B340">
-        <v>4136</v>
+        <v>4127</v>
       </c>
       <c r="C340">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>33</v>
       </c>
       <c r="B341">
-        <v>4193</v>
+        <v>4136</v>
       </c>
       <c r="C341">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>33</v>
       </c>
       <c r="B342">
-        <v>4199</v>
+        <v>4193</v>
       </c>
       <c r="C342">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>33</v>
       </c>
       <c r="B343">
-        <v>4505</v>
+        <v>4199</v>
       </c>
       <c r="C343">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>33</v>
       </c>
       <c r="B344">
-        <v>6019</v>
+        <v>4505</v>
       </c>
       <c r="C344">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4388,21 +4388,21 @@
         <v>33</v>
       </c>
       <c r="B345">
-        <v>7500</v>
+        <v>6019</v>
       </c>
       <c r="C345">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B346">
-        <v>73</v>
+        <v>7500</v>
       </c>
       <c r="C346">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>34</v>
       </c>
       <c r="B347">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C347">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>34</v>
       </c>
       <c r="B348">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C348">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>34</v>
       </c>
       <c r="B349">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C349">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>34</v>
       </c>
       <c r="B350">
-        <v>1579</v>
+        <v>181</v>
       </c>
       <c r="C350">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>34</v>
       </c>
       <c r="B351">
-        <v>2396</v>
+        <v>1579</v>
       </c>
       <c r="C351">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>34</v>
       </c>
       <c r="B352">
-        <v>4164</v>
+        <v>2396</v>
       </c>
       <c r="C352">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>34</v>
       </c>
       <c r="B353">
-        <v>4185</v>
+        <v>4164</v>
       </c>
       <c r="C353">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>34</v>
       </c>
       <c r="B354">
-        <v>4645</v>
+        <v>4185</v>
       </c>
       <c r="C354">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>34</v>
       </c>
       <c r="B355">
-        <v>6018</v>
+        <v>4645</v>
       </c>
       <c r="C355">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4509,21 +4509,21 @@
         <v>34</v>
       </c>
       <c r="B356">
-        <v>7501</v>
+        <v>6018</v>
       </c>
       <c r="C356">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B357">
-        <v>83</v>
+        <v>7501</v>
       </c>
       <c r="C357">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>35</v>
       </c>
       <c r="B358">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C358">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>35</v>
       </c>
       <c r="B359">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C359">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>35</v>
       </c>
       <c r="B360">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="C360">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>35</v>
       </c>
       <c r="B361">
-        <v>1578</v>
+        <v>188</v>
       </c>
       <c r="C361">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>35</v>
       </c>
       <c r="B362">
-        <v>4131</v>
+        <v>1578</v>
       </c>
       <c r="C362">
-        <v>20132014</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>35</v>
       </c>
       <c r="B363">
-        <v>4168</v>
+        <v>4131</v>
       </c>
       <c r="C363">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>35</v>
       </c>
       <c r="B364">
-        <v>4195</v>
+        <v>4168</v>
       </c>
       <c r="C364">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>35</v>
       </c>
       <c r="B365">
-        <v>4200</v>
+        <v>4195</v>
       </c>
       <c r="C365">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>35</v>
       </c>
       <c r="B366">
-        <v>4388</v>
+        <v>4200</v>
       </c>
       <c r="C366">
-        <v>20192020</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>35</v>
       </c>
       <c r="B367">
-        <v>4676</v>
+        <v>4388</v>
       </c>
       <c r="C367">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>35</v>
       </c>
       <c r="B368">
-        <v>6020</v>
+        <v>4676</v>
       </c>
       <c r="C368">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4652,21 +4652,21 @@
         <v>35</v>
       </c>
       <c r="B369">
-        <v>7499</v>
+        <v>6020</v>
       </c>
       <c r="C369">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B370">
-        <v>3</v>
+        <v>7499</v>
       </c>
       <c r="C370">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>36</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C371">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>36</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C372">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>36</v>
       </c>
       <c r="B373">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C373">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>36</v>
       </c>
       <c r="B374">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C374">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>36</v>
       </c>
       <c r="B375">
-        <v>1636</v>
+        <v>177</v>
       </c>
       <c r="C375">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>36</v>
       </c>
       <c r="B376">
-        <v>4105</v>
+        <v>1636</v>
       </c>
       <c r="C376">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>36</v>
       </c>
       <c r="B377">
-        <v>4123</v>
+        <v>4105</v>
       </c>
       <c r="C377">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>36</v>
       </c>
       <c r="B378">
-        <v>4133</v>
+        <v>4123</v>
       </c>
       <c r="C378">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>36</v>
       </c>
       <c r="B379">
-        <v>4140</v>
+        <v>4133</v>
       </c>
       <c r="C379">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>36</v>
       </c>
       <c r="B380">
-        <v>4392</v>
+        <v>4140</v>
       </c>
       <c r="C380">
-        <v>20192020</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>36</v>
       </c>
       <c r="B381">
-        <v>4624</v>
+        <v>4392</v>
       </c>
       <c r="C381">
-        <v>20082009</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>36</v>
       </c>
       <c r="B382">
-        <v>4628</v>
+        <v>4624</v>
       </c>
       <c r="C382">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>36</v>
       </c>
       <c r="B383">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="C383">
-        <v>20062007</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>36</v>
       </c>
       <c r="B384">
-        <v>4673</v>
+        <v>4629</v>
       </c>
       <c r="C384">
-        <v>20202021</v>
+        <v>20062007</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>36</v>
       </c>
       <c r="B385">
-        <v>6192</v>
+        <v>4673</v>
       </c>
       <c r="C385">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4839,21 +4839,21 @@
         <v>36</v>
       </c>
       <c r="B386">
-        <v>7664</v>
+        <v>6192</v>
       </c>
       <c r="C386">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B387">
-        <v>207</v>
+        <v>7664</v>
       </c>
       <c r="C387">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>37</v>
       </c>
       <c r="B388">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C388">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>37</v>
       </c>
       <c r="B389">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C389">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>37</v>
       </c>
       <c r="B390">
-        <v>933</v>
+        <v>209</v>
       </c>
       <c r="C390">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>37</v>
       </c>
       <c r="B391">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C391">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>37</v>
       </c>
       <c r="B392">
-        <v>1752</v>
+        <v>934</v>
       </c>
       <c r="C392">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>37</v>
       </c>
       <c r="B393">
-        <v>2667</v>
+        <v>1752</v>
       </c>
       <c r="C393">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>37</v>
       </c>
       <c r="B394">
-        <v>4957</v>
+        <v>2667</v>
       </c>
       <c r="C394">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>37</v>
       </c>
       <c r="B395">
-        <v>6282</v>
+        <v>4957</v>
       </c>
       <c r="C395">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4949,21 +4949,21 @@
         <v>37</v>
       </c>
       <c r="B396">
-        <v>7954</v>
+        <v>6282</v>
       </c>
       <c r="C396">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B397">
-        <v>726</v>
+        <v>7954</v>
       </c>
       <c r="C397">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>38</v>
       </c>
       <c r="B398">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C398">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>38</v>
       </c>
       <c r="B399">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C399">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>38</v>
       </c>
       <c r="B400">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C400">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>38</v>
       </c>
       <c r="B401">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C401">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>38</v>
       </c>
       <c r="B402">
-        <v>1566</v>
+        <v>731</v>
       </c>
       <c r="C402">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>38</v>
       </c>
       <c r="B403">
-        <v>2282</v>
+        <v>1566</v>
       </c>
       <c r="C403">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>38</v>
       </c>
       <c r="B404">
-        <v>4534</v>
+        <v>2282</v>
       </c>
       <c r="C404">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>38</v>
       </c>
       <c r="B405">
-        <v>5936</v>
+        <v>4534</v>
       </c>
       <c r="C405">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5059,21 +5059,21 @@
         <v>38</v>
       </c>
       <c r="B406">
-        <v>7967</v>
+        <v>5936</v>
       </c>
       <c r="C406">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B407">
-        <v>68</v>
+        <v>7967</v>
       </c>
       <c r="C407">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>39</v>
       </c>
       <c r="B408">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C408">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>39</v>
       </c>
       <c r="B409">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C409">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>39</v>
       </c>
       <c r="B410">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C410">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>39</v>
       </c>
       <c r="B411">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="C411">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>39</v>
       </c>
       <c r="B412">
-        <v>1680</v>
+        <v>182</v>
       </c>
       <c r="C412">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>39</v>
       </c>
       <c r="B413">
-        <v>2588</v>
+        <v>1680</v>
       </c>
       <c r="C413">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>39</v>
       </c>
       <c r="B414">
-        <v>3940</v>
+        <v>2588</v>
       </c>
       <c r="C414">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>39</v>
       </c>
       <c r="B415">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C415">
-        <v>20082009</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5169,10 +5169,10 @@
         <v>39</v>
       </c>
       <c r="B416">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C416">
-        <v>20092010</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>39</v>
       </c>
       <c r="B417">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="C417">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>39</v>
       </c>
       <c r="B418">
-        <v>4889</v>
+        <v>3945</v>
       </c>
       <c r="C418">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>39</v>
       </c>
       <c r="B419">
-        <v>6198</v>
+        <v>4889</v>
       </c>
       <c r="C419">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5213,21 +5213,21 @@
         <v>39</v>
       </c>
       <c r="B420">
-        <v>7608</v>
+        <v>6198</v>
       </c>
       <c r="C420">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B421">
-        <v>77</v>
+        <v>7608</v>
       </c>
       <c r="C421">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>40</v>
       </c>
       <c r="B422">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C422">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>40</v>
       </c>
       <c r="B423">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C423">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>40</v>
       </c>
       <c r="B424">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C424">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>40</v>
       </c>
       <c r="B425">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C425">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>40</v>
       </c>
       <c r="B426">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="C426">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>40</v>
       </c>
       <c r="B427">
-        <v>1749</v>
+        <v>183</v>
       </c>
       <c r="C427">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="B428">
-        <v>2642</v>
+        <v>1749</v>
       </c>
       <c r="C428">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>40</v>
       </c>
       <c r="B429">
-        <v>3946</v>
+        <v>2642</v>
       </c>
       <c r="C429">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>40</v>
       </c>
       <c r="B430">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C430">
-        <v>20102011</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>40</v>
       </c>
       <c r="B431">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="C431">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>40</v>
       </c>
       <c r="B432">
-        <v>4972</v>
+        <v>3949</v>
       </c>
       <c r="C432">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>40</v>
       </c>
       <c r="B433">
-        <v>6205</v>
+        <v>4972</v>
       </c>
       <c r="C433">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5367,21 +5367,21 @@
         <v>40</v>
       </c>
       <c r="B434">
-        <v>7864</v>
+        <v>6205</v>
       </c>
       <c r="C434">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B435">
-        <v>162</v>
+        <v>7864</v>
       </c>
       <c r="C435">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>41</v>
       </c>
       <c r="B436">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="C436">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>41</v>
       </c>
       <c r="B437">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C437">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>41</v>
       </c>
       <c r="B438">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C438">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>41</v>
       </c>
       <c r="B439">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C439">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>41</v>
       </c>
       <c r="B440">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C440">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>41</v>
       </c>
       <c r="B441">
-        <v>1071</v>
+        <v>254</v>
       </c>
       <c r="C441">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>41</v>
       </c>
       <c r="B442">
-        <v>1864</v>
+        <v>1071</v>
       </c>
       <c r="C442">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>41</v>
       </c>
       <c r="B443">
-        <v>3686</v>
+        <v>1864</v>
       </c>
       <c r="C443">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>41</v>
       </c>
       <c r="B444">
-        <v>5434</v>
+        <v>3686</v>
       </c>
       <c r="C444">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>41</v>
       </c>
       <c r="B445">
-        <v>6935</v>
+        <v>5434</v>
       </c>
       <c r="C445">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5499,21 +5499,21 @@
         <v>41</v>
       </c>
       <c r="B446">
-        <v>8810</v>
+        <v>6935</v>
       </c>
       <c r="C446">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B447">
-        <v>130</v>
+        <v>8810</v>
       </c>
       <c r="C447">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>42</v>
       </c>
       <c r="B448">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C448">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>42</v>
       </c>
       <c r="B449">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C449">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>42</v>
       </c>
       <c r="B450">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C450">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>42</v>
       </c>
       <c r="B451">
-        <v>1073</v>
+        <v>153</v>
       </c>
       <c r="C451">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>42</v>
       </c>
       <c r="B452">
-        <v>1865</v>
+        <v>1073</v>
       </c>
       <c r="C452">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>42</v>
       </c>
       <c r="B453">
-        <v>3684</v>
+        <v>1865</v>
       </c>
       <c r="C453">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>42</v>
       </c>
       <c r="B454">
-        <v>5495</v>
+        <v>3684</v>
       </c>
       <c r="C454">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>42</v>
       </c>
       <c r="B455">
-        <v>6936</v>
+        <v>5495</v>
       </c>
       <c r="C455">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5609,21 +5609,21 @@
         <v>42</v>
       </c>
       <c r="B456">
-        <v>8811</v>
+        <v>6936</v>
       </c>
       <c r="C456">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B457">
-        <v>313</v>
+        <v>8811</v>
       </c>
       <c r="C457">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>43</v>
       </c>
       <c r="B458">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C458">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>43</v>
       </c>
       <c r="B459">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C459">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>43</v>
       </c>
       <c r="B460">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C460">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>43</v>
       </c>
       <c r="B461">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C461">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>43</v>
       </c>
       <c r="B462">
-        <v>1583</v>
+        <v>317</v>
       </c>
       <c r="C462">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>43</v>
       </c>
       <c r="B463">
-        <v>2315</v>
+        <v>1583</v>
       </c>
       <c r="C463">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>43</v>
       </c>
       <c r="B464">
-        <v>4664</v>
+        <v>2315</v>
       </c>
       <c r="C464">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>43</v>
       </c>
       <c r="B465">
-        <v>6104</v>
+        <v>4664</v>
       </c>
       <c r="C465">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5719,21 +5719,21 @@
         <v>43</v>
       </c>
       <c r="B466">
-        <v>7489</v>
+        <v>6104</v>
       </c>
       <c r="C466">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B467">
-        <v>307</v>
+        <v>7489</v>
       </c>
       <c r="C467">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>44</v>
       </c>
       <c r="B468">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C468">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>44</v>
       </c>
       <c r="B469">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C469">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>44</v>
       </c>
       <c r="B470">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C470">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>44</v>
       </c>
       <c r="B471">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C471">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>44</v>
       </c>
       <c r="B472">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C472">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>44</v>
       </c>
       <c r="B473">
-        <v>1582</v>
+        <v>312</v>
       </c>
       <c r="C473">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>44</v>
       </c>
       <c r="B474">
-        <v>2270</v>
+        <v>1582</v>
       </c>
       <c r="C474">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>44</v>
       </c>
       <c r="B475">
-        <v>4507</v>
+        <v>2270</v>
       </c>
       <c r="C475">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>44</v>
       </c>
       <c r="B476">
-        <v>6038</v>
+        <v>4507</v>
       </c>
       <c r="C476">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>44</v>
       </c>
       <c r="B477">
-        <v>7425</v>
+        <v>6038</v>
       </c>
       <c r="C477">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5851,21 +5851,21 @@
         <v>44</v>
       </c>
       <c r="B478">
-        <v>9525</v>
+        <v>7425</v>
       </c>
       <c r="C478">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B479">
-        <v>55</v>
+        <v>9525</v>
       </c>
       <c r="C479">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>45</v>
       </c>
       <c r="B480">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C480">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>45</v>
       </c>
       <c r="B481">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C481">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>45</v>
       </c>
       <c r="B482">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="C482">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>45</v>
       </c>
       <c r="B483">
-        <v>1584</v>
+        <v>179</v>
       </c>
       <c r="C483">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="B484">
-        <v>2273</v>
+        <v>1584</v>
       </c>
       <c r="C484">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>45</v>
       </c>
       <c r="B485">
-        <v>4228</v>
+        <v>2273</v>
       </c>
       <c r="C485">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>45</v>
       </c>
       <c r="B486">
-        <v>4236</v>
+        <v>4228</v>
       </c>
       <c r="C486">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>45</v>
       </c>
       <c r="B487">
-        <v>4243</v>
+        <v>4236</v>
       </c>
       <c r="C487">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>45</v>
       </c>
       <c r="B488">
-        <v>4246</v>
+        <v>4243</v>
       </c>
       <c r="C488">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>45</v>
       </c>
       <c r="B489">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="C489">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>45</v>
       </c>
       <c r="B490">
-        <v>4748</v>
+        <v>4247</v>
       </c>
       <c r="C490">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>45</v>
       </c>
       <c r="B491">
-        <v>5950</v>
+        <v>4748</v>
       </c>
       <c r="C491">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6005,21 +6005,21 @@
         <v>45</v>
       </c>
       <c r="B492">
-        <v>7484</v>
+        <v>5950</v>
       </c>
       <c r="C492">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B493">
-        <v>51</v>
+        <v>7484</v>
       </c>
       <c r="C493">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>46</v>
       </c>
       <c r="B494">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C494">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>46</v>
       </c>
       <c r="B495">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C495">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>46</v>
       </c>
       <c r="B496">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C496">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>46</v>
       </c>
       <c r="B497">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="C497">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>46</v>
       </c>
       <c r="B498">
-        <v>1585</v>
+        <v>178</v>
       </c>
       <c r="C498">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>46</v>
       </c>
       <c r="B499">
-        <v>2272</v>
+        <v>1585</v>
       </c>
       <c r="C499">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>46</v>
       </c>
       <c r="B500">
-        <v>4226</v>
+        <v>2272</v>
       </c>
       <c r="C500">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>46</v>
       </c>
       <c r="B501">
-        <v>4234</v>
+        <v>4226</v>
       </c>
       <c r="C501">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>46</v>
       </c>
       <c r="B502">
-        <v>4746</v>
+        <v>4234</v>
       </c>
       <c r="C502">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>46</v>
       </c>
       <c r="B503">
-        <v>5951</v>
+        <v>4746</v>
       </c>
       <c r="C503">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6137,21 +6137,21 @@
         <v>46</v>
       </c>
       <c r="B504">
-        <v>7482</v>
+        <v>5951</v>
       </c>
       <c r="C504">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B505">
-        <v>1366</v>
+        <v>7482</v>
       </c>
       <c r="C505">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>47</v>
       </c>
       <c r="B506">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C506">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>47</v>
       </c>
       <c r="B507">
-        <v>1586</v>
+        <v>1367</v>
       </c>
       <c r="C507">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>47</v>
       </c>
       <c r="B508">
-        <v>2275</v>
+        <v>1586</v>
       </c>
       <c r="C508">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>47</v>
       </c>
       <c r="B509">
-        <v>4749</v>
+        <v>2275</v>
       </c>
       <c r="C509">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6203,10 +6203,10 @@
         <v>47</v>
       </c>
       <c r="B510">
-        <v>6098</v>
+        <v>4749</v>
       </c>
       <c r="C510">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6214,21 +6214,21 @@
         <v>47</v>
       </c>
       <c r="B511">
-        <v>7702</v>
+        <v>6098</v>
       </c>
       <c r="C511">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B512">
-        <v>44</v>
+        <v>7702</v>
       </c>
       <c r="C512">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>48</v>
       </c>
       <c r="B513">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C513">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>48</v>
       </c>
       <c r="B514">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C514">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>48</v>
       </c>
       <c r="B515">
-        <v>993</v>
+        <v>46</v>
       </c>
       <c r="C515">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>48</v>
       </c>
       <c r="B516">
-        <v>1839</v>
+        <v>993</v>
       </c>
       <c r="C516">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>48</v>
       </c>
       <c r="B517">
-        <v>3695</v>
+        <v>1839</v>
       </c>
       <c r="C517">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>48</v>
       </c>
       <c r="B518">
-        <v>4224</v>
+        <v>3695</v>
       </c>
       <c r="C518">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>48</v>
       </c>
       <c r="B519">
-        <v>4231</v>
+        <v>4224</v>
       </c>
       <c r="C519">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>48</v>
       </c>
       <c r="B520">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="C520">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>48</v>
       </c>
       <c r="B521">
-        <v>4242</v>
+        <v>4237</v>
       </c>
       <c r="C521">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>48</v>
       </c>
       <c r="B522">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="C522">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>48</v>
       </c>
       <c r="B523">
-        <v>5496</v>
+        <v>4244</v>
       </c>
       <c r="C523">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>48</v>
       </c>
       <c r="B524">
-        <v>7048</v>
+        <v>5496</v>
       </c>
       <c r="C524">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6368,21 +6368,21 @@
         <v>48</v>
       </c>
       <c r="B525">
-        <v>8739</v>
+        <v>7048</v>
       </c>
       <c r="C525">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B526">
-        <v>1099</v>
+        <v>8739</v>
       </c>
       <c r="C526">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>49</v>
       </c>
       <c r="B527">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C527">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>49</v>
       </c>
       <c r="B528">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C528">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>49</v>
       </c>
       <c r="B529">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C529">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>49</v>
       </c>
       <c r="B530">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C530">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>49</v>
       </c>
       <c r="B531">
-        <v>1843</v>
+        <v>1105</v>
       </c>
       <c r="C531">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>49</v>
       </c>
       <c r="B532">
-        <v>3643</v>
+        <v>1843</v>
       </c>
       <c r="C532">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>49</v>
       </c>
       <c r="B533">
-        <v>5503</v>
+        <v>3643</v>
       </c>
       <c r="C533">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>49</v>
       </c>
       <c r="B534">
-        <v>6960</v>
+        <v>5503</v>
       </c>
       <c r="C534">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6478,21 +6478,21 @@
         <v>49</v>
       </c>
       <c r="B535">
-        <v>8783</v>
+        <v>6960</v>
       </c>
       <c r="C535">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B536">
-        <v>612</v>
+        <v>8783</v>
       </c>
       <c r="C536">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>50</v>
       </c>
       <c r="B537">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C537">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>50</v>
       </c>
       <c r="B538">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C538">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>50</v>
       </c>
       <c r="B539">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C539">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>50</v>
       </c>
       <c r="B540">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C540">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>50</v>
       </c>
       <c r="B541">
-        <v>1125</v>
+        <v>616</v>
       </c>
       <c r="C541">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>50</v>
       </c>
       <c r="B542">
-        <v>1881</v>
+        <v>1125</v>
       </c>
       <c r="C542">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>50</v>
       </c>
       <c r="B543">
-        <v>3702</v>
+        <v>1881</v>
       </c>
       <c r="C543">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>50</v>
       </c>
       <c r="B544">
-        <v>5627</v>
+        <v>3702</v>
       </c>
       <c r="C544">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>50</v>
       </c>
       <c r="B545">
-        <v>6966</v>
+        <v>5627</v>
       </c>
       <c r="C545">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6599,21 +6599,21 @@
         <v>50</v>
       </c>
       <c r="B546">
-        <v>8837</v>
+        <v>6966</v>
       </c>
       <c r="C546">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B547">
-        <v>255</v>
+        <v>8837</v>
       </c>
       <c r="C547">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>51</v>
       </c>
       <c r="B548">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C548">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>51</v>
       </c>
       <c r="B549">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C549">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>51</v>
       </c>
       <c r="B550">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C550">
-        <v>20162017</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>51</v>
       </c>
       <c r="B551">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C551">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>51</v>
       </c>
       <c r="B552">
-        <v>1589</v>
+        <v>279</v>
       </c>
       <c r="C552">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>51</v>
       </c>
       <c r="B553">
-        <v>2328</v>
+        <v>1589</v>
       </c>
       <c r="C553">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>51</v>
       </c>
       <c r="B554">
-        <v>3972</v>
+        <v>2328</v>
       </c>
       <c r="C554">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>51</v>
       </c>
       <c r="B555">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="C555">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>51</v>
       </c>
       <c r="B556">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="C556">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>51</v>
       </c>
       <c r="B557">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="C557">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>51</v>
       </c>
       <c r="B558">
-        <v>4760</v>
+        <v>3975</v>
       </c>
       <c r="C558">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>51</v>
       </c>
       <c r="B559">
-        <v>5948</v>
+        <v>4760</v>
       </c>
       <c r="C559">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>51</v>
       </c>
       <c r="B560">
-        <v>7428</v>
+        <v>5948</v>
       </c>
       <c r="C560">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6764,21 +6764,21 @@
         <v>51</v>
       </c>
       <c r="B561">
-        <v>9553</v>
+        <v>7428</v>
       </c>
       <c r="C561">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B562">
-        <v>13</v>
+        <v>9553</v>
       </c>
       <c r="C562">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>52</v>
       </c>
       <c r="B563">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C563">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>52</v>
       </c>
       <c r="B564">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C564">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>52</v>
       </c>
       <c r="B565">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C565">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>52</v>
       </c>
       <c r="B566">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="C566">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>52</v>
       </c>
       <c r="B567">
-        <v>1593</v>
+        <v>173</v>
       </c>
       <c r="C567">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>52</v>
       </c>
       <c r="B568">
-        <v>2321</v>
+        <v>1593</v>
       </c>
       <c r="C568">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>52</v>
       </c>
       <c r="B569">
-        <v>4225</v>
+        <v>2321</v>
       </c>
       <c r="C569">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>52</v>
       </c>
       <c r="B570">
-        <v>4232</v>
+        <v>4225</v>
       </c>
       <c r="C570">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>52</v>
       </c>
       <c r="B571">
-        <v>4238</v>
+        <v>4232</v>
       </c>
       <c r="C571">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>52</v>
       </c>
       <c r="B572">
-        <v>4885</v>
+        <v>4238</v>
       </c>
       <c r="C572">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>52</v>
       </c>
       <c r="B573">
-        <v>6117</v>
+        <v>4885</v>
       </c>
       <c r="C573">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6907,21 +6907,21 @@
         <v>52</v>
       </c>
       <c r="B574">
-        <v>7731</v>
+        <v>6117</v>
       </c>
       <c r="C574">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="575" spans="1:3">
       <c r="A575" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B575">
-        <v>174</v>
+        <v>7731</v>
       </c>
       <c r="C575">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>53</v>
       </c>
       <c r="B576">
-        <v>965</v>
+        <v>174</v>
       </c>
       <c r="C576">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>53</v>
       </c>
       <c r="B577">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C577">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>53</v>
       </c>
       <c r="B578">
-        <v>1594</v>
+        <v>966</v>
       </c>
       <c r="C578">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>53</v>
       </c>
       <c r="B579">
-        <v>2320</v>
+        <v>1594</v>
       </c>
       <c r="C579">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>53</v>
       </c>
       <c r="B580">
-        <v>4284</v>
+        <v>2320</v>
       </c>
       <c r="C580">
-        <v>20142015</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>53</v>
       </c>
       <c r="B581">
-        <v>4291</v>
+        <v>4284</v>
       </c>
       <c r="C581">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>53</v>
       </c>
       <c r="B582">
-        <v>4309</v>
+        <v>4291</v>
       </c>
       <c r="C582">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>53</v>
       </c>
       <c r="B583">
-        <v>4322</v>
+        <v>4309</v>
       </c>
       <c r="C583">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>53</v>
       </c>
       <c r="B584">
-        <v>4886</v>
+        <v>4322</v>
       </c>
       <c r="C584">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>53</v>
       </c>
       <c r="B585">
-        <v>6116</v>
+        <v>4886</v>
       </c>
       <c r="C585">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7039,21 +7039,21 @@
         <v>53</v>
       </c>
       <c r="B586">
-        <v>7732</v>
+        <v>6116</v>
       </c>
       <c r="C586">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B587">
-        <v>449</v>
+        <v>7732</v>
       </c>
       <c r="C587">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>54</v>
       </c>
       <c r="B588">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C588">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>54</v>
       </c>
       <c r="B589">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C589">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>54</v>
       </c>
       <c r="B590">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C590">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>54</v>
       </c>
       <c r="B591">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C591">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>54</v>
       </c>
       <c r="B592">
-        <v>990</v>
+        <v>453</v>
       </c>
       <c r="C592">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>54</v>
       </c>
       <c r="B593">
-        <v>1844</v>
+        <v>990</v>
       </c>
       <c r="C593">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>54</v>
       </c>
       <c r="B594">
-        <v>3570</v>
+        <v>1844</v>
       </c>
       <c r="C594">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>54</v>
       </c>
       <c r="B595">
-        <v>5534</v>
+        <v>3570</v>
       </c>
       <c r="C595">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>54</v>
       </c>
       <c r="B596">
-        <v>6967</v>
+        <v>5534</v>
       </c>
       <c r="C596">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7160,21 +7160,21 @@
         <v>54</v>
       </c>
       <c r="B597">
-        <v>8741</v>
+        <v>6967</v>
       </c>
       <c r="C597">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="598" spans="1:3">
       <c r="A598" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B598">
-        <v>1086</v>
+        <v>8741</v>
       </c>
       <c r="C598">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>55</v>
       </c>
       <c r="B599">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C599">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>55</v>
       </c>
       <c r="B600">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C600">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>55</v>
       </c>
       <c r="B601">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C601">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>55</v>
       </c>
       <c r="B602">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C602">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>55</v>
       </c>
       <c r="B603">
-        <v>1596</v>
+        <v>1090</v>
       </c>
       <c r="C603">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>55</v>
       </c>
       <c r="B604">
-        <v>2312</v>
+        <v>1596</v>
       </c>
       <c r="C604">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>55</v>
       </c>
       <c r="B605">
-        <v>4764</v>
+        <v>2312</v>
       </c>
       <c r="C605">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7259,10 +7259,10 @@
         <v>55</v>
       </c>
       <c r="B606">
-        <v>6037</v>
+        <v>4764</v>
       </c>
       <c r="C606">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7270,21 +7270,21 @@
         <v>55</v>
       </c>
       <c r="B607">
-        <v>7663</v>
+        <v>6037</v>
       </c>
       <c r="C607">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B608">
-        <v>2</v>
+        <v>7663</v>
       </c>
       <c r="C608">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>56</v>
       </c>
       <c r="B609">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="C609">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>56</v>
       </c>
       <c r="B610">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C610">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>56</v>
       </c>
       <c r="B611">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C611">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>56</v>
       </c>
       <c r="B612">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C612">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>56</v>
       </c>
       <c r="B613">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="C613">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>56</v>
       </c>
       <c r="B614">
-        <v>1600</v>
+        <v>223</v>
       </c>
       <c r="C614">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>56</v>
       </c>
       <c r="B615">
-        <v>2361</v>
+        <v>1600</v>
       </c>
       <c r="C615">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>56</v>
       </c>
       <c r="B616">
-        <v>4478</v>
+        <v>2361</v>
       </c>
       <c r="C616">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>56</v>
       </c>
       <c r="B617">
-        <v>5992</v>
+        <v>4478</v>
       </c>
       <c r="C617">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7391,21 +7391,21 @@
         <v>56</v>
       </c>
       <c r="B618">
-        <v>7494</v>
+        <v>5992</v>
       </c>
       <c r="C618">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B619">
-        <v>416</v>
+        <v>7494</v>
       </c>
       <c r="C619">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>57</v>
       </c>
       <c r="B620">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C620">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>57</v>
       </c>
       <c r="B621">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C621">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>57</v>
       </c>
       <c r="B622">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C622">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>57</v>
       </c>
       <c r="B623">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C623">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>57</v>
       </c>
       <c r="B624">
-        <v>1604</v>
+        <v>420</v>
       </c>
       <c r="C624">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>57</v>
       </c>
       <c r="B625">
-        <v>2254</v>
+        <v>1604</v>
       </c>
       <c r="C625">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>57</v>
       </c>
       <c r="B626">
-        <v>4533</v>
+        <v>2254</v>
       </c>
       <c r="C626">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>57</v>
       </c>
       <c r="B627">
-        <v>6046</v>
+        <v>4533</v>
       </c>
       <c r="C627">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7501,21 +7501,21 @@
         <v>57</v>
       </c>
       <c r="B628">
-        <v>7492</v>
+        <v>6046</v>
       </c>
       <c r="C628">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B629">
-        <v>439</v>
+        <v>7492</v>
       </c>
       <c r="C629">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>58</v>
       </c>
       <c r="B630">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C630">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>58</v>
       </c>
       <c r="B631">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C631">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>58</v>
       </c>
       <c r="B632">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C632">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>58</v>
       </c>
       <c r="B633">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C633">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>58</v>
       </c>
       <c r="B634">
-        <v>1606</v>
+        <v>448</v>
       </c>
       <c r="C634">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>58</v>
       </c>
       <c r="B635">
-        <v>2256</v>
+        <v>1606</v>
       </c>
       <c r="C635">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>58</v>
       </c>
       <c r="B636">
-        <v>4572</v>
+        <v>2256</v>
       </c>
       <c r="C636">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>58</v>
       </c>
       <c r="B637">
-        <v>5944</v>
+        <v>4572</v>
       </c>
       <c r="C637">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7611,21 +7611,21 @@
         <v>58</v>
       </c>
       <c r="B638">
-        <v>7958</v>
+        <v>5944</v>
       </c>
       <c r="C638">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="A639" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B639">
-        <v>426</v>
+        <v>7958</v>
       </c>
       <c r="C639">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>59</v>
       </c>
       <c r="B640">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C640">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>59</v>
       </c>
       <c r="B641">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C641">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>59</v>
       </c>
       <c r="B642">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C642">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>59</v>
       </c>
       <c r="B643">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C643">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>59</v>
       </c>
       <c r="B644">
-        <v>1608</v>
+        <v>433</v>
       </c>
       <c r="C644">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>59</v>
       </c>
       <c r="B645">
-        <v>2251</v>
+        <v>1608</v>
       </c>
       <c r="C645">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>59</v>
       </c>
       <c r="B646">
-        <v>4635</v>
+        <v>2251</v>
       </c>
       <c r="C646">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>59</v>
       </c>
       <c r="B647">
-        <v>6048</v>
+        <v>4635</v>
       </c>
       <c r="C647">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7721,32 +7721,32 @@
         <v>59</v>
       </c>
       <c r="B648">
-        <v>7526</v>
+        <v>6048</v>
       </c>
       <c r="C648">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="649" spans="1:3">
       <c r="A649" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B649">
-        <v>747</v>
+        <v>7526</v>
       </c>
       <c r="C649">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="650" spans="1:3">
       <c r="A650" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B650">
-        <v>748</v>
+        <v>9579</v>
       </c>
       <c r="C650">
-        <v>2016</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>60</v>
       </c>
       <c r="B651">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C651">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>60</v>
       </c>
       <c r="B652">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C652">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>60</v>
       </c>
       <c r="B653">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C653">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>60</v>
       </c>
       <c r="B654">
-        <v>1115</v>
+        <v>750</v>
       </c>
       <c r="C654">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>60</v>
       </c>
       <c r="B655">
-        <v>1862</v>
+        <v>751</v>
       </c>
       <c r="C655">
-        <v>2019</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7809,10 +7809,10 @@
         <v>60</v>
       </c>
       <c r="B656">
-        <v>4379</v>
+        <v>1115</v>
       </c>
       <c r="C656">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7820,10 +7820,10 @@
         <v>60</v>
       </c>
       <c r="B657">
-        <v>5506</v>
+        <v>1862</v>
       </c>
       <c r="C657">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7831,10 +7831,10 @@
         <v>60</v>
       </c>
       <c r="B658">
-        <v>7061</v>
+        <v>4379</v>
       </c>
       <c r="C658">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7842,32 +7842,32 @@
         <v>60</v>
       </c>
       <c r="B659">
-        <v>8899</v>
+        <v>5506</v>
       </c>
       <c r="C659">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B660">
-        <v>752</v>
+        <v>7061</v>
       </c>
       <c r="C660">
-        <v>2015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="A661" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B661">
-        <v>753</v>
+        <v>8899</v>
       </c>
       <c r="C661">
-        <v>2013</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7875,10 +7875,10 @@
         <v>61</v>
       </c>
       <c r="B662">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C662">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7886,10 +7886,10 @@
         <v>61</v>
       </c>
       <c r="B663">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C663">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7897,10 +7897,10 @@
         <v>61</v>
       </c>
       <c r="B664">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C664">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7908,10 +7908,10 @@
         <v>61</v>
       </c>
       <c r="B665">
-        <v>1121</v>
+        <v>760</v>
       </c>
       <c r="C665">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7919,10 +7919,10 @@
         <v>61</v>
       </c>
       <c r="B666">
-        <v>1863</v>
+        <v>761</v>
       </c>
       <c r="C666">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7930,10 +7930,10 @@
         <v>61</v>
       </c>
       <c r="B667">
-        <v>4381</v>
+        <v>1121</v>
       </c>
       <c r="C667">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7941,10 +7941,10 @@
         <v>61</v>
       </c>
       <c r="B668">
-        <v>5504</v>
+        <v>1863</v>
       </c>
       <c r="C668">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7952,10 +7952,10 @@
         <v>61</v>
       </c>
       <c r="B669">
-        <v>7062</v>
+        <v>4381</v>
       </c>
       <c r="C669">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7963,32 +7963,32 @@
         <v>61</v>
       </c>
       <c r="B670">
-        <v>8938</v>
+        <v>5504</v>
       </c>
       <c r="C670">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="671" spans="1:3">
       <c r="A671" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B671">
-        <v>34</v>
+        <v>7062</v>
       </c>
       <c r="C671">
-        <v>20162017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="672" spans="1:3">
       <c r="A672" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B672">
-        <v>35</v>
+        <v>8938</v>
       </c>
       <c r="C672">
-        <v>20152016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7996,10 +7996,10 @@
         <v>62</v>
       </c>
       <c r="B673">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C673">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8007,10 +8007,10 @@
         <v>62</v>
       </c>
       <c r="B674">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C674">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8018,10 +8018,10 @@
         <v>62</v>
       </c>
       <c r="B675">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C675">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8029,10 +8029,10 @@
         <v>62</v>
       </c>
       <c r="B676">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="C676">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8040,10 +8040,10 @@
         <v>62</v>
       </c>
       <c r="B677">
-        <v>1677</v>
+        <v>38</v>
       </c>
       <c r="C677">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8051,10 +8051,10 @@
         <v>62</v>
       </c>
       <c r="B678">
-        <v>2319</v>
+        <v>171</v>
       </c>
       <c r="C678">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8062,10 +8062,10 @@
         <v>62</v>
       </c>
       <c r="B679">
-        <v>3631</v>
+        <v>1677</v>
       </c>
       <c r="C679">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8073,10 +8073,10 @@
         <v>62</v>
       </c>
       <c r="B680">
-        <v>3632</v>
+        <v>2319</v>
       </c>
       <c r="C680">
-        <v>20102011</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8084,10 +8084,10 @@
         <v>62</v>
       </c>
       <c r="B681">
-        <v>3636</v>
+        <v>3631</v>
       </c>
       <c r="C681">
-        <v>20092010</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8095,10 +8095,10 @@
         <v>62</v>
       </c>
       <c r="B682">
-        <v>3637</v>
+        <v>3632</v>
       </c>
       <c r="C682">
-        <v>20082009</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8106,10 +8106,10 @@
         <v>62</v>
       </c>
       <c r="B683">
-        <v>4944</v>
+        <v>3636</v>
       </c>
       <c r="C683">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8117,10 +8117,10 @@
         <v>62</v>
       </c>
       <c r="B684">
-        <v>6211</v>
+        <v>3637</v>
       </c>
       <c r="C684">
-        <v>20212022</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8128,32 +8128,32 @@
         <v>62</v>
       </c>
       <c r="B685">
-        <v>7665</v>
+        <v>4944</v>
       </c>
       <c r="C685">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="686" spans="1:3">
       <c r="A686" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B686">
-        <v>39</v>
+        <v>6211</v>
       </c>
       <c r="C686">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="687" spans="1:3">
       <c r="A687" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B687">
-        <v>40</v>
+        <v>7665</v>
       </c>
       <c r="C687">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8161,10 +8161,10 @@
         <v>63</v>
       </c>
       <c r="B688">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C688">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8172,10 +8172,10 @@
         <v>63</v>
       </c>
       <c r="B689">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C689">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8183,10 +8183,10 @@
         <v>63</v>
       </c>
       <c r="B690">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C690">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8194,10 +8194,10 @@
         <v>63</v>
       </c>
       <c r="B691">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="C691">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8205,10 +8205,10 @@
         <v>63</v>
       </c>
       <c r="B692">
-        <v>1670</v>
+        <v>43</v>
       </c>
       <c r="C692">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8216,10 +8216,10 @@
         <v>63</v>
       </c>
       <c r="B693">
-        <v>2415</v>
+        <v>172</v>
       </c>
       <c r="C693">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8227,10 +8227,10 @@
         <v>63</v>
       </c>
       <c r="B694">
-        <v>4167</v>
+        <v>1670</v>
       </c>
       <c r="C694">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8238,10 +8238,10 @@
         <v>63</v>
       </c>
       <c r="B695">
-        <v>4245</v>
+        <v>2415</v>
       </c>
       <c r="C695">
-        <v>20102011</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8249,10 +8249,10 @@
         <v>63</v>
       </c>
       <c r="B696">
-        <v>4249</v>
+        <v>4167</v>
       </c>
       <c r="C696">
-        <v>20092010</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8260,10 +8260,10 @@
         <v>63</v>
       </c>
       <c r="B697">
-        <v>4842</v>
+        <v>4245</v>
       </c>
       <c r="C697">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8271,10 +8271,10 @@
         <v>63</v>
       </c>
       <c r="B698">
-        <v>6120</v>
+        <v>4249</v>
       </c>
       <c r="C698">
-        <v>20212022</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8282,32 +8282,32 @@
         <v>63</v>
       </c>
       <c r="B699">
-        <v>7592</v>
+        <v>4842</v>
       </c>
       <c r="C699">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="700" spans="1:3">
       <c r="A700" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B700">
-        <v>104</v>
+        <v>6120</v>
       </c>
       <c r="C700">
-        <v>2017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="701" spans="1:3">
       <c r="A701" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B701">
-        <v>105</v>
+        <v>7592</v>
       </c>
       <c r="C701">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8315,10 +8315,10 @@
         <v>64</v>
       </c>
       <c r="B702">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C702">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8326,10 +8326,10 @@
         <v>64</v>
       </c>
       <c r="B703">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C703">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8337,10 +8337,10 @@
         <v>64</v>
       </c>
       <c r="B704">
-        <v>994</v>
+        <v>106</v>
       </c>
       <c r="C704">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8348,10 +8348,10 @@
         <v>64</v>
       </c>
       <c r="B705">
-        <v>1848</v>
+        <v>107</v>
       </c>
       <c r="C705">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8359,10 +8359,10 @@
         <v>64</v>
       </c>
       <c r="B706">
-        <v>3703</v>
+        <v>994</v>
       </c>
       <c r="C706">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8370,10 +8370,10 @@
         <v>64</v>
       </c>
       <c r="B707">
-        <v>4307</v>
+        <v>1848</v>
       </c>
       <c r="C707">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8381,10 +8381,10 @@
         <v>64</v>
       </c>
       <c r="B708">
-        <v>4315</v>
+        <v>3703</v>
       </c>
       <c r="C708">
-        <v>2011</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8392,10 +8392,10 @@
         <v>64</v>
       </c>
       <c r="B709">
-        <v>4329</v>
+        <v>4307</v>
       </c>
       <c r="C709">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8403,10 +8403,10 @@
         <v>64</v>
       </c>
       <c r="B710">
-        <v>5505</v>
+        <v>4315</v>
       </c>
       <c r="C710">
-        <v>2021</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8414,10 +8414,10 @@
         <v>64</v>
       </c>
       <c r="B711">
-        <v>7064</v>
+        <v>4329</v>
       </c>
       <c r="C711">
-        <v>2022</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8425,32 +8425,32 @@
         <v>64</v>
       </c>
       <c r="B712">
-        <v>8737</v>
+        <v>5505</v>
       </c>
       <c r="C712">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="713" spans="1:3">
       <c r="A713" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B713">
-        <v>136</v>
+        <v>7064</v>
       </c>
       <c r="C713">
-        <v>20162017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="714" spans="1:3">
       <c r="A714" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B714">
-        <v>137</v>
+        <v>8737</v>
       </c>
       <c r="C714">
-        <v>20152016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8458,10 +8458,10 @@
         <v>65</v>
       </c>
       <c r="B715">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C715">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8469,10 +8469,10 @@
         <v>65</v>
       </c>
       <c r="B716">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C716">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8480,10 +8480,10 @@
         <v>65</v>
       </c>
       <c r="B717">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C717">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8491,10 +8491,10 @@
         <v>65</v>
       </c>
       <c r="B718">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="C718">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8502,10 +8502,10 @@
         <v>65</v>
       </c>
       <c r="B719">
-        <v>1610</v>
+        <v>140</v>
       </c>
       <c r="C719">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8513,10 +8513,10 @@
         <v>65</v>
       </c>
       <c r="B720">
-        <v>2249</v>
+        <v>186</v>
       </c>
       <c r="C720">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8524,10 +8524,10 @@
         <v>65</v>
       </c>
       <c r="B721">
-        <v>4906</v>
+        <v>1610</v>
       </c>
       <c r="C721">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8535,10 +8535,10 @@
         <v>65</v>
       </c>
       <c r="B722">
-        <v>6044</v>
+        <v>2249</v>
       </c>
       <c r="C722">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8546,32 +8546,32 @@
         <v>65</v>
       </c>
       <c r="B723">
-        <v>7504</v>
+        <v>4906</v>
       </c>
       <c r="C723">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="724" spans="1:3">
       <c r="A724" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B724">
-        <v>798</v>
+        <v>6044</v>
       </c>
       <c r="C724">
-        <v>20172018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="725" spans="1:3">
       <c r="A725" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B725">
-        <v>799</v>
+        <v>7504</v>
       </c>
       <c r="C725">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8579,10 +8579,10 @@
         <v>66</v>
       </c>
       <c r="B726">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C726">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8590,10 +8590,10 @@
         <v>66</v>
       </c>
       <c r="B727">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C727">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8601,10 +8601,10 @@
         <v>66</v>
       </c>
       <c r="B728">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C728">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8612,10 +8612,10 @@
         <v>66</v>
       </c>
       <c r="B729">
-        <v>1644</v>
+        <v>801</v>
       </c>
       <c r="C729">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8623,10 +8623,10 @@
         <v>66</v>
       </c>
       <c r="B730">
-        <v>2650</v>
+        <v>802</v>
       </c>
       <c r="C730">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8634,10 +8634,10 @@
         <v>66</v>
       </c>
       <c r="B731">
-        <v>5257</v>
+        <v>1644</v>
       </c>
       <c r="C731">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8645,10 +8645,10 @@
         <v>66</v>
       </c>
       <c r="B732">
-        <v>6726</v>
+        <v>2650</v>
       </c>
       <c r="C732">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8656,32 +8656,32 @@
         <v>66</v>
       </c>
       <c r="B733">
-        <v>8428</v>
+        <v>5257</v>
       </c>
       <c r="C733">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="734" spans="1:3">
       <c r="A734" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B734">
-        <v>19</v>
+        <v>6726</v>
       </c>
       <c r="C734">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="735" spans="1:3">
       <c r="A735" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B735">
-        <v>20</v>
+        <v>8428</v>
       </c>
       <c r="C735">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8689,10 +8689,10 @@
         <v>67</v>
       </c>
       <c r="B736">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C736">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8700,10 +8700,10 @@
         <v>67</v>
       </c>
       <c r="B737">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="C737">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8711,10 +8711,10 @@
         <v>67</v>
       </c>
       <c r="B738">
-        <v>1614</v>
+        <v>21</v>
       </c>
       <c r="C738">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8722,10 +8722,10 @@
         <v>67</v>
       </c>
       <c r="B739">
-        <v>2648</v>
+        <v>175</v>
       </c>
       <c r="C739">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8733,10 +8733,10 @@
         <v>67</v>
       </c>
       <c r="B740">
-        <v>4840</v>
+        <v>1614</v>
       </c>
       <c r="C740">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8744,10 +8744,10 @@
         <v>67</v>
       </c>
       <c r="B741">
-        <v>6125</v>
+        <v>2648</v>
       </c>
       <c r="C741">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8755,32 +8755,32 @@
         <v>67</v>
       </c>
       <c r="B742">
-        <v>7768</v>
+        <v>4840</v>
       </c>
       <c r="C742">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="743" spans="1:3">
       <c r="A743" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B743">
-        <v>1</v>
+        <v>6125</v>
       </c>
       <c r="C743">
-        <v>2016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="744" spans="1:3">
       <c r="A744" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B744">
-        <v>16</v>
+        <v>7768</v>
       </c>
       <c r="C744">
-        <v>2015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8788,10 +8788,10 @@
         <v>68</v>
       </c>
       <c r="B745">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C745">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8799,10 +8799,10 @@
         <v>68</v>
       </c>
       <c r="B746">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C746">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8810,10 +8810,10 @@
         <v>68</v>
       </c>
       <c r="B747">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="C747">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8821,10 +8821,10 @@
         <v>68</v>
       </c>
       <c r="B748">
-        <v>1076</v>
+        <v>24</v>
       </c>
       <c r="C748">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8832,10 +8832,10 @@
         <v>68</v>
       </c>
       <c r="B749">
-        <v>1846</v>
+        <v>163</v>
       </c>
       <c r="C749">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8843,10 +8843,10 @@
         <v>68</v>
       </c>
       <c r="B750">
-        <v>4227</v>
+        <v>1076</v>
       </c>
       <c r="C750">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8854,10 +8854,10 @@
         <v>68</v>
       </c>
       <c r="B751">
-        <v>4235</v>
+        <v>1846</v>
       </c>
       <c r="C751">
-        <v>2011</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8865,10 +8865,10 @@
         <v>68</v>
       </c>
       <c r="B752">
-        <v>4241</v>
+        <v>4227</v>
       </c>
       <c r="C752">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8876,10 +8876,10 @@
         <v>68</v>
       </c>
       <c r="B753">
-        <v>4473</v>
+        <v>4235</v>
       </c>
       <c r="C753">
-        <v>2020</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8887,10 +8887,10 @@
         <v>68</v>
       </c>
       <c r="B754">
-        <v>5674</v>
+        <v>4241</v>
       </c>
       <c r="C754">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8898,10 +8898,10 @@
         <v>68</v>
       </c>
       <c r="B755">
-        <v>6969</v>
+        <v>4473</v>
       </c>
       <c r="C755">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8909,32 +8909,32 @@
         <v>68</v>
       </c>
       <c r="B756">
-        <v>8777</v>
+        <v>5674</v>
       </c>
       <c r="C756">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="757" spans="1:3">
       <c r="A757" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B757">
-        <v>1290</v>
+        <v>6969</v>
       </c>
       <c r="C757">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="758" spans="1:3">
       <c r="A758" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B758">
-        <v>1291</v>
+        <v>8777</v>
       </c>
       <c r="C758">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8942,10 +8942,10 @@
         <v>69</v>
       </c>
       <c r="B759">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C759">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8953,10 +8953,10 @@
         <v>69</v>
       </c>
       <c r="B760">
-        <v>1857</v>
+        <v>1291</v>
       </c>
       <c r="C760">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8964,10 +8964,10 @@
         <v>69</v>
       </c>
       <c r="B761">
-        <v>3710</v>
+        <v>1292</v>
       </c>
       <c r="C761">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8975,10 +8975,10 @@
         <v>69</v>
       </c>
       <c r="B762">
-        <v>4279</v>
+        <v>1857</v>
       </c>
       <c r="C762">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8986,10 +8986,10 @@
         <v>69</v>
       </c>
       <c r="B763">
-        <v>4283</v>
+        <v>3710</v>
       </c>
       <c r="C763">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8997,10 +8997,10 @@
         <v>69</v>
       </c>
       <c r="B764">
-        <v>4288</v>
+        <v>4279</v>
       </c>
       <c r="C764">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9008,10 +9008,10 @@
         <v>69</v>
       </c>
       <c r="B765">
-        <v>6541</v>
+        <v>4283</v>
       </c>
       <c r="C765">
-        <v>2021</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9019,10 +9019,10 @@
         <v>69</v>
       </c>
       <c r="B766">
-        <v>6970</v>
+        <v>4288</v>
       </c>
       <c r="C766">
-        <v>2022</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9030,32 +9030,32 @@
         <v>69</v>
       </c>
       <c r="B767">
-        <v>8845</v>
+        <v>6541</v>
       </c>
       <c r="C767">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="768" spans="1:3">
       <c r="A768" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B768">
-        <v>360</v>
+        <v>6970</v>
       </c>
       <c r="C768">
-        <v>20172018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="769" spans="1:3">
       <c r="A769" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B769">
-        <v>361</v>
+        <v>8845</v>
       </c>
       <c r="C769">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9063,10 +9063,10 @@
         <v>70</v>
       </c>
       <c r="B770">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C770">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9074,10 +9074,10 @@
         <v>70</v>
       </c>
       <c r="B771">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C771">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9085,10 +9085,10 @@
         <v>70</v>
       </c>
       <c r="B772">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C772">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9096,10 +9096,10 @@
         <v>70</v>
       </c>
       <c r="B773">
-        <v>1618</v>
+        <v>363</v>
       </c>
       <c r="C773">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9107,10 +9107,10 @@
         <v>70</v>
       </c>
       <c r="B774">
-        <v>2317</v>
+        <v>364</v>
       </c>
       <c r="C774">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9118,10 +9118,10 @@
         <v>70</v>
       </c>
       <c r="B775">
-        <v>4751</v>
+        <v>1618</v>
       </c>
       <c r="C775">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9129,10 +9129,10 @@
         <v>70</v>
       </c>
       <c r="B776">
-        <v>5943</v>
+        <v>2317</v>
       </c>
       <c r="C776">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9140,32 +9140,32 @@
         <v>70</v>
       </c>
       <c r="B777">
-        <v>8222</v>
+        <v>4751</v>
       </c>
       <c r="C777">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="778" spans="1:3">
       <c r="A778" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B778">
-        <v>853</v>
+        <v>5943</v>
       </c>
       <c r="C778">
-        <v>2017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="779" spans="1:3">
       <c r="A779" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B779">
-        <v>854</v>
+        <v>8222</v>
       </c>
       <c r="C779">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9173,10 +9173,10 @@
         <v>71</v>
       </c>
       <c r="B780">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C780">
-        <v>20152016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9184,10 +9184,10 @@
         <v>71</v>
       </c>
       <c r="B781">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C781">
-        <v>20142015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9195,10 +9195,10 @@
         <v>71</v>
       </c>
       <c r="B782">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C782">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9206,10 +9206,10 @@
         <v>71</v>
       </c>
       <c r="B783">
-        <v>1095</v>
+        <v>856</v>
       </c>
       <c r="C783">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9217,10 +9217,10 @@
         <v>71</v>
       </c>
       <c r="B784">
-        <v>1905</v>
+        <v>857</v>
       </c>
       <c r="C784">
-        <v>2019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9228,10 +9228,10 @@
         <v>71</v>
       </c>
       <c r="B785">
-        <v>3789</v>
+        <v>1095</v>
       </c>
       <c r="C785">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9239,10 +9239,10 @@
         <v>71</v>
       </c>
       <c r="B786">
-        <v>5809</v>
+        <v>1905</v>
       </c>
       <c r="C786">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9250,10 +9250,10 @@
         <v>71</v>
       </c>
       <c r="B787">
-        <v>7067</v>
+        <v>3789</v>
       </c>
       <c r="C787">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9261,32 +9261,32 @@
         <v>71</v>
       </c>
       <c r="B788">
-        <v>8937</v>
+        <v>5809</v>
       </c>
       <c r="C788">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="789" spans="1:3">
       <c r="A789" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B789">
-        <v>858</v>
+        <v>7067</v>
       </c>
       <c r="C789">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="790" spans="1:3">
       <c r="A790" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B790">
-        <v>859</v>
+        <v>8937</v>
       </c>
       <c r="C790">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9294,10 +9294,10 @@
         <v>72</v>
       </c>
       <c r="B791">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C791">
-        <v>20152016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9305,10 +9305,10 @@
         <v>72</v>
       </c>
       <c r="B792">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C792">
-        <v>20142015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9316,10 +9316,10 @@
         <v>72</v>
       </c>
       <c r="B793">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C793">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9327,10 +9327,10 @@
         <v>72</v>
       </c>
       <c r="B794">
-        <v>1096</v>
+        <v>861</v>
       </c>
       <c r="C794">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9338,10 +9338,10 @@
         <v>72</v>
       </c>
       <c r="B795">
-        <v>1949</v>
+        <v>862</v>
       </c>
       <c r="C795">
-        <v>2019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9349,10 +9349,10 @@
         <v>72</v>
       </c>
       <c r="B796">
-        <v>4651</v>
+        <v>1096</v>
       </c>
       <c r="C796">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9360,10 +9360,10 @@
         <v>72</v>
       </c>
       <c r="B797">
-        <v>5908</v>
+        <v>1949</v>
       </c>
       <c r="C797">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9371,10 +9371,10 @@
         <v>72</v>
       </c>
       <c r="B798">
-        <v>7173</v>
+        <v>4651</v>
       </c>
       <c r="C798">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9382,32 +9382,32 @@
         <v>72</v>
       </c>
       <c r="B799">
-        <v>9288</v>
+        <v>5908</v>
       </c>
       <c r="C799">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="800" spans="1:3">
       <c r="A800" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B800">
-        <v>622</v>
+        <v>7173</v>
       </c>
       <c r="C800">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="801" spans="1:3">
       <c r="A801" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B801">
-        <v>623</v>
+        <v>9288</v>
       </c>
       <c r="C801">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9415,10 +9415,10 @@
         <v>73</v>
       </c>
       <c r="B802">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C802">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9426,10 +9426,10 @@
         <v>73</v>
       </c>
       <c r="B803">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C803">
-        <v>20142015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9437,10 +9437,10 @@
         <v>73</v>
       </c>
       <c r="B804">
-        <v>1102</v>
+        <v>624</v>
       </c>
       <c r="C804">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9448,10 +9448,10 @@
         <v>73</v>
       </c>
       <c r="B805">
-        <v>1868</v>
+        <v>631</v>
       </c>
       <c r="C805">
-        <v>2019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9459,10 +9459,10 @@
         <v>73</v>
       </c>
       <c r="B806">
-        <v>2011</v>
+        <v>1102</v>
       </c>
       <c r="C806">
-        <v>20132014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9470,10 +9470,10 @@
         <v>73</v>
       </c>
       <c r="B807">
-        <v>3714</v>
+        <v>1868</v>
       </c>
       <c r="C807">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9481,10 +9481,10 @@
         <v>73</v>
       </c>
       <c r="B808">
-        <v>5631</v>
+        <v>2011</v>
       </c>
       <c r="C808">
-        <v>2021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9492,10 +9492,10 @@
         <v>73</v>
       </c>
       <c r="B809">
-        <v>7166</v>
+        <v>3714</v>
       </c>
       <c r="C809">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9503,9 +9503,31 @@
         <v>73</v>
       </c>
       <c r="B810">
+        <v>5631</v>
+      </c>
+      <c r="C810">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3">
+      <c r="A811" t="s">
+        <v>73</v>
+      </c>
+      <c r="B811">
+        <v>7166</v>
+      </c>
+      <c r="C811">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3">
+      <c r="A812" t="s">
+        <v>73</v>
+      </c>
+      <c r="B812">
         <v>8952</v>
       </c>
-      <c r="C810">
+      <c r="C812">
         <v>2023</v>
       </c>
     </row>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="74">
   <si>
     <t>League</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C812"/>
+  <dimension ref="A1:C816"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2966,13 +2966,13 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B216">
-        <v>700</v>
+        <v>9592</v>
       </c>
       <c r="C216">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>23</v>
       </c>
       <c r="B217">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C217">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>23</v>
       </c>
       <c r="B218">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C218">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3002,10 +3002,10 @@
         <v>23</v>
       </c>
       <c r="B219">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C219">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>23</v>
       </c>
       <c r="B220">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C220">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>23</v>
       </c>
       <c r="B221">
-        <v>1539</v>
+        <v>704</v>
       </c>
       <c r="C221">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3035,10 +3035,10 @@
         <v>23</v>
       </c>
       <c r="B222">
-        <v>4389</v>
+        <v>1539</v>
       </c>
       <c r="C222">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3046,10 +3046,10 @@
         <v>23</v>
       </c>
       <c r="B223">
-        <v>4641</v>
+        <v>4389</v>
       </c>
       <c r="C223">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3057,10 +3057,10 @@
         <v>23</v>
       </c>
       <c r="B224">
-        <v>5959</v>
+        <v>4641</v>
       </c>
       <c r="C224">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3068,10 +3068,10 @@
         <v>23</v>
       </c>
       <c r="B225">
-        <v>7450</v>
+        <v>5959</v>
       </c>
       <c r="C225">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3079,21 +3079,21 @@
         <v>23</v>
       </c>
       <c r="B226">
-        <v>9567</v>
+        <v>7450</v>
       </c>
       <c r="C226">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B227">
-        <v>561</v>
+        <v>9567</v>
       </c>
       <c r="C227">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>24</v>
       </c>
       <c r="B228">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C228">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>24</v>
       </c>
       <c r="B229">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C229">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>24</v>
       </c>
       <c r="B230">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C230">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>24</v>
       </c>
       <c r="B231">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C231">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>24</v>
       </c>
       <c r="B232">
-        <v>1538</v>
+        <v>565</v>
       </c>
       <c r="C232">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>24</v>
       </c>
       <c r="B233">
-        <v>2245</v>
+        <v>1538</v>
       </c>
       <c r="C233">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>24</v>
       </c>
       <c r="B234">
-        <v>4642</v>
+        <v>2245</v>
       </c>
       <c r="C234">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>24</v>
       </c>
       <c r="B235">
-        <v>5961</v>
+        <v>4642</v>
       </c>
       <c r="C235">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>24</v>
       </c>
       <c r="B236">
-        <v>7426</v>
+        <v>5961</v>
       </c>
       <c r="C236">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3200,21 +3200,21 @@
         <v>24</v>
       </c>
       <c r="B237">
-        <v>9545</v>
+        <v>7426</v>
       </c>
       <c r="C237">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B238">
-        <v>843</v>
+        <v>9545</v>
       </c>
       <c r="C238">
-        <v>2017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>25</v>
       </c>
       <c r="B239">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C239">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>25</v>
       </c>
       <c r="B240">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C240">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>25</v>
       </c>
       <c r="B241">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C241">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>25</v>
       </c>
       <c r="B242">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C242">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>25</v>
       </c>
       <c r="B243">
-        <v>1093</v>
+        <v>847</v>
       </c>
       <c r="C243">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>25</v>
       </c>
       <c r="B244">
-        <v>1872</v>
+        <v>1093</v>
       </c>
       <c r="C244">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>25</v>
       </c>
       <c r="B245">
-        <v>3553</v>
+        <v>1872</v>
       </c>
       <c r="C245">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>25</v>
       </c>
       <c r="B246">
-        <v>5580</v>
+        <v>3553</v>
       </c>
       <c r="C246">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>25</v>
       </c>
       <c r="B247">
-        <v>7038</v>
+        <v>5580</v>
       </c>
       <c r="C247">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3321,21 +3321,21 @@
         <v>25</v>
       </c>
       <c r="B248">
-        <v>8934</v>
+        <v>7038</v>
       </c>
       <c r="C248">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B249">
-        <v>210</v>
+        <v>8934</v>
       </c>
       <c r="C249">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>26</v>
       </c>
       <c r="B250">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C250">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>26</v>
       </c>
       <c r="B251">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C251">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>26</v>
       </c>
       <c r="B252">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C252">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>26</v>
       </c>
       <c r="B253">
-        <v>1673</v>
+        <v>218</v>
       </c>
       <c r="C253">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>26</v>
       </c>
       <c r="B254">
-        <v>2889</v>
+        <v>1673</v>
       </c>
       <c r="C254">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>26</v>
       </c>
       <c r="B255">
-        <v>5342</v>
+        <v>2889</v>
       </c>
       <c r="C255">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>26</v>
       </c>
       <c r="B256">
-        <v>6752</v>
+        <v>5342</v>
       </c>
       <c r="C256">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3420,21 +3420,21 @@
         <v>26</v>
       </c>
       <c r="B257">
-        <v>8520</v>
+        <v>6752</v>
       </c>
       <c r="C257">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B258">
-        <v>22</v>
+        <v>8520</v>
       </c>
       <c r="C258">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>27</v>
       </c>
       <c r="B259">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C259">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>27</v>
       </c>
       <c r="B260">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C260">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>27</v>
       </c>
       <c r="B261">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C261">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>27</v>
       </c>
       <c r="B262">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C262">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>27</v>
       </c>
       <c r="B263">
-        <v>1624</v>
+        <v>165</v>
       </c>
       <c r="C263">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>27</v>
       </c>
       <c r="B264">
-        <v>2187</v>
+        <v>1624</v>
       </c>
       <c r="C264">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="B265">
-        <v>3141</v>
+        <v>2187</v>
       </c>
       <c r="C265">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>27</v>
       </c>
       <c r="B266">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="C266">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>27</v>
       </c>
       <c r="B267">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="C267">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>27</v>
       </c>
       <c r="B268">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="C268">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>27</v>
       </c>
       <c r="B269">
-        <v>4912</v>
+        <v>3147</v>
       </c>
       <c r="C269">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>27</v>
       </c>
       <c r="B270">
-        <v>6089</v>
+        <v>4912</v>
       </c>
       <c r="C270">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>27</v>
       </c>
       <c r="B271">
-        <v>7593</v>
+        <v>6089</v>
       </c>
       <c r="C271">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3585,21 +3585,21 @@
         <v>27</v>
       </c>
       <c r="B272">
-        <v>8031</v>
+        <v>7593</v>
       </c>
       <c r="C272">
-        <v>20082009</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B273">
-        <v>28</v>
+        <v>8031</v>
       </c>
       <c r="C273">
-        <v>20162017</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>28</v>
       </c>
       <c r="B274">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C274">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>28</v>
       </c>
       <c r="B275">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C275">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>28</v>
       </c>
       <c r="B276">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C276">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>28</v>
       </c>
       <c r="B277">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="C277">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>28</v>
       </c>
       <c r="B278">
-        <v>1564</v>
+        <v>166</v>
       </c>
       <c r="C278">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>28</v>
       </c>
       <c r="B279">
-        <v>2191</v>
+        <v>1564</v>
       </c>
       <c r="C279">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>28</v>
       </c>
       <c r="B280">
-        <v>3950</v>
+        <v>2191</v>
       </c>
       <c r="C280">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>28</v>
       </c>
       <c r="B281">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C281">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>28</v>
       </c>
       <c r="B282">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="C282">
-        <v>20112012</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>28</v>
       </c>
       <c r="B283">
-        <v>4845</v>
+        <v>3952</v>
       </c>
       <c r="C283">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>28</v>
       </c>
       <c r="B284">
-        <v>4923</v>
+        <v>4845</v>
       </c>
       <c r="C284">
-        <v>20102011</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>28</v>
       </c>
       <c r="B285">
-        <v>6017</v>
+        <v>4923</v>
       </c>
       <c r="C285">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3739,32 +3739,32 @@
         <v>28</v>
       </c>
       <c r="B286">
-        <v>7570</v>
+        <v>6017</v>
       </c>
       <c r="C286">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B287">
-        <v>32</v>
+        <v>7570</v>
       </c>
       <c r="C287">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B288">
-        <v>33</v>
+        <v>9582</v>
       </c>
       <c r="C288">
-        <v>20152016</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>29</v>
       </c>
       <c r="B289">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="C289">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>29</v>
       </c>
       <c r="B290">
-        <v>1574</v>
+        <v>33</v>
       </c>
       <c r="C290">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>29</v>
       </c>
       <c r="B291">
-        <v>2192</v>
+        <v>170</v>
       </c>
       <c r="C291">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>29</v>
       </c>
       <c r="B292">
-        <v>4844</v>
+        <v>1574</v>
       </c>
       <c r="C292">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>29</v>
       </c>
       <c r="B293">
-        <v>6015</v>
+        <v>2192</v>
       </c>
       <c r="C293">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3827,43 +3827,43 @@
         <v>29</v>
       </c>
       <c r="B294">
-        <v>7574</v>
+        <v>4844</v>
       </c>
       <c r="C294">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B295">
-        <v>392</v>
+        <v>6015</v>
       </c>
       <c r="C295">
-        <v>20172018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B296">
-        <v>393</v>
+        <v>7574</v>
       </c>
       <c r="C296">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B297">
-        <v>394</v>
+        <v>9581</v>
       </c>
       <c r="C297">
-        <v>20152016</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="B298">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C298">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>30</v>
       </c>
       <c r="B299">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C299">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>30</v>
       </c>
       <c r="B300">
-        <v>1576</v>
+        <v>394</v>
       </c>
       <c r="C300">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="B301">
-        <v>2287</v>
+        <v>395</v>
       </c>
       <c r="C301">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>30</v>
       </c>
       <c r="B302">
-        <v>4124</v>
+        <v>396</v>
       </c>
       <c r="C302">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>30</v>
       </c>
       <c r="B303">
-        <v>4154</v>
+        <v>1576</v>
       </c>
       <c r="C303">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>30</v>
       </c>
       <c r="B304">
-        <v>5018</v>
+        <v>2287</v>
       </c>
       <c r="C304">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>30</v>
       </c>
       <c r="B305">
-        <v>6088</v>
+        <v>4124</v>
       </c>
       <c r="C305">
-        <v>20212022</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3959,43 +3959,43 @@
         <v>30</v>
       </c>
       <c r="B306">
-        <v>7729</v>
+        <v>4154</v>
       </c>
       <c r="C306">
-        <v>20222023</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B307">
-        <v>9</v>
+        <v>5018</v>
       </c>
       <c r="C307">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B308">
-        <v>10</v>
+        <v>6088</v>
       </c>
       <c r="C308">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7729</v>
       </c>
       <c r="C309">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>31</v>
       </c>
       <c r="B310">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C310">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>31</v>
       </c>
       <c r="B311">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="C311">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>31</v>
       </c>
       <c r="B312">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="C312">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>31</v>
       </c>
       <c r="B313">
-        <v>1625</v>
+        <v>12</v>
       </c>
       <c r="C313">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>31</v>
       </c>
       <c r="B314">
-        <v>2012</v>
+        <v>161</v>
       </c>
       <c r="C314">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>31</v>
       </c>
       <c r="B315">
-        <v>3119</v>
+        <v>246</v>
       </c>
       <c r="C315">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>31</v>
       </c>
       <c r="B316">
-        <v>3121</v>
+        <v>1625</v>
       </c>
       <c r="C316">
-        <v>20102011</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>31</v>
       </c>
       <c r="B317">
-        <v>3125</v>
+        <v>2012</v>
       </c>
       <c r="C317">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4091,10 +4091,10 @@
         <v>31</v>
       </c>
       <c r="B318">
-        <v>3131</v>
+        <v>3119</v>
       </c>
       <c r="C318">
-        <v>20082009</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4102,10 +4102,10 @@
         <v>31</v>
       </c>
       <c r="B319">
-        <v>3137</v>
+        <v>3121</v>
       </c>
       <c r="C319">
-        <v>20072008</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4113,10 +4113,10 @@
         <v>31</v>
       </c>
       <c r="B320">
-        <v>4759</v>
+        <v>3125</v>
       </c>
       <c r="C320">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4124,10 +4124,10 @@
         <v>31</v>
       </c>
       <c r="B321">
-        <v>6135</v>
+        <v>3131</v>
       </c>
       <c r="C321">
-        <v>20212022</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4135,43 +4135,43 @@
         <v>31</v>
       </c>
       <c r="B322">
-        <v>7704</v>
+        <v>3137</v>
       </c>
       <c r="C322">
-        <v>20222023</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B323">
-        <v>58</v>
+        <v>4759</v>
       </c>
       <c r="C323">
-        <v>2017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B324">
-        <v>59</v>
+        <v>6135</v>
       </c>
       <c r="C324">
-        <v>2016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B325">
-        <v>60</v>
+        <v>7704</v>
       </c>
       <c r="C325">
-        <v>2014</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>32</v>
       </c>
       <c r="B326">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C326">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>32</v>
       </c>
       <c r="B327">
-        <v>1191</v>
+        <v>59</v>
       </c>
       <c r="C327">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>32</v>
       </c>
       <c r="B328">
-        <v>1874</v>
+        <v>60</v>
       </c>
       <c r="C328">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>32</v>
       </c>
       <c r="B329">
-        <v>3645</v>
+        <v>72</v>
       </c>
       <c r="C329">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>32</v>
       </c>
       <c r="B330">
-        <v>5477</v>
+        <v>1191</v>
       </c>
       <c r="C330">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>32</v>
       </c>
       <c r="B331">
-        <v>7120</v>
+        <v>1874</v>
       </c>
       <c r="C331">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4245,43 +4245,43 @@
         <v>32</v>
       </c>
       <c r="B332">
-        <v>8935</v>
+        <v>3645</v>
       </c>
       <c r="C332">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B333">
-        <v>65</v>
+        <v>5477</v>
       </c>
       <c r="C333">
-        <v>20162017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B334">
-        <v>66</v>
+        <v>7120</v>
       </c>
       <c r="C334">
-        <v>20142015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B335">
-        <v>67</v>
+        <v>8935</v>
       </c>
       <c r="C335">
-        <v>20132014</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>33</v>
       </c>
       <c r="B336">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C336">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>33</v>
       </c>
       <c r="B337">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="C337">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="B338">
-        <v>1508</v>
+        <v>67</v>
       </c>
       <c r="C338">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>33</v>
       </c>
       <c r="B339">
-        <v>2392</v>
+        <v>75</v>
       </c>
       <c r="C339">
-        <v>20192020</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>33</v>
       </c>
       <c r="B340">
-        <v>4127</v>
+        <v>180</v>
       </c>
       <c r="C340">
-        <v>20122013</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>33</v>
       </c>
       <c r="B341">
-        <v>4136</v>
+        <v>1508</v>
       </c>
       <c r="C341">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>33</v>
       </c>
       <c r="B342">
-        <v>4193</v>
+        <v>2392</v>
       </c>
       <c r="C342">
-        <v>20102011</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>33</v>
       </c>
       <c r="B343">
-        <v>4199</v>
+        <v>4127</v>
       </c>
       <c r="C343">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>33</v>
       </c>
       <c r="B344">
-        <v>4505</v>
+        <v>4136</v>
       </c>
       <c r="C344">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>33</v>
       </c>
       <c r="B345">
-        <v>6019</v>
+        <v>4193</v>
       </c>
       <c r="C345">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4399,43 +4399,43 @@
         <v>33</v>
       </c>
       <c r="B346">
-        <v>7500</v>
+        <v>4199</v>
       </c>
       <c r="C346">
-        <v>20222023</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B347">
-        <v>73</v>
+        <v>4505</v>
       </c>
       <c r="C347">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B348">
-        <v>74</v>
+        <v>6019</v>
       </c>
       <c r="C348">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B349">
-        <v>76</v>
+        <v>7500</v>
       </c>
       <c r="C349">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>34</v>
       </c>
       <c r="B350">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="C350">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>34</v>
       </c>
       <c r="B351">
-        <v>1579</v>
+        <v>74</v>
       </c>
       <c r="C351">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>34</v>
       </c>
       <c r="B352">
-        <v>2396</v>
+        <v>76</v>
       </c>
       <c r="C352">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>34</v>
       </c>
       <c r="B353">
-        <v>4164</v>
+        <v>181</v>
       </c>
       <c r="C353">
-        <v>20132014</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>34</v>
       </c>
       <c r="B354">
-        <v>4185</v>
+        <v>1579</v>
       </c>
       <c r="C354">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>34</v>
       </c>
       <c r="B355">
-        <v>4645</v>
+        <v>2396</v>
       </c>
       <c r="C355">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>34</v>
       </c>
       <c r="B356">
-        <v>6018</v>
+        <v>4164</v>
       </c>
       <c r="C356">
-        <v>20212022</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4520,43 +4520,43 @@
         <v>34</v>
       </c>
       <c r="B357">
-        <v>7501</v>
+        <v>4185</v>
       </c>
       <c r="C357">
-        <v>20222023</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B358">
-        <v>83</v>
+        <v>4645</v>
       </c>
       <c r="C358">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B359">
-        <v>84</v>
+        <v>6018</v>
       </c>
       <c r="C359">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B360">
-        <v>85</v>
+        <v>7501</v>
       </c>
       <c r="C360">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>35</v>
       </c>
       <c r="B361">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="C361">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>35</v>
       </c>
       <c r="B362">
-        <v>1578</v>
+        <v>84</v>
       </c>
       <c r="C362">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>35</v>
       </c>
       <c r="B363">
-        <v>4131</v>
+        <v>85</v>
       </c>
       <c r="C363">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>35</v>
       </c>
       <c r="B364">
-        <v>4168</v>
+        <v>188</v>
       </c>
       <c r="C364">
-        <v>20122013</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>35</v>
       </c>
       <c r="B365">
-        <v>4195</v>
+        <v>1578</v>
       </c>
       <c r="C365">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>35</v>
       </c>
       <c r="B366">
-        <v>4200</v>
+        <v>4131</v>
       </c>
       <c r="C366">
-        <v>20102011</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>35</v>
       </c>
       <c r="B367">
-        <v>4388</v>
+        <v>4168</v>
       </c>
       <c r="C367">
-        <v>20192020</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>35</v>
       </c>
       <c r="B368">
-        <v>4676</v>
+        <v>4195</v>
       </c>
       <c r="C368">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>35</v>
       </c>
       <c r="B369">
-        <v>6020</v>
+        <v>4200</v>
       </c>
       <c r="C369">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4663,43 +4663,43 @@
         <v>35</v>
       </c>
       <c r="B370">
-        <v>7499</v>
+        <v>4388</v>
       </c>
       <c r="C370">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B371">
-        <v>3</v>
+        <v>4676</v>
       </c>
       <c r="C371">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>6020</v>
       </c>
       <c r="C372">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>7499</v>
       </c>
       <c r="C373">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>36</v>
       </c>
       <c r="B374">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C374">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>36</v>
       </c>
       <c r="B375">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="C375">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>36</v>
       </c>
       <c r="B376">
-        <v>1636</v>
+        <v>5</v>
       </c>
       <c r="C376">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>36</v>
       </c>
       <c r="B377">
-        <v>4105</v>
+        <v>7</v>
       </c>
       <c r="C377">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>36</v>
       </c>
       <c r="B378">
-        <v>4123</v>
+        <v>177</v>
       </c>
       <c r="C378">
-        <v>20112012</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>36</v>
       </c>
       <c r="B379">
-        <v>4133</v>
+        <v>1636</v>
       </c>
       <c r="C379">
-        <v>20102011</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>36</v>
       </c>
       <c r="B380">
-        <v>4140</v>
+        <v>4105</v>
       </c>
       <c r="C380">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>36</v>
       </c>
       <c r="B381">
-        <v>4392</v>
+        <v>4123</v>
       </c>
       <c r="C381">
-        <v>20192020</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>36</v>
       </c>
       <c r="B382">
-        <v>4624</v>
+        <v>4133</v>
       </c>
       <c r="C382">
-        <v>20082009</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>36</v>
       </c>
       <c r="B383">
-        <v>4628</v>
+        <v>4140</v>
       </c>
       <c r="C383">
-        <v>20072008</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>36</v>
       </c>
       <c r="B384">
-        <v>4629</v>
+        <v>4392</v>
       </c>
       <c r="C384">
-        <v>20062007</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>36</v>
       </c>
       <c r="B385">
-        <v>4673</v>
+        <v>4624</v>
       </c>
       <c r="C385">
-        <v>20202021</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>36</v>
       </c>
       <c r="B386">
-        <v>6192</v>
+        <v>4628</v>
       </c>
       <c r="C386">
-        <v>20212022</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4850,43 +4850,43 @@
         <v>36</v>
       </c>
       <c r="B387">
-        <v>7664</v>
+        <v>4629</v>
       </c>
       <c r="C387">
-        <v>20222023</v>
+        <v>20062007</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B388">
-        <v>207</v>
+        <v>4673</v>
       </c>
       <c r="C388">
-        <v>20172018</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B389">
-        <v>208</v>
+        <v>6192</v>
       </c>
       <c r="C389">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B390">
-        <v>209</v>
+        <v>7664</v>
       </c>
       <c r="C390">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>37</v>
       </c>
       <c r="B391">
-        <v>933</v>
+        <v>207</v>
       </c>
       <c r="C391">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>37</v>
       </c>
       <c r="B392">
-        <v>934</v>
+        <v>208</v>
       </c>
       <c r="C392">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>37</v>
       </c>
       <c r="B393">
-        <v>1752</v>
+        <v>209</v>
       </c>
       <c r="C393">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>37</v>
       </c>
       <c r="B394">
-        <v>2667</v>
+        <v>933</v>
       </c>
       <c r="C394">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>37</v>
       </c>
       <c r="B395">
-        <v>4957</v>
+        <v>934</v>
       </c>
       <c r="C395">
-        <v>20202021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>37</v>
       </c>
       <c r="B396">
-        <v>6282</v>
+        <v>1752</v>
       </c>
       <c r="C396">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4960,43 +4960,43 @@
         <v>37</v>
       </c>
       <c r="B397">
-        <v>7954</v>
+        <v>2667</v>
       </c>
       <c r="C397">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B398">
-        <v>726</v>
+        <v>4957</v>
       </c>
       <c r="C398">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B399">
-        <v>727</v>
+        <v>6282</v>
       </c>
       <c r="C399">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B400">
-        <v>728</v>
+        <v>7954</v>
       </c>
       <c r="C400">
-        <v>20132014</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>38</v>
       </c>
       <c r="B401">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C401">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>38</v>
       </c>
       <c r="B402">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C402">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>38</v>
       </c>
       <c r="B403">
-        <v>1566</v>
+        <v>728</v>
       </c>
       <c r="C403">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>38</v>
       </c>
       <c r="B404">
-        <v>2282</v>
+        <v>730</v>
       </c>
       <c r="C404">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>38</v>
       </c>
       <c r="B405">
-        <v>4534</v>
+        <v>731</v>
       </c>
       <c r="C405">
-        <v>20202021</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>38</v>
       </c>
       <c r="B406">
-        <v>5936</v>
+        <v>1566</v>
       </c>
       <c r="C406">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5070,43 +5070,43 @@
         <v>38</v>
       </c>
       <c r="B407">
-        <v>7967</v>
+        <v>2282</v>
       </c>
       <c r="C407">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B408">
-        <v>68</v>
+        <v>4534</v>
       </c>
       <c r="C408">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B409">
-        <v>69</v>
+        <v>5936</v>
       </c>
       <c r="C409">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B410">
-        <v>70</v>
+        <v>7967</v>
       </c>
       <c r="C410">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>39</v>
       </c>
       <c r="B411">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C411">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>39</v>
       </c>
       <c r="B412">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="C412">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>39</v>
       </c>
       <c r="B413">
-        <v>1680</v>
+        <v>70</v>
       </c>
       <c r="C413">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>39</v>
       </c>
       <c r="B414">
-        <v>2588</v>
+        <v>71</v>
       </c>
       <c r="C414">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>39</v>
       </c>
       <c r="B415">
-        <v>3940</v>
+        <v>182</v>
       </c>
       <c r="C415">
-        <v>20112012</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5169,10 +5169,10 @@
         <v>39</v>
       </c>
       <c r="B416">
-        <v>3941</v>
+        <v>1680</v>
       </c>
       <c r="C416">
-        <v>20082009</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>39</v>
       </c>
       <c r="B417">
-        <v>3942</v>
+        <v>2588</v>
       </c>
       <c r="C417">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>39</v>
       </c>
       <c r="B418">
-        <v>3945</v>
+        <v>3940</v>
       </c>
       <c r="C418">
-        <v>20122013</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>39</v>
       </c>
       <c r="B419">
-        <v>4889</v>
+        <v>3941</v>
       </c>
       <c r="C419">
-        <v>20202021</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>39</v>
       </c>
       <c r="B420">
-        <v>6198</v>
+        <v>3942</v>
       </c>
       <c r="C420">
-        <v>20212022</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5224,43 +5224,43 @@
         <v>39</v>
       </c>
       <c r="B421">
-        <v>7608</v>
+        <v>3945</v>
       </c>
       <c r="C421">
-        <v>20222023</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B422">
-        <v>77</v>
+        <v>4889</v>
       </c>
       <c r="C422">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B423">
-        <v>78</v>
+        <v>6198</v>
       </c>
       <c r="C423">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B424">
-        <v>79</v>
+        <v>7608</v>
       </c>
       <c r="C424">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>40</v>
       </c>
       <c r="B425">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C425">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>40</v>
       </c>
       <c r="B426">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C426">
-        <v>20122013</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>40</v>
       </c>
       <c r="B427">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="C427">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="B428">
-        <v>1749</v>
+        <v>80</v>
       </c>
       <c r="C428">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>40</v>
       </c>
       <c r="B429">
-        <v>2642</v>
+        <v>81</v>
       </c>
       <c r="C429">
-        <v>20192020</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>40</v>
       </c>
       <c r="B430">
-        <v>3946</v>
+        <v>183</v>
       </c>
       <c r="C430">
-        <v>20092010</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>40</v>
       </c>
       <c r="B431">
-        <v>3948</v>
+        <v>1749</v>
       </c>
       <c r="C431">
-        <v>20102011</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>40</v>
       </c>
       <c r="B432">
-        <v>3949</v>
+        <v>2642</v>
       </c>
       <c r="C432">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>40</v>
       </c>
       <c r="B433">
-        <v>4972</v>
+        <v>3946</v>
       </c>
       <c r="C433">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>40</v>
       </c>
       <c r="B434">
-        <v>6205</v>
+        <v>3948</v>
       </c>
       <c r="C434">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5378,43 +5378,43 @@
         <v>40</v>
       </c>
       <c r="B435">
-        <v>7864</v>
+        <v>3949</v>
       </c>
       <c r="C435">
-        <v>20222023</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B436">
-        <v>162</v>
+        <v>4972</v>
       </c>
       <c r="C436">
-        <v>2017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B437">
-        <v>250</v>
+        <v>6205</v>
       </c>
       <c r="C437">
-        <v>2016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B438">
-        <v>251</v>
+        <v>7864</v>
       </c>
       <c r="C438">
-        <v>2015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>41</v>
       </c>
       <c r="B439">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="C439">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>41</v>
       </c>
       <c r="B440">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C440">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>41</v>
       </c>
       <c r="B441">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C441">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>41</v>
       </c>
       <c r="B442">
-        <v>1071</v>
+        <v>252</v>
       </c>
       <c r="C442">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>41</v>
       </c>
       <c r="B443">
-        <v>1864</v>
+        <v>253</v>
       </c>
       <c r="C443">
-        <v>2019</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>41</v>
       </c>
       <c r="B444">
-        <v>3686</v>
+        <v>254</v>
       </c>
       <c r="C444">
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>41</v>
       </c>
       <c r="B445">
-        <v>5434</v>
+        <v>1071</v>
       </c>
       <c r="C445">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>41</v>
       </c>
       <c r="B446">
-        <v>6935</v>
+        <v>1864</v>
       </c>
       <c r="C446">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5510,43 +5510,43 @@
         <v>41</v>
       </c>
       <c r="B447">
-        <v>8810</v>
+        <v>3686</v>
       </c>
       <c r="C447">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B448">
-        <v>130</v>
+        <v>5434</v>
       </c>
       <c r="C448">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B449">
-        <v>131</v>
+        <v>6935</v>
       </c>
       <c r="C449">
-        <v>2015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B450">
-        <v>132</v>
+        <v>8810</v>
       </c>
       <c r="C450">
-        <v>2014</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>42</v>
       </c>
       <c r="B451">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C451">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>42</v>
       </c>
       <c r="B452">
-        <v>1073</v>
+        <v>131</v>
       </c>
       <c r="C452">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>42</v>
       </c>
       <c r="B453">
-        <v>1865</v>
+        <v>132</v>
       </c>
       <c r="C453">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>42</v>
       </c>
       <c r="B454">
-        <v>3684</v>
+        <v>153</v>
       </c>
       <c r="C454">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>42</v>
       </c>
       <c r="B455">
-        <v>5495</v>
+        <v>1073</v>
       </c>
       <c r="C455">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>42</v>
       </c>
       <c r="B456">
-        <v>6936</v>
+        <v>1865</v>
       </c>
       <c r="C456">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5620,43 +5620,43 @@
         <v>42</v>
       </c>
       <c r="B457">
-        <v>8811</v>
+        <v>3684</v>
       </c>
       <c r="C457">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B458">
-        <v>313</v>
+        <v>5495</v>
       </c>
       <c r="C458">
-        <v>20172018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B459">
-        <v>314</v>
+        <v>6936</v>
       </c>
       <c r="C459">
-        <v>20162017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B460">
-        <v>315</v>
+        <v>8811</v>
       </c>
       <c r="C460">
-        <v>20152016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>43</v>
       </c>
       <c r="B461">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C461">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>43</v>
       </c>
       <c r="B462">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C462">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>43</v>
       </c>
       <c r="B463">
-        <v>1583</v>
+        <v>315</v>
       </c>
       <c r="C463">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>43</v>
       </c>
       <c r="B464">
-        <v>2315</v>
+        <v>316</v>
       </c>
       <c r="C464">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>43</v>
       </c>
       <c r="B465">
-        <v>4664</v>
+        <v>317</v>
       </c>
       <c r="C465">
-        <v>20202021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>43</v>
       </c>
       <c r="B466">
-        <v>6104</v>
+        <v>1583</v>
       </c>
       <c r="C466">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5730,43 +5730,43 @@
         <v>43</v>
       </c>
       <c r="B467">
-        <v>7489</v>
+        <v>2315</v>
       </c>
       <c r="C467">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B468">
-        <v>307</v>
+        <v>4664</v>
       </c>
       <c r="C468">
-        <v>20172018</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B469">
-        <v>308</v>
+        <v>6104</v>
       </c>
       <c r="C469">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B470">
-        <v>309</v>
+        <v>7489</v>
       </c>
       <c r="C470">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>44</v>
       </c>
       <c r="B471">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C471">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>44</v>
       </c>
       <c r="B472">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C472">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>44</v>
       </c>
       <c r="B473">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C473">
-        <v>20122013</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>44</v>
       </c>
       <c r="B474">
-        <v>1582</v>
+        <v>310</v>
       </c>
       <c r="C474">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>44</v>
       </c>
       <c r="B475">
-        <v>2270</v>
+        <v>311</v>
       </c>
       <c r="C475">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>44</v>
       </c>
       <c r="B476">
-        <v>4507</v>
+        <v>312</v>
       </c>
       <c r="C476">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>44</v>
       </c>
       <c r="B477">
-        <v>6038</v>
+        <v>1582</v>
       </c>
       <c r="C477">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>44</v>
       </c>
       <c r="B478">
-        <v>7425</v>
+        <v>2270</v>
       </c>
       <c r="C478">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5862,43 +5862,43 @@
         <v>44</v>
       </c>
       <c r="B479">
-        <v>9525</v>
+        <v>4507</v>
       </c>
       <c r="C479">
-        <v>20232024</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B480">
-        <v>55</v>
+        <v>6038</v>
       </c>
       <c r="C480">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B481">
-        <v>56</v>
+        <v>7425</v>
       </c>
       <c r="C481">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B482">
-        <v>57</v>
+        <v>9525</v>
       </c>
       <c r="C482">
-        <v>20142015</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>45</v>
       </c>
       <c r="B483">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="C483">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="B484">
-        <v>1584</v>
+        <v>56</v>
       </c>
       <c r="C484">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>45</v>
       </c>
       <c r="B485">
-        <v>2273</v>
+        <v>57</v>
       </c>
       <c r="C485">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>45</v>
       </c>
       <c r="B486">
-        <v>4228</v>
+        <v>179</v>
       </c>
       <c r="C486">
-        <v>20132014</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>45</v>
       </c>
       <c r="B487">
-        <v>4236</v>
+        <v>1584</v>
       </c>
       <c r="C487">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>45</v>
       </c>
       <c r="B488">
-        <v>4243</v>
+        <v>2273</v>
       </c>
       <c r="C488">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>45</v>
       </c>
       <c r="B489">
-        <v>4246</v>
+        <v>4228</v>
       </c>
       <c r="C489">
-        <v>20102011</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>45</v>
       </c>
       <c r="B490">
-        <v>4247</v>
+        <v>4236</v>
       </c>
       <c r="C490">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>45</v>
       </c>
       <c r="B491">
-        <v>4748</v>
+        <v>4243</v>
       </c>
       <c r="C491">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>45</v>
       </c>
       <c r="B492">
-        <v>5950</v>
+        <v>4246</v>
       </c>
       <c r="C492">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6016,43 +6016,43 @@
         <v>45</v>
       </c>
       <c r="B493">
-        <v>7484</v>
+        <v>4247</v>
       </c>
       <c r="C493">
-        <v>20222023</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B494">
-        <v>51</v>
+        <v>4748</v>
       </c>
       <c r="C494">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B495">
-        <v>52</v>
+        <v>5950</v>
       </c>
       <c r="C495">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B496">
-        <v>53</v>
+        <v>7484</v>
       </c>
       <c r="C496">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>46</v>
       </c>
       <c r="B497">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C497">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>46</v>
       </c>
       <c r="B498">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="C498">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>46</v>
       </c>
       <c r="B499">
-        <v>1585</v>
+        <v>53</v>
       </c>
       <c r="C499">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>46</v>
       </c>
       <c r="B500">
-        <v>2272</v>
+        <v>54</v>
       </c>
       <c r="C500">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>46</v>
       </c>
       <c r="B501">
-        <v>4226</v>
+        <v>178</v>
       </c>
       <c r="C501">
-        <v>20122013</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>46</v>
       </c>
       <c r="B502">
-        <v>4234</v>
+        <v>1585</v>
       </c>
       <c r="C502">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>46</v>
       </c>
       <c r="B503">
-        <v>4746</v>
+        <v>2272</v>
       </c>
       <c r="C503">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>46</v>
       </c>
       <c r="B504">
-        <v>5951</v>
+        <v>4226</v>
       </c>
       <c r="C504">
-        <v>20212022</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6148,43 +6148,43 @@
         <v>46</v>
       </c>
       <c r="B505">
-        <v>7482</v>
+        <v>4234</v>
       </c>
       <c r="C505">
-        <v>20222023</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B506">
-        <v>1366</v>
+        <v>4746</v>
       </c>
       <c r="C506">
-        <v>20172018</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B507">
-        <v>1367</v>
+        <v>5951</v>
       </c>
       <c r="C507">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B508">
-        <v>1586</v>
+        <v>7482</v>
       </c>
       <c r="C508">
-        <v>20182019</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>47</v>
       </c>
       <c r="B509">
-        <v>2275</v>
+        <v>1366</v>
       </c>
       <c r="C509">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6203,10 +6203,10 @@
         <v>47</v>
       </c>
       <c r="B510">
-        <v>4749</v>
+        <v>1367</v>
       </c>
       <c r="C510">
-        <v>20202021</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6214,10 +6214,10 @@
         <v>47</v>
       </c>
       <c r="B511">
-        <v>6098</v>
+        <v>1586</v>
       </c>
       <c r="C511">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6225,43 +6225,43 @@
         <v>47</v>
       </c>
       <c r="B512">
-        <v>7702</v>
+        <v>2275</v>
       </c>
       <c r="C512">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B513">
-        <v>44</v>
+        <v>4749</v>
       </c>
       <c r="C513">
-        <v>2016</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B514">
-        <v>45</v>
+        <v>6098</v>
       </c>
       <c r="C514">
-        <v>2015</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B515">
-        <v>46</v>
+        <v>7702</v>
       </c>
       <c r="C515">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>48</v>
       </c>
       <c r="B516">
-        <v>993</v>
+        <v>44</v>
       </c>
       <c r="C516">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>48</v>
       </c>
       <c r="B517">
-        <v>1839</v>
+        <v>45</v>
       </c>
       <c r="C517">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>48</v>
       </c>
       <c r="B518">
-        <v>3695</v>
+        <v>46</v>
       </c>
       <c r="C518">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>48</v>
       </c>
       <c r="B519">
-        <v>4224</v>
+        <v>993</v>
       </c>
       <c r="C519">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>48</v>
       </c>
       <c r="B520">
-        <v>4231</v>
+        <v>1839</v>
       </c>
       <c r="C520">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>48</v>
       </c>
       <c r="B521">
-        <v>4237</v>
+        <v>3695</v>
       </c>
       <c r="C521">
-        <v>2012</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>48</v>
       </c>
       <c r="B522">
-        <v>4242</v>
+        <v>4224</v>
       </c>
       <c r="C522">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>48</v>
       </c>
       <c r="B523">
-        <v>4244</v>
+        <v>4231</v>
       </c>
       <c r="C523">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>48</v>
       </c>
       <c r="B524">
-        <v>5496</v>
+        <v>4237</v>
       </c>
       <c r="C524">
-        <v>2021</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>48</v>
       </c>
       <c r="B525">
-        <v>7048</v>
+        <v>4242</v>
       </c>
       <c r="C525">
-        <v>2022</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6379,43 +6379,43 @@
         <v>48</v>
       </c>
       <c r="B526">
-        <v>8739</v>
+        <v>4244</v>
       </c>
       <c r="C526">
-        <v>2023</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B527">
-        <v>1099</v>
+        <v>5496</v>
       </c>
       <c r="C527">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B528">
-        <v>1100</v>
+        <v>7048</v>
       </c>
       <c r="C528">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B529">
-        <v>1101</v>
+        <v>8739</v>
       </c>
       <c r="C529">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>49</v>
       </c>
       <c r="B530">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C530">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>49</v>
       </c>
       <c r="B531">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="C531">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>49</v>
       </c>
       <c r="B532">
-        <v>1843</v>
+        <v>1101</v>
       </c>
       <c r="C532">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>49</v>
       </c>
       <c r="B533">
-        <v>3643</v>
+        <v>1104</v>
       </c>
       <c r="C533">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>49</v>
       </c>
       <c r="B534">
-        <v>5503</v>
+        <v>1105</v>
       </c>
       <c r="C534">
-        <v>2021</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>49</v>
       </c>
       <c r="B535">
-        <v>6960</v>
+        <v>1843</v>
       </c>
       <c r="C535">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6489,43 +6489,43 @@
         <v>49</v>
       </c>
       <c r="B536">
-        <v>8783</v>
+        <v>3643</v>
       </c>
       <c r="C536">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B537">
-        <v>612</v>
+        <v>5503</v>
       </c>
       <c r="C537">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B538">
-        <v>613</v>
+        <v>6960</v>
       </c>
       <c r="C538">
-        <v>2016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B539">
-        <v>614</v>
+        <v>8783</v>
       </c>
       <c r="C539">
-        <v>2015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>50</v>
       </c>
       <c r="B540">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C540">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>50</v>
       </c>
       <c r="B541">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C541">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>50</v>
       </c>
       <c r="B542">
-        <v>1125</v>
+        <v>614</v>
       </c>
       <c r="C542">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>50</v>
       </c>
       <c r="B543">
-        <v>1881</v>
+        <v>615</v>
       </c>
       <c r="C543">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>50</v>
       </c>
       <c r="B544">
-        <v>3702</v>
+        <v>616</v>
       </c>
       <c r="C544">
-        <v>2020</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>50</v>
       </c>
       <c r="B545">
-        <v>5627</v>
+        <v>1125</v>
       </c>
       <c r="C545">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>50</v>
       </c>
       <c r="B546">
-        <v>6966</v>
+        <v>1881</v>
       </c>
       <c r="C546">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6610,43 +6610,43 @@
         <v>50</v>
       </c>
       <c r="B547">
-        <v>8837</v>
+        <v>3702</v>
       </c>
       <c r="C547">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B548">
-        <v>255</v>
+        <v>5627</v>
       </c>
       <c r="C548">
-        <v>20172018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B549">
-        <v>256</v>
+        <v>6966</v>
       </c>
       <c r="C549">
-        <v>20152016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B550">
-        <v>257</v>
+        <v>8837</v>
       </c>
       <c r="C550">
-        <v>20132014</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>51</v>
       </c>
       <c r="B551">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C551">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>51</v>
       </c>
       <c r="B552">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C552">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>51</v>
       </c>
       <c r="B553">
-        <v>1589</v>
+        <v>257</v>
       </c>
       <c r="C553">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>51</v>
       </c>
       <c r="B554">
-        <v>2328</v>
+        <v>278</v>
       </c>
       <c r="C554">
-        <v>20192020</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>51</v>
       </c>
       <c r="B555">
-        <v>3972</v>
+        <v>279</v>
       </c>
       <c r="C555">
-        <v>20092010</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>51</v>
       </c>
       <c r="B556">
-        <v>3973</v>
+        <v>1589</v>
       </c>
       <c r="C556">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>51</v>
       </c>
       <c r="B557">
-        <v>3974</v>
+        <v>2328</v>
       </c>
       <c r="C557">
-        <v>20102011</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>51</v>
       </c>
       <c r="B558">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="C558">
-        <v>20112012</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>51</v>
       </c>
       <c r="B559">
-        <v>4760</v>
+        <v>3973</v>
       </c>
       <c r="C559">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>51</v>
       </c>
       <c r="B560">
-        <v>5948</v>
+        <v>3974</v>
       </c>
       <c r="C560">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>51</v>
       </c>
       <c r="B561">
-        <v>7428</v>
+        <v>3975</v>
       </c>
       <c r="C561">
-        <v>20222023</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6775,43 +6775,43 @@
         <v>51</v>
       </c>
       <c r="B562">
-        <v>9553</v>
+        <v>4760</v>
       </c>
       <c r="C562">
-        <v>20232024</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B563">
-        <v>13</v>
+        <v>5948</v>
       </c>
       <c r="C563">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B564">
-        <v>14</v>
+        <v>7428</v>
       </c>
       <c r="C564">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B565">
-        <v>17</v>
+        <v>9553</v>
       </c>
       <c r="C565">
-        <v>20142015</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>52</v>
       </c>
       <c r="B566">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C566">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>52</v>
       </c>
       <c r="B567">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="C567">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>52</v>
       </c>
       <c r="B568">
-        <v>1593</v>
+        <v>17</v>
       </c>
       <c r="C568">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>52</v>
       </c>
       <c r="B569">
-        <v>2321</v>
+        <v>18</v>
       </c>
       <c r="C569">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>52</v>
       </c>
       <c r="B570">
-        <v>4225</v>
+        <v>173</v>
       </c>
       <c r="C570">
-        <v>20122013</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>52</v>
       </c>
       <c r="B571">
-        <v>4232</v>
+        <v>1593</v>
       </c>
       <c r="C571">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>52</v>
       </c>
       <c r="B572">
-        <v>4238</v>
+        <v>2321</v>
       </c>
       <c r="C572">
-        <v>20102011</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>52</v>
       </c>
       <c r="B573">
-        <v>4885</v>
+        <v>4225</v>
       </c>
       <c r="C573">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>52</v>
       </c>
       <c r="B574">
-        <v>6117</v>
+        <v>4232</v>
       </c>
       <c r="C574">
-        <v>20212022</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6918,43 +6918,43 @@
         <v>52</v>
       </c>
       <c r="B575">
-        <v>7731</v>
+        <v>4238</v>
       </c>
       <c r="C575">
-        <v>20222023</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="576" spans="1:3">
       <c r="A576" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B576">
-        <v>174</v>
+        <v>4885</v>
       </c>
       <c r="C576">
-        <v>20172018</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B577">
-        <v>965</v>
+        <v>6117</v>
       </c>
       <c r="C577">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B578">
-        <v>966</v>
+        <v>7731</v>
       </c>
       <c r="C578">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>53</v>
       </c>
       <c r="B579">
-        <v>1594</v>
+        <v>174</v>
       </c>
       <c r="C579">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>53</v>
       </c>
       <c r="B580">
-        <v>2320</v>
+        <v>965</v>
       </c>
       <c r="C580">
-        <v>20192020</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>53</v>
       </c>
       <c r="B581">
-        <v>4284</v>
+        <v>966</v>
       </c>
       <c r="C581">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>53</v>
       </c>
       <c r="B582">
-        <v>4291</v>
+        <v>1594</v>
       </c>
       <c r="C582">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>53</v>
       </c>
       <c r="B583">
-        <v>4309</v>
+        <v>2320</v>
       </c>
       <c r="C583">
-        <v>20102011</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>53</v>
       </c>
       <c r="B584">
-        <v>4322</v>
+        <v>4284</v>
       </c>
       <c r="C584">
-        <v>20092010</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>53</v>
       </c>
       <c r="B585">
-        <v>4886</v>
+        <v>4291</v>
       </c>
       <c r="C585">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>53</v>
       </c>
       <c r="B586">
-        <v>6116</v>
+        <v>4309</v>
       </c>
       <c r="C586">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7050,43 +7050,43 @@
         <v>53</v>
       </c>
       <c r="B587">
-        <v>7732</v>
+        <v>4322</v>
       </c>
       <c r="C587">
-        <v>20222023</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B588">
-        <v>449</v>
+        <v>4886</v>
       </c>
       <c r="C588">
-        <v>2017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B589">
-        <v>450</v>
+        <v>6116</v>
       </c>
       <c r="C589">
-        <v>2016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B590">
-        <v>451</v>
+        <v>7732</v>
       </c>
       <c r="C590">
-        <v>2015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>54</v>
       </c>
       <c r="B591">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C591">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>54</v>
       </c>
       <c r="B592">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C592">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>54</v>
       </c>
       <c r="B593">
-        <v>990</v>
+        <v>451</v>
       </c>
       <c r="C593">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>54</v>
       </c>
       <c r="B594">
-        <v>1844</v>
+        <v>452</v>
       </c>
       <c r="C594">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>54</v>
       </c>
       <c r="B595">
-        <v>3570</v>
+        <v>453</v>
       </c>
       <c r="C595">
-        <v>2020</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>54</v>
       </c>
       <c r="B596">
-        <v>5534</v>
+        <v>990</v>
       </c>
       <c r="C596">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>54</v>
       </c>
       <c r="B597">
-        <v>6967</v>
+        <v>1844</v>
       </c>
       <c r="C597">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7171,43 +7171,43 @@
         <v>54</v>
       </c>
       <c r="B598">
-        <v>8741</v>
+        <v>3570</v>
       </c>
       <c r="C598">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="599" spans="1:3">
       <c r="A599" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B599">
-        <v>1086</v>
+        <v>5534</v>
       </c>
       <c r="C599">
-        <v>20172018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="A600" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B600">
-        <v>1087</v>
+        <v>6967</v>
       </c>
       <c r="C600">
-        <v>20162017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B601">
-        <v>1088</v>
+        <v>8741</v>
       </c>
       <c r="C601">
-        <v>20152016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>55</v>
       </c>
       <c r="B602">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C602">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>55</v>
       </c>
       <c r="B603">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C603">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>55</v>
       </c>
       <c r="B604">
-        <v>1596</v>
+        <v>1088</v>
       </c>
       <c r="C604">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>55</v>
       </c>
       <c r="B605">
-        <v>2312</v>
+        <v>1089</v>
       </c>
       <c r="C605">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7259,10 +7259,10 @@
         <v>55</v>
       </c>
       <c r="B606">
-        <v>4764</v>
+        <v>1090</v>
       </c>
       <c r="C606">
-        <v>20202021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7270,10 +7270,10 @@
         <v>55</v>
       </c>
       <c r="B607">
-        <v>6037</v>
+        <v>1596</v>
       </c>
       <c r="C607">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7281,43 +7281,43 @@
         <v>55</v>
       </c>
       <c r="B608">
-        <v>7663</v>
+        <v>2312</v>
       </c>
       <c r="C608">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>4764</v>
       </c>
       <c r="C609">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B610">
-        <v>164</v>
+        <v>6037</v>
       </c>
       <c r="C610">
-        <v>20172018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B611">
-        <v>167</v>
+        <v>7663</v>
       </c>
       <c r="C611">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>56</v>
       </c>
       <c r="B612">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="C612">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>56</v>
       </c>
       <c r="B613">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C613">
-        <v>20132014</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>56</v>
       </c>
       <c r="B614">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="C614">
-        <v>20122013</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>56</v>
       </c>
       <c r="B615">
-        <v>1600</v>
+        <v>168</v>
       </c>
       <c r="C615">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>56</v>
       </c>
       <c r="B616">
-        <v>2361</v>
+        <v>169</v>
       </c>
       <c r="C616">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>56</v>
       </c>
       <c r="B617">
-        <v>4478</v>
+        <v>223</v>
       </c>
       <c r="C617">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>56</v>
       </c>
       <c r="B618">
-        <v>5992</v>
+        <v>1600</v>
       </c>
       <c r="C618">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7402,43 +7402,43 @@
         <v>56</v>
       </c>
       <c r="B619">
-        <v>7494</v>
+        <v>2361</v>
       </c>
       <c r="C619">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B620">
-        <v>416</v>
+        <v>4478</v>
       </c>
       <c r="C620">
-        <v>20172018</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B621">
-        <v>417</v>
+        <v>5992</v>
       </c>
       <c r="C621">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B622">
-        <v>418</v>
+        <v>7494</v>
       </c>
       <c r="C622">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>57</v>
       </c>
       <c r="B623">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C623">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>57</v>
       </c>
       <c r="B624">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C624">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>57</v>
       </c>
       <c r="B625">
-        <v>1604</v>
+        <v>418</v>
       </c>
       <c r="C625">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>57</v>
       </c>
       <c r="B626">
-        <v>2254</v>
+        <v>419</v>
       </c>
       <c r="C626">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>57</v>
       </c>
       <c r="B627">
-        <v>4533</v>
+        <v>420</v>
       </c>
       <c r="C627">
-        <v>20202021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>57</v>
       </c>
       <c r="B628">
-        <v>6046</v>
+        <v>1604</v>
       </c>
       <c r="C628">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7512,43 +7512,43 @@
         <v>57</v>
       </c>
       <c r="B629">
-        <v>7492</v>
+        <v>2254</v>
       </c>
       <c r="C629">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B630">
-        <v>439</v>
+        <v>4533</v>
       </c>
       <c r="C630">
-        <v>20152016</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B631">
-        <v>440</v>
+        <v>6046</v>
       </c>
       <c r="C631">
-        <v>20142015</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B632">
-        <v>441</v>
+        <v>7492</v>
       </c>
       <c r="C632">
-        <v>20132014</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>58</v>
       </c>
       <c r="B633">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C633">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>58</v>
       </c>
       <c r="B634">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C634">
-        <v>20162017</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>58</v>
       </c>
       <c r="B635">
-        <v>1606</v>
+        <v>441</v>
       </c>
       <c r="C635">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>58</v>
       </c>
       <c r="B636">
-        <v>2256</v>
+        <v>447</v>
       </c>
       <c r="C636">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>58</v>
       </c>
       <c r="B637">
-        <v>4572</v>
+        <v>448</v>
       </c>
       <c r="C637">
-        <v>20202021</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>58</v>
       </c>
       <c r="B638">
-        <v>5944</v>
+        <v>1606</v>
       </c>
       <c r="C638">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7622,43 +7622,43 @@
         <v>58</v>
       </c>
       <c r="B639">
-        <v>7958</v>
+        <v>2256</v>
       </c>
       <c r="C639">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B640">
-        <v>426</v>
+        <v>4572</v>
       </c>
       <c r="C640">
-        <v>20172018</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="641" spans="1:3">
       <c r="A641" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B641">
-        <v>427</v>
+        <v>5944</v>
       </c>
       <c r="C641">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="A642" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B642">
-        <v>428</v>
+        <v>7958</v>
       </c>
       <c r="C642">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>59</v>
       </c>
       <c r="B643">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C643">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>59</v>
       </c>
       <c r="B644">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C644">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>59</v>
       </c>
       <c r="B645">
-        <v>1608</v>
+        <v>428</v>
       </c>
       <c r="C645">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>59</v>
       </c>
       <c r="B646">
-        <v>2251</v>
+        <v>429</v>
       </c>
       <c r="C646">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>59</v>
       </c>
       <c r="B647">
-        <v>4635</v>
+        <v>433</v>
       </c>
       <c r="C647">
-        <v>20202021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>59</v>
       </c>
       <c r="B648">
-        <v>6048</v>
+        <v>1608</v>
       </c>
       <c r="C648">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>59</v>
       </c>
       <c r="B649">
-        <v>7526</v>
+        <v>2251</v>
       </c>
       <c r="C649">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7743,43 +7743,43 @@
         <v>59</v>
       </c>
       <c r="B650">
-        <v>9579</v>
+        <v>4635</v>
       </c>
       <c r="C650">
-        <v>20232024</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="651" spans="1:3">
       <c r="A651" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B651">
-        <v>747</v>
+        <v>6048</v>
       </c>
       <c r="C651">
-        <v>2017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="652" spans="1:3">
       <c r="A652" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B652">
-        <v>748</v>
+        <v>7526</v>
       </c>
       <c r="C652">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="653" spans="1:3">
       <c r="A653" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B653">
-        <v>749</v>
+        <v>9579</v>
       </c>
       <c r="C653">
-        <v>2015</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>60</v>
       </c>
       <c r="B654">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C654">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>60</v>
       </c>
       <c r="B655">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C655">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7809,10 +7809,10 @@
         <v>60</v>
       </c>
       <c r="B656">
-        <v>1115</v>
+        <v>749</v>
       </c>
       <c r="C656">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7820,10 +7820,10 @@
         <v>60</v>
       </c>
       <c r="B657">
-        <v>1862</v>
+        <v>750</v>
       </c>
       <c r="C657">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7831,10 +7831,10 @@
         <v>60</v>
       </c>
       <c r="B658">
-        <v>4379</v>
+        <v>751</v>
       </c>
       <c r="C658">
-        <v>2020</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7842,10 +7842,10 @@
         <v>60</v>
       </c>
       <c r="B659">
-        <v>5506</v>
+        <v>1115</v>
       </c>
       <c r="C659">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7853,10 +7853,10 @@
         <v>60</v>
       </c>
       <c r="B660">
-        <v>7061</v>
+        <v>1862</v>
       </c>
       <c r="C660">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7864,43 +7864,43 @@
         <v>60</v>
       </c>
       <c r="B661">
-        <v>8899</v>
+        <v>4379</v>
       </c>
       <c r="C661">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="662" spans="1:3">
       <c r="A662" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B662">
-        <v>752</v>
+        <v>5506</v>
       </c>
       <c r="C662">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="663" spans="1:3">
       <c r="A663" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B663">
-        <v>753</v>
+        <v>7061</v>
       </c>
       <c r="C663">
-        <v>2013</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="664" spans="1:3">
       <c r="A664" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B664">
-        <v>759</v>
+        <v>8899</v>
       </c>
       <c r="C664">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7908,10 +7908,10 @@
         <v>61</v>
       </c>
       <c r="B665">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C665">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7919,10 +7919,10 @@
         <v>61</v>
       </c>
       <c r="B666">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C666">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7930,10 +7930,10 @@
         <v>61</v>
       </c>
       <c r="B667">
-        <v>1121</v>
+        <v>759</v>
       </c>
       <c r="C667">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7941,10 +7941,10 @@
         <v>61</v>
       </c>
       <c r="B668">
-        <v>1863</v>
+        <v>760</v>
       </c>
       <c r="C668">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7952,10 +7952,10 @@
         <v>61</v>
       </c>
       <c r="B669">
-        <v>4381</v>
+        <v>761</v>
       </c>
       <c r="C669">
-        <v>2020</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7963,10 +7963,10 @@
         <v>61</v>
       </c>
       <c r="B670">
-        <v>5504</v>
+        <v>1121</v>
       </c>
       <c r="C670">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7974,10 +7974,10 @@
         <v>61</v>
       </c>
       <c r="B671">
-        <v>7062</v>
+        <v>1863</v>
       </c>
       <c r="C671">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7985,43 +7985,43 @@
         <v>61</v>
       </c>
       <c r="B672">
-        <v>8938</v>
+        <v>4381</v>
       </c>
       <c r="C672">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="673" spans="1:3">
       <c r="A673" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B673">
-        <v>34</v>
+        <v>5504</v>
       </c>
       <c r="C673">
-        <v>20162017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="674" spans="1:3">
       <c r="A674" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B674">
-        <v>35</v>
+        <v>7062</v>
       </c>
       <c r="C674">
-        <v>20152016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="675" spans="1:3">
       <c r="A675" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B675">
-        <v>36</v>
+        <v>8938</v>
       </c>
       <c r="C675">
-        <v>20142015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8029,10 +8029,10 @@
         <v>62</v>
       </c>
       <c r="B676">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C676">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8040,10 +8040,10 @@
         <v>62</v>
       </c>
       <c r="B677">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C677">
-        <v>20122013</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8051,10 +8051,10 @@
         <v>62</v>
       </c>
       <c r="B678">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="C678">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8062,10 +8062,10 @@
         <v>62</v>
       </c>
       <c r="B679">
-        <v>1677</v>
+        <v>37</v>
       </c>
       <c r="C679">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8073,10 +8073,10 @@
         <v>62</v>
       </c>
       <c r="B680">
-        <v>2319</v>
+        <v>38</v>
       </c>
       <c r="C680">
-        <v>20192020</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8084,10 +8084,10 @@
         <v>62</v>
       </c>
       <c r="B681">
-        <v>3631</v>
+        <v>171</v>
       </c>
       <c r="C681">
-        <v>20112012</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8095,10 +8095,10 @@
         <v>62</v>
       </c>
       <c r="B682">
-        <v>3632</v>
+        <v>1677</v>
       </c>
       <c r="C682">
-        <v>20102011</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8106,10 +8106,10 @@
         <v>62</v>
       </c>
       <c r="B683">
-        <v>3636</v>
+        <v>2319</v>
       </c>
       <c r="C683">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8117,10 +8117,10 @@
         <v>62</v>
       </c>
       <c r="B684">
-        <v>3637</v>
+        <v>3631</v>
       </c>
       <c r="C684">
-        <v>20082009</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8128,10 +8128,10 @@
         <v>62</v>
       </c>
       <c r="B685">
-        <v>4944</v>
+        <v>3632</v>
       </c>
       <c r="C685">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8139,10 +8139,10 @@
         <v>62</v>
       </c>
       <c r="B686">
-        <v>6211</v>
+        <v>3636</v>
       </c>
       <c r="C686">
-        <v>20212022</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8150,43 +8150,43 @@
         <v>62</v>
       </c>
       <c r="B687">
-        <v>7665</v>
+        <v>3637</v>
       </c>
       <c r="C687">
-        <v>20222023</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="688" spans="1:3">
       <c r="A688" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B688">
-        <v>39</v>
+        <v>4944</v>
       </c>
       <c r="C688">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="689" spans="1:3">
       <c r="A689" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B689">
-        <v>40</v>
+        <v>6211</v>
       </c>
       <c r="C689">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="690" spans="1:3">
       <c r="A690" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B690">
-        <v>41</v>
+        <v>7665</v>
       </c>
       <c r="C690">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8194,10 +8194,10 @@
         <v>63</v>
       </c>
       <c r="B691">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C691">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8205,10 +8205,10 @@
         <v>63</v>
       </c>
       <c r="B692">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C692">
-        <v>20122013</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8216,10 +8216,10 @@
         <v>63</v>
       </c>
       <c r="B693">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="C693">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8227,10 +8227,10 @@
         <v>63</v>
       </c>
       <c r="B694">
-        <v>1670</v>
+        <v>42</v>
       </c>
       <c r="C694">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8238,10 +8238,10 @@
         <v>63</v>
       </c>
       <c r="B695">
-        <v>2415</v>
+        <v>43</v>
       </c>
       <c r="C695">
-        <v>20192020</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8249,10 +8249,10 @@
         <v>63</v>
       </c>
       <c r="B696">
-        <v>4167</v>
+        <v>172</v>
       </c>
       <c r="C696">
-        <v>20112012</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8260,10 +8260,10 @@
         <v>63</v>
       </c>
       <c r="B697">
-        <v>4245</v>
+        <v>1670</v>
       </c>
       <c r="C697">
-        <v>20102011</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8271,10 +8271,10 @@
         <v>63</v>
       </c>
       <c r="B698">
-        <v>4249</v>
+        <v>2415</v>
       </c>
       <c r="C698">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8282,10 +8282,10 @@
         <v>63</v>
       </c>
       <c r="B699">
-        <v>4842</v>
+        <v>4167</v>
       </c>
       <c r="C699">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8293,10 +8293,10 @@
         <v>63</v>
       </c>
       <c r="B700">
-        <v>6120</v>
+        <v>4245</v>
       </c>
       <c r="C700">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8304,43 +8304,43 @@
         <v>63</v>
       </c>
       <c r="B701">
-        <v>7592</v>
+        <v>4249</v>
       </c>
       <c r="C701">
-        <v>20222023</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="702" spans="1:3">
       <c r="A702" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B702">
-        <v>104</v>
+        <v>4842</v>
       </c>
       <c r="C702">
-        <v>2017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="703" spans="1:3">
       <c r="A703" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B703">
-        <v>105</v>
+        <v>6120</v>
       </c>
       <c r="C703">
-        <v>2016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="704" spans="1:3">
       <c r="A704" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B704">
-        <v>106</v>
+        <v>7592</v>
       </c>
       <c r="C704">
-        <v>2015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8348,10 +8348,10 @@
         <v>64</v>
       </c>
       <c r="B705">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C705">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8359,10 +8359,10 @@
         <v>64</v>
       </c>
       <c r="B706">
-        <v>994</v>
+        <v>105</v>
       </c>
       <c r="C706">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8370,10 +8370,10 @@
         <v>64</v>
       </c>
       <c r="B707">
-        <v>1848</v>
+        <v>106</v>
       </c>
       <c r="C707">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8381,10 +8381,10 @@
         <v>64</v>
       </c>
       <c r="B708">
-        <v>3703</v>
+        <v>107</v>
       </c>
       <c r="C708">
-        <v>2020</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8392,10 +8392,10 @@
         <v>64</v>
       </c>
       <c r="B709">
-        <v>4307</v>
+        <v>994</v>
       </c>
       <c r="C709">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8403,10 +8403,10 @@
         <v>64</v>
       </c>
       <c r="B710">
-        <v>4315</v>
+        <v>1848</v>
       </c>
       <c r="C710">
-        <v>2011</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8414,10 +8414,10 @@
         <v>64</v>
       </c>
       <c r="B711">
-        <v>4329</v>
+        <v>3703</v>
       </c>
       <c r="C711">
-        <v>2010</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8425,10 +8425,10 @@
         <v>64</v>
       </c>
       <c r="B712">
-        <v>5505</v>
+        <v>4307</v>
       </c>
       <c r="C712">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8436,10 +8436,10 @@
         <v>64</v>
       </c>
       <c r="B713">
-        <v>7064</v>
+        <v>4315</v>
       </c>
       <c r="C713">
-        <v>2022</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8447,43 +8447,43 @@
         <v>64</v>
       </c>
       <c r="B714">
-        <v>8737</v>
+        <v>4329</v>
       </c>
       <c r="C714">
-        <v>2023</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="715" spans="1:3">
       <c r="A715" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B715">
-        <v>136</v>
+        <v>5505</v>
       </c>
       <c r="C715">
-        <v>20162017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="716" spans="1:3">
       <c r="A716" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B716">
-        <v>137</v>
+        <v>7064</v>
       </c>
       <c r="C716">
-        <v>20152016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="717" spans="1:3">
       <c r="A717" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B717">
-        <v>138</v>
+        <v>8737</v>
       </c>
       <c r="C717">
-        <v>20142015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8491,10 +8491,10 @@
         <v>65</v>
       </c>
       <c r="B718">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C718">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8502,10 +8502,10 @@
         <v>65</v>
       </c>
       <c r="B719">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C719">
-        <v>20122013</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8513,10 +8513,10 @@
         <v>65</v>
       </c>
       <c r="B720">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="C720">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8524,10 +8524,10 @@
         <v>65</v>
       </c>
       <c r="B721">
-        <v>1610</v>
+        <v>139</v>
       </c>
       <c r="C721">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8535,10 +8535,10 @@
         <v>65</v>
       </c>
       <c r="B722">
-        <v>2249</v>
+        <v>140</v>
       </c>
       <c r="C722">
-        <v>20192020</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8546,10 +8546,10 @@
         <v>65</v>
       </c>
       <c r="B723">
-        <v>4906</v>
+        <v>186</v>
       </c>
       <c r="C723">
-        <v>20202021</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8557,10 +8557,10 @@
         <v>65</v>
       </c>
       <c r="B724">
-        <v>6044</v>
+        <v>1610</v>
       </c>
       <c r="C724">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8568,54 +8568,54 @@
         <v>65</v>
       </c>
       <c r="B725">
-        <v>7504</v>
+        <v>2249</v>
       </c>
       <c r="C725">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="726" spans="1:3">
       <c r="A726" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B726">
-        <v>798</v>
+        <v>4906</v>
       </c>
       <c r="C726">
-        <v>20172018</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="727" spans="1:3">
       <c r="A727" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B727">
-        <v>799</v>
+        <v>6044</v>
       </c>
       <c r="C727">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="728" spans="1:3">
       <c r="A728" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B728">
-        <v>800</v>
+        <v>7504</v>
       </c>
       <c r="C728">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="729" spans="1:3">
       <c r="A729" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B729">
-        <v>801</v>
+        <v>9580</v>
       </c>
       <c r="C729">
-        <v>20142015</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8623,10 +8623,10 @@
         <v>66</v>
       </c>
       <c r="B730">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C730">
-        <v>20132014</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8634,10 +8634,10 @@
         <v>66</v>
       </c>
       <c r="B731">
-        <v>1644</v>
+        <v>799</v>
       </c>
       <c r="C731">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8645,10 +8645,10 @@
         <v>66</v>
       </c>
       <c r="B732">
-        <v>2650</v>
+        <v>800</v>
       </c>
       <c r="C732">
-        <v>20192020</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8656,10 +8656,10 @@
         <v>66</v>
       </c>
       <c r="B733">
-        <v>5257</v>
+        <v>801</v>
       </c>
       <c r="C733">
-        <v>20202021</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8667,10 +8667,10 @@
         <v>66</v>
       </c>
       <c r="B734">
-        <v>6726</v>
+        <v>802</v>
       </c>
       <c r="C734">
-        <v>20212022</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8678,54 +8678,54 @@
         <v>66</v>
       </c>
       <c r="B735">
-        <v>8428</v>
+        <v>1644</v>
       </c>
       <c r="C735">
-        <v>20222023</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="736" spans="1:3">
       <c r="A736" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B736">
-        <v>19</v>
+        <v>2650</v>
       </c>
       <c r="C736">
-        <v>20162017</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="737" spans="1:3">
       <c r="A737" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B737">
-        <v>20</v>
+        <v>5257</v>
       </c>
       <c r="C737">
-        <v>20152016</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="738" spans="1:3">
       <c r="A738" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B738">
-        <v>21</v>
+        <v>6726</v>
       </c>
       <c r="C738">
-        <v>20142015</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="739" spans="1:3">
       <c r="A739" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B739">
-        <v>175</v>
+        <v>8428</v>
       </c>
       <c r="C739">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8733,10 +8733,10 @@
         <v>67</v>
       </c>
       <c r="B740">
-        <v>1614</v>
+        <v>19</v>
       </c>
       <c r="C740">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8744,10 +8744,10 @@
         <v>67</v>
       </c>
       <c r="B741">
-        <v>2648</v>
+        <v>20</v>
       </c>
       <c r="C741">
-        <v>20192020</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8755,10 +8755,10 @@
         <v>67</v>
       </c>
       <c r="B742">
-        <v>4840</v>
+        <v>21</v>
       </c>
       <c r="C742">
-        <v>20202021</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8766,10 +8766,10 @@
         <v>67</v>
       </c>
       <c r="B743">
-        <v>6125</v>
+        <v>175</v>
       </c>
       <c r="C743">
-        <v>20212022</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8777,54 +8777,54 @@
         <v>67</v>
       </c>
       <c r="B744">
-        <v>7768</v>
+        <v>1614</v>
       </c>
       <c r="C744">
-        <v>20222023</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="745" spans="1:3">
       <c r="A745" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B745">
-        <v>1</v>
+        <v>2648</v>
       </c>
       <c r="C745">
-        <v>2016</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="746" spans="1:3">
       <c r="A746" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B746">
-        <v>16</v>
+        <v>4840</v>
       </c>
       <c r="C746">
-        <v>2015</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="747" spans="1:3">
       <c r="A747" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B747">
-        <v>23</v>
+        <v>6125</v>
       </c>
       <c r="C747">
-        <v>2014</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="748" spans="1:3">
       <c r="A748" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B748">
-        <v>24</v>
+        <v>7768</v>
       </c>
       <c r="C748">
-        <v>2013</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8832,10 +8832,10 @@
         <v>68</v>
       </c>
       <c r="B749">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="C749">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8843,10 +8843,10 @@
         <v>68</v>
       </c>
       <c r="B750">
-        <v>1076</v>
+        <v>16</v>
       </c>
       <c r="C750">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8854,10 +8854,10 @@
         <v>68</v>
       </c>
       <c r="B751">
-        <v>1846</v>
+        <v>23</v>
       </c>
       <c r="C751">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8865,10 +8865,10 @@
         <v>68</v>
       </c>
       <c r="B752">
-        <v>4227</v>
+        <v>24</v>
       </c>
       <c r="C752">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8876,10 +8876,10 @@
         <v>68</v>
       </c>
       <c r="B753">
-        <v>4235</v>
+        <v>163</v>
       </c>
       <c r="C753">
-        <v>2011</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8887,10 +8887,10 @@
         <v>68</v>
       </c>
       <c r="B754">
-        <v>4241</v>
+        <v>1076</v>
       </c>
       <c r="C754">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8898,10 +8898,10 @@
         <v>68</v>
       </c>
       <c r="B755">
-        <v>4473</v>
+        <v>1846</v>
       </c>
       <c r="C755">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8909,10 +8909,10 @@
         <v>68</v>
       </c>
       <c r="B756">
-        <v>5674</v>
+        <v>4227</v>
       </c>
       <c r="C756">
-        <v>2021</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8920,10 +8920,10 @@
         <v>68</v>
       </c>
       <c r="B757">
-        <v>6969</v>
+        <v>4235</v>
       </c>
       <c r="C757">
-        <v>2022</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8931,54 +8931,54 @@
         <v>68</v>
       </c>
       <c r="B758">
-        <v>8777</v>
+        <v>4241</v>
       </c>
       <c r="C758">
-        <v>2023</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="759" spans="1:3">
       <c r="A759" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B759">
-        <v>1290</v>
+        <v>4473</v>
       </c>
       <c r="C759">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="760" spans="1:3">
       <c r="A760" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B760">
-        <v>1291</v>
+        <v>5674</v>
       </c>
       <c r="C760">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="761" spans="1:3">
       <c r="A761" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B761">
-        <v>1292</v>
+        <v>6969</v>
       </c>
       <c r="C761">
-        <v>2016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="762" spans="1:3">
       <c r="A762" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B762">
-        <v>1857</v>
+        <v>8777</v>
       </c>
       <c r="C762">
-        <v>2019</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8986,10 +8986,10 @@
         <v>69</v>
       </c>
       <c r="B763">
-        <v>3710</v>
+        <v>1290</v>
       </c>
       <c r="C763">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8997,10 +8997,10 @@
         <v>69</v>
       </c>
       <c r="B764">
-        <v>4279</v>
+        <v>1291</v>
       </c>
       <c r="C764">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9008,10 +9008,10 @@
         <v>69</v>
       </c>
       <c r="B765">
-        <v>4283</v>
+        <v>1292</v>
       </c>
       <c r="C765">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9019,10 +9019,10 @@
         <v>69</v>
       </c>
       <c r="B766">
-        <v>4288</v>
+        <v>1857</v>
       </c>
       <c r="C766">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9030,10 +9030,10 @@
         <v>69</v>
       </c>
       <c r="B767">
-        <v>6541</v>
+        <v>3710</v>
       </c>
       <c r="C767">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9041,10 +9041,10 @@
         <v>69</v>
       </c>
       <c r="B768">
-        <v>6970</v>
+        <v>4279</v>
       </c>
       <c r="C768">
-        <v>2022</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9052,54 +9052,54 @@
         <v>69</v>
       </c>
       <c r="B769">
-        <v>8845</v>
+        <v>4283</v>
       </c>
       <c r="C769">
-        <v>2023</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="770" spans="1:3">
       <c r="A770" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B770">
-        <v>360</v>
+        <v>4288</v>
       </c>
       <c r="C770">
-        <v>20172018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="771" spans="1:3">
       <c r="A771" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B771">
-        <v>361</v>
+        <v>6541</v>
       </c>
       <c r="C771">
-        <v>20162017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="772" spans="1:3">
       <c r="A772" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B772">
-        <v>362</v>
+        <v>6970</v>
       </c>
       <c r="C772">
-        <v>20152016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="773" spans="1:3">
       <c r="A773" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B773">
-        <v>363</v>
+        <v>8845</v>
       </c>
       <c r="C773">
-        <v>20142015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9107,10 +9107,10 @@
         <v>70</v>
       </c>
       <c r="B774">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C774">
-        <v>20132014</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9118,10 +9118,10 @@
         <v>70</v>
       </c>
       <c r="B775">
-        <v>1618</v>
+        <v>361</v>
       </c>
       <c r="C775">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9129,10 +9129,10 @@
         <v>70</v>
       </c>
       <c r="B776">
-        <v>2317</v>
+        <v>362</v>
       </c>
       <c r="C776">
-        <v>20192020</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9140,10 +9140,10 @@
         <v>70</v>
       </c>
       <c r="B777">
-        <v>4751</v>
+        <v>363</v>
       </c>
       <c r="C777">
-        <v>20202021</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9151,10 +9151,10 @@
         <v>70</v>
       </c>
       <c r="B778">
-        <v>5943</v>
+        <v>364</v>
       </c>
       <c r="C778">
-        <v>20212022</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9162,54 +9162,54 @@
         <v>70</v>
       </c>
       <c r="B779">
-        <v>8222</v>
+        <v>1618</v>
       </c>
       <c r="C779">
-        <v>20222023</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="780" spans="1:3">
       <c r="A780" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B780">
-        <v>853</v>
+        <v>2317</v>
       </c>
       <c r="C780">
-        <v>2017</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="781" spans="1:3">
       <c r="A781" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B781">
-        <v>854</v>
+        <v>4751</v>
       </c>
       <c r="C781">
-        <v>2016</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="782" spans="1:3">
       <c r="A782" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B782">
-        <v>855</v>
+        <v>5943</v>
       </c>
       <c r="C782">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="783" spans="1:3">
       <c r="A783" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B783">
-        <v>856</v>
+        <v>8222</v>
       </c>
       <c r="C783">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9217,10 +9217,10 @@
         <v>71</v>
       </c>
       <c r="B784">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C784">
-        <v>20132014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9228,10 +9228,10 @@
         <v>71</v>
       </c>
       <c r="B785">
-        <v>1095</v>
+        <v>854</v>
       </c>
       <c r="C785">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9239,10 +9239,10 @@
         <v>71</v>
       </c>
       <c r="B786">
-        <v>1905</v>
+        <v>855</v>
       </c>
       <c r="C786">
-        <v>2019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9250,10 +9250,10 @@
         <v>71</v>
       </c>
       <c r="B787">
-        <v>3789</v>
+        <v>856</v>
       </c>
       <c r="C787">
-        <v>2020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9261,10 +9261,10 @@
         <v>71</v>
       </c>
       <c r="B788">
-        <v>5809</v>
+        <v>857</v>
       </c>
       <c r="C788">
-        <v>2021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9272,10 +9272,10 @@
         <v>71</v>
       </c>
       <c r="B789">
-        <v>7067</v>
+        <v>1095</v>
       </c>
       <c r="C789">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9283,54 +9283,54 @@
         <v>71</v>
       </c>
       <c r="B790">
-        <v>8937</v>
+        <v>1905</v>
       </c>
       <c r="C790">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="791" spans="1:3">
       <c r="A791" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B791">
-        <v>858</v>
+        <v>3789</v>
       </c>
       <c r="C791">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="792" spans="1:3">
       <c r="A792" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B792">
-        <v>859</v>
+        <v>5809</v>
       </c>
       <c r="C792">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="793" spans="1:3">
       <c r="A793" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B793">
-        <v>860</v>
+        <v>7067</v>
       </c>
       <c r="C793">
-        <v>20152016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="794" spans="1:3">
       <c r="A794" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B794">
-        <v>861</v>
+        <v>8937</v>
       </c>
       <c r="C794">
-        <v>20142015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9338,10 +9338,10 @@
         <v>72</v>
       </c>
       <c r="B795">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C795">
-        <v>20132014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9349,10 +9349,10 @@
         <v>72</v>
       </c>
       <c r="B796">
-        <v>1096</v>
+        <v>859</v>
       </c>
       <c r="C796">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9360,10 +9360,10 @@
         <v>72</v>
       </c>
       <c r="B797">
-        <v>1949</v>
+        <v>860</v>
       </c>
       <c r="C797">
-        <v>2019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9371,10 +9371,10 @@
         <v>72</v>
       </c>
       <c r="B798">
-        <v>4651</v>
+        <v>861</v>
       </c>
       <c r="C798">
-        <v>2020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9382,10 +9382,10 @@
         <v>72</v>
       </c>
       <c r="B799">
-        <v>5908</v>
+        <v>862</v>
       </c>
       <c r="C799">
-        <v>2021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9393,10 +9393,10 @@
         <v>72</v>
       </c>
       <c r="B800">
-        <v>7173</v>
+        <v>1096</v>
       </c>
       <c r="C800">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9404,54 +9404,54 @@
         <v>72</v>
       </c>
       <c r="B801">
-        <v>9288</v>
+        <v>1949</v>
       </c>
       <c r="C801">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="802" spans="1:3">
       <c r="A802" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B802">
-        <v>622</v>
+        <v>4651</v>
       </c>
       <c r="C802">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="803" spans="1:3">
       <c r="A803" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B803">
-        <v>623</v>
+        <v>5908</v>
       </c>
       <c r="C803">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="804" spans="1:3">
       <c r="A804" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B804">
-        <v>624</v>
+        <v>7173</v>
       </c>
       <c r="C804">
-        <v>2015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="805" spans="1:3">
       <c r="A805" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B805">
-        <v>631</v>
+        <v>9288</v>
       </c>
       <c r="C805">
-        <v>20142015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9459,10 +9459,10 @@
         <v>73</v>
       </c>
       <c r="B806">
-        <v>1102</v>
+        <v>622</v>
       </c>
       <c r="C806">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9470,10 +9470,10 @@
         <v>73</v>
       </c>
       <c r="B807">
-        <v>1868</v>
+        <v>623</v>
       </c>
       <c r="C807">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9481,10 +9481,10 @@
         <v>73</v>
       </c>
       <c r="B808">
-        <v>2011</v>
+        <v>624</v>
       </c>
       <c r="C808">
-        <v>20132014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9492,10 +9492,10 @@
         <v>73</v>
       </c>
       <c r="B809">
-        <v>3714</v>
+        <v>631</v>
       </c>
       <c r="C809">
-        <v>2020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9503,10 +9503,10 @@
         <v>73</v>
       </c>
       <c r="B810">
-        <v>5631</v>
+        <v>1102</v>
       </c>
       <c r="C810">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9514,10 +9514,10 @@
         <v>73</v>
       </c>
       <c r="B811">
-        <v>7166</v>
+        <v>1868</v>
       </c>
       <c r="C811">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9525,9 +9525,53 @@
         <v>73</v>
       </c>
       <c r="B812">
+        <v>2011</v>
+      </c>
+      <c r="C812">
+        <v>20132014</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3">
+      <c r="A813" t="s">
+        <v>73</v>
+      </c>
+      <c r="B813">
+        <v>3714</v>
+      </c>
+      <c r="C813">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3">
+      <c r="A814" t="s">
+        <v>73</v>
+      </c>
+      <c r="B814">
+        <v>5631</v>
+      </c>
+      <c r="C814">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3">
+      <c r="A815" t="s">
+        <v>73</v>
+      </c>
+      <c r="B815">
+        <v>7166</v>
+      </c>
+      <c r="C815">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3">
+      <c r="A816" t="s">
+        <v>73</v>
+      </c>
+      <c r="B816">
         <v>8952</v>
       </c>
-      <c r="C812">
+      <c r="C816">
         <v>2023</v>
       </c>
     </row>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="74">
   <si>
     <t>League</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C816"/>
+  <dimension ref="A1:C818"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4561,13 +4561,13 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B361">
-        <v>83</v>
+        <v>9621</v>
       </c>
       <c r="C361">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>35</v>
       </c>
       <c r="B362">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C362">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>35</v>
       </c>
       <c r="B363">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C363">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>35</v>
       </c>
       <c r="B364">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="C364">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>35</v>
       </c>
       <c r="B365">
-        <v>1578</v>
+        <v>188</v>
       </c>
       <c r="C365">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>35</v>
       </c>
       <c r="B366">
-        <v>4131</v>
+        <v>1578</v>
       </c>
       <c r="C366">
-        <v>20132014</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>35</v>
       </c>
       <c r="B367">
-        <v>4168</v>
+        <v>4131</v>
       </c>
       <c r="C367">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>35</v>
       </c>
       <c r="B368">
-        <v>4195</v>
+        <v>4168</v>
       </c>
       <c r="C368">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>35</v>
       </c>
       <c r="B369">
-        <v>4200</v>
+        <v>4195</v>
       </c>
       <c r="C369">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>35</v>
       </c>
       <c r="B370">
-        <v>4388</v>
+        <v>4200</v>
       </c>
       <c r="C370">
-        <v>20192020</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>35</v>
       </c>
       <c r="B371">
-        <v>4676</v>
+        <v>4388</v>
       </c>
       <c r="C371">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>35</v>
       </c>
       <c r="B372">
-        <v>6020</v>
+        <v>4676</v>
       </c>
       <c r="C372">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4696,21 +4696,21 @@
         <v>35</v>
       </c>
       <c r="B373">
-        <v>7499</v>
+        <v>6020</v>
       </c>
       <c r="C373">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B374">
-        <v>3</v>
+        <v>7499</v>
       </c>
       <c r="C374">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>36</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C375">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>36</v>
       </c>
       <c r="B376">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C376">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>36</v>
       </c>
       <c r="B377">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C377">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>36</v>
       </c>
       <c r="B378">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C378">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>36</v>
       </c>
       <c r="B379">
-        <v>1636</v>
+        <v>177</v>
       </c>
       <c r="C379">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>36</v>
       </c>
       <c r="B380">
-        <v>4105</v>
+        <v>1636</v>
       </c>
       <c r="C380">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>36</v>
       </c>
       <c r="B381">
-        <v>4123</v>
+        <v>4105</v>
       </c>
       <c r="C381">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>36</v>
       </c>
       <c r="B382">
-        <v>4133</v>
+        <v>4123</v>
       </c>
       <c r="C382">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>36</v>
       </c>
       <c r="B383">
-        <v>4140</v>
+        <v>4133</v>
       </c>
       <c r="C383">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>36</v>
       </c>
       <c r="B384">
-        <v>4392</v>
+        <v>4140</v>
       </c>
       <c r="C384">
-        <v>20192020</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>36</v>
       </c>
       <c r="B385">
-        <v>4624</v>
+        <v>4392</v>
       </c>
       <c r="C385">
-        <v>20082009</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>36</v>
       </c>
       <c r="B386">
-        <v>4628</v>
+        <v>4624</v>
       </c>
       <c r="C386">
-        <v>20072008</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>36</v>
       </c>
       <c r="B387">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="C387">
-        <v>20062007</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>36</v>
       </c>
       <c r="B388">
-        <v>4673</v>
+        <v>4629</v>
       </c>
       <c r="C388">
-        <v>20202021</v>
+        <v>20062007</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>36</v>
       </c>
       <c r="B389">
-        <v>6192</v>
+        <v>4673</v>
       </c>
       <c r="C389">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4883,21 +4883,21 @@
         <v>36</v>
       </c>
       <c r="B390">
-        <v>7664</v>
+        <v>6192</v>
       </c>
       <c r="C390">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B391">
-        <v>207</v>
+        <v>7664</v>
       </c>
       <c r="C391">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>37</v>
       </c>
       <c r="B392">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C392">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>37</v>
       </c>
       <c r="B393">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C393">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>37</v>
       </c>
       <c r="B394">
-        <v>933</v>
+        <v>209</v>
       </c>
       <c r="C394">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>37</v>
       </c>
       <c r="B395">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C395">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>37</v>
       </c>
       <c r="B396">
-        <v>1752</v>
+        <v>934</v>
       </c>
       <c r="C396">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>37</v>
       </c>
       <c r="B397">
-        <v>2667</v>
+        <v>1752</v>
       </c>
       <c r="C397">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>37</v>
       </c>
       <c r="B398">
-        <v>4957</v>
+        <v>2667</v>
       </c>
       <c r="C398">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>37</v>
       </c>
       <c r="B399">
-        <v>6282</v>
+        <v>4957</v>
       </c>
       <c r="C399">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4993,21 +4993,21 @@
         <v>37</v>
       </c>
       <c r="B400">
-        <v>7954</v>
+        <v>6282</v>
       </c>
       <c r="C400">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B401">
-        <v>726</v>
+        <v>7954</v>
       </c>
       <c r="C401">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>38</v>
       </c>
       <c r="B402">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C402">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>38</v>
       </c>
       <c r="B403">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C403">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>38</v>
       </c>
       <c r="B404">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C404">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>38</v>
       </c>
       <c r="B405">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C405">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>38</v>
       </c>
       <c r="B406">
-        <v>1566</v>
+        <v>731</v>
       </c>
       <c r="C406">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>38</v>
       </c>
       <c r="B407">
-        <v>2282</v>
+        <v>1566</v>
       </c>
       <c r="C407">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>38</v>
       </c>
       <c r="B408">
-        <v>4534</v>
+        <v>2282</v>
       </c>
       <c r="C408">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>38</v>
       </c>
       <c r="B409">
-        <v>5936</v>
+        <v>4534</v>
       </c>
       <c r="C409">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5103,21 +5103,21 @@
         <v>38</v>
       </c>
       <c r="B410">
-        <v>7967</v>
+        <v>5936</v>
       </c>
       <c r="C410">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B411">
-        <v>68</v>
+        <v>7967</v>
       </c>
       <c r="C411">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>39</v>
       </c>
       <c r="B412">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C412">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>39</v>
       </c>
       <c r="B413">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C413">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>39</v>
       </c>
       <c r="B414">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C414">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>39</v>
       </c>
       <c r="B415">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="C415">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5169,10 +5169,10 @@
         <v>39</v>
       </c>
       <c r="B416">
-        <v>1680</v>
+        <v>182</v>
       </c>
       <c r="C416">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>39</v>
       </c>
       <c r="B417">
-        <v>2588</v>
+        <v>1680</v>
       </c>
       <c r="C417">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>39</v>
       </c>
       <c r="B418">
-        <v>3940</v>
+        <v>2588</v>
       </c>
       <c r="C418">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>39</v>
       </c>
       <c r="B419">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C419">
-        <v>20082009</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>39</v>
       </c>
       <c r="B420">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C420">
-        <v>20092010</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>39</v>
       </c>
       <c r="B421">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="C421">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>39</v>
       </c>
       <c r="B422">
-        <v>4889</v>
+        <v>3945</v>
       </c>
       <c r="C422">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>39</v>
       </c>
       <c r="B423">
-        <v>6198</v>
+        <v>4889</v>
       </c>
       <c r="C423">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5257,21 +5257,21 @@
         <v>39</v>
       </c>
       <c r="B424">
-        <v>7608</v>
+        <v>6198</v>
       </c>
       <c r="C424">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B425">
-        <v>77</v>
+        <v>7608</v>
       </c>
       <c r="C425">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>40</v>
       </c>
       <c r="B426">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C426">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>40</v>
       </c>
       <c r="B427">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C427">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="B428">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C428">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>40</v>
       </c>
       <c r="B429">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C429">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>40</v>
       </c>
       <c r="B430">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="C430">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>40</v>
       </c>
       <c r="B431">
-        <v>1749</v>
+        <v>183</v>
       </c>
       <c r="C431">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>40</v>
       </c>
       <c r="B432">
-        <v>2642</v>
+        <v>1749</v>
       </c>
       <c r="C432">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>40</v>
       </c>
       <c r="B433">
-        <v>3946</v>
+        <v>2642</v>
       </c>
       <c r="C433">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>40</v>
       </c>
       <c r="B434">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C434">
-        <v>20102011</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>40</v>
       </c>
       <c r="B435">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="C435">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>40</v>
       </c>
       <c r="B436">
-        <v>4972</v>
+        <v>3949</v>
       </c>
       <c r="C436">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>40</v>
       </c>
       <c r="B437">
-        <v>6205</v>
+        <v>4972</v>
       </c>
       <c r="C437">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5411,21 +5411,21 @@
         <v>40</v>
       </c>
       <c r="B438">
-        <v>7864</v>
+        <v>6205</v>
       </c>
       <c r="C438">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B439">
-        <v>162</v>
+        <v>7864</v>
       </c>
       <c r="C439">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>41</v>
       </c>
       <c r="B440">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="C440">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>41</v>
       </c>
       <c r="B441">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C441">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>41</v>
       </c>
       <c r="B442">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C442">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>41</v>
       </c>
       <c r="B443">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C443">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>41</v>
       </c>
       <c r="B444">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C444">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>41</v>
       </c>
       <c r="B445">
-        <v>1071</v>
+        <v>254</v>
       </c>
       <c r="C445">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>41</v>
       </c>
       <c r="B446">
-        <v>1864</v>
+        <v>1071</v>
       </c>
       <c r="C446">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>41</v>
       </c>
       <c r="B447">
-        <v>3686</v>
+        <v>1864</v>
       </c>
       <c r="C447">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>41</v>
       </c>
       <c r="B448">
-        <v>5434</v>
+        <v>3686</v>
       </c>
       <c r="C448">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>41</v>
       </c>
       <c r="B449">
-        <v>6935</v>
+        <v>5434</v>
       </c>
       <c r="C449">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5543,21 +5543,21 @@
         <v>41</v>
       </c>
       <c r="B450">
-        <v>8810</v>
+        <v>6935</v>
       </c>
       <c r="C450">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B451">
-        <v>130</v>
+        <v>8810</v>
       </c>
       <c r="C451">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>42</v>
       </c>
       <c r="B452">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C452">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>42</v>
       </c>
       <c r="B453">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C453">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>42</v>
       </c>
       <c r="B454">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C454">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>42</v>
       </c>
       <c r="B455">
-        <v>1073</v>
+        <v>153</v>
       </c>
       <c r="C455">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>42</v>
       </c>
       <c r="B456">
-        <v>1865</v>
+        <v>1073</v>
       </c>
       <c r="C456">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>42</v>
       </c>
       <c r="B457">
-        <v>3684</v>
+        <v>1865</v>
       </c>
       <c r="C457">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>42</v>
       </c>
       <c r="B458">
-        <v>5495</v>
+        <v>3684</v>
       </c>
       <c r="C458">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>42</v>
       </c>
       <c r="B459">
-        <v>6936</v>
+        <v>5495</v>
       </c>
       <c r="C459">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5653,21 +5653,21 @@
         <v>42</v>
       </c>
       <c r="B460">
-        <v>8811</v>
+        <v>6936</v>
       </c>
       <c r="C460">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B461">
-        <v>313</v>
+        <v>8811</v>
       </c>
       <c r="C461">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>43</v>
       </c>
       <c r="B462">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C462">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>43</v>
       </c>
       <c r="B463">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C463">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>43</v>
       </c>
       <c r="B464">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C464">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>43</v>
       </c>
       <c r="B465">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C465">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>43</v>
       </c>
       <c r="B466">
-        <v>1583</v>
+        <v>317</v>
       </c>
       <c r="C466">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>43</v>
       </c>
       <c r="B467">
-        <v>2315</v>
+        <v>1583</v>
       </c>
       <c r="C467">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>43</v>
       </c>
       <c r="B468">
-        <v>4664</v>
+        <v>2315</v>
       </c>
       <c r="C468">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>43</v>
       </c>
       <c r="B469">
-        <v>6104</v>
+        <v>4664</v>
       </c>
       <c r="C469">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5763,21 +5763,21 @@
         <v>43</v>
       </c>
       <c r="B470">
-        <v>7489</v>
+        <v>6104</v>
       </c>
       <c r="C470">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B471">
-        <v>307</v>
+        <v>7489</v>
       </c>
       <c r="C471">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>44</v>
       </c>
       <c r="B472">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C472">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>44</v>
       </c>
       <c r="B473">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C473">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>44</v>
       </c>
       <c r="B474">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C474">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>44</v>
       </c>
       <c r="B475">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C475">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>44</v>
       </c>
       <c r="B476">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C476">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>44</v>
       </c>
       <c r="B477">
-        <v>1582</v>
+        <v>312</v>
       </c>
       <c r="C477">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>44</v>
       </c>
       <c r="B478">
-        <v>2270</v>
+        <v>1582</v>
       </c>
       <c r="C478">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>44</v>
       </c>
       <c r="B479">
-        <v>4507</v>
+        <v>2270</v>
       </c>
       <c r="C479">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>44</v>
       </c>
       <c r="B480">
-        <v>6038</v>
+        <v>4507</v>
       </c>
       <c r="C480">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>44</v>
       </c>
       <c r="B481">
-        <v>7425</v>
+        <v>6038</v>
       </c>
       <c r="C481">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5895,21 +5895,21 @@
         <v>44</v>
       </c>
       <c r="B482">
-        <v>9525</v>
+        <v>7425</v>
       </c>
       <c r="C482">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B483">
-        <v>55</v>
+        <v>9525</v>
       </c>
       <c r="C483">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="B484">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C484">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>45</v>
       </c>
       <c r="B485">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C485">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>45</v>
       </c>
       <c r="B486">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="C486">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>45</v>
       </c>
       <c r="B487">
-        <v>1584</v>
+        <v>179</v>
       </c>
       <c r="C487">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>45</v>
       </c>
       <c r="B488">
-        <v>2273</v>
+        <v>1584</v>
       </c>
       <c r="C488">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>45</v>
       </c>
       <c r="B489">
-        <v>4228</v>
+        <v>2273</v>
       </c>
       <c r="C489">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>45</v>
       </c>
       <c r="B490">
-        <v>4236</v>
+        <v>4228</v>
       </c>
       <c r="C490">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>45</v>
       </c>
       <c r="B491">
-        <v>4243</v>
+        <v>4236</v>
       </c>
       <c r="C491">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>45</v>
       </c>
       <c r="B492">
-        <v>4246</v>
+        <v>4243</v>
       </c>
       <c r="C492">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>45</v>
       </c>
       <c r="B493">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="C493">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>45</v>
       </c>
       <c r="B494">
-        <v>4748</v>
+        <v>4247</v>
       </c>
       <c r="C494">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>45</v>
       </c>
       <c r="B495">
-        <v>5950</v>
+        <v>4748</v>
       </c>
       <c r="C495">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6049,21 +6049,21 @@
         <v>45</v>
       </c>
       <c r="B496">
-        <v>7484</v>
+        <v>5950</v>
       </c>
       <c r="C496">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B497">
-        <v>51</v>
+        <v>7484</v>
       </c>
       <c r="C497">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>46</v>
       </c>
       <c r="B498">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C498">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>46</v>
       </c>
       <c r="B499">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C499">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>46</v>
       </c>
       <c r="B500">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C500">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>46</v>
       </c>
       <c r="B501">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="C501">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>46</v>
       </c>
       <c r="B502">
-        <v>1585</v>
+        <v>178</v>
       </c>
       <c r="C502">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>46</v>
       </c>
       <c r="B503">
-        <v>2272</v>
+        <v>1585</v>
       </c>
       <c r="C503">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>46</v>
       </c>
       <c r="B504">
-        <v>4226</v>
+        <v>2272</v>
       </c>
       <c r="C504">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>46</v>
       </c>
       <c r="B505">
-        <v>4234</v>
+        <v>4226</v>
       </c>
       <c r="C505">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>46</v>
       </c>
       <c r="B506">
-        <v>4746</v>
+        <v>4234</v>
       </c>
       <c r="C506">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>46</v>
       </c>
       <c r="B507">
-        <v>5951</v>
+        <v>4746</v>
       </c>
       <c r="C507">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6181,21 +6181,21 @@
         <v>46</v>
       </c>
       <c r="B508">
-        <v>7482</v>
+        <v>5951</v>
       </c>
       <c r="C508">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B509">
-        <v>1366</v>
+        <v>7482</v>
       </c>
       <c r="C509">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6203,10 +6203,10 @@
         <v>47</v>
       </c>
       <c r="B510">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C510">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6214,10 +6214,10 @@
         <v>47</v>
       </c>
       <c r="B511">
-        <v>1586</v>
+        <v>1367</v>
       </c>
       <c r="C511">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6225,10 +6225,10 @@
         <v>47</v>
       </c>
       <c r="B512">
-        <v>2275</v>
+        <v>1586</v>
       </c>
       <c r="C512">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>47</v>
       </c>
       <c r="B513">
-        <v>4749</v>
+        <v>2275</v>
       </c>
       <c r="C513">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>47</v>
       </c>
       <c r="B514">
-        <v>6098</v>
+        <v>4749</v>
       </c>
       <c r="C514">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6258,21 +6258,21 @@
         <v>47</v>
       </c>
       <c r="B515">
-        <v>7702</v>
+        <v>6098</v>
       </c>
       <c r="C515">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B516">
-        <v>44</v>
+        <v>7702</v>
       </c>
       <c r="C516">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>48</v>
       </c>
       <c r="B517">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C517">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>48</v>
       </c>
       <c r="B518">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C518">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>48</v>
       </c>
       <c r="B519">
-        <v>993</v>
+        <v>46</v>
       </c>
       <c r="C519">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>48</v>
       </c>
       <c r="B520">
-        <v>1839</v>
+        <v>993</v>
       </c>
       <c r="C520">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>48</v>
       </c>
       <c r="B521">
-        <v>3695</v>
+        <v>1839</v>
       </c>
       <c r="C521">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>48</v>
       </c>
       <c r="B522">
-        <v>4224</v>
+        <v>3695</v>
       </c>
       <c r="C522">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>48</v>
       </c>
       <c r="B523">
-        <v>4231</v>
+        <v>4224</v>
       </c>
       <c r="C523">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>48</v>
       </c>
       <c r="B524">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="C524">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>48</v>
       </c>
       <c r="B525">
-        <v>4242</v>
+        <v>4237</v>
       </c>
       <c r="C525">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>48</v>
       </c>
       <c r="B526">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="C526">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>48</v>
       </c>
       <c r="B527">
-        <v>5496</v>
+        <v>4244</v>
       </c>
       <c r="C527">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>48</v>
       </c>
       <c r="B528">
-        <v>7048</v>
+        <v>5496</v>
       </c>
       <c r="C528">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6412,21 +6412,21 @@
         <v>48</v>
       </c>
       <c r="B529">
-        <v>8739</v>
+        <v>7048</v>
       </c>
       <c r="C529">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B530">
-        <v>1099</v>
+        <v>8739</v>
       </c>
       <c r="C530">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>49</v>
       </c>
       <c r="B531">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C531">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>49</v>
       </c>
       <c r="B532">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C532">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>49</v>
       </c>
       <c r="B533">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C533">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>49</v>
       </c>
       <c r="B534">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C534">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>49</v>
       </c>
       <c r="B535">
-        <v>1843</v>
+        <v>1105</v>
       </c>
       <c r="C535">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>49</v>
       </c>
       <c r="B536">
-        <v>3643</v>
+        <v>1843</v>
       </c>
       <c r="C536">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>49</v>
       </c>
       <c r="B537">
-        <v>5503</v>
+        <v>3643</v>
       </c>
       <c r="C537">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>49</v>
       </c>
       <c r="B538">
-        <v>6960</v>
+        <v>5503</v>
       </c>
       <c r="C538">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6522,21 +6522,21 @@
         <v>49</v>
       </c>
       <c r="B539">
-        <v>8783</v>
+        <v>6960</v>
       </c>
       <c r="C539">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B540">
-        <v>612</v>
+        <v>8783</v>
       </c>
       <c r="C540">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>50</v>
       </c>
       <c r="B541">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C541">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>50</v>
       </c>
       <c r="B542">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C542">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>50</v>
       </c>
       <c r="B543">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C543">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>50</v>
       </c>
       <c r="B544">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C544">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>50</v>
       </c>
       <c r="B545">
-        <v>1125</v>
+        <v>616</v>
       </c>
       <c r="C545">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>50</v>
       </c>
       <c r="B546">
-        <v>1881</v>
+        <v>1125</v>
       </c>
       <c r="C546">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>50</v>
       </c>
       <c r="B547">
-        <v>3702</v>
+        <v>1881</v>
       </c>
       <c r="C547">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>50</v>
       </c>
       <c r="B548">
-        <v>5627</v>
+        <v>3702</v>
       </c>
       <c r="C548">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>50</v>
       </c>
       <c r="B549">
-        <v>6966</v>
+        <v>5627</v>
       </c>
       <c r="C549">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6643,21 +6643,21 @@
         <v>50</v>
       </c>
       <c r="B550">
-        <v>8837</v>
+        <v>6966</v>
       </c>
       <c r="C550">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B551">
-        <v>255</v>
+        <v>8837</v>
       </c>
       <c r="C551">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>51</v>
       </c>
       <c r="B552">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C552">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>51</v>
       </c>
       <c r="B553">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C553">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>51</v>
       </c>
       <c r="B554">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C554">
-        <v>20162017</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>51</v>
       </c>
       <c r="B555">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C555">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>51</v>
       </c>
       <c r="B556">
-        <v>1589</v>
+        <v>279</v>
       </c>
       <c r="C556">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>51</v>
       </c>
       <c r="B557">
-        <v>2328</v>
+        <v>1589</v>
       </c>
       <c r="C557">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>51</v>
       </c>
       <c r="B558">
-        <v>3972</v>
+        <v>2328</v>
       </c>
       <c r="C558">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>51</v>
       </c>
       <c r="B559">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="C559">
-        <v>20122013</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>51</v>
       </c>
       <c r="B560">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="C560">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>51</v>
       </c>
       <c r="B561">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="C561">
-        <v>20112012</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>51</v>
       </c>
       <c r="B562">
-        <v>4760</v>
+        <v>3975</v>
       </c>
       <c r="C562">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>51</v>
       </c>
       <c r="B563">
-        <v>5948</v>
+        <v>4760</v>
       </c>
       <c r="C563">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>51</v>
       </c>
       <c r="B564">
-        <v>7428</v>
+        <v>5948</v>
       </c>
       <c r="C564">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6808,21 +6808,21 @@
         <v>51</v>
       </c>
       <c r="B565">
-        <v>9553</v>
+        <v>7428</v>
       </c>
       <c r="C565">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B566">
-        <v>13</v>
+        <v>9553</v>
       </c>
       <c r="C566">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>52</v>
       </c>
       <c r="B567">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C567">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>52</v>
       </c>
       <c r="B568">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C568">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>52</v>
       </c>
       <c r="B569">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C569">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>52</v>
       </c>
       <c r="B570">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="C570">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>52</v>
       </c>
       <c r="B571">
-        <v>1593</v>
+        <v>173</v>
       </c>
       <c r="C571">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>52</v>
       </c>
       <c r="B572">
-        <v>2321</v>
+        <v>1593</v>
       </c>
       <c r="C572">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>52</v>
       </c>
       <c r="B573">
-        <v>4225</v>
+        <v>2321</v>
       </c>
       <c r="C573">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>52</v>
       </c>
       <c r="B574">
-        <v>4232</v>
+        <v>4225</v>
       </c>
       <c r="C574">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>52</v>
       </c>
       <c r="B575">
-        <v>4238</v>
+        <v>4232</v>
       </c>
       <c r="C575">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>52</v>
       </c>
       <c r="B576">
-        <v>4885</v>
+        <v>4238</v>
       </c>
       <c r="C576">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>52</v>
       </c>
       <c r="B577">
-        <v>6117</v>
+        <v>4885</v>
       </c>
       <c r="C577">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6951,21 +6951,21 @@
         <v>52</v>
       </c>
       <c r="B578">
-        <v>7731</v>
+        <v>6117</v>
       </c>
       <c r="C578">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B579">
-        <v>174</v>
+        <v>7731</v>
       </c>
       <c r="C579">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>53</v>
       </c>
       <c r="B580">
-        <v>965</v>
+        <v>174</v>
       </c>
       <c r="C580">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>53</v>
       </c>
       <c r="B581">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C581">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>53</v>
       </c>
       <c r="B582">
-        <v>1594</v>
+        <v>966</v>
       </c>
       <c r="C582">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>53</v>
       </c>
       <c r="B583">
-        <v>2320</v>
+        <v>1594</v>
       </c>
       <c r="C583">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>53</v>
       </c>
       <c r="B584">
-        <v>4284</v>
+        <v>2320</v>
       </c>
       <c r="C584">
-        <v>20142015</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>53</v>
       </c>
       <c r="B585">
-        <v>4291</v>
+        <v>4284</v>
       </c>
       <c r="C585">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>53</v>
       </c>
       <c r="B586">
-        <v>4309</v>
+        <v>4291</v>
       </c>
       <c r="C586">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>53</v>
       </c>
       <c r="B587">
-        <v>4322</v>
+        <v>4309</v>
       </c>
       <c r="C587">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>53</v>
       </c>
       <c r="B588">
-        <v>4886</v>
+        <v>4322</v>
       </c>
       <c r="C588">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>53</v>
       </c>
       <c r="B589">
-        <v>6116</v>
+        <v>4886</v>
       </c>
       <c r="C589">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7083,21 +7083,21 @@
         <v>53</v>
       </c>
       <c r="B590">
-        <v>7732</v>
+        <v>6116</v>
       </c>
       <c r="C590">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B591">
-        <v>449</v>
+        <v>7732</v>
       </c>
       <c r="C591">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>54</v>
       </c>
       <c r="B592">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C592">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>54</v>
       </c>
       <c r="B593">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C593">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>54</v>
       </c>
       <c r="B594">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C594">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>54</v>
       </c>
       <c r="B595">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C595">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>54</v>
       </c>
       <c r="B596">
-        <v>990</v>
+        <v>453</v>
       </c>
       <c r="C596">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>54</v>
       </c>
       <c r="B597">
-        <v>1844</v>
+        <v>990</v>
       </c>
       <c r="C597">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>54</v>
       </c>
       <c r="B598">
-        <v>3570</v>
+        <v>1844</v>
       </c>
       <c r="C598">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>54</v>
       </c>
       <c r="B599">
-        <v>5534</v>
+        <v>3570</v>
       </c>
       <c r="C599">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>54</v>
       </c>
       <c r="B600">
-        <v>6967</v>
+        <v>5534</v>
       </c>
       <c r="C600">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7204,21 +7204,21 @@
         <v>54</v>
       </c>
       <c r="B601">
-        <v>8741</v>
+        <v>6967</v>
       </c>
       <c r="C601">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B602">
-        <v>1086</v>
+        <v>8741</v>
       </c>
       <c r="C602">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>55</v>
       </c>
       <c r="B603">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C603">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>55</v>
       </c>
       <c r="B604">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C604">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>55</v>
       </c>
       <c r="B605">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C605">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7259,10 +7259,10 @@
         <v>55</v>
       </c>
       <c r="B606">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C606">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7270,10 +7270,10 @@
         <v>55</v>
       </c>
       <c r="B607">
-        <v>1596</v>
+        <v>1090</v>
       </c>
       <c r="C607">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7281,10 +7281,10 @@
         <v>55</v>
       </c>
       <c r="B608">
-        <v>2312</v>
+        <v>1596</v>
       </c>
       <c r="C608">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>55</v>
       </c>
       <c r="B609">
-        <v>4764</v>
+        <v>2312</v>
       </c>
       <c r="C609">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>55</v>
       </c>
       <c r="B610">
-        <v>6037</v>
+        <v>4764</v>
       </c>
       <c r="C610">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7314,32 +7314,32 @@
         <v>55</v>
       </c>
       <c r="B611">
-        <v>7663</v>
+        <v>6037</v>
       </c>
       <c r="C611">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B612">
-        <v>2</v>
+        <v>7663</v>
       </c>
       <c r="C612">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B613">
-        <v>164</v>
+        <v>9622</v>
       </c>
       <c r="C613">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>56</v>
       </c>
       <c r="B614">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="C614">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>56</v>
       </c>
       <c r="B615">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C615">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>56</v>
       </c>
       <c r="B616">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C616">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>56</v>
       </c>
       <c r="B617">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="C617">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>56</v>
       </c>
       <c r="B618">
-        <v>1600</v>
+        <v>169</v>
       </c>
       <c r="C618">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>56</v>
       </c>
       <c r="B619">
-        <v>2361</v>
+        <v>223</v>
       </c>
       <c r="C619">
-        <v>20192020</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>56</v>
       </c>
       <c r="B620">
-        <v>4478</v>
+        <v>1600</v>
       </c>
       <c r="C620">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>56</v>
       </c>
       <c r="B621">
-        <v>5992</v>
+        <v>2361</v>
       </c>
       <c r="C621">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7435,32 +7435,32 @@
         <v>56</v>
       </c>
       <c r="B622">
-        <v>7494</v>
+        <v>4478</v>
       </c>
       <c r="C622">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B623">
-        <v>416</v>
+        <v>5992</v>
       </c>
       <c r="C623">
-        <v>20172018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B624">
-        <v>417</v>
+        <v>7494</v>
       </c>
       <c r="C624">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>57</v>
       </c>
       <c r="B625">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C625">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>57</v>
       </c>
       <c r="B626">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C626">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>57</v>
       </c>
       <c r="B627">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C627">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>57</v>
       </c>
       <c r="B628">
-        <v>1604</v>
+        <v>419</v>
       </c>
       <c r="C628">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>57</v>
       </c>
       <c r="B629">
-        <v>2254</v>
+        <v>420</v>
       </c>
       <c r="C629">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>57</v>
       </c>
       <c r="B630">
-        <v>4533</v>
+        <v>1604</v>
       </c>
       <c r="C630">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>57</v>
       </c>
       <c r="B631">
-        <v>6046</v>
+        <v>2254</v>
       </c>
       <c r="C631">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7545,32 +7545,32 @@
         <v>57</v>
       </c>
       <c r="B632">
-        <v>7492</v>
+        <v>4533</v>
       </c>
       <c r="C632">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B633">
-        <v>439</v>
+        <v>6046</v>
       </c>
       <c r="C633">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B634">
-        <v>440</v>
+        <v>7492</v>
       </c>
       <c r="C634">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>58</v>
       </c>
       <c r="B635">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C635">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>58</v>
       </c>
       <c r="B636">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C636">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>58</v>
       </c>
       <c r="B637">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C637">
-        <v>20162017</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>58</v>
       </c>
       <c r="B638">
-        <v>1606</v>
+        <v>447</v>
       </c>
       <c r="C638">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>58</v>
       </c>
       <c r="B639">
-        <v>2256</v>
+        <v>448</v>
       </c>
       <c r="C639">
-        <v>20192020</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>58</v>
       </c>
       <c r="B640">
-        <v>4572</v>
+        <v>1606</v>
       </c>
       <c r="C640">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>58</v>
       </c>
       <c r="B641">
-        <v>5944</v>
+        <v>2256</v>
       </c>
       <c r="C641">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7655,32 +7655,32 @@
         <v>58</v>
       </c>
       <c r="B642">
-        <v>7958</v>
+        <v>4572</v>
       </c>
       <c r="C642">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B643">
-        <v>426</v>
+        <v>5944</v>
       </c>
       <c r="C643">
-        <v>20172018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B644">
-        <v>427</v>
+        <v>7958</v>
       </c>
       <c r="C644">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>59</v>
       </c>
       <c r="B645">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C645">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>59</v>
       </c>
       <c r="B646">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C646">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>59</v>
       </c>
       <c r="B647">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C647">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>59</v>
       </c>
       <c r="B648">
-        <v>1608</v>
+        <v>429</v>
       </c>
       <c r="C648">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>59</v>
       </c>
       <c r="B649">
-        <v>2251</v>
+        <v>433</v>
       </c>
       <c r="C649">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>59</v>
       </c>
       <c r="B650">
-        <v>4635</v>
+        <v>1608</v>
       </c>
       <c r="C650">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>59</v>
       </c>
       <c r="B651">
-        <v>6048</v>
+        <v>2251</v>
       </c>
       <c r="C651">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>59</v>
       </c>
       <c r="B652">
-        <v>7526</v>
+        <v>4635</v>
       </c>
       <c r="C652">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7776,32 +7776,32 @@
         <v>59</v>
       </c>
       <c r="B653">
-        <v>9579</v>
+        <v>6048</v>
       </c>
       <c r="C653">
-        <v>20232024</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B654">
-        <v>747</v>
+        <v>7526</v>
       </c>
       <c r="C654">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="A655" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B655">
-        <v>748</v>
+        <v>9579</v>
       </c>
       <c r="C655">
-        <v>2016</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7809,10 +7809,10 @@
         <v>60</v>
       </c>
       <c r="B656">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C656">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7820,10 +7820,10 @@
         <v>60</v>
       </c>
       <c r="B657">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C657">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7831,10 +7831,10 @@
         <v>60</v>
       </c>
       <c r="B658">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C658">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7842,10 +7842,10 @@
         <v>60</v>
       </c>
       <c r="B659">
-        <v>1115</v>
+        <v>750</v>
       </c>
       <c r="C659">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7853,10 +7853,10 @@
         <v>60</v>
       </c>
       <c r="B660">
-        <v>1862</v>
+        <v>751</v>
       </c>
       <c r="C660">
-        <v>2019</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7864,10 +7864,10 @@
         <v>60</v>
       </c>
       <c r="B661">
-        <v>4379</v>
+        <v>1115</v>
       </c>
       <c r="C661">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7875,10 +7875,10 @@
         <v>60</v>
       </c>
       <c r="B662">
-        <v>5506</v>
+        <v>1862</v>
       </c>
       <c r="C662">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7886,10 +7886,10 @@
         <v>60</v>
       </c>
       <c r="B663">
-        <v>7061</v>
+        <v>4379</v>
       </c>
       <c r="C663">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7897,32 +7897,32 @@
         <v>60</v>
       </c>
       <c r="B664">
-        <v>8899</v>
+        <v>5506</v>
       </c>
       <c r="C664">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="A665" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B665">
-        <v>752</v>
+        <v>7061</v>
       </c>
       <c r="C665">
-        <v>2015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="666" spans="1:3">
       <c r="A666" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B666">
-        <v>753</v>
+        <v>8899</v>
       </c>
       <c r="C666">
-        <v>2013</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7930,10 +7930,10 @@
         <v>61</v>
       </c>
       <c r="B667">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C667">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7941,10 +7941,10 @@
         <v>61</v>
       </c>
       <c r="B668">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C668">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7952,10 +7952,10 @@
         <v>61</v>
       </c>
       <c r="B669">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C669">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7963,10 +7963,10 @@
         <v>61</v>
       </c>
       <c r="B670">
-        <v>1121</v>
+        <v>760</v>
       </c>
       <c r="C670">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7974,10 +7974,10 @@
         <v>61</v>
       </c>
       <c r="B671">
-        <v>1863</v>
+        <v>761</v>
       </c>
       <c r="C671">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7985,10 +7985,10 @@
         <v>61</v>
       </c>
       <c r="B672">
-        <v>4381</v>
+        <v>1121</v>
       </c>
       <c r="C672">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7996,10 +7996,10 @@
         <v>61</v>
       </c>
       <c r="B673">
-        <v>5504</v>
+        <v>1863</v>
       </c>
       <c r="C673">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8007,10 +8007,10 @@
         <v>61</v>
       </c>
       <c r="B674">
-        <v>7062</v>
+        <v>4381</v>
       </c>
       <c r="C674">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8018,32 +8018,32 @@
         <v>61</v>
       </c>
       <c r="B675">
-        <v>8938</v>
+        <v>5504</v>
       </c>
       <c r="C675">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="676" spans="1:3">
       <c r="A676" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B676">
-        <v>34</v>
+        <v>7062</v>
       </c>
       <c r="C676">
-        <v>20162017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="677" spans="1:3">
       <c r="A677" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B677">
-        <v>35</v>
+        <v>8938</v>
       </c>
       <c r="C677">
-        <v>20152016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8051,10 +8051,10 @@
         <v>62</v>
       </c>
       <c r="B678">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C678">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8062,10 +8062,10 @@
         <v>62</v>
       </c>
       <c r="B679">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C679">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8073,10 +8073,10 @@
         <v>62</v>
       </c>
       <c r="B680">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C680">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8084,10 +8084,10 @@
         <v>62</v>
       </c>
       <c r="B681">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="C681">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8095,10 +8095,10 @@
         <v>62</v>
       </c>
       <c r="B682">
-        <v>1677</v>
+        <v>38</v>
       </c>
       <c r="C682">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8106,10 +8106,10 @@
         <v>62</v>
       </c>
       <c r="B683">
-        <v>2319</v>
+        <v>171</v>
       </c>
       <c r="C683">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8117,10 +8117,10 @@
         <v>62</v>
       </c>
       <c r="B684">
-        <v>3631</v>
+        <v>1677</v>
       </c>
       <c r="C684">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8128,10 +8128,10 @@
         <v>62</v>
       </c>
       <c r="B685">
-        <v>3632</v>
+        <v>2319</v>
       </c>
       <c r="C685">
-        <v>20102011</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8139,10 +8139,10 @@
         <v>62</v>
       </c>
       <c r="B686">
-        <v>3636</v>
+        <v>3631</v>
       </c>
       <c r="C686">
-        <v>20092010</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8150,10 +8150,10 @@
         <v>62</v>
       </c>
       <c r="B687">
-        <v>3637</v>
+        <v>3632</v>
       </c>
       <c r="C687">
-        <v>20082009</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8161,10 +8161,10 @@
         <v>62</v>
       </c>
       <c r="B688">
-        <v>4944</v>
+        <v>3636</v>
       </c>
       <c r="C688">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8172,10 +8172,10 @@
         <v>62</v>
       </c>
       <c r="B689">
-        <v>6211</v>
+        <v>3637</v>
       </c>
       <c r="C689">
-        <v>20212022</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8183,32 +8183,32 @@
         <v>62</v>
       </c>
       <c r="B690">
-        <v>7665</v>
+        <v>4944</v>
       </c>
       <c r="C690">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="691" spans="1:3">
       <c r="A691" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B691">
-        <v>39</v>
+        <v>6211</v>
       </c>
       <c r="C691">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="692" spans="1:3">
       <c r="A692" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B692">
-        <v>40</v>
+        <v>7665</v>
       </c>
       <c r="C692">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8216,10 +8216,10 @@
         <v>63</v>
       </c>
       <c r="B693">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C693">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8227,10 +8227,10 @@
         <v>63</v>
       </c>
       <c r="B694">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C694">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8238,10 +8238,10 @@
         <v>63</v>
       </c>
       <c r="B695">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C695">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8249,10 +8249,10 @@
         <v>63</v>
       </c>
       <c r="B696">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="C696">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8260,10 +8260,10 @@
         <v>63</v>
       </c>
       <c r="B697">
-        <v>1670</v>
+        <v>43</v>
       </c>
       <c r="C697">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8271,10 +8271,10 @@
         <v>63</v>
       </c>
       <c r="B698">
-        <v>2415</v>
+        <v>172</v>
       </c>
       <c r="C698">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8282,10 +8282,10 @@
         <v>63</v>
       </c>
       <c r="B699">
-        <v>4167</v>
+        <v>1670</v>
       </c>
       <c r="C699">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8293,10 +8293,10 @@
         <v>63</v>
       </c>
       <c r="B700">
-        <v>4245</v>
+        <v>2415</v>
       </c>
       <c r="C700">
-        <v>20102011</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8304,10 +8304,10 @@
         <v>63</v>
       </c>
       <c r="B701">
-        <v>4249</v>
+        <v>4167</v>
       </c>
       <c r="C701">
-        <v>20092010</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8315,10 +8315,10 @@
         <v>63</v>
       </c>
       <c r="B702">
-        <v>4842</v>
+        <v>4245</v>
       </c>
       <c r="C702">
-        <v>20202021</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8326,10 +8326,10 @@
         <v>63</v>
       </c>
       <c r="B703">
-        <v>6120</v>
+        <v>4249</v>
       </c>
       <c r="C703">
-        <v>20212022</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8337,32 +8337,32 @@
         <v>63</v>
       </c>
       <c r="B704">
-        <v>7592</v>
+        <v>4842</v>
       </c>
       <c r="C704">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="705" spans="1:3">
       <c r="A705" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B705">
-        <v>104</v>
+        <v>6120</v>
       </c>
       <c r="C705">
-        <v>2017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="706" spans="1:3">
       <c r="A706" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B706">
-        <v>105</v>
+        <v>7592</v>
       </c>
       <c r="C706">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8370,10 +8370,10 @@
         <v>64</v>
       </c>
       <c r="B707">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C707">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8381,10 +8381,10 @@
         <v>64</v>
       </c>
       <c r="B708">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C708">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8392,10 +8392,10 @@
         <v>64</v>
       </c>
       <c r="B709">
-        <v>994</v>
+        <v>106</v>
       </c>
       <c r="C709">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8403,10 +8403,10 @@
         <v>64</v>
       </c>
       <c r="B710">
-        <v>1848</v>
+        <v>107</v>
       </c>
       <c r="C710">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8414,10 +8414,10 @@
         <v>64</v>
       </c>
       <c r="B711">
-        <v>3703</v>
+        <v>994</v>
       </c>
       <c r="C711">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8425,10 +8425,10 @@
         <v>64</v>
       </c>
       <c r="B712">
-        <v>4307</v>
+        <v>1848</v>
       </c>
       <c r="C712">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8436,10 +8436,10 @@
         <v>64</v>
       </c>
       <c r="B713">
-        <v>4315</v>
+        <v>3703</v>
       </c>
       <c r="C713">
-        <v>2011</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8447,10 +8447,10 @@
         <v>64</v>
       </c>
       <c r="B714">
-        <v>4329</v>
+        <v>4307</v>
       </c>
       <c r="C714">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8458,10 +8458,10 @@
         <v>64</v>
       </c>
       <c r="B715">
-        <v>5505</v>
+        <v>4315</v>
       </c>
       <c r="C715">
-        <v>2021</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8469,10 +8469,10 @@
         <v>64</v>
       </c>
       <c r="B716">
-        <v>7064</v>
+        <v>4329</v>
       </c>
       <c r="C716">
-        <v>2022</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8480,32 +8480,32 @@
         <v>64</v>
       </c>
       <c r="B717">
-        <v>8737</v>
+        <v>5505</v>
       </c>
       <c r="C717">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="718" spans="1:3">
       <c r="A718" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B718">
-        <v>136</v>
+        <v>7064</v>
       </c>
       <c r="C718">
-        <v>20162017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="719" spans="1:3">
       <c r="A719" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B719">
-        <v>137</v>
+        <v>8737</v>
       </c>
       <c r="C719">
-        <v>20152016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8513,10 +8513,10 @@
         <v>65</v>
       </c>
       <c r="B720">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C720">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8524,10 +8524,10 @@
         <v>65</v>
       </c>
       <c r="B721">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C721">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8535,10 +8535,10 @@
         <v>65</v>
       </c>
       <c r="B722">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C722">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8546,10 +8546,10 @@
         <v>65</v>
       </c>
       <c r="B723">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="C723">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8557,10 +8557,10 @@
         <v>65</v>
       </c>
       <c r="B724">
-        <v>1610</v>
+        <v>140</v>
       </c>
       <c r="C724">
-        <v>20182019</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8568,10 +8568,10 @@
         <v>65</v>
       </c>
       <c r="B725">
-        <v>2249</v>
+        <v>186</v>
       </c>
       <c r="C725">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8579,10 +8579,10 @@
         <v>65</v>
       </c>
       <c r="B726">
-        <v>4906</v>
+        <v>1610</v>
       </c>
       <c r="C726">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8590,10 +8590,10 @@
         <v>65</v>
       </c>
       <c r="B727">
-        <v>6044</v>
+        <v>2249</v>
       </c>
       <c r="C727">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8601,10 +8601,10 @@
         <v>65</v>
       </c>
       <c r="B728">
-        <v>7504</v>
+        <v>4906</v>
       </c>
       <c r="C728">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8612,32 +8612,32 @@
         <v>65</v>
       </c>
       <c r="B729">
-        <v>9580</v>
+        <v>6044</v>
       </c>
       <c r="C729">
-        <v>20232024</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="730" spans="1:3">
       <c r="A730" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B730">
-        <v>798</v>
+        <v>7504</v>
       </c>
       <c r="C730">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="731" spans="1:3">
       <c r="A731" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B731">
-        <v>799</v>
+        <v>9580</v>
       </c>
       <c r="C731">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8645,10 +8645,10 @@
         <v>66</v>
       </c>
       <c r="B732">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C732">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8656,10 +8656,10 @@
         <v>66</v>
       </c>
       <c r="B733">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C733">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8667,10 +8667,10 @@
         <v>66</v>
       </c>
       <c r="B734">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C734">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8678,10 +8678,10 @@
         <v>66</v>
       </c>
       <c r="B735">
-        <v>1644</v>
+        <v>801</v>
       </c>
       <c r="C735">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8689,10 +8689,10 @@
         <v>66</v>
       </c>
       <c r="B736">
-        <v>2650</v>
+        <v>802</v>
       </c>
       <c r="C736">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8700,10 +8700,10 @@
         <v>66</v>
       </c>
       <c r="B737">
-        <v>5257</v>
+        <v>1644</v>
       </c>
       <c r="C737">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8711,10 +8711,10 @@
         <v>66</v>
       </c>
       <c r="B738">
-        <v>6726</v>
+        <v>2650</v>
       </c>
       <c r="C738">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8722,32 +8722,32 @@
         <v>66</v>
       </c>
       <c r="B739">
-        <v>8428</v>
+        <v>5257</v>
       </c>
       <c r="C739">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="740" spans="1:3">
       <c r="A740" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B740">
-        <v>19</v>
+        <v>6726</v>
       </c>
       <c r="C740">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="741" spans="1:3">
       <c r="A741" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B741">
-        <v>20</v>
+        <v>8428</v>
       </c>
       <c r="C741">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8755,10 +8755,10 @@
         <v>67</v>
       </c>
       <c r="B742">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C742">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8766,10 +8766,10 @@
         <v>67</v>
       </c>
       <c r="B743">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="C743">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8777,10 +8777,10 @@
         <v>67</v>
       </c>
       <c r="B744">
-        <v>1614</v>
+        <v>21</v>
       </c>
       <c r="C744">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8788,10 +8788,10 @@
         <v>67</v>
       </c>
       <c r="B745">
-        <v>2648</v>
+        <v>175</v>
       </c>
       <c r="C745">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8799,10 +8799,10 @@
         <v>67</v>
       </c>
       <c r="B746">
-        <v>4840</v>
+        <v>1614</v>
       </c>
       <c r="C746">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8810,10 +8810,10 @@
         <v>67</v>
       </c>
       <c r="B747">
-        <v>6125</v>
+        <v>2648</v>
       </c>
       <c r="C747">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8821,32 +8821,32 @@
         <v>67</v>
       </c>
       <c r="B748">
-        <v>7768</v>
+        <v>4840</v>
       </c>
       <c r="C748">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="749" spans="1:3">
       <c r="A749" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B749">
-        <v>1</v>
+        <v>6125</v>
       </c>
       <c r="C749">
-        <v>2016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="750" spans="1:3">
       <c r="A750" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B750">
-        <v>16</v>
+        <v>7768</v>
       </c>
       <c r="C750">
-        <v>2015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8854,10 +8854,10 @@
         <v>68</v>
       </c>
       <c r="B751">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C751">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8865,10 +8865,10 @@
         <v>68</v>
       </c>
       <c r="B752">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C752">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8876,10 +8876,10 @@
         <v>68</v>
       </c>
       <c r="B753">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="C753">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8887,10 +8887,10 @@
         <v>68</v>
       </c>
       <c r="B754">
-        <v>1076</v>
+        <v>24</v>
       </c>
       <c r="C754">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8898,10 +8898,10 @@
         <v>68</v>
       </c>
       <c r="B755">
-        <v>1846</v>
+        <v>163</v>
       </c>
       <c r="C755">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8909,10 +8909,10 @@
         <v>68</v>
       </c>
       <c r="B756">
-        <v>4227</v>
+        <v>1076</v>
       </c>
       <c r="C756">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8920,10 +8920,10 @@
         <v>68</v>
       </c>
       <c r="B757">
-        <v>4235</v>
+        <v>1846</v>
       </c>
       <c r="C757">
-        <v>2011</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8931,10 +8931,10 @@
         <v>68</v>
       </c>
       <c r="B758">
-        <v>4241</v>
+        <v>4227</v>
       </c>
       <c r="C758">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8942,10 +8942,10 @@
         <v>68</v>
       </c>
       <c r="B759">
-        <v>4473</v>
+        <v>4235</v>
       </c>
       <c r="C759">
-        <v>2020</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8953,10 +8953,10 @@
         <v>68</v>
       </c>
       <c r="B760">
-        <v>5674</v>
+        <v>4241</v>
       </c>
       <c r="C760">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8964,10 +8964,10 @@
         <v>68</v>
       </c>
       <c r="B761">
-        <v>6969</v>
+        <v>4473</v>
       </c>
       <c r="C761">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8975,32 +8975,32 @@
         <v>68</v>
       </c>
       <c r="B762">
-        <v>8777</v>
+        <v>5674</v>
       </c>
       <c r="C762">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="763" spans="1:3">
       <c r="A763" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B763">
-        <v>1290</v>
+        <v>6969</v>
       </c>
       <c r="C763">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="764" spans="1:3">
       <c r="A764" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B764">
-        <v>1291</v>
+        <v>8777</v>
       </c>
       <c r="C764">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9008,10 +9008,10 @@
         <v>69</v>
       </c>
       <c r="B765">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C765">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9019,10 +9019,10 @@
         <v>69</v>
       </c>
       <c r="B766">
-        <v>1857</v>
+        <v>1291</v>
       </c>
       <c r="C766">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9030,10 +9030,10 @@
         <v>69</v>
       </c>
       <c r="B767">
-        <v>3710</v>
+        <v>1292</v>
       </c>
       <c r="C767">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9041,10 +9041,10 @@
         <v>69</v>
       </c>
       <c r="B768">
-        <v>4279</v>
+        <v>1857</v>
       </c>
       <c r="C768">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9052,10 +9052,10 @@
         <v>69</v>
       </c>
       <c r="B769">
-        <v>4283</v>
+        <v>3710</v>
       </c>
       <c r="C769">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9063,10 +9063,10 @@
         <v>69</v>
       </c>
       <c r="B770">
-        <v>4288</v>
+        <v>4279</v>
       </c>
       <c r="C770">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9074,10 +9074,10 @@
         <v>69</v>
       </c>
       <c r="B771">
-        <v>6541</v>
+        <v>4283</v>
       </c>
       <c r="C771">
-        <v>2021</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9085,10 +9085,10 @@
         <v>69</v>
       </c>
       <c r="B772">
-        <v>6970</v>
+        <v>4288</v>
       </c>
       <c r="C772">
-        <v>2022</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9096,32 +9096,32 @@
         <v>69</v>
       </c>
       <c r="B773">
-        <v>8845</v>
+        <v>6541</v>
       </c>
       <c r="C773">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="774" spans="1:3">
       <c r="A774" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B774">
-        <v>360</v>
+        <v>6970</v>
       </c>
       <c r="C774">
-        <v>20172018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="775" spans="1:3">
       <c r="A775" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B775">
-        <v>361</v>
+        <v>8845</v>
       </c>
       <c r="C775">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9129,10 +9129,10 @@
         <v>70</v>
       </c>
       <c r="B776">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C776">
-        <v>20152016</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9140,10 +9140,10 @@
         <v>70</v>
       </c>
       <c r="B777">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C777">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9151,10 +9151,10 @@
         <v>70</v>
       </c>
       <c r="B778">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C778">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9162,10 +9162,10 @@
         <v>70</v>
       </c>
       <c r="B779">
-        <v>1618</v>
+        <v>363</v>
       </c>
       <c r="C779">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9173,10 +9173,10 @@
         <v>70</v>
       </c>
       <c r="B780">
-        <v>2317</v>
+        <v>364</v>
       </c>
       <c r="C780">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9184,10 +9184,10 @@
         <v>70</v>
       </c>
       <c r="B781">
-        <v>4751</v>
+        <v>1618</v>
       </c>
       <c r="C781">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9195,10 +9195,10 @@
         <v>70</v>
       </c>
       <c r="B782">
-        <v>5943</v>
+        <v>2317</v>
       </c>
       <c r="C782">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9206,32 +9206,32 @@
         <v>70</v>
       </c>
       <c r="B783">
-        <v>8222</v>
+        <v>4751</v>
       </c>
       <c r="C783">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="784" spans="1:3">
       <c r="A784" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B784">
-        <v>853</v>
+        <v>5943</v>
       </c>
       <c r="C784">
-        <v>2017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="785" spans="1:3">
       <c r="A785" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B785">
-        <v>854</v>
+        <v>8222</v>
       </c>
       <c r="C785">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9239,10 +9239,10 @@
         <v>71</v>
       </c>
       <c r="B786">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C786">
-        <v>20152016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9250,10 +9250,10 @@
         <v>71</v>
       </c>
       <c r="B787">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C787">
-        <v>20142015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9261,10 +9261,10 @@
         <v>71</v>
       </c>
       <c r="B788">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C788">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9272,10 +9272,10 @@
         <v>71</v>
       </c>
       <c r="B789">
-        <v>1095</v>
+        <v>856</v>
       </c>
       <c r="C789">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9283,10 +9283,10 @@
         <v>71</v>
       </c>
       <c r="B790">
-        <v>1905</v>
+        <v>857</v>
       </c>
       <c r="C790">
-        <v>2019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9294,10 +9294,10 @@
         <v>71</v>
       </c>
       <c r="B791">
-        <v>3789</v>
+        <v>1095</v>
       </c>
       <c r="C791">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9305,10 +9305,10 @@
         <v>71</v>
       </c>
       <c r="B792">
-        <v>5809</v>
+        <v>1905</v>
       </c>
       <c r="C792">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9316,10 +9316,10 @@
         <v>71</v>
       </c>
       <c r="B793">
-        <v>7067</v>
+        <v>3789</v>
       </c>
       <c r="C793">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9327,32 +9327,32 @@
         <v>71</v>
       </c>
       <c r="B794">
-        <v>8937</v>
+        <v>5809</v>
       </c>
       <c r="C794">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="795" spans="1:3">
       <c r="A795" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B795">
-        <v>858</v>
+        <v>7067</v>
       </c>
       <c r="C795">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="796" spans="1:3">
       <c r="A796" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B796">
-        <v>859</v>
+        <v>8937</v>
       </c>
       <c r="C796">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9360,10 +9360,10 @@
         <v>72</v>
       </c>
       <c r="B797">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C797">
-        <v>20152016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9371,10 +9371,10 @@
         <v>72</v>
       </c>
       <c r="B798">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C798">
-        <v>20142015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9382,10 +9382,10 @@
         <v>72</v>
       </c>
       <c r="B799">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C799">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9393,10 +9393,10 @@
         <v>72</v>
       </c>
       <c r="B800">
-        <v>1096</v>
+        <v>861</v>
       </c>
       <c r="C800">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9404,10 +9404,10 @@
         <v>72</v>
       </c>
       <c r="B801">
-        <v>1949</v>
+        <v>862</v>
       </c>
       <c r="C801">
-        <v>2019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9415,10 +9415,10 @@
         <v>72</v>
       </c>
       <c r="B802">
-        <v>4651</v>
+        <v>1096</v>
       </c>
       <c r="C802">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9426,10 +9426,10 @@
         <v>72</v>
       </c>
       <c r="B803">
-        <v>5908</v>
+        <v>1949</v>
       </c>
       <c r="C803">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9437,10 +9437,10 @@
         <v>72</v>
       </c>
       <c r="B804">
-        <v>7173</v>
+        <v>4651</v>
       </c>
       <c r="C804">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9448,32 +9448,32 @@
         <v>72</v>
       </c>
       <c r="B805">
-        <v>9288</v>
+        <v>5908</v>
       </c>
       <c r="C805">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="806" spans="1:3">
       <c r="A806" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B806">
-        <v>622</v>
+        <v>7173</v>
       </c>
       <c r="C806">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="807" spans="1:3">
       <c r="A807" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B807">
-        <v>623</v>
+        <v>9288</v>
       </c>
       <c r="C807">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9481,10 +9481,10 @@
         <v>73</v>
       </c>
       <c r="B808">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C808">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9492,10 +9492,10 @@
         <v>73</v>
       </c>
       <c r="B809">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C809">
-        <v>20142015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9503,10 +9503,10 @@
         <v>73</v>
       </c>
       <c r="B810">
-        <v>1102</v>
+        <v>624</v>
       </c>
       <c r="C810">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9514,10 +9514,10 @@
         <v>73</v>
       </c>
       <c r="B811">
-        <v>1868</v>
+        <v>631</v>
       </c>
       <c r="C811">
-        <v>2019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9525,10 +9525,10 @@
         <v>73</v>
       </c>
       <c r="B812">
-        <v>2011</v>
+        <v>1102</v>
       </c>
       <c r="C812">
-        <v>20132014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9536,10 +9536,10 @@
         <v>73</v>
       </c>
       <c r="B813">
-        <v>3714</v>
+        <v>1868</v>
       </c>
       <c r="C813">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9547,10 +9547,10 @@
         <v>73</v>
       </c>
       <c r="B814">
-        <v>5631</v>
+        <v>2011</v>
       </c>
       <c r="C814">
-        <v>2021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9558,10 +9558,10 @@
         <v>73</v>
       </c>
       <c r="B815">
-        <v>7166</v>
+        <v>3714</v>
       </c>
       <c r="C815">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9569,9 +9569,31 @@
         <v>73</v>
       </c>
       <c r="B816">
+        <v>5631</v>
+      </c>
+      <c r="C816">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3">
+      <c r="A817" t="s">
+        <v>73</v>
+      </c>
+      <c r="B817">
+        <v>7166</v>
+      </c>
+      <c r="C817">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3">
+      <c r="A818" t="s">
+        <v>73</v>
+      </c>
+      <c r="B818">
         <v>8952</v>
       </c>
-      <c r="C816">
+      <c r="C818">
         <v>2023</v>
       </c>
     </row>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="74">
   <si>
     <t>League</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C818"/>
+  <dimension ref="A1:C819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7465,13 +7465,13 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B625">
-        <v>416</v>
+        <v>9636</v>
       </c>
       <c r="C625">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>57</v>
       </c>
       <c r="B626">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C626">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>57</v>
       </c>
       <c r="B627">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C627">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>57</v>
       </c>
       <c r="B628">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C628">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>57</v>
       </c>
       <c r="B629">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C629">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>57</v>
       </c>
       <c r="B630">
-        <v>1604</v>
+        <v>420</v>
       </c>
       <c r="C630">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>57</v>
       </c>
       <c r="B631">
-        <v>2254</v>
+        <v>1604</v>
       </c>
       <c r="C631">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>57</v>
       </c>
       <c r="B632">
-        <v>4533</v>
+        <v>2254</v>
       </c>
       <c r="C632">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>57</v>
       </c>
       <c r="B633">
-        <v>6046</v>
+        <v>4533</v>
       </c>
       <c r="C633">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7567,21 +7567,21 @@
         <v>57</v>
       </c>
       <c r="B634">
-        <v>7492</v>
+        <v>6046</v>
       </c>
       <c r="C634">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B635">
-        <v>439</v>
+        <v>7492</v>
       </c>
       <c r="C635">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>58</v>
       </c>
       <c r="B636">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C636">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>58</v>
       </c>
       <c r="B637">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C637">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>58</v>
       </c>
       <c r="B638">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C638">
-        <v>20172018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>58</v>
       </c>
       <c r="B639">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C639">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>58</v>
       </c>
       <c r="B640">
-        <v>1606</v>
+        <v>448</v>
       </c>
       <c r="C640">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>58</v>
       </c>
       <c r="B641">
-        <v>2256</v>
+        <v>1606</v>
       </c>
       <c r="C641">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>58</v>
       </c>
       <c r="B642">
-        <v>4572</v>
+        <v>2256</v>
       </c>
       <c r="C642">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>58</v>
       </c>
       <c r="B643">
-        <v>5944</v>
+        <v>4572</v>
       </c>
       <c r="C643">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7677,21 +7677,21 @@
         <v>58</v>
       </c>
       <c r="B644">
-        <v>7958</v>
+        <v>5944</v>
       </c>
       <c r="C644">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B645">
-        <v>426</v>
+        <v>7958</v>
       </c>
       <c r="C645">
-        <v>20172018</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>59</v>
       </c>
       <c r="B646">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C646">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>59</v>
       </c>
       <c r="B647">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C647">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>59</v>
       </c>
       <c r="B648">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C648">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>59</v>
       </c>
       <c r="B649">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C649">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>59</v>
       </c>
       <c r="B650">
-        <v>1608</v>
+        <v>433</v>
       </c>
       <c r="C650">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>59</v>
       </c>
       <c r="B651">
-        <v>2251</v>
+        <v>1608</v>
       </c>
       <c r="C651">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>59</v>
       </c>
       <c r="B652">
-        <v>4635</v>
+        <v>2251</v>
       </c>
       <c r="C652">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>59</v>
       </c>
       <c r="B653">
-        <v>6048</v>
+        <v>4635</v>
       </c>
       <c r="C653">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>59</v>
       </c>
       <c r="B654">
-        <v>7526</v>
+        <v>6048</v>
       </c>
       <c r="C654">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7798,21 +7798,21 @@
         <v>59</v>
       </c>
       <c r="B655">
-        <v>9579</v>
+        <v>7526</v>
       </c>
       <c r="C655">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="A656" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B656">
-        <v>747</v>
+        <v>9579</v>
       </c>
       <c r="C656">
-        <v>2017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7820,10 +7820,10 @@
         <v>60</v>
       </c>
       <c r="B657">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C657">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7831,10 +7831,10 @@
         <v>60</v>
       </c>
       <c r="B658">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C658">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7842,10 +7842,10 @@
         <v>60</v>
       </c>
       <c r="B659">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C659">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7853,10 +7853,10 @@
         <v>60</v>
       </c>
       <c r="B660">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C660">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7864,10 +7864,10 @@
         <v>60</v>
       </c>
       <c r="B661">
-        <v>1115</v>
+        <v>751</v>
       </c>
       <c r="C661">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7875,10 +7875,10 @@
         <v>60</v>
       </c>
       <c r="B662">
-        <v>1862</v>
+        <v>1115</v>
       </c>
       <c r="C662">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7886,10 +7886,10 @@
         <v>60</v>
       </c>
       <c r="B663">
-        <v>4379</v>
+        <v>1862</v>
       </c>
       <c r="C663">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7897,10 +7897,10 @@
         <v>60</v>
       </c>
       <c r="B664">
-        <v>5506</v>
+        <v>4379</v>
       </c>
       <c r="C664">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7908,10 +7908,10 @@
         <v>60</v>
       </c>
       <c r="B665">
-        <v>7061</v>
+        <v>5506</v>
       </c>
       <c r="C665">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7919,21 +7919,21 @@
         <v>60</v>
       </c>
       <c r="B666">
-        <v>8899</v>
+        <v>7061</v>
       </c>
       <c r="C666">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="667" spans="1:3">
       <c r="A667" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B667">
-        <v>752</v>
+        <v>8899</v>
       </c>
       <c r="C667">
-        <v>2015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7941,10 +7941,10 @@
         <v>61</v>
       </c>
       <c r="B668">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C668">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7952,10 +7952,10 @@
         <v>61</v>
       </c>
       <c r="B669">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C669">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7963,10 +7963,10 @@
         <v>61</v>
       </c>
       <c r="B670">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C670">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7974,10 +7974,10 @@
         <v>61</v>
       </c>
       <c r="B671">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C671">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7985,10 +7985,10 @@
         <v>61</v>
       </c>
       <c r="B672">
-        <v>1121</v>
+        <v>761</v>
       </c>
       <c r="C672">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7996,10 +7996,10 @@
         <v>61</v>
       </c>
       <c r="B673">
-        <v>1863</v>
+        <v>1121</v>
       </c>
       <c r="C673">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8007,10 +8007,10 @@
         <v>61</v>
       </c>
       <c r="B674">
-        <v>4381</v>
+        <v>1863</v>
       </c>
       <c r="C674">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8018,10 +8018,10 @@
         <v>61</v>
       </c>
       <c r="B675">
-        <v>5504</v>
+        <v>4381</v>
       </c>
       <c r="C675">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8029,10 +8029,10 @@
         <v>61</v>
       </c>
       <c r="B676">
-        <v>7062</v>
+        <v>5504</v>
       </c>
       <c r="C676">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8040,21 +8040,21 @@
         <v>61</v>
       </c>
       <c r="B677">
-        <v>8938</v>
+        <v>7062</v>
       </c>
       <c r="C677">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="678" spans="1:3">
       <c r="A678" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B678">
-        <v>34</v>
+        <v>8938</v>
       </c>
       <c r="C678">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8062,10 +8062,10 @@
         <v>62</v>
       </c>
       <c r="B679">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C679">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8073,10 +8073,10 @@
         <v>62</v>
       </c>
       <c r="B680">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C680">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8084,10 +8084,10 @@
         <v>62</v>
       </c>
       <c r="B681">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C681">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8095,10 +8095,10 @@
         <v>62</v>
       </c>
       <c r="B682">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C682">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8106,10 +8106,10 @@
         <v>62</v>
       </c>
       <c r="B683">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="C683">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8117,10 +8117,10 @@
         <v>62</v>
       </c>
       <c r="B684">
-        <v>1677</v>
+        <v>171</v>
       </c>
       <c r="C684">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8128,10 +8128,10 @@
         <v>62</v>
       </c>
       <c r="B685">
-        <v>2319</v>
+        <v>1677</v>
       </c>
       <c r="C685">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8139,10 +8139,10 @@
         <v>62</v>
       </c>
       <c r="B686">
-        <v>3631</v>
+        <v>2319</v>
       </c>
       <c r="C686">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8150,10 +8150,10 @@
         <v>62</v>
       </c>
       <c r="B687">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C687">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8161,10 +8161,10 @@
         <v>62</v>
       </c>
       <c r="B688">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="C688">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8172,10 +8172,10 @@
         <v>62</v>
       </c>
       <c r="B689">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="C689">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8183,10 +8183,10 @@
         <v>62</v>
       </c>
       <c r="B690">
-        <v>4944</v>
+        <v>3637</v>
       </c>
       <c r="C690">
-        <v>20202021</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8194,10 +8194,10 @@
         <v>62</v>
       </c>
       <c r="B691">
-        <v>6211</v>
+        <v>4944</v>
       </c>
       <c r="C691">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8205,21 +8205,21 @@
         <v>62</v>
       </c>
       <c r="B692">
-        <v>7665</v>
+        <v>6211</v>
       </c>
       <c r="C692">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="693" spans="1:3">
       <c r="A693" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B693">
-        <v>39</v>
+        <v>7665</v>
       </c>
       <c r="C693">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8227,10 +8227,10 @@
         <v>63</v>
       </c>
       <c r="B694">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C694">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8238,10 +8238,10 @@
         <v>63</v>
       </c>
       <c r="B695">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C695">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8249,10 +8249,10 @@
         <v>63</v>
       </c>
       <c r="B696">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C696">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8260,10 +8260,10 @@
         <v>63</v>
       </c>
       <c r="B697">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C697">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8271,10 +8271,10 @@
         <v>63</v>
       </c>
       <c r="B698">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="C698">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8282,10 +8282,10 @@
         <v>63</v>
       </c>
       <c r="B699">
-        <v>1670</v>
+        <v>172</v>
       </c>
       <c r="C699">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8293,10 +8293,10 @@
         <v>63</v>
       </c>
       <c r="B700">
-        <v>2415</v>
+        <v>1670</v>
       </c>
       <c r="C700">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8304,10 +8304,10 @@
         <v>63</v>
       </c>
       <c r="B701">
-        <v>4167</v>
+        <v>2415</v>
       </c>
       <c r="C701">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8315,10 +8315,10 @@
         <v>63</v>
       </c>
       <c r="B702">
-        <v>4245</v>
+        <v>4167</v>
       </c>
       <c r="C702">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8326,10 +8326,10 @@
         <v>63</v>
       </c>
       <c r="B703">
-        <v>4249</v>
+        <v>4245</v>
       </c>
       <c r="C703">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8337,10 +8337,10 @@
         <v>63</v>
       </c>
       <c r="B704">
-        <v>4842</v>
+        <v>4249</v>
       </c>
       <c r="C704">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8348,10 +8348,10 @@
         <v>63</v>
       </c>
       <c r="B705">
-        <v>6120</v>
+        <v>4842</v>
       </c>
       <c r="C705">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8359,21 +8359,21 @@
         <v>63</v>
       </c>
       <c r="B706">
-        <v>7592</v>
+        <v>6120</v>
       </c>
       <c r="C706">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="707" spans="1:3">
       <c r="A707" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B707">
-        <v>104</v>
+        <v>7592</v>
       </c>
       <c r="C707">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8381,10 +8381,10 @@
         <v>64</v>
       </c>
       <c r="B708">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C708">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8392,10 +8392,10 @@
         <v>64</v>
       </c>
       <c r="B709">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C709">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8403,10 +8403,10 @@
         <v>64</v>
       </c>
       <c r="B710">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C710">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8414,10 +8414,10 @@
         <v>64</v>
       </c>
       <c r="B711">
-        <v>994</v>
+        <v>107</v>
       </c>
       <c r="C711">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8425,10 +8425,10 @@
         <v>64</v>
       </c>
       <c r="B712">
-        <v>1848</v>
+        <v>994</v>
       </c>
       <c r="C712">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8436,10 +8436,10 @@
         <v>64</v>
       </c>
       <c r="B713">
-        <v>3703</v>
+        <v>1848</v>
       </c>
       <c r="C713">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8447,10 +8447,10 @@
         <v>64</v>
       </c>
       <c r="B714">
-        <v>4307</v>
+        <v>3703</v>
       </c>
       <c r="C714">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8458,10 +8458,10 @@
         <v>64</v>
       </c>
       <c r="B715">
-        <v>4315</v>
+        <v>4307</v>
       </c>
       <c r="C715">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8469,10 +8469,10 @@
         <v>64</v>
       </c>
       <c r="B716">
-        <v>4329</v>
+        <v>4315</v>
       </c>
       <c r="C716">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8480,10 +8480,10 @@
         <v>64</v>
       </c>
       <c r="B717">
-        <v>5505</v>
+        <v>4329</v>
       </c>
       <c r="C717">
-        <v>2021</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8491,10 +8491,10 @@
         <v>64</v>
       </c>
       <c r="B718">
-        <v>7064</v>
+        <v>5505</v>
       </c>
       <c r="C718">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8502,21 +8502,21 @@
         <v>64</v>
       </c>
       <c r="B719">
-        <v>8737</v>
+        <v>7064</v>
       </c>
       <c r="C719">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="720" spans="1:3">
       <c r="A720" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B720">
-        <v>136</v>
+        <v>8737</v>
       </c>
       <c r="C720">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8524,10 +8524,10 @@
         <v>65</v>
       </c>
       <c r="B721">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C721">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8535,10 +8535,10 @@
         <v>65</v>
       </c>
       <c r="B722">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C722">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8546,10 +8546,10 @@
         <v>65</v>
       </c>
       <c r="B723">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C723">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8557,10 +8557,10 @@
         <v>65</v>
       </c>
       <c r="B724">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C724">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8568,10 +8568,10 @@
         <v>65</v>
       </c>
       <c r="B725">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C725">
-        <v>20172018</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8579,10 +8579,10 @@
         <v>65</v>
       </c>
       <c r="B726">
-        <v>1610</v>
+        <v>186</v>
       </c>
       <c r="C726">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8590,10 +8590,10 @@
         <v>65</v>
       </c>
       <c r="B727">
-        <v>2249</v>
+        <v>1610</v>
       </c>
       <c r="C727">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8601,10 +8601,10 @@
         <v>65</v>
       </c>
       <c r="B728">
-        <v>4906</v>
+        <v>2249</v>
       </c>
       <c r="C728">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8612,10 +8612,10 @@
         <v>65</v>
       </c>
       <c r="B729">
-        <v>6044</v>
+        <v>4906</v>
       </c>
       <c r="C729">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8623,10 +8623,10 @@
         <v>65</v>
       </c>
       <c r="B730">
-        <v>7504</v>
+        <v>6044</v>
       </c>
       <c r="C730">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8634,21 +8634,21 @@
         <v>65</v>
       </c>
       <c r="B731">
-        <v>9580</v>
+        <v>7504</v>
       </c>
       <c r="C731">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="732" spans="1:3">
       <c r="A732" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B732">
-        <v>798</v>
+        <v>9580</v>
       </c>
       <c r="C732">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8656,10 +8656,10 @@
         <v>66</v>
       </c>
       <c r="B733">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C733">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8667,10 +8667,10 @@
         <v>66</v>
       </c>
       <c r="B734">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C734">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8678,10 +8678,10 @@
         <v>66</v>
       </c>
       <c r="B735">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C735">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8689,10 +8689,10 @@
         <v>66</v>
       </c>
       <c r="B736">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C736">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8700,10 +8700,10 @@
         <v>66</v>
       </c>
       <c r="B737">
-        <v>1644</v>
+        <v>802</v>
       </c>
       <c r="C737">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8711,10 +8711,10 @@
         <v>66</v>
       </c>
       <c r="B738">
-        <v>2650</v>
+        <v>1644</v>
       </c>
       <c r="C738">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8722,10 +8722,10 @@
         <v>66</v>
       </c>
       <c r="B739">
-        <v>5257</v>
+        <v>2650</v>
       </c>
       <c r="C739">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8733,10 +8733,10 @@
         <v>66</v>
       </c>
       <c r="B740">
-        <v>6726</v>
+        <v>5257</v>
       </c>
       <c r="C740">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8744,21 +8744,21 @@
         <v>66</v>
       </c>
       <c r="B741">
-        <v>8428</v>
+        <v>6726</v>
       </c>
       <c r="C741">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="742" spans="1:3">
       <c r="A742" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B742">
-        <v>19</v>
+        <v>8428</v>
       </c>
       <c r="C742">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8766,10 +8766,10 @@
         <v>67</v>
       </c>
       <c r="B743">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C743">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8777,10 +8777,10 @@
         <v>67</v>
       </c>
       <c r="B744">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C744">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8788,10 +8788,10 @@
         <v>67</v>
       </c>
       <c r="B745">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="C745">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8799,10 +8799,10 @@
         <v>67</v>
       </c>
       <c r="B746">
-        <v>1614</v>
+        <v>175</v>
       </c>
       <c r="C746">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8810,10 +8810,10 @@
         <v>67</v>
       </c>
       <c r="B747">
-        <v>2648</v>
+        <v>1614</v>
       </c>
       <c r="C747">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8821,10 +8821,10 @@
         <v>67</v>
       </c>
       <c r="B748">
-        <v>4840</v>
+        <v>2648</v>
       </c>
       <c r="C748">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8832,10 +8832,10 @@
         <v>67</v>
       </c>
       <c r="B749">
-        <v>6125</v>
+        <v>4840</v>
       </c>
       <c r="C749">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8843,21 +8843,21 @@
         <v>67</v>
       </c>
       <c r="B750">
-        <v>7768</v>
+        <v>6125</v>
       </c>
       <c r="C750">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="751" spans="1:3">
       <c r="A751" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B751">
-        <v>1</v>
+        <v>7768</v>
       </c>
       <c r="C751">
-        <v>2016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8865,10 +8865,10 @@
         <v>68</v>
       </c>
       <c r="B752">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C752">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8876,10 +8876,10 @@
         <v>68</v>
       </c>
       <c r="B753">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C753">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8887,10 +8887,10 @@
         <v>68</v>
       </c>
       <c r="B754">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C754">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8898,10 +8898,10 @@
         <v>68</v>
       </c>
       <c r="B755">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="C755">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8909,10 +8909,10 @@
         <v>68</v>
       </c>
       <c r="B756">
-        <v>1076</v>
+        <v>163</v>
       </c>
       <c r="C756">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8920,10 +8920,10 @@
         <v>68</v>
       </c>
       <c r="B757">
-        <v>1846</v>
+        <v>1076</v>
       </c>
       <c r="C757">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8931,10 +8931,10 @@
         <v>68</v>
       </c>
       <c r="B758">
-        <v>4227</v>
+        <v>1846</v>
       </c>
       <c r="C758">
-        <v>2012</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8942,10 +8942,10 @@
         <v>68</v>
       </c>
       <c r="B759">
-        <v>4235</v>
+        <v>4227</v>
       </c>
       <c r="C759">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8953,10 +8953,10 @@
         <v>68</v>
       </c>
       <c r="B760">
-        <v>4241</v>
+        <v>4235</v>
       </c>
       <c r="C760">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8964,10 +8964,10 @@
         <v>68</v>
       </c>
       <c r="B761">
-        <v>4473</v>
+        <v>4241</v>
       </c>
       <c r="C761">
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8975,10 +8975,10 @@
         <v>68</v>
       </c>
       <c r="B762">
-        <v>5674</v>
+        <v>4473</v>
       </c>
       <c r="C762">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8986,10 +8986,10 @@
         <v>68</v>
       </c>
       <c r="B763">
-        <v>6969</v>
+        <v>5674</v>
       </c>
       <c r="C763">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8997,21 +8997,21 @@
         <v>68</v>
       </c>
       <c r="B764">
-        <v>8777</v>
+        <v>6969</v>
       </c>
       <c r="C764">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="765" spans="1:3">
       <c r="A765" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B765">
-        <v>1290</v>
+        <v>8777</v>
       </c>
       <c r="C765">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9019,10 +9019,10 @@
         <v>69</v>
       </c>
       <c r="B766">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C766">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9030,10 +9030,10 @@
         <v>69</v>
       </c>
       <c r="B767">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C767">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9041,10 +9041,10 @@
         <v>69</v>
       </c>
       <c r="B768">
-        <v>1857</v>
+        <v>1292</v>
       </c>
       <c r="C768">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9052,10 +9052,10 @@
         <v>69</v>
       </c>
       <c r="B769">
-        <v>3710</v>
+        <v>1857</v>
       </c>
       <c r="C769">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9063,10 +9063,10 @@
         <v>69</v>
       </c>
       <c r="B770">
-        <v>4279</v>
+        <v>3710</v>
       </c>
       <c r="C770">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9074,10 +9074,10 @@
         <v>69</v>
       </c>
       <c r="B771">
-        <v>4283</v>
+        <v>4279</v>
       </c>
       <c r="C771">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9085,10 +9085,10 @@
         <v>69</v>
       </c>
       <c r="B772">
-        <v>4288</v>
+        <v>4283</v>
       </c>
       <c r="C772">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9096,10 +9096,10 @@
         <v>69</v>
       </c>
       <c r="B773">
-        <v>6541</v>
+        <v>4288</v>
       </c>
       <c r="C773">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9107,10 +9107,10 @@
         <v>69</v>
       </c>
       <c r="B774">
-        <v>6970</v>
+        <v>6541</v>
       </c>
       <c r="C774">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9118,21 +9118,21 @@
         <v>69</v>
       </c>
       <c r="B775">
-        <v>8845</v>
+        <v>6970</v>
       </c>
       <c r="C775">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="776" spans="1:3">
       <c r="A776" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B776">
-        <v>360</v>
+        <v>8845</v>
       </c>
       <c r="C776">
-        <v>20172018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9140,10 +9140,10 @@
         <v>70</v>
       </c>
       <c r="B777">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C777">
-        <v>20162017</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9151,10 +9151,10 @@
         <v>70</v>
       </c>
       <c r="B778">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C778">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9162,10 +9162,10 @@
         <v>70</v>
       </c>
       <c r="B779">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C779">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9173,10 +9173,10 @@
         <v>70</v>
       </c>
       <c r="B780">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C780">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9184,10 +9184,10 @@
         <v>70</v>
       </c>
       <c r="B781">
-        <v>1618</v>
+        <v>364</v>
       </c>
       <c r="C781">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9195,10 +9195,10 @@
         <v>70</v>
       </c>
       <c r="B782">
-        <v>2317</v>
+        <v>1618</v>
       </c>
       <c r="C782">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9206,10 +9206,10 @@
         <v>70</v>
       </c>
       <c r="B783">
-        <v>4751</v>
+        <v>2317</v>
       </c>
       <c r="C783">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9217,10 +9217,10 @@
         <v>70</v>
       </c>
       <c r="B784">
-        <v>5943</v>
+        <v>4751</v>
       </c>
       <c r="C784">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9228,21 +9228,21 @@
         <v>70</v>
       </c>
       <c r="B785">
-        <v>8222</v>
+        <v>5943</v>
       </c>
       <c r="C785">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="786" spans="1:3">
       <c r="A786" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B786">
-        <v>853</v>
+        <v>8222</v>
       </c>
       <c r="C786">
-        <v>2017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9250,10 +9250,10 @@
         <v>71</v>
       </c>
       <c r="B787">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C787">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9261,10 +9261,10 @@
         <v>71</v>
       </c>
       <c r="B788">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C788">
-        <v>20152016</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9272,10 +9272,10 @@
         <v>71</v>
       </c>
       <c r="B789">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C789">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9283,10 +9283,10 @@
         <v>71</v>
       </c>
       <c r="B790">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C790">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9294,10 +9294,10 @@
         <v>71</v>
       </c>
       <c r="B791">
-        <v>1095</v>
+        <v>857</v>
       </c>
       <c r="C791">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9305,10 +9305,10 @@
         <v>71</v>
       </c>
       <c r="B792">
-        <v>1905</v>
+        <v>1095</v>
       </c>
       <c r="C792">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9316,10 +9316,10 @@
         <v>71</v>
       </c>
       <c r="B793">
-        <v>3789</v>
+        <v>1905</v>
       </c>
       <c r="C793">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9327,10 +9327,10 @@
         <v>71</v>
       </c>
       <c r="B794">
-        <v>5809</v>
+        <v>3789</v>
       </c>
       <c r="C794">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9338,10 +9338,10 @@
         <v>71</v>
       </c>
       <c r="B795">
-        <v>7067</v>
+        <v>5809</v>
       </c>
       <c r="C795">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9349,21 +9349,21 @@
         <v>71</v>
       </c>
       <c r="B796">
-        <v>8937</v>
+        <v>7067</v>
       </c>
       <c r="C796">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="797" spans="1:3">
       <c r="A797" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B797">
-        <v>858</v>
+        <v>8937</v>
       </c>
       <c r="C797">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9371,10 +9371,10 @@
         <v>72</v>
       </c>
       <c r="B798">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C798">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9382,10 +9382,10 @@
         <v>72</v>
       </c>
       <c r="B799">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C799">
-        <v>20152016</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9393,10 +9393,10 @@
         <v>72</v>
       </c>
       <c r="B800">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C800">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9404,10 +9404,10 @@
         <v>72</v>
       </c>
       <c r="B801">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C801">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9415,10 +9415,10 @@
         <v>72</v>
       </c>
       <c r="B802">
-        <v>1096</v>
+        <v>862</v>
       </c>
       <c r="C802">
-        <v>2018</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9426,10 +9426,10 @@
         <v>72</v>
       </c>
       <c r="B803">
-        <v>1949</v>
+        <v>1096</v>
       </c>
       <c r="C803">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9437,10 +9437,10 @@
         <v>72</v>
       </c>
       <c r="B804">
-        <v>4651</v>
+        <v>1949</v>
       </c>
       <c r="C804">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9448,10 +9448,10 @@
         <v>72</v>
       </c>
       <c r="B805">
-        <v>5908</v>
+        <v>4651</v>
       </c>
       <c r="C805">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9459,10 +9459,10 @@
         <v>72</v>
       </c>
       <c r="B806">
-        <v>7173</v>
+        <v>5908</v>
       </c>
       <c r="C806">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9470,21 +9470,21 @@
         <v>72</v>
       </c>
       <c r="B807">
-        <v>9288</v>
+        <v>7173</v>
       </c>
       <c r="C807">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="808" spans="1:3">
       <c r="A808" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B808">
-        <v>622</v>
+        <v>9288</v>
       </c>
       <c r="C808">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9492,10 +9492,10 @@
         <v>73</v>
       </c>
       <c r="B809">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C809">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9503,10 +9503,10 @@
         <v>73</v>
       </c>
       <c r="B810">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C810">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9514,10 +9514,10 @@
         <v>73</v>
       </c>
       <c r="B811">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C811">
-        <v>20142015</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9525,10 +9525,10 @@
         <v>73</v>
       </c>
       <c r="B812">
-        <v>1102</v>
+        <v>631</v>
       </c>
       <c r="C812">
-        <v>2018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9536,10 +9536,10 @@
         <v>73</v>
       </c>
       <c r="B813">
-        <v>1868</v>
+        <v>1102</v>
       </c>
       <c r="C813">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9547,10 +9547,10 @@
         <v>73</v>
       </c>
       <c r="B814">
-        <v>2011</v>
+        <v>1868</v>
       </c>
       <c r="C814">
-        <v>20132014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9558,10 +9558,10 @@
         <v>73</v>
       </c>
       <c r="B815">
-        <v>3714</v>
+        <v>2011</v>
       </c>
       <c r="C815">
-        <v>2020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9569,10 +9569,10 @@
         <v>73</v>
       </c>
       <c r="B816">
-        <v>5631</v>
+        <v>3714</v>
       </c>
       <c r="C816">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9580,10 +9580,10 @@
         <v>73</v>
       </c>
       <c r="B817">
-        <v>7166</v>
+        <v>5631</v>
       </c>
       <c r="C817">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9591,9 +9591,20 @@
         <v>73</v>
       </c>
       <c r="B818">
+        <v>7166</v>
+      </c>
+      <c r="C818">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3">
+      <c r="A819" t="s">
+        <v>73</v>
+      </c>
+      <c r="B819">
         <v>8952</v>
       </c>
-      <c r="C818">
+      <c r="C819">
         <v>2023</v>
       </c>
     </row>

--- a/ligas_arkard.xlsx
+++ b/ligas_arkard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="74">
   <si>
     <t>League</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C819"/>
+  <dimension ref="A1:C825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4176,13 +4176,13 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B326">
-        <v>58</v>
+        <v>9660</v>
       </c>
       <c r="C326">
-        <v>2017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>32</v>
       </c>
       <c r="B327">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C327">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>32</v>
       </c>
       <c r="B328">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C328">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>32</v>
       </c>
       <c r="B329">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C329">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>32</v>
       </c>
       <c r="B330">
-        <v>1191</v>
+        <v>72</v>
       </c>
       <c r="C330">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>32</v>
       </c>
       <c r="B331">
-        <v>1874</v>
+        <v>1191</v>
       </c>
       <c r="C331">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>32</v>
       </c>
       <c r="B332">
-        <v>3645</v>
+        <v>1874</v>
       </c>
       <c r="C332">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>32</v>
       </c>
       <c r="B333">
-        <v>5477</v>
+        <v>3645</v>
       </c>
       <c r="C333">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>32</v>
       </c>
       <c r="B334">
-        <v>7120</v>
+        <v>5477</v>
       </c>
       <c r="C334">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4278,21 +4278,21 @@
         <v>32</v>
       </c>
       <c r="B335">
-        <v>8935</v>
+        <v>7120</v>
       </c>
       <c r="C335">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B336">
-        <v>65</v>
+        <v>8935</v>
       </c>
       <c r="C336">
-        <v>20162017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>33</v>
       </c>
       <c r="B337">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C337">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="B338">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C338">
-        <v>20132014</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>33</v>
       </c>
       <c r="B339">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C339">
-        <v>20152016</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>33</v>
       </c>
       <c r="B340">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="C340">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>33</v>
       </c>
       <c r="B341">
-        <v>1508</v>
+        <v>180</v>
       </c>
       <c r="C341">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>33</v>
       </c>
       <c r="B342">
-        <v>2392</v>
+        <v>1508</v>
       </c>
       <c r="C342">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>33</v>
       </c>
       <c r="B343">
-        <v>4127</v>
+        <v>2392</v>
       </c>
       <c r="C343">
-        <v>20122013</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>33</v>
       </c>
       <c r="B344">
-        <v>4136</v>
+        <v>4127</v>
       </c>
       <c r="C344">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>33</v>
       </c>
       <c r="B345">
-        <v>4193</v>
+        <v>4136</v>
       </c>
       <c r="C345">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>33</v>
       </c>
       <c r="B346">
-        <v>4199</v>
+        <v>4193</v>
       </c>
       <c r="C346">
-        <v>20092010</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>33</v>
       </c>
       <c r="B347">
-        <v>4505</v>
+        <v>4199</v>
       </c>
       <c r="C347">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>33</v>
       </c>
       <c r="B348">
-        <v>6019</v>
+        <v>4505</v>
       </c>
       <c r="C348">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4432,21 +4432,21 @@
         <v>33</v>
       </c>
       <c r="B349">
-        <v>7500</v>
+        <v>6019</v>
       </c>
       <c r="C349">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B350">
-        <v>73</v>
+        <v>7500</v>
       </c>
       <c r="C350">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>34</v>
       </c>
       <c r="B351">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C351">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>34</v>
       </c>
       <c r="B352">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C352">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>34</v>
       </c>
       <c r="B353">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C353">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>34</v>
       </c>
       <c r="B354">
-        <v>1579</v>
+        <v>181</v>
       </c>
       <c r="C354">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>34</v>
       </c>
       <c r="B355">
-        <v>2396</v>
+        <v>1579</v>
       </c>
       <c r="C355">
-        <v>20192020</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>34</v>
       </c>
       <c r="B356">
-        <v>4164</v>
+        <v>2396</v>
       </c>
       <c r="C356">
-        <v>20132014</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>34</v>
       </c>
       <c r="B357">
-        <v>4185</v>
+        <v>4164</v>
       </c>
       <c r="C357">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>34</v>
       </c>
       <c r="B358">
-        <v>4645</v>
+        <v>4185</v>
       </c>
       <c r="C358">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>34</v>
       </c>
       <c r="B359">
-        <v>6018</v>
+        <v>4645</v>
       </c>
       <c r="C359">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>34</v>
       </c>
       <c r="B360">
-        <v>7501</v>
+        <v>6018</v>
       </c>
       <c r="C360">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4564,21 +4564,21 @@
         <v>34</v>
       </c>
       <c r="B361">
-        <v>9621</v>
+        <v>7501</v>
       </c>
       <c r="C361">
-        <v>20232024</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B362">
-        <v>83</v>
+        <v>9621</v>
       </c>
       <c r="C362">
-        <v>20162017</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>35</v>
       </c>
       <c r="B363">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C363">
-        <v>20152016</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>35</v>
       </c>
       <c r="B364">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C364">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>35</v>
       </c>
       <c r="B365">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="C365">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>35</v>
       </c>
       <c r="B366">
-        <v>1578</v>
+        <v>188</v>
       </c>
       <c r="C366">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>35</v>
       </c>
       <c r="B367">
-        <v>4131</v>
+        <v>1578</v>
       </c>
       <c r="C367">
-        <v>20132014</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>35</v>
       </c>
       <c r="B368">
-        <v>4168</v>
+        <v>4131</v>
       </c>
       <c r="C368">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>35</v>
       </c>
       <c r="B369">
-        <v>4195</v>
+        <v>4168</v>
       </c>
       <c r="C369">
-        <v>20112012</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>35</v>
       </c>
       <c r="B370">
-        <v>4200</v>
+        <v>4195</v>
       </c>
       <c r="C370">
-        <v>20102011</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>35</v>
       </c>
       <c r="B371">
-        <v>4388</v>
+        <v>4200</v>
       </c>
       <c r="C371">
-        <v>20192020</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>35</v>
       </c>
       <c r="B372">
-        <v>4676</v>
+        <v>4388</v>
       </c>
       <c r="C372">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>35</v>
       </c>
       <c r="B373">
-        <v>6020</v>
+        <v>4676</v>
       </c>
       <c r="C373">
-        <v>20212022</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4707,32 +4707,32 @@
         <v>35</v>
       </c>
       <c r="B374">
-        <v>7499</v>
+        <v>6020</v>
       </c>
       <c r="C374">
-        <v>20222023</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>7499</v>
       </c>
       <c r="C375">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>9656</v>
       </c>
       <c r="C376">
-        <v>20152016</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>36</v>
       </c>
       <c r="B377">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C377">
-        <v>20142015</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>36</v>
       </c>
       <c r="B378">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C378">
-        <v>20132014</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>36</v>
       </c>
       <c r="B379">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="C379">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>36</v>
       </c>
       <c r="B380">
-        <v>1636</v>
+        <v>7</v>
       </c>
       <c r="C380">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>36</v>
       </c>
       <c r="B381">
-        <v>4105</v>
+        <v>177</v>
       </c>
       <c r="C381">
-        <v>20122013</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>36</v>
       </c>
       <c r="B382">
-        <v>4123</v>
+        <v>1636</v>
       </c>
       <c r="C382">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>36</v>
       </c>
       <c r="B383">
-        <v>4133</v>
+        <v>4105</v>
       </c>
       <c r="C383">
-        <v>20102011</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>36</v>
       </c>
       <c r="B384">
-        <v>4140</v>
+        <v>4123</v>
       </c>
       <c r="C384">
-        <v>20092010</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>36</v>
       </c>
       <c r="B385">
-        <v>4392</v>
+        <v>4133</v>
       </c>
       <c r="C385">
-        <v>20192020</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>36</v>
       </c>
       <c r="B386">
-        <v>4624</v>
+        <v>4140</v>
       </c>
       <c r="C386">
-        <v>20082009</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>36</v>
       </c>
       <c r="B387">
-        <v>4628</v>
+        <v>4392</v>
       </c>
       <c r="C387">
-        <v>20072008</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>36</v>
       </c>
       <c r="B388">
-        <v>4629</v>
+        <v>4624</v>
       </c>
       <c r="C388">
-        <v>20062007</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>36</v>
       </c>
       <c r="B389">
-        <v>4673</v>
+        <v>4628</v>
       </c>
       <c r="C389">
-        <v>20202021</v>
+        <v>20072008</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>36</v>
       </c>
       <c r="B390">
-        <v>6192</v>
+        <v>4629</v>
       </c>
       <c r="C390">
-        <v>20212022</v>
+        <v>20062007</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4894,43 +4894,43 @@
         <v>36</v>
       </c>
       <c r="B391">
-        <v>7664</v>
+        <v>4673</v>
       </c>
       <c r="C391">
-        <v>20222023</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B392">
-        <v>207</v>
+        <v>6192</v>
       </c>
       <c r="C392">
-        <v>20172018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B393">
-        <v>208</v>
+        <v>7664</v>
       </c>
       <c r="C393">
-        <v>20162017</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B394">
-        <v>209</v>
+        <v>9655</v>
       </c>
       <c r="C394">
-        <v>20152016</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>37</v>
       </c>
       <c r="B395">
-        <v>933</v>
+        <v>207</v>
       </c>
       <c r="C395">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>37</v>
       </c>
       <c r="B396">
-        <v>934</v>
+        <v>208</v>
       </c>
       <c r="C396">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>37</v>
       </c>
       <c r="B397">
-        <v>1752</v>
+        <v>209</v>
       </c>
       <c r="C397">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>37</v>
       </c>
       <c r="B398">
-        <v>2667</v>
+        <v>933</v>
       </c>
       <c r="C398">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>37</v>
       </c>
       <c r="B399">
-        <v>4957</v>
+        <v>934</v>
       </c>
       <c r="C399">
-        <v>20202021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>37</v>
       </c>
       <c r="B400">
-        <v>6282</v>
+        <v>1752</v>
       </c>
       <c r="C400">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5004,43 +5004,43 @@
         <v>37</v>
       </c>
       <c r="B401">
-        <v>7954</v>
+        <v>2667</v>
       </c>
       <c r="C401">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B402">
-        <v>726</v>
+        <v>4957</v>
       </c>
       <c r="C402">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B403">
-        <v>727</v>
+        <v>6282</v>
       </c>
       <c r="C403">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B404">
-        <v>728</v>
+        <v>7954</v>
       </c>
       <c r="C404">
-        <v>20132014</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>38</v>
       </c>
       <c r="B405">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C405">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>38</v>
       </c>
       <c r="B406">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C406">
-        <v>20142015</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>38</v>
       </c>
       <c r="B407">
-        <v>1566</v>
+        <v>728</v>
       </c>
       <c r="C407">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>38</v>
       </c>
       <c r="B408">
-        <v>2282</v>
+        <v>730</v>
       </c>
       <c r="C408">
-        <v>20192020</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>38</v>
       </c>
       <c r="B409">
-        <v>4534</v>
+        <v>731</v>
       </c>
       <c r="C409">
-        <v>20202021</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>38</v>
       </c>
       <c r="B410">
-        <v>5936</v>
+        <v>1566</v>
       </c>
       <c r="C410">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5114,43 +5114,43 @@
         <v>38</v>
       </c>
       <c r="B411">
-        <v>7967</v>
+        <v>2282</v>
       </c>
       <c r="C411">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B412">
-        <v>68</v>
+        <v>4534</v>
       </c>
       <c r="C412">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B413">
-        <v>69</v>
+        <v>5936</v>
       </c>
       <c r="C413">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B414">
-        <v>70</v>
+        <v>7967</v>
       </c>
       <c r="C414">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>39</v>
       </c>
       <c r="B415">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C415">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5169,10 +5169,10 @@
         <v>39</v>
       </c>
       <c r="B416">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="C416">
-        <v>20172018</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>39</v>
       </c>
       <c r="B417">
-        <v>1680</v>
+        <v>70</v>
       </c>
       <c r="C417">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>39</v>
       </c>
       <c r="B418">
-        <v>2588</v>
+        <v>71</v>
       </c>
       <c r="C418">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>39</v>
       </c>
       <c r="B419">
-        <v>3940</v>
+        <v>182</v>
       </c>
       <c r="C419">
-        <v>20112012</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>39</v>
       </c>
       <c r="B420">
-        <v>3941</v>
+        <v>1680</v>
       </c>
       <c r="C420">
-        <v>20082009</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>39</v>
       </c>
       <c r="B421">
-        <v>3942</v>
+        <v>2588</v>
       </c>
       <c r="C421">
-        <v>20092010</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>39</v>
       </c>
       <c r="B422">
-        <v>3945</v>
+        <v>3940</v>
       </c>
       <c r="C422">
-        <v>20122013</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>39</v>
       </c>
       <c r="B423">
-        <v>4889</v>
+        <v>3941</v>
       </c>
       <c r="C423">
-        <v>20202021</v>
+        <v>20082009</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>39</v>
       </c>
       <c r="B424">
-        <v>6198</v>
+        <v>3942</v>
       </c>
       <c r="C424">
-        <v>20212022</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5268,43 +5268,43 @@
         <v>39</v>
       </c>
       <c r="B425">
-        <v>7608</v>
+        <v>3945</v>
       </c>
       <c r="C425">
-        <v>20222023</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B426">
-        <v>77</v>
+        <v>4889</v>
       </c>
       <c r="C426">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B427">
-        <v>78</v>
+        <v>6198</v>
       </c>
       <c r="C427">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B428">
-        <v>79</v>
+        <v>7608</v>
       </c>
       <c r="C428">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>40</v>
       </c>
       <c r="B429">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C429">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>40</v>
       </c>
       <c r="B430">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C430">
-        <v>20122013</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>40</v>
       </c>
       <c r="B431">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="C431">
-        <v>20172018</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>40</v>
       </c>
       <c r="B432">
-        <v>1749</v>
+        <v>80</v>
       </c>
       <c r="C432">
-        <v>20182019</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>40</v>
       </c>
       <c r="B433">
-        <v>2642</v>
+        <v>81</v>
       </c>
       <c r="C433">
-        <v>20192020</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>40</v>
       </c>
       <c r="B434">
-        <v>3946</v>
+        <v>183</v>
       </c>
       <c r="C434">
-        <v>20092010</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>40</v>
       </c>
       <c r="B435">
-        <v>3948</v>
+        <v>1749</v>
       </c>
       <c r="C435">
-        <v>20102011</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>40</v>
       </c>
       <c r="B436">
-        <v>3949</v>
+        <v>2642</v>
       </c>
       <c r="C436">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>40</v>
       </c>
       <c r="B437">
-        <v>4972</v>
+        <v>3946</v>
       </c>
       <c r="C437">
-        <v>20202021</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>40</v>
       </c>
       <c r="B438">
-        <v>6205</v>
+        <v>3948</v>
       </c>
       <c r="C438">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5422,43 +5422,43 @@
         <v>40</v>
       </c>
       <c r="B439">
-        <v>7864</v>
+        <v>3949</v>
       </c>
       <c r="C439">
-        <v>20222023</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B440">
-        <v>162</v>
+        <v>4972</v>
       </c>
       <c r="C440">
-        <v>2017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B441">
-        <v>250</v>
+        <v>6205</v>
       </c>
       <c r="C441">
-        <v>2016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B442">
-        <v>251</v>
+        <v>7864</v>
       </c>
       <c r="C442">
-        <v>2015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>41</v>
       </c>
       <c r="B443">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="C443">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>41</v>
       </c>
       <c r="B444">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C444">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>41</v>
       </c>
       <c r="B445">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C445">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>41</v>
       </c>
       <c r="B446">
-        <v>1071</v>
+        <v>252</v>
       </c>
       <c r="C446">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>41</v>
       </c>
       <c r="B447">
-        <v>1864</v>
+        <v>253</v>
       </c>
       <c r="C447">
-        <v>2019</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>41</v>
       </c>
       <c r="B448">
-        <v>3686</v>
+        <v>254</v>
       </c>
       <c r="C448">
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>41</v>
       </c>
       <c r="B449">
-        <v>5434</v>
+        <v>1071</v>
       </c>
       <c r="C449">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>41</v>
       </c>
       <c r="B450">
-        <v>6935</v>
+        <v>1864</v>
       </c>
       <c r="C450">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5554,43 +5554,43 @@
         <v>41</v>
       </c>
       <c r="B451">
-        <v>8810</v>
+        <v>3686</v>
       </c>
       <c r="C451">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B452">
-        <v>130</v>
+        <v>5434</v>
       </c>
       <c r="C452">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B453">
-        <v>131</v>
+        <v>6935</v>
       </c>
       <c r="C453">
-        <v>2015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B454">
-        <v>132</v>
+        <v>8810</v>
       </c>
       <c r="C454">
-        <v>2014</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>42</v>
       </c>
       <c r="B455">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C455">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>42</v>
       </c>
       <c r="B456">
-        <v>1073</v>
+        <v>131</v>
       </c>
       <c r="C456">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>42</v>
       </c>
       <c r="B457">
-        <v>1865</v>
+        <v>132</v>
       </c>
       <c r="C457">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>42</v>
       </c>
       <c r="B458">
-        <v>3684</v>
+        <v>153</v>
       </c>
       <c r="C458">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>42</v>
       </c>
       <c r="B459">
-        <v>5495</v>
+        <v>1073</v>
       </c>
       <c r="C459">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>42</v>
       </c>
       <c r="B460">
-        <v>6936</v>
+        <v>1865</v>
       </c>
       <c r="C460">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5664,43 +5664,43 @@
         <v>42</v>
       </c>
       <c r="B461">
-        <v>8811</v>
+        <v>3684</v>
       </c>
       <c r="C461">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B462">
-        <v>313</v>
+        <v>5495</v>
       </c>
       <c r="C462">
-        <v>20172018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B463">
-        <v>314</v>
+        <v>6936</v>
       </c>
       <c r="C463">
-        <v>20162017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B464">
-        <v>315</v>
+        <v>8811</v>
       </c>
       <c r="C464">
-        <v>20152016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>43</v>
       </c>
       <c r="B465">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C465">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>43</v>
       </c>
       <c r="B466">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C466">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>43</v>
       </c>
       <c r="B467">
-        <v>1583</v>
+        <v>315</v>
       </c>
       <c r="C467">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>43</v>
       </c>
       <c r="B468">
-        <v>2315</v>
+        <v>316</v>
       </c>
       <c r="C468">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>43</v>
       </c>
       <c r="B469">
-        <v>4664</v>
+        <v>317</v>
       </c>
       <c r="C469">
-        <v>20202021</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>43</v>
       </c>
       <c r="B470">
-        <v>6104</v>
+        <v>1583</v>
       </c>
       <c r="C470">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5774,43 +5774,43 @@
         <v>43</v>
       </c>
       <c r="B471">
-        <v>7489</v>
+        <v>2315</v>
       </c>
       <c r="C471">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B472">
-        <v>307</v>
+        <v>4664</v>
       </c>
       <c r="C472">
-        <v>20172018</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B473">
-        <v>308</v>
+        <v>6104</v>
       </c>
       <c r="C473">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B474">
-        <v>309</v>
+        <v>7489</v>
       </c>
       <c r="C474">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>44</v>
       </c>
       <c r="B475">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C475">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>44</v>
       </c>
       <c r="B476">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C476">
-        <v>20132014</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>44</v>
       </c>
       <c r="B477">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C477">
-        <v>20122013</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>44</v>
       </c>
       <c r="B478">
-        <v>1582</v>
+        <v>310</v>
       </c>
       <c r="C478">
-        <v>20182019</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>44</v>
       </c>
       <c r="B479">
-        <v>2270</v>
+        <v>311</v>
       </c>
       <c r="C479">
-        <v>20192020</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>44</v>
       </c>
       <c r="B480">
-        <v>4507</v>
+        <v>312</v>
       </c>
       <c r="C480">
-        <v>20202021</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>44</v>
       </c>
       <c r="B481">
-        <v>6038</v>
+        <v>1582</v>
       </c>
       <c r="C481">
-        <v>20212022</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>44</v>
       </c>
       <c r="B482">
-        <v>7425</v>
+        <v>2270</v>
       </c>
       <c r="C482">
-        <v>20222023</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5906,43 +5906,43 @@
         <v>44</v>
       </c>
       <c r="B483">
-        <v>9525</v>
+        <v>4507</v>
       </c>
       <c r="C483">
-        <v>20232024</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B484">
-        <v>55</v>
+        <v>6038</v>
       </c>
       <c r="C484">
-        <v>20162017</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B485">
-        <v>56</v>
+        <v>7425</v>
       </c>
       <c r="C485">
-        <v>20152016</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B486">
-        <v>57</v>
+        <v>9525</v>
       </c>
       <c r="C486">
-        <v>20142015</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>45</v>
       </c>
       <c r="B487">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="C487">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>45</v>
       </c>
       <c r="B488">
-        <v>1584</v>
+        <v>56</v>
       </c>
       <c r="C488">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>45</v>
       </c>
       <c r="B489">
-        <v>2273</v>
+        <v>57</v>
       </c>
       <c r="C489">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>45</v>
       </c>
       <c r="B490">
-        <v>4228</v>
+        <v>179</v>
       </c>
       <c r="C490">
-        <v>20132014</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>45</v>
       </c>
       <c r="B491">
-        <v>4236</v>
+        <v>1584</v>
       </c>
       <c r="C491">
-        <v>20122013</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>45</v>
       </c>
       <c r="B492">
-        <v>4243</v>
+        <v>2273</v>
       </c>
       <c r="C492">
-        <v>20112012</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>45</v>
       </c>
       <c r="B493">
-        <v>4246</v>
+        <v>4228</v>
       </c>
       <c r="C493">
-        <v>20102011</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>45</v>
       </c>
       <c r="B494">
-        <v>4247</v>
+        <v>4236</v>
       </c>
       <c r="C494">
-        <v>20092010</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>45</v>
       </c>
       <c r="B495">
-        <v>4748</v>
+        <v>4243</v>
       </c>
       <c r="C495">
-        <v>20202021</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>45</v>
       </c>
       <c r="B496">
-        <v>5950</v>
+        <v>4246</v>
       </c>
       <c r="C496">
-        <v>20212022</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6060,54 +6060,54 @@
         <v>45</v>
       </c>
       <c r="B497">
-        <v>7484</v>
+        <v>4247</v>
       </c>
       <c r="C497">
-        <v>20222023</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B498">
-        <v>51</v>
+        <v>4748</v>
       </c>
       <c r="C498">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B499">
-        <v>52</v>
+        <v>5950</v>
       </c>
       <c r="C499">
-        <v>20152016</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B500">
-        <v>53</v>
+        <v>7484</v>
       </c>
       <c r="C500">
-        <v>20142015</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B501">
-        <v>54</v>
+        <v>9654</v>
       </c>
       <c r="C501">
-        <v>20132014</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>46</v>
       </c>
       <c r="B502">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C502">
-        <v>20172018</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>46</v>
       </c>
       <c r="B503">
-        <v>1585</v>
+        <v>52</v>
       </c>
       <c r="C503">
-        <v>20182019</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>46</v>
       </c>
       <c r="B504">
-        <v>2272</v>
+        <v>53</v>
       </c>
       <c r="C504">
-        <v>20192020</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>46</v>
       </c>
       <c r="B505">
-        <v>4226</v>
+        <v>54</v>
       </c>
       <c r="C505">
-        <v>20122013</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>46</v>
       </c>
       <c r="B506">
-        <v>4234</v>
+        <v>178</v>
       </c>
       <c r="C506">
-        <v>20112012</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>46</v>
       </c>
       <c r="B507">
-        <v>4746</v>
+        <v>1585</v>
       </c>
       <c r="C507">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>46</v>
       </c>
       <c r="B508">
-        <v>5951</v>
+        <v>2272</v>
       </c>
       <c r="C508">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6192,65 +6192,65 @@
         <v>46</v>
       </c>
       <c r="B509">
-        <v>7482</v>
+        <v>4226</v>
       </c>
       <c r="C509">
-        <v>20222023</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B510">
-        <v>1366</v>
+        <v>4234</v>
       </c>
       <c r="C510">
-        <v>20172018</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B511">
-        <v>1367</v>
+        <v>4746</v>
       </c>
       <c r="C511">
-        <v>20162017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B512">
-        <v>1586</v>
+        <v>5951</v>
       </c>
       <c r="C512">
-        <v>20182019</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B513">
-        <v>2275</v>
+        <v>7482</v>
       </c>
       <c r="C513">
-        <v>20192020</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B514">
-        <v>4749</v>
+        <v>9653</v>
       </c>
       <c r="C514">
-        <v>20202021</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>47</v>
       </c>
       <c r="B515">
-        <v>6098</v>
+        <v>1366</v>
       </c>
       <c r="C515">
-        <v>20212022</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6269,65 +6269,65 @@
         <v>47</v>
       </c>
       <c r="B516">
-        <v>7702</v>
+        <v>1367</v>
       </c>
       <c r="C516">
-        <v>20222023</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B517">
-        <v>44</v>
+        <v>1586</v>
       </c>
       <c r="C517">
-        <v>2016</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B518">
-        <v>45</v>
+        <v>2275</v>
       </c>
       <c r="C518">
-        <v>2015</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B519">
-        <v>46</v>
+        <v>4749</v>
       </c>
       <c r="C519">
-        <v>2017</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B520">
-        <v>993</v>
+        <v>6098</v>
       </c>
       <c r="C520">
-        <v>2018</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B521">
-        <v>1839</v>
+        <v>7702</v>
       </c>
       <c r="C521">
-        <v>2019</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>48</v>
       </c>
       <c r="B522">
-        <v>3695</v>
+        <v>44</v>
       </c>
       <c r="C522">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>48</v>
       </c>
       <c r="B523">
-        <v>4224</v>
+        <v>45</v>
       </c>
       <c r="C523">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>48</v>
       </c>
       <c r="B524">
-        <v>4231</v>
+        <v>46</v>
       </c>
       <c r="C524">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>48</v>
       </c>
       <c r="B525">
-        <v>4237</v>
+        <v>993</v>
       </c>
       <c r="C525">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>48</v>
       </c>
       <c r="B526">
-        <v>4242</v>
+        <v>1839</v>
       </c>
       <c r="C526">
-        <v>2011</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>48</v>
       </c>
       <c r="B527">
-        <v>4244</v>
+        <v>3695</v>
       </c>
       <c r="C527">
-        <v>2010</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>48</v>
       </c>
       <c r="B528">
-        <v>5496</v>
+        <v>4224</v>
       </c>
       <c r="C528">
-        <v>2021</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>48</v>
       </c>
       <c r="B529">
-        <v>7048</v>
+        <v>4231</v>
       </c>
       <c r="C529">
-        <v>2022</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6423,65 +6423,65 @@
         <v>48</v>
       </c>
       <c r="B530">
-        <v>8739</v>
+        <v>4237</v>
       </c>
       <c r="C530">
-        <v>2023</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B531">
-        <v>1099</v>
+        <v>4242</v>
       </c>
       <c r="C531">
-        <v>2018</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B532">
-        <v>1100</v>
+        <v>4244</v>
       </c>
       <c r="C532">
-        <v>2017</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B533">
-        <v>1101</v>
+        <v>5496</v>
       </c>
       <c r="C533">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B534">
-        <v>1104</v>
+        <v>7048</v>
       </c>
       <c r="C534">
-        <v>2015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B535">
-        <v>1105</v>
+        <v>8739</v>
       </c>
       <c r="C535">
-        <v>2014</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>49</v>
       </c>
       <c r="B536">
-        <v>1843</v>
+        <v>1099</v>
       </c>
       <c r="C536">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>49</v>
       </c>
       <c r="B537">
-        <v>3643</v>
+        <v>1100</v>
       </c>
       <c r="C537">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>49</v>
       </c>
       <c r="B538">
-        <v>5503</v>
+        <v>1101</v>
       </c>
       <c r="C538">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>49</v>
       </c>
       <c r="B539">
-        <v>6960</v>
+        <v>1104</v>
       </c>
       <c r="C539">
-        <v>2022</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6533,65 +6533,65 @@
         <v>49</v>
       </c>
       <c r="B540">
-        <v>8783</v>
+        <v>1105</v>
       </c>
       <c r="C540">
-        <v>2023</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B541">
-        <v>612</v>
+        <v>1843</v>
       </c>
       <c r="C541">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B542">
-        <v>613</v>
+        <v>3643</v>
       </c>
       <c r="C542">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B543">
-        <v>614</v>
+        <v>5503</v>
       </c>
       <c r="C543">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B544">
-        <v>615</v>
+        <v>6960</v>
       </c>
       <c r="C544">
-        <v>2014</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B545">
-        <v>616</v>
+        <v>8783</v>
       </c>
       <c r="C545">
-        <v>2013</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>50</v>
       </c>
       <c r="B546">
-        <v>1125</v>
+        <v>612</v>
       </c>
       <c r="C546">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>50</v>
       </c>
       <c r="B547">
-        <v>1881</v>
+        <v>613</v>
       </c>
       <c r="C547">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>50</v>
       </c>
       <c r="B548">
-        <v>3702</v>
+        <v>614</v>
       </c>
       <c r="C548">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>50</v>
       </c>
       <c r="B549">
-        <v>5627</v>
+        <v>615</v>
       </c>
       <c r="C549">
-        <v>2021</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>50</v>
       </c>
       <c r="B550">
-        <v>6966</v>
+        <v>616</v>
       </c>
       <c r="C550">
-        <v>2022</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6654,65 +6654,65 @@
         <v>50</v>
       </c>
       <c r="B551">
-        <v>8837</v>
+        <v>1125</v>
       </c>
       <c r="C551">
-        <v>2023</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B552">
-        <v>255</v>
+        <v>1881</v>
       </c>
       <c r="C552">
-        <v>20172018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B553">
-        <v>256</v>
+        <v>3702</v>
       </c>
       <c r="C553">
-        <v>20152016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B554">
-        <v>257</v>
+        <v>5627</v>
       </c>
       <c r="C554">
-        <v>20132014</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B555">
-        <v>278</v>
+        <v>6966</v>
       </c>
       <c r="C555">
-        <v>20162017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B556">
-        <v>279</v>
+        <v>8837</v>
       </c>
       <c r="C556">
-        <v>20142015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>51</v>
       </c>
       <c r="B557">
-        <v>1589</v>
+        <v>255</v>
       </c>
       <c r="C557">
-        <v>20182019</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>51</v>
       </c>
       <c r="B558">
-        <v>2328</v>
+        <v>256</v>
       </c>
       <c r="C558">
-        <v>20192020</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>51</v>
       </c>
       <c r="B559">
-        <v>3972</v>
+        <v>257</v>
       </c>
       <c r="C559">
-        <v>20092010</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>51</v>
       </c>
       <c r="B560">
-        <v>3973</v>
+        <v>278</v>
       </c>
       <c r="C560">
-        <v>20122013</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>51</v>
       </c>
       <c r="B561">
-        <v>3974</v>
+        <v>279</v>
       </c>
       <c r="C561">
-        <v>20102011</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>51</v>
       </c>
       <c r="B562">
-        <v>3975</v>
+        <v>1589</v>
       </c>
       <c r="C562">
-        <v>20112012</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>51</v>
       </c>
       <c r="B563">
-        <v>4760</v>
+        <v>2328</v>
       </c>
       <c r="C563">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>51</v>
       </c>
       <c r="B564">
-        <v>5948</v>
+        <v>3972</v>
       </c>
       <c r="C564">
-        <v>20212022</v>
+        <v>20092010</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>51</v>
       </c>
       <c r="B565">
-        <v>7428</v>
+        <v>3973</v>
       </c>
       <c r="C565">
-        <v>20222023</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6819,65 +6819,65 @@
         <v>51</v>
       </c>
       <c r="B566">
-        <v>9553</v>
+        <v>3974</v>
       </c>
       <c r="C566">
-        <v>20232024</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="A567" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B567">
-        <v>13</v>
+        <v>3975</v>
       </c>
       <c r="C567">
-        <v>20162017</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B568">
-        <v>14</v>
+        <v>4760</v>
       </c>
       <c r="C568">
-        <v>20152016</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B569">
-        <v>17</v>
+        <v>5948</v>
       </c>
       <c r="C569">
-        <v>20142015</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B570">
-        <v>18</v>
+        <v>7428</v>
       </c>
       <c r="C570">
-        <v>20132014</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B571">
-        <v>173</v>
+        <v>9553</v>
       </c>
       <c r="C571">
-        <v>20172018</v>
+        <v>20232024</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>52</v>
       </c>
       <c r="B572">
-        <v>1593</v>
+        <v>13</v>
       </c>
       <c r="C572">
-        <v>20182019</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>52</v>
       </c>
       <c r="B573">
-        <v>2321</v>
+        <v>14</v>
       </c>
       <c r="C573">
-        <v>20192020</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>52</v>
       </c>
       <c r="B574">
-        <v>4225</v>
+        <v>17</v>
       </c>
       <c r="C574">
-        <v>20122013</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>52</v>
       </c>
       <c r="B575">
-        <v>4232</v>
+        <v>18</v>
       </c>
       <c r="C575">
-        <v>20112012</v>
+        <v>20132014</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>52</v>
       </c>
       <c r="B576">
-        <v>4238</v>
+        <v>173</v>
       </c>
       <c r="C576">
-        <v>20102011</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>52</v>
       </c>
       <c r="B577">
-        <v>4885</v>
+        <v>1593</v>
       </c>
       <c r="C577">
-        <v>20202021</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>52</v>
       </c>
       <c r="B578">
-        <v>6117</v>
+        <v>2321</v>
       </c>
       <c r="C578">
-        <v>20212022</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6962,65 +6962,65 @@
         <v>52</v>
       </c>
       <c r="B579">
-        <v>7731</v>
+        <v>4225</v>
       </c>
       <c r="C579">
-        <v>20222023</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B580">
-        <v>174</v>
+        <v>4232</v>
       </c>
       <c r="C580">
-        <v>20172018</v>
+        <v>20112012</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B581">
-        <v>965</v>
+        <v>4238</v>
       </c>
       <c r="C581">
-        <v>20162017</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B582">
-        <v>966</v>
+        <v>4885</v>
       </c>
       <c r="C582">
-        <v>20152016</v>
+        <v>20202021</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B583">
-        <v>1594</v>
+        <v>6117</v>
       </c>
       <c r="C583">
-        <v>20182019</v>
+        <v>20212022</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B584">
-        <v>2320</v>
+        <v>7731</v>
       </c>
       <c r="C584">
-        <v>20192020</v>
+        <v>20222023</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>53</v>
       </c>
       <c r="B585">
-        <v>4284</v>
+        <v>174</v>
       </c>
       <c r="C585">
-        <v>20142015</v>
+        <v>20172018</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>53</v>
       </c>
       <c r="B586">
-        <v>4291</v>
+        <v>965</v>
       </c>
       <c r="C586">
-        <v>20122013</v>
+        <v>20162017</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>53</v>
       </c>
       <c r="B587">
-        <v>4309</v>
+        <v>966</v>
       </c>
       <c r="C587">
-        <v>20102011</v>
+        <v>20152016</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>53</v>
       </c>
       <c r="B588">
-        <v>4322</v>
+        <v>1594</v>
       </c>
       <c r="C588">
-        <v>20092010</v>
+        <v>20182019</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>53</v>
       </c>
       <c r="B589">
-        <v>4886</v>
+        <v>2320</v>
       </c>
       <c r="C589">
-        <v>20202021</v>
+        <v>20192020</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>53</v>
       </c>
       <c r="B590">
-        <v>6116</v>
+        <v>4284</v>
       </c>
       <c r="C590">
-        <v>20212022</v>
+        <v>20142015</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7094,65 +7094,65 @@
         <v>53</v>
       </c>
       <c r="B591">
-        <v>7732</v>
+        <v>4291</v>
       </c>
       <c r="C591">
-        <v>20222023</v>
+        <v>20122013</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B592">
-        <v>449</v>
+        <v>4309</v>
       </c>
       <c r="C592">
-        <v>2017</v>
+        <v>20102011</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593" t="s">
-        <v>54</v